--- a/excel-files/fg.xlsx
+++ b/excel-files/fg.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13095" windowHeight="3585"/>
   </bookViews>
   <sheets>
     <sheet name="lista_de_precios" sheetId="1" r:id="rId1"/>
@@ -19933,13 +19933,13 @@
         <v>64</v>
       </c>
       <c r="D40" s="9">
-        <v>9025</v>
+        <v>9386</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F40" s="3">
-        <v>44958</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -19953,13 +19953,13 @@
         <v>64</v>
       </c>
       <c r="D41" s="9">
-        <v>13205</v>
+        <v>13737</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F41" s="3">
-        <v>44958</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -19973,13 +19973,13 @@
         <v>64</v>
       </c>
       <c r="D42" s="9">
-        <v>2283.8000000000002</v>
+        <v>2375</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F42" s="3">
-        <v>44958</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -19993,13 +19993,13 @@
         <v>64</v>
       </c>
       <c r="D43" s="9">
-        <v>10108</v>
+        <v>10526</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F43" s="3">
-        <v>44958</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -20013,13 +20013,13 @@
         <v>64</v>
       </c>
       <c r="D44" s="9">
-        <v>14782</v>
+        <v>15390</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F44" s="3">
-        <v>44958</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -20033,13 +20033,13 @@
         <v>64</v>
       </c>
       <c r="D45" s="9">
-        <v>2682.8</v>
+        <v>2793</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F45" s="3">
-        <v>44958</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -20053,13 +20053,13 @@
         <v>64</v>
       </c>
       <c r="D46" s="9">
-        <v>1905.7</v>
+        <v>1995</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F46" s="3">
-        <v>44958</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -20073,13 +20073,13 @@
         <v>64</v>
       </c>
       <c r="D47" s="9">
-        <v>1183.7</v>
+        <v>1235</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F47" s="3">
-        <v>44958</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -20093,13 +20093,13 @@
         <v>64</v>
       </c>
       <c r="D48" s="9">
-        <v>1527.6</v>
+        <v>1596</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F48" s="3">
-        <v>44958</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -20113,13 +20113,13 @@
         <v>64</v>
       </c>
       <c r="D49" s="9">
-        <v>1537.1</v>
+        <v>1615</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F49" s="3">
-        <v>44958</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -28069,13 +28069,13 @@
         <v>64</v>
       </c>
       <c r="D447" s="9">
-        <v>4903.2700000000004</v>
+        <v>4914</v>
       </c>
       <c r="E447" s="2" t="s">
         <v>918</v>
       </c>
       <c r="F447" s="3">
-        <v>45001</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.2">
@@ -28089,13 +28089,13 @@
         <v>64</v>
       </c>
       <c r="D448" s="9">
-        <v>6315.6</v>
+        <v>6329.4</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>918</v>
       </c>
       <c r="F448" s="3">
-        <v>45001</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.2">
@@ -28109,13 +28109,13 @@
         <v>64</v>
       </c>
       <c r="D449" s="9">
-        <v>6863.56</v>
+        <v>6896.4</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>918</v>
       </c>
       <c r="F449" s="3">
-        <v>45001</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.2">
@@ -28129,13 +28129,13 @@
         <v>64</v>
       </c>
       <c r="D450" s="9">
-        <v>8008.71</v>
+        <v>8026.2</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>918</v>
       </c>
       <c r="F450" s="3">
-        <v>45001</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.2">
@@ -31569,13 +31569,13 @@
         <v>8</v>
       </c>
       <c r="D622" s="9">
-        <v>29.83</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="E622" s="2" t="s">
         <v>1271</v>
       </c>
       <c r="F622" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.2">
@@ -31589,13 +31589,13 @@
         <v>8</v>
       </c>
       <c r="D623" s="9">
-        <v>25.46</v>
+        <v>27.93</v>
       </c>
       <c r="E623" s="2" t="s">
         <v>1271</v>
       </c>
       <c r="F623" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.2">
@@ -31949,13 +31949,13 @@
         <v>64</v>
       </c>
       <c r="D641" s="9">
-        <v>1619.75</v>
+        <v>2071</v>
       </c>
       <c r="E641" s="2" t="s">
         <v>1313</v>
       </c>
       <c r="F641" s="3">
-        <v>44896</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.2">
@@ -32089,13 +32089,13 @@
         <v>64</v>
       </c>
       <c r="D648" s="9">
-        <v>1766.05</v>
+        <v>2202.1</v>
       </c>
       <c r="E648" s="2" t="s">
         <v>1313</v>
       </c>
       <c r="F648" s="3">
-        <v>44896</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.2">
@@ -32109,13 +32109,13 @@
         <v>64</v>
       </c>
       <c r="D649" s="9">
-        <v>1878.91</v>
+        <v>2365.5</v>
       </c>
       <c r="E649" s="2" t="s">
         <v>1313</v>
       </c>
       <c r="F649" s="3">
-        <v>44896</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.2">
@@ -32187,13 +32187,13 @@
         <v>64</v>
       </c>
       <c r="D653" s="9">
-        <v>1933.25</v>
+        <v>2413</v>
       </c>
       <c r="E653" s="2" t="s">
         <v>1313</v>
       </c>
       <c r="F653" s="3">
-        <v>44896</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.2">
@@ -32687,13 +32687,13 @@
         <v>32</v>
       </c>
       <c r="D678" s="9">
-        <v>217.55</v>
+        <v>250.23</v>
       </c>
       <c r="E678" s="2" t="s">
         <v>1390</v>
       </c>
       <c r="F678" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.2">
@@ -32707,13 +32707,13 @@
         <v>8</v>
       </c>
       <c r="D679" s="9">
-        <v>350.55</v>
+        <v>403.37</v>
       </c>
       <c r="E679" s="2" t="s">
         <v>1390</v>
       </c>
       <c r="F679" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.2">
@@ -32727,13 +32727,13 @@
         <v>8</v>
       </c>
       <c r="D680" s="9">
-        <v>609.24</v>
+        <v>690.12</v>
       </c>
       <c r="E680" s="2" t="s">
         <v>1390</v>
       </c>
       <c r="F680" s="3">
-        <v>44930</v>
+        <v>45008</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.2">
@@ -41625,13 +41625,13 @@
         <v>982</v>
       </c>
       <c r="D1125" s="9">
-        <v>738.08</v>
+        <v>1004</v>
       </c>
       <c r="E1125" s="2" t="s">
         <v>2323</v>
       </c>
       <c r="F1125" s="3">
-        <v>44763</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1126" spans="1:6" x14ac:dyDescent="0.2">
@@ -42845,13 +42845,13 @@
         <v>2461</v>
       </c>
       <c r="D1186" s="9">
-        <v>187.14</v>
+        <v>205.85</v>
       </c>
       <c r="E1186" s="2" t="s">
         <v>2458</v>
       </c>
       <c r="F1186" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="1187" spans="1:6" x14ac:dyDescent="0.2">
@@ -42865,13 +42865,13 @@
         <v>2464</v>
       </c>
       <c r="D1187" s="9">
-        <v>216.93</v>
+        <v>239.63</v>
       </c>
       <c r="E1187" s="2" t="s">
         <v>2458</v>
       </c>
       <c r="F1187" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="1188" spans="1:6" x14ac:dyDescent="0.2">
@@ -42945,13 +42945,13 @@
         <v>935</v>
       </c>
       <c r="D1191" s="9">
-        <v>216.93</v>
+        <v>238.63</v>
       </c>
       <c r="E1191" s="2" t="s">
         <v>2458</v>
       </c>
       <c r="F1191" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="1192" spans="1:6" x14ac:dyDescent="0.2">
@@ -43105,13 +43105,13 @@
         <v>8</v>
       </c>
       <c r="D1199" s="9">
-        <v>222.63</v>
+        <v>230.08</v>
       </c>
       <c r="E1199" s="2" t="s">
         <v>2487</v>
       </c>
       <c r="F1199" s="3">
-        <v>44987</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="1200" spans="1:6" x14ac:dyDescent="0.2">
@@ -43205,13 +43205,13 @@
         <v>8</v>
       </c>
       <c r="D1204" s="9">
-        <v>222.63</v>
+        <v>230.08</v>
       </c>
       <c r="E1204" s="2" t="s">
         <v>2487</v>
       </c>
       <c r="F1204" s="3">
-        <v>44987</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="1205" spans="1:6" x14ac:dyDescent="0.2">
@@ -43245,13 +43245,13 @@
         <v>32</v>
       </c>
       <c r="D1206" s="9">
-        <v>454.32</v>
+        <v>483.55</v>
       </c>
       <c r="E1206" s="2" t="s">
         <v>2487</v>
       </c>
       <c r="F1206" s="3">
-        <v>44994</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1207" spans="1:6" x14ac:dyDescent="0.2">
@@ -43425,13 +43425,13 @@
         <v>64</v>
       </c>
       <c r="D1215" s="9">
-        <v>541.12</v>
+        <v>576.08000000000004</v>
       </c>
       <c r="E1215" s="2" t="s">
         <v>2487</v>
       </c>
       <c r="F1215" s="3">
-        <v>44994</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1216" spans="1:6" x14ac:dyDescent="0.2">
@@ -43905,13 +43905,13 @@
         <v>935</v>
       </c>
       <c r="D1239" s="9">
-        <v>207.65</v>
+        <v>221.64</v>
       </c>
       <c r="E1239" s="2" t="s">
         <v>2575</v>
       </c>
       <c r="F1239" s="3">
-        <v>44957</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="1240" spans="1:6" x14ac:dyDescent="0.2">
@@ -43985,13 +43985,13 @@
         <v>8</v>
       </c>
       <c r="D1243" s="9">
-        <v>269.24</v>
+        <v>284.68</v>
       </c>
       <c r="E1243" s="2" t="s">
         <v>2575</v>
       </c>
       <c r="F1243" s="3">
-        <v>44957</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="1244" spans="1:6" x14ac:dyDescent="0.2">
@@ -44005,13 +44005,13 @@
         <v>8</v>
       </c>
       <c r="D1244" s="9">
-        <v>188.93</v>
+        <v>199.79</v>
       </c>
       <c r="E1244" s="2" t="s">
         <v>2575</v>
       </c>
       <c r="F1244" s="3">
-        <v>44957</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="1245" spans="1:6" x14ac:dyDescent="0.2">
@@ -44665,13 +44665,13 @@
         <v>8</v>
       </c>
       <c r="D1277" s="9">
-        <v>62.13</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="E1277" s="2" t="s">
         <v>2655</v>
       </c>
       <c r="F1277" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1278" spans="1:6" x14ac:dyDescent="0.2">
@@ -44685,13 +44685,13 @@
         <v>8</v>
       </c>
       <c r="D1278" s="9">
-        <v>62.13</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="E1278" s="2" t="s">
         <v>2655</v>
       </c>
       <c r="F1278" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1279" spans="1:6" x14ac:dyDescent="0.2">
@@ -45685,13 +45685,13 @@
         <v>64</v>
       </c>
       <c r="D1328" s="9">
-        <v>2622.95</v>
+        <v>2869</v>
       </c>
       <c r="E1328" s="2" t="s">
         <v>2753</v>
       </c>
       <c r="F1328" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1329" spans="1:6" x14ac:dyDescent="0.2">
@@ -45725,13 +45725,13 @@
         <v>64</v>
       </c>
       <c r="D1330" s="9">
-        <v>4848.8</v>
+        <v>5339</v>
       </c>
       <c r="E1330" s="2" t="s">
         <v>2753</v>
       </c>
       <c r="F1330" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1331" spans="1:6" x14ac:dyDescent="0.2">
@@ -54565,13 +54565,13 @@
         <v>64</v>
       </c>
       <c r="D1772" s="9">
-        <v>340.99</v>
+        <v>350.73</v>
       </c>
       <c r="E1772" s="2" t="s">
         <v>3703</v>
       </c>
       <c r="F1772" s="3">
-        <v>44958</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="1773" spans="1:6" x14ac:dyDescent="0.2">
@@ -57445,13 +57445,13 @@
         <v>32</v>
       </c>
       <c r="D1916" s="9">
-        <v>345.14</v>
+        <v>379.66</v>
       </c>
       <c r="E1916" s="2" t="s">
         <v>4010</v>
       </c>
       <c r="F1916" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1917" spans="1:6" x14ac:dyDescent="0.2">
@@ -57465,13 +57465,13 @@
         <v>8</v>
       </c>
       <c r="D1917" s="9">
-        <v>308.92</v>
+        <v>339.82</v>
       </c>
       <c r="E1917" s="2" t="s">
         <v>4010</v>
       </c>
       <c r="F1917" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1918" spans="1:6" x14ac:dyDescent="0.2">
@@ -57485,13 +57485,13 @@
         <v>32</v>
       </c>
       <c r="D1918" s="9">
-        <v>577.36</v>
+        <v>635.1</v>
       </c>
       <c r="E1918" s="2" t="s">
         <v>4010</v>
       </c>
       <c r="F1918" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1919" spans="1:6" x14ac:dyDescent="0.2">
@@ -57505,13 +57505,13 @@
         <v>8</v>
       </c>
       <c r="D1919" s="9">
-        <v>332.61</v>
+        <v>365.88</v>
       </c>
       <c r="E1919" s="2" t="s">
         <v>4010</v>
       </c>
       <c r="F1919" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1920" spans="1:6" x14ac:dyDescent="0.2">
@@ -57525,13 +57525,13 @@
         <v>32</v>
       </c>
       <c r="D1920" s="9">
-        <v>314.38</v>
+        <v>345.82</v>
       </c>
       <c r="E1920" s="2" t="s">
         <v>4010</v>
       </c>
       <c r="F1920" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1921" spans="1:6" x14ac:dyDescent="0.2">
@@ -57545,13 +57545,13 @@
         <v>32</v>
       </c>
       <c r="D1921" s="9">
-        <v>308.92</v>
+        <v>339.82</v>
       </c>
       <c r="E1921" s="2" t="s">
         <v>4010</v>
       </c>
       <c r="F1921" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1922" spans="1:6" x14ac:dyDescent="0.2">
@@ -57565,13 +57565,13 @@
         <v>844</v>
       </c>
       <c r="D1922" s="9">
-        <v>590.77</v>
+        <v>649.85</v>
       </c>
       <c r="E1922" s="2" t="s">
         <v>4010</v>
       </c>
       <c r="F1922" s="3">
-        <v>44880</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1923" spans="1:6" x14ac:dyDescent="0.2">
@@ -57585,13 +57585,13 @@
         <v>844</v>
       </c>
       <c r="D1923" s="9">
-        <v>536.79999999999995</v>
+        <v>590.48</v>
       </c>
       <c r="E1923" s="2" t="s">
         <v>4010</v>
       </c>
       <c r="F1923" s="3">
-        <v>44880</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1924" spans="1:6" x14ac:dyDescent="0.2">
@@ -57605,13 +57605,13 @@
         <v>844</v>
       </c>
       <c r="D1924" s="9">
-        <v>1512.6</v>
+        <v>1663.86</v>
       </c>
       <c r="E1924" s="2" t="s">
         <v>4010</v>
       </c>
       <c r="F1924" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1925" spans="1:6" x14ac:dyDescent="0.2">
@@ -57625,13 +57625,13 @@
         <v>32</v>
       </c>
       <c r="D1925" s="9">
-        <v>587.26</v>
+        <v>645.99</v>
       </c>
       <c r="E1925" s="2" t="s">
         <v>4010</v>
       </c>
       <c r="F1925" s="3">
-        <v>44958</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1926" spans="1:6" x14ac:dyDescent="0.2">
@@ -57705,13 +57705,13 @@
         <v>8</v>
       </c>
       <c r="D1929" s="9">
-        <v>341.97</v>
+        <v>376.17</v>
       </c>
       <c r="E1929" s="2" t="s">
         <v>4031</v>
       </c>
       <c r="F1929" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1930" spans="1:6" x14ac:dyDescent="0.2">
@@ -57725,13 +57725,13 @@
         <v>8</v>
       </c>
       <c r="D1930" s="9">
-        <v>315.11</v>
+        <v>346.63</v>
       </c>
       <c r="E1930" s="2" t="s">
         <v>4031</v>
       </c>
       <c r="F1930" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1931" spans="1:6" x14ac:dyDescent="0.2">
@@ -57745,13 +57745,13 @@
         <v>32</v>
       </c>
       <c r="D1931" s="9">
-        <v>309.35000000000002</v>
+        <v>340.29</v>
       </c>
       <c r="E1931" s="2" t="s">
         <v>4031</v>
       </c>
       <c r="F1931" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1932" spans="1:6" x14ac:dyDescent="0.2">
@@ -57825,13 +57825,13 @@
         <v>8</v>
       </c>
       <c r="D1935" s="9">
-        <v>315.11</v>
+        <v>346.63</v>
       </c>
       <c r="E1935" s="2" t="s">
         <v>4031</v>
       </c>
       <c r="F1935" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1936" spans="1:6" x14ac:dyDescent="0.2">
@@ -57845,13 +57845,13 @@
         <v>8</v>
       </c>
       <c r="D1936" s="9">
-        <v>321.33999999999997</v>
+        <v>353.48</v>
       </c>
       <c r="E1936" s="2" t="s">
         <v>4031</v>
       </c>
       <c r="F1936" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1937" spans="1:6" x14ac:dyDescent="0.2">
@@ -57865,13 +57865,13 @@
         <v>32</v>
       </c>
       <c r="D1937" s="9">
-        <v>435.1</v>
+        <v>478.61</v>
       </c>
       <c r="E1937" s="2" t="s">
         <v>4031</v>
       </c>
       <c r="F1937" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1938" spans="1:6" x14ac:dyDescent="0.2">
@@ -57925,13 +57925,13 @@
         <v>8</v>
       </c>
       <c r="D1940" s="9">
-        <v>268.82</v>
+        <v>295.70999999999998</v>
       </c>
       <c r="E1940" s="2" t="s">
         <v>4031</v>
       </c>
       <c r="F1940" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="1941" spans="1:6" x14ac:dyDescent="0.2">
@@ -60265,13 +60265,13 @@
         <v>8</v>
       </c>
       <c r="D2057" s="9">
-        <v>102.86</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="E2057" s="2" t="s">
         <v>4309</v>
       </c>
       <c r="F2057" s="3">
-        <v>44763</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="2058" spans="1:6" x14ac:dyDescent="0.2">
@@ -60985,13 +60985,13 @@
         <v>64</v>
       </c>
       <c r="D2093" s="9">
-        <v>8436</v>
+        <v>8863.5</v>
       </c>
       <c r="E2093" s="2" t="s">
         <v>4384</v>
       </c>
       <c r="F2093" s="3">
-        <v>44986</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2094" spans="1:6" x14ac:dyDescent="0.2">
@@ -61005,13 +61005,13 @@
         <v>64</v>
       </c>
       <c r="D2094" s="9">
-        <v>8968</v>
+        <v>9424</v>
       </c>
       <c r="E2094" s="2" t="s">
         <v>4384</v>
       </c>
       <c r="F2094" s="3">
-        <v>44986</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2095" spans="1:6" x14ac:dyDescent="0.2">
@@ -62065,13 +62065,13 @@
         <v>976</v>
       </c>
       <c r="D2147" s="9">
-        <v>27.73</v>
+        <v>30.5</v>
       </c>
       <c r="E2147" s="2" t="s">
         <v>4502</v>
       </c>
       <c r="F2147" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2148" spans="1:6" x14ac:dyDescent="0.2">
@@ -62085,13 +62085,13 @@
         <v>976</v>
       </c>
       <c r="D2148" s="9">
-        <v>33.270000000000003</v>
+        <v>36.61</v>
       </c>
       <c r="E2148" s="2" t="s">
         <v>4502</v>
       </c>
       <c r="F2148" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2149" spans="1:6" x14ac:dyDescent="0.2">
@@ -62105,13 +62105,13 @@
         <v>976</v>
       </c>
       <c r="D2149" s="9">
-        <v>49.92</v>
+        <v>54.92</v>
       </c>
       <c r="E2149" s="2" t="s">
         <v>4502</v>
       </c>
       <c r="F2149" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2150" spans="1:6" x14ac:dyDescent="0.2">
@@ -62125,13 +62125,13 @@
         <v>976</v>
       </c>
       <c r="D2150" s="9">
-        <v>61.02</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="E2150" s="2" t="s">
         <v>4502</v>
       </c>
       <c r="F2150" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2151" spans="1:6" x14ac:dyDescent="0.2">
@@ -62145,13 +62145,13 @@
         <v>976</v>
       </c>
       <c r="D2151" s="9">
-        <v>63.79</v>
+        <v>70.17</v>
       </c>
       <c r="E2151" s="2" t="s">
         <v>4502</v>
       </c>
       <c r="F2151" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2152" spans="1:6" x14ac:dyDescent="0.2">
@@ -62165,13 +62165,13 @@
         <v>976</v>
       </c>
       <c r="D2152" s="9">
-        <v>69.33</v>
+        <v>76.27</v>
       </c>
       <c r="E2152" s="2" t="s">
         <v>4502</v>
       </c>
       <c r="F2152" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2153" spans="1:6" x14ac:dyDescent="0.2">
@@ -62185,13 +62185,13 @@
         <v>935</v>
       </c>
       <c r="D2153" s="9">
-        <v>61.02</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="E2153" s="2" t="s">
         <v>4502</v>
       </c>
       <c r="F2153" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2154" spans="1:6" x14ac:dyDescent="0.2">
@@ -62205,13 +62205,13 @@
         <v>935</v>
       </c>
       <c r="D2154" s="9">
-        <v>61.02</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="E2154" s="2" t="s">
         <v>4502</v>
       </c>
       <c r="F2154" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2155" spans="1:6" x14ac:dyDescent="0.2">
@@ -64285,13 +64285,13 @@
         <v>844</v>
       </c>
       <c r="D2258" s="9">
-        <v>254.22</v>
+        <v>353.97</v>
       </c>
       <c r="E2258" s="2" t="s">
         <v>4735</v>
       </c>
       <c r="F2258" s="3">
-        <v>44820</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="2259" spans="1:6" x14ac:dyDescent="0.2">
@@ -64465,13 +64465,13 @@
         <v>8</v>
       </c>
       <c r="D2267" s="9">
-        <v>57.76</v>
+        <v>66.31</v>
       </c>
       <c r="E2267" s="2" t="s">
         <v>4735</v>
       </c>
       <c r="F2267" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="2268" spans="1:6" x14ac:dyDescent="0.2">
@@ -64645,13 +64645,13 @@
         <v>976</v>
       </c>
       <c r="D2276" s="9">
-        <v>22.23</v>
+        <v>25.65</v>
       </c>
       <c r="E2276" s="2" t="s">
         <v>4766</v>
       </c>
       <c r="F2276" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="2277" spans="1:6" x14ac:dyDescent="0.2">
@@ -64665,13 +64665,13 @@
         <v>976</v>
       </c>
       <c r="D2277" s="9">
-        <v>22.23</v>
+        <v>25.65</v>
       </c>
       <c r="E2277" s="2" t="s">
         <v>4766</v>
       </c>
       <c r="F2277" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="2278" spans="1:6" x14ac:dyDescent="0.2">
@@ -64865,13 +64865,13 @@
         <v>982</v>
       </c>
       <c r="D2287" s="9">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="E2287" s="2" t="s">
         <v>4766</v>
       </c>
       <c r="F2287" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="2288" spans="1:6" x14ac:dyDescent="0.2">
@@ -65085,13 +65085,13 @@
         <v>935</v>
       </c>
       <c r="D2298" s="9">
-        <v>14.22</v>
+        <v>15.65</v>
       </c>
       <c r="E2298" s="2" t="s">
         <v>4766</v>
       </c>
       <c r="F2298" s="3">
-        <v>44895</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="2299" spans="1:6" x14ac:dyDescent="0.2">
@@ -65325,13 +65325,13 @@
         <v>982</v>
       </c>
       <c r="D2310" s="9">
-        <v>301.19</v>
+        <v>336</v>
       </c>
       <c r="E2310" s="2" t="s">
         <v>4766</v>
       </c>
       <c r="F2310" s="3">
-        <v>44763</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="2311" spans="1:6" x14ac:dyDescent="0.2">
@@ -65465,13 +65465,13 @@
         <v>935</v>
       </c>
       <c r="D2317" s="9">
-        <v>23.37</v>
+        <v>26.98</v>
       </c>
       <c r="E2317" s="2" t="s">
         <v>4766</v>
       </c>
       <c r="F2317" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="2318" spans="1:6" x14ac:dyDescent="0.2">
@@ -65485,13 +65485,13 @@
         <v>935</v>
       </c>
       <c r="D2318" s="9">
-        <v>23.37</v>
+        <v>26.98</v>
       </c>
       <c r="E2318" s="2" t="s">
         <v>4766</v>
       </c>
       <c r="F2318" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="2319" spans="1:6" x14ac:dyDescent="0.2">
@@ -65625,13 +65625,13 @@
         <v>8</v>
       </c>
       <c r="D2325" s="9">
-        <v>310.83999999999997</v>
+        <v>341.81</v>
       </c>
       <c r="E2325" s="2" t="s">
         <v>4766</v>
       </c>
       <c r="F2325" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="2326" spans="1:6" x14ac:dyDescent="0.2">
@@ -65645,13 +65645,13 @@
         <v>8</v>
       </c>
       <c r="D2326" s="9">
-        <v>310.83999999999997</v>
+        <v>341.81</v>
       </c>
       <c r="E2326" s="2" t="s">
         <v>4766</v>
       </c>
       <c r="F2326" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="2327" spans="1:6" x14ac:dyDescent="0.2">
@@ -65665,13 +65665,13 @@
         <v>8</v>
       </c>
       <c r="D2327" s="9">
-        <v>310.83999999999997</v>
+        <v>341.81</v>
       </c>
       <c r="E2327" s="2" t="s">
         <v>4766</v>
       </c>
       <c r="F2327" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="2328" spans="1:6" x14ac:dyDescent="0.2">
@@ -65685,13 +65685,13 @@
         <v>8</v>
       </c>
       <c r="D2328" s="9">
-        <v>310.83999999999997</v>
+        <v>341.81</v>
       </c>
       <c r="E2328" s="2" t="s">
         <v>4766</v>
       </c>
       <c r="F2328" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="2329" spans="1:6" x14ac:dyDescent="0.2">
@@ -65705,13 +65705,13 @@
         <v>8</v>
       </c>
       <c r="D2329" s="9">
-        <v>310.83999999999997</v>
+        <v>341.81</v>
       </c>
       <c r="E2329" s="2" t="s">
         <v>4766</v>
       </c>
       <c r="F2329" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="2330" spans="1:6" x14ac:dyDescent="0.2">
@@ -65725,13 +65725,13 @@
         <v>8</v>
       </c>
       <c r="D2330" s="9">
-        <v>310.83999999999997</v>
+        <v>341.81</v>
       </c>
       <c r="E2330" s="2" t="s">
         <v>4766</v>
       </c>
       <c r="F2330" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="2331" spans="1:6" x14ac:dyDescent="0.2">
@@ -65745,13 +65745,13 @@
         <v>8</v>
       </c>
       <c r="D2331" s="9">
-        <v>310.83999999999997</v>
+        <v>341.81</v>
       </c>
       <c r="E2331" s="2" t="s">
         <v>4766</v>
       </c>
       <c r="F2331" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="2332" spans="1:6" x14ac:dyDescent="0.2">
@@ -66145,13 +66145,13 @@
         <v>8</v>
       </c>
       <c r="D2351" s="9">
-        <v>310.83999999999997</v>
+        <v>341.81</v>
       </c>
       <c r="E2351" s="2" t="s">
         <v>4766</v>
       </c>
       <c r="F2351" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="2352" spans="1:6" x14ac:dyDescent="0.2">
@@ -68425,13 +68425,13 @@
         <v>64</v>
       </c>
       <c r="D2465" s="9">
-        <v>1058.97</v>
+        <v>1191.76</v>
       </c>
       <c r="E2465" s="2" t="s">
         <v>5153</v>
       </c>
       <c r="F2465" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2466" spans="1:6" x14ac:dyDescent="0.2">
@@ -68505,13 +68505,13 @@
         <v>64</v>
       </c>
       <c r="D2469" s="9">
-        <v>1334.51</v>
+        <v>1427.93</v>
       </c>
       <c r="E2469" s="2" t="s">
         <v>5172</v>
       </c>
       <c r="F2469" s="3">
-        <v>44963</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="2470" spans="1:6" x14ac:dyDescent="0.2">
@@ -68525,13 +68525,13 @@
         <v>64</v>
       </c>
       <c r="D2470" s="9">
-        <v>833.33</v>
+        <v>891.66</v>
       </c>
       <c r="E2470" s="2" t="s">
         <v>5172</v>
       </c>
       <c r="F2470" s="3">
-        <v>44963</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="2471" spans="1:6" x14ac:dyDescent="0.2">
@@ -68645,13 +68645,13 @@
         <v>64</v>
       </c>
       <c r="D2476" s="9">
-        <v>1627.45</v>
+        <v>1822.75</v>
       </c>
       <c r="E2476" s="2" t="s">
         <v>5194</v>
       </c>
       <c r="F2476" s="3">
-        <v>44987</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="2477" spans="1:6" x14ac:dyDescent="0.2">
@@ -68665,13 +68665,13 @@
         <v>64</v>
       </c>
       <c r="D2477" s="9">
-        <v>1151</v>
+        <v>1190.56</v>
       </c>
       <c r="E2477" s="2" t="s">
         <v>5194</v>
       </c>
       <c r="F2477" s="3">
-        <v>44987</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="2478" spans="1:6" x14ac:dyDescent="0.2">
@@ -68685,13 +68685,13 @@
         <v>64</v>
       </c>
       <c r="D2478" s="9">
-        <v>4191.33</v>
+        <v>4694.29</v>
       </c>
       <c r="E2478" s="2" t="s">
         <v>5194</v>
       </c>
       <c r="F2478" s="3">
-        <v>44987</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="2479" spans="1:6" x14ac:dyDescent="0.2">
@@ -68705,13 +68705,13 @@
         <v>64</v>
       </c>
       <c r="D2479" s="9">
-        <v>423.31</v>
+        <v>474.11</v>
       </c>
       <c r="E2479" s="2" t="s">
         <v>5194</v>
       </c>
       <c r="F2479" s="3">
-        <v>44987</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="2480" spans="1:6" x14ac:dyDescent="0.2">
@@ -68725,13 +68725,13 @@
         <v>64</v>
       </c>
       <c r="D2480" s="9">
-        <v>186.59</v>
+        <v>208.98</v>
       </c>
       <c r="E2480" s="2" t="s">
         <v>5194</v>
       </c>
       <c r="F2480" s="3">
-        <v>44987</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="2481" spans="1:6" x14ac:dyDescent="0.2">
@@ -70425,13 +70425,13 @@
         <v>935</v>
       </c>
       <c r="D2565" s="9">
-        <v>61.02</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="E2565" s="2" t="s">
         <v>5385</v>
       </c>
       <c r="F2565" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2566" spans="1:6" x14ac:dyDescent="0.2">
@@ -70465,13 +70465,13 @@
         <v>935</v>
       </c>
       <c r="D2567" s="9">
-        <v>61.02</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="E2567" s="2" t="s">
         <v>5385</v>
       </c>
       <c r="F2567" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2568" spans="1:6" x14ac:dyDescent="0.2">
@@ -70485,13 +70485,13 @@
         <v>935</v>
       </c>
       <c r="D2568" s="9">
-        <v>61.02</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="E2568" s="2" t="s">
         <v>5385</v>
       </c>
       <c r="F2568" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2569" spans="1:6" x14ac:dyDescent="0.2">
@@ -70505,13 +70505,13 @@
         <v>935</v>
       </c>
       <c r="D2569" s="9">
-        <v>61.02</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="E2569" s="2" t="s">
         <v>5385</v>
       </c>
       <c r="F2569" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2570" spans="1:6" x14ac:dyDescent="0.2">
@@ -70525,13 +70525,13 @@
         <v>935</v>
       </c>
       <c r="D2570" s="9">
-        <v>80.42</v>
+        <v>88.46</v>
       </c>
       <c r="E2570" s="2" t="s">
         <v>5385</v>
       </c>
       <c r="F2570" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2571" spans="1:6" x14ac:dyDescent="0.2">
@@ -70545,13 +70545,13 @@
         <v>935</v>
       </c>
       <c r="D2571" s="9">
-        <v>80.42</v>
+        <v>88.46</v>
       </c>
       <c r="E2571" s="2" t="s">
         <v>5385</v>
       </c>
       <c r="F2571" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2572" spans="1:6" x14ac:dyDescent="0.2">
@@ -70565,13 +70565,13 @@
         <v>935</v>
       </c>
       <c r="D2572" s="9">
-        <v>83.19</v>
+        <v>91.52</v>
       </c>
       <c r="E2572" s="2" t="s">
         <v>5385</v>
       </c>
       <c r="F2572" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2573" spans="1:6" x14ac:dyDescent="0.2">
@@ -70585,13 +70585,13 @@
         <v>935</v>
       </c>
       <c r="D2573" s="9">
-        <v>83.19</v>
+        <v>91.52</v>
       </c>
       <c r="E2573" s="2" t="s">
         <v>5385</v>
       </c>
       <c r="F2573" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2574" spans="1:6" x14ac:dyDescent="0.2">
@@ -70605,13 +70605,13 @@
         <v>935</v>
       </c>
       <c r="D2574" s="9">
-        <v>88.75</v>
+        <v>97.62</v>
       </c>
       <c r="E2574" s="2" t="s">
         <v>5385</v>
       </c>
       <c r="F2574" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2575" spans="1:6" x14ac:dyDescent="0.2">
@@ -70625,13 +70625,13 @@
         <v>935</v>
       </c>
       <c r="D2575" s="9">
-        <v>91.52</v>
+        <v>100.66</v>
       </c>
       <c r="E2575" s="2" t="s">
         <v>5385</v>
       </c>
       <c r="F2575" s="3">
-        <v>44945</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="2576" spans="1:6" x14ac:dyDescent="0.2">
@@ -73385,13 +73385,13 @@
         <v>8</v>
       </c>
       <c r="D2713" s="9">
-        <v>15.39</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="E2713" s="2" t="s">
         <v>5708</v>
       </c>
       <c r="F2713" s="3">
-        <v>44963</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="2714" spans="1:6" x14ac:dyDescent="0.2">
@@ -73485,13 +73485,13 @@
         <v>64</v>
       </c>
       <c r="D2718" s="9">
-        <v>502.15</v>
+        <v>562.41</v>
       </c>
       <c r="E2718" s="2" t="s">
         <v>5708</v>
       </c>
       <c r="F2718" s="3">
-        <v>44942</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="2719" spans="1:6" x14ac:dyDescent="0.2">
@@ -75905,13 +75905,13 @@
         <v>8</v>
       </c>
       <c r="D2839" s="9">
-        <v>877.77</v>
+        <v>982.25</v>
       </c>
       <c r="E2839" s="2" t="s">
         <v>5977</v>
       </c>
       <c r="F2839" s="3">
-        <v>44998</v>
+        <v>45008</v>
       </c>
     </row>
     <row r="2840" spans="1:6" x14ac:dyDescent="0.2">
@@ -76323,13 +76323,13 @@
         <v>64</v>
       </c>
       <c r="D2860" s="9">
-        <v>1539</v>
+        <v>1558</v>
       </c>
       <c r="E2860" s="2" t="s">
         <v>6024</v>
       </c>
       <c r="F2860" s="3">
-        <v>44974</v>
+        <v>45008</v>
       </c>
     </row>
     <row r="2861" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel-files/fg.xlsx
+++ b/excel-files/fg.xlsx
@@ -18933,7 +18933,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -18968,7 +18968,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -31862,13 +31862,13 @@
         <v>32</v>
       </c>
       <c r="D638" s="9">
-        <v>579.98</v>
+        <v>584.25</v>
       </c>
       <c r="E638" s="2" t="s">
         <v>1294</v>
       </c>
       <c r="F638" s="3">
-        <v>45044</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.2">
@@ -40238,13 +40238,13 @@
         <v>64</v>
       </c>
       <c r="D1057" s="9">
-        <v>4353.8100000000004</v>
+        <v>3234.31</v>
       </c>
       <c r="E1057" s="2" t="s">
         <v>2175</v>
       </c>
       <c r="F1057" s="3">
-        <v>45044</v>
+        <v>45049</v>
       </c>
     </row>
     <row r="1058" spans="1:6" x14ac:dyDescent="0.2">
@@ -40258,13 +40258,13 @@
         <v>64</v>
       </c>
       <c r="D1058" s="9">
-        <v>3234.61</v>
+        <v>4353.8100000000004</v>
       </c>
       <c r="E1058" s="2" t="s">
         <v>2175</v>
       </c>
       <c r="F1058" s="3">
-        <v>45044</v>
+        <v>45049</v>
       </c>
     </row>
     <row r="1059" spans="1:6" x14ac:dyDescent="0.2">
@@ -40278,13 +40278,13 @@
         <v>64</v>
       </c>
       <c r="D1059" s="9">
-        <v>8143.09</v>
+        <v>4208.24</v>
       </c>
       <c r="E1059" s="2" t="s">
         <v>2175</v>
       </c>
       <c r="F1059" s="3">
-        <v>45044</v>
+        <v>45049</v>
       </c>
     </row>
     <row r="1060" spans="1:6" x14ac:dyDescent="0.2">
@@ -40298,13 +40298,13 @@
         <v>64</v>
       </c>
       <c r="D1060" s="9">
-        <v>4208.24</v>
+        <v>8143.09</v>
       </c>
       <c r="E1060" s="2" t="s">
         <v>2175</v>
       </c>
       <c r="F1060" s="3">
-        <v>45044</v>
+        <v>45049</v>
       </c>
     </row>
     <row r="1061" spans="1:6" x14ac:dyDescent="0.2">
@@ -57598,13 +57598,13 @@
         <v>8</v>
       </c>
       <c r="D1925" s="9">
-        <v>1018.88</v>
+        <v>1033.1300000000001</v>
       </c>
       <c r="E1925" s="2" t="s">
         <v>4026</v>
       </c>
       <c r="F1925" s="3">
-        <v>45044</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="1926" spans="1:6" x14ac:dyDescent="0.2">
@@ -63978,13 +63978,13 @@
         <v>32</v>
       </c>
       <c r="D2244" s="9">
-        <v>666.19</v>
+        <v>676.88</v>
       </c>
       <c r="E2244" s="2" t="s">
         <v>4710</v>
       </c>
       <c r="F2244" s="3">
-        <v>45044</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="2245" spans="1:6" x14ac:dyDescent="0.2">
@@ -63998,13 +63998,13 @@
         <v>64</v>
       </c>
       <c r="D2245" s="9">
-        <v>5329.5</v>
+        <v>5379.38</v>
       </c>
       <c r="E2245" s="2" t="s">
         <v>4710</v>
       </c>
       <c r="F2245" s="3">
-        <v>45044</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="2246" spans="1:6" x14ac:dyDescent="0.2">
@@ -64018,13 +64018,13 @@
         <v>64</v>
       </c>
       <c r="D2246" s="9">
-        <v>7132.13</v>
+        <v>7196.25</v>
       </c>
       <c r="E2246" s="2" t="s">
         <v>4710</v>
       </c>
       <c r="F2246" s="3">
-        <v>45044</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="2247" spans="1:6" x14ac:dyDescent="0.2">
@@ -64778,13 +64778,13 @@
         <v>64</v>
       </c>
       <c r="D2284" s="9">
-        <v>1650.23</v>
+        <v>1710.23</v>
       </c>
       <c r="E2284" s="2" t="s">
         <v>4755</v>
       </c>
       <c r="F2284" s="3">
-        <v>45044</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="2285" spans="1:6" x14ac:dyDescent="0.2">
@@ -64798,13 +64798,13 @@
         <v>64</v>
       </c>
       <c r="D2285" s="9">
-        <v>2006.44</v>
+        <v>2079.4</v>
       </c>
       <c r="E2285" s="2" t="s">
         <v>4755</v>
       </c>
       <c r="F2285" s="3">
-        <v>45044</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="2286" spans="1:6" x14ac:dyDescent="0.2">
@@ -64818,13 +64818,13 @@
         <v>64</v>
       </c>
       <c r="D2286" s="9">
-        <v>2041.09</v>
+        <v>2115.33</v>
       </c>
       <c r="E2286" s="2" t="s">
         <v>4755</v>
       </c>
       <c r="F2286" s="3">
-        <v>45044</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="2287" spans="1:6" x14ac:dyDescent="0.2">
@@ -64938,13 +64938,13 @@
         <v>2062</v>
       </c>
       <c r="D2292" s="9">
-        <v>736.65</v>
+        <v>763.44</v>
       </c>
       <c r="E2292" s="2" t="s">
         <v>4755</v>
       </c>
       <c r="F2292" s="3">
-        <v>45044</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="2293" spans="1:6" x14ac:dyDescent="0.2">
@@ -65378,13 +65378,13 @@
         <v>8</v>
       </c>
       <c r="D2314" s="9">
-        <v>204.07</v>
+        <v>211.49</v>
       </c>
       <c r="E2314" s="2" t="s">
         <v>4755</v>
       </c>
       <c r="F2314" s="3">
-        <v>45044</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="2315" spans="1:6" x14ac:dyDescent="0.2">
@@ -65398,13 +65398,13 @@
         <v>8</v>
       </c>
       <c r="D2315" s="9">
-        <v>204.07</v>
+        <v>211.49</v>
       </c>
       <c r="E2315" s="2" t="s">
         <v>4755</v>
       </c>
       <c r="F2315" s="3">
-        <v>45044</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="2316" spans="1:6" x14ac:dyDescent="0.2">
@@ -74078,13 +74078,13 @@
         <v>982</v>
       </c>
       <c r="D2749" s="9">
-        <v>1879.89</v>
+        <v>2067.88</v>
       </c>
       <c r="E2749" s="2" t="s">
         <v>5787</v>
       </c>
       <c r="F2749" s="3">
-        <v>45044</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="2750" spans="1:6" x14ac:dyDescent="0.2">
@@ -74098,13 +74098,13 @@
         <v>982</v>
       </c>
       <c r="D2750" s="9">
-        <v>2046.57</v>
+        <v>2251.23</v>
       </c>
       <c r="E2750" s="2" t="s">
         <v>5787</v>
       </c>
       <c r="F2750" s="3">
-        <v>45044</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="2751" spans="1:6" x14ac:dyDescent="0.2">
@@ -74118,13 +74118,13 @@
         <v>982</v>
       </c>
       <c r="D2751" s="9">
-        <v>2198.44</v>
+        <v>2418.29</v>
       </c>
       <c r="E2751" s="2" t="s">
         <v>5787</v>
       </c>
       <c r="F2751" s="3">
-        <v>45044</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="2752" spans="1:6" x14ac:dyDescent="0.2">
@@ -74138,13 +74138,13 @@
         <v>982</v>
       </c>
       <c r="D2752" s="9">
-        <v>4945.0600000000004</v>
+        <v>5439.57</v>
       </c>
       <c r="E2752" s="2" t="s">
         <v>5787</v>
       </c>
       <c r="F2752" s="3">
-        <v>45044</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="2753" spans="1:6" x14ac:dyDescent="0.2">
@@ -74158,13 +74158,13 @@
         <v>982</v>
       </c>
       <c r="D2753" s="9">
-        <v>1526.13</v>
+        <v>1678.75</v>
       </c>
       <c r="E2753" s="2" t="s">
         <v>5787</v>
       </c>
       <c r="F2753" s="3">
-        <v>45044</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="2754" spans="1:6" x14ac:dyDescent="0.2">
@@ -74178,13 +74178,13 @@
         <v>982</v>
       </c>
       <c r="D2754" s="9">
-        <v>1992.86</v>
+        <v>2192.15</v>
       </c>
       <c r="E2754" s="2" t="s">
         <v>5787</v>
       </c>
       <c r="F2754" s="3">
-        <v>45044</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="2755" spans="1:6" x14ac:dyDescent="0.2">
@@ -74198,13 +74198,13 @@
         <v>976</v>
       </c>
       <c r="D2755" s="9">
-        <v>80.33</v>
+        <v>88.37</v>
       </c>
       <c r="E2755" s="2" t="s">
         <v>5787</v>
       </c>
       <c r="F2755" s="3">
-        <v>45044</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="2756" spans="1:6" x14ac:dyDescent="0.2">
@@ -74218,13 +74218,13 @@
         <v>976</v>
       </c>
       <c r="D2756" s="9">
-        <v>46.18</v>
+        <v>50.8</v>
       </c>
       <c r="E2756" s="2" t="s">
         <v>5787</v>
       </c>
       <c r="F2756" s="3">
-        <v>45044</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="2757" spans="1:6" x14ac:dyDescent="0.2">
@@ -74238,13 +74238,13 @@
         <v>982</v>
       </c>
       <c r="D2757" s="9">
-        <v>827.73</v>
+        <v>910.51</v>
       </c>
       <c r="E2757" s="2" t="s">
         <v>5787</v>
       </c>
       <c r="F2757" s="3">
-        <v>45044</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="2758" spans="1:6" x14ac:dyDescent="0.2">
@@ -74258,13 +74258,13 @@
         <v>982</v>
       </c>
       <c r="D2758" s="9">
-        <v>1175.1099999999999</v>
+        <v>1292.6300000000001</v>
       </c>
       <c r="E2758" s="2" t="s">
         <v>5787</v>
       </c>
       <c r="F2758" s="3">
-        <v>45044</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="2759" spans="1:6" x14ac:dyDescent="0.2">
@@ -74278,13 +74278,13 @@
         <v>982</v>
       </c>
       <c r="D2759" s="9">
-        <v>1611.32</v>
+        <v>1772.46</v>
       </c>
       <c r="E2759" s="2" t="s">
         <v>5787</v>
       </c>
       <c r="F2759" s="3">
-        <v>45044</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="2760" spans="1:6" x14ac:dyDescent="0.2">
@@ -74298,13 +74298,13 @@
         <v>8</v>
       </c>
       <c r="D2760" s="9">
-        <v>129.47</v>
+        <v>142.41999999999999</v>
       </c>
       <c r="E2760" s="2" t="s">
         <v>5787</v>
       </c>
       <c r="F2760" s="3">
-        <v>45044</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="2761" spans="1:6" x14ac:dyDescent="0.2">
@@ -74318,13 +74318,13 @@
         <v>976</v>
       </c>
       <c r="D2761" s="9">
-        <v>46.68</v>
+        <v>51.35</v>
       </c>
       <c r="E2761" s="2" t="s">
         <v>5787</v>
       </c>
       <c r="F2761" s="3">
-        <v>45044</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="2762" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel-files/fg.xlsx
+++ b/excel-files/fg.xlsx
@@ -27022,13 +27022,13 @@
         <v>64</v>
       </c>
       <c r="D396" s="9">
-        <v>157.81</v>
+        <v>165.7</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>811</v>
       </c>
       <c r="F396" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
@@ -29582,13 +29582,13 @@
         <v>935</v>
       </c>
       <c r="D524" s="9">
-        <v>29.95</v>
+        <v>32.47</v>
       </c>
       <c r="E524" s="2" t="s">
         <v>1064</v>
       </c>
       <c r="F524" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.2">
@@ -43018,13 +43018,13 @@
         <v>2464</v>
       </c>
       <c r="D1196" s="9">
-        <v>238.62</v>
+        <v>288.74</v>
       </c>
       <c r="E1196" s="2" t="s">
         <v>2458</v>
       </c>
       <c r="F1196" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="1197" spans="1:6" x14ac:dyDescent="0.2">
@@ -44958,13 +44958,13 @@
         <v>8</v>
       </c>
       <c r="D1293" s="9">
-        <v>229.11</v>
+        <v>230.67</v>
       </c>
       <c r="E1293" s="2" t="s">
         <v>2689</v>
       </c>
       <c r="F1293" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1294" spans="1:6" x14ac:dyDescent="0.2">
@@ -49198,13 +49198,13 @@
         <v>64</v>
       </c>
       <c r="D1505" s="9">
-        <v>4072.99</v>
+        <v>4377.6000000000004</v>
       </c>
       <c r="E1505" s="2" t="s">
         <v>3129</v>
       </c>
       <c r="F1505" s="3">
-        <v>45044</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="1506" spans="1:6" x14ac:dyDescent="0.2">
@@ -49238,13 +49238,13 @@
         <v>64</v>
       </c>
       <c r="D1507" s="9">
-        <v>6567.7</v>
+        <v>7058.88</v>
       </c>
       <c r="E1507" s="2" t="s">
         <v>3129</v>
       </c>
       <c r="F1507" s="3">
-        <v>45044</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="1508" spans="1:6" x14ac:dyDescent="0.2">
@@ -53238,13 +53238,13 @@
         <v>8</v>
       </c>
       <c r="D1707" s="9">
-        <v>526.47</v>
+        <v>664.61</v>
       </c>
       <c r="E1707" s="2" t="s">
         <v>3573</v>
       </c>
       <c r="F1707" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="1708" spans="1:6" x14ac:dyDescent="0.2">
@@ -53318,13 +53318,13 @@
         <v>8</v>
       </c>
       <c r="D1711" s="9">
-        <v>861.19</v>
+        <v>1067.6099999999999</v>
       </c>
       <c r="E1711" s="2" t="s">
         <v>3573</v>
       </c>
       <c r="F1711" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="1712" spans="1:6" x14ac:dyDescent="0.2">
@@ -53698,13 +53698,13 @@
         <v>64</v>
       </c>
       <c r="D1730" s="9">
-        <v>1004.54</v>
+        <v>1650.04</v>
       </c>
       <c r="E1730" s="2" t="s">
         <v>3573</v>
       </c>
       <c r="F1730" s="3">
-        <v>45044</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="1731" spans="1:6" x14ac:dyDescent="0.2">
@@ -53718,13 +53718,13 @@
         <v>64</v>
       </c>
       <c r="D1731" s="9">
-        <v>909.3</v>
+        <v>1234.08</v>
       </c>
       <c r="E1731" s="2" t="s">
         <v>3573</v>
       </c>
       <c r="F1731" s="3">
-        <v>45044</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="1732" spans="1:6" x14ac:dyDescent="0.2">
@@ -54158,13 +54158,13 @@
         <v>64</v>
       </c>
       <c r="D1753" s="9">
-        <v>535.5</v>
+        <v>589.04999999999995</v>
       </c>
       <c r="E1753" s="2" t="s">
         <v>3669</v>
       </c>
       <c r="F1753" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="1754" spans="1:6" x14ac:dyDescent="0.2">
@@ -54198,13 +54198,13 @@
         <v>844</v>
       </c>
       <c r="D1755" s="9">
-        <v>977.08</v>
+        <v>1007</v>
       </c>
       <c r="E1755" s="2" t="s">
         <v>3669</v>
       </c>
       <c r="F1755" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1756" spans="1:6" x14ac:dyDescent="0.2">
@@ -54218,13 +54218,13 @@
         <v>844</v>
       </c>
       <c r="D1756" s="9">
-        <v>977.08</v>
+        <v>1007</v>
       </c>
       <c r="E1756" s="2" t="s">
         <v>3669</v>
       </c>
       <c r="F1756" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1757" spans="1:6" x14ac:dyDescent="0.2">
@@ -54278,13 +54278,13 @@
         <v>844</v>
       </c>
       <c r="D1759" s="9">
-        <v>1000.07</v>
+        <v>1026</v>
       </c>
       <c r="E1759" s="2" t="s">
         <v>3669</v>
       </c>
       <c r="F1759" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1760" spans="1:6" x14ac:dyDescent="0.2">
@@ -54298,13 +54298,13 @@
         <v>844</v>
       </c>
       <c r="D1760" s="9">
-        <v>1000.07</v>
+        <v>1026</v>
       </c>
       <c r="E1760" s="2" t="s">
         <v>3669</v>
       </c>
       <c r="F1760" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1761" spans="1:6" x14ac:dyDescent="0.2">
@@ -54978,13 +54978,13 @@
         <v>64</v>
       </c>
       <c r="D1794" s="9">
-        <v>853.26</v>
+        <v>984.7</v>
       </c>
       <c r="E1794" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1794" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1795" spans="1:6" x14ac:dyDescent="0.2">
@@ -54998,13 +54998,13 @@
         <v>64</v>
       </c>
       <c r="D1795" s="9">
-        <v>1410.79</v>
+        <v>1622.41</v>
       </c>
       <c r="E1795" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1795" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1796" spans="1:6" x14ac:dyDescent="0.2">
@@ -55018,13 +55018,13 @@
         <v>64</v>
       </c>
       <c r="D1796" s="9">
-        <v>1761.29</v>
+        <v>2025.49</v>
       </c>
       <c r="E1796" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1796" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1797" spans="1:6" x14ac:dyDescent="0.2">
@@ -55038,13 +55038,13 @@
         <v>64</v>
       </c>
       <c r="D1797" s="9">
-        <v>2097.17</v>
+        <v>2411.75</v>
       </c>
       <c r="E1797" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1797" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1798" spans="1:6" x14ac:dyDescent="0.2">
@@ -55058,13 +55058,13 @@
         <v>64</v>
       </c>
       <c r="D1798" s="9">
-        <v>2628.77</v>
+        <v>3023.09</v>
       </c>
       <c r="E1798" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1798" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1799" spans="1:6" x14ac:dyDescent="0.2">
@@ -55078,13 +55078,13 @@
         <v>64</v>
       </c>
       <c r="D1799" s="9">
-        <v>3158.62</v>
+        <v>3632.42</v>
       </c>
       <c r="E1799" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1799" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1800" spans="1:6" x14ac:dyDescent="0.2">
@@ -55098,13 +55098,13 @@
         <v>64</v>
       </c>
       <c r="D1800" s="9">
-        <v>3484.55</v>
+        <v>4007.24</v>
       </c>
       <c r="E1800" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1800" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1801" spans="1:6" x14ac:dyDescent="0.2">
@@ -55118,13 +55118,13 @@
         <v>64</v>
       </c>
       <c r="D1801" s="9">
-        <v>4383.82</v>
+        <v>5041.3999999999996</v>
       </c>
       <c r="E1801" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1801" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1802" spans="1:6" x14ac:dyDescent="0.2">
@@ -55138,13 +55138,13 @@
         <v>64</v>
       </c>
       <c r="D1802" s="9">
-        <v>5242.5200000000004</v>
+        <v>6028.9</v>
       </c>
       <c r="E1802" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1802" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1803" spans="1:6" x14ac:dyDescent="0.2">
@@ -55158,13 +55158,13 @@
         <v>64</v>
       </c>
       <c r="D1803" s="9">
-        <v>1080.95</v>
+        <v>1243.0999999999999</v>
       </c>
       <c r="E1803" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1803" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1804" spans="1:6" x14ac:dyDescent="0.2">
@@ -55178,13 +55178,13 @@
         <v>64</v>
       </c>
       <c r="D1804" s="9">
-        <v>1686.24</v>
+        <v>1939.18</v>
       </c>
       <c r="E1804" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1804" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1805" spans="1:6" x14ac:dyDescent="0.2">
@@ -55198,13 +55198,13 @@
         <v>64</v>
       </c>
       <c r="D1805" s="9">
-        <v>2136.54</v>
+        <v>2457.0300000000002</v>
       </c>
       <c r="E1805" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1805" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1806" spans="1:6" x14ac:dyDescent="0.2">
@@ -55218,13 +55218,13 @@
         <v>64</v>
       </c>
       <c r="D1806" s="9">
-        <v>2543.4</v>
+        <v>2924.91</v>
       </c>
       <c r="E1806" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1806" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1807" spans="1:6" x14ac:dyDescent="0.2">
@@ -55238,13 +55238,13 @@
         <v>64</v>
       </c>
       <c r="D1807" s="9">
-        <v>3195.86</v>
+        <v>3675.24</v>
       </c>
       <c r="E1807" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1807" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1808" spans="1:6" x14ac:dyDescent="0.2">
@@ -55258,13 +55258,13 @@
         <v>64</v>
       </c>
       <c r="D1808" s="9">
-        <v>3800.75</v>
+        <v>4370.87</v>
       </c>
       <c r="E1808" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1808" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1809" spans="1:6" x14ac:dyDescent="0.2">
@@ -55278,13 +55278,13 @@
         <v>64</v>
       </c>
       <c r="D1809" s="9">
-        <v>4251.0600000000004</v>
+        <v>4888.72</v>
       </c>
       <c r="E1809" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1809" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1810" spans="1:6" x14ac:dyDescent="0.2">
@@ -55298,13 +55298,13 @@
         <v>64</v>
       </c>
       <c r="D1810" s="9">
-        <v>5322.65</v>
+        <v>6121.05</v>
       </c>
       <c r="E1810" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1810" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1811" spans="1:6" x14ac:dyDescent="0.2">
@@ -55318,13 +55318,13 @@
         <v>64</v>
       </c>
       <c r="D1811" s="9">
-        <v>6345.3</v>
+        <v>7297.1</v>
       </c>
       <c r="E1811" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1811" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1812" spans="1:6" x14ac:dyDescent="0.2">
@@ -55338,13 +55338,13 @@
         <v>64</v>
       </c>
       <c r="D1812" s="9">
-        <v>1672.21</v>
+        <v>1923.05</v>
       </c>
       <c r="E1812" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1812" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1813" spans="1:6" x14ac:dyDescent="0.2">
@@ -55358,13 +55358,13 @@
         <v>64</v>
       </c>
       <c r="D1813" s="9">
-        <v>2641.06</v>
+        <v>3037.22</v>
       </c>
       <c r="E1813" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1813" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1814" spans="1:6" x14ac:dyDescent="0.2">
@@ -55378,13 +55378,13 @@
         <v>64</v>
       </c>
       <c r="D1814" s="9">
-        <v>3309.31</v>
+        <v>3805.71</v>
       </c>
       <c r="E1814" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1814" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1815" spans="1:6" x14ac:dyDescent="0.2">
@@ -55398,13 +55398,13 @@
         <v>64</v>
       </c>
       <c r="D1815" s="9">
-        <v>3988.67</v>
+        <v>4586.97</v>
       </c>
       <c r="E1815" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1815" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1816" spans="1:6" x14ac:dyDescent="0.2">
@@ -55418,13 +55418,13 @@
         <v>64</v>
       </c>
       <c r="D1816" s="9">
-        <v>4957.71</v>
+        <v>5701.37</v>
       </c>
       <c r="E1816" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1816" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1817" spans="1:6" x14ac:dyDescent="0.2">
@@ -55438,13 +55438,13 @@
         <v>64</v>
       </c>
       <c r="D1817" s="9">
-        <v>5973.15</v>
+        <v>6869.13</v>
       </c>
       <c r="E1817" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1817" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1818" spans="1:6" x14ac:dyDescent="0.2">
@@ -55458,13 +55458,13 @@
         <v>64</v>
       </c>
       <c r="D1818" s="9">
-        <v>6647.06</v>
+        <v>7644.12</v>
       </c>
       <c r="E1818" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1818" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1819" spans="1:6" x14ac:dyDescent="0.2">
@@ -55478,13 +55478,13 @@
         <v>64</v>
       </c>
       <c r="D1819" s="9">
-        <v>8278.11</v>
+        <v>9519.83</v>
       </c>
       <c r="E1819" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1819" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1820" spans="1:6" x14ac:dyDescent="0.2">
@@ -55498,13 +55498,13 @@
         <v>64</v>
       </c>
       <c r="D1820" s="9">
-        <v>9941.5499999999993</v>
+        <v>11432.79</v>
       </c>
       <c r="E1820" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1820" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1821" spans="1:6" x14ac:dyDescent="0.2">
@@ -55518,13 +55518,13 @@
         <v>64</v>
       </c>
       <c r="D1821" s="9">
-        <v>2356.44</v>
+        <v>2709.91</v>
       </c>
       <c r="E1821" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1821" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1822" spans="1:6" x14ac:dyDescent="0.2">
@@ -55538,13 +55538,13 @@
         <v>64</v>
       </c>
       <c r="D1822" s="9">
-        <v>3832.13</v>
+        <v>4406.95</v>
       </c>
       <c r="E1822" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1822" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1823" spans="1:6" x14ac:dyDescent="0.2">
@@ -55558,13 +55558,13 @@
         <v>64</v>
       </c>
       <c r="D1823" s="9">
-        <v>4802.9399999999996</v>
+        <v>5523.39</v>
       </c>
       <c r="E1823" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1823" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1824" spans="1:6" x14ac:dyDescent="0.2">
@@ -55578,13 +55578,13 @@
         <v>64</v>
       </c>
       <c r="D1824" s="9">
-        <v>5742.74</v>
+        <v>6604.16</v>
       </c>
       <c r="E1824" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1824" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1825" spans="1:6" x14ac:dyDescent="0.2">
@@ -55598,13 +55598,13 @@
         <v>64</v>
       </c>
       <c r="D1825" s="9">
-        <v>7184.51</v>
+        <v>8262.19</v>
       </c>
       <c r="E1825" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1825" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1826" spans="1:6" x14ac:dyDescent="0.2">
@@ -55618,13 +55618,13 @@
         <v>64</v>
       </c>
       <c r="D1826" s="9">
-        <v>8641.8700000000008</v>
+        <v>9938.15</v>
       </c>
       <c r="E1826" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1826" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1827" spans="1:6" x14ac:dyDescent="0.2">
@@ -55638,13 +55638,13 @@
         <v>64</v>
       </c>
       <c r="D1827" s="9">
-        <v>9581.31</v>
+        <v>11018.51</v>
       </c>
       <c r="E1827" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1827" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1828" spans="1:6" x14ac:dyDescent="0.2">
@@ -55658,13 +55658,13 @@
         <v>64</v>
       </c>
       <c r="D1828" s="9">
-        <v>11979.83</v>
+        <v>13776.81</v>
       </c>
       <c r="E1828" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1828" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1829" spans="1:6" x14ac:dyDescent="0.2">
@@ -55678,13 +55678,13 @@
         <v>64</v>
       </c>
       <c r="D1829" s="9">
-        <v>14373.3</v>
+        <v>16529.3</v>
       </c>
       <c r="E1829" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1829" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1830" spans="1:6" x14ac:dyDescent="0.2">
@@ -55698,13 +55698,13 @@
         <v>64</v>
       </c>
       <c r="D1830" s="9">
-        <v>3042.25</v>
+        <v>3498.59</v>
       </c>
       <c r="E1830" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1830" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1831" spans="1:6" x14ac:dyDescent="0.2">
@@ -55718,13 +55718,13 @@
         <v>64</v>
       </c>
       <c r="D1831" s="9">
-        <v>4733.93</v>
+        <v>5444.02</v>
       </c>
       <c r="E1831" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1831" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1832" spans="1:6" x14ac:dyDescent="0.2">
@@ -55738,13 +55738,13 @@
         <v>64</v>
       </c>
       <c r="D1832" s="9">
-        <v>5899.47</v>
+        <v>6784.39</v>
       </c>
       <c r="E1832" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1832" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1833" spans="1:6" x14ac:dyDescent="0.2">
@@ -55758,13 +55758,13 @@
         <v>64</v>
       </c>
       <c r="D1833" s="9">
-        <v>7057.42</v>
+        <v>8116.04</v>
       </c>
       <c r="E1833" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1833" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1834" spans="1:6" x14ac:dyDescent="0.2">
@@ -55778,13 +55778,13 @@
         <v>64</v>
       </c>
       <c r="D1834" s="9">
-        <v>8821.42</v>
+        <v>10144.64</v>
       </c>
       <c r="E1834" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1834" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1835" spans="1:6" x14ac:dyDescent="0.2">
@@ -55798,13 +55798,13 @@
         <v>64</v>
       </c>
       <c r="D1835" s="9">
-        <v>10583.27</v>
+        <v>12170.76</v>
       </c>
       <c r="E1835" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1835" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1836" spans="1:6" x14ac:dyDescent="0.2">
@@ -55818,13 +55818,13 @@
         <v>64</v>
       </c>
       <c r="D1836" s="9">
-        <v>11809.64</v>
+        <v>13581.09</v>
       </c>
       <c r="E1836" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1836" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1837" spans="1:6" x14ac:dyDescent="0.2">
@@ -55838,13 +55838,13 @@
         <v>64</v>
       </c>
       <c r="D1837" s="9">
-        <v>14765.91</v>
+        <v>16980.8</v>
       </c>
       <c r="E1837" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1837" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1838" spans="1:6" x14ac:dyDescent="0.2">
@@ -55858,13 +55858,13 @@
         <v>64</v>
       </c>
       <c r="D1838" s="9">
-        <v>17675.759999999998</v>
+        <v>20327.13</v>
       </c>
       <c r="E1838" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1838" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1839" spans="1:6" x14ac:dyDescent="0.2">
@@ -55878,13 +55878,13 @@
         <v>64</v>
       </c>
       <c r="D1839" s="9">
-        <v>4896.1099999999997</v>
+        <v>5630.53</v>
       </c>
       <c r="E1839" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1839" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1840" spans="1:6" x14ac:dyDescent="0.2">
@@ -55898,13 +55898,13 @@
         <v>64</v>
       </c>
       <c r="D1840" s="9">
-        <v>6253.28</v>
+        <v>7191.28</v>
       </c>
       <c r="E1840" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1840" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1841" spans="1:6" x14ac:dyDescent="0.2">
@@ -55918,13 +55918,13 @@
         <v>64</v>
       </c>
       <c r="D1841" s="9">
-        <v>7830.93</v>
+        <v>9005.57</v>
       </c>
       <c r="E1841" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1841" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1842" spans="1:6" x14ac:dyDescent="0.2">
@@ -55938,13 +55938,13 @@
         <v>64</v>
       </c>
       <c r="D1842" s="9">
-        <v>9388.49</v>
+        <v>10796.77</v>
       </c>
       <c r="E1842" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1842" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1843" spans="1:6" x14ac:dyDescent="0.2">
@@ -55958,13 +55958,13 @@
         <v>64</v>
       </c>
       <c r="D1843" s="9">
-        <v>11710.81</v>
+        <v>13467.44</v>
       </c>
       <c r="E1843" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1843" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1844" spans="1:6" x14ac:dyDescent="0.2">
@@ -55978,13 +55978,13 @@
         <v>64</v>
       </c>
       <c r="D1844" s="9">
-        <v>14083.81</v>
+        <v>16196.39</v>
       </c>
       <c r="E1844" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1844" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1845" spans="1:6" x14ac:dyDescent="0.2">
@@ -55998,13 +55998,13 @@
         <v>64</v>
       </c>
       <c r="D1845" s="9">
-        <v>15641.75</v>
+        <v>17988.02</v>
       </c>
       <c r="E1845" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1845" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1846" spans="1:6" x14ac:dyDescent="0.2">
@@ -56018,13 +56018,13 @@
         <v>64</v>
       </c>
       <c r="D1846" s="9">
-        <v>19531.97</v>
+        <v>22461.77</v>
       </c>
       <c r="E1846" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1846" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1847" spans="1:6" x14ac:dyDescent="0.2">
@@ -56038,13 +56038,13 @@
         <v>64</v>
       </c>
       <c r="D1847" s="9">
-        <v>25799.37</v>
+        <v>29669.279999999999</v>
       </c>
       <c r="E1847" s="2" t="s">
         <v>3759</v>
       </c>
       <c r="F1847" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1848" spans="1:6" x14ac:dyDescent="0.2">
@@ -56058,13 +56058,13 @@
         <v>64</v>
       </c>
       <c r="D1848" s="9">
-        <v>1761.29</v>
+        <v>2025.49</v>
       </c>
       <c r="E1848" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1848" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1849" spans="1:6" x14ac:dyDescent="0.2">
@@ -56078,13 +56078,13 @@
         <v>64</v>
       </c>
       <c r="D1849" s="9">
-        <v>2628.77</v>
+        <v>3023.09</v>
       </c>
       <c r="E1849" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1849" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1850" spans="1:6" x14ac:dyDescent="0.2">
@@ -56098,13 +56098,13 @@
         <v>64</v>
       </c>
       <c r="D1850" s="9">
-        <v>3484.55</v>
+        <v>4007.24</v>
       </c>
       <c r="E1850" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1850" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1851" spans="1:6" x14ac:dyDescent="0.2">
@@ -56118,13 +56118,13 @@
         <v>64</v>
       </c>
       <c r="D1851" s="9">
-        <v>4383.82</v>
+        <v>5041.3999999999996</v>
       </c>
       <c r="E1851" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1851" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1852" spans="1:6" x14ac:dyDescent="0.2">
@@ -56138,13 +56138,13 @@
         <v>64</v>
       </c>
       <c r="D1852" s="9">
-        <v>5242.5200000000004</v>
+        <v>6028.9</v>
       </c>
       <c r="E1852" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1852" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1853" spans="1:6" x14ac:dyDescent="0.2">
@@ -56158,13 +56158,13 @@
         <v>64</v>
       </c>
       <c r="D1853" s="9">
-        <v>2136.54</v>
+        <v>2457.0300000000002</v>
       </c>
       <c r="E1853" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1853" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1854" spans="1:6" x14ac:dyDescent="0.2">
@@ -56178,13 +56178,13 @@
         <v>64</v>
       </c>
       <c r="D1854" s="9">
-        <v>3195.86</v>
+        <v>3675.24</v>
       </c>
       <c r="E1854" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1854" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1855" spans="1:6" x14ac:dyDescent="0.2">
@@ -56198,13 +56198,13 @@
         <v>64</v>
       </c>
       <c r="D1855" s="9">
-        <v>4251.0600000000004</v>
+        <v>4888.72</v>
       </c>
       <c r="E1855" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1855" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1856" spans="1:6" x14ac:dyDescent="0.2">
@@ -56218,13 +56218,13 @@
         <v>64</v>
       </c>
       <c r="D1856" s="9">
-        <v>5322.65</v>
+        <v>6121.05</v>
       </c>
       <c r="E1856" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1856" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1857" spans="1:6" x14ac:dyDescent="0.2">
@@ -56238,13 +56238,13 @@
         <v>64</v>
       </c>
       <c r="D1857" s="9">
-        <v>6345.3</v>
+        <v>7297.1</v>
       </c>
       <c r="E1857" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1857" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1858" spans="1:6" x14ac:dyDescent="0.2">
@@ -56258,13 +56258,13 @@
         <v>64</v>
       </c>
       <c r="D1858" s="9">
-        <v>3309.31</v>
+        <v>3805.71</v>
       </c>
       <c r="E1858" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1858" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1859" spans="1:6" x14ac:dyDescent="0.2">
@@ -56278,13 +56278,13 @@
         <v>64</v>
       </c>
       <c r="D1859" s="9">
-        <v>4957.71</v>
+        <v>5701.37</v>
       </c>
       <c r="E1859" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1859" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1860" spans="1:6" x14ac:dyDescent="0.2">
@@ -56298,13 +56298,13 @@
         <v>64</v>
       </c>
       <c r="D1860" s="9">
-        <v>6647.06</v>
+        <v>7644.12</v>
       </c>
       <c r="E1860" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1860" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1861" spans="1:6" x14ac:dyDescent="0.2">
@@ -56318,13 +56318,13 @@
         <v>64</v>
       </c>
       <c r="D1861" s="9">
-        <v>8277.15</v>
+        <v>9518.73</v>
       </c>
       <c r="E1861" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1861" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1862" spans="1:6" x14ac:dyDescent="0.2">
@@ -56338,13 +56338,13 @@
         <v>64</v>
       </c>
       <c r="D1862" s="9">
-        <v>9941.5499999999993</v>
+        <v>11432.79</v>
       </c>
       <c r="E1862" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1862" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1863" spans="1:6" x14ac:dyDescent="0.2">
@@ -56358,13 +56358,13 @@
         <v>64</v>
       </c>
       <c r="D1863" s="9">
-        <v>4802.9399999999996</v>
+        <v>5523.39</v>
       </c>
       <c r="E1863" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1863" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1864" spans="1:6" x14ac:dyDescent="0.2">
@@ -56378,13 +56378,13 @@
         <v>64</v>
       </c>
       <c r="D1864" s="9">
-        <v>7184.51</v>
+        <v>8262.19</v>
       </c>
       <c r="E1864" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1864" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1865" spans="1:6" x14ac:dyDescent="0.2">
@@ -56398,13 +56398,13 @@
         <v>64</v>
       </c>
       <c r="D1865" s="9">
-        <v>9581.31</v>
+        <v>11018.51</v>
       </c>
       <c r="E1865" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1865" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1866" spans="1:6" x14ac:dyDescent="0.2">
@@ -56418,13 +56418,13 @@
         <v>64</v>
       </c>
       <c r="D1866" s="9">
-        <v>11979.83</v>
+        <v>13776.81</v>
       </c>
       <c r="E1866" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1866" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1867" spans="1:6" x14ac:dyDescent="0.2">
@@ -56438,13 +56438,13 @@
         <v>64</v>
       </c>
       <c r="D1867" s="9">
-        <v>14373.3</v>
+        <v>16529.3</v>
       </c>
       <c r="E1867" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1867" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1868" spans="1:6" x14ac:dyDescent="0.2">
@@ -56458,13 +56458,13 @@
         <v>64</v>
       </c>
       <c r="D1868" s="9">
-        <v>5899.47</v>
+        <v>6784.39</v>
       </c>
       <c r="E1868" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1868" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1869" spans="1:6" x14ac:dyDescent="0.2">
@@ -56478,13 +56478,13 @@
         <v>64</v>
       </c>
       <c r="D1869" s="9">
-        <v>8812.64</v>
+        <v>10134.540000000001</v>
       </c>
       <c r="E1869" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1869" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1870" spans="1:6" x14ac:dyDescent="0.2">
@@ -56498,13 +56498,13 @@
         <v>64</v>
       </c>
       <c r="D1870" s="9">
-        <v>11809.64</v>
+        <v>13581.09</v>
       </c>
       <c r="E1870" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1870" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1871" spans="1:6" x14ac:dyDescent="0.2">
@@ -56518,13 +56518,13 @@
         <v>64</v>
       </c>
       <c r="D1871" s="9">
-        <v>14767.66</v>
+        <v>16982.810000000001</v>
       </c>
       <c r="E1871" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1871" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1872" spans="1:6" x14ac:dyDescent="0.2">
@@ -56538,13 +56538,13 @@
         <v>64</v>
       </c>
       <c r="D1872" s="9">
-        <v>17669.72</v>
+        <v>20320.18</v>
       </c>
       <c r="E1872" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1872" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1873" spans="1:6" x14ac:dyDescent="0.2">
@@ -56558,13 +56558,13 @@
         <v>64</v>
       </c>
       <c r="D1873" s="9">
-        <v>7830.93</v>
+        <v>9005.57</v>
       </c>
       <c r="E1873" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1873" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1874" spans="1:6" x14ac:dyDescent="0.2">
@@ -56578,13 +56578,13 @@
         <v>64</v>
       </c>
       <c r="D1874" s="9">
-        <v>11710.81</v>
+        <v>13467.44</v>
       </c>
       <c r="E1874" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1874" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1875" spans="1:6" x14ac:dyDescent="0.2">
@@ -56598,13 +56598,13 @@
         <v>64</v>
       </c>
       <c r="D1875" s="9">
-        <v>15641.75</v>
+        <v>17988.02</v>
       </c>
       <c r="E1875" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1875" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1876" spans="1:6" x14ac:dyDescent="0.2">
@@ -56618,13 +56618,13 @@
         <v>64</v>
       </c>
       <c r="D1876" s="9">
-        <v>19531.97</v>
+        <v>22461.77</v>
       </c>
       <c r="E1876" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1876" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1877" spans="1:6" x14ac:dyDescent="0.2">
@@ -56638,13 +56638,13 @@
         <v>64</v>
       </c>
       <c r="D1877" s="9">
-        <v>23453.97</v>
+        <v>26972.07</v>
       </c>
       <c r="E1877" s="2" t="s">
         <v>3868</v>
       </c>
       <c r="F1877" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="1878" spans="1:6" x14ac:dyDescent="0.2">
@@ -62698,13 +62698,13 @@
         <v>64</v>
       </c>
       <c r="D2180" s="9">
-        <v>532.1</v>
+        <v>558.71</v>
       </c>
       <c r="E2180" s="2" t="s">
         <v>4562</v>
       </c>
       <c r="F2180" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2181" spans="1:6" x14ac:dyDescent="0.2">
@@ -62718,13 +62718,13 @@
         <v>64</v>
       </c>
       <c r="D2181" s="9">
-        <v>532.1</v>
+        <v>558.71</v>
       </c>
       <c r="E2181" s="2" t="s">
         <v>4562</v>
       </c>
       <c r="F2181" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2182" spans="1:6" x14ac:dyDescent="0.2">
@@ -62738,13 +62738,13 @@
         <v>64</v>
       </c>
       <c r="D2182" s="9">
-        <v>684.02</v>
+        <v>718.23</v>
       </c>
       <c r="E2182" s="2" t="s">
         <v>4562</v>
       </c>
       <c r="F2182" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2183" spans="1:6" x14ac:dyDescent="0.2">
@@ -62758,13 +62758,13 @@
         <v>64</v>
       </c>
       <c r="D2183" s="9">
-        <v>684.02</v>
+        <v>718.23</v>
       </c>
       <c r="E2183" s="2" t="s">
         <v>4562</v>
       </c>
       <c r="F2183" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2184" spans="1:6" x14ac:dyDescent="0.2">
@@ -62818,13 +62818,13 @@
         <v>64</v>
       </c>
       <c r="D2186" s="9">
-        <v>1118.1600000000001</v>
+        <v>1174.07</v>
       </c>
       <c r="E2186" s="2" t="s">
         <v>4562</v>
       </c>
       <c r="F2186" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2187" spans="1:6" x14ac:dyDescent="0.2">
@@ -62838,13 +62838,13 @@
         <v>64</v>
       </c>
       <c r="D2187" s="9">
-        <v>593.45000000000005</v>
+        <v>623.13</v>
       </c>
       <c r="E2187" s="2" t="s">
         <v>4562</v>
       </c>
       <c r="F2187" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2188" spans="1:6" x14ac:dyDescent="0.2">
@@ -67798,13 +67798,13 @@
         <v>935</v>
       </c>
       <c r="D2435" s="9">
-        <v>74.930000000000007</v>
+        <v>78.680000000000007</v>
       </c>
       <c r="E2435" s="2" t="s">
         <v>5099</v>
       </c>
       <c r="F2435" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2436" spans="1:6" x14ac:dyDescent="0.2">
@@ -67818,13 +67818,13 @@
         <v>935</v>
       </c>
       <c r="D2436" s="9">
-        <v>80.819999999999993</v>
+        <v>84.87</v>
       </c>
       <c r="E2436" s="2" t="s">
         <v>5099</v>
       </c>
       <c r="F2436" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2437" spans="1:6" x14ac:dyDescent="0.2">
@@ -67838,13 +67838,13 @@
         <v>8</v>
       </c>
       <c r="D2437" s="9">
-        <v>73.19</v>
+        <v>76.849999999999994</v>
       </c>
       <c r="E2437" s="2" t="s">
         <v>5099</v>
       </c>
       <c r="F2437" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2438" spans="1:6" x14ac:dyDescent="0.2">
@@ -67858,13 +67858,13 @@
         <v>8</v>
       </c>
       <c r="D2438" s="9">
-        <v>73.19</v>
+        <v>76.849999999999994</v>
       </c>
       <c r="E2438" s="2" t="s">
         <v>5099</v>
       </c>
       <c r="F2438" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2439" spans="1:6" x14ac:dyDescent="0.2">
@@ -67898,13 +67898,13 @@
         <v>64</v>
       </c>
       <c r="D2440" s="9">
-        <v>144.96</v>
+        <v>152.21</v>
       </c>
       <c r="E2440" s="2" t="s">
         <v>5099</v>
       </c>
       <c r="F2440" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2441" spans="1:6" x14ac:dyDescent="0.2">
@@ -67918,13 +67918,13 @@
         <v>64</v>
       </c>
       <c r="D2441" s="9">
-        <v>144.96</v>
+        <v>152.21</v>
       </c>
       <c r="E2441" s="2" t="s">
         <v>5099</v>
       </c>
       <c r="F2441" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2442" spans="1:6" x14ac:dyDescent="0.2">
@@ -68318,13 +68318,13 @@
         <v>844</v>
       </c>
       <c r="D2461" s="9">
-        <v>822.29</v>
+        <v>730.26</v>
       </c>
       <c r="E2461" s="2" t="s">
         <v>5161</v>
       </c>
       <c r="F2461" s="3">
-        <v>45044</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="2462" spans="1:6" x14ac:dyDescent="0.2">
@@ -68338,13 +68338,13 @@
         <v>2062</v>
       </c>
       <c r="D2462" s="9">
-        <v>1806.16</v>
+        <v>1604.05</v>
       </c>
       <c r="E2462" s="2" t="s">
         <v>5161</v>
       </c>
       <c r="F2462" s="3">
-        <v>45044</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="2463" spans="1:6" x14ac:dyDescent="0.2">
@@ -68358,13 +68358,13 @@
         <v>8</v>
       </c>
       <c r="D2463" s="9">
-        <v>822.29</v>
+        <v>730.26</v>
       </c>
       <c r="E2463" s="2" t="s">
         <v>5161</v>
       </c>
       <c r="F2463" s="3">
-        <v>45044</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="2464" spans="1:6" x14ac:dyDescent="0.2">
@@ -68618,13 +68618,13 @@
         <v>64</v>
       </c>
       <c r="D2476" s="9">
-        <v>599.41999999999996</v>
+        <v>629.4</v>
       </c>
       <c r="E2476" s="2" t="s">
         <v>5194</v>
       </c>
       <c r="F2476" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2477" spans="1:6" x14ac:dyDescent="0.2">
@@ -68638,13 +68638,13 @@
         <v>64</v>
       </c>
       <c r="D2477" s="9">
-        <v>599.41999999999996</v>
+        <v>629.4</v>
       </c>
       <c r="E2477" s="2" t="s">
         <v>5194</v>
       </c>
       <c r="F2477" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2478" spans="1:6" x14ac:dyDescent="0.2">
@@ -68658,13 +68658,13 @@
         <v>64</v>
       </c>
       <c r="D2478" s="9">
-        <v>721.75</v>
+        <v>757.84</v>
       </c>
       <c r="E2478" s="2" t="s">
         <v>5194</v>
       </c>
       <c r="F2478" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2479" spans="1:6" x14ac:dyDescent="0.2">
@@ -68678,13 +68678,13 @@
         <v>64</v>
       </c>
       <c r="D2479" s="9">
-        <v>599.41999999999996</v>
+        <v>629.4</v>
       </c>
       <c r="E2479" s="2" t="s">
         <v>5201</v>
       </c>
       <c r="F2479" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2480" spans="1:6" x14ac:dyDescent="0.2">
@@ -68698,13 +68698,13 @@
         <v>64</v>
       </c>
       <c r="D2480" s="9">
-        <v>599.41999999999996</v>
+        <v>629.4</v>
       </c>
       <c r="E2480" s="2" t="s">
         <v>5201</v>
       </c>
       <c r="F2480" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2481" spans="1:6" x14ac:dyDescent="0.2">
@@ -68778,13 +68778,13 @@
         <v>64</v>
       </c>
       <c r="D2484" s="9">
-        <v>1126.97</v>
+        <v>1183.32</v>
       </c>
       <c r="E2484" s="2" t="s">
         <v>5213</v>
       </c>
       <c r="F2484" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2485" spans="1:6" x14ac:dyDescent="0.2">
@@ -68978,13 +68978,13 @@
         <v>64</v>
       </c>
       <c r="D2494" s="9">
-        <v>1312.64</v>
+        <v>1378.28</v>
       </c>
       <c r="E2494" s="2" t="s">
         <v>5213</v>
       </c>
       <c r="F2494" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2495" spans="1:6" x14ac:dyDescent="0.2">
@@ -68998,13 +68998,13 @@
         <v>64</v>
       </c>
       <c r="D2495" s="9">
-        <v>4987.1099999999997</v>
+        <v>5236.47</v>
       </c>
       <c r="E2495" s="2" t="s">
         <v>5213</v>
       </c>
       <c r="F2495" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2496" spans="1:6" x14ac:dyDescent="0.2">
@@ -69018,13 +69018,13 @@
         <v>64</v>
       </c>
       <c r="D2496" s="9">
-        <v>602.77</v>
+        <v>632.91</v>
       </c>
       <c r="E2496" s="2" t="s">
         <v>5238</v>
       </c>
       <c r="F2496" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2497" spans="1:6" x14ac:dyDescent="0.2">
@@ -69098,13 +69098,13 @@
         <v>64</v>
       </c>
       <c r="D2500" s="9">
-        <v>589.27</v>
+        <v>618.74</v>
       </c>
       <c r="E2500" s="2" t="s">
         <v>5238</v>
       </c>
       <c r="F2500" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2501" spans="1:6" x14ac:dyDescent="0.2">
@@ -69118,13 +69118,13 @@
         <v>64</v>
       </c>
       <c r="D2501" s="9">
-        <v>395.11</v>
+        <v>414.87</v>
       </c>
       <c r="E2501" s="2" t="s">
         <v>5238</v>
       </c>
       <c r="F2501" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2502" spans="1:6" x14ac:dyDescent="0.2">
@@ -69138,13 +69138,13 @@
         <v>64</v>
       </c>
       <c r="D2502" s="9">
-        <v>554.57000000000005</v>
+        <v>582.29999999999995</v>
       </c>
       <c r="E2502" s="2" t="s">
         <v>5238</v>
       </c>
       <c r="F2502" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2503" spans="1:6" x14ac:dyDescent="0.2">
@@ -69158,13 +69158,13 @@
         <v>8</v>
       </c>
       <c r="D2503" s="9">
-        <v>720.14</v>
+        <v>756.15</v>
       </c>
       <c r="E2503" s="2" t="s">
         <v>5253</v>
       </c>
       <c r="F2503" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2504" spans="1:6" x14ac:dyDescent="0.2">
@@ -69238,13 +69238,13 @@
         <v>8</v>
       </c>
       <c r="D2507" s="9">
-        <v>355.6</v>
+        <v>373.38</v>
       </c>
       <c r="E2507" s="2" t="s">
         <v>5253</v>
       </c>
       <c r="F2507" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2508" spans="1:6" x14ac:dyDescent="0.2">
@@ -69258,13 +69258,13 @@
         <v>8</v>
       </c>
       <c r="D2508" s="9">
-        <v>370.01</v>
+        <v>388.51</v>
       </c>
       <c r="E2508" s="2" t="s">
         <v>5253</v>
       </c>
       <c r="F2508" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2509" spans="1:6" x14ac:dyDescent="0.2">
@@ -70158,13 +70158,13 @@
         <v>64</v>
       </c>
       <c r="D2553" s="9">
-        <v>627.48</v>
+        <v>658.86</v>
       </c>
       <c r="E2553" s="2" t="s">
         <v>5346</v>
       </c>
       <c r="F2553" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2554" spans="1:6" x14ac:dyDescent="0.2">
@@ -70178,13 +70178,13 @@
         <v>64</v>
       </c>
       <c r="D2554" s="9">
-        <v>730.92</v>
+        <v>767.47</v>
       </c>
       <c r="E2554" s="2" t="s">
         <v>5346</v>
       </c>
       <c r="F2554" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2555" spans="1:6" x14ac:dyDescent="0.2">
@@ -70198,13 +70198,13 @@
         <v>64</v>
       </c>
       <c r="D2555" s="9">
-        <v>1050.6400000000001</v>
+        <v>1103.18</v>
       </c>
       <c r="E2555" s="2" t="s">
         <v>5346</v>
       </c>
       <c r="F2555" s="3">
-        <v>45044</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="2556" spans="1:6" x14ac:dyDescent="0.2">
@@ -71478,13 +71478,13 @@
         <v>8</v>
       </c>
       <c r="D2619" s="9">
-        <v>855.25</v>
+        <v>1029.33</v>
       </c>
       <c r="E2619" s="2" t="s">
         <v>5489</v>
       </c>
       <c r="F2619" s="3">
-        <v>45044</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="2620" spans="1:6" x14ac:dyDescent="0.2">
@@ -71598,13 +71598,13 @@
         <v>8</v>
       </c>
       <c r="D2625" s="9">
-        <v>738.41</v>
+        <v>812.26</v>
       </c>
       <c r="E2625" s="2" t="s">
         <v>5489</v>
       </c>
       <c r="F2625" s="3">
-        <v>45044</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="2626" spans="1:6" x14ac:dyDescent="0.2">
@@ -71618,13 +71618,13 @@
         <v>8</v>
       </c>
       <c r="D2626" s="9">
-        <v>649.63</v>
+        <v>779.95</v>
       </c>
       <c r="E2626" s="2" t="s">
         <v>5489</v>
       </c>
       <c r="F2626" s="3">
-        <v>45044</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="2627" spans="1:6" x14ac:dyDescent="0.2">
@@ -73918,13 +73918,13 @@
         <v>1238</v>
       </c>
       <c r="D2741" s="9">
-        <v>132.63999999999999</v>
+        <v>152.19</v>
       </c>
       <c r="E2741" s="2" t="s">
         <v>5768</v>
       </c>
       <c r="F2741" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="2742" spans="1:6" x14ac:dyDescent="0.2">
@@ -73938,13 +73938,13 @@
         <v>1238</v>
       </c>
       <c r="D2742" s="9">
-        <v>136.6</v>
+        <v>165.15</v>
       </c>
       <c r="E2742" s="2" t="s">
         <v>5768</v>
       </c>
       <c r="F2742" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="2743" spans="1:6" x14ac:dyDescent="0.2">
@@ -73958,13 +73958,13 @@
         <v>1238</v>
       </c>
       <c r="D2743" s="9">
-        <v>146.47999999999999</v>
+        <v>177.6</v>
       </c>
       <c r="E2743" s="2" t="s">
         <v>5768</v>
       </c>
       <c r="F2743" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="2744" spans="1:6" x14ac:dyDescent="0.2">
@@ -77836,13 +77836,13 @@
         <v>935</v>
       </c>
       <c r="D2937" s="9">
-        <v>274.08</v>
+        <v>290.23</v>
       </c>
       <c r="E2937" s="2" t="s">
         <v>6197</v>
       </c>
       <c r="F2937" s="3">
-        <v>45044</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="2938" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel-files/fg.xlsx
+++ b/excel-files/fg.xlsx
@@ -27854,13 +27854,13 @@
         <v>64</v>
       </c>
       <c r="D440" s="9">
-        <v>5690.5</v>
+        <v>5852</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>904</v>
       </c>
       <c r="F440" s="3">
-        <v>45078</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.2">
@@ -29594,13 +29594,13 @@
         <v>976</v>
       </c>
       <c r="D527" s="9">
-        <v>1598.37</v>
+        <v>1631</v>
       </c>
       <c r="E527" s="2" t="s">
         <v>1071</v>
       </c>
       <c r="F527" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.2">
@@ -31394,13 +31394,13 @@
         <v>8</v>
       </c>
       <c r="D617" s="9">
-        <v>74.67</v>
+        <v>81.55</v>
       </c>
       <c r="E617" s="2" t="s">
         <v>1265</v>
       </c>
       <c r="F617" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.2">
@@ -31414,13 +31414,13 @@
         <v>8</v>
       </c>
       <c r="D618" s="9">
-        <v>74.67</v>
+        <v>81.55</v>
       </c>
       <c r="E618" s="2" t="s">
         <v>1265</v>
       </c>
       <c r="F618" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.2">
@@ -32072,13 +32072,13 @@
         <v>64</v>
       </c>
       <c r="D651" s="9">
-        <v>5664.74</v>
+        <v>7189.6</v>
       </c>
       <c r="E651" s="2" t="s">
         <v>1336</v>
       </c>
       <c r="F651" s="3">
-        <v>45044</v>
+        <v>45106</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.2">
@@ -32092,13 +32092,13 @@
         <v>64</v>
       </c>
       <c r="D652" s="9">
-        <v>6253.28</v>
+        <v>8549.6</v>
       </c>
       <c r="E652" s="2" t="s">
         <v>1336</v>
       </c>
       <c r="F652" s="3">
-        <v>45044</v>
+        <v>45106</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.2">
@@ -32512,13 +32512,13 @@
         <v>8</v>
       </c>
       <c r="D673" s="9">
-        <v>439.08</v>
+        <v>479.49</v>
       </c>
       <c r="E673" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F673" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.2">
@@ -32532,13 +32532,13 @@
         <v>8</v>
       </c>
       <c r="D674" s="9">
-        <v>439.08</v>
+        <v>479.49</v>
       </c>
       <c r="E674" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F674" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.2">
@@ -32652,13 +32652,13 @@
         <v>32</v>
       </c>
       <c r="D680" s="9">
-        <v>357.13</v>
+        <v>389.98</v>
       </c>
       <c r="E680" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F680" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.2">
@@ -32672,13 +32672,13 @@
         <v>32</v>
       </c>
       <c r="D681" s="9">
-        <v>357.13</v>
+        <v>389.98</v>
       </c>
       <c r="E681" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F681" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.2">
@@ -58190,13 +58190,13 @@
         <v>970</v>
       </c>
       <c r="D1957" s="9">
-        <v>29.06</v>
+        <v>31.73</v>
       </c>
       <c r="E1957" s="2" t="s">
         <v>4098</v>
       </c>
       <c r="F1957" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="1958" spans="1:6" x14ac:dyDescent="0.2">
@@ -58210,13 +58210,13 @@
         <v>970</v>
       </c>
       <c r="D1958" s="9">
-        <v>20.59</v>
+        <v>22.49</v>
       </c>
       <c r="E1958" s="2" t="s">
         <v>4098</v>
       </c>
       <c r="F1958" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="1959" spans="1:6" x14ac:dyDescent="0.2">
@@ -58230,13 +58230,13 @@
         <v>970</v>
       </c>
       <c r="D1959" s="9">
-        <v>25.83</v>
+        <v>28.22</v>
       </c>
       <c r="E1959" s="2" t="s">
         <v>4098</v>
       </c>
       <c r="F1959" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="1960" spans="1:6" x14ac:dyDescent="0.2">
@@ -58250,13 +58250,13 @@
         <v>970</v>
       </c>
       <c r="D1960" s="9">
-        <v>13.31</v>
+        <v>14.55</v>
       </c>
       <c r="E1960" s="2" t="s">
         <v>4098</v>
       </c>
       <c r="F1960" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="1961" spans="1:6" x14ac:dyDescent="0.2">
@@ -58270,13 +58270,13 @@
         <v>970</v>
       </c>
       <c r="D1961" s="9">
-        <v>16.149999999999999</v>
+        <v>17.63</v>
       </c>
       <c r="E1961" s="2" t="s">
         <v>4098</v>
       </c>
       <c r="F1961" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="1962" spans="1:6" x14ac:dyDescent="0.2">
@@ -58290,13 +58290,13 @@
         <v>970</v>
       </c>
       <c r="D1962" s="9">
-        <v>18.57</v>
+        <v>20.28</v>
       </c>
       <c r="E1962" s="2" t="s">
         <v>4098</v>
       </c>
       <c r="F1962" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="1963" spans="1:6" x14ac:dyDescent="0.2">
@@ -58310,13 +58310,13 @@
         <v>970</v>
       </c>
       <c r="D1963" s="9">
-        <v>19.16</v>
+        <v>20.95</v>
       </c>
       <c r="E1963" s="2" t="s">
         <v>4098</v>
       </c>
       <c r="F1963" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="1964" spans="1:6" x14ac:dyDescent="0.2">
@@ -58330,13 +58330,13 @@
         <v>970</v>
       </c>
       <c r="D1964" s="9">
-        <v>23.21</v>
+        <v>25.35</v>
       </c>
       <c r="E1964" s="2" t="s">
         <v>4098</v>
       </c>
       <c r="F1964" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="1965" spans="1:6" x14ac:dyDescent="0.2">
@@ -58370,13 +58370,13 @@
         <v>970</v>
       </c>
       <c r="D1966" s="9">
-        <v>24.62</v>
+        <v>26.89</v>
       </c>
       <c r="E1966" s="2" t="s">
         <v>4098</v>
       </c>
       <c r="F1966" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="1967" spans="1:6" x14ac:dyDescent="0.2">
@@ -58390,13 +58390,13 @@
         <v>970</v>
       </c>
       <c r="D1967" s="9">
-        <v>19.38</v>
+        <v>21.16</v>
       </c>
       <c r="E1967" s="2" t="s">
         <v>4098</v>
       </c>
       <c r="F1967" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="1968" spans="1:6" x14ac:dyDescent="0.2">
@@ -58410,13 +58410,13 @@
         <v>970</v>
       </c>
       <c r="D1968" s="9">
-        <v>21.8</v>
+        <v>23.81</v>
       </c>
       <c r="E1968" s="2" t="s">
         <v>4098</v>
       </c>
       <c r="F1968" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="1969" spans="1:6" x14ac:dyDescent="0.2">
@@ -58430,13 +58430,13 @@
         <v>970</v>
       </c>
       <c r="D1969" s="9">
-        <v>19.78</v>
+        <v>21.61</v>
       </c>
       <c r="E1969" s="2" t="s">
         <v>4098</v>
       </c>
       <c r="F1969" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="1970" spans="1:6" x14ac:dyDescent="0.2">
@@ -59950,13 +59950,13 @@
         <v>8</v>
       </c>
       <c r="D2045" s="9">
-        <v>160.51</v>
+        <v>182.4</v>
       </c>
       <c r="E2045" s="2" t="s">
         <v>4285</v>
       </c>
       <c r="F2045" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2046" spans="1:6" x14ac:dyDescent="0.2">
@@ -59970,13 +59970,13 @@
         <v>8</v>
       </c>
       <c r="D2046" s="9">
-        <v>250.8</v>
+        <v>279.68</v>
       </c>
       <c r="E2046" s="2" t="s">
         <v>4285</v>
       </c>
       <c r="F2046" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2047" spans="1:6" x14ac:dyDescent="0.2">
@@ -59990,13 +59990,13 @@
         <v>838</v>
       </c>
       <c r="D2047" s="9">
-        <v>414.66</v>
+        <v>456</v>
       </c>
       <c r="E2047" s="2" t="s">
         <v>4285</v>
       </c>
       <c r="F2047" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2048" spans="1:6" x14ac:dyDescent="0.2">
@@ -60010,13 +60010,13 @@
         <v>8</v>
       </c>
       <c r="D2048" s="9">
-        <v>217.36</v>
+        <v>267.52</v>
       </c>
       <c r="E2048" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2048" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2049" spans="1:6" x14ac:dyDescent="0.2">
@@ -60090,13 +60090,13 @@
         <v>8</v>
       </c>
       <c r="D2052" s="9">
-        <v>434.72</v>
+        <v>532</v>
       </c>
       <c r="E2052" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2052" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2053" spans="1:6" x14ac:dyDescent="0.2">
@@ -60110,13 +60110,13 @@
         <v>32</v>
       </c>
       <c r="D2053" s="9">
-        <v>961.4</v>
+        <v>1026</v>
       </c>
       <c r="E2053" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2053" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2054" spans="1:6" x14ac:dyDescent="0.2">
@@ -60130,13 +60130,13 @@
         <v>838</v>
       </c>
       <c r="D2054" s="9">
-        <v>1922.8</v>
+        <v>2052</v>
       </c>
       <c r="E2054" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2054" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2055" spans="1:6" x14ac:dyDescent="0.2">
@@ -60150,13 +60150,13 @@
         <v>64</v>
       </c>
       <c r="D2055" s="9">
-        <v>3845.6</v>
+        <v>4104</v>
       </c>
       <c r="E2055" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2055" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2056" spans="1:6" x14ac:dyDescent="0.2">
@@ -60210,13 +60210,13 @@
         <v>64</v>
       </c>
       <c r="D2058" s="9">
-        <v>982.3</v>
+        <v>1292</v>
       </c>
       <c r="E2058" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2058" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2059" spans="1:6" x14ac:dyDescent="0.2">
@@ -60230,13 +60230,13 @@
         <v>64</v>
       </c>
       <c r="D2059" s="9">
-        <v>1964.6</v>
+        <v>2584</v>
       </c>
       <c r="E2059" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2059" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2060" spans="1:6" x14ac:dyDescent="0.2">
@@ -60250,13 +60250,13 @@
         <v>8</v>
       </c>
       <c r="D2060" s="9">
-        <v>836</v>
+        <v>1003.2</v>
       </c>
       <c r="E2060" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2060" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2061" spans="1:6" x14ac:dyDescent="0.2">
@@ -60270,13 +60270,13 @@
         <v>8</v>
       </c>
       <c r="D2061" s="9">
-        <v>230.74</v>
+        <v>243.2</v>
       </c>
       <c r="E2061" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2061" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2062" spans="1:6" x14ac:dyDescent="0.2">
@@ -60290,13 +60290,13 @@
         <v>32</v>
       </c>
       <c r="D2062" s="9">
-        <v>525.79999999999995</v>
+        <v>623.20000000000005</v>
       </c>
       <c r="E2062" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2062" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2063" spans="1:6" x14ac:dyDescent="0.2">
@@ -60310,13 +60310,13 @@
         <v>64</v>
       </c>
       <c r="D2063" s="9">
-        <v>1053.3599999999999</v>
+        <v>1216</v>
       </c>
       <c r="E2063" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2063" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2064" spans="1:6" x14ac:dyDescent="0.2">
@@ -60330,13 +60330,13 @@
         <v>64</v>
       </c>
       <c r="D2064" s="9">
-        <v>2106.7199999999998</v>
+        <v>2432</v>
       </c>
       <c r="E2064" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2064" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2065" spans="1:6" x14ac:dyDescent="0.2">
@@ -60350,13 +60350,13 @@
         <v>8</v>
       </c>
       <c r="D2065" s="9">
-        <v>264.18</v>
+        <v>304</v>
       </c>
       <c r="E2065" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2065" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2066" spans="1:6" x14ac:dyDescent="0.2">
@@ -60370,13 +60370,13 @@
         <v>2270</v>
       </c>
       <c r="D2066" s="9">
-        <v>165.53</v>
+        <v>182.09</v>
       </c>
       <c r="E2066" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2066" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2067" spans="1:6" x14ac:dyDescent="0.2">
@@ -60390,13 +60390,13 @@
         <v>8</v>
       </c>
       <c r="D2067" s="9">
-        <v>384.56</v>
+        <v>440.8</v>
       </c>
       <c r="E2067" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2067" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2068" spans="1:6" x14ac:dyDescent="0.2">
@@ -60410,13 +60410,13 @@
         <v>32</v>
       </c>
       <c r="D2068" s="9">
-        <v>919.6</v>
+        <v>1102</v>
       </c>
       <c r="E2068" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2068" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2069" spans="1:6" x14ac:dyDescent="0.2">
@@ -60430,13 +60430,13 @@
         <v>64</v>
       </c>
       <c r="D2069" s="9">
-        <v>1839.2</v>
+        <v>2204</v>
       </c>
       <c r="E2069" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2069" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2070" spans="1:6" x14ac:dyDescent="0.2">
@@ -60450,13 +60450,13 @@
         <v>64</v>
       </c>
       <c r="D2070" s="9">
-        <v>3678.4</v>
+        <v>4408</v>
       </c>
       <c r="E2070" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2070" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2071" spans="1:6" x14ac:dyDescent="0.2">
@@ -60470,13 +60470,13 @@
         <v>8</v>
       </c>
       <c r="D2071" s="9">
-        <v>214.6</v>
+        <v>225.72</v>
       </c>
       <c r="E2071" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2071" s="3">
-        <v>45044</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="2072" spans="1:6" x14ac:dyDescent="0.2">
@@ -60490,13 +60490,13 @@
         <v>8</v>
       </c>
       <c r="D2072" s="9">
-        <v>290.95999999999998</v>
+        <v>323.19</v>
       </c>
       <c r="E2072" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2072" s="3">
-        <v>45044</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="2073" spans="1:6" x14ac:dyDescent="0.2">
@@ -60510,13 +60510,13 @@
         <v>2270</v>
       </c>
       <c r="D2073" s="9">
-        <v>267.52</v>
+        <v>334.4</v>
       </c>
       <c r="E2073" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2073" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2074" spans="1:6" x14ac:dyDescent="0.2">
@@ -60550,13 +60550,13 @@
         <v>8</v>
       </c>
       <c r="D2075" s="9">
-        <v>271.5</v>
+        <v>272.08</v>
       </c>
       <c r="E2075" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2075" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2076" spans="1:6" x14ac:dyDescent="0.2">
@@ -60590,13 +60590,13 @@
         <v>2309</v>
       </c>
       <c r="D2077" s="9">
-        <v>212.96</v>
+        <v>380</v>
       </c>
       <c r="E2077" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2077" s="3">
-        <v>45044</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="2078" spans="1:6" x14ac:dyDescent="0.2">
@@ -60730,13 +60730,13 @@
         <v>64</v>
       </c>
       <c r="D2084" s="9">
-        <v>8056</v>
+        <v>8702</v>
       </c>
       <c r="E2084" s="2" t="s">
         <v>4367</v>
       </c>
       <c r="F2084" s="3">
-        <v>45083</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2085" spans="1:6" x14ac:dyDescent="0.2">
@@ -60750,13 +60750,13 @@
         <v>64</v>
       </c>
       <c r="D2085" s="9">
-        <v>10431</v>
+        <v>11267</v>
       </c>
       <c r="E2085" s="2" t="s">
         <v>4367</v>
       </c>
       <c r="F2085" s="3">
-        <v>45083</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2086" spans="1:6" x14ac:dyDescent="0.2">
@@ -60770,13 +60770,13 @@
         <v>64</v>
       </c>
       <c r="D2086" s="9">
-        <v>11096</v>
+        <v>11970</v>
       </c>
       <c r="E2086" s="2" t="s">
         <v>4367</v>
       </c>
       <c r="F2086" s="3">
-        <v>45083</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2087" spans="1:6" x14ac:dyDescent="0.2">
@@ -63790,13 +63790,13 @@
         <v>8</v>
       </c>
       <c r="D2237" s="9">
-        <v>48.44</v>
+        <v>52.89</v>
       </c>
       <c r="E2237" s="2" t="s">
         <v>4693</v>
       </c>
       <c r="F2237" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2238" spans="1:6" x14ac:dyDescent="0.2">
@@ -65270,13 +65270,13 @@
         <v>929</v>
       </c>
       <c r="D2311" s="9">
-        <v>80.72</v>
+        <v>88.16</v>
       </c>
       <c r="E2311" s="2" t="s">
         <v>4743</v>
       </c>
       <c r="F2311" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2312" spans="1:6" x14ac:dyDescent="0.2">
@@ -69230,13 +69230,13 @@
         <v>929</v>
       </c>
       <c r="D2509" s="9">
-        <v>141.26</v>
+        <v>154.27000000000001</v>
       </c>
       <c r="E2509" s="2" t="s">
         <v>5267</v>
       </c>
       <c r="F2509" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2510" spans="1:6" x14ac:dyDescent="0.2">
@@ -69250,13 +69250,13 @@
         <v>929</v>
       </c>
       <c r="D2510" s="9">
-        <v>141.26</v>
+        <v>154.27000000000001</v>
       </c>
       <c r="E2510" s="2" t="s">
         <v>5267</v>
       </c>
       <c r="F2510" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2511" spans="1:6" x14ac:dyDescent="0.2">
@@ -69270,13 +69270,13 @@
         <v>929</v>
       </c>
       <c r="D2511" s="9">
-        <v>141.26</v>
+        <v>154.27000000000001</v>
       </c>
       <c r="E2511" s="2" t="s">
         <v>5267</v>
       </c>
       <c r="F2511" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2512" spans="1:6" x14ac:dyDescent="0.2">
@@ -69290,13 +69290,13 @@
         <v>929</v>
       </c>
       <c r="D2512" s="9">
-        <v>141.26</v>
+        <v>154.27000000000001</v>
       </c>
       <c r="E2512" s="2" t="s">
         <v>5267</v>
       </c>
       <c r="F2512" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2513" spans="1:6" x14ac:dyDescent="0.2">
@@ -69310,13 +69310,13 @@
         <v>929</v>
       </c>
       <c r="D2513" s="9">
-        <v>141.26</v>
+        <v>154.27000000000001</v>
       </c>
       <c r="E2513" s="2" t="s">
         <v>5267</v>
       </c>
       <c r="F2513" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2514" spans="1:6" x14ac:dyDescent="0.2">
@@ -69330,13 +69330,13 @@
         <v>929</v>
       </c>
       <c r="D2514" s="9">
-        <v>141.26</v>
+        <v>154.27000000000001</v>
       </c>
       <c r="E2514" s="2" t="s">
         <v>5267</v>
       </c>
       <c r="F2514" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2515" spans="1:6" x14ac:dyDescent="0.2">
@@ -69350,13 +69350,13 @@
         <v>929</v>
       </c>
       <c r="D2515" s="9">
-        <v>141.26</v>
+        <v>154.27000000000001</v>
       </c>
       <c r="E2515" s="2" t="s">
         <v>5267</v>
       </c>
       <c r="F2515" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2516" spans="1:6" x14ac:dyDescent="0.2">
@@ -69370,13 +69370,13 @@
         <v>929</v>
       </c>
       <c r="D2516" s="9">
-        <v>141.26</v>
+        <v>154.27000000000001</v>
       </c>
       <c r="E2516" s="2" t="s">
         <v>5267</v>
       </c>
       <c r="F2516" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2517" spans="1:6" x14ac:dyDescent="0.2">
@@ -69390,13 +69390,13 @@
         <v>929</v>
       </c>
       <c r="D2517" s="9">
-        <v>141.26</v>
+        <v>154.27000000000001</v>
       </c>
       <c r="E2517" s="2" t="s">
         <v>5267</v>
       </c>
       <c r="F2517" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2518" spans="1:6" x14ac:dyDescent="0.2">
@@ -69410,13 +69410,13 @@
         <v>929</v>
       </c>
       <c r="D2518" s="9">
-        <v>141.26</v>
+        <v>154.27000000000001</v>
       </c>
       <c r="E2518" s="2" t="s">
         <v>5267</v>
       </c>
       <c r="F2518" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2519" spans="1:6" x14ac:dyDescent="0.2">
@@ -69430,13 +69430,13 @@
         <v>929</v>
       </c>
       <c r="D2519" s="9">
-        <v>141.26</v>
+        <v>154.27000000000001</v>
       </c>
       <c r="E2519" s="2" t="s">
         <v>5267</v>
       </c>
       <c r="F2519" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2520" spans="1:6" x14ac:dyDescent="0.2">
@@ -69470,13 +69470,13 @@
         <v>929</v>
       </c>
       <c r="D2521" s="9">
-        <v>141.26</v>
+        <v>154.27000000000001</v>
       </c>
       <c r="E2521" s="2" t="s">
         <v>5267</v>
       </c>
       <c r="F2521" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2522" spans="1:6" x14ac:dyDescent="0.2">
@@ -69490,13 +69490,13 @@
         <v>976</v>
       </c>
       <c r="D2522" s="9">
-        <v>2017.4</v>
+        <v>2204</v>
       </c>
       <c r="E2522" s="2" t="s">
         <v>5267</v>
       </c>
       <c r="F2522" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2523" spans="1:6" x14ac:dyDescent="0.2">
@@ -69510,13 +69510,13 @@
         <v>929</v>
       </c>
       <c r="D2523" s="9">
-        <v>141.26</v>
+        <v>154.27000000000001</v>
       </c>
       <c r="E2523" s="2" t="s">
         <v>5267</v>
       </c>
       <c r="F2523" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2524" spans="1:6" x14ac:dyDescent="0.2">
@@ -69530,13 +69530,13 @@
         <v>8</v>
       </c>
       <c r="D2524" s="9">
-        <v>242.18</v>
+        <v>264.45999999999998</v>
       </c>
       <c r="E2524" s="2" t="s">
         <v>5267</v>
       </c>
       <c r="F2524" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2525" spans="1:6" x14ac:dyDescent="0.2">
@@ -69550,13 +69550,13 @@
         <v>8</v>
       </c>
       <c r="D2525" s="9">
-        <v>242.18</v>
+        <v>264.45999999999998</v>
       </c>
       <c r="E2525" s="2" t="s">
         <v>5267</v>
       </c>
       <c r="F2525" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2526" spans="1:6" x14ac:dyDescent="0.2">
@@ -69590,13 +69590,13 @@
         <v>929</v>
       </c>
       <c r="D2527" s="9">
-        <v>141.26</v>
+        <v>154.27000000000001</v>
       </c>
       <c r="E2527" s="2" t="s">
         <v>5267</v>
       </c>
       <c r="F2527" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2528" spans="1:6" x14ac:dyDescent="0.2">
@@ -69610,13 +69610,13 @@
         <v>929</v>
       </c>
       <c r="D2528" s="9">
-        <v>141.26</v>
+        <v>154.27000000000001</v>
       </c>
       <c r="E2528" s="2" t="s">
         <v>5267</v>
       </c>
       <c r="F2528" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2529" spans="1:6" x14ac:dyDescent="0.2">
@@ -73850,13 +73850,13 @@
         <v>929</v>
       </c>
       <c r="D2740" s="9">
-        <v>127.14</v>
+        <v>138.84</v>
       </c>
       <c r="E2740" s="2" t="s">
         <v>5766</v>
       </c>
       <c r="F2740" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2741" spans="1:6" x14ac:dyDescent="0.2">
@@ -75470,13 +75470,13 @@
         <v>970</v>
       </c>
       <c r="D2821" s="9">
-        <v>49.65</v>
+        <v>54.21</v>
       </c>
       <c r="E2821" s="2" t="s">
         <v>5945</v>
       </c>
       <c r="F2821" s="3">
-        <v>45044</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="2822" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel-files/fg.xlsx
+++ b/excel-files/fg.xlsx
@@ -19638,13 +19638,13 @@
         <v>8</v>
       </c>
       <c r="D29" s="9">
-        <v>76.37</v>
+        <v>86.45</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="3">
-        <v>45084</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -22818,13 +22818,13 @@
         <v>64</v>
       </c>
       <c r="D188" s="9">
-        <v>6497.22</v>
+        <v>7017</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F188" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -22838,13 +22838,13 @@
         <v>64</v>
       </c>
       <c r="D189" s="9">
-        <v>553.37</v>
+        <v>597.64</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F189" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -22858,13 +22858,13 @@
         <v>64</v>
       </c>
       <c r="D190" s="9">
-        <v>758.49</v>
+        <v>819.17</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F190" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -22878,13 +22878,13 @@
         <v>64</v>
       </c>
       <c r="D191" s="9">
-        <v>1068.02</v>
+        <v>1153.47</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F191" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -22898,13 +22898,13 @@
         <v>64</v>
       </c>
       <c r="D192" s="9">
-        <v>1398.49</v>
+        <v>1510.37</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F192" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -22918,13 +22918,13 @@
         <v>64</v>
       </c>
       <c r="D193" s="9">
-        <v>1538.79</v>
+        <v>1661.9</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F193" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -22938,13 +22938,13 @@
         <v>64</v>
       </c>
       <c r="D194" s="9">
-        <v>531.96</v>
+        <v>574.52</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F194" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -22958,13 +22958,13 @@
         <v>64</v>
       </c>
       <c r="D195" s="9">
-        <v>1447.02</v>
+        <v>1562.79</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F195" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -22978,13 +22978,13 @@
         <v>64</v>
       </c>
       <c r="D196" s="9">
-        <v>8164.16</v>
+        <v>8817.2999999999993</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F196" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -22998,13 +22998,13 @@
         <v>64</v>
       </c>
       <c r="D197" s="9">
-        <v>1169.52</v>
+        <v>1263.0899999999999</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F197" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -23018,13 +23018,13 @@
         <v>64</v>
       </c>
       <c r="D198" s="9">
-        <v>1309.0899999999999</v>
+        <v>1413.82</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F198" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -23038,13 +23038,13 @@
         <v>64</v>
       </c>
       <c r="D199" s="9">
-        <v>501.48</v>
+        <v>541.6</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F199" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -23058,13 +23058,13 @@
         <v>64</v>
       </c>
       <c r="D200" s="9">
-        <v>299.45</v>
+        <v>323.41000000000003</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F200" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -23078,13 +23078,13 @@
         <v>64</v>
       </c>
       <c r="D201" s="9">
-        <v>8272.9699999999993</v>
+        <v>8934.81</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F201" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -23098,13 +23098,13 @@
         <v>64</v>
       </c>
       <c r="D202" s="9">
-        <v>22306.57</v>
+        <v>24091.1</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F202" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -23118,13 +23118,13 @@
         <v>64</v>
       </c>
       <c r="D203" s="9">
-        <v>5587.4</v>
+        <v>6034.4</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F203" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -23138,13 +23138,13 @@
         <v>64</v>
       </c>
       <c r="D204" s="9">
-        <v>2225.2199999999998</v>
+        <v>2403.2399999999998</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F204" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -23158,13 +23158,13 @@
         <v>64</v>
       </c>
       <c r="D205" s="9">
-        <v>1486.36</v>
+        <v>1605.27</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F205" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -23178,13 +23178,13 @@
         <v>64</v>
       </c>
       <c r="D206" s="9">
-        <v>8421.69</v>
+        <v>9095.43</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F206" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -23198,13 +23198,13 @@
         <v>64</v>
       </c>
       <c r="D207" s="9">
-        <v>12836.89</v>
+        <v>13863.85</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F207" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -23218,13 +23218,13 @@
         <v>64</v>
       </c>
       <c r="D208" s="9">
-        <v>622.14</v>
+        <v>671.92</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F208" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -23238,13 +23238,13 @@
         <v>64</v>
       </c>
       <c r="D209" s="9">
-        <v>713.81</v>
+        <v>770.92</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F209" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -23258,13 +23258,13 @@
         <v>64</v>
       </c>
       <c r="D210" s="9">
-        <v>827.3</v>
+        <v>893.49</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F210" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -23278,13 +23278,13 @@
         <v>64</v>
       </c>
       <c r="D211" s="9">
-        <v>1271.6600000000001</v>
+        <v>1373.4</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F211" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -23298,13 +23298,13 @@
         <v>64</v>
       </c>
       <c r="D212" s="9">
-        <v>1226.18</v>
+        <v>1324.28</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F212" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -23318,13 +23318,13 @@
         <v>64</v>
       </c>
       <c r="D213" s="9">
-        <v>1361.84</v>
+        <v>1470.79</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F213" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -23338,13 +23338,13 @@
         <v>64</v>
       </c>
       <c r="D214" s="9">
-        <v>1500.97</v>
+        <v>1621.05</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F214" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -23358,13 +23358,13 @@
         <v>64</v>
       </c>
       <c r="D215" s="9">
-        <v>1975.55</v>
+        <v>2133.6</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F215" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -23378,13 +23378,13 @@
         <v>64</v>
       </c>
       <c r="D216" s="9">
-        <v>1796.92</v>
+        <v>1940.68</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F216" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -23398,13 +23398,13 @@
         <v>64</v>
       </c>
       <c r="D217" s="9">
-        <v>1730.94</v>
+        <v>1869.42</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F217" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -23418,13 +23418,13 @@
         <v>64</v>
       </c>
       <c r="D218" s="9">
-        <v>634.70000000000005</v>
+        <v>685.48</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F218" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -23438,13 +23438,13 @@
         <v>64</v>
       </c>
       <c r="D219" s="9">
-        <v>626.26</v>
+        <v>676.36</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F219" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -23458,13 +23458,13 @@
         <v>64</v>
       </c>
       <c r="D220" s="9">
-        <v>1872.02</v>
+        <v>2021.79</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F220" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -23478,13 +23478,13 @@
         <v>64</v>
       </c>
       <c r="D221" s="9">
-        <v>2149.41</v>
+        <v>2321.37</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F221" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -23498,13 +23498,13 @@
         <v>64</v>
       </c>
       <c r="D222" s="9">
-        <v>2678.87</v>
+        <v>2893.18</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F222" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -23518,13 +23518,13 @@
         <v>64</v>
       </c>
       <c r="D223" s="9">
-        <v>2976.62</v>
+        <v>3214.75</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F223" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -23538,13 +23538,13 @@
         <v>64</v>
       </c>
       <c r="D224" s="9">
-        <v>7429.79</v>
+        <v>8024.18</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F224" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -23558,13 +23558,13 @@
         <v>64</v>
       </c>
       <c r="D225" s="9">
-        <v>16969.78</v>
+        <v>18327.37</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F225" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -23578,13 +23578,13 @@
         <v>64</v>
       </c>
       <c r="D226" s="9">
-        <v>1427.14</v>
+        <v>1541.32</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F226" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -23598,13 +23598,13 @@
         <v>64</v>
       </c>
       <c r="D227" s="9">
-        <v>1402.07</v>
+        <v>1514.24</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F227" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -23618,13 +23618,13 @@
         <v>64</v>
       </c>
       <c r="D228" s="9">
-        <v>1832.48</v>
+        <v>1979.08</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F228" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -23638,13 +23638,13 @@
         <v>64</v>
       </c>
       <c r="D229" s="9">
-        <v>1480.56</v>
+        <v>1599.01</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F229" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -23658,13 +23658,13 @@
         <v>64</v>
       </c>
       <c r="D230" s="9">
-        <v>1602.4</v>
+        <v>1730.6</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F230" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -23678,13 +23678,13 @@
         <v>64</v>
       </c>
       <c r="D231" s="9">
-        <v>2058.1999999999998</v>
+        <v>2222.86</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F231" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -23698,13 +23698,13 @@
         <v>64</v>
       </c>
       <c r="D232" s="9">
-        <v>500.23</v>
+        <v>540.25</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F232" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -23718,13 +23718,13 @@
         <v>64</v>
       </c>
       <c r="D233" s="9">
-        <v>518.79999999999995</v>
+        <v>560.30999999999995</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F233" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -23738,13 +23738,13 @@
         <v>64</v>
       </c>
       <c r="D234" s="9">
-        <v>272.23</v>
+        <v>294.01</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F234" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -23758,13 +23758,13 @@
         <v>64</v>
       </c>
       <c r="D235" s="9">
-        <v>272.23</v>
+        <v>294.01</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F235" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -23778,13 +23778,13 @@
         <v>64</v>
       </c>
       <c r="D236" s="9">
-        <v>7520.88</v>
+        <v>8122.55</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F236" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -23798,13 +23798,13 @@
         <v>64</v>
       </c>
       <c r="D237" s="9">
-        <v>7520.88</v>
+        <v>8122.55</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F237" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -23818,13 +23818,13 @@
         <v>64</v>
       </c>
       <c r="D238" s="9">
-        <v>1445.09</v>
+        <v>1560.7</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F238" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -23838,13 +23838,13 @@
         <v>64</v>
       </c>
       <c r="D239" s="9">
-        <v>1655.28</v>
+        <v>1787.71</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F239" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -26914,13 +26914,13 @@
         <v>8</v>
       </c>
       <c r="D393" s="9">
-        <v>1733.87</v>
+        <v>1837.9</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>806</v>
       </c>
       <c r="F393" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
@@ -26954,13 +26954,13 @@
         <v>8</v>
       </c>
       <c r="D395" s="9">
-        <v>517.69000000000005</v>
+        <v>548.75</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>812</v>
       </c>
       <c r="F395" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
@@ -26974,13 +26974,13 @@
         <v>8</v>
       </c>
       <c r="D396" s="9">
-        <v>670</v>
+        <v>710.2</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>812</v>
       </c>
       <c r="F396" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
@@ -26994,13 +26994,13 @@
         <v>8</v>
       </c>
       <c r="D397" s="9">
-        <v>953.9</v>
+        <v>1011.13</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>812</v>
       </c>
       <c r="F397" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
@@ -27274,13 +27274,13 @@
         <v>8</v>
       </c>
       <c r="D411" s="9">
-        <v>571.97</v>
+        <v>606.29</v>
       </c>
       <c r="E411" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F411" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
@@ -27294,13 +27294,13 @@
         <v>8</v>
       </c>
       <c r="D412" s="9">
-        <v>571.97</v>
+        <v>606.29</v>
       </c>
       <c r="E412" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F412" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
@@ -27314,13 +27314,13 @@
         <v>8</v>
       </c>
       <c r="D413" s="9">
-        <v>571.97</v>
+        <v>606.29</v>
       </c>
       <c r="E413" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F413" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
@@ -27334,13 +27334,13 @@
         <v>8</v>
       </c>
       <c r="D414" s="9">
-        <v>571.97</v>
+        <v>606.29</v>
       </c>
       <c r="E414" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F414" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
@@ -27354,13 +27354,13 @@
         <v>8</v>
       </c>
       <c r="D415" s="9">
-        <v>571.97</v>
+        <v>606.29</v>
       </c>
       <c r="E415" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F415" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
@@ -27374,13 +27374,13 @@
         <v>8</v>
       </c>
       <c r="D416" s="9">
-        <v>571.97</v>
+        <v>606.29</v>
       </c>
       <c r="E416" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F416" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
@@ -27394,13 +27394,13 @@
         <v>8</v>
       </c>
       <c r="D417" s="9">
-        <v>571.97</v>
+        <v>606.29</v>
       </c>
       <c r="E417" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F417" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
@@ -27414,13 +27414,13 @@
         <v>8</v>
       </c>
       <c r="D418" s="9">
-        <v>571.97</v>
+        <v>606.29</v>
       </c>
       <c r="E418" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F418" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
@@ -27434,13 +27434,13 @@
         <v>8</v>
       </c>
       <c r="D419" s="9">
-        <v>571.97</v>
+        <v>606.29</v>
       </c>
       <c r="E419" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F419" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
@@ -27454,13 +27454,13 @@
         <v>8</v>
       </c>
       <c r="D420" s="9">
-        <v>603.98</v>
+        <v>640.22</v>
       </c>
       <c r="E420" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F420" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.2">
@@ -27474,13 +27474,13 @@
         <v>8</v>
       </c>
       <c r="D421" s="9">
-        <v>603.98</v>
+        <v>640.22</v>
       </c>
       <c r="E421" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F421" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.2">
@@ -27494,13 +27494,13 @@
         <v>8</v>
       </c>
       <c r="D422" s="9">
-        <v>603.98</v>
+        <v>640.22</v>
       </c>
       <c r="E422" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F422" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
@@ -27514,13 +27514,13 @@
         <v>8</v>
       </c>
       <c r="D423" s="9">
-        <v>603.98</v>
+        <v>640.22</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F423" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.2">
@@ -27534,13 +27534,13 @@
         <v>8</v>
       </c>
       <c r="D424" s="9">
-        <v>603.98</v>
+        <v>640.22</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F424" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.2">
@@ -27554,13 +27554,13 @@
         <v>8</v>
       </c>
       <c r="D425" s="9">
-        <v>603.98</v>
+        <v>640.22</v>
       </c>
       <c r="E425" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F425" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.2">
@@ -27574,13 +27574,13 @@
         <v>8</v>
       </c>
       <c r="D426" s="9">
-        <v>603.98</v>
+        <v>640.22</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F426" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.2">
@@ -27594,13 +27594,13 @@
         <v>8</v>
       </c>
       <c r="D427" s="9">
-        <v>603.98</v>
+        <v>640.22</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F427" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
@@ -27614,13 +27614,13 @@
         <v>8</v>
       </c>
       <c r="D428" s="9">
-        <v>603.98</v>
+        <v>640.22</v>
       </c>
       <c r="E428" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F428" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.2">
@@ -27634,13 +27634,13 @@
         <v>8</v>
       </c>
       <c r="D429" s="9">
-        <v>633.94000000000005</v>
+        <v>671.98</v>
       </c>
       <c r="E429" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F429" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.2">
@@ -27654,13 +27654,13 @@
         <v>8</v>
       </c>
       <c r="D430" s="9">
-        <v>633.94000000000005</v>
+        <v>671.98</v>
       </c>
       <c r="E430" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F430" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
@@ -27674,13 +27674,13 @@
         <v>8</v>
       </c>
       <c r="D431" s="9">
-        <v>633.94000000000005</v>
+        <v>671.98</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F431" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.2">
@@ -27694,13 +27694,13 @@
         <v>8</v>
       </c>
       <c r="D432" s="9">
-        <v>633.94000000000005</v>
+        <v>671.98</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F432" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
@@ -27714,13 +27714,13 @@
         <v>8</v>
       </c>
       <c r="D433" s="9">
-        <v>633.94000000000005</v>
+        <v>671.98</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F433" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.2">
@@ -27734,13 +27734,13 @@
         <v>8</v>
       </c>
       <c r="D434" s="9">
-        <v>633.94000000000005</v>
+        <v>671.98</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F434" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
@@ -27754,13 +27754,13 @@
         <v>8</v>
       </c>
       <c r="D435" s="9">
-        <v>633.94000000000005</v>
+        <v>671.98</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F435" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
@@ -27774,13 +27774,13 @@
         <v>8</v>
       </c>
       <c r="D436" s="9">
-        <v>633.94000000000005</v>
+        <v>671.98</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F436" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.2">
@@ -27794,13 +27794,13 @@
         <v>8</v>
       </c>
       <c r="D437" s="9">
-        <v>633.94000000000005</v>
+        <v>671.98</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>847</v>
       </c>
       <c r="F437" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.2">
@@ -30854,13 +30854,13 @@
         <v>64</v>
       </c>
       <c r="D590" s="9">
-        <v>3592.89</v>
+        <v>3952.18</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>1172</v>
       </c>
       <c r="F590" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.2">
@@ -31314,13 +31314,13 @@
         <v>8</v>
       </c>
       <c r="D613" s="9">
-        <v>139.61000000000001</v>
+        <v>147.99</v>
       </c>
       <c r="E613" s="2" t="s">
         <v>1255</v>
       </c>
       <c r="F613" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.2">
@@ -31334,13 +31334,13 @@
         <v>64</v>
       </c>
       <c r="D614" s="9">
-        <v>1230.56</v>
+        <v>1372.07</v>
       </c>
       <c r="E614" s="2" t="s">
         <v>1258</v>
       </c>
       <c r="F614" s="3">
-        <v>45085</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.2">
@@ -31354,13 +31354,13 @@
         <v>64</v>
       </c>
       <c r="D615" s="9">
-        <v>2436.6999999999998</v>
+        <v>2716.93</v>
       </c>
       <c r="E615" s="2" t="s">
         <v>1258</v>
       </c>
       <c r="F615" s="3">
-        <v>45085</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.2">
@@ -31474,13 +31474,13 @@
         <v>64</v>
       </c>
       <c r="D621" s="9">
-        <v>1687.86</v>
+        <v>1856.65</v>
       </c>
       <c r="E621" s="2" t="s">
         <v>1263</v>
       </c>
       <c r="F621" s="3">
-        <v>45092</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.2">
@@ -31574,13 +31574,13 @@
         <v>64</v>
       </c>
       <c r="D626" s="9">
-        <v>165.08</v>
+        <v>181.59</v>
       </c>
       <c r="E626" s="2" t="s">
         <v>1263</v>
       </c>
       <c r="F626" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.2">
@@ -32572,13 +32572,13 @@
         <v>8</v>
       </c>
       <c r="D676" s="9">
-        <v>822.67</v>
+        <v>904.94</v>
       </c>
       <c r="E676" s="2" t="s">
         <v>1382</v>
       </c>
       <c r="F676" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.2">
@@ -34350,13 +34350,13 @@
         <v>64</v>
       </c>
       <c r="D765" s="9">
-        <v>5042.28</v>
+        <v>5344.82</v>
       </c>
       <c r="E765" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F765" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.2">
@@ -34370,13 +34370,13 @@
         <v>64</v>
       </c>
       <c r="D766" s="9">
-        <v>5094</v>
+        <v>5399.64</v>
       </c>
       <c r="E766" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F766" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.2">
@@ -34390,13 +34390,13 @@
         <v>64</v>
       </c>
       <c r="D767" s="9">
-        <v>4520.9399999999996</v>
+        <v>4792.2</v>
       </c>
       <c r="E767" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F767" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.2">
@@ -34410,13 +34410,13 @@
         <v>64</v>
       </c>
       <c r="D768" s="9">
-        <v>3081.92</v>
+        <v>3266.84</v>
       </c>
       <c r="E768" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F768" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.2">
@@ -34430,13 +34430,13 @@
         <v>64</v>
       </c>
       <c r="D769" s="9">
-        <v>3088.14</v>
+        <v>3273.43</v>
       </c>
       <c r="E769" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F769" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.2">
@@ -34450,13 +34450,13 @@
         <v>64</v>
       </c>
       <c r="D770" s="9">
-        <v>3308.44</v>
+        <v>3506.95</v>
       </c>
       <c r="E770" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F770" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.2">
@@ -34470,13 +34470,13 @@
         <v>64</v>
       </c>
       <c r="D771" s="9">
-        <v>2647.08</v>
+        <v>2805.9</v>
       </c>
       <c r="E771" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F771" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.2">
@@ -34490,13 +34490,13 @@
         <v>64</v>
       </c>
       <c r="D772" s="9">
-        <v>2977.15</v>
+        <v>3155.78</v>
       </c>
       <c r="E772" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F772" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.2">
@@ -34510,13 +34510,13 @@
         <v>64</v>
       </c>
       <c r="D773" s="9">
-        <v>3418.26</v>
+        <v>3623.36</v>
       </c>
       <c r="E773" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F773" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.2">
@@ -34530,13 +34530,13 @@
         <v>64</v>
       </c>
       <c r="D774" s="9">
-        <v>2536.0100000000002</v>
+        <v>2688.17</v>
       </c>
       <c r="E774" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F774" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.2">
@@ -34550,13 +34550,13 @@
         <v>64</v>
       </c>
       <c r="D775" s="9">
-        <v>2536.0100000000002</v>
+        <v>2688.17</v>
       </c>
       <c r="E775" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F775" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.2">
@@ -34570,13 +34570,13 @@
         <v>64</v>
       </c>
       <c r="D776" s="9">
-        <v>2536.0100000000002</v>
+        <v>2688.17</v>
       </c>
       <c r="E776" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F776" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.2">
@@ -34590,13 +34590,13 @@
         <v>64</v>
       </c>
       <c r="D777" s="9">
-        <v>3308.44</v>
+        <v>3506.95</v>
       </c>
       <c r="E777" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F777" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.2">
@@ -34610,13 +34610,13 @@
         <v>64</v>
       </c>
       <c r="D778" s="9">
-        <v>3308.44</v>
+        <v>3506.95</v>
       </c>
       <c r="E778" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F778" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.2">
@@ -34630,13 +34630,13 @@
         <v>64</v>
       </c>
       <c r="D779" s="9">
-        <v>2977.15</v>
+        <v>3155.78</v>
       </c>
       <c r="E779" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F779" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.2">
@@ -34650,13 +34650,13 @@
         <v>64</v>
       </c>
       <c r="D780" s="9">
-        <v>3735.84</v>
+        <v>3959.99</v>
       </c>
       <c r="E780" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F780" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.2">
@@ -34670,13 +34670,13 @@
         <v>64</v>
       </c>
       <c r="D781" s="9">
-        <v>3371.3</v>
+        <v>3573.58</v>
       </c>
       <c r="E781" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F781" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.2">
@@ -34690,13 +34690,13 @@
         <v>64</v>
       </c>
       <c r="D782" s="9">
-        <v>3528.69</v>
+        <v>3740.41</v>
       </c>
       <c r="E782" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F782" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.2">
@@ -34710,13 +34710,13 @@
         <v>64</v>
       </c>
       <c r="D783" s="9">
-        <v>3088.14</v>
+        <v>3273.43</v>
       </c>
       <c r="E783" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F783" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.2">
@@ -34730,13 +34730,13 @@
         <v>64</v>
       </c>
       <c r="D784" s="9">
-        <v>3593.27</v>
+        <v>3808.87</v>
       </c>
       <c r="E784" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F784" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.2">
@@ -34750,13 +34750,13 @@
         <v>64</v>
       </c>
       <c r="D785" s="9">
-        <v>3308.44</v>
+        <v>3506.95</v>
       </c>
       <c r="E785" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F785" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.2">
@@ -34770,13 +34770,13 @@
         <v>64</v>
       </c>
       <c r="D786" s="9">
-        <v>3669.64</v>
+        <v>3889.82</v>
       </c>
       <c r="E786" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F786" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.2">
@@ -34790,13 +34790,13 @@
         <v>64</v>
       </c>
       <c r="D787" s="9">
-        <v>2977.15</v>
+        <v>3155.78</v>
       </c>
       <c r="E787" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F787" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.2">
@@ -34810,13 +34810,13 @@
         <v>64</v>
       </c>
       <c r="D788" s="9">
-        <v>2977.15</v>
+        <v>3155.78</v>
       </c>
       <c r="E788" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F788" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.2">
@@ -34830,13 +34830,13 @@
         <v>64</v>
       </c>
       <c r="D789" s="9">
-        <v>2425.09</v>
+        <v>2570.6</v>
       </c>
       <c r="E789" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F789" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.2">
@@ -34850,13 +34850,13 @@
         <v>64</v>
       </c>
       <c r="D790" s="9">
-        <v>4455.47</v>
+        <v>4722.8</v>
       </c>
       <c r="E790" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F790" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.2">
@@ -34870,13 +34870,13 @@
         <v>64</v>
       </c>
       <c r="D791" s="9">
-        <v>3749.64</v>
+        <v>3974.62</v>
       </c>
       <c r="E791" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F791" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.2">
@@ -34890,13 +34890,13 @@
         <v>64</v>
       </c>
       <c r="D792" s="9">
-        <v>3749.64</v>
+        <v>3974.62</v>
       </c>
       <c r="E792" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F792" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.2">
@@ -34910,13 +34910,13 @@
         <v>64</v>
       </c>
       <c r="D793" s="9">
-        <v>2707.62</v>
+        <v>2870.08</v>
       </c>
       <c r="E793" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F793" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.2">
@@ -34930,13 +34930,13 @@
         <v>64</v>
       </c>
       <c r="D794" s="9">
-        <v>3418.1</v>
+        <v>3623.19</v>
       </c>
       <c r="E794" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F794" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.2">
@@ -34950,13 +34950,13 @@
         <v>64</v>
       </c>
       <c r="D795" s="9">
-        <v>3079.84</v>
+        <v>3264.63</v>
       </c>
       <c r="E795" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F795" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.2">
@@ -34970,13 +34970,13 @@
         <v>64</v>
       </c>
       <c r="D796" s="9">
-        <v>3186.28</v>
+        <v>3377.46</v>
       </c>
       <c r="E796" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F796" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.2">
@@ -34990,13 +34990,13 @@
         <v>64</v>
       </c>
       <c r="D797" s="9">
-        <v>2479.46</v>
+        <v>2628.23</v>
       </c>
       <c r="E797" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F797" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.2">
@@ -35010,13 +35010,13 @@
         <v>64</v>
       </c>
       <c r="D798" s="9">
-        <v>2756.76</v>
+        <v>2922.17</v>
       </c>
       <c r="E798" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F798" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.2">
@@ -35030,13 +35030,13 @@
         <v>64</v>
       </c>
       <c r="D799" s="9">
-        <v>5955.82</v>
+        <v>6313.17</v>
       </c>
       <c r="E799" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F799" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.2">
@@ -35050,13 +35050,13 @@
         <v>64</v>
       </c>
       <c r="D800" s="9">
-        <v>2536.0100000000002</v>
+        <v>2688.17</v>
       </c>
       <c r="E800" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F800" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.2">
@@ -35070,13 +35070,13 @@
         <v>64</v>
       </c>
       <c r="D801" s="9">
-        <v>1599.6</v>
+        <v>1695.58</v>
       </c>
       <c r="E801" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F801" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.2">
@@ -35090,13 +35090,13 @@
         <v>64</v>
       </c>
       <c r="D802" s="9">
-        <v>2344.75</v>
+        <v>2485.44</v>
       </c>
       <c r="E802" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F802" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.2">
@@ -35110,13 +35110,13 @@
         <v>64</v>
       </c>
       <c r="D803" s="9">
-        <v>2558.25</v>
+        <v>2711.75</v>
       </c>
       <c r="E803" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F803" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.2">
@@ -35130,13 +35130,13 @@
         <v>64</v>
       </c>
       <c r="D804" s="9">
-        <v>5845.7</v>
+        <v>6196.44</v>
       </c>
       <c r="E804" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F804" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.2">
@@ -35150,13 +35150,13 @@
         <v>64</v>
       </c>
       <c r="D805" s="9">
-        <v>1917.83</v>
+        <v>2032.9</v>
       </c>
       <c r="E805" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F805" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.2">
@@ -35170,13 +35170,13 @@
         <v>64</v>
       </c>
       <c r="D806" s="9">
-        <v>2615.5</v>
+        <v>2772.43</v>
       </c>
       <c r="E806" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F806" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.2">
@@ -35190,13 +35190,13 @@
         <v>64</v>
       </c>
       <c r="D807" s="9">
-        <v>2492.5500000000002</v>
+        <v>2642.1</v>
       </c>
       <c r="E807" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F807" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.2">
@@ -35210,13 +35210,13 @@
         <v>64</v>
       </c>
       <c r="D808" s="9">
-        <v>2602.6</v>
+        <v>2758.76</v>
       </c>
       <c r="E808" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F808" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.2">
@@ -35230,13 +35230,13 @@
         <v>64</v>
       </c>
       <c r="D809" s="9">
-        <v>2163.0300000000002</v>
+        <v>2292.81</v>
       </c>
       <c r="E809" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F809" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.2">
@@ -35250,13 +35250,13 @@
         <v>64</v>
       </c>
       <c r="D810" s="9">
-        <v>4247.38</v>
+        <v>4502.22</v>
       </c>
       <c r="E810" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F810" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.2">
@@ -35270,13 +35270,13 @@
         <v>64</v>
       </c>
       <c r="D811" s="9">
-        <v>2048.89</v>
+        <v>2171.8200000000002</v>
       </c>
       <c r="E811" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F811" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.2">
@@ -35290,13 +35290,13 @@
         <v>64</v>
       </c>
       <c r="D812" s="9">
-        <v>2640.69</v>
+        <v>2799.13</v>
       </c>
       <c r="E812" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F812" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.2">
@@ -35310,13 +35310,13 @@
         <v>64</v>
       </c>
       <c r="D813" s="9">
-        <v>1904.74</v>
+        <v>2019.02</v>
       </c>
       <c r="E813" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F813" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.2">
@@ -35330,13 +35330,13 @@
         <v>64</v>
       </c>
       <c r="D814" s="9">
-        <v>2747.91</v>
+        <v>2912.78</v>
       </c>
       <c r="E814" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F814" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.2">
@@ -35350,13 +35350,13 @@
         <v>64</v>
       </c>
       <c r="D815" s="9">
-        <v>3364.36</v>
+        <v>3566.22</v>
       </c>
       <c r="E815" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F815" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.2">
@@ -35370,13 +35370,13 @@
         <v>64</v>
       </c>
       <c r="D816" s="9">
-        <v>2867.52</v>
+        <v>3039.57</v>
       </c>
       <c r="E816" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F816" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.2">
@@ -35390,13 +35390,13 @@
         <v>64</v>
       </c>
       <c r="D817" s="9">
-        <v>2867.52</v>
+        <v>3039.57</v>
       </c>
       <c r="E817" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F817" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.2">
@@ -35410,13 +35410,13 @@
         <v>64</v>
       </c>
       <c r="D818" s="9">
-        <v>2070.4699999999998</v>
+        <v>2194.6999999999998</v>
       </c>
       <c r="E818" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F818" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.2">
@@ -35430,13 +35430,13 @@
         <v>64</v>
       </c>
       <c r="D819" s="9">
-        <v>2294.35</v>
+        <v>2432.0100000000002</v>
       </c>
       <c r="E819" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F819" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.2">
@@ -35450,13 +35450,13 @@
         <v>64</v>
       </c>
       <c r="D820" s="9">
-        <v>2257.04</v>
+        <v>2392.46</v>
       </c>
       <c r="E820" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F820" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.2">
@@ -35470,13 +35470,13 @@
         <v>64</v>
       </c>
       <c r="D821" s="9">
-        <v>2542.86</v>
+        <v>2695.43</v>
       </c>
       <c r="E821" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F821" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.2">
@@ -35490,13 +35490,13 @@
         <v>64</v>
       </c>
       <c r="D822" s="9">
-        <v>2587.2399999999998</v>
+        <v>2742.47</v>
       </c>
       <c r="E822" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F822" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.2">
@@ -35510,13 +35510,13 @@
         <v>64</v>
       </c>
       <c r="D823" s="9">
-        <v>3088.14</v>
+        <v>3273.43</v>
       </c>
       <c r="E823" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F823" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.2">
@@ -35530,13 +35530,13 @@
         <v>64</v>
       </c>
       <c r="D824" s="9">
-        <v>3088.14</v>
+        <v>3273.43</v>
       </c>
       <c r="E824" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F824" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.2">
@@ -35550,13 +35550,13 @@
         <v>64</v>
       </c>
       <c r="D825" s="9">
-        <v>2801.93</v>
+        <v>2970.05</v>
       </c>
       <c r="E825" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F825" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.2">
@@ -35570,13 +35570,13 @@
         <v>64</v>
       </c>
       <c r="D826" s="9">
-        <v>3316.37</v>
+        <v>3515.35</v>
       </c>
       <c r="E826" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F826" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.2">
@@ -35590,13 +35590,13 @@
         <v>64</v>
       </c>
       <c r="D827" s="9">
-        <v>4699.25</v>
+        <v>4981.21</v>
       </c>
       <c r="E827" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F827" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.2">
@@ -35610,13 +35610,13 @@
         <v>64</v>
       </c>
       <c r="D828" s="9">
-        <v>4375.03</v>
+        <v>4637.53</v>
       </c>
       <c r="E828" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F828" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.2">
@@ -35630,13 +35630,13 @@
         <v>64</v>
       </c>
       <c r="D829" s="9">
-        <v>3256.62</v>
+        <v>3452.02</v>
       </c>
       <c r="E829" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F829" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.2">
@@ -35650,13 +35650,13 @@
         <v>64</v>
       </c>
       <c r="D830" s="9">
-        <v>4050.78</v>
+        <v>4293.83</v>
       </c>
       <c r="E830" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F830" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.2">
@@ -35670,13 +35670,13 @@
         <v>64</v>
       </c>
       <c r="D831" s="9">
-        <v>3413.89</v>
+        <v>3618.72</v>
       </c>
       <c r="E831" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F831" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.2">
@@ -35690,13 +35690,13 @@
         <v>64</v>
       </c>
       <c r="D832" s="9">
-        <v>2587.2399999999998</v>
+        <v>2742.47</v>
       </c>
       <c r="E832" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F832" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.2">
@@ -35710,13 +35710,13 @@
         <v>64</v>
       </c>
       <c r="D833" s="9">
-        <v>2498.13</v>
+        <v>2648.02</v>
       </c>
       <c r="E833" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F833" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.2">
@@ -35730,13 +35730,13 @@
         <v>64</v>
       </c>
       <c r="D834" s="9">
-        <v>2425.09</v>
+        <v>2570.6</v>
       </c>
       <c r="E834" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F834" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.2">
@@ -35750,13 +35750,13 @@
         <v>64</v>
       </c>
       <c r="D835" s="9">
-        <v>2741.33</v>
+        <v>2905.81</v>
       </c>
       <c r="E835" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F835" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.2">
@@ -35770,13 +35770,13 @@
         <v>64</v>
       </c>
       <c r="D836" s="9">
-        <v>2369.94</v>
+        <v>2512.14</v>
       </c>
       <c r="E836" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F836" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.2">
@@ -35790,13 +35790,13 @@
         <v>64</v>
       </c>
       <c r="D837" s="9">
-        <v>3322.62</v>
+        <v>3521.98</v>
       </c>
       <c r="E837" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F837" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.2">
@@ -35810,13 +35810,13 @@
         <v>64</v>
       </c>
       <c r="D838" s="9">
-        <v>4190.4799999999996</v>
+        <v>4441.91</v>
       </c>
       <c r="E838" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F838" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.2">
@@ -35830,13 +35830,13 @@
         <v>64</v>
       </c>
       <c r="D839" s="9">
-        <v>2759.69</v>
+        <v>2925.27</v>
       </c>
       <c r="E839" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F839" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.2">
@@ -35850,13 +35850,13 @@
         <v>64</v>
       </c>
       <c r="D840" s="9">
-        <v>2759.69</v>
+        <v>2925.27</v>
       </c>
       <c r="E840" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F840" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.2">
@@ -35870,13 +35870,13 @@
         <v>64</v>
       </c>
       <c r="D841" s="9">
-        <v>4852.55</v>
+        <v>5143.7</v>
       </c>
       <c r="E841" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F841" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.2">
@@ -35890,13 +35890,13 @@
         <v>64</v>
       </c>
       <c r="D842" s="9">
-        <v>1983.09</v>
+        <v>2102.08</v>
       </c>
       <c r="E842" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F842" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.2">
@@ -35910,13 +35910,13 @@
         <v>64</v>
       </c>
       <c r="D843" s="9">
-        <v>2358.2600000000002</v>
+        <v>2499.7600000000002</v>
       </c>
       <c r="E843" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F843" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.2">
@@ -35930,13 +35930,13 @@
         <v>64</v>
       </c>
       <c r="D844" s="9">
-        <v>1995.48</v>
+        <v>2115.21</v>
       </c>
       <c r="E844" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F844" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.2">
@@ -35950,13 +35950,13 @@
         <v>64</v>
       </c>
       <c r="D845" s="9">
-        <v>1578.23</v>
+        <v>1672.92</v>
       </c>
       <c r="E845" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F845" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.2">
@@ -35970,13 +35970,13 @@
         <v>64</v>
       </c>
       <c r="D846" s="9">
-        <v>1874.12</v>
+        <v>1986.57</v>
       </c>
       <c r="E846" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F846" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.2">
@@ -35990,13 +35990,13 @@
         <v>64</v>
       </c>
       <c r="D847" s="9">
-        <v>1858.86</v>
+        <v>1970.39</v>
       </c>
       <c r="E847" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F847" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.2">
@@ -36010,13 +36010,13 @@
         <v>64</v>
       </c>
       <c r="D848" s="9">
-        <v>3561.98</v>
+        <v>3775.7</v>
       </c>
       <c r="E848" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F848" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.2">
@@ -36030,13 +36030,13 @@
         <v>64</v>
       </c>
       <c r="D849" s="9">
-        <v>3969.89</v>
+        <v>4208.08</v>
       </c>
       <c r="E849" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F849" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.2">
@@ -36050,13 +36050,13 @@
         <v>64</v>
       </c>
       <c r="D850" s="9">
-        <v>2608.9899999999998</v>
+        <v>2765.53</v>
       </c>
       <c r="E850" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F850" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.2">
@@ -36070,13 +36070,13 @@
         <v>64</v>
       </c>
       <c r="D851" s="9">
-        <v>2563.29</v>
+        <v>2717.09</v>
       </c>
       <c r="E851" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F851" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.2">
@@ -36090,13 +36090,13 @@
         <v>64</v>
       </c>
       <c r="D852" s="9">
-        <v>4052.94</v>
+        <v>4296.12</v>
       </c>
       <c r="E852" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F852" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.2">
@@ -36110,13 +36110,13 @@
         <v>64</v>
       </c>
       <c r="D853" s="9">
-        <v>3859.5</v>
+        <v>4091.07</v>
       </c>
       <c r="E853" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F853" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.2">
@@ -36130,13 +36130,13 @@
         <v>64</v>
       </c>
       <c r="D854" s="9">
-        <v>2851.38</v>
+        <v>3022.46</v>
       </c>
       <c r="E854" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F854" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.2">
@@ -36150,13 +36150,13 @@
         <v>64</v>
       </c>
       <c r="D855" s="9">
-        <v>2201.0700000000002</v>
+        <v>2333.13</v>
       </c>
       <c r="E855" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F855" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.2">
@@ -36170,13 +36170,13 @@
         <v>64</v>
       </c>
       <c r="D856" s="9">
-        <v>2201.0700000000002</v>
+        <v>2333.13</v>
       </c>
       <c r="E856" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F856" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.2">
@@ -36190,13 +36190,13 @@
         <v>64</v>
       </c>
       <c r="D857" s="9">
-        <v>2336.48</v>
+        <v>2476.67</v>
       </c>
       <c r="E857" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F857" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.2">
@@ -36210,13 +36210,13 @@
         <v>64</v>
       </c>
       <c r="D858" s="9">
-        <v>2455.8000000000002</v>
+        <v>2603.15</v>
       </c>
       <c r="E858" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F858" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.2">
@@ -36230,13 +36230,13 @@
         <v>64</v>
       </c>
       <c r="D859" s="9">
-        <v>2939.15</v>
+        <v>3115.5</v>
       </c>
       <c r="E859" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F859" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.2">
@@ -36250,13 +36250,13 @@
         <v>64</v>
       </c>
       <c r="D860" s="9">
-        <v>4668.74</v>
+        <v>4948.8599999999997</v>
       </c>
       <c r="E860" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F860" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.2">
@@ -36270,13 +36270,13 @@
         <v>64</v>
       </c>
       <c r="D861" s="9">
-        <v>4803.33</v>
+        <v>5091.53</v>
       </c>
       <c r="E861" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F861" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.2">
@@ -36290,13 +36290,13 @@
         <v>64</v>
       </c>
       <c r="D862" s="9">
-        <v>3118.77</v>
+        <v>3305.9</v>
       </c>
       <c r="E862" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F862" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.2">
@@ -36310,13 +36310,13 @@
         <v>64</v>
       </c>
       <c r="D863" s="9">
-        <v>2873.65</v>
+        <v>3046.07</v>
       </c>
       <c r="E863" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F863" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.2">
@@ -36330,13 +36330,13 @@
         <v>64</v>
       </c>
       <c r="D864" s="9">
-        <v>3153.96</v>
+        <v>3343.2</v>
       </c>
       <c r="E864" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F864" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.2">
@@ -36350,13 +36350,13 @@
         <v>64</v>
       </c>
       <c r="D865" s="9">
-        <v>2261.9899999999998</v>
+        <v>2397.71</v>
       </c>
       <c r="E865" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F865" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.2">
@@ -36370,13 +36370,13 @@
         <v>64</v>
       </c>
       <c r="D866" s="9">
-        <v>4136.2</v>
+        <v>4384.37</v>
       </c>
       <c r="E866" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F866" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.2">
@@ -36390,13 +36390,13 @@
         <v>64</v>
       </c>
       <c r="D867" s="9">
-        <v>2301.79</v>
+        <v>2439.9</v>
       </c>
       <c r="E867" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F867" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.2">
@@ -36410,13 +36410,13 @@
         <v>64</v>
       </c>
       <c r="D868" s="9">
-        <v>2502.3000000000002</v>
+        <v>2652.44</v>
       </c>
       <c r="E868" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F868" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.2">
@@ -36430,13 +36430,13 @@
         <v>64</v>
       </c>
       <c r="D869" s="9">
-        <v>2325.37</v>
+        <v>2464.89</v>
       </c>
       <c r="E869" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F869" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.2">
@@ -36450,13 +36450,13 @@
         <v>64</v>
       </c>
       <c r="D870" s="9">
-        <v>2351.38</v>
+        <v>2492.46</v>
       </c>
       <c r="E870" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F870" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.2">
@@ -36470,13 +36470,13 @@
         <v>64</v>
       </c>
       <c r="D871" s="9">
-        <v>3336.2</v>
+        <v>3536.37</v>
       </c>
       <c r="E871" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F871" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.2">
@@ -36490,13 +36490,13 @@
         <v>64</v>
       </c>
       <c r="D872" s="9">
-        <v>2539.2399999999998</v>
+        <v>2691.59</v>
       </c>
       <c r="E872" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F872" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.2">
@@ -36510,13 +36510,13 @@
         <v>64</v>
       </c>
       <c r="D873" s="9">
-        <v>3088.14</v>
+        <v>3273.43</v>
       </c>
       <c r="E873" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F873" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.2">
@@ -36530,13 +36530,13 @@
         <v>64</v>
       </c>
       <c r="D874" s="9">
-        <v>1980.92</v>
+        <v>2099.7800000000002</v>
       </c>
       <c r="E874" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F874" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.2">
@@ -36550,13 +36550,13 @@
         <v>64</v>
       </c>
       <c r="D875" s="9">
-        <v>2237.27</v>
+        <v>2371.5100000000002</v>
       </c>
       <c r="E875" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F875" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.2">
@@ -36570,13 +36570,13 @@
         <v>64</v>
       </c>
       <c r="D876" s="9">
-        <v>3047.04</v>
+        <v>3229.86</v>
       </c>
       <c r="E876" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F876" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.2">
@@ -36590,13 +36590,13 @@
         <v>64</v>
       </c>
       <c r="D877" s="9">
-        <v>3089.13</v>
+        <v>3274.48</v>
       </c>
       <c r="E877" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F877" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.2">
@@ -36610,13 +36610,13 @@
         <v>64</v>
       </c>
       <c r="D878" s="9">
-        <v>2020.95</v>
+        <v>2142.21</v>
       </c>
       <c r="E878" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F878" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.2">
@@ -36630,13 +36630,13 @@
         <v>64</v>
       </c>
       <c r="D879" s="9">
-        <v>2964.89</v>
+        <v>3142.78</v>
       </c>
       <c r="E879" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F879" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.2">
@@ -36650,13 +36650,13 @@
         <v>64</v>
       </c>
       <c r="D880" s="9">
-        <v>1791.35</v>
+        <v>1898.83</v>
       </c>
       <c r="E880" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F880" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.2">
@@ -36670,13 +36670,13 @@
         <v>64</v>
       </c>
       <c r="D881" s="9">
-        <v>4054.55</v>
+        <v>4297.82</v>
       </c>
       <c r="E881" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F881" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.2">
@@ -36690,13 +36690,13 @@
         <v>64</v>
       </c>
       <c r="D882" s="9">
-        <v>2516.9299999999998</v>
+        <v>2667.95</v>
       </c>
       <c r="E882" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F882" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.2">
@@ -36710,13 +36710,13 @@
         <v>64</v>
       </c>
       <c r="D883" s="9">
-        <v>2257.04</v>
+        <v>2392.46</v>
       </c>
       <c r="E883" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F883" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.2">
@@ -36730,13 +36730,13 @@
         <v>64</v>
       </c>
       <c r="D884" s="9">
-        <v>2354.59</v>
+        <v>2495.87</v>
       </c>
       <c r="E884" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F884" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.2">
@@ -36750,13 +36750,13 @@
         <v>64</v>
       </c>
       <c r="D885" s="9">
-        <v>3440.49</v>
+        <v>3646.92</v>
       </c>
       <c r="E885" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F885" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.2">
@@ -36770,13 +36770,13 @@
         <v>64</v>
       </c>
       <c r="D886" s="9">
-        <v>4226.9799999999996</v>
+        <v>4480.6000000000004</v>
       </c>
       <c r="E886" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F886" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.2">
@@ -36790,13 +36790,13 @@
         <v>64</v>
       </c>
       <c r="D887" s="9">
-        <v>2347.0300000000002</v>
+        <v>2487.85</v>
       </c>
       <c r="E887" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F887" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.2">
@@ -36810,13 +36810,13 @@
         <v>64</v>
       </c>
       <c r="D888" s="9">
-        <v>2696.17</v>
+        <v>2857.94</v>
       </c>
       <c r="E888" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F888" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.2">
@@ -36830,13 +36830,13 @@
         <v>64</v>
       </c>
       <c r="D889" s="9">
-        <v>3200.28</v>
+        <v>3392.3</v>
       </c>
       <c r="E889" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F889" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.2">
@@ -36850,13 +36850,13 @@
         <v>64</v>
       </c>
       <c r="D890" s="9">
-        <v>3019.86</v>
+        <v>3201.05</v>
       </c>
       <c r="E890" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F890" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.2">
@@ -36870,13 +36870,13 @@
         <v>64</v>
       </c>
       <c r="D891" s="9">
-        <v>4549.49</v>
+        <v>4822.46</v>
       </c>
       <c r="E891" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F891" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.2">
@@ -36890,13 +36890,13 @@
         <v>64</v>
       </c>
       <c r="D892" s="9">
-        <v>3893.46</v>
+        <v>4127.07</v>
       </c>
       <c r="E892" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F892" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.2">
@@ -36910,13 +36910,13 @@
         <v>64</v>
       </c>
       <c r="D893" s="9">
-        <v>1952.15</v>
+        <v>2069.2800000000002</v>
       </c>
       <c r="E893" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F893" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.2">
@@ -36930,13 +36930,13 @@
         <v>64</v>
       </c>
       <c r="D894" s="9">
-        <v>2230.69</v>
+        <v>2364.5300000000002</v>
       </c>
       <c r="E894" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F894" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.2">
@@ -36950,13 +36950,13 @@
         <v>64</v>
       </c>
       <c r="D895" s="9">
-        <v>2615.48</v>
+        <v>2772.41</v>
       </c>
       <c r="E895" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F895" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.2">
@@ -36970,13 +36970,13 @@
         <v>64</v>
       </c>
       <c r="D896" s="9">
-        <v>2521.59</v>
+        <v>2672.89</v>
       </c>
       <c r="E896" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F896" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.2">
@@ -36990,13 +36990,13 @@
         <v>64</v>
       </c>
       <c r="D897" s="9">
-        <v>2120.61</v>
+        <v>2247.85</v>
       </c>
       <c r="E897" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F897" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.2">
@@ -37010,13 +37010,13 @@
         <v>64</v>
       </c>
       <c r="D898" s="9">
-        <v>2340.65</v>
+        <v>2481.09</v>
       </c>
       <c r="E898" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F898" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.2">
@@ -37030,13 +37030,13 @@
         <v>64</v>
       </c>
       <c r="D899" s="9">
-        <v>1340.09</v>
+        <v>1420.5</v>
       </c>
       <c r="E899" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F899" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.2">
@@ -37050,13 +37050,13 @@
         <v>64</v>
       </c>
       <c r="D900" s="9">
-        <v>1340.09</v>
+        <v>1420.5</v>
       </c>
       <c r="E900" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F900" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.2">
@@ -37070,13 +37070,13 @@
         <v>64</v>
       </c>
       <c r="D901" s="9">
-        <v>5485.71</v>
+        <v>5814.85</v>
       </c>
       <c r="E901" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F901" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.2">
@@ -37090,13 +37090,13 @@
         <v>64</v>
       </c>
       <c r="D902" s="9">
-        <v>2259.11</v>
+        <v>2394.66</v>
       </c>
       <c r="E902" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F902" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.2">
@@ -37110,13 +37110,13 @@
         <v>64</v>
       </c>
       <c r="D903" s="9">
-        <v>3411.09</v>
+        <v>3615.76</v>
       </c>
       <c r="E903" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F903" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.2">
@@ -37130,13 +37130,13 @@
         <v>64</v>
       </c>
       <c r="D904" s="9">
-        <v>3088.14</v>
+        <v>3273.43</v>
       </c>
       <c r="E904" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F904" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.2">
@@ -37150,13 +37150,13 @@
         <v>64</v>
       </c>
       <c r="D905" s="9">
-        <v>7291.97</v>
+        <v>7729.49</v>
       </c>
       <c r="E905" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F905" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.2">
@@ -37170,13 +37170,13 @@
         <v>64</v>
       </c>
       <c r="D906" s="9">
-        <v>2230.69</v>
+        <v>2364.5300000000002</v>
       </c>
       <c r="E906" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F906" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.2">
@@ -37190,13 +37190,13 @@
         <v>64</v>
       </c>
       <c r="D907" s="9">
-        <v>2692.49</v>
+        <v>2854.04</v>
       </c>
       <c r="E907" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F907" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.2">
@@ -37210,13 +37210,13 @@
         <v>64</v>
       </c>
       <c r="D908" s="9">
-        <v>2718.19</v>
+        <v>2881.28</v>
       </c>
       <c r="E908" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F908" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.2">
@@ -37230,13 +37230,13 @@
         <v>64</v>
       </c>
       <c r="D909" s="9">
-        <v>2828.32</v>
+        <v>2998.02</v>
       </c>
       <c r="E909" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F909" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.2">
@@ -37250,13 +37250,13 @@
         <v>64</v>
       </c>
       <c r="D910" s="9">
-        <v>2023.82</v>
+        <v>2145.25</v>
       </c>
       <c r="E910" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F910" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.2">
@@ -37270,13 +37270,13 @@
         <v>64</v>
       </c>
       <c r="D911" s="9">
-        <v>2293.4</v>
+        <v>2431</v>
       </c>
       <c r="E911" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F911" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.2">
@@ -37290,13 +37290,13 @@
         <v>64</v>
       </c>
       <c r="D912" s="9">
-        <v>3142.99</v>
+        <v>3331.57</v>
       </c>
       <c r="E912" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F912" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.2">
@@ -37310,13 +37310,13 @@
         <v>64</v>
       </c>
       <c r="D913" s="9">
-        <v>1380.71</v>
+        <v>1463.55</v>
       </c>
       <c r="E913" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F913" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.2">
@@ -37330,13 +37330,13 @@
         <v>64</v>
       </c>
       <c r="D914" s="9">
-        <v>1687.56</v>
+        <v>1788.81</v>
       </c>
       <c r="E914" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F914" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.2">
@@ -37350,13 +37350,13 @@
         <v>64</v>
       </c>
       <c r="D915" s="9">
-        <v>2710.49</v>
+        <v>2873.12</v>
       </c>
       <c r="E915" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F915" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.2">
@@ -37370,13 +37370,13 @@
         <v>64</v>
       </c>
       <c r="D916" s="9">
-        <v>3184.3</v>
+        <v>3375.36</v>
       </c>
       <c r="E916" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F916" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.2">
@@ -37390,13 +37390,13 @@
         <v>64</v>
       </c>
       <c r="D917" s="9">
-        <v>3069.26</v>
+        <v>3253.42</v>
       </c>
       <c r="E917" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F917" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.2">
@@ -37410,13 +37410,13 @@
         <v>64</v>
       </c>
       <c r="D918" s="9">
-        <v>2708.99</v>
+        <v>2871.53</v>
       </c>
       <c r="E918" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F918" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.2">
@@ -37430,13 +37430,13 @@
         <v>64</v>
       </c>
       <c r="D919" s="9">
-        <v>2963.89</v>
+        <v>3141.72</v>
       </c>
       <c r="E919" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F919" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.2">
@@ -37450,13 +37450,13 @@
         <v>64</v>
       </c>
       <c r="D920" s="9">
-        <v>3385.59</v>
+        <v>3588.73</v>
       </c>
       <c r="E920" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F920" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.2">
@@ -37470,13 +37470,13 @@
         <v>64</v>
       </c>
       <c r="D921" s="9">
-        <v>2191.84</v>
+        <v>2323.35</v>
       </c>
       <c r="E921" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F921" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.2">
@@ -37490,13 +37490,13 @@
         <v>64</v>
       </c>
       <c r="D922" s="9">
-        <v>2232.11</v>
+        <v>2366.04</v>
       </c>
       <c r="E922" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F922" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.2">
@@ -37510,13 +37510,13 @@
         <v>64</v>
       </c>
       <c r="D923" s="9">
-        <v>2079.46</v>
+        <v>2204.23</v>
       </c>
       <c r="E923" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F923" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.2">
@@ -37530,13 +37530,13 @@
         <v>64</v>
       </c>
       <c r="D924" s="9">
-        <v>2519.6999999999998</v>
+        <v>2670.88</v>
       </c>
       <c r="E924" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F924" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.2">
@@ -37550,13 +37550,13 @@
         <v>64</v>
       </c>
       <c r="D925" s="9">
-        <v>2872</v>
+        <v>3044.32</v>
       </c>
       <c r="E925" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F925" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.2">
@@ -37570,13 +37570,13 @@
         <v>64</v>
       </c>
       <c r="D926" s="9">
-        <v>2705.37</v>
+        <v>2867.69</v>
       </c>
       <c r="E926" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F926" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.2">
@@ -37590,13 +37590,13 @@
         <v>64</v>
       </c>
       <c r="D927" s="9">
-        <v>2967.83</v>
+        <v>3145.9</v>
       </c>
       <c r="E927" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F927" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.2">
@@ -37610,13 +37610,13 @@
         <v>64</v>
       </c>
       <c r="D928" s="9">
-        <v>2551.7199999999998</v>
+        <v>2704.82</v>
       </c>
       <c r="E928" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F928" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.2">
@@ -37630,13 +37630,13 @@
         <v>64</v>
       </c>
       <c r="D929" s="9">
-        <v>2318.36</v>
+        <v>2457.46</v>
       </c>
       <c r="E929" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F929" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.2">
@@ -37650,13 +37650,13 @@
         <v>64</v>
       </c>
       <c r="D930" s="9">
-        <v>2122.6799999999998</v>
+        <v>2250.04</v>
       </c>
       <c r="E930" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F930" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.2">
@@ -37670,13 +37670,13 @@
         <v>64</v>
       </c>
       <c r="D931" s="9">
-        <v>2426.0700000000002</v>
+        <v>2571.63</v>
       </c>
       <c r="E931" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F931" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.2">
@@ -37690,13 +37690,13 @@
         <v>64</v>
       </c>
       <c r="D932" s="9">
-        <v>1893.84</v>
+        <v>2007.47</v>
       </c>
       <c r="E932" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F932" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.2">
@@ -37710,13 +37710,13 @@
         <v>64</v>
       </c>
       <c r="D933" s="9">
-        <v>1997.44</v>
+        <v>2117.29</v>
       </c>
       <c r="E933" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F933" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.2">
@@ -37730,13 +37730,13 @@
         <v>64</v>
       </c>
       <c r="D934" s="9">
-        <v>2324.12</v>
+        <v>2463.5700000000002</v>
       </c>
       <c r="E934" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F934" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.2">
@@ -37750,13 +37750,13 @@
         <v>64</v>
       </c>
       <c r="D935" s="9">
-        <v>1317.67</v>
+        <v>1396.73</v>
       </c>
       <c r="E935" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F935" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.2">
@@ -37770,13 +37770,13 @@
         <v>64</v>
       </c>
       <c r="D936" s="9">
-        <v>1930.32</v>
+        <v>2046.14</v>
       </c>
       <c r="E936" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F936" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.2">
@@ -37790,13 +37790,13 @@
         <v>64</v>
       </c>
       <c r="D937" s="9">
-        <v>2322.87</v>
+        <v>2462.2399999999998</v>
       </c>
       <c r="E937" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F937" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.2">
@@ -37810,13 +37810,13 @@
         <v>64</v>
       </c>
       <c r="D938" s="9">
-        <v>2829.67</v>
+        <v>2999.45</v>
       </c>
       <c r="E938" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F938" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.2">
@@ -37830,13 +37830,13 @@
         <v>64</v>
       </c>
       <c r="D939" s="9">
-        <v>1846.41</v>
+        <v>1957.19</v>
       </c>
       <c r="E939" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F939" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.2">
@@ -37850,13 +37850,13 @@
         <v>64</v>
       </c>
       <c r="D940" s="9">
-        <v>2318.36</v>
+        <v>2457.46</v>
       </c>
       <c r="E940" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F940" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.2">
@@ -37870,13 +37870,13 @@
         <v>64</v>
       </c>
       <c r="D941" s="9">
-        <v>2383.39</v>
+        <v>2526.39</v>
       </c>
       <c r="E941" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F941" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.2">
@@ -37890,13 +37890,13 @@
         <v>64</v>
       </c>
       <c r="D942" s="9">
-        <v>2400.3000000000002</v>
+        <v>2544.3200000000002</v>
       </c>
       <c r="E942" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F942" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.2">
@@ -37910,13 +37910,13 @@
         <v>64</v>
       </c>
       <c r="D943" s="9">
-        <v>2408.02</v>
+        <v>2552.5</v>
       </c>
       <c r="E943" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F943" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.2">
@@ -37930,13 +37930,13 @@
         <v>64</v>
       </c>
       <c r="D944" s="9">
-        <v>2555.2199999999998</v>
+        <v>2708.53</v>
       </c>
       <c r="E944" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F944" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.2">
@@ -37950,13 +37950,13 @@
         <v>64</v>
       </c>
       <c r="D945" s="9">
-        <v>3444.6</v>
+        <v>3651.28</v>
       </c>
       <c r="E945" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F945" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.2">
@@ -37970,13 +37970,13 @@
         <v>64</v>
       </c>
       <c r="D946" s="9">
-        <v>799.74</v>
+        <v>847.72</v>
       </c>
       <c r="E946" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F946" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.2">
@@ -37990,13 +37990,13 @@
         <v>64</v>
       </c>
       <c r="D947" s="9">
-        <v>1047.49</v>
+        <v>1110.3399999999999</v>
       </c>
       <c r="E947" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F947" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.2">
@@ -38010,13 +38010,13 @@
         <v>64</v>
       </c>
       <c r="D948" s="9">
-        <v>3153.96</v>
+        <v>3343.2</v>
       </c>
       <c r="E948" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F948" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="0.2">
@@ -38030,13 +38030,13 @@
         <v>64</v>
       </c>
       <c r="D949" s="9">
-        <v>2920.25</v>
+        <v>3095.47</v>
       </c>
       <c r="E949" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F949" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.2">
@@ -38050,13 +38050,13 @@
         <v>64</v>
       </c>
       <c r="D950" s="9">
-        <v>3265.76</v>
+        <v>3461.71</v>
       </c>
       <c r="E950" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F950" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.2">
@@ -38070,13 +38070,13 @@
         <v>64</v>
       </c>
       <c r="D951" s="9">
-        <v>2561.63</v>
+        <v>2715.33</v>
       </c>
       <c r="E951" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F951" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.2">
@@ -38090,13 +38090,13 @@
         <v>64</v>
       </c>
       <c r="D952" s="9">
-        <v>2591.02</v>
+        <v>2746.48</v>
       </c>
       <c r="E952" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F952" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.2">
@@ -38110,13 +38110,13 @@
         <v>64</v>
       </c>
       <c r="D953" s="9">
-        <v>2395.58</v>
+        <v>2539.31</v>
       </c>
       <c r="E953" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F953" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.2">
@@ -38130,13 +38130,13 @@
         <v>64</v>
       </c>
       <c r="D954" s="9">
-        <v>1933.38</v>
+        <v>2049.38</v>
       </c>
       <c r="E954" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F954" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.2">
@@ -38150,13 +38150,13 @@
         <v>64</v>
       </c>
       <c r="D955" s="9">
-        <v>1933.38</v>
+        <v>2049.38</v>
       </c>
       <c r="E955" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F955" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.2">
@@ -38170,13 +38170,13 @@
         <v>64</v>
       </c>
       <c r="D956" s="9">
-        <v>3484.31</v>
+        <v>3693.37</v>
       </c>
       <c r="E956" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F956" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="957" spans="1:6" x14ac:dyDescent="0.2">
@@ -38190,13 +38190,13 @@
         <v>64</v>
       </c>
       <c r="D957" s="9">
-        <v>4172.04</v>
+        <v>4422.3599999999997</v>
       </c>
       <c r="E957" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F957" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.2">
@@ -38210,13 +38210,13 @@
         <v>64</v>
       </c>
       <c r="D958" s="9">
-        <v>2305.4899999999998</v>
+        <v>2443.8200000000002</v>
       </c>
       <c r="E958" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F958" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.2">
@@ -38230,13 +38230,13 @@
         <v>64</v>
       </c>
       <c r="D959" s="9">
-        <v>4650.8900000000003</v>
+        <v>4929.9399999999996</v>
       </c>
       <c r="E959" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F959" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.2">
@@ -38250,13 +38250,13 @@
         <v>64</v>
       </c>
       <c r="D960" s="9">
-        <v>4026.67</v>
+        <v>4268.2700000000004</v>
       </c>
       <c r="E960" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F960" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.2">
@@ -38270,13 +38270,13 @@
         <v>64</v>
       </c>
       <c r="D961" s="9">
-        <v>4861.3100000000004</v>
+        <v>5152.99</v>
       </c>
       <c r="E961" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F961" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.2">
@@ -38290,13 +38290,13 @@
         <v>64</v>
       </c>
       <c r="D962" s="9">
-        <v>2397.91</v>
+        <v>2541.7800000000002</v>
       </c>
       <c r="E962" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F962" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.2">
@@ -38330,13 +38330,13 @@
         <v>64</v>
       </c>
       <c r="D964" s="9">
-        <v>2846.88</v>
+        <v>3017.69</v>
       </c>
       <c r="E964" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F964" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.2">
@@ -38350,13 +38350,13 @@
         <v>64</v>
       </c>
       <c r="D965" s="9">
-        <v>2640.45</v>
+        <v>2798.88</v>
       </c>
       <c r="E965" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F965" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.2">
@@ -38370,13 +38370,13 @@
         <v>64</v>
       </c>
       <c r="D966" s="9">
-        <v>2708.16</v>
+        <v>2870.65</v>
       </c>
       <c r="E966" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F966" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.2">
@@ -38390,13 +38390,13 @@
         <v>64</v>
       </c>
       <c r="D967" s="9">
-        <v>3461.47</v>
+        <v>3669.16</v>
       </c>
       <c r="E967" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F967" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.2">
@@ -38410,13 +38410,13 @@
         <v>64</v>
       </c>
       <c r="D968" s="9">
-        <v>2070.4699999999998</v>
+        <v>2194.6999999999998</v>
       </c>
       <c r="E968" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F968" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.2">
@@ -38430,13 +38430,13 @@
         <v>64</v>
       </c>
       <c r="D969" s="9">
-        <v>2142.44</v>
+        <v>2270.9899999999998</v>
       </c>
       <c r="E969" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F969" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.2">
@@ -38450,13 +38450,13 @@
         <v>64</v>
       </c>
       <c r="D970" s="9">
-        <v>2667.06</v>
+        <v>2827.08</v>
       </c>
       <c r="E970" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F970" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.2">
@@ -38470,13 +38470,13 @@
         <v>64</v>
       </c>
       <c r="D971" s="9">
-        <v>2063.23</v>
+        <v>2187.02</v>
       </c>
       <c r="E971" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F971" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.2">
@@ -38490,13 +38490,13 @@
         <v>64</v>
       </c>
       <c r="D972" s="9">
-        <v>4184.21</v>
+        <v>4435.26</v>
       </c>
       <c r="E972" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F972" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.2">
@@ -38510,13 +38510,13 @@
         <v>64</v>
       </c>
       <c r="D973" s="9">
-        <v>3053.25</v>
+        <v>3236.45</v>
       </c>
       <c r="E973" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F973" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.2">
@@ -38530,13 +38530,13 @@
         <v>64</v>
       </c>
       <c r="D974" s="9">
-        <v>4667.8500000000004</v>
+        <v>4947.92</v>
       </c>
       <c r="E974" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F974" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.2">
@@ -38550,13 +38550,13 @@
         <v>64</v>
       </c>
       <c r="D975" s="9">
-        <v>2783.81</v>
+        <v>2950.84</v>
       </c>
       <c r="E975" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F975" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.2">
@@ -38570,13 +38570,13 @@
         <v>64</v>
       </c>
       <c r="D976" s="9">
-        <v>3190.6</v>
+        <v>3382.04</v>
       </c>
       <c r="E976" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F976" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.2">
@@ -38590,13 +38590,13 @@
         <v>64</v>
       </c>
       <c r="D977" s="9">
-        <v>3538.14</v>
+        <v>3750.43</v>
       </c>
       <c r="E977" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F977" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.2">
@@ -38610,13 +38610,13 @@
         <v>64</v>
       </c>
       <c r="D978" s="9">
-        <v>3751.38</v>
+        <v>3976.46</v>
       </c>
       <c r="E978" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F978" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.2">
@@ -38630,13 +38630,13 @@
         <v>64</v>
       </c>
       <c r="D979" s="9">
-        <v>2539.2399999999998</v>
+        <v>2691.59</v>
       </c>
       <c r="E979" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F979" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="0.2">
@@ -38650,13 +38650,13 @@
         <v>64</v>
       </c>
       <c r="D980" s="9">
-        <v>2561.63</v>
+        <v>2715.33</v>
       </c>
       <c r="E980" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F980" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.2">
@@ -38670,13 +38670,13 @@
         <v>64</v>
       </c>
       <c r="D981" s="9">
-        <v>1977.29</v>
+        <v>2095.9299999999998</v>
       </c>
       <c r="E981" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F981" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.2">
@@ -38690,13 +38690,13 @@
         <v>64</v>
       </c>
       <c r="D982" s="9">
-        <v>2296.2399999999998</v>
+        <v>2434.0100000000002</v>
       </c>
       <c r="E982" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F982" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.2">
@@ -38710,13 +38710,13 @@
         <v>64</v>
       </c>
       <c r="D983" s="9">
-        <v>2615.25</v>
+        <v>2772.17</v>
       </c>
       <c r="E983" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F983" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="984" spans="1:6" x14ac:dyDescent="0.2">
@@ -38730,13 +38730,13 @@
         <v>64</v>
       </c>
       <c r="D984" s="9">
-        <v>2615.2600000000002</v>
+        <v>2772.18</v>
       </c>
       <c r="E984" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F984" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.2">
@@ -38750,13 +38750,13 @@
         <v>64</v>
       </c>
       <c r="D985" s="9">
-        <v>3080.19</v>
+        <v>3265</v>
       </c>
       <c r="E985" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F985" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.2">
@@ -38770,13 +38770,13 @@
         <v>64</v>
       </c>
       <c r="D986" s="9">
-        <v>2120.61</v>
+        <v>2247.85</v>
       </c>
       <c r="E986" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F986" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.2">
@@ -38790,13 +38790,13 @@
         <v>64</v>
       </c>
       <c r="D987" s="9">
-        <v>2122.83</v>
+        <v>2250.1999999999998</v>
       </c>
       <c r="E987" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F987" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.2">
@@ -38810,13 +38810,13 @@
         <v>64</v>
       </c>
       <c r="D988" s="9">
-        <v>2122.83</v>
+        <v>2250.1999999999998</v>
       </c>
       <c r="E988" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F988" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="989" spans="1:6" x14ac:dyDescent="0.2">
@@ -38830,13 +38830,13 @@
         <v>64</v>
       </c>
       <c r="D989" s="9">
-        <v>2232.12</v>
+        <v>2366.0500000000002</v>
       </c>
       <c r="E989" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F989" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.2">
@@ -38850,13 +38850,13 @@
         <v>64</v>
       </c>
       <c r="D990" s="9">
-        <v>2232.12</v>
+        <v>2366.0500000000002</v>
       </c>
       <c r="E990" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F990" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.2">
@@ -38870,13 +38870,13 @@
         <v>64</v>
       </c>
       <c r="D991" s="9">
-        <v>2340.65</v>
+        <v>2481.09</v>
       </c>
       <c r="E991" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F991" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="992" spans="1:6" x14ac:dyDescent="0.2">
@@ -38890,13 +38890,13 @@
         <v>64</v>
       </c>
       <c r="D992" s="9">
-        <v>1340.09</v>
+        <v>1420.5</v>
       </c>
       <c r="E992" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F992" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="0.2">
@@ -38910,13 +38910,13 @@
         <v>64</v>
       </c>
       <c r="D993" s="9">
-        <v>2578.91</v>
+        <v>2733.64</v>
       </c>
       <c r="E993" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F993" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.2">
@@ -38930,13 +38930,13 @@
         <v>64</v>
       </c>
       <c r="D994" s="9">
-        <v>3019.2</v>
+        <v>3200.35</v>
       </c>
       <c r="E994" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F994" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.2">
@@ -38950,13 +38950,13 @@
         <v>64</v>
       </c>
       <c r="D995" s="9">
-        <v>3053.25</v>
+        <v>3236.46</v>
       </c>
       <c r="E995" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F995" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.2">
@@ -38970,13 +38970,13 @@
         <v>64</v>
       </c>
       <c r="D996" s="9">
-        <v>2079.46</v>
+        <v>2204.23</v>
       </c>
       <c r="E996" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F996" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="997" spans="1:6" x14ac:dyDescent="0.2">
@@ -38990,13 +38990,13 @@
         <v>64</v>
       </c>
       <c r="D997" s="9">
-        <v>2122.6799999999998</v>
+        <v>2250.04</v>
       </c>
       <c r="E997" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F997" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.2">
@@ -39010,13 +39010,13 @@
         <v>64</v>
       </c>
       <c r="D998" s="9">
-        <v>2426.0700000000002</v>
+        <v>2571.63</v>
       </c>
       <c r="E998" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F998" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.2">
@@ -39030,13 +39030,13 @@
         <v>64</v>
       </c>
       <c r="D999" s="9">
-        <v>2741.62</v>
+        <v>2906.12</v>
       </c>
       <c r="E999" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F999" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.2">
@@ -39050,13 +39050,13 @@
         <v>64</v>
       </c>
       <c r="D1000" s="9">
-        <v>3444.6</v>
+        <v>3651.28</v>
       </c>
       <c r="E1000" s="2" t="s">
         <v>1579</v>
       </c>
       <c r="F1000" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.2">
@@ -43070,13 +43070,13 @@
         <v>8</v>
       </c>
       <c r="D1201" s="9">
-        <v>910.46</v>
+        <v>944.78</v>
       </c>
       <c r="E1201" s="2" t="s">
         <v>2475</v>
       </c>
       <c r="F1201" s="3">
-        <v>45075</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1202" spans="1:6" x14ac:dyDescent="0.2">
@@ -43710,13 +43710,13 @@
         <v>927</v>
       </c>
       <c r="D1233" s="9">
-        <v>263.31</v>
+        <v>276.47000000000003</v>
       </c>
       <c r="E1233" s="2" t="s">
         <v>2563</v>
       </c>
       <c r="F1233" s="3">
-        <v>45098</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1234" spans="1:6" x14ac:dyDescent="0.2">
@@ -43790,13 +43790,13 @@
         <v>8</v>
       </c>
       <c r="D1237" s="9">
-        <v>338.2</v>
+        <v>355.11</v>
       </c>
       <c r="E1237" s="2" t="s">
         <v>2563</v>
       </c>
       <c r="F1237" s="3">
-        <v>45098</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1238" spans="1:6" x14ac:dyDescent="0.2">
@@ -43810,13 +43810,13 @@
         <v>8</v>
       </c>
       <c r="D1238" s="9">
-        <v>237.33</v>
+        <v>249.21</v>
       </c>
       <c r="E1238" s="2" t="s">
         <v>2563</v>
       </c>
       <c r="F1238" s="3">
-        <v>45098</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1239" spans="1:6" x14ac:dyDescent="0.2">
@@ -45550,13 +45550,13 @@
         <v>64</v>
       </c>
       <c r="D1325" s="9">
-        <v>6868.41</v>
+        <v>10691.53</v>
       </c>
       <c r="E1325" s="2" t="s">
         <v>2741</v>
       </c>
       <c r="F1325" s="3">
-        <v>45044</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="1326" spans="1:6" x14ac:dyDescent="0.2">
@@ -51650,13 +51650,13 @@
         <v>64</v>
       </c>
       <c r="D1630" s="9">
-        <v>1359.47</v>
+        <v>1644.97</v>
       </c>
       <c r="E1630" s="2" t="s">
         <v>3413</v>
       </c>
       <c r="F1630" s="3">
-        <v>45086</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="1631" spans="1:6" x14ac:dyDescent="0.2">
@@ -53070,13 +53070,13 @@
         <v>8</v>
       </c>
       <c r="D1701" s="9">
-        <v>731.08</v>
+        <v>767.64</v>
       </c>
       <c r="E1701" s="2" t="s">
         <v>3561</v>
       </c>
       <c r="F1701" s="3">
-        <v>45092</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="1702" spans="1:6" x14ac:dyDescent="0.2">
@@ -53150,13 +53150,13 @@
         <v>8</v>
       </c>
       <c r="D1705" s="9">
-        <v>1174.3800000000001</v>
+        <v>1233.0999999999999</v>
       </c>
       <c r="E1705" s="2" t="s">
         <v>3561</v>
       </c>
       <c r="F1705" s="3">
-        <v>45092</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="1706" spans="1:6" x14ac:dyDescent="0.2">
@@ -54187,7 +54187,7 @@
         <v>3678</v>
       </c>
       <c r="C1757" s="2" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="D1757" s="9">
         <v>918.68</v>
@@ -54287,7 +54287,7 @@
         <v>3688</v>
       </c>
       <c r="C1762" s="2" t="s">
-        <v>927</v>
+        <v>2234</v>
       </c>
       <c r="D1762" s="9">
         <v>397.27</v>
@@ -54307,7 +54307,7 @@
         <v>3691</v>
       </c>
       <c r="C1763" s="2" t="s">
-        <v>927</v>
+        <v>2234</v>
       </c>
       <c r="D1763" s="9">
         <v>521.41999999999996</v>
@@ -54327,7 +54327,7 @@
         <v>3693</v>
       </c>
       <c r="C1764" s="2" t="s">
-        <v>927</v>
+        <v>2234</v>
       </c>
       <c r="D1764" s="9">
         <v>655.49</v>
@@ -54350,13 +54350,13 @@
         <v>64</v>
       </c>
       <c r="D1765" s="9">
-        <v>416.66</v>
+        <v>437.5</v>
       </c>
       <c r="E1765" s="2" t="s">
         <v>3689</v>
       </c>
       <c r="F1765" s="3">
-        <v>45098</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1766" spans="1:6" x14ac:dyDescent="0.2">
@@ -57250,13 +57250,13 @@
         <v>32</v>
       </c>
       <c r="D1910" s="9">
-        <v>698.61</v>
+        <v>768.48</v>
       </c>
       <c r="E1910" s="2" t="s">
         <v>3993</v>
       </c>
       <c r="F1910" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="1911" spans="1:6" x14ac:dyDescent="0.2">
@@ -57390,13 +57390,13 @@
         <v>32</v>
       </c>
       <c r="D1917" s="9">
-        <v>710.59</v>
+        <v>781.65</v>
       </c>
       <c r="E1917" s="2" t="s">
         <v>3993</v>
       </c>
       <c r="F1917" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="1918" spans="1:6" x14ac:dyDescent="0.2">
@@ -57650,13 +57650,13 @@
         <v>8</v>
       </c>
       <c r="D1930" s="9">
-        <v>798.64</v>
+        <v>957.6</v>
       </c>
       <c r="E1930" s="2" t="s">
         <v>4014</v>
       </c>
       <c r="F1930" s="3">
-        <v>45075</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="1931" spans="1:6" x14ac:dyDescent="0.2">
@@ -58450,13 +58450,13 @@
         <v>64</v>
       </c>
       <c r="D1970" s="9">
-        <v>1238.32</v>
+        <v>1312.62</v>
       </c>
       <c r="E1970" s="2" t="s">
         <v>4125</v>
       </c>
       <c r="F1970" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="1971" spans="1:6" x14ac:dyDescent="0.2">
@@ -58490,13 +58490,13 @@
         <v>64</v>
       </c>
       <c r="D1972" s="9">
-        <v>1123.92</v>
+        <v>1191.3599999999999</v>
       </c>
       <c r="E1972" s="2" t="s">
         <v>4125</v>
       </c>
       <c r="F1972" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="1973" spans="1:6" x14ac:dyDescent="0.2">
@@ -59030,13 +59030,13 @@
         <v>968</v>
       </c>
       <c r="D1999" s="9">
-        <v>77.78</v>
+        <v>93.34</v>
       </c>
       <c r="E1999" s="2" t="s">
         <v>4180</v>
       </c>
       <c r="F1999" s="3">
-        <v>45075</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="2000" spans="1:6" x14ac:dyDescent="0.2">
@@ -59070,13 +59070,13 @@
         <v>968</v>
       </c>
       <c r="D2001" s="9">
-        <v>77.78</v>
+        <v>93.34</v>
       </c>
       <c r="E2001" s="2" t="s">
         <v>4180</v>
       </c>
       <c r="F2001" s="3">
-        <v>45075</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="2002" spans="1:6" x14ac:dyDescent="0.2">
@@ -60470,13 +60470,13 @@
         <v>8</v>
       </c>
       <c r="D2071" s="9">
-        <v>225.72</v>
+        <v>237.69</v>
       </c>
       <c r="E2071" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2071" s="3">
-        <v>45103</v>
+        <v>45124</v>
       </c>
     </row>
     <row r="2072" spans="1:6" x14ac:dyDescent="0.2">
@@ -60490,13 +60490,13 @@
         <v>8</v>
       </c>
       <c r="D2072" s="9">
-        <v>323.19</v>
+        <v>335.16</v>
       </c>
       <c r="E2072" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2072" s="3">
-        <v>45103</v>
+        <v>45124</v>
       </c>
     </row>
     <row r="2073" spans="1:6" x14ac:dyDescent="0.2">
@@ -60570,13 +60570,13 @@
         <v>64</v>
       </c>
       <c r="D2076" s="9">
-        <v>1543.32</v>
+        <v>1872.45</v>
       </c>
       <c r="E2076" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2076" s="3">
-        <v>45044</v>
+        <v>45124</v>
       </c>
     </row>
     <row r="2077" spans="1:6" x14ac:dyDescent="0.2">
@@ -64910,13 +64910,13 @@
         <v>8</v>
       </c>
       <c r="D2293" s="9">
-        <v>165.11</v>
+        <v>216.6</v>
       </c>
       <c r="E2293" s="2" t="s">
         <v>4743</v>
       </c>
       <c r="F2293" s="3">
-        <v>45044</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="2294" spans="1:6" x14ac:dyDescent="0.2">
@@ -64930,13 +64930,13 @@
         <v>8</v>
       </c>
       <c r="D2294" s="9">
-        <v>471.66</v>
+        <v>402.3</v>
       </c>
       <c r="E2294" s="2" t="s">
         <v>4743</v>
       </c>
       <c r="F2294" s="3">
-        <v>45114</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="2295" spans="1:6" x14ac:dyDescent="0.2">
@@ -65310,13 +65310,13 @@
         <v>8</v>
       </c>
       <c r="D2313" s="9">
-        <v>664.27</v>
+        <v>704.13</v>
       </c>
       <c r="E2313" s="2" t="s">
         <v>4743</v>
       </c>
       <c r="F2313" s="3">
-        <v>45093</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="2314" spans="1:6" x14ac:dyDescent="0.2">
@@ -68130,13 +68130,13 @@
         <v>836</v>
       </c>
       <c r="D2454" s="9">
-        <v>730.26</v>
+        <v>766.78</v>
       </c>
       <c r="E2454" s="2" t="s">
         <v>5147</v>
       </c>
       <c r="F2454" s="3">
-        <v>45056</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="2455" spans="1:6" x14ac:dyDescent="0.2">
@@ -68150,13 +68150,13 @@
         <v>2052</v>
       </c>
       <c r="D2455" s="9">
-        <v>1604.05</v>
+        <v>1684.26</v>
       </c>
       <c r="E2455" s="2" t="s">
         <v>5147</v>
       </c>
       <c r="F2455" s="3">
-        <v>45056</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="2456" spans="1:6" x14ac:dyDescent="0.2">
@@ -68170,13 +68170,13 @@
         <v>8</v>
       </c>
       <c r="D2456" s="9">
-        <v>730.26</v>
+        <v>766.78</v>
       </c>
       <c r="E2456" s="2" t="s">
         <v>5147</v>
       </c>
       <c r="F2456" s="3">
-        <v>45056</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="2457" spans="1:6" x14ac:dyDescent="0.2">
@@ -68250,13 +68250,13 @@
         <v>64</v>
       </c>
       <c r="D2460" s="9">
-        <v>836.37</v>
+        <v>920.01</v>
       </c>
       <c r="E2460" s="2" t="s">
         <v>5158</v>
       </c>
       <c r="F2460" s="3">
-        <v>45120</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="2461" spans="1:6" x14ac:dyDescent="0.2">
@@ -68270,13 +68270,13 @@
         <v>64</v>
       </c>
       <c r="D2461" s="9">
-        <v>1473.64</v>
+        <v>1621.01</v>
       </c>
       <c r="E2461" s="2" t="s">
         <v>5158</v>
       </c>
       <c r="F2461" s="3">
-        <v>45120</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="2462" spans="1:6" x14ac:dyDescent="0.2">
@@ -68290,13 +68290,13 @@
         <v>64</v>
       </c>
       <c r="D2462" s="9">
-        <v>955.89</v>
+        <v>1051.48</v>
       </c>
       <c r="E2462" s="2" t="s">
         <v>5158</v>
       </c>
       <c r="F2462" s="3">
-        <v>45120</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="2463" spans="1:6" x14ac:dyDescent="0.2">
@@ -68850,13 +68850,13 @@
         <v>8</v>
       </c>
       <c r="D2490" s="9">
-        <v>259.08999999999997</v>
+        <v>285</v>
       </c>
       <c r="E2490" s="2" t="s">
         <v>5224</v>
       </c>
       <c r="F2490" s="3">
-        <v>45098</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="2491" spans="1:6" x14ac:dyDescent="0.2">
@@ -68870,13 +68870,13 @@
         <v>8</v>
       </c>
       <c r="D2491" s="9">
-        <v>306.88</v>
+        <v>337.57</v>
       </c>
       <c r="E2491" s="2" t="s">
         <v>5224</v>
       </c>
       <c r="F2491" s="3">
-        <v>45098</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="2492" spans="1:6" x14ac:dyDescent="0.2">
@@ -68990,13 +68990,13 @@
         <v>8</v>
       </c>
       <c r="D2497" s="9">
-        <v>650.6</v>
+        <v>715.66</v>
       </c>
       <c r="E2497" s="2" t="s">
         <v>5239</v>
       </c>
       <c r="F2497" s="3">
-        <v>45098</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="2498" spans="1:6" x14ac:dyDescent="0.2">
@@ -69010,13 +69010,13 @@
         <v>8</v>
       </c>
       <c r="D2498" s="9">
-        <v>755.34</v>
+        <v>830.88</v>
       </c>
       <c r="E2498" s="2" t="s">
         <v>5239</v>
       </c>
       <c r="F2498" s="3">
-        <v>45098</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="2499" spans="1:6" x14ac:dyDescent="0.2">
@@ -71370,13 +71370,13 @@
         <v>64</v>
       </c>
       <c r="D2616" s="9">
-        <v>1377.1</v>
+        <v>1445.96</v>
       </c>
       <c r="E2616" s="2" t="s">
         <v>5475</v>
       </c>
       <c r="F2616" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="2617" spans="1:6" x14ac:dyDescent="0.2">
@@ -72430,13 +72430,13 @@
         <v>8</v>
       </c>
       <c r="D2669" s="9">
-        <v>1303.1199999999999</v>
+        <v>1368.28</v>
       </c>
       <c r="E2669" s="2" t="s">
         <v>5609</v>
       </c>
       <c r="F2669" s="3">
-        <v>45114</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="2670" spans="1:6" x14ac:dyDescent="0.2">
@@ -77848,13 +77848,13 @@
         <v>927</v>
       </c>
       <c r="D2940" s="9">
-        <v>560.04</v>
+        <v>588.04999999999995</v>
       </c>
       <c r="E2940" s="2" t="s">
         <v>6181</v>
       </c>
       <c r="F2940" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="2941" spans="1:6" x14ac:dyDescent="0.2">
@@ -77868,13 +77868,13 @@
         <v>923</v>
       </c>
       <c r="D2941" s="9">
-        <v>439.65</v>
+        <v>461.64</v>
       </c>
       <c r="E2941" s="2" t="s">
         <v>6181</v>
       </c>
       <c r="F2941" s="3">
-        <v>45084</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="2942" spans="1:6" x14ac:dyDescent="0.2">
@@ -77888,13 +77888,13 @@
         <v>2268</v>
       </c>
       <c r="D2942" s="9">
-        <v>499.5</v>
+        <v>524.48</v>
       </c>
       <c r="E2942" s="2" t="s">
         <v>6181</v>
       </c>
       <c r="F2942" s="3">
-        <v>45044</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="2943" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel-files/fg.xlsx
+++ b/excel-files/fg.xlsx
@@ -19778,13 +19778,13 @@
         <v>64</v>
       </c>
       <c r="D36" s="9">
-        <v>10847.1</v>
+        <v>13680</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F36" s="3">
-        <v>45044</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -19798,13 +19798,13 @@
         <v>64</v>
       </c>
       <c r="D37" s="9">
-        <v>15863.1</v>
+        <v>19950</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F37" s="3">
-        <v>45044</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -19818,13 +19818,13 @@
         <v>64</v>
       </c>
       <c r="D38" s="9">
-        <v>2748.35</v>
+        <v>3515</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F38" s="3">
-        <v>45044</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -19838,13 +19838,13 @@
         <v>64</v>
       </c>
       <c r="D39" s="9">
-        <v>12205.6</v>
+        <v>15048</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F39" s="3">
-        <v>45044</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -19858,13 +19858,13 @@
         <v>64</v>
       </c>
       <c r="D40" s="9">
-        <v>17848.599999999999</v>
+        <v>21945</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F40" s="3">
-        <v>45044</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -19878,13 +19878,13 @@
         <v>64</v>
       </c>
       <c r="D41" s="9">
-        <v>3260.4</v>
+        <v>4123</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F41" s="3">
-        <v>45044</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -19898,13 +19898,13 @@
         <v>64</v>
       </c>
       <c r="D42" s="9">
-        <v>2305.27</v>
+        <v>2907</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F42" s="3">
-        <v>45044</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -19918,13 +19918,13 @@
         <v>64</v>
       </c>
       <c r="D43" s="9">
-        <v>1427.47</v>
+        <v>1824</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F43" s="3">
-        <v>45044</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -19938,13 +19938,13 @@
         <v>64</v>
       </c>
       <c r="D44" s="9">
-        <v>1860.1</v>
+        <v>2375</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F44" s="3">
-        <v>45044</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -19958,13 +19958,13 @@
         <v>64</v>
       </c>
       <c r="D45" s="9">
-        <v>1870.55</v>
+        <v>2375</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F45" s="3">
-        <v>45044</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -23878,13 +23878,13 @@
         <v>64</v>
       </c>
       <c r="D241" s="9">
-        <v>658.53</v>
+        <v>724.39</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F241" s="3">
-        <v>45100</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
@@ -24774,13 +24774,13 @@
         <v>64</v>
       </c>
       <c r="D286" s="9">
-        <v>808.7</v>
+        <v>889.57</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F286" s="3">
-        <v>45100</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
@@ -24794,13 +24794,13 @@
         <v>64</v>
       </c>
       <c r="D287" s="9">
-        <v>528.39</v>
+        <v>581.23</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F287" s="3">
-        <v>45100</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
@@ -24814,13 +24814,13 @@
         <v>495</v>
       </c>
       <c r="D288" s="9">
-        <v>256.56</v>
+        <v>282.22000000000003</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F288" s="3">
-        <v>45100</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
@@ -24834,13 +24834,13 @@
         <v>593</v>
       </c>
       <c r="D289" s="9">
-        <v>1485.75</v>
+        <v>1634.33</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F289" s="3">
-        <v>45100</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
@@ -24854,13 +24854,13 @@
         <v>64</v>
       </c>
       <c r="D290" s="9">
-        <v>528.39</v>
+        <v>581.23</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F290" s="3">
-        <v>45100</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
@@ -24874,13 +24874,13 @@
         <v>64</v>
       </c>
       <c r="D291" s="9">
-        <v>583.15</v>
+        <v>641.47</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F291" s="3">
-        <v>45100</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
@@ -24894,13 +24894,13 @@
         <v>64</v>
       </c>
       <c r="D292" s="9">
-        <v>550.58000000000004</v>
+        <v>605.64</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F292" s="3">
-        <v>45100</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
@@ -24914,13 +24914,13 @@
         <v>64</v>
       </c>
       <c r="D293" s="9">
-        <v>583.15</v>
+        <v>641.47</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F293" s="3">
-        <v>45100</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
@@ -24934,13 +24934,13 @@
         <v>64</v>
       </c>
       <c r="D294" s="9">
-        <v>3099.81</v>
+        <v>3409.8</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F294" s="3">
-        <v>45100</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
@@ -25074,13 +25074,13 @@
         <v>498</v>
       </c>
       <c r="D301" s="9">
-        <v>1372.54</v>
+        <v>1509.8</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F301" s="3">
-        <v>45100</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
@@ -25094,13 +25094,13 @@
         <v>64</v>
       </c>
       <c r="D302" s="9">
-        <v>509.04</v>
+        <v>559.95000000000005</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F302" s="3">
-        <v>45100</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
@@ -25114,13 +25114,13 @@
         <v>64</v>
       </c>
       <c r="D303" s="9">
-        <v>249.43</v>
+        <v>274.38</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F303" s="3">
-        <v>45100</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
@@ -25134,13 +25134,13 @@
         <v>64</v>
       </c>
       <c r="D304" s="9">
-        <v>715.25</v>
+        <v>786.78</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>492</v>
       </c>
       <c r="F304" s="3">
-        <v>45100</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
@@ -27814,13 +27814,13 @@
         <v>8</v>
       </c>
       <c r="D438" s="9">
-        <v>893.63</v>
+        <v>983</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>902</v>
       </c>
       <c r="F438" s="3">
-        <v>45142</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.2">
@@ -28634,13 +28634,13 @@
         <v>968</v>
       </c>
       <c r="D479" s="9">
-        <v>31.79</v>
+        <v>35.61</v>
       </c>
       <c r="E479" s="2" t="s">
         <v>969</v>
       </c>
       <c r="F479" s="3">
-        <v>45044</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.2">
@@ -28654,13 +28654,13 @@
         <v>968</v>
       </c>
       <c r="D480" s="9">
-        <v>31.79</v>
+        <v>35.61</v>
       </c>
       <c r="E480" s="2" t="s">
         <v>969</v>
       </c>
       <c r="F480" s="3">
-        <v>45044</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.2">
@@ -29694,13 +29694,13 @@
         <v>968</v>
       </c>
       <c r="D532" s="9">
-        <v>23.84</v>
+        <v>26.7</v>
       </c>
       <c r="E532" s="2" t="s">
         <v>1084</v>
       </c>
       <c r="F532" s="3">
-        <v>45044</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.2">
@@ -29714,13 +29714,13 @@
         <v>968</v>
       </c>
       <c r="D533" s="9">
-        <v>23.84</v>
+        <v>26.7</v>
       </c>
       <c r="E533" s="2" t="s">
         <v>1084</v>
       </c>
       <c r="F533" s="3">
-        <v>45044</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.2">
@@ -31154,13 +31154,13 @@
         <v>1230</v>
       </c>
       <c r="D605" s="9">
-        <v>23.84</v>
+        <v>26.7</v>
       </c>
       <c r="E605" s="2" t="s">
         <v>1237</v>
       </c>
       <c r="F605" s="3">
-        <v>45044</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.2">
@@ -31494,13 +31494,13 @@
         <v>8</v>
       </c>
       <c r="D622" s="9">
-        <v>576.41999999999996</v>
+        <v>662.88</v>
       </c>
       <c r="E622" s="2" t="s">
         <v>1263</v>
       </c>
       <c r="F622" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.2">
@@ -31514,13 +31514,13 @@
         <v>8</v>
       </c>
       <c r="D623" s="9">
-        <v>688.14</v>
+        <v>791.36</v>
       </c>
       <c r="E623" s="2" t="s">
         <v>1263</v>
       </c>
       <c r="F623" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.2">
@@ -31534,13 +31534,13 @@
         <v>8</v>
       </c>
       <c r="D624" s="9">
-        <v>713.01</v>
+        <v>819.96</v>
       </c>
       <c r="E624" s="2" t="s">
         <v>1263</v>
       </c>
       <c r="F624" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.2">
@@ -31554,13 +31554,13 @@
         <v>8</v>
       </c>
       <c r="D625" s="9">
-        <v>825.1</v>
+        <v>948.87</v>
       </c>
       <c r="E625" s="2" t="s">
         <v>1263</v>
       </c>
       <c r="F625" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.2">
@@ -31594,13 +31594,13 @@
         <v>8</v>
       </c>
       <c r="D627" s="9">
-        <v>785.21</v>
+        <v>902.99</v>
       </c>
       <c r="E627" s="2" t="s">
         <v>1286</v>
       </c>
       <c r="F627" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.2">
@@ -31614,13 +31614,13 @@
         <v>32</v>
       </c>
       <c r="D628" s="9">
-        <v>981.52</v>
+        <v>1128.75</v>
       </c>
       <c r="E628" s="2" t="s">
         <v>1286</v>
       </c>
       <c r="F628" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.2">
@@ -31634,13 +31634,13 @@
         <v>836</v>
       </c>
       <c r="D629" s="9">
-        <v>501.11</v>
+        <v>576.28</v>
       </c>
       <c r="E629" s="2" t="s">
         <v>1286</v>
       </c>
       <c r="F629" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.2">
@@ -31654,13 +31654,13 @@
         <v>836</v>
       </c>
       <c r="D630" s="9">
-        <v>1775.17</v>
+        <v>2041.45</v>
       </c>
       <c r="E630" s="2" t="s">
         <v>1286</v>
       </c>
       <c r="F630" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.2">
@@ -31674,13 +31674,13 @@
         <v>836</v>
       </c>
       <c r="D631" s="9">
-        <v>538.04</v>
+        <v>618.75</v>
       </c>
       <c r="E631" s="2" t="s">
         <v>1286</v>
       </c>
       <c r="F631" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.2">
@@ -31694,13 +31694,13 @@
         <v>836</v>
       </c>
       <c r="D632" s="9">
-        <v>1793.46</v>
+        <v>2062.48</v>
       </c>
       <c r="E632" s="2" t="s">
         <v>1286</v>
       </c>
       <c r="F632" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.2">
@@ -31754,13 +31754,13 @@
         <v>32</v>
       </c>
       <c r="D635" s="9">
-        <v>403.15</v>
+        <v>463.62</v>
       </c>
       <c r="E635" s="2" t="s">
         <v>1286</v>
       </c>
       <c r="F635" s="3">
-        <v>45044</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.2">
@@ -31774,13 +31774,13 @@
         <v>64</v>
       </c>
       <c r="D636" s="9">
-        <v>2014</v>
+        <v>2508</v>
       </c>
       <c r="E636" s="2" t="s">
         <v>1305</v>
       </c>
       <c r="F636" s="3">
-        <v>45119</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.2">
@@ -31794,13 +31794,13 @@
         <v>64</v>
       </c>
       <c r="D637" s="9">
-        <v>2489</v>
+        <v>3087.5</v>
       </c>
       <c r="E637" s="2" t="s">
         <v>1305</v>
       </c>
       <c r="F637" s="3">
-        <v>45119</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.2">
@@ -31814,13 +31814,13 @@
         <v>64</v>
       </c>
       <c r="D638" s="9">
-        <v>2090</v>
+        <v>2612.5</v>
       </c>
       <c r="E638" s="2" t="s">
         <v>1305</v>
       </c>
       <c r="F638" s="3">
-        <v>45119</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.2">
@@ -31834,13 +31834,13 @@
         <v>64</v>
       </c>
       <c r="D639" s="9">
-        <v>2175.5</v>
+        <v>2726.5</v>
       </c>
       <c r="E639" s="2" t="s">
         <v>1305</v>
       </c>
       <c r="F639" s="3">
-        <v>45119</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.2">
@@ -31854,13 +31854,13 @@
         <v>64</v>
       </c>
       <c r="D640" s="9">
-        <v>2498.5</v>
+        <v>2850</v>
       </c>
       <c r="E640" s="2" t="s">
         <v>1305</v>
       </c>
       <c r="F640" s="3">
-        <v>45119</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.2">
@@ -31894,13 +31894,13 @@
         <v>64</v>
       </c>
       <c r="D642" s="9">
-        <v>2027.3</v>
+        <v>2850</v>
       </c>
       <c r="E642" s="2" t="s">
         <v>1305</v>
       </c>
       <c r="F642" s="3">
-        <v>45044</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.2">
@@ -31934,13 +31934,13 @@
         <v>64</v>
       </c>
       <c r="D644" s="9">
-        <v>3201.5</v>
+        <v>3995.7</v>
       </c>
       <c r="E644" s="2" t="s">
         <v>1305</v>
       </c>
       <c r="F644" s="3">
-        <v>45119</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.2">
@@ -31954,13 +31954,13 @@
         <v>64</v>
       </c>
       <c r="D645" s="9">
-        <v>3572</v>
+        <v>4436.5</v>
       </c>
       <c r="E645" s="2" t="s">
         <v>1305</v>
       </c>
       <c r="F645" s="3">
-        <v>45119</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.2">
@@ -31974,13 +31974,13 @@
         <v>64</v>
       </c>
       <c r="D646" s="9">
-        <v>8854</v>
+        <v>10630.5</v>
       </c>
       <c r="E646" s="2" t="s">
         <v>1305</v>
       </c>
       <c r="F646" s="3">
-        <v>45119</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.2">
@@ -31994,13 +31994,13 @@
         <v>64</v>
       </c>
       <c r="D647" s="9">
-        <v>9500</v>
+        <v>11618.5</v>
       </c>
       <c r="E647" s="2" t="s">
         <v>1305</v>
       </c>
       <c r="F647" s="3">
-        <v>45119</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.2">
@@ -32012,13 +32012,13 @@
       </c>
       <c r="C648" s="2"/>
       <c r="D648" s="9">
-        <v>9880</v>
+        <v>12283.5</v>
       </c>
       <c r="E648" s="2" t="s">
         <v>1305</v>
       </c>
       <c r="F648" s="3">
-        <v>45119</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.2">
@@ -32032,13 +32032,13 @@
         <v>64</v>
       </c>
       <c r="D649" s="9">
-        <v>3762</v>
+        <v>4689.2</v>
       </c>
       <c r="E649" s="2" t="s">
         <v>1305</v>
       </c>
       <c r="F649" s="3">
-        <v>45119</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.2">
@@ -32052,13 +32052,13 @@
         <v>64</v>
       </c>
       <c r="D650" s="9">
-        <v>7908.56</v>
+        <v>8699.42</v>
       </c>
       <c r="E650" s="2" t="s">
         <v>1334</v>
       </c>
       <c r="F650" s="3">
-        <v>45117</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.2">
@@ -32072,13 +32072,13 @@
         <v>64</v>
       </c>
       <c r="D651" s="9">
-        <v>9404.56</v>
+        <v>10345.02</v>
       </c>
       <c r="E651" s="2" t="s">
         <v>1334</v>
       </c>
       <c r="F651" s="3">
-        <v>45117</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.2">
@@ -33870,13 +33870,13 @@
         <v>64</v>
       </c>
       <c r="D741" s="9">
-        <v>1126.21</v>
+        <v>1295.1400000000001</v>
       </c>
       <c r="E741" s="2" t="s">
         <v>1527</v>
       </c>
       <c r="F741" s="3">
-        <v>45072</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.2">
@@ -33890,13 +33890,13 @@
         <v>64</v>
       </c>
       <c r="D742" s="9">
-        <v>1327.1</v>
+        <v>1526.17</v>
       </c>
       <c r="E742" s="2" t="s">
         <v>1527</v>
       </c>
       <c r="F742" s="3">
-        <v>45072</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.2">
@@ -33910,13 +33910,13 @@
         <v>64</v>
       </c>
       <c r="D743" s="9">
-        <v>1628.47</v>
+        <v>1872.74</v>
       </c>
       <c r="E743" s="2" t="s">
         <v>1527</v>
       </c>
       <c r="F743" s="3">
-        <v>45072</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.2">
@@ -33930,13 +33930,13 @@
         <v>64</v>
       </c>
       <c r="D744" s="9">
-        <v>3327.24</v>
+        <v>3826.33</v>
       </c>
       <c r="E744" s="2" t="s">
         <v>1527</v>
       </c>
       <c r="F744" s="3">
-        <v>45072</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.2">
@@ -33950,13 +33950,13 @@
         <v>64</v>
       </c>
       <c r="D745" s="9">
-        <v>3502.08</v>
+        <v>4027.39</v>
       </c>
       <c r="E745" s="2" t="s">
         <v>1527</v>
       </c>
       <c r="F745" s="3">
-        <v>45072</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.2">
@@ -33970,13 +33970,13 @@
         <v>64</v>
       </c>
       <c r="D746" s="9">
-        <v>5486.99</v>
+        <v>6310.04</v>
       </c>
       <c r="E746" s="2" t="s">
         <v>1527</v>
       </c>
       <c r="F746" s="3">
-        <v>45072</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.2">
@@ -33990,13 +33990,13 @@
         <v>64</v>
       </c>
       <c r="D747" s="9">
-        <v>368.89</v>
+        <v>424.22</v>
       </c>
       <c r="E747" s="2" t="s">
         <v>1540</v>
       </c>
       <c r="F747" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.2">
@@ -34010,13 +34010,13 @@
         <v>8</v>
       </c>
       <c r="D748" s="9">
-        <v>361.59</v>
+        <v>415.83</v>
       </c>
       <c r="E748" s="2" t="s">
         <v>1540</v>
       </c>
       <c r="F748" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.2">
@@ -34030,13 +34030,13 @@
         <v>8</v>
       </c>
       <c r="D749" s="9">
-        <v>397.07</v>
+        <v>456.63</v>
       </c>
       <c r="E749" s="2" t="s">
         <v>1540</v>
       </c>
       <c r="F749" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.2">
@@ -34050,13 +34050,13 @@
         <v>64</v>
       </c>
       <c r="D750" s="9">
-        <v>304.31</v>
+        <v>349.96</v>
       </c>
       <c r="E750" s="2" t="s">
         <v>1540</v>
       </c>
       <c r="F750" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.2">
@@ -34070,13 +34070,13 @@
         <v>64</v>
       </c>
       <c r="D751" s="9">
-        <v>285.56</v>
+        <v>328.39</v>
       </c>
       <c r="E751" s="2" t="s">
         <v>1540</v>
       </c>
       <c r="F751" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.2">
@@ -34090,13 +34090,13 @@
         <v>64</v>
       </c>
       <c r="D752" s="9">
-        <v>265.08</v>
+        <v>304.83999999999997</v>
       </c>
       <c r="E752" s="2" t="s">
         <v>1540</v>
       </c>
       <c r="F752" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.2">
@@ -34110,13 +34110,13 @@
         <v>64</v>
       </c>
       <c r="D753" s="9">
-        <v>980.7</v>
+        <v>1127.81</v>
       </c>
       <c r="E753" s="2" t="s">
         <v>1540</v>
       </c>
       <c r="F753" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.2">
@@ -34130,13 +34130,13 @@
         <v>8</v>
       </c>
       <c r="D754" s="9">
-        <v>289.44</v>
+        <v>332.86</v>
       </c>
       <c r="E754" s="2" t="s">
         <v>1540</v>
       </c>
       <c r="F754" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.2">
@@ -34150,13 +34150,13 @@
         <v>8</v>
       </c>
       <c r="D755" s="9">
-        <v>273.70999999999998</v>
+        <v>314.77</v>
       </c>
       <c r="E755" s="2" t="s">
         <v>1540</v>
       </c>
       <c r="F755" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.2">
@@ -34170,13 +34170,13 @@
         <v>8</v>
       </c>
       <c r="D756" s="9">
-        <v>198.51</v>
+        <v>228.29</v>
       </c>
       <c r="E756" s="2" t="s">
         <v>1540</v>
       </c>
       <c r="F756" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.2">
@@ -34190,13 +34190,13 @@
         <v>8</v>
       </c>
       <c r="D757" s="9">
-        <v>528.02</v>
+        <v>580.83000000000004</v>
       </c>
       <c r="E757" s="2" t="s">
         <v>1561</v>
       </c>
       <c r="F757" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.2">
@@ -34210,13 +34210,13 @@
         <v>8</v>
       </c>
       <c r="D758" s="9">
-        <v>1097.52</v>
+        <v>1207.28</v>
       </c>
       <c r="E758" s="2" t="s">
         <v>1561</v>
       </c>
       <c r="F758" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.2">
@@ -34230,13 +34230,13 @@
         <v>8</v>
       </c>
       <c r="D759" s="9">
-        <v>1097.52</v>
+        <v>1207.28</v>
       </c>
       <c r="E759" s="2" t="s">
         <v>1561</v>
       </c>
       <c r="F759" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.2">
@@ -40090,13 +40090,13 @@
         <v>64</v>
       </c>
       <c r="D1052" s="9">
-        <v>4789.2</v>
+        <v>5507.58</v>
       </c>
       <c r="E1052" s="2" t="s">
         <v>2163</v>
       </c>
       <c r="F1052" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1053" spans="1:6" x14ac:dyDescent="0.2">
@@ -40110,13 +40110,13 @@
         <v>64</v>
       </c>
       <c r="D1053" s="9">
-        <v>6351.74</v>
+        <v>7304.5</v>
       </c>
       <c r="E1053" s="2" t="s">
         <v>2163</v>
       </c>
       <c r="F1053" s="3">
-        <v>45134</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1054" spans="1:6" x14ac:dyDescent="0.2">
@@ -40130,13 +40130,13 @@
         <v>64</v>
       </c>
       <c r="D1054" s="9">
-        <v>8957.4</v>
+        <v>10301.01</v>
       </c>
       <c r="E1054" s="2" t="s">
         <v>2163</v>
       </c>
       <c r="F1054" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1055" spans="1:6" x14ac:dyDescent="0.2">
@@ -40150,13 +40150,13 @@
         <v>64</v>
       </c>
       <c r="D1055" s="9">
-        <v>6765.57</v>
+        <v>7780.41</v>
       </c>
       <c r="E1055" s="2" t="s">
         <v>2163</v>
       </c>
       <c r="F1055" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1056" spans="1:6" x14ac:dyDescent="0.2">
@@ -40170,13 +40170,13 @@
         <v>64</v>
       </c>
       <c r="D1056" s="9">
-        <v>2046.73</v>
+        <v>2353.7399999999998</v>
       </c>
       <c r="E1056" s="2" t="s">
         <v>2163</v>
       </c>
       <c r="F1056" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="0.2">
@@ -40190,13 +40190,13 @@
         <v>64</v>
       </c>
       <c r="D1057" s="9">
-        <v>2991.2</v>
+        <v>3439.88</v>
       </c>
       <c r="E1057" s="2" t="s">
         <v>2163</v>
       </c>
       <c r="F1057" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1058" spans="1:6" x14ac:dyDescent="0.2">
@@ -41050,13 +41050,13 @@
         <v>8</v>
       </c>
       <c r="D1100" s="9">
-        <v>321.24</v>
+        <v>353.37</v>
       </c>
       <c r="E1100" s="2" t="s">
         <v>2229</v>
       </c>
       <c r="F1100" s="3">
-        <v>45134</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="1101" spans="1:6" x14ac:dyDescent="0.2">
@@ -41230,13 +41230,13 @@
         <v>836</v>
       </c>
       <c r="D1109" s="9">
-        <v>873.32</v>
+        <v>1338.5</v>
       </c>
       <c r="E1109" s="2" t="s">
         <v>2289</v>
       </c>
       <c r="F1109" s="3">
-        <v>45044</v>
+        <v>45147</v>
       </c>
     </row>
     <row r="1110" spans="1:6" x14ac:dyDescent="0.2">
@@ -41250,13 +41250,13 @@
         <v>836</v>
       </c>
       <c r="D1110" s="9">
-        <v>873.32</v>
+        <v>1338.5</v>
       </c>
       <c r="E1110" s="2" t="s">
         <v>2289</v>
       </c>
       <c r="F1110" s="3">
-        <v>45044</v>
+        <v>45147</v>
       </c>
     </row>
     <row r="1111" spans="1:6" x14ac:dyDescent="0.2">
@@ -41430,13 +41430,13 @@
         <v>974</v>
       </c>
       <c r="D1119" s="9">
-        <v>1187.23</v>
+        <v>1305.96</v>
       </c>
       <c r="E1119" s="2" t="s">
         <v>2311</v>
       </c>
       <c r="F1119" s="3">
-        <v>45134</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1120" spans="1:6" x14ac:dyDescent="0.2">
@@ -41450,13 +41450,13 @@
         <v>974</v>
       </c>
       <c r="D1120" s="9">
-        <v>825.29</v>
+        <v>907.82</v>
       </c>
       <c r="E1120" s="2" t="s">
         <v>2311</v>
       </c>
       <c r="F1120" s="3">
-        <v>45134</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.2">
@@ -41550,13 +41550,13 @@
         <v>2119</v>
       </c>
       <c r="D1125" s="9">
-        <v>2700.71</v>
+        <v>3105.82</v>
       </c>
       <c r="E1125" s="2" t="s">
         <v>2326</v>
       </c>
       <c r="F1125" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1126" spans="1:6" x14ac:dyDescent="0.2">
@@ -41590,13 +41590,13 @@
         <v>8</v>
       </c>
       <c r="D1127" s="9">
-        <v>860.17</v>
+        <v>946.19</v>
       </c>
       <c r="E1127" s="2" t="s">
         <v>2331</v>
       </c>
       <c r="F1127" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1128" spans="1:6" x14ac:dyDescent="0.2">
@@ -41610,13 +41610,13 @@
         <v>8</v>
       </c>
       <c r="D1128" s="9">
-        <v>1566.8</v>
+        <v>1723.48</v>
       </c>
       <c r="E1128" s="2" t="s">
         <v>2331</v>
       </c>
       <c r="F1128" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1129" spans="1:6" x14ac:dyDescent="0.2">
@@ -41630,13 +41630,13 @@
         <v>8</v>
       </c>
       <c r="D1129" s="9">
-        <v>2818.25</v>
+        <v>3100.08</v>
       </c>
       <c r="E1129" s="2" t="s">
         <v>2331</v>
       </c>
       <c r="F1129" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1130" spans="1:6" x14ac:dyDescent="0.2">
@@ -41650,13 +41650,13 @@
         <v>8</v>
       </c>
       <c r="D1130" s="9">
-        <v>871.8</v>
+        <v>958.98</v>
       </c>
       <c r="E1130" s="2" t="s">
         <v>2338</v>
       </c>
       <c r="F1130" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1131" spans="1:6" x14ac:dyDescent="0.2">
@@ -41670,13 +41670,13 @@
         <v>8</v>
       </c>
       <c r="D1131" s="9">
-        <v>1619.55</v>
+        <v>1781.51</v>
       </c>
       <c r="E1131" s="2" t="s">
         <v>2338</v>
       </c>
       <c r="F1131" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1132" spans="1:6" x14ac:dyDescent="0.2">
@@ -41690,13 +41690,13 @@
         <v>8</v>
       </c>
       <c r="D1132" s="9">
-        <v>2879.75</v>
+        <v>3167.73</v>
       </c>
       <c r="E1132" s="2" t="s">
         <v>2338</v>
       </c>
       <c r="F1132" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1133" spans="1:6" x14ac:dyDescent="0.2">
@@ -41710,13 +41710,13 @@
         <v>64</v>
       </c>
       <c r="D1133" s="9">
-        <v>772.31</v>
+        <v>888.16</v>
       </c>
       <c r="E1133" s="2" t="s">
         <v>2345</v>
       </c>
       <c r="F1133" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1134" spans="1:6" x14ac:dyDescent="0.2">
@@ -41730,13 +41730,13 @@
         <v>64</v>
       </c>
       <c r="D1134" s="9">
-        <v>763.92</v>
+        <v>878.51</v>
       </c>
       <c r="E1134" s="2" t="s">
         <v>2345</v>
       </c>
       <c r="F1134" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1135" spans="1:6" x14ac:dyDescent="0.2">
@@ -41750,13 +41750,13 @@
         <v>64</v>
       </c>
       <c r="D1135" s="9">
-        <v>717.53</v>
+        <v>825.16</v>
       </c>
       <c r="E1135" s="2" t="s">
         <v>2350</v>
       </c>
       <c r="F1135" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1136" spans="1:6" x14ac:dyDescent="0.2">
@@ -41770,13 +41770,13 @@
         <v>64</v>
       </c>
       <c r="D1136" s="9">
-        <v>838.96</v>
+        <v>964.8</v>
       </c>
       <c r="E1136" s="2" t="s">
         <v>2350</v>
       </c>
       <c r="F1136" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1137" spans="1:6" x14ac:dyDescent="0.2">
@@ -41790,13 +41790,13 @@
         <v>64</v>
       </c>
       <c r="D1137" s="9">
-        <v>925.61</v>
+        <v>1064.45</v>
       </c>
       <c r="E1137" s="2" t="s">
         <v>2350</v>
       </c>
       <c r="F1137" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1138" spans="1:6" x14ac:dyDescent="0.2">
@@ -41810,13 +41810,13 @@
         <v>64</v>
       </c>
       <c r="D1138" s="9">
-        <v>925.61</v>
+        <v>1064.45</v>
       </c>
       <c r="E1138" s="2" t="s">
         <v>2350</v>
       </c>
       <c r="F1138" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1139" spans="1:6" x14ac:dyDescent="0.2">
@@ -41830,13 +41830,13 @@
         <v>64</v>
       </c>
       <c r="D1139" s="9">
-        <v>780.85</v>
+        <v>897.98</v>
       </c>
       <c r="E1139" s="2" t="s">
         <v>2350</v>
       </c>
       <c r="F1139" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1140" spans="1:6" x14ac:dyDescent="0.2">
@@ -41850,13 +41850,13 @@
         <v>64</v>
       </c>
       <c r="D1140" s="9">
-        <v>768.77</v>
+        <v>884.09</v>
       </c>
       <c r="E1140" s="2" t="s">
         <v>2350</v>
       </c>
       <c r="F1140" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1141" spans="1:6" x14ac:dyDescent="0.2">
@@ -41870,13 +41870,13 @@
         <v>8</v>
       </c>
       <c r="D1141" s="9">
-        <v>755.09</v>
+        <v>868.35</v>
       </c>
       <c r="E1141" s="2" t="s">
         <v>2350</v>
       </c>
       <c r="F1141" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1142" spans="1:6" x14ac:dyDescent="0.2">
@@ -41890,13 +41890,13 @@
         <v>8</v>
       </c>
       <c r="D1142" s="9">
-        <v>826.46</v>
+        <v>950.43</v>
       </c>
       <c r="E1142" s="2" t="s">
         <v>2350</v>
       </c>
       <c r="F1142" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1143" spans="1:6" x14ac:dyDescent="0.2">
@@ -41910,13 +41910,13 @@
         <v>64</v>
       </c>
       <c r="D1143" s="9">
-        <v>730.67</v>
+        <v>840.27</v>
       </c>
       <c r="E1143" s="2" t="s">
         <v>2367</v>
       </c>
       <c r="F1143" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1144" spans="1:6" x14ac:dyDescent="0.2">
@@ -41930,13 +41930,13 @@
         <v>64</v>
       </c>
       <c r="D1144" s="9">
-        <v>979.62</v>
+        <v>1126.56</v>
       </c>
       <c r="E1144" s="2" t="s">
         <v>2367</v>
       </c>
       <c r="F1144" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1145" spans="1:6" x14ac:dyDescent="0.2">
@@ -41950,13 +41950,13 @@
         <v>64</v>
       </c>
       <c r="D1145" s="9">
-        <v>696.91</v>
+        <v>801.45</v>
       </c>
       <c r="E1145" s="2" t="s">
         <v>2367</v>
       </c>
       <c r="F1145" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1146" spans="1:6" x14ac:dyDescent="0.2">
@@ -41970,13 +41970,13 @@
         <v>64</v>
       </c>
       <c r="D1146" s="9">
-        <v>1307.82</v>
+        <v>1503.99</v>
       </c>
       <c r="E1146" s="2" t="s">
         <v>2367</v>
       </c>
       <c r="F1146" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1147" spans="1:6" x14ac:dyDescent="0.2">
@@ -41990,13 +41990,13 @@
         <v>64</v>
       </c>
       <c r="D1147" s="9">
-        <v>827.56</v>
+        <v>951.69</v>
       </c>
       <c r="E1147" s="2" t="s">
         <v>2376</v>
       </c>
       <c r="F1147" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1148" spans="1:6" x14ac:dyDescent="0.2">
@@ -42010,13 +42010,13 @@
         <v>64</v>
       </c>
       <c r="D1148" s="9">
-        <v>869.03</v>
+        <v>999.38</v>
       </c>
       <c r="E1148" s="2" t="s">
         <v>2376</v>
       </c>
       <c r="F1148" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1149" spans="1:6" x14ac:dyDescent="0.2">
@@ -42030,13 +42030,13 @@
         <v>64</v>
       </c>
       <c r="D1149" s="9">
-        <v>827.56</v>
+        <v>951.69</v>
       </c>
       <c r="E1149" s="2" t="s">
         <v>2376</v>
       </c>
       <c r="F1149" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1150" spans="1:6" x14ac:dyDescent="0.2">
@@ -42050,13 +42050,13 @@
         <v>64</v>
       </c>
       <c r="D1150" s="9">
-        <v>790.11</v>
+        <v>908.63</v>
       </c>
       <c r="E1150" s="2" t="s">
         <v>2376</v>
       </c>
       <c r="F1150" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1151" spans="1:6" x14ac:dyDescent="0.2">
@@ -42070,13 +42070,13 @@
         <v>64</v>
       </c>
       <c r="D1151" s="9">
-        <v>869.03</v>
+        <v>999.38</v>
       </c>
       <c r="E1151" s="2" t="s">
         <v>2376</v>
       </c>
       <c r="F1151" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1152" spans="1:6" x14ac:dyDescent="0.2">
@@ -42090,13 +42090,13 @@
         <v>8</v>
       </c>
       <c r="D1152" s="9">
-        <v>728.3</v>
+        <v>837.55</v>
       </c>
       <c r="E1152" s="2" t="s">
         <v>2376</v>
       </c>
       <c r="F1152" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1153" spans="1:6" x14ac:dyDescent="0.2">
@@ -42110,13 +42110,13 @@
         <v>8</v>
       </c>
       <c r="D1153" s="9">
-        <v>928.07</v>
+        <v>1067.28</v>
       </c>
       <c r="E1153" s="2" t="s">
         <v>2376</v>
       </c>
       <c r="F1153" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1154" spans="1:6" x14ac:dyDescent="0.2">
@@ -42130,13 +42130,13 @@
         <v>8</v>
       </c>
       <c r="D1154" s="9">
-        <v>912.63</v>
+        <v>1049.52</v>
       </c>
       <c r="E1154" s="2" t="s">
         <v>2376</v>
       </c>
       <c r="F1154" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1155" spans="1:6" x14ac:dyDescent="0.2">
@@ -42150,13 +42150,13 @@
         <v>8</v>
       </c>
       <c r="D1155" s="9">
-        <v>762.69</v>
+        <v>877.09</v>
       </c>
       <c r="E1155" s="2" t="s">
         <v>2376</v>
       </c>
       <c r="F1155" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1156" spans="1:6" x14ac:dyDescent="0.2">
@@ -42170,13 +42170,13 @@
         <v>8</v>
       </c>
       <c r="D1156" s="9">
-        <v>881.49</v>
+        <v>1013.71</v>
       </c>
       <c r="E1156" s="2" t="s">
         <v>2376</v>
       </c>
       <c r="F1156" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1157" spans="1:6" x14ac:dyDescent="0.2">
@@ -42210,13 +42210,13 @@
         <v>64</v>
       </c>
       <c r="D1158" s="9">
-        <v>689.92</v>
+        <v>793.41</v>
       </c>
       <c r="E1158" s="2" t="s">
         <v>2399</v>
       </c>
       <c r="F1158" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1159" spans="1:6" x14ac:dyDescent="0.2">
@@ -42230,13 +42230,13 @@
         <v>8</v>
       </c>
       <c r="D1159" s="9">
-        <v>526.15</v>
+        <v>605.07000000000005</v>
       </c>
       <c r="E1159" s="2" t="s">
         <v>2399</v>
       </c>
       <c r="F1159" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1160" spans="1:6" x14ac:dyDescent="0.2">
@@ -42250,13 +42250,13 @@
         <v>8</v>
       </c>
       <c r="D1160" s="9">
-        <v>700.22</v>
+        <v>805.25</v>
       </c>
       <c r="E1160" s="2" t="s">
         <v>2399</v>
       </c>
       <c r="F1160" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1161" spans="1:6" x14ac:dyDescent="0.2">
@@ -42270,13 +42270,13 @@
         <v>64</v>
       </c>
       <c r="D1161" s="9">
-        <v>803.58</v>
+        <v>924.12</v>
       </c>
       <c r="E1161" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="F1161" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1162" spans="1:6" x14ac:dyDescent="0.2">
@@ -42290,13 +42290,13 @@
         <v>64</v>
       </c>
       <c r="D1162" s="9">
-        <v>820.12</v>
+        <v>943.14</v>
       </c>
       <c r="E1162" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="F1162" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1163" spans="1:6" x14ac:dyDescent="0.2">
@@ -42310,13 +42310,13 @@
         <v>64</v>
       </c>
       <c r="D1163" s="9">
-        <v>736.99</v>
+        <v>847.54</v>
       </c>
       <c r="E1163" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="F1163" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1164" spans="1:6" x14ac:dyDescent="0.2">
@@ -42330,13 +42330,13 @@
         <v>64</v>
       </c>
       <c r="D1164" s="9">
-        <v>572.16999999999996</v>
+        <v>658</v>
       </c>
       <c r="E1164" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="F1164" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1165" spans="1:6" x14ac:dyDescent="0.2">
@@ -42350,13 +42350,13 @@
         <v>8</v>
       </c>
       <c r="D1165" s="9">
-        <v>594.11</v>
+        <v>683.23</v>
       </c>
       <c r="E1165" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="F1165" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1166" spans="1:6" x14ac:dyDescent="0.2">
@@ -42370,13 +42370,13 @@
         <v>8</v>
       </c>
       <c r="D1166" s="9">
-        <v>710.55</v>
+        <v>817.13</v>
       </c>
       <c r="E1166" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="F1166" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1167" spans="1:6" x14ac:dyDescent="0.2">
@@ -42390,13 +42390,13 @@
         <v>64</v>
       </c>
       <c r="D1167" s="9">
-        <v>864.56</v>
+        <v>994.24</v>
       </c>
       <c r="E1167" s="2" t="s">
         <v>2419</v>
       </c>
       <c r="F1167" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1168" spans="1:6" x14ac:dyDescent="0.2">
@@ -42410,13 +42410,13 @@
         <v>64</v>
       </c>
       <c r="D1168" s="9">
-        <v>893.36</v>
+        <v>1027.3599999999999</v>
       </c>
       <c r="E1168" s="2" t="s">
         <v>2419</v>
       </c>
       <c r="F1168" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1169" spans="1:6" x14ac:dyDescent="0.2">
@@ -42430,13 +42430,13 @@
         <v>64</v>
       </c>
       <c r="D1169" s="9">
-        <v>1087.0899999999999</v>
+        <v>1250.1500000000001</v>
       </c>
       <c r="E1169" s="2" t="s">
         <v>2419</v>
       </c>
       <c r="F1169" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1170" spans="1:6" x14ac:dyDescent="0.2">
@@ -42450,13 +42450,13 @@
         <v>64</v>
       </c>
       <c r="D1170" s="9">
-        <v>519.15</v>
+        <v>597.02</v>
       </c>
       <c r="E1170" s="2" t="s">
         <v>2419</v>
       </c>
       <c r="F1170" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1171" spans="1:6" x14ac:dyDescent="0.2">
@@ -42470,13 +42470,13 @@
         <v>8</v>
       </c>
       <c r="D1171" s="9">
-        <v>643.89</v>
+        <v>740.47</v>
       </c>
       <c r="E1171" s="2" t="s">
         <v>2419</v>
       </c>
       <c r="F1171" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1172" spans="1:6" x14ac:dyDescent="0.2">
@@ -42490,13 +42490,13 @@
         <v>8</v>
       </c>
       <c r="D1172" s="9">
-        <v>722.24</v>
+        <v>830.58</v>
       </c>
       <c r="E1172" s="2" t="s">
         <v>2419</v>
       </c>
       <c r="F1172" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1173" spans="1:6" x14ac:dyDescent="0.2">
@@ -42510,13 +42510,13 @@
         <v>64</v>
       </c>
       <c r="D1173" s="9">
-        <v>1276.6300000000001</v>
+        <v>1468.12</v>
       </c>
       <c r="E1173" s="2" t="s">
         <v>2419</v>
       </c>
       <c r="F1173" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1174" spans="1:6" x14ac:dyDescent="0.2">
@@ -42530,13 +42530,13 @@
         <v>64</v>
       </c>
       <c r="D1174" s="9">
-        <v>622.52</v>
+        <v>715.9</v>
       </c>
       <c r="E1174" s="2" t="s">
         <v>2419</v>
       </c>
       <c r="F1174" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1175" spans="1:6" x14ac:dyDescent="0.2">
@@ -42890,13 +42890,13 @@
         <v>8</v>
       </c>
       <c r="D1192" s="9">
-        <v>191.53</v>
+        <v>214.52</v>
       </c>
       <c r="E1192" s="2" t="s">
         <v>2475</v>
       </c>
       <c r="F1192" s="3">
-        <v>45044</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="1193" spans="1:6" x14ac:dyDescent="0.2">
@@ -43250,13 +43250,13 @@
         <v>64</v>
       </c>
       <c r="D1210" s="9">
-        <v>1169.68</v>
+        <v>1345.13</v>
       </c>
       <c r="E1210" s="2" t="s">
         <v>2512</v>
       </c>
       <c r="F1210" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1211" spans="1:6" x14ac:dyDescent="0.2">
@@ -43270,13 +43270,13 @@
         <v>64</v>
       </c>
       <c r="D1211" s="9">
-        <v>1169.68</v>
+        <v>1345.13</v>
       </c>
       <c r="E1211" s="2" t="s">
         <v>2512</v>
       </c>
       <c r="F1211" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1212" spans="1:6" x14ac:dyDescent="0.2">
@@ -43290,13 +43290,13 @@
         <v>64</v>
       </c>
       <c r="D1212" s="9">
-        <v>3137.25</v>
+        <v>3607.84</v>
       </c>
       <c r="E1212" s="2" t="s">
         <v>2517</v>
       </c>
       <c r="F1212" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1213" spans="1:6" x14ac:dyDescent="0.2">
@@ -43310,13 +43310,13 @@
         <v>64</v>
       </c>
       <c r="D1213" s="9">
-        <v>3319.1</v>
+        <v>3816.97</v>
       </c>
       <c r="E1213" s="2" t="s">
         <v>2517</v>
       </c>
       <c r="F1213" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1214" spans="1:6" x14ac:dyDescent="0.2">
@@ -43330,13 +43330,13 @@
         <v>64</v>
       </c>
       <c r="D1214" s="9">
-        <v>3319.1</v>
+        <v>3816.97</v>
       </c>
       <c r="E1214" s="2" t="s">
         <v>2517</v>
       </c>
       <c r="F1214" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1215" spans="1:6" x14ac:dyDescent="0.2">
@@ -43350,13 +43350,13 @@
         <v>64</v>
       </c>
       <c r="D1215" s="9">
-        <v>3319.1</v>
+        <v>3816.97</v>
       </c>
       <c r="E1215" s="2" t="s">
         <v>2517</v>
       </c>
       <c r="F1215" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1216" spans="1:6" x14ac:dyDescent="0.2">
@@ -43370,13 +43370,13 @@
         <v>64</v>
       </c>
       <c r="D1216" s="9">
-        <v>4435.97</v>
+        <v>5101.37</v>
       </c>
       <c r="E1216" s="2" t="s">
         <v>2517</v>
       </c>
       <c r="F1216" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1217" spans="1:6" x14ac:dyDescent="0.2">
@@ -43510,13 +43510,13 @@
         <v>64</v>
       </c>
       <c r="D1223" s="9">
-        <v>1668.99</v>
+        <v>1919.34</v>
       </c>
       <c r="E1223" s="2" t="s">
         <v>2542</v>
       </c>
       <c r="F1223" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1224" spans="1:6" x14ac:dyDescent="0.2">
@@ -43530,13 +43530,13 @@
         <v>64</v>
       </c>
       <c r="D1224" s="9">
-        <v>1327.03</v>
+        <v>1526.08</v>
       </c>
       <c r="E1224" s="2" t="s">
         <v>2542</v>
       </c>
       <c r="F1224" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1225" spans="1:6" x14ac:dyDescent="0.2">
@@ -43550,13 +43550,13 @@
         <v>64</v>
       </c>
       <c r="D1225" s="9">
-        <v>1348.74</v>
+        <v>1551.05</v>
       </c>
       <c r="E1225" s="2" t="s">
         <v>2542</v>
       </c>
       <c r="F1225" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1226" spans="1:6" x14ac:dyDescent="0.2">
@@ -43570,13 +43570,13 @@
         <v>64</v>
       </c>
       <c r="D1226" s="9">
-        <v>1348.74</v>
+        <v>1551.05</v>
       </c>
       <c r="E1226" s="2" t="s">
         <v>2542</v>
       </c>
       <c r="F1226" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1227" spans="1:6" x14ac:dyDescent="0.2">
@@ -43590,13 +43590,13 @@
         <v>64</v>
       </c>
       <c r="D1227" s="9">
-        <v>849.09</v>
+        <v>976.45</v>
       </c>
       <c r="E1227" s="2" t="s">
         <v>2542</v>
       </c>
       <c r="F1227" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1228" spans="1:6" x14ac:dyDescent="0.2">
@@ -43610,13 +43610,13 @@
         <v>64</v>
       </c>
       <c r="D1228" s="9">
-        <v>1022.01</v>
+        <v>1175.31</v>
       </c>
       <c r="E1228" s="2" t="s">
         <v>2542</v>
       </c>
       <c r="F1228" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1229" spans="1:6" x14ac:dyDescent="0.2">
@@ -43630,13 +43630,13 @@
         <v>64</v>
       </c>
       <c r="D1229" s="9">
-        <v>735.6</v>
+        <v>845.94</v>
       </c>
       <c r="E1229" s="2" t="s">
         <v>2542</v>
       </c>
       <c r="F1229" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1230" spans="1:6" x14ac:dyDescent="0.2">
@@ -43650,13 +43650,13 @@
         <v>64</v>
       </c>
       <c r="D1230" s="9">
-        <v>989.98</v>
+        <v>1138.48</v>
       </c>
       <c r="E1230" s="2" t="s">
         <v>2542</v>
       </c>
       <c r="F1230" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1231" spans="1:6" x14ac:dyDescent="0.2">
@@ -43670,13 +43670,13 @@
         <v>64</v>
       </c>
       <c r="D1231" s="9">
-        <v>2057.5</v>
+        <v>2366.13</v>
       </c>
       <c r="E1231" s="2" t="s">
         <v>2542</v>
       </c>
       <c r="F1231" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1232" spans="1:6" x14ac:dyDescent="0.2">
@@ -43690,13 +43690,13 @@
         <v>64</v>
       </c>
       <c r="D1232" s="9">
-        <v>667.91</v>
+        <v>768.1</v>
       </c>
       <c r="E1232" s="2" t="s">
         <v>2542</v>
       </c>
       <c r="F1232" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1233" spans="1:6" x14ac:dyDescent="0.2">
@@ -43990,13 +43990,13 @@
         <v>64</v>
       </c>
       <c r="D1247" s="9">
-        <v>1379.06</v>
+        <v>1585.92</v>
       </c>
       <c r="E1247" s="2" t="s">
         <v>2593</v>
       </c>
       <c r="F1247" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1248" spans="1:6" x14ac:dyDescent="0.2">
@@ -44010,13 +44010,13 @@
         <v>64</v>
       </c>
       <c r="D1248" s="9">
-        <v>1631.24</v>
+        <v>1875.93</v>
       </c>
       <c r="E1248" s="2" t="s">
         <v>2593</v>
       </c>
       <c r="F1248" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1249" spans="1:6" x14ac:dyDescent="0.2">
@@ -44050,13 +44050,13 @@
         <v>8</v>
       </c>
       <c r="D1250" s="9">
-        <v>2182.0700000000002</v>
+        <v>2509.38</v>
       </c>
       <c r="E1250" s="2" t="s">
         <v>2593</v>
       </c>
       <c r="F1250" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1251" spans="1:6" x14ac:dyDescent="0.2">
@@ -44070,13 +44070,13 @@
         <v>8</v>
       </c>
       <c r="D1251" s="9">
-        <v>327.29000000000002</v>
+        <v>376.38</v>
       </c>
       <c r="E1251" s="2" t="s">
         <v>2593</v>
       </c>
       <c r="F1251" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1252" spans="1:6" x14ac:dyDescent="0.2">
@@ -44090,13 +44090,13 @@
         <v>8</v>
       </c>
       <c r="D1252" s="9">
-        <v>456.11</v>
+        <v>524.53</v>
       </c>
       <c r="E1252" s="2" t="s">
         <v>2593</v>
       </c>
       <c r="F1252" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1253" spans="1:6" x14ac:dyDescent="0.2">
@@ -44110,13 +44110,13 @@
         <v>8</v>
       </c>
       <c r="D1253" s="9">
-        <v>305.77</v>
+        <v>351.64</v>
       </c>
       <c r="E1253" s="2" t="s">
         <v>2593</v>
       </c>
       <c r="F1253" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1254" spans="1:6" x14ac:dyDescent="0.2">
@@ -44130,13 +44130,13 @@
         <v>64</v>
       </c>
       <c r="D1254" s="9">
-        <v>552.45000000000005</v>
+        <v>635.32000000000005</v>
       </c>
       <c r="E1254" s="2" t="s">
         <v>2593</v>
       </c>
       <c r="F1254" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1255" spans="1:6" x14ac:dyDescent="0.2">
@@ -44150,13 +44150,13 @@
         <v>8</v>
       </c>
       <c r="D1255" s="9">
-        <v>568.45000000000005</v>
+        <v>653.72</v>
       </c>
       <c r="E1255" s="2" t="s">
         <v>2593</v>
       </c>
       <c r="F1255" s="3">
-        <v>45072</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1256" spans="1:6" x14ac:dyDescent="0.2">
@@ -44170,13 +44170,13 @@
         <v>64</v>
       </c>
       <c r="D1256" s="9">
-        <v>1027.52</v>
+        <v>1181.6500000000001</v>
       </c>
       <c r="E1256" s="2" t="s">
         <v>2593</v>
       </c>
       <c r="F1256" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1257" spans="1:6" x14ac:dyDescent="0.2">
@@ -44190,13 +44190,13 @@
         <v>8</v>
       </c>
       <c r="D1257" s="9">
-        <v>120.8</v>
+        <v>138.91999999999999</v>
       </c>
       <c r="E1257" s="2" t="s">
         <v>2593</v>
       </c>
       <c r="F1257" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1258" spans="1:6" x14ac:dyDescent="0.2">
@@ -44210,13 +44210,13 @@
         <v>8</v>
       </c>
       <c r="D1258" s="9">
-        <v>500.09</v>
+        <v>575.1</v>
       </c>
       <c r="E1258" s="2" t="s">
         <v>2593</v>
       </c>
       <c r="F1258" s="3">
-        <v>45072</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1259" spans="1:6" x14ac:dyDescent="0.2">
@@ -44230,13 +44230,13 @@
         <v>8</v>
       </c>
       <c r="D1259" s="9">
-        <v>99.19</v>
+        <v>114.07</v>
       </c>
       <c r="E1259" s="2" t="s">
         <v>2593</v>
       </c>
       <c r="F1259" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1260" spans="1:6" x14ac:dyDescent="0.2">
@@ -44250,13 +44250,13 @@
         <v>8</v>
       </c>
       <c r="D1260" s="9">
-        <v>418.4</v>
+        <v>481.16</v>
       </c>
       <c r="E1260" s="2" t="s">
         <v>2593</v>
       </c>
       <c r="F1260" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1261" spans="1:6" x14ac:dyDescent="0.2">
@@ -44310,13 +44310,13 @@
         <v>8</v>
       </c>
       <c r="D1263" s="9">
-        <v>312.77</v>
+        <v>359.69</v>
       </c>
       <c r="E1263" s="2" t="s">
         <v>2593</v>
       </c>
       <c r="F1263" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1264" spans="1:6" x14ac:dyDescent="0.2">
@@ -44330,13 +44330,13 @@
         <v>64</v>
       </c>
       <c r="D1264" s="9">
-        <v>1863.69</v>
+        <v>2143.2399999999998</v>
       </c>
       <c r="E1264" s="2" t="s">
         <v>2593</v>
       </c>
       <c r="F1264" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1265" spans="1:6" x14ac:dyDescent="0.2">
@@ -44350,13 +44350,13 @@
         <v>64</v>
       </c>
       <c r="D1265" s="9">
-        <v>1572.95</v>
+        <v>1808.89</v>
       </c>
       <c r="E1265" s="2" t="s">
         <v>2593</v>
       </c>
       <c r="F1265" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1266" spans="1:6" x14ac:dyDescent="0.2">
@@ -44370,13 +44370,13 @@
         <v>64</v>
       </c>
       <c r="D1266" s="9">
-        <v>1741.39</v>
+        <v>2002.6</v>
       </c>
       <c r="E1266" s="2" t="s">
         <v>2593</v>
       </c>
       <c r="F1266" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1267" spans="1:6" x14ac:dyDescent="0.2">
@@ -44390,13 +44390,13 @@
         <v>8</v>
       </c>
       <c r="D1267" s="9">
-        <v>181.97</v>
+        <v>209.27</v>
       </c>
       <c r="E1267" s="2" t="s">
         <v>2593</v>
       </c>
       <c r="F1267" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1268" spans="1:6" x14ac:dyDescent="0.2">
@@ -44410,13 +44410,13 @@
         <v>8</v>
       </c>
       <c r="D1268" s="9">
-        <v>846.89</v>
+        <v>973.92</v>
       </c>
       <c r="E1268" s="2" t="s">
         <v>2593</v>
       </c>
       <c r="F1268" s="3">
-        <v>45072</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1269" spans="1:6" x14ac:dyDescent="0.2">
@@ -44430,13 +44430,13 @@
         <v>64</v>
       </c>
       <c r="D1269" s="9">
-        <v>3913.89</v>
+        <v>4500.97</v>
       </c>
       <c r="E1269" s="2" t="s">
         <v>2638</v>
       </c>
       <c r="F1269" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1270" spans="1:6" x14ac:dyDescent="0.2">
@@ -44450,13 +44450,13 @@
         <v>64</v>
       </c>
       <c r="D1270" s="9">
-        <v>2067.17</v>
+        <v>2377.25</v>
       </c>
       <c r="E1270" s="2" t="s">
         <v>2638</v>
       </c>
       <c r="F1270" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1271" spans="1:6" x14ac:dyDescent="0.2">
@@ -44830,13 +44830,13 @@
         <v>64</v>
       </c>
       <c r="D1289" s="9">
-        <v>235.78</v>
+        <v>271.14999999999998</v>
       </c>
       <c r="E1289" s="2" t="s">
         <v>2684</v>
       </c>
       <c r="F1289" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1290" spans="1:6" x14ac:dyDescent="0.2">
@@ -44850,13 +44850,13 @@
         <v>8</v>
       </c>
       <c r="D1290" s="9">
-        <v>323.14</v>
+        <v>371.61</v>
       </c>
       <c r="E1290" s="2" t="s">
         <v>2684</v>
       </c>
       <c r="F1290" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1291" spans="1:6" x14ac:dyDescent="0.2">
@@ -44870,13 +44870,13 @@
         <v>8</v>
       </c>
       <c r="D1291" s="9">
-        <v>457.78</v>
+        <v>526.45000000000005</v>
       </c>
       <c r="E1291" s="2" t="s">
         <v>2684</v>
       </c>
       <c r="F1291" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1292" spans="1:6" x14ac:dyDescent="0.2">
@@ -44890,13 +44890,13 @@
         <v>8</v>
       </c>
       <c r="D1292" s="9">
-        <v>735.1</v>
+        <v>845.37</v>
       </c>
       <c r="E1292" s="2" t="s">
         <v>2684</v>
       </c>
       <c r="F1292" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1293" spans="1:6" x14ac:dyDescent="0.2">
@@ -44950,13 +44950,13 @@
         <v>8</v>
       </c>
       <c r="D1295" s="9">
-        <v>687.74</v>
+        <v>756.52</v>
       </c>
       <c r="E1295" s="2" t="s">
         <v>2697</v>
       </c>
       <c r="F1295" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1296" spans="1:6" x14ac:dyDescent="0.2">
@@ -44970,13 +44970,13 @@
         <v>8</v>
       </c>
       <c r="D1296" s="9">
-        <v>909.44</v>
+        <v>1000.39</v>
       </c>
       <c r="E1296" s="2" t="s">
         <v>2697</v>
       </c>
       <c r="F1296" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1297" spans="1:6" x14ac:dyDescent="0.2">
@@ -44990,13 +44990,13 @@
         <v>8</v>
       </c>
       <c r="D1297" s="9">
-        <v>1518.59</v>
+        <v>1670.45</v>
       </c>
       <c r="E1297" s="2" t="s">
         <v>2697</v>
       </c>
       <c r="F1297" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1298" spans="1:6" x14ac:dyDescent="0.2">
@@ -45010,13 +45010,13 @@
         <v>64</v>
       </c>
       <c r="D1298" s="9">
-        <v>412.36</v>
+        <v>474.21</v>
       </c>
       <c r="E1298" s="2" t="s">
         <v>2704</v>
       </c>
       <c r="F1298" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1299" spans="1:6" x14ac:dyDescent="0.2">
@@ -45030,13 +45030,13 @@
         <v>64</v>
       </c>
       <c r="D1299" s="9">
-        <v>475.31</v>
+        <v>546.61</v>
       </c>
       <c r="E1299" s="2" t="s">
         <v>2704</v>
       </c>
       <c r="F1299" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1300" spans="1:6" x14ac:dyDescent="0.2">
@@ -45050,13 +45050,13 @@
         <v>64</v>
       </c>
       <c r="D1300" s="9">
-        <v>454.44</v>
+        <v>522.61</v>
       </c>
       <c r="E1300" s="2" t="s">
         <v>2704</v>
       </c>
       <c r="F1300" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1301" spans="1:6" x14ac:dyDescent="0.2">
@@ -45070,13 +45070,13 @@
         <v>64</v>
       </c>
       <c r="D1301" s="9">
-        <v>635.83000000000004</v>
+        <v>731.2</v>
       </c>
       <c r="E1301" s="2" t="s">
         <v>2704</v>
       </c>
       <c r="F1301" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1302" spans="1:6" x14ac:dyDescent="0.2">
@@ -45090,13 +45090,13 @@
         <v>64</v>
       </c>
       <c r="D1302" s="9">
-        <v>642.79</v>
+        <v>739.21</v>
       </c>
       <c r="E1302" s="2" t="s">
         <v>2704</v>
       </c>
       <c r="F1302" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1303" spans="1:6" x14ac:dyDescent="0.2">
@@ -45110,13 +45110,13 @@
         <v>8</v>
       </c>
       <c r="D1303" s="9">
-        <v>635.83000000000004</v>
+        <v>731.2</v>
       </c>
       <c r="E1303" s="2" t="s">
         <v>2704</v>
       </c>
       <c r="F1303" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1304" spans="1:6" x14ac:dyDescent="0.2">
@@ -45130,13 +45130,13 @@
         <v>64</v>
       </c>
       <c r="D1304" s="9">
-        <v>730.23</v>
+        <v>839.76</v>
       </c>
       <c r="E1304" s="2" t="s">
         <v>2704</v>
       </c>
       <c r="F1304" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1305" spans="1:6" x14ac:dyDescent="0.2">
@@ -45150,13 +45150,13 @@
         <v>8</v>
       </c>
       <c r="D1305" s="9">
-        <v>872.4</v>
+        <v>959.64</v>
       </c>
       <c r="E1305" s="2" t="s">
         <v>2719</v>
       </c>
       <c r="F1305" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1306" spans="1:6" x14ac:dyDescent="0.2">
@@ -45170,13 +45170,13 @@
         <v>8</v>
       </c>
       <c r="D1306" s="9">
-        <v>1622.94</v>
+        <v>1785.24</v>
       </c>
       <c r="E1306" s="2" t="s">
         <v>2719</v>
       </c>
       <c r="F1306" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1307" spans="1:6" x14ac:dyDescent="0.2">
@@ -45190,13 +45190,13 @@
         <v>8</v>
       </c>
       <c r="D1307" s="9">
-        <v>1498.57</v>
+        <v>1648.43</v>
       </c>
       <c r="E1307" s="2" t="s">
         <v>2719</v>
       </c>
       <c r="F1307" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1308" spans="1:6" x14ac:dyDescent="0.2">
@@ -45210,13 +45210,13 @@
         <v>8</v>
       </c>
       <c r="D1308" s="9">
-        <v>399.88</v>
+        <v>459.86</v>
       </c>
       <c r="E1308" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="F1308" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1309" spans="1:6" x14ac:dyDescent="0.2">
@@ -45230,13 +45230,13 @@
         <v>8</v>
       </c>
       <c r="D1309" s="9">
-        <v>475.51</v>
+        <v>546.84</v>
       </c>
       <c r="E1309" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="F1309" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1310" spans="1:6" x14ac:dyDescent="0.2">
@@ -45250,13 +45250,13 @@
         <v>32</v>
       </c>
       <c r="D1310" s="9">
-        <v>600.17999999999995</v>
+        <v>690.21</v>
       </c>
       <c r="E1310" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="F1310" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1311" spans="1:6" x14ac:dyDescent="0.2">
@@ -45270,13 +45270,13 @@
         <v>8</v>
       </c>
       <c r="D1311" s="9">
-        <v>414.2</v>
+        <v>476.33</v>
       </c>
       <c r="E1311" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="F1311" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1312" spans="1:6" x14ac:dyDescent="0.2">
@@ -45290,13 +45290,13 @@
         <v>8</v>
       </c>
       <c r="D1312" s="9">
-        <v>453.5</v>
+        <v>521.53</v>
       </c>
       <c r="E1312" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="F1312" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1313" spans="1:6" x14ac:dyDescent="0.2">
@@ -45310,13 +45310,13 @@
         <v>32</v>
       </c>
       <c r="D1313" s="9">
-        <v>576</v>
+        <v>662.4</v>
       </c>
       <c r="E1313" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="F1313" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1314" spans="1:6" x14ac:dyDescent="0.2">
@@ -45330,13 +45330,13 @@
         <v>64</v>
       </c>
       <c r="D1314" s="9">
-        <v>1203.73</v>
+        <v>1384.29</v>
       </c>
       <c r="E1314" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="F1314" s="3">
-        <v>45072</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1315" spans="1:6" x14ac:dyDescent="0.2">
@@ -47370,13 +47370,13 @@
         <v>64</v>
       </c>
       <c r="D1416" s="9">
-        <v>6166.01</v>
+        <v>7090.91</v>
       </c>
       <c r="E1416" s="2" t="s">
         <v>2948</v>
       </c>
       <c r="F1416" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1417" spans="1:6" x14ac:dyDescent="0.2">
@@ -47390,13 +47390,13 @@
         <v>64</v>
       </c>
       <c r="D1417" s="9">
-        <v>9639.18</v>
+        <v>11085.06</v>
       </c>
       <c r="E1417" s="2" t="s">
         <v>2948</v>
       </c>
       <c r="F1417" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1418" spans="1:6" x14ac:dyDescent="0.2">
@@ -48010,13 +48010,13 @@
         <v>64</v>
       </c>
       <c r="D1448" s="9">
-        <v>426.53</v>
+        <v>490.51</v>
       </c>
       <c r="E1448" s="2" t="s">
         <v>3016</v>
       </c>
       <c r="F1448" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1449" spans="1:6" x14ac:dyDescent="0.2">
@@ -48030,13 +48030,13 @@
         <v>64</v>
       </c>
       <c r="D1449" s="9">
-        <v>422.16</v>
+        <v>485.48</v>
       </c>
       <c r="E1449" s="2" t="s">
         <v>3016</v>
       </c>
       <c r="F1449" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1450" spans="1:6" x14ac:dyDescent="0.2">
@@ -48050,13 +48050,13 @@
         <v>64</v>
       </c>
       <c r="D1450" s="9">
-        <v>544.33000000000004</v>
+        <v>625.98</v>
       </c>
       <c r="E1450" s="2" t="s">
         <v>3016</v>
       </c>
       <c r="F1450" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1451" spans="1:6" x14ac:dyDescent="0.2">
@@ -48070,13 +48070,13 @@
         <v>64</v>
       </c>
       <c r="D1451" s="9">
-        <v>796.22</v>
+        <v>915.65</v>
       </c>
       <c r="E1451" s="2" t="s">
         <v>3016</v>
       </c>
       <c r="F1451" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1452" spans="1:6" x14ac:dyDescent="0.2">
@@ -48090,13 +48090,13 @@
         <v>64</v>
       </c>
       <c r="D1452" s="9">
-        <v>332.49</v>
+        <v>382.36</v>
       </c>
       <c r="E1452" s="2" t="s">
         <v>3016</v>
       </c>
       <c r="F1452" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1453" spans="1:6" x14ac:dyDescent="0.2">
@@ -48110,13 +48110,13 @@
         <v>8</v>
       </c>
       <c r="D1453" s="9">
-        <v>357.68</v>
+        <v>411.33</v>
       </c>
       <c r="E1453" s="2" t="s">
         <v>3016</v>
       </c>
       <c r="F1453" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1454" spans="1:6" x14ac:dyDescent="0.2">
@@ -48130,13 +48130,13 @@
         <v>8</v>
       </c>
       <c r="D1454" s="9">
-        <v>513.47</v>
+        <v>590.49</v>
       </c>
       <c r="E1454" s="2" t="s">
         <v>3016</v>
       </c>
       <c r="F1454" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1455" spans="1:6" x14ac:dyDescent="0.2">
@@ -48150,13 +48150,13 @@
         <v>64</v>
       </c>
       <c r="D1455" s="9">
-        <v>1043.22</v>
+        <v>1199.7</v>
       </c>
       <c r="E1455" s="2" t="s">
         <v>3016</v>
       </c>
       <c r="F1455" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1456" spans="1:6" x14ac:dyDescent="0.2">
@@ -48170,13 +48170,13 @@
         <v>32</v>
       </c>
       <c r="D1456" s="9">
-        <v>733.97</v>
+        <v>844.07</v>
       </c>
       <c r="E1456" s="2" t="s">
         <v>3033</v>
       </c>
       <c r="F1456" s="3">
-        <v>45111</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1457" spans="1:6" x14ac:dyDescent="0.2">
@@ -48190,13 +48190,13 @@
         <v>32</v>
       </c>
       <c r="D1457" s="9">
-        <v>733.97</v>
+        <v>844.07</v>
       </c>
       <c r="E1457" s="2" t="s">
         <v>3033</v>
       </c>
       <c r="F1457" s="3">
-        <v>45111</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1458" spans="1:6" x14ac:dyDescent="0.2">
@@ -48410,13 +48410,13 @@
         <v>8</v>
       </c>
       <c r="D1468" s="9">
-        <v>195.73</v>
+        <v>201.21</v>
       </c>
       <c r="E1468" s="2" t="s">
         <v>3054</v>
       </c>
       <c r="F1468" s="3">
-        <v>45141</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="1469" spans="1:6" x14ac:dyDescent="0.2">
@@ -49610,13 +49610,13 @@
         <v>64</v>
       </c>
       <c r="D1528" s="9">
-        <v>1498.93</v>
+        <v>1798.72</v>
       </c>
       <c r="E1528" s="2" t="s">
         <v>3189</v>
       </c>
       <c r="F1528" s="3">
-        <v>45044</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1529" spans="1:6" x14ac:dyDescent="0.2">
@@ -49650,13 +49650,13 @@
         <v>64</v>
       </c>
       <c r="D1530" s="9">
-        <v>5580.84</v>
+        <v>6138.93</v>
       </c>
       <c r="E1530" s="2" t="s">
         <v>3194</v>
       </c>
       <c r="F1530" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1531" spans="1:6" x14ac:dyDescent="0.2">
@@ -49670,13 +49670,13 @@
         <v>64</v>
       </c>
       <c r="D1531" s="9">
-        <v>5748.27</v>
+        <v>6323.1</v>
       </c>
       <c r="E1531" s="2" t="s">
         <v>3194</v>
       </c>
       <c r="F1531" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1532" spans="1:6" x14ac:dyDescent="0.2">
@@ -49910,13 +49910,13 @@
         <v>64</v>
       </c>
       <c r="D1543" s="9">
-        <v>2480.39</v>
+        <v>2728.43</v>
       </c>
       <c r="E1543" s="2" t="s">
         <v>3194</v>
       </c>
       <c r="F1543" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1544" spans="1:6" x14ac:dyDescent="0.2">
@@ -49930,13 +49930,13 @@
         <v>64</v>
       </c>
       <c r="D1544" s="9">
-        <v>2723.96</v>
+        <v>2996.36</v>
       </c>
       <c r="E1544" s="2" t="s">
         <v>3194</v>
       </c>
       <c r="F1544" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1545" spans="1:6" x14ac:dyDescent="0.2">
@@ -50070,13 +50070,13 @@
         <v>974</v>
       </c>
       <c r="D1551" s="9">
-        <v>702.91</v>
+        <v>1045</v>
       </c>
       <c r="E1551" s="2" t="s">
         <v>3242</v>
       </c>
       <c r="F1551" s="3">
-        <v>45134</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="1552" spans="1:6" x14ac:dyDescent="0.2">
@@ -50090,13 +50090,13 @@
         <v>974</v>
       </c>
       <c r="D1552" s="9">
-        <v>791.01</v>
+        <v>1078</v>
       </c>
       <c r="E1552" s="2" t="s">
         <v>3242</v>
       </c>
       <c r="F1552" s="3">
-        <v>45134</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="1553" spans="1:6" x14ac:dyDescent="0.2">
@@ -50770,13 +50770,13 @@
         <v>64</v>
       </c>
       <c r="D1586" s="9">
-        <v>30566.09</v>
+        <v>35151</v>
       </c>
       <c r="E1586" s="2" t="s">
         <v>3320</v>
       </c>
       <c r="F1586" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1587" spans="1:6" x14ac:dyDescent="0.2">
@@ -50790,13 +50790,13 @@
         <v>64</v>
       </c>
       <c r="D1587" s="9">
-        <v>23637.09</v>
+        <v>27182.65</v>
       </c>
       <c r="E1587" s="2" t="s">
         <v>3320</v>
       </c>
       <c r="F1587" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1588" spans="1:6" x14ac:dyDescent="0.2">
@@ -50810,13 +50810,13 @@
         <v>64</v>
       </c>
       <c r="D1588" s="9">
-        <v>26321.89</v>
+        <v>30270.17</v>
       </c>
       <c r="E1588" s="2" t="s">
         <v>3320</v>
       </c>
       <c r="F1588" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1589" spans="1:6" x14ac:dyDescent="0.2">
@@ -50830,13 +50830,13 @@
         <v>64</v>
       </c>
       <c r="D1589" s="9">
-        <v>38103.31</v>
+        <v>43818.81</v>
       </c>
       <c r="E1589" s="2" t="s">
         <v>3320</v>
       </c>
       <c r="F1589" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1590" spans="1:6" x14ac:dyDescent="0.2">
@@ -50850,13 +50850,13 @@
         <v>64</v>
       </c>
       <c r="D1590" s="9">
-        <v>30750.13</v>
+        <v>35362.65</v>
       </c>
       <c r="E1590" s="2" t="s">
         <v>3320</v>
       </c>
       <c r="F1590" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1591" spans="1:6" x14ac:dyDescent="0.2">
@@ -50870,13 +50870,13 @@
         <v>64</v>
       </c>
       <c r="D1591" s="9">
-        <v>31962.29</v>
+        <v>36756.629999999997</v>
       </c>
       <c r="E1591" s="2" t="s">
         <v>3320</v>
       </c>
       <c r="F1591" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1592" spans="1:6" x14ac:dyDescent="0.2">
@@ -50890,13 +50890,13 @@
         <v>64</v>
       </c>
       <c r="D1592" s="9">
-        <v>30552.19</v>
+        <v>35135.019999999997</v>
       </c>
       <c r="E1592" s="2" t="s">
         <v>3320</v>
       </c>
       <c r="F1592" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1593" spans="1:6" x14ac:dyDescent="0.2">
@@ -50910,13 +50910,13 @@
         <v>64</v>
       </c>
       <c r="D1593" s="9">
-        <v>98414.98</v>
+        <v>113177.23</v>
       </c>
       <c r="E1593" s="2" t="s">
         <v>3320</v>
       </c>
       <c r="F1593" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1594" spans="1:6" x14ac:dyDescent="0.2">
@@ -51830,13 +51830,13 @@
         <v>968</v>
       </c>
       <c r="D1639" s="9">
-        <v>122.85</v>
+        <v>126.75</v>
       </c>
       <c r="E1639" s="2" t="s">
         <v>3425</v>
       </c>
       <c r="F1639" s="3">
-        <v>45119</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1640" spans="1:6" x14ac:dyDescent="0.2">
@@ -51850,13 +51850,13 @@
         <v>968</v>
       </c>
       <c r="D1640" s="9">
-        <v>122.85</v>
+        <v>126.75</v>
       </c>
       <c r="E1640" s="2" t="s">
         <v>3425</v>
       </c>
       <c r="F1640" s="3">
-        <v>45119</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1641" spans="1:6" x14ac:dyDescent="0.2">
@@ -51870,13 +51870,13 @@
         <v>968</v>
       </c>
       <c r="D1641" s="9">
-        <v>122.85</v>
+        <v>126.75</v>
       </c>
       <c r="E1641" s="2" t="s">
         <v>3425</v>
       </c>
       <c r="F1641" s="3">
-        <v>45119</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1642" spans="1:6" x14ac:dyDescent="0.2">
@@ -51930,13 +51930,13 @@
         <v>8</v>
       </c>
       <c r="D1644" s="9">
-        <v>415.2</v>
+        <v>477.48</v>
       </c>
       <c r="E1644" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1644" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1645" spans="1:6" x14ac:dyDescent="0.2">
@@ -51950,13 +51950,13 @@
         <v>8</v>
       </c>
       <c r="D1645" s="9">
-        <v>415.2</v>
+        <v>477.48</v>
       </c>
       <c r="E1645" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1645" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1646" spans="1:6" x14ac:dyDescent="0.2">
@@ -51970,13 +51970,13 @@
         <v>8</v>
       </c>
       <c r="D1646" s="9">
-        <v>290.52999999999997</v>
+        <v>334.11</v>
       </c>
       <c r="E1646" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1646" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1647" spans="1:6" x14ac:dyDescent="0.2">
@@ -51990,13 +51990,13 @@
         <v>8</v>
       </c>
       <c r="D1647" s="9">
-        <v>290.52999999999997</v>
+        <v>334.11</v>
       </c>
       <c r="E1647" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1647" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1648" spans="1:6" x14ac:dyDescent="0.2">
@@ -52010,13 +52010,13 @@
         <v>8</v>
       </c>
       <c r="D1648" s="9">
-        <v>378.28</v>
+        <v>435.02</v>
       </c>
       <c r="E1648" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1648" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1649" spans="1:6" x14ac:dyDescent="0.2">
@@ -52030,13 +52030,13 @@
         <v>8</v>
       </c>
       <c r="D1649" s="9">
-        <v>378.28</v>
+        <v>435.02</v>
       </c>
       <c r="E1649" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1649" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1650" spans="1:6" x14ac:dyDescent="0.2">
@@ -52050,13 +52050,13 @@
         <v>8</v>
       </c>
       <c r="D1650" s="9">
-        <v>922.75</v>
+        <v>1061.1600000000001</v>
       </c>
       <c r="E1650" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1650" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1651" spans="1:6" x14ac:dyDescent="0.2">
@@ -52070,13 +52070,13 @@
         <v>8</v>
       </c>
       <c r="D1651" s="9">
-        <v>922.75</v>
+        <v>1061.1600000000001</v>
       </c>
       <c r="E1651" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1651" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1652" spans="1:6" x14ac:dyDescent="0.2">
@@ -52090,13 +52090,13 @@
         <v>8</v>
       </c>
       <c r="D1652" s="9">
-        <v>421.87</v>
+        <v>485.15</v>
       </c>
       <c r="E1652" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1652" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1653" spans="1:6" x14ac:dyDescent="0.2">
@@ -52110,13 +52110,13 @@
         <v>8</v>
       </c>
       <c r="D1653" s="9">
-        <v>421.87</v>
+        <v>485.15</v>
       </c>
       <c r="E1653" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1653" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1654" spans="1:6" x14ac:dyDescent="0.2">
@@ -52130,13 +52130,13 @@
         <v>8</v>
       </c>
       <c r="D1654" s="9">
-        <v>561.16999999999996</v>
+        <v>645.35</v>
       </c>
       <c r="E1654" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1654" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1655" spans="1:6" x14ac:dyDescent="0.2">
@@ -52150,13 +52150,13 @@
         <v>8</v>
       </c>
       <c r="D1655" s="9">
-        <v>561.16999999999996</v>
+        <v>645.35</v>
       </c>
       <c r="E1655" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1655" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1656" spans="1:6" x14ac:dyDescent="0.2">
@@ -52170,13 +52170,13 @@
         <v>8</v>
       </c>
       <c r="D1656" s="9">
-        <v>966.92</v>
+        <v>1111.96</v>
       </c>
       <c r="E1656" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1656" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1657" spans="1:6" x14ac:dyDescent="0.2">
@@ -52190,13 +52190,13 @@
         <v>8</v>
       </c>
       <c r="D1657" s="9">
-        <v>966.92</v>
+        <v>1111.96</v>
       </c>
       <c r="E1657" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1657" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1658" spans="1:6" x14ac:dyDescent="0.2">
@@ -52210,13 +52210,13 @@
         <v>8</v>
       </c>
       <c r="D1658" s="9">
-        <v>331.32</v>
+        <v>381.02</v>
       </c>
       <c r="E1658" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1658" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1659" spans="1:6" x14ac:dyDescent="0.2">
@@ -52230,13 +52230,13 @@
         <v>8</v>
       </c>
       <c r="D1659" s="9">
-        <v>331.32</v>
+        <v>381.02</v>
       </c>
       <c r="E1659" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1659" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1660" spans="1:6" x14ac:dyDescent="0.2">
@@ -52250,13 +52250,13 @@
         <v>8</v>
       </c>
       <c r="D1660" s="9">
-        <v>273.27999999999997</v>
+        <v>314.27</v>
       </c>
       <c r="E1660" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1660" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1661" spans="1:6" x14ac:dyDescent="0.2">
@@ -52270,13 +52270,13 @@
         <v>8</v>
       </c>
       <c r="D1661" s="9">
-        <v>273.27999999999997</v>
+        <v>314.27</v>
       </c>
       <c r="E1661" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1661" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1662" spans="1:6" x14ac:dyDescent="0.2">
@@ -52290,13 +52290,13 @@
         <v>8</v>
       </c>
       <c r="D1662" s="9">
-        <v>285.89</v>
+        <v>328.77</v>
       </c>
       <c r="E1662" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1662" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1663" spans="1:6" x14ac:dyDescent="0.2">
@@ -52310,13 +52310,13 @@
         <v>8</v>
       </c>
       <c r="D1663" s="9">
-        <v>285.89</v>
+        <v>328.77</v>
       </c>
       <c r="E1663" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1663" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1664" spans="1:6" x14ac:dyDescent="0.2">
@@ -52330,13 +52330,13 @@
         <v>8</v>
       </c>
       <c r="D1664" s="9">
-        <v>287.93</v>
+        <v>331.12</v>
       </c>
       <c r="E1664" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1664" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1665" spans="1:6" x14ac:dyDescent="0.2">
@@ -52350,13 +52350,13 @@
         <v>8</v>
       </c>
       <c r="D1665" s="9">
-        <v>307.92</v>
+        <v>354.11</v>
       </c>
       <c r="E1665" s="2" t="s">
         <v>3444</v>
       </c>
       <c r="F1665" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1666" spans="1:6" x14ac:dyDescent="0.2">
@@ -53750,13 +53750,13 @@
         <v>64</v>
       </c>
       <c r="D1735" s="9">
-        <v>1232.19</v>
+        <v>1355.41</v>
       </c>
       <c r="E1735" s="2" t="s">
         <v>3561</v>
       </c>
       <c r="F1735" s="3">
-        <v>45134</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="1736" spans="1:6" x14ac:dyDescent="0.2">
@@ -53770,13 +53770,13 @@
         <v>64</v>
       </c>
       <c r="D1736" s="9">
-        <v>574.97</v>
+        <v>632.47</v>
       </c>
       <c r="E1736" s="2" t="s">
         <v>3561</v>
       </c>
       <c r="F1736" s="3">
-        <v>45134</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="1737" spans="1:6" x14ac:dyDescent="0.2">
@@ -54170,13 +54170,13 @@
         <v>927</v>
       </c>
       <c r="D1756" s="9">
-        <v>811.93</v>
+        <v>875.05</v>
       </c>
       <c r="E1756" s="2" t="s">
         <v>3676</v>
       </c>
       <c r="F1756" s="3">
-        <v>45090</v>
+        <v>45147</v>
       </c>
     </row>
     <row r="1757" spans="1:6" x14ac:dyDescent="0.2">
@@ -54190,13 +54190,13 @@
         <v>927</v>
       </c>
       <c r="D1757" s="9">
-        <v>918.68</v>
+        <v>990.13</v>
       </c>
       <c r="E1757" s="2" t="s">
         <v>3676</v>
       </c>
       <c r="F1757" s="3">
-        <v>45090</v>
+        <v>45147</v>
       </c>
     </row>
     <row r="1758" spans="1:6" x14ac:dyDescent="0.2">
@@ -54210,13 +54210,13 @@
         <v>927</v>
       </c>
       <c r="D1758" s="9">
-        <v>1117.32</v>
+        <v>1204.22</v>
       </c>
       <c r="E1758" s="2" t="s">
         <v>3676</v>
       </c>
       <c r="F1758" s="3">
-        <v>45090</v>
+        <v>45147</v>
       </c>
     </row>
     <row r="1759" spans="1:6" x14ac:dyDescent="0.2">
@@ -54250,13 +54250,13 @@
         <v>927</v>
       </c>
       <c r="D1760" s="9">
-        <v>1400.37</v>
+        <v>1509.25</v>
       </c>
       <c r="E1760" s="2" t="s">
         <v>3676</v>
       </c>
       <c r="F1760" s="3">
-        <v>45090</v>
+        <v>45147</v>
       </c>
     </row>
     <row r="1761" spans="1:6" x14ac:dyDescent="0.2">
@@ -54270,13 +54270,13 @@
         <v>927</v>
       </c>
       <c r="D1761" s="9">
-        <v>1566.73</v>
+        <v>1688.55</v>
       </c>
       <c r="E1761" s="2" t="s">
         <v>3676</v>
       </c>
       <c r="F1761" s="3">
-        <v>45090</v>
+        <v>45147</v>
       </c>
     </row>
     <row r="1762" spans="1:6" x14ac:dyDescent="0.2">
@@ -54290,13 +54290,13 @@
         <v>2234</v>
       </c>
       <c r="D1762" s="9">
-        <v>397.27</v>
+        <v>428.15</v>
       </c>
       <c r="E1762" s="2" t="s">
         <v>3689</v>
       </c>
       <c r="F1762" s="3">
-        <v>45090</v>
+        <v>45147</v>
       </c>
     </row>
     <row r="1763" spans="1:6" x14ac:dyDescent="0.2">
@@ -54310,13 +54310,13 @@
         <v>2234</v>
       </c>
       <c r="D1763" s="9">
-        <v>521.41999999999996</v>
+        <v>561.95000000000005</v>
       </c>
       <c r="E1763" s="2" t="s">
         <v>3689</v>
       </c>
       <c r="F1763" s="3">
-        <v>45090</v>
+        <v>45147</v>
       </c>
     </row>
     <row r="1764" spans="1:6" x14ac:dyDescent="0.2">
@@ -54330,13 +54330,13 @@
         <v>2234</v>
       </c>
       <c r="D1764" s="9">
-        <v>655.49</v>
+        <v>706.46</v>
       </c>
       <c r="E1764" s="2" t="s">
         <v>3689</v>
       </c>
       <c r="F1764" s="3">
-        <v>45090</v>
+        <v>45147</v>
       </c>
     </row>
     <row r="1765" spans="1:6" x14ac:dyDescent="0.2">
@@ -54390,13 +54390,13 @@
         <v>64</v>
       </c>
       <c r="D1767" s="9">
-        <v>1310.67</v>
+        <v>1507.27</v>
       </c>
       <c r="E1767" s="2" t="s">
         <v>3701</v>
       </c>
       <c r="F1767" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1768" spans="1:6" x14ac:dyDescent="0.2">
@@ -54410,13 +54410,13 @@
         <v>64</v>
       </c>
       <c r="D1768" s="9">
-        <v>1319.5</v>
+        <v>1517.43</v>
       </c>
       <c r="E1768" s="2" t="s">
         <v>3701</v>
       </c>
       <c r="F1768" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1769" spans="1:6" x14ac:dyDescent="0.2">
@@ -54430,13 +54430,13 @@
         <v>8</v>
       </c>
       <c r="D1769" s="9">
-        <v>557.20000000000005</v>
+        <v>640.78</v>
       </c>
       <c r="E1769" s="2" t="s">
         <v>3706</v>
       </c>
       <c r="F1769" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1770" spans="1:6" x14ac:dyDescent="0.2">
@@ -54450,13 +54450,13 @@
         <v>8</v>
       </c>
       <c r="D1770" s="9">
-        <v>557.20000000000005</v>
+        <v>640.78</v>
       </c>
       <c r="E1770" s="2" t="s">
         <v>3706</v>
       </c>
       <c r="F1770" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1771" spans="1:6" x14ac:dyDescent="0.2">
@@ -54470,13 +54470,13 @@
         <v>8</v>
       </c>
       <c r="D1771" s="9">
-        <v>557.20000000000005</v>
+        <v>640.78</v>
       </c>
       <c r="E1771" s="2" t="s">
         <v>3706</v>
       </c>
       <c r="F1771" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1772" spans="1:6" x14ac:dyDescent="0.2">
@@ -54490,13 +54490,13 @@
         <v>8</v>
       </c>
       <c r="D1772" s="9">
-        <v>557.20000000000005</v>
+        <v>640.78</v>
       </c>
       <c r="E1772" s="2" t="s">
         <v>3706</v>
       </c>
       <c r="F1772" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1773" spans="1:6" x14ac:dyDescent="0.2">
@@ -54510,13 +54510,13 @@
         <v>8</v>
       </c>
       <c r="D1773" s="9">
-        <v>557.20000000000005</v>
+        <v>640.78</v>
       </c>
       <c r="E1773" s="2" t="s">
         <v>3706</v>
       </c>
       <c r="F1773" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1774" spans="1:6" x14ac:dyDescent="0.2">
@@ -54530,13 +54530,13 @@
         <v>8</v>
       </c>
       <c r="D1774" s="9">
-        <v>557.20000000000005</v>
+        <v>640.78</v>
       </c>
       <c r="E1774" s="2" t="s">
         <v>3706</v>
       </c>
       <c r="F1774" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1775" spans="1:6" x14ac:dyDescent="0.2">
@@ -54590,13 +54590,13 @@
         <v>64</v>
       </c>
       <c r="D1777" s="9">
-        <v>1894.3</v>
+        <v>2006.4</v>
       </c>
       <c r="E1777" s="2" t="s">
         <v>3724</v>
       </c>
       <c r="F1777" s="3">
-        <v>45131</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="1778" spans="1:6" x14ac:dyDescent="0.2">
@@ -54610,13 +54610,13 @@
         <v>64</v>
       </c>
       <c r="D1778" s="9">
-        <v>2059.6</v>
+        <v>2181.1999999999998</v>
       </c>
       <c r="E1778" s="2" t="s">
         <v>3724</v>
       </c>
       <c r="F1778" s="3">
-        <v>45131</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="1779" spans="1:6" x14ac:dyDescent="0.2">
@@ -54630,13 +54630,13 @@
         <v>64</v>
       </c>
       <c r="D1779" s="9">
-        <v>2050.1</v>
+        <v>2171.6999999999998</v>
       </c>
       <c r="E1779" s="2" t="s">
         <v>3724</v>
       </c>
       <c r="F1779" s="3">
-        <v>45131</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="1780" spans="1:6" x14ac:dyDescent="0.2">
@@ -54650,13 +54650,13 @@
         <v>64</v>
       </c>
       <c r="D1780" s="9">
-        <v>3433.3</v>
+        <v>3615.7</v>
       </c>
       <c r="E1780" s="2" t="s">
         <v>3724</v>
       </c>
       <c r="F1780" s="3">
-        <v>45131</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="1781" spans="1:6" x14ac:dyDescent="0.2">
@@ -54670,13 +54670,13 @@
         <v>64</v>
       </c>
       <c r="D1781" s="9">
-        <v>3395.3</v>
+        <v>3581.5</v>
       </c>
       <c r="E1781" s="2" t="s">
         <v>3724</v>
       </c>
       <c r="F1781" s="3">
-        <v>45131</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="1782" spans="1:6" x14ac:dyDescent="0.2">
@@ -54690,13 +54690,13 @@
         <v>64</v>
       </c>
       <c r="D1782" s="9">
-        <v>3332.6</v>
+        <v>3507.4</v>
       </c>
       <c r="E1782" s="2" t="s">
         <v>3724</v>
       </c>
       <c r="F1782" s="3">
-        <v>45131</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="1783" spans="1:6" x14ac:dyDescent="0.2">
@@ -54710,13 +54710,13 @@
         <v>64</v>
       </c>
       <c r="D1783" s="9">
-        <v>4436.5</v>
+        <v>4753.8</v>
       </c>
       <c r="E1783" s="2" t="s">
         <v>3724</v>
       </c>
       <c r="F1783" s="3">
-        <v>45131</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="1784" spans="1:6" x14ac:dyDescent="0.2">
@@ -54730,13 +54730,13 @@
         <v>64</v>
       </c>
       <c r="D1784" s="9">
-        <v>4683.5</v>
+        <v>5035</v>
       </c>
       <c r="E1784" s="2" t="s">
         <v>3724</v>
       </c>
       <c r="F1784" s="3">
-        <v>45131</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="1785" spans="1:6" x14ac:dyDescent="0.2">
@@ -54810,13 +54810,13 @@
         <v>64</v>
       </c>
       <c r="D1788" s="9">
-        <v>1083.17</v>
+        <v>1245.6500000000001</v>
       </c>
       <c r="E1788" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1788" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1789" spans="1:6" x14ac:dyDescent="0.2">
@@ -54830,13 +54830,13 @@
         <v>64</v>
       </c>
       <c r="D1789" s="9">
-        <v>1784.66</v>
+        <v>2052.36</v>
       </c>
       <c r="E1789" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1789" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1790" spans="1:6" x14ac:dyDescent="0.2">
@@ -54850,13 +54850,13 @@
         <v>64</v>
       </c>
       <c r="D1790" s="9">
-        <v>2228.04</v>
+        <v>2562.25</v>
       </c>
       <c r="E1790" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1790" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1791" spans="1:6" x14ac:dyDescent="0.2">
@@ -54870,13 +54870,13 @@
         <v>64</v>
       </c>
       <c r="D1791" s="9">
-        <v>2652.93</v>
+        <v>3050.87</v>
       </c>
       <c r="E1791" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1791" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1792" spans="1:6" x14ac:dyDescent="0.2">
@@ -54890,13 +54890,13 @@
         <v>64</v>
       </c>
       <c r="D1792" s="9">
-        <v>3325.4</v>
+        <v>3824.21</v>
       </c>
       <c r="E1792" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1792" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1793" spans="1:6" x14ac:dyDescent="0.2">
@@ -54910,13 +54910,13 @@
         <v>64</v>
       </c>
       <c r="D1793" s="9">
-        <v>3995.67</v>
+        <v>4595.0200000000004</v>
       </c>
       <c r="E1793" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1793" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1794" spans="1:6" x14ac:dyDescent="0.2">
@@ -54930,13 +54930,13 @@
         <v>64</v>
       </c>
       <c r="D1794" s="9">
-        <v>4407.97</v>
+        <v>5069.17</v>
       </c>
       <c r="E1794" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1794" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1795" spans="1:6" x14ac:dyDescent="0.2">
@@ -54950,13 +54950,13 @@
         <v>64</v>
       </c>
       <c r="D1795" s="9">
-        <v>5545.54</v>
+        <v>6377.37</v>
       </c>
       <c r="E1795" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1795" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1796" spans="1:6" x14ac:dyDescent="0.2">
@@ -54970,13 +54970,13 @@
         <v>64</v>
       </c>
       <c r="D1796" s="9">
-        <v>6631.79</v>
+        <v>7626.56</v>
       </c>
       <c r="E1796" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1796" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1797" spans="1:6" x14ac:dyDescent="0.2">
@@ -54990,13 +54990,13 @@
         <v>64</v>
       </c>
       <c r="D1797" s="9">
-        <v>1367.41</v>
+        <v>1572.52</v>
       </c>
       <c r="E1797" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1797" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1798" spans="1:6" x14ac:dyDescent="0.2">
@@ -55010,13 +55010,13 @@
         <v>64</v>
       </c>
       <c r="D1798" s="9">
-        <v>2133.1</v>
+        <v>2453.0700000000002</v>
       </c>
       <c r="E1798" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1798" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1799" spans="1:6" x14ac:dyDescent="0.2">
@@ -55030,13 +55030,13 @@
         <v>64</v>
       </c>
       <c r="D1799" s="9">
-        <v>2702.74</v>
+        <v>3108.15</v>
       </c>
       <c r="E1799" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1799" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1800" spans="1:6" x14ac:dyDescent="0.2">
@@ -55050,13 +55050,13 @@
         <v>64</v>
       </c>
       <c r="D1800" s="9">
-        <v>3217.41</v>
+        <v>3700.02</v>
       </c>
       <c r="E1800" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1800" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1801" spans="1:6" x14ac:dyDescent="0.2">
@@ -55070,13 +55070,13 @@
         <v>64</v>
       </c>
       <c r="D1801" s="9">
-        <v>4042.77</v>
+        <v>4649.1899999999996</v>
       </c>
       <c r="E1801" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1801" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1802" spans="1:6" x14ac:dyDescent="0.2">
@@ -55090,13 +55090,13 @@
         <v>64</v>
       </c>
       <c r="D1802" s="9">
-        <v>4807.96</v>
+        <v>5529.15</v>
       </c>
       <c r="E1802" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1802" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1803" spans="1:6" x14ac:dyDescent="0.2">
@@ -55110,13 +55110,13 @@
         <v>64</v>
       </c>
       <c r="D1803" s="9">
-        <v>5377.6</v>
+        <v>6184.24</v>
       </c>
       <c r="E1803" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1803" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1804" spans="1:6" x14ac:dyDescent="0.2">
@@ -55130,13 +55130,13 @@
         <v>64</v>
       </c>
       <c r="D1804" s="9">
-        <v>6733.16</v>
+        <v>7743.13</v>
       </c>
       <c r="E1804" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1804" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1805" spans="1:6" x14ac:dyDescent="0.2">
@@ -55150,13 +55150,13 @@
         <v>64</v>
       </c>
       <c r="D1805" s="9">
-        <v>8026.81</v>
+        <v>9230.83</v>
       </c>
       <c r="E1805" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1805" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1806" spans="1:6" x14ac:dyDescent="0.2">
@@ -55170,13 +55170,13 @@
         <v>64</v>
       </c>
       <c r="D1806" s="9">
-        <v>2115.36</v>
+        <v>2432.66</v>
       </c>
       <c r="E1806" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1806" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1807" spans="1:6" x14ac:dyDescent="0.2">
@@ -55190,13 +55190,13 @@
         <v>64</v>
       </c>
       <c r="D1807" s="9">
-        <v>3329.95</v>
+        <v>3829.44</v>
       </c>
       <c r="E1807" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1807" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1808" spans="1:6" x14ac:dyDescent="0.2">
@@ -55210,13 +55210,13 @@
         <v>64</v>
       </c>
       <c r="D1808" s="9">
-        <v>4186.29</v>
+        <v>4814.2299999999996</v>
       </c>
       <c r="E1808" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1808" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1809" spans="1:6" x14ac:dyDescent="0.2">
@@ -55230,13 +55230,13 @@
         <v>64</v>
       </c>
       <c r="D1809" s="9">
-        <v>5045.67</v>
+        <v>5802.52</v>
       </c>
       <c r="E1809" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1809" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1810" spans="1:6" x14ac:dyDescent="0.2">
@@ -55250,13 +55250,13 @@
         <v>64</v>
       </c>
       <c r="D1810" s="9">
-        <v>6271.51</v>
+        <v>7212.24</v>
       </c>
       <c r="E1810" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1810" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1811" spans="1:6" x14ac:dyDescent="0.2">
@@ -55270,13 +55270,13 @@
         <v>64</v>
       </c>
       <c r="D1811" s="9">
-        <v>7556.05</v>
+        <v>8689.4599999999991</v>
       </c>
       <c r="E1811" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1811" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1812" spans="1:6" x14ac:dyDescent="0.2">
@@ -55290,13 +55290,13 @@
         <v>64</v>
       </c>
       <c r="D1812" s="9">
-        <v>8408.5400000000009</v>
+        <v>9669.82</v>
       </c>
       <c r="E1812" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1812" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1813" spans="1:6" x14ac:dyDescent="0.2">
@@ -55310,13 +55310,13 @@
         <v>64</v>
       </c>
       <c r="D1813" s="9">
-        <v>10471.82</v>
+        <v>12042.59</v>
       </c>
       <c r="E1813" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1813" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1814" spans="1:6" x14ac:dyDescent="0.2">
@@ -55330,13 +55330,13 @@
         <v>64</v>
       </c>
       <c r="D1814" s="9">
-        <v>12576.07</v>
+        <v>14462.48</v>
       </c>
       <c r="E1814" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1814" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1815" spans="1:6" x14ac:dyDescent="0.2">
@@ -55350,13 +55350,13 @@
         <v>64</v>
       </c>
       <c r="D1815" s="9">
-        <v>2980.91</v>
+        <v>3428.05</v>
       </c>
       <c r="E1815" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1815" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1816" spans="1:6" x14ac:dyDescent="0.2">
@@ -55370,13 +55370,13 @@
         <v>64</v>
       </c>
       <c r="D1816" s="9">
-        <v>4847.6499999999996</v>
+        <v>5574.8</v>
       </c>
       <c r="E1816" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1816" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1817" spans="1:6" x14ac:dyDescent="0.2">
@@ -55390,13 +55390,13 @@
         <v>64</v>
       </c>
       <c r="D1817" s="9">
-        <v>6075.73</v>
+        <v>6987.09</v>
       </c>
       <c r="E1817" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1817" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1818" spans="1:6" x14ac:dyDescent="0.2">
@@ -55410,13 +55410,13 @@
         <v>64</v>
       </c>
       <c r="D1818" s="9">
-        <v>7264.58</v>
+        <v>8354.27</v>
       </c>
       <c r="E1818" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1818" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1819" spans="1:6" x14ac:dyDescent="0.2">
@@ -55430,13 +55430,13 @@
         <v>64</v>
       </c>
       <c r="D1819" s="9">
-        <v>9088.41</v>
+        <v>10451.67</v>
       </c>
       <c r="E1819" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1819" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1820" spans="1:6" x14ac:dyDescent="0.2">
@@ -55450,13 +55450,13 @@
         <v>64</v>
       </c>
       <c r="D1820" s="9">
-        <v>10931.97</v>
+        <v>12571.77</v>
       </c>
       <c r="E1820" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1820" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1821" spans="1:6" x14ac:dyDescent="0.2">
@@ -55470,13 +55470,13 @@
         <v>64</v>
       </c>
       <c r="D1821" s="9">
-        <v>12120.37</v>
+        <v>13938.43</v>
       </c>
       <c r="E1821" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1821" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1822" spans="1:6" x14ac:dyDescent="0.2">
@@ -55490,13 +55490,13 @@
         <v>64</v>
       </c>
       <c r="D1822" s="9">
-        <v>15154.5</v>
+        <v>17427.68</v>
       </c>
       <c r="E1822" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1822" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1823" spans="1:6" x14ac:dyDescent="0.2">
@@ -55510,13 +55510,13 @@
         <v>64</v>
       </c>
       <c r="D1823" s="9">
-        <v>18182.23</v>
+        <v>20909.560000000001</v>
       </c>
       <c r="E1823" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1823" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1824" spans="1:6" x14ac:dyDescent="0.2">
@@ -55530,13 +55530,13 @@
         <v>64</v>
       </c>
       <c r="D1824" s="9">
-        <v>3848.45</v>
+        <v>4425.72</v>
       </c>
       <c r="E1824" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1824" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1825" spans="1:6" x14ac:dyDescent="0.2">
@@ -55550,13 +55550,13 @@
         <v>64</v>
       </c>
       <c r="D1825" s="9">
-        <v>5988.43</v>
+        <v>6886.69</v>
       </c>
       <c r="E1825" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1825" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1826" spans="1:6" x14ac:dyDescent="0.2">
@@ -55570,13 +55570,13 @@
         <v>64</v>
       </c>
       <c r="D1826" s="9">
-        <v>7462.83</v>
+        <v>8582.25</v>
       </c>
       <c r="E1826" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1826" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1827" spans="1:6" x14ac:dyDescent="0.2">
@@ -55590,13 +55590,13 @@
         <v>64</v>
       </c>
       <c r="D1827" s="9">
-        <v>8927.65</v>
+        <v>10266.799999999999</v>
       </c>
       <c r="E1827" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1827" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1828" spans="1:6" x14ac:dyDescent="0.2">
@@ -55610,13 +55610,13 @@
         <v>64</v>
       </c>
       <c r="D1828" s="9">
-        <v>11159.11</v>
+        <v>12832.98</v>
       </c>
       <c r="E1828" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1828" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1829" spans="1:6" x14ac:dyDescent="0.2">
@@ -55630,13 +55630,13 @@
         <v>64</v>
       </c>
       <c r="D1829" s="9">
-        <v>13387.84</v>
+        <v>15396.02</v>
       </c>
       <c r="E1829" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1829" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1830" spans="1:6" x14ac:dyDescent="0.2">
@@ -55650,13 +55650,13 @@
         <v>64</v>
       </c>
       <c r="D1830" s="9">
-        <v>14939.2</v>
+        <v>17180.080000000002</v>
       </c>
       <c r="E1830" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1830" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1831" spans="1:6" x14ac:dyDescent="0.2">
@@ -55670,13 +55670,13 @@
         <v>64</v>
       </c>
       <c r="D1831" s="9">
-        <v>18678.88</v>
+        <v>21480.71</v>
       </c>
       <c r="E1831" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1831" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1832" spans="1:6" x14ac:dyDescent="0.2">
@@ -55690,13 +55690,13 @@
         <v>64</v>
       </c>
       <c r="D1832" s="9">
-        <v>22359.85</v>
+        <v>25713.83</v>
       </c>
       <c r="E1832" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1832" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1833" spans="1:6" x14ac:dyDescent="0.2">
@@ -55710,13 +55710,13 @@
         <v>64</v>
       </c>
       <c r="D1833" s="9">
-        <v>6193.59</v>
+        <v>7122.63</v>
       </c>
       <c r="E1833" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1833" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1834" spans="1:6" x14ac:dyDescent="0.2">
@@ -55730,13 +55730,13 @@
         <v>64</v>
       </c>
       <c r="D1834" s="9">
-        <v>7910.41</v>
+        <v>9096.9699999999993</v>
       </c>
       <c r="E1834" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1834" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1835" spans="1:6" x14ac:dyDescent="0.2">
@@ -55750,13 +55750,13 @@
         <v>64</v>
       </c>
       <c r="D1835" s="9">
-        <v>9906.1299999999992</v>
+        <v>11392.05</v>
       </c>
       <c r="E1835" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1835" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1836" spans="1:6" x14ac:dyDescent="0.2">
@@ -55770,13 +55770,13 @@
         <v>64</v>
       </c>
       <c r="D1836" s="9">
-        <v>11876.45</v>
+        <v>13657.92</v>
       </c>
       <c r="E1836" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1836" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1837" spans="1:6" x14ac:dyDescent="0.2">
@@ -55790,13 +55790,13 @@
         <v>64</v>
       </c>
       <c r="D1837" s="9">
-        <v>14814.19</v>
+        <v>17036.32</v>
       </c>
       <c r="E1837" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1837" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1838" spans="1:6" x14ac:dyDescent="0.2">
@@ -55810,13 +55810,13 @@
         <v>64</v>
       </c>
       <c r="D1838" s="9">
-        <v>17816.03</v>
+        <v>20488.43</v>
       </c>
       <c r="E1838" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1838" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1839" spans="1:6" x14ac:dyDescent="0.2">
@@ -55830,13 +55830,13 @@
         <v>64</v>
       </c>
       <c r="D1839" s="9">
-        <v>19786.830000000002</v>
+        <v>22754.85</v>
       </c>
       <c r="E1839" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1839" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1840" spans="1:6" x14ac:dyDescent="0.2">
@@ -55850,13 +55850,13 @@
         <v>64</v>
       </c>
       <c r="D1840" s="9">
-        <v>24707.95</v>
+        <v>28414.14</v>
       </c>
       <c r="E1840" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1840" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1841" spans="1:6" x14ac:dyDescent="0.2">
@@ -55870,13 +55870,13 @@
         <v>64</v>
       </c>
       <c r="D1841" s="9">
-        <v>32636.21</v>
+        <v>37531.64</v>
       </c>
       <c r="E1841" s="2" t="s">
         <v>3747</v>
       </c>
       <c r="F1841" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1842" spans="1:6" x14ac:dyDescent="0.2">
@@ -55890,13 +55890,13 @@
         <v>64</v>
       </c>
       <c r="D1842" s="9">
-        <v>2228.04</v>
+        <v>2562.25</v>
       </c>
       <c r="E1842" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1842" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1843" spans="1:6" x14ac:dyDescent="0.2">
@@ -55910,13 +55910,13 @@
         <v>64</v>
       </c>
       <c r="D1843" s="9">
-        <v>3325.4</v>
+        <v>3824.21</v>
       </c>
       <c r="E1843" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1843" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1844" spans="1:6" x14ac:dyDescent="0.2">
@@ -55930,13 +55930,13 @@
         <v>64</v>
       </c>
       <c r="D1844" s="9">
-        <v>4407.97</v>
+        <v>5069.17</v>
       </c>
       <c r="E1844" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1844" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1845" spans="1:6" x14ac:dyDescent="0.2">
@@ -55950,13 +55950,13 @@
         <v>64</v>
       </c>
       <c r="D1845" s="9">
-        <v>5545.54</v>
+        <v>6377.37</v>
       </c>
       <c r="E1845" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1845" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1846" spans="1:6" x14ac:dyDescent="0.2">
@@ -55970,13 +55970,13 @@
         <v>64</v>
       </c>
       <c r="D1846" s="9">
-        <v>6631.79</v>
+        <v>7626.56</v>
       </c>
       <c r="E1846" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1846" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1847" spans="1:6" x14ac:dyDescent="0.2">
@@ -55990,13 +55990,13 @@
         <v>64</v>
       </c>
       <c r="D1847" s="9">
-        <v>2702.74</v>
+        <v>3108.15</v>
       </c>
       <c r="E1847" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1847" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1848" spans="1:6" x14ac:dyDescent="0.2">
@@ -56010,13 +56010,13 @@
         <v>64</v>
       </c>
       <c r="D1848" s="9">
-        <v>4042.77</v>
+        <v>4649.1899999999996</v>
       </c>
       <c r="E1848" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1848" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1849" spans="1:6" x14ac:dyDescent="0.2">
@@ -56030,13 +56030,13 @@
         <v>64</v>
       </c>
       <c r="D1849" s="9">
-        <v>5377.6</v>
+        <v>6184.24</v>
       </c>
       <c r="E1849" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1849" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1850" spans="1:6" x14ac:dyDescent="0.2">
@@ -56050,13 +56050,13 @@
         <v>64</v>
       </c>
       <c r="D1850" s="9">
-        <v>6733.16</v>
+        <v>7743.13</v>
       </c>
       <c r="E1850" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1850" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1851" spans="1:6" x14ac:dyDescent="0.2">
@@ -56070,13 +56070,13 @@
         <v>64</v>
       </c>
       <c r="D1851" s="9">
-        <v>8026.81</v>
+        <v>9230.83</v>
       </c>
       <c r="E1851" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1851" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1852" spans="1:6" x14ac:dyDescent="0.2">
@@ -56090,13 +56090,13 @@
         <v>64</v>
       </c>
       <c r="D1852" s="9">
-        <v>4186.29</v>
+        <v>4814.2299999999996</v>
       </c>
       <c r="E1852" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1852" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1853" spans="1:6" x14ac:dyDescent="0.2">
@@ -56110,13 +56110,13 @@
         <v>64</v>
       </c>
       <c r="D1853" s="9">
-        <v>6271.51</v>
+        <v>7212.24</v>
       </c>
       <c r="E1853" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1853" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1854" spans="1:6" x14ac:dyDescent="0.2">
@@ -56130,13 +56130,13 @@
         <v>64</v>
       </c>
       <c r="D1854" s="9">
-        <v>8408.5400000000009</v>
+        <v>9669.82</v>
       </c>
       <c r="E1854" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1854" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1855" spans="1:6" x14ac:dyDescent="0.2">
@@ -56150,13 +56150,13 @@
         <v>64</v>
       </c>
       <c r="D1855" s="9">
-        <v>10470.61</v>
+        <v>12041.2</v>
       </c>
       <c r="E1855" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1855" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1856" spans="1:6" x14ac:dyDescent="0.2">
@@ -56170,13 +56170,13 @@
         <v>64</v>
       </c>
       <c r="D1856" s="9">
-        <v>12576.07</v>
+        <v>14462.48</v>
       </c>
       <c r="E1856" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1856" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1857" spans="1:6" x14ac:dyDescent="0.2">
@@ -56190,13 +56190,13 @@
         <v>64</v>
       </c>
       <c r="D1857" s="9">
-        <v>6075.73</v>
+        <v>6987.09</v>
       </c>
       <c r="E1857" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1857" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1858" spans="1:6" x14ac:dyDescent="0.2">
@@ -56210,13 +56210,13 @@
         <v>64</v>
       </c>
       <c r="D1858" s="9">
-        <v>9088.41</v>
+        <v>10451.67</v>
       </c>
       <c r="E1858" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1858" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1859" spans="1:6" x14ac:dyDescent="0.2">
@@ -56230,13 +56230,13 @@
         <v>64</v>
       </c>
       <c r="D1859" s="9">
-        <v>12120.37</v>
+        <v>13938.43</v>
       </c>
       <c r="E1859" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1859" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1860" spans="1:6" x14ac:dyDescent="0.2">
@@ -56250,13 +56250,13 @@
         <v>64</v>
       </c>
       <c r="D1860" s="9">
-        <v>15154.5</v>
+        <v>17427.68</v>
       </c>
       <c r="E1860" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1860" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1861" spans="1:6" x14ac:dyDescent="0.2">
@@ -56270,13 +56270,13 @@
         <v>64</v>
       </c>
       <c r="D1861" s="9">
-        <v>18182.23</v>
+        <v>20909.560000000001</v>
       </c>
       <c r="E1861" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1861" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1862" spans="1:6" x14ac:dyDescent="0.2">
@@ -56290,13 +56290,13 @@
         <v>64</v>
       </c>
       <c r="D1862" s="9">
-        <v>7462.83</v>
+        <v>8582.25</v>
       </c>
       <c r="E1862" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1862" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1863" spans="1:6" x14ac:dyDescent="0.2">
@@ -56310,13 +56310,13 @@
         <v>64</v>
       </c>
       <c r="D1863" s="9">
-        <v>11148</v>
+        <v>12820.2</v>
       </c>
       <c r="E1863" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1863" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1864" spans="1:6" x14ac:dyDescent="0.2">
@@ -56330,13 +56330,13 @@
         <v>64</v>
       </c>
       <c r="D1864" s="9">
-        <v>14939.2</v>
+        <v>17180.080000000002</v>
       </c>
       <c r="E1864" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1864" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1865" spans="1:6" x14ac:dyDescent="0.2">
@@ -56350,13 +56350,13 @@
         <v>64</v>
       </c>
       <c r="D1865" s="9">
-        <v>18681.099999999999</v>
+        <v>21483.27</v>
       </c>
       <c r="E1865" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1865" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1866" spans="1:6" x14ac:dyDescent="0.2">
@@ -56370,13 +56370,13 @@
         <v>64</v>
       </c>
       <c r="D1866" s="9">
-        <v>22352.2</v>
+        <v>25705.03</v>
       </c>
       <c r="E1866" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1866" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1867" spans="1:6" x14ac:dyDescent="0.2">
@@ -56390,13 +56390,13 @@
         <v>64</v>
       </c>
       <c r="D1867" s="9">
-        <v>9906.1299999999992</v>
+        <v>11392.05</v>
       </c>
       <c r="E1867" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1867" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1868" spans="1:6" x14ac:dyDescent="0.2">
@@ -56410,13 +56410,13 @@
         <v>64</v>
       </c>
       <c r="D1868" s="9">
-        <v>14814.19</v>
+        <v>17036.32</v>
       </c>
       <c r="E1868" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1868" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1869" spans="1:6" x14ac:dyDescent="0.2">
@@ -56430,13 +56430,13 @@
         <v>64</v>
       </c>
       <c r="D1869" s="9">
-        <v>19786.830000000002</v>
+        <v>22754.85</v>
       </c>
       <c r="E1869" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1869" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1870" spans="1:6" x14ac:dyDescent="0.2">
@@ -56450,13 +56450,13 @@
         <v>64</v>
       </c>
       <c r="D1870" s="9">
-        <v>24707.95</v>
+        <v>28414.14</v>
       </c>
       <c r="E1870" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1870" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1871" spans="1:6" x14ac:dyDescent="0.2">
@@ -56470,13 +56470,13 @@
         <v>64</v>
       </c>
       <c r="D1871" s="9">
-        <v>29669.279999999999</v>
+        <v>34119.67</v>
       </c>
       <c r="E1871" s="2" t="s">
         <v>3856</v>
       </c>
       <c r="F1871" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1872" spans="1:6" x14ac:dyDescent="0.2">
@@ -58670,13 +58670,13 @@
         <v>64</v>
       </c>
       <c r="D1981" s="9">
-        <v>6725.76</v>
+        <v>7734.62</v>
       </c>
       <c r="E1981" s="2" t="s">
         <v>4125</v>
       </c>
       <c r="F1981" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1982" spans="1:6" x14ac:dyDescent="0.2">
@@ -58690,13 +58690,13 @@
         <v>64</v>
       </c>
       <c r="D1982" s="9">
-        <v>8807.1200000000008</v>
+        <v>10128.19</v>
       </c>
       <c r="E1982" s="2" t="s">
         <v>4125</v>
       </c>
       <c r="F1982" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1983" spans="1:6" x14ac:dyDescent="0.2">
@@ -58710,13 +58710,13 @@
         <v>64</v>
       </c>
       <c r="D1983" s="9">
-        <v>10965.49</v>
+        <v>12610.31</v>
       </c>
       <c r="E1983" s="2" t="s">
         <v>4125</v>
       </c>
       <c r="F1983" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1984" spans="1:6" x14ac:dyDescent="0.2">
@@ -58730,13 +58730,13 @@
         <v>64</v>
       </c>
       <c r="D1984" s="9">
-        <v>2222.5100000000002</v>
+        <v>2555.89</v>
       </c>
       <c r="E1984" s="2" t="s">
         <v>4125</v>
       </c>
       <c r="F1984" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1985" spans="1:6" x14ac:dyDescent="0.2">
@@ -58750,13 +58750,13 @@
         <v>64</v>
       </c>
       <c r="D1985" s="9">
-        <v>2705.93</v>
+        <v>3111.82</v>
       </c>
       <c r="E1985" s="2" t="s">
         <v>4125</v>
       </c>
       <c r="F1985" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="1986" spans="1:6" x14ac:dyDescent="0.2">
@@ -60250,13 +60250,13 @@
         <v>8</v>
       </c>
       <c r="D2060" s="9">
-        <v>1003.2</v>
+        <v>1140</v>
       </c>
       <c r="E2060" s="2" t="s">
         <v>4292</v>
       </c>
       <c r="F2060" s="3">
-        <v>45104</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="2061" spans="1:6" x14ac:dyDescent="0.2">
@@ -61230,13 +61230,13 @@
         <v>64</v>
       </c>
       <c r="D2109" s="9">
-        <v>635.98</v>
+        <v>731.38</v>
       </c>
       <c r="E2109" s="2" t="s">
         <v>4423</v>
       </c>
       <c r="F2109" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2110" spans="1:6" x14ac:dyDescent="0.2">
@@ -61250,13 +61250,13 @@
         <v>64</v>
       </c>
       <c r="D2110" s="9">
-        <v>669.26</v>
+        <v>769.65</v>
       </c>
       <c r="E2110" s="2" t="s">
         <v>4423</v>
       </c>
       <c r="F2110" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2111" spans="1:6" x14ac:dyDescent="0.2">
@@ -61270,13 +61270,13 @@
         <v>64</v>
       </c>
       <c r="D2111" s="9">
-        <v>717.92</v>
+        <v>825.61</v>
       </c>
       <c r="E2111" s="2" t="s">
         <v>4423</v>
       </c>
       <c r="F2111" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2112" spans="1:6" x14ac:dyDescent="0.2">
@@ -61290,13 +61290,13 @@
         <v>64</v>
       </c>
       <c r="D2112" s="9">
-        <v>582.62</v>
+        <v>670.01</v>
       </c>
       <c r="E2112" s="2" t="s">
         <v>4423</v>
       </c>
       <c r="F2112" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2113" spans="1:6" x14ac:dyDescent="0.2">
@@ -61310,13 +61310,13 @@
         <v>64</v>
       </c>
       <c r="D2113" s="9">
-        <v>579.73</v>
+        <v>666.69</v>
       </c>
       <c r="E2113" s="2" t="s">
         <v>4423</v>
       </c>
       <c r="F2113" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2114" spans="1:6" x14ac:dyDescent="0.2">
@@ -61330,13 +61330,13 @@
         <v>64</v>
       </c>
       <c r="D2114" s="9">
-        <v>400.26</v>
+        <v>460.3</v>
       </c>
       <c r="E2114" s="2" t="s">
         <v>4423</v>
       </c>
       <c r="F2114" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2115" spans="1:6" x14ac:dyDescent="0.2">
@@ -61350,13 +61350,13 @@
         <v>64</v>
       </c>
       <c r="D2115" s="9">
-        <v>464.62</v>
+        <v>534.30999999999995</v>
       </c>
       <c r="E2115" s="2" t="s">
         <v>4423</v>
       </c>
       <c r="F2115" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2116" spans="1:6" x14ac:dyDescent="0.2">
@@ -61370,13 +61370,13 @@
         <v>64</v>
       </c>
       <c r="D2116" s="9">
-        <v>542.03</v>
+        <v>623.33000000000004</v>
       </c>
       <c r="E2116" s="2" t="s">
         <v>4423</v>
       </c>
       <c r="F2116" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2117" spans="1:6" x14ac:dyDescent="0.2">
@@ -61390,13 +61390,13 @@
         <v>8</v>
       </c>
       <c r="D2117" s="9">
-        <v>613.75</v>
+        <v>705.81</v>
       </c>
       <c r="E2117" s="2" t="s">
         <v>4423</v>
       </c>
       <c r="F2117" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2118" spans="1:6" x14ac:dyDescent="0.2">
@@ -61410,13 +61410,13 @@
         <v>8</v>
       </c>
       <c r="D2118" s="9">
-        <v>580.52</v>
+        <v>667.6</v>
       </c>
       <c r="E2118" s="2" t="s">
         <v>4423</v>
       </c>
       <c r="F2118" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2119" spans="1:6" x14ac:dyDescent="0.2">
@@ -61430,13 +61430,13 @@
         <v>8</v>
       </c>
       <c r="D2119" s="9">
-        <v>585</v>
+        <v>672.75</v>
       </c>
       <c r="E2119" s="2" t="s">
         <v>4423</v>
       </c>
       <c r="F2119" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2120" spans="1:6" x14ac:dyDescent="0.2">
@@ -61450,13 +61450,13 @@
         <v>8</v>
       </c>
       <c r="D2120" s="9">
-        <v>475.8</v>
+        <v>547.16999999999996</v>
       </c>
       <c r="E2120" s="2" t="s">
         <v>4423</v>
       </c>
       <c r="F2120" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2121" spans="1:6" x14ac:dyDescent="0.2">
@@ -61470,13 +61470,13 @@
         <v>8</v>
       </c>
       <c r="D2121" s="9">
-        <v>482.77</v>
+        <v>555.19000000000005</v>
       </c>
       <c r="E2121" s="2" t="s">
         <v>4423</v>
       </c>
       <c r="F2121" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2122" spans="1:6" x14ac:dyDescent="0.2">
@@ -61490,13 +61490,13 @@
         <v>8</v>
       </c>
       <c r="D2122" s="9">
-        <v>549.11</v>
+        <v>631.48</v>
       </c>
       <c r="E2122" s="2" t="s">
         <v>4423</v>
       </c>
       <c r="F2122" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2123" spans="1:6" x14ac:dyDescent="0.2">
@@ -61510,13 +61510,13 @@
         <v>8</v>
       </c>
       <c r="D2123" s="9">
-        <v>395.47</v>
+        <v>454.79</v>
       </c>
       <c r="E2123" s="2" t="s">
         <v>4423</v>
       </c>
       <c r="F2123" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2124" spans="1:6" x14ac:dyDescent="0.2">
@@ -61530,13 +61530,13 @@
         <v>8</v>
       </c>
       <c r="D2124" s="9">
-        <v>418.2</v>
+        <v>480.93</v>
       </c>
       <c r="E2124" s="2" t="s">
         <v>4423</v>
       </c>
       <c r="F2124" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2125" spans="1:6" x14ac:dyDescent="0.2">
@@ -61570,13 +61570,13 @@
         <v>64</v>
       </c>
       <c r="D2126" s="9">
-        <v>1132.96</v>
+        <v>1302.9000000000001</v>
       </c>
       <c r="E2126" s="2" t="s">
         <v>4458</v>
       </c>
       <c r="F2126" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2127" spans="1:6" x14ac:dyDescent="0.2">
@@ -61590,13 +61590,13 @@
         <v>64</v>
       </c>
       <c r="D2127" s="9">
-        <v>673.71</v>
+        <v>774.77</v>
       </c>
       <c r="E2127" s="2" t="s">
         <v>4458</v>
       </c>
       <c r="F2127" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2128" spans="1:6" x14ac:dyDescent="0.2">
@@ -61610,13 +61610,13 @@
         <v>64</v>
       </c>
       <c r="D2128" s="9">
-        <v>674.99</v>
+        <v>776.24</v>
       </c>
       <c r="E2128" s="2" t="s">
         <v>4458</v>
       </c>
       <c r="F2128" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2129" spans="1:6" x14ac:dyDescent="0.2">
@@ -61630,13 +61630,13 @@
         <v>64</v>
       </c>
       <c r="D2129" s="9">
-        <v>673.71</v>
+        <v>774.77</v>
       </c>
       <c r="E2129" s="2" t="s">
         <v>4458</v>
       </c>
       <c r="F2129" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2130" spans="1:6" x14ac:dyDescent="0.2">
@@ -61650,13 +61650,13 @@
         <v>64</v>
       </c>
       <c r="D2130" s="9">
-        <v>505.28</v>
+        <v>581.07000000000005</v>
       </c>
       <c r="E2130" s="2" t="s">
         <v>4458</v>
       </c>
       <c r="F2130" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2131" spans="1:6" x14ac:dyDescent="0.2">
@@ -61670,13 +61670,13 @@
         <v>64</v>
       </c>
       <c r="D2131" s="9">
-        <v>505.28</v>
+        <v>581.07000000000005</v>
       </c>
       <c r="E2131" s="2" t="s">
         <v>4458</v>
       </c>
       <c r="F2131" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2132" spans="1:6" x14ac:dyDescent="0.2">
@@ -61690,13 +61690,13 @@
         <v>64</v>
       </c>
       <c r="D2132" s="9">
-        <v>473.25</v>
+        <v>544.24</v>
       </c>
       <c r="E2132" s="2" t="s">
         <v>4458</v>
       </c>
       <c r="F2132" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2133" spans="1:6" x14ac:dyDescent="0.2">
@@ -61710,13 +61710,13 @@
         <v>8</v>
       </c>
       <c r="D2133" s="9">
-        <v>565.04</v>
+        <v>649.79999999999995</v>
       </c>
       <c r="E2133" s="2" t="s">
         <v>4458</v>
       </c>
       <c r="F2133" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2134" spans="1:6" x14ac:dyDescent="0.2">
@@ -61730,13 +61730,13 @@
         <v>8</v>
       </c>
       <c r="D2134" s="9">
-        <v>492.57</v>
+        <v>566.46</v>
       </c>
       <c r="E2134" s="2" t="s">
         <v>4458</v>
       </c>
       <c r="F2134" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2135" spans="1:6" x14ac:dyDescent="0.2">
@@ -61750,13 +61750,13 @@
         <v>8</v>
       </c>
       <c r="D2135" s="9">
-        <v>513.47</v>
+        <v>590.49</v>
       </c>
       <c r="E2135" s="2" t="s">
         <v>4458</v>
       </c>
       <c r="F2135" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2136" spans="1:6" x14ac:dyDescent="0.2">
@@ -61770,13 +61770,13 @@
         <v>8</v>
       </c>
       <c r="D2136" s="9">
-        <v>459.83</v>
+        <v>528.79999999999995</v>
       </c>
       <c r="E2136" s="2" t="s">
         <v>4458</v>
       </c>
       <c r="F2136" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2137" spans="1:6" x14ac:dyDescent="0.2">
@@ -61790,13 +61790,13 @@
         <v>8</v>
       </c>
       <c r="D2137" s="9">
-        <v>442.99</v>
+        <v>509.44</v>
       </c>
       <c r="E2137" s="2" t="s">
         <v>4458</v>
       </c>
       <c r="F2137" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2138" spans="1:6" x14ac:dyDescent="0.2">
@@ -61810,13 +61810,13 @@
         <v>8</v>
       </c>
       <c r="D2138" s="9">
-        <v>331.47</v>
+        <v>381.19</v>
       </c>
       <c r="E2138" s="2" t="s">
         <v>4458</v>
       </c>
       <c r="F2138" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2139" spans="1:6" x14ac:dyDescent="0.2">
@@ -63130,13 +63130,13 @@
         <v>64</v>
       </c>
       <c r="D2204" s="9">
-        <v>1795.5</v>
+        <v>1996.9</v>
       </c>
       <c r="E2204" s="2" t="s">
         <v>4622</v>
       </c>
       <c r="F2204" s="3">
-        <v>45089</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="2205" spans="1:6" x14ac:dyDescent="0.2">
@@ -63150,13 +63150,13 @@
         <v>64</v>
       </c>
       <c r="D2205" s="9">
-        <v>3735.5</v>
+        <v>3803.54</v>
       </c>
       <c r="E2205" s="2" t="s">
         <v>4622</v>
       </c>
       <c r="F2205" s="3">
-        <v>45089</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="2206" spans="1:6" x14ac:dyDescent="0.2">
@@ -63210,13 +63210,13 @@
         <v>64</v>
       </c>
       <c r="D2208" s="9">
-        <v>1041.3900000000001</v>
+        <v>1606.95</v>
       </c>
       <c r="E2208" s="2" t="s">
         <v>4631</v>
       </c>
       <c r="F2208" s="3">
-        <v>45089</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="2209" spans="1:6" x14ac:dyDescent="0.2">
@@ -63230,13 +63230,13 @@
         <v>64</v>
       </c>
       <c r="D2209" s="9">
-        <v>2052.86</v>
+        <v>3412.14</v>
       </c>
       <c r="E2209" s="2" t="s">
         <v>4631</v>
       </c>
       <c r="F2209" s="3">
-        <v>45089</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="2210" spans="1:6" x14ac:dyDescent="0.2">
@@ -63250,13 +63250,13 @@
         <v>64</v>
       </c>
       <c r="D2210" s="9">
-        <v>3683.34</v>
+        <v>4475.6099999999997</v>
       </c>
       <c r="E2210" s="2" t="s">
         <v>4631</v>
       </c>
       <c r="F2210" s="3">
-        <v>45089</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="2211" spans="1:6" x14ac:dyDescent="0.2">
@@ -63870,13 +63870,13 @@
         <v>64</v>
       </c>
       <c r="D2241" s="9">
-        <v>3575.41</v>
+        <v>4111.72</v>
       </c>
       <c r="E2241" s="2" t="s">
         <v>4705</v>
       </c>
       <c r="F2241" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2242" spans="1:6" x14ac:dyDescent="0.2">
@@ -65070,13 +65070,13 @@
         <v>968</v>
       </c>
       <c r="D2301" s="9">
-        <v>36.61</v>
+        <v>41.01</v>
       </c>
       <c r="E2301" s="2" t="s">
         <v>4743</v>
       </c>
       <c r="F2301" s="3">
-        <v>45132</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="2302" spans="1:6" x14ac:dyDescent="0.2">
@@ -65090,13 +65090,13 @@
         <v>968</v>
       </c>
       <c r="D2302" s="9">
-        <v>37.54</v>
+        <v>42.05</v>
       </c>
       <c r="E2302" s="2" t="s">
         <v>4743</v>
       </c>
       <c r="F2302" s="3">
-        <v>45132</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="2303" spans="1:6" x14ac:dyDescent="0.2">
@@ -65290,13 +65290,13 @@
         <v>32</v>
       </c>
       <c r="D2312" s="9">
-        <v>600.74</v>
+        <v>660.82</v>
       </c>
       <c r="E2312" s="2" t="s">
         <v>4743</v>
       </c>
       <c r="F2312" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2313" spans="1:6" x14ac:dyDescent="0.2">
@@ -67470,13 +67470,13 @@
         <v>8</v>
       </c>
       <c r="D2421" s="9">
-        <v>470</v>
+        <v>517</v>
       </c>
       <c r="E2421" s="2" t="s">
         <v>5073</v>
       </c>
       <c r="F2421" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2422" spans="1:6" x14ac:dyDescent="0.2">
@@ -67490,13 +67490,13 @@
         <v>8</v>
       </c>
       <c r="D2422" s="9">
-        <v>752.93</v>
+        <v>828.23</v>
       </c>
       <c r="E2422" s="2" t="s">
         <v>5073</v>
       </c>
       <c r="F2422" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2423" spans="1:6" x14ac:dyDescent="0.2">
@@ -67510,13 +67510,13 @@
         <v>8</v>
       </c>
       <c r="D2423" s="9">
-        <v>1405.22</v>
+        <v>1545.75</v>
       </c>
       <c r="E2423" s="2" t="s">
         <v>5073</v>
       </c>
       <c r="F2423" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2424" spans="1:6" x14ac:dyDescent="0.2">
@@ -67530,13 +67530,13 @@
         <v>8</v>
       </c>
       <c r="D2424" s="9">
-        <v>752.93</v>
+        <v>828.23</v>
       </c>
       <c r="E2424" s="2" t="s">
         <v>5080</v>
       </c>
       <c r="F2424" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2425" spans="1:6" x14ac:dyDescent="0.2">
@@ -67550,13 +67550,13 @@
         <v>8</v>
       </c>
       <c r="D2425" s="9">
-        <v>1787.61</v>
+        <v>1966.38</v>
       </c>
       <c r="E2425" s="2" t="s">
         <v>5080</v>
       </c>
       <c r="F2425" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2426" spans="1:6" x14ac:dyDescent="0.2">
@@ -67750,13 +67750,13 @@
         <v>64</v>
       </c>
       <c r="D2435" s="9">
-        <v>173.94</v>
+        <v>208.73</v>
       </c>
       <c r="E2435" s="2" t="s">
         <v>5085</v>
       </c>
       <c r="F2435" s="3">
-        <v>45044</v>
+        <v>45149</v>
       </c>
     </row>
     <row r="2436" spans="1:6" x14ac:dyDescent="0.2">
@@ -67770,13 +67770,13 @@
         <v>64</v>
       </c>
       <c r="D2436" s="9">
-        <v>173.94</v>
+        <v>208.73</v>
       </c>
       <c r="E2436" s="2" t="s">
         <v>5085</v>
       </c>
       <c r="F2436" s="3">
-        <v>45044</v>
+        <v>45149</v>
       </c>
     </row>
     <row r="2437" spans="1:6" x14ac:dyDescent="0.2">
@@ -69110,13 +69110,13 @@
         <v>8</v>
       </c>
       <c r="D2503" s="9">
-        <v>471.57</v>
+        <v>542.30999999999995</v>
       </c>
       <c r="E2503" s="2" t="s">
         <v>5254</v>
       </c>
       <c r="F2503" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2504" spans="1:6" x14ac:dyDescent="0.2">
@@ -69130,13 +69130,13 @@
         <v>8</v>
       </c>
       <c r="D2504" s="9">
-        <v>523.97</v>
+        <v>602.57000000000005</v>
       </c>
       <c r="E2504" s="2" t="s">
         <v>5254</v>
       </c>
       <c r="F2504" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2505" spans="1:6" x14ac:dyDescent="0.2">
@@ -69150,13 +69150,13 @@
         <v>8</v>
       </c>
       <c r="D2505" s="9">
-        <v>335.89</v>
+        <v>386.27</v>
       </c>
       <c r="E2505" s="2" t="s">
         <v>5254</v>
       </c>
       <c r="F2505" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2506" spans="1:6" x14ac:dyDescent="0.2">
@@ -69170,13 +69170,13 @@
         <v>8</v>
       </c>
       <c r="D2506" s="9">
-        <v>374.79</v>
+        <v>431.01</v>
       </c>
       <c r="E2506" s="2" t="s">
         <v>5254</v>
       </c>
       <c r="F2506" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2507" spans="1:6" x14ac:dyDescent="0.2">
@@ -69190,13 +69190,13 @@
         <v>8</v>
       </c>
       <c r="D2507" s="9">
-        <v>371.69</v>
+        <v>427.44</v>
       </c>
       <c r="E2507" s="2" t="s">
         <v>5254</v>
       </c>
       <c r="F2507" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2508" spans="1:6" x14ac:dyDescent="0.2">
@@ -69210,13 +69210,13 @@
         <v>8</v>
       </c>
       <c r="D2508" s="9">
-        <v>388.32</v>
+        <v>446.57</v>
       </c>
       <c r="E2508" s="2" t="s">
         <v>5254</v>
       </c>
       <c r="F2508" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2509" spans="1:6" x14ac:dyDescent="0.2">
@@ -69450,13 +69450,13 @@
         <v>64</v>
       </c>
       <c r="D2520" s="9">
-        <v>7242.49</v>
+        <v>8328.86</v>
       </c>
       <c r="E2520" s="2" t="s">
         <v>5267</v>
       </c>
       <c r="F2520" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2521" spans="1:6" x14ac:dyDescent="0.2">
@@ -69630,13 +69630,13 @@
         <v>64</v>
       </c>
       <c r="D2529" s="9">
-        <v>210.79</v>
+        <v>242.41</v>
       </c>
       <c r="E2529" s="2" t="s">
         <v>5308</v>
       </c>
       <c r="F2529" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2530" spans="1:6" x14ac:dyDescent="0.2">
@@ -69650,13 +69650,13 @@
         <v>8</v>
       </c>
       <c r="D2530" s="9">
-        <v>312.69</v>
+        <v>359.59</v>
       </c>
       <c r="E2530" s="2" t="s">
         <v>5308</v>
       </c>
       <c r="F2530" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2531" spans="1:6" x14ac:dyDescent="0.2">
@@ -69670,13 +69670,13 @@
         <v>8</v>
       </c>
       <c r="D2531" s="9">
-        <v>395.05</v>
+        <v>454.31</v>
       </c>
       <c r="E2531" s="2" t="s">
         <v>5308</v>
       </c>
       <c r="F2531" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2532" spans="1:6" x14ac:dyDescent="0.2">
@@ -69690,13 +69690,13 @@
         <v>64</v>
       </c>
       <c r="D2532" s="9">
-        <v>501.33</v>
+        <v>576.53</v>
       </c>
       <c r="E2532" s="2" t="s">
         <v>5308</v>
       </c>
       <c r="F2532" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2533" spans="1:6" x14ac:dyDescent="0.2">
@@ -71230,13 +71230,13 @@
         <v>8</v>
       </c>
       <c r="D2609" s="9">
-        <v>313.5</v>
+        <v>305.87</v>
       </c>
       <c r="E2609" s="2" t="s">
         <v>5475</v>
       </c>
       <c r="F2609" s="3">
-        <v>45132</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="2610" spans="1:6" x14ac:dyDescent="0.2">
@@ -71250,13 +71250,13 @@
         <v>8</v>
       </c>
       <c r="D2610" s="9">
-        <v>305.87</v>
+        <v>313.5</v>
       </c>
       <c r="E2610" s="2" t="s">
         <v>5475</v>
       </c>
       <c r="F2610" s="3">
-        <v>45077</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="2611" spans="1:6" x14ac:dyDescent="0.2">
@@ -71470,13 +71470,13 @@
         <v>64</v>
       </c>
       <c r="D2621" s="9">
-        <v>144.75</v>
+        <v>166.46</v>
       </c>
       <c r="E2621" s="2" t="s">
         <v>5501</v>
       </c>
       <c r="F2621" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2622" spans="1:6" x14ac:dyDescent="0.2">
@@ -71490,13 +71490,13 @@
         <v>8</v>
       </c>
       <c r="D2622" s="9">
-        <v>195.05</v>
+        <v>224.31</v>
       </c>
       <c r="E2622" s="2" t="s">
         <v>5501</v>
       </c>
       <c r="F2622" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2623" spans="1:6" x14ac:dyDescent="0.2">
@@ -71510,13 +71510,13 @@
         <v>8</v>
       </c>
       <c r="D2623" s="9">
-        <v>307.27</v>
+        <v>353.36</v>
       </c>
       <c r="E2623" s="2" t="s">
         <v>5501</v>
       </c>
       <c r="F2623" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2624" spans="1:6" x14ac:dyDescent="0.2">
@@ -71530,13 +71530,13 @@
         <v>64</v>
       </c>
       <c r="D2624" s="9">
-        <v>492.31</v>
+        <v>566.16</v>
       </c>
       <c r="E2624" s="2" t="s">
         <v>5501</v>
       </c>
       <c r="F2624" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2625" spans="1:6" x14ac:dyDescent="0.2">
@@ -71550,13 +71550,13 @@
         <v>8</v>
       </c>
       <c r="D2625" s="9">
-        <v>513.66</v>
+        <v>565.03</v>
       </c>
       <c r="E2625" s="2" t="s">
         <v>5510</v>
       </c>
       <c r="F2625" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2626" spans="1:6" x14ac:dyDescent="0.2">
@@ -71570,13 +71570,13 @@
         <v>8</v>
       </c>
       <c r="D2626" s="9">
-        <v>566.29999999999995</v>
+        <v>622.92999999999995</v>
       </c>
       <c r="E2626" s="2" t="s">
         <v>5510</v>
       </c>
       <c r="F2626" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2627" spans="1:6" x14ac:dyDescent="0.2">
@@ -71590,13 +71590,13 @@
         <v>8</v>
       </c>
       <c r="D2627" s="9">
-        <v>828.96</v>
+        <v>911.86</v>
       </c>
       <c r="E2627" s="2" t="s">
         <v>5510</v>
       </c>
       <c r="F2627" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2628" spans="1:6" x14ac:dyDescent="0.2">
@@ -71630,13 +71630,13 @@
         <v>8</v>
       </c>
       <c r="D2629" s="9">
-        <v>494.15</v>
+        <v>543.57000000000005</v>
       </c>
       <c r="E2629" s="2" t="s">
         <v>5520</v>
       </c>
       <c r="F2629" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2630" spans="1:6" x14ac:dyDescent="0.2">
@@ -71650,13 +71650,13 @@
         <v>8</v>
       </c>
       <c r="D2630" s="9">
-        <v>731.42</v>
+        <v>804.57</v>
       </c>
       <c r="E2630" s="2" t="s">
         <v>5520</v>
       </c>
       <c r="F2630" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2631" spans="1:6" x14ac:dyDescent="0.2">
@@ -71670,13 +71670,13 @@
         <v>8</v>
       </c>
       <c r="D2631" s="9">
-        <v>1098.73</v>
+        <v>1208.6099999999999</v>
       </c>
       <c r="E2631" s="2" t="s">
         <v>5520</v>
       </c>
       <c r="F2631" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2632" spans="1:6" x14ac:dyDescent="0.2">
@@ -71810,13 +71810,13 @@
         <v>8</v>
       </c>
       <c r="D2638" s="9">
-        <v>1245.04</v>
+        <v>1369.55</v>
       </c>
       <c r="E2638" s="2" t="s">
         <v>5541</v>
       </c>
       <c r="F2638" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2639" spans="1:6" x14ac:dyDescent="0.2">
@@ -71830,13 +71830,13 @@
         <v>8</v>
       </c>
       <c r="D2639" s="9">
-        <v>1801.46</v>
+        <v>1981.61</v>
       </c>
       <c r="E2639" s="2" t="s">
         <v>5541</v>
       </c>
       <c r="F2639" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2640" spans="1:6" x14ac:dyDescent="0.2">
@@ -71850,13 +71850,13 @@
         <v>8</v>
       </c>
       <c r="D2640" s="9">
-        <v>3514.35</v>
+        <v>3865.79</v>
       </c>
       <c r="E2640" s="2" t="s">
         <v>5541</v>
       </c>
       <c r="F2640" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2641" spans="1:6" x14ac:dyDescent="0.2">
@@ -71870,13 +71870,13 @@
         <v>836</v>
       </c>
       <c r="D2641" s="9">
-        <v>1892.86</v>
+        <v>2176.79</v>
       </c>
       <c r="E2641" s="2" t="s">
         <v>5550</v>
       </c>
       <c r="F2641" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2642" spans="1:6" x14ac:dyDescent="0.2">
@@ -71910,13 +71910,13 @@
         <v>64</v>
       </c>
       <c r="D2643" s="9">
-        <v>937</v>
+        <v>1077.55</v>
       </c>
       <c r="E2643" s="2" t="s">
         <v>5555</v>
       </c>
       <c r="F2643" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2644" spans="1:6" x14ac:dyDescent="0.2">
@@ -71930,13 +71930,13 @@
         <v>8</v>
       </c>
       <c r="D2644" s="9">
-        <v>654.98</v>
+        <v>753.23</v>
       </c>
       <c r="E2644" s="2" t="s">
         <v>5555</v>
       </c>
       <c r="F2644" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2645" spans="1:6" x14ac:dyDescent="0.2">
@@ -71950,13 +71950,13 @@
         <v>8</v>
       </c>
       <c r="D2645" s="9">
-        <v>905.76</v>
+        <v>1041.6199999999999</v>
       </c>
       <c r="E2645" s="2" t="s">
         <v>5555</v>
       </c>
       <c r="F2645" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2646" spans="1:6" x14ac:dyDescent="0.2">
@@ -71970,13 +71970,13 @@
         <v>64</v>
       </c>
       <c r="D2646" s="9">
-        <v>802.52</v>
+        <v>922.9</v>
       </c>
       <c r="E2646" s="2" t="s">
         <v>5562</v>
       </c>
       <c r="F2646" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2647" spans="1:6" x14ac:dyDescent="0.2">
@@ -71990,13 +71990,13 @@
         <v>64</v>
       </c>
       <c r="D2647" s="9">
-        <v>869.99</v>
+        <v>1000.49</v>
       </c>
       <c r="E2647" s="2" t="s">
         <v>5562</v>
       </c>
       <c r="F2647" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2648" spans="1:6" x14ac:dyDescent="0.2">
@@ -72010,13 +72010,13 @@
         <v>64</v>
       </c>
       <c r="D2648" s="9">
-        <v>1204.42</v>
+        <v>1385.08</v>
       </c>
       <c r="E2648" s="2" t="s">
         <v>5562</v>
       </c>
       <c r="F2648" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2649" spans="1:6" x14ac:dyDescent="0.2">
@@ -72030,13 +72030,13 @@
         <v>64</v>
       </c>
       <c r="D2649" s="9">
-        <v>776.99</v>
+        <v>893.54</v>
       </c>
       <c r="E2649" s="2" t="s">
         <v>5562</v>
       </c>
       <c r="F2649" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2650" spans="1:6" x14ac:dyDescent="0.2">
@@ -72050,13 +72050,13 @@
         <v>8</v>
       </c>
       <c r="D2650" s="9">
-        <v>843.85</v>
+        <v>970.43</v>
       </c>
       <c r="E2650" s="2" t="s">
         <v>5562</v>
       </c>
       <c r="F2650" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2651" spans="1:6" x14ac:dyDescent="0.2">
@@ -72070,13 +72070,13 @@
         <v>8</v>
       </c>
       <c r="D2651" s="9">
-        <v>1099.51</v>
+        <v>1264.44</v>
       </c>
       <c r="E2651" s="2" t="s">
         <v>5562</v>
       </c>
       <c r="F2651" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2652" spans="1:6" x14ac:dyDescent="0.2">
@@ -72090,13 +72090,13 @@
         <v>8</v>
       </c>
       <c r="D2652" s="9">
-        <v>710.49</v>
+        <v>817.06</v>
       </c>
       <c r="E2652" s="2" t="s">
         <v>5575</v>
       </c>
       <c r="F2652" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2653" spans="1:6" x14ac:dyDescent="0.2">
@@ -72110,13 +72110,13 @@
         <v>64</v>
       </c>
       <c r="D2653" s="9">
-        <v>1857.79</v>
+        <v>2136.46</v>
       </c>
       <c r="E2653" s="2" t="s">
         <v>5578</v>
       </c>
       <c r="F2653" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2654" spans="1:6" x14ac:dyDescent="0.2">
@@ -72130,13 +72130,13 @@
         <v>64</v>
       </c>
       <c r="D2654" s="9">
-        <v>1857.79</v>
+        <v>2136.46</v>
       </c>
       <c r="E2654" s="2" t="s">
         <v>5578</v>
       </c>
       <c r="F2654" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2655" spans="1:6" x14ac:dyDescent="0.2">
@@ -72150,13 +72150,13 @@
         <v>64</v>
       </c>
       <c r="D2655" s="9">
-        <v>1518.2</v>
+        <v>1745.93</v>
       </c>
       <c r="E2655" s="2" t="s">
         <v>5578</v>
       </c>
       <c r="F2655" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2656" spans="1:6" x14ac:dyDescent="0.2">
@@ -72170,13 +72170,13 @@
         <v>64</v>
       </c>
       <c r="D2656" s="9">
-        <v>1518.2</v>
+        <v>1745.93</v>
       </c>
       <c r="E2656" s="2" t="s">
         <v>5578</v>
       </c>
       <c r="F2656" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2657" spans="1:6" x14ac:dyDescent="0.2">
@@ -72670,13 +72670,13 @@
         <v>64</v>
       </c>
       <c r="D2681" s="9">
-        <v>350.59</v>
+        <v>403.18</v>
       </c>
       <c r="E2681" s="2" t="s">
         <v>5638</v>
       </c>
       <c r="F2681" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2682" spans="1:6" x14ac:dyDescent="0.2">
@@ -72690,13 +72690,13 @@
         <v>8</v>
       </c>
       <c r="D2682" s="9">
-        <v>386.45</v>
+        <v>444.42</v>
       </c>
       <c r="E2682" s="2" t="s">
         <v>5638</v>
       </c>
       <c r="F2682" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2683" spans="1:6" x14ac:dyDescent="0.2">
@@ -72710,13 +72710,13 @@
         <v>8</v>
       </c>
       <c r="D2683" s="9">
-        <v>562.67999999999995</v>
+        <v>647.08000000000004</v>
       </c>
       <c r="E2683" s="2" t="s">
         <v>5638</v>
       </c>
       <c r="F2683" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2684" spans="1:6" x14ac:dyDescent="0.2">
@@ -72730,13 +72730,13 @@
         <v>8</v>
       </c>
       <c r="D2684" s="9">
-        <v>781.46</v>
+        <v>898.68</v>
       </c>
       <c r="E2684" s="2" t="s">
         <v>5638</v>
       </c>
       <c r="F2684" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2685" spans="1:6" x14ac:dyDescent="0.2">
@@ -72750,13 +72750,13 @@
         <v>8</v>
       </c>
       <c r="D2685" s="9">
-        <v>617.16999999999996</v>
+        <v>709.75</v>
       </c>
       <c r="E2685" s="2" t="s">
         <v>5638</v>
       </c>
       <c r="F2685" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2686" spans="1:6" x14ac:dyDescent="0.2">
@@ -72770,13 +72770,13 @@
         <v>64</v>
       </c>
       <c r="D2686" s="9">
-        <v>335.87</v>
+        <v>386.25</v>
       </c>
       <c r="E2686" s="2" t="s">
         <v>5649</v>
       </c>
       <c r="F2686" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2687" spans="1:6" x14ac:dyDescent="0.2">
@@ -72790,13 +72790,13 @@
         <v>8</v>
       </c>
       <c r="D2687" s="9">
-        <v>417.52</v>
+        <v>480.15</v>
       </c>
       <c r="E2687" s="2" t="s">
         <v>5649</v>
       </c>
       <c r="F2687" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2688" spans="1:6" x14ac:dyDescent="0.2">
@@ -72810,13 +72810,13 @@
         <v>8</v>
       </c>
       <c r="D2688" s="9">
-        <v>506.18</v>
+        <v>582.11</v>
       </c>
       <c r="E2688" s="2" t="s">
         <v>5649</v>
       </c>
       <c r="F2688" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2689" spans="1:6" x14ac:dyDescent="0.2">
@@ -72830,13 +72830,13 @@
         <v>8</v>
       </c>
       <c r="D2689" s="9">
-        <v>692.86</v>
+        <v>796.79</v>
       </c>
       <c r="E2689" s="2" t="s">
         <v>5649</v>
       </c>
       <c r="F2689" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2690" spans="1:6" x14ac:dyDescent="0.2">
@@ -72850,13 +72850,13 @@
         <v>8</v>
       </c>
       <c r="D2690" s="9">
-        <v>686.57</v>
+        <v>789.56</v>
       </c>
       <c r="E2690" s="2" t="s">
         <v>5649</v>
       </c>
       <c r="F2690" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2691" spans="1:6" x14ac:dyDescent="0.2">
@@ -72870,13 +72870,13 @@
         <v>64</v>
       </c>
       <c r="D2691" s="9">
-        <v>1485.26</v>
+        <v>1708.05</v>
       </c>
       <c r="E2691" s="2" t="s">
         <v>5660</v>
       </c>
       <c r="F2691" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2692" spans="1:6" x14ac:dyDescent="0.2">
@@ -72890,13 +72890,13 @@
         <v>64</v>
       </c>
       <c r="D2692" s="9">
-        <v>1375.25</v>
+        <v>1581.54</v>
       </c>
       <c r="E2692" s="2" t="s">
         <v>5660</v>
       </c>
       <c r="F2692" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2693" spans="1:6" x14ac:dyDescent="0.2">
@@ -72910,13 +72910,13 @@
         <v>64</v>
       </c>
       <c r="D2693" s="9">
-        <v>1375.25</v>
+        <v>1581.54</v>
       </c>
       <c r="E2693" s="2" t="s">
         <v>5660</v>
       </c>
       <c r="F2693" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2694" spans="1:6" x14ac:dyDescent="0.2">
@@ -72930,13 +72930,13 @@
         <v>8</v>
       </c>
       <c r="D2694" s="9">
-        <v>1135.1500000000001</v>
+        <v>1305.42</v>
       </c>
       <c r="E2694" s="2" t="s">
         <v>5660</v>
       </c>
       <c r="F2694" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2695" spans="1:6" x14ac:dyDescent="0.2">
@@ -72950,13 +72950,13 @@
         <v>64</v>
       </c>
       <c r="D2695" s="9">
-        <v>1485.26</v>
+        <v>1708.05</v>
       </c>
       <c r="E2695" s="2" t="s">
         <v>5669</v>
       </c>
       <c r="F2695" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2696" spans="1:6" x14ac:dyDescent="0.2">
@@ -72970,13 +72970,13 @@
         <v>64</v>
       </c>
       <c r="D2696" s="9">
-        <v>1375.25</v>
+        <v>1581.54</v>
       </c>
       <c r="E2696" s="2" t="s">
         <v>5669</v>
       </c>
       <c r="F2696" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2697" spans="1:6" x14ac:dyDescent="0.2">
@@ -72990,13 +72990,13 @@
         <v>64</v>
       </c>
       <c r="D2697" s="9">
-        <v>1375.25</v>
+        <v>1581.54</v>
       </c>
       <c r="E2697" s="2" t="s">
         <v>5669</v>
       </c>
       <c r="F2697" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2698" spans="1:6" x14ac:dyDescent="0.2">
@@ -73010,13 +73010,13 @@
         <v>8</v>
       </c>
       <c r="D2698" s="9">
-        <v>1135.1500000000001</v>
+        <v>1305.42</v>
       </c>
       <c r="E2698" s="2" t="s">
         <v>5669</v>
       </c>
       <c r="F2698" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2699" spans="1:6" x14ac:dyDescent="0.2">
@@ -73250,13 +73250,13 @@
         <v>974</v>
       </c>
       <c r="D2710" s="9">
-        <v>2033.52</v>
+        <v>2236.88</v>
       </c>
       <c r="E2710" s="2" t="s">
         <v>5699</v>
       </c>
       <c r="F2710" s="3">
-        <v>45100</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2711" spans="1:6" x14ac:dyDescent="0.2">
@@ -73270,13 +73270,13 @@
         <v>974</v>
       </c>
       <c r="D2711" s="9">
-        <v>2942.27</v>
+        <v>3236.5</v>
       </c>
       <c r="E2711" s="2" t="s">
         <v>5699</v>
       </c>
       <c r="F2711" s="3">
-        <v>45100</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2712" spans="1:6" x14ac:dyDescent="0.2">
@@ -73690,13 +73690,13 @@
         <v>5742</v>
       </c>
       <c r="D2732" s="9">
-        <v>1714.25</v>
+        <v>1727.22</v>
       </c>
       <c r="E2732" s="2" t="s">
         <v>5743</v>
       </c>
       <c r="F2732" s="3">
-        <v>45044</v>
+        <v>45147</v>
       </c>
     </row>
     <row r="2733" spans="1:6" x14ac:dyDescent="0.2">
@@ -74130,13 +74130,13 @@
         <v>8</v>
       </c>
       <c r="D2754" s="9">
-        <v>469.33</v>
+        <v>516.27</v>
       </c>
       <c r="E2754" s="2" t="s">
         <v>5798</v>
       </c>
       <c r="F2754" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2755" spans="1:6" x14ac:dyDescent="0.2">
@@ -74150,13 +74150,13 @@
         <v>8</v>
       </c>
       <c r="D2755" s="9">
-        <v>524.03</v>
+        <v>576.44000000000005</v>
       </c>
       <c r="E2755" s="2" t="s">
         <v>5798</v>
       </c>
       <c r="F2755" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2756" spans="1:6" x14ac:dyDescent="0.2">
@@ -74330,13 +74330,13 @@
         <v>8</v>
       </c>
       <c r="D2764" s="9">
-        <v>461.37</v>
+        <v>583.64</v>
       </c>
       <c r="E2764" s="2" t="s">
         <v>5820</v>
       </c>
       <c r="F2764" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2765" spans="1:6" x14ac:dyDescent="0.2">
@@ -74350,13 +74350,13 @@
         <v>8</v>
       </c>
       <c r="D2765" s="9">
-        <v>608.95000000000005</v>
+        <v>770.32</v>
       </c>
       <c r="E2765" s="2" t="s">
         <v>5820</v>
       </c>
       <c r="F2765" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2766" spans="1:6" x14ac:dyDescent="0.2">
@@ -74370,13 +74370,13 @@
         <v>8</v>
       </c>
       <c r="D2766" s="9">
-        <v>663.9</v>
+        <v>763.49</v>
       </c>
       <c r="E2766" s="2" t="s">
         <v>5820</v>
       </c>
       <c r="F2766" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2767" spans="1:6" x14ac:dyDescent="0.2">
@@ -74390,13 +74390,13 @@
         <v>64</v>
       </c>
       <c r="D2767" s="9">
-        <v>1153.95</v>
+        <v>1327.04</v>
       </c>
       <c r="E2767" s="2" t="s">
         <v>5820</v>
       </c>
       <c r="F2767" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2768" spans="1:6" x14ac:dyDescent="0.2">
@@ -74410,13 +74410,13 @@
         <v>64</v>
       </c>
       <c r="D2768" s="9">
-        <v>1543.45</v>
+        <v>1774.97</v>
       </c>
       <c r="E2768" s="2" t="s">
         <v>5820</v>
       </c>
       <c r="F2768" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2769" spans="1:6" x14ac:dyDescent="0.2">
@@ -74430,13 +74430,13 @@
         <v>64</v>
       </c>
       <c r="D2769" s="9">
-        <v>2303.44</v>
+        <v>2648.96</v>
       </c>
       <c r="E2769" s="2" t="s">
         <v>5820</v>
       </c>
       <c r="F2769" s="3">
-        <v>45140</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2770" spans="1:6" x14ac:dyDescent="0.2">
@@ -74450,13 +74450,13 @@
         <v>64</v>
       </c>
       <c r="D2770" s="9">
-        <v>251.05</v>
+        <v>288.70999999999998</v>
       </c>
       <c r="E2770" s="2" t="s">
         <v>5833</v>
       </c>
       <c r="F2770" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2771" spans="1:6" x14ac:dyDescent="0.2">
@@ -74470,13 +74470,13 @@
         <v>8</v>
       </c>
       <c r="D2771" s="9">
-        <v>228.46</v>
+        <v>262.73</v>
       </c>
       <c r="E2771" s="2" t="s">
         <v>5833</v>
       </c>
       <c r="F2771" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2772" spans="1:6" x14ac:dyDescent="0.2">
@@ -74490,13 +74490,13 @@
         <v>64</v>
       </c>
       <c r="D2772" s="9">
-        <v>252.15</v>
+        <v>289.97000000000003</v>
       </c>
       <c r="E2772" s="2" t="s">
         <v>5833</v>
       </c>
       <c r="F2772" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2773" spans="1:6" x14ac:dyDescent="0.2">
@@ -74510,13 +74510,13 @@
         <v>8</v>
       </c>
       <c r="D2773" s="9">
-        <v>268.17</v>
+        <v>308.39999999999998</v>
       </c>
       <c r="E2773" s="2" t="s">
         <v>5833</v>
       </c>
       <c r="F2773" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2774" spans="1:6" x14ac:dyDescent="0.2">
@@ -74530,13 +74530,13 @@
         <v>64</v>
       </c>
       <c r="D2774" s="9">
-        <v>350.65</v>
+        <v>403.25</v>
       </c>
       <c r="E2774" s="2" t="s">
         <v>5833</v>
       </c>
       <c r="F2774" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2775" spans="1:6" x14ac:dyDescent="0.2">
@@ -74550,13 +74550,13 @@
         <v>8</v>
       </c>
       <c r="D2775" s="9">
-        <v>449.07</v>
+        <v>516.42999999999995</v>
       </c>
       <c r="E2775" s="2" t="s">
         <v>5833</v>
       </c>
       <c r="F2775" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2776" spans="1:6" x14ac:dyDescent="0.2">
@@ -74570,13 +74570,13 @@
         <v>8</v>
       </c>
       <c r="D2776" s="9">
-        <v>83.47</v>
+        <v>95.99</v>
       </c>
       <c r="E2776" s="2" t="s">
         <v>5846</v>
       </c>
       <c r="F2776" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2777" spans="1:6" x14ac:dyDescent="0.2">
@@ -74590,13 +74590,13 @@
         <v>8</v>
       </c>
       <c r="D2777" s="9">
-        <v>95.98</v>
+        <v>110.38</v>
       </c>
       <c r="E2777" s="2" t="s">
         <v>5846</v>
       </c>
       <c r="F2777" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2778" spans="1:6" x14ac:dyDescent="0.2">
@@ -74610,13 +74610,13 @@
         <v>8</v>
       </c>
       <c r="D2778" s="9">
-        <v>83.2</v>
+        <v>95.68</v>
       </c>
       <c r="E2778" s="2" t="s">
         <v>5846</v>
       </c>
       <c r="F2778" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2779" spans="1:6" x14ac:dyDescent="0.2">
@@ -74630,13 +74630,13 @@
         <v>8</v>
       </c>
       <c r="D2779" s="9">
-        <v>134.08000000000001</v>
+        <v>154.19</v>
       </c>
       <c r="E2779" s="2" t="s">
         <v>5846</v>
       </c>
       <c r="F2779" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2780" spans="1:6" x14ac:dyDescent="0.2">
@@ -74650,13 +74650,13 @@
         <v>8</v>
       </c>
       <c r="D2780" s="9">
-        <v>252.97</v>
+        <v>290.92</v>
       </c>
       <c r="E2780" s="2" t="s">
         <v>5846</v>
       </c>
       <c r="F2780" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2781" spans="1:6" x14ac:dyDescent="0.2">
@@ -74670,13 +74670,13 @@
         <v>8</v>
       </c>
       <c r="D2781" s="9">
-        <v>179.44</v>
+        <v>206.36</v>
       </c>
       <c r="E2781" s="2" t="s">
         <v>5846</v>
       </c>
       <c r="F2781" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2782" spans="1:6" x14ac:dyDescent="0.2">
@@ -74690,13 +74690,13 @@
         <v>8</v>
       </c>
       <c r="D2782" s="9">
-        <v>170.45</v>
+        <v>196.02</v>
       </c>
       <c r="E2782" s="2" t="s">
         <v>5846</v>
       </c>
       <c r="F2782" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2783" spans="1:6" x14ac:dyDescent="0.2">
@@ -74710,13 +74710,13 @@
         <v>8</v>
       </c>
       <c r="D2783" s="9">
-        <v>176.5</v>
+        <v>202.98</v>
       </c>
       <c r="E2783" s="2" t="s">
         <v>5846</v>
       </c>
       <c r="F2783" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2784" spans="1:6" x14ac:dyDescent="0.2">
@@ -74730,13 +74730,13 @@
         <v>8</v>
       </c>
       <c r="D2784" s="9">
-        <v>87.56</v>
+        <v>100.69</v>
       </c>
       <c r="E2784" s="2" t="s">
         <v>5846</v>
       </c>
       <c r="F2784" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2785" spans="1:6" x14ac:dyDescent="0.2">
@@ -74810,13 +74810,13 @@
         <v>8</v>
       </c>
       <c r="D2788" s="9">
-        <v>336.25</v>
+        <v>386.69</v>
       </c>
       <c r="E2788" s="2" t="s">
         <v>5865</v>
       </c>
       <c r="F2788" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2789" spans="1:6" x14ac:dyDescent="0.2">
@@ -74830,13 +74830,13 @@
         <v>8</v>
       </c>
       <c r="D2789" s="9">
-        <v>397.59</v>
+        <v>457.23</v>
       </c>
       <c r="E2789" s="2" t="s">
         <v>5865</v>
       </c>
       <c r="F2789" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2790" spans="1:6" x14ac:dyDescent="0.2">
@@ -74850,13 +74850,13 @@
         <v>8</v>
       </c>
       <c r="D2790" s="9">
-        <v>285.76</v>
+        <v>328.62</v>
       </c>
       <c r="E2790" s="2" t="s">
         <v>5865</v>
       </c>
       <c r="F2790" s="3">
-        <v>45044</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2791" spans="1:6" x14ac:dyDescent="0.2">
@@ -74870,13 +74870,13 @@
         <v>8</v>
       </c>
       <c r="D2791" s="9">
-        <v>212.48</v>
+        <v>244.35</v>
       </c>
       <c r="E2791" s="2" t="s">
         <v>5865</v>
       </c>
       <c r="F2791" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2792" spans="1:6" x14ac:dyDescent="0.2">
@@ -74890,13 +74890,13 @@
         <v>8</v>
       </c>
       <c r="D2792" s="9">
-        <v>294.56</v>
+        <v>338.74</v>
       </c>
       <c r="E2792" s="2" t="s">
         <v>5865</v>
       </c>
       <c r="F2792" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2793" spans="1:6" x14ac:dyDescent="0.2">
@@ -74910,13 +74910,13 @@
         <v>8</v>
       </c>
       <c r="D2793" s="9">
-        <v>150.91</v>
+        <v>173.55</v>
       </c>
       <c r="E2793" s="2" t="s">
         <v>5865</v>
       </c>
       <c r="F2793" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2794" spans="1:6" x14ac:dyDescent="0.2">
@@ -74930,13 +74930,13 @@
         <v>8</v>
       </c>
       <c r="D2794" s="9">
-        <v>213.89</v>
+        <v>245.97</v>
       </c>
       <c r="E2794" s="2" t="s">
         <v>5865</v>
       </c>
       <c r="F2794" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2795" spans="1:6" x14ac:dyDescent="0.2">
@@ -74950,13 +74950,13 @@
         <v>8</v>
       </c>
       <c r="D2795" s="9">
-        <v>570.6</v>
+        <v>656.19</v>
       </c>
       <c r="E2795" s="2" t="s">
         <v>5886</v>
       </c>
       <c r="F2795" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2796" spans="1:6" x14ac:dyDescent="0.2">
@@ -74970,13 +74970,13 @@
         <v>8</v>
       </c>
       <c r="D2796" s="9">
-        <v>599.55999999999995</v>
+        <v>689.49</v>
       </c>
       <c r="E2796" s="2" t="s">
         <v>5886</v>
       </c>
       <c r="F2796" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2797" spans="1:6" x14ac:dyDescent="0.2">
@@ -74990,13 +74990,13 @@
         <v>8</v>
       </c>
       <c r="D2797" s="9">
-        <v>764.98</v>
+        <v>879.73</v>
       </c>
       <c r="E2797" s="2" t="s">
         <v>5886</v>
       </c>
       <c r="F2797" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2798" spans="1:6" x14ac:dyDescent="0.2">
@@ -75030,13 +75030,13 @@
         <v>64</v>
       </c>
       <c r="D2799" s="9">
-        <v>81.400000000000006</v>
+        <v>93.61</v>
       </c>
       <c r="E2799" s="2" t="s">
         <v>5895</v>
       </c>
       <c r="F2799" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2800" spans="1:6" x14ac:dyDescent="0.2">
@@ -75050,13 +75050,13 @@
         <v>8</v>
       </c>
       <c r="D2800" s="9">
-        <v>116.19</v>
+        <v>133.62</v>
       </c>
       <c r="E2800" s="2" t="s">
         <v>5895</v>
       </c>
       <c r="F2800" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2801" spans="1:6" x14ac:dyDescent="0.2">
@@ -75070,13 +75070,13 @@
         <v>8</v>
       </c>
       <c r="D2801" s="9">
-        <v>132.21</v>
+        <v>152.04</v>
       </c>
       <c r="E2801" s="2" t="s">
         <v>5895</v>
       </c>
       <c r="F2801" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2802" spans="1:6" x14ac:dyDescent="0.2">
@@ -75190,13 +75190,13 @@
         <v>64</v>
       </c>
       <c r="D2807" s="9">
-        <v>1264.43</v>
+        <v>1454.09</v>
       </c>
       <c r="E2807" s="2" t="s">
         <v>5913</v>
       </c>
       <c r="F2807" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2808" spans="1:6" x14ac:dyDescent="0.2">
@@ -75210,13 +75210,13 @@
         <v>64</v>
       </c>
       <c r="D2808" s="9">
-        <v>2245.6</v>
+        <v>2582.44</v>
       </c>
       <c r="E2808" s="2" t="s">
         <v>5913</v>
       </c>
       <c r="F2808" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2809" spans="1:6" x14ac:dyDescent="0.2">
@@ -75230,13 +75230,13 @@
         <v>64</v>
       </c>
       <c r="D2809" s="9">
-        <v>2921.69</v>
+        <v>3359.94</v>
       </c>
       <c r="E2809" s="2" t="s">
         <v>5913</v>
       </c>
       <c r="F2809" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2810" spans="1:6" x14ac:dyDescent="0.2">
@@ -75250,13 +75250,13 @@
         <v>64</v>
       </c>
       <c r="D2810" s="9">
-        <v>912.6</v>
+        <v>1049.49</v>
       </c>
       <c r="E2810" s="2" t="s">
         <v>5920</v>
       </c>
       <c r="F2810" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2811" spans="1:6" x14ac:dyDescent="0.2">
@@ -75270,13 +75270,13 @@
         <v>8</v>
       </c>
       <c r="D2811" s="9">
-        <v>869.14</v>
+        <v>999.51</v>
       </c>
       <c r="E2811" s="2" t="s">
         <v>5920</v>
       </c>
       <c r="F2811" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2812" spans="1:6" x14ac:dyDescent="0.2">
@@ -75290,13 +75290,13 @@
         <v>8</v>
       </c>
       <c r="D2812" s="9">
-        <v>1626.85</v>
+        <v>1870.88</v>
       </c>
       <c r="E2812" s="2" t="s">
         <v>5920</v>
       </c>
       <c r="F2812" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2813" spans="1:6" x14ac:dyDescent="0.2">
@@ -75310,13 +75310,13 @@
         <v>8</v>
       </c>
       <c r="D2813" s="9">
-        <v>1626.85</v>
+        <v>1870.88</v>
       </c>
       <c r="E2813" s="2" t="s">
         <v>5920</v>
       </c>
       <c r="F2813" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2814" spans="1:6" x14ac:dyDescent="0.2">
@@ -75330,13 +75330,13 @@
         <v>8</v>
       </c>
       <c r="D2814" s="9">
-        <v>483</v>
+        <v>555.45000000000005</v>
       </c>
       <c r="E2814" s="2" t="s">
         <v>5929</v>
       </c>
       <c r="F2814" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2815" spans="1:6" x14ac:dyDescent="0.2">
@@ -75350,13 +75350,13 @@
         <v>8</v>
       </c>
       <c r="D2815" s="9">
-        <v>633.52</v>
+        <v>728.55</v>
       </c>
       <c r="E2815" s="2" t="s">
         <v>5929</v>
       </c>
       <c r="F2815" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2816" spans="1:6" x14ac:dyDescent="0.2">
@@ -75370,13 +75370,13 @@
         <v>8</v>
       </c>
       <c r="D2816" s="9">
-        <v>801.83</v>
+        <v>922.1</v>
       </c>
       <c r="E2816" s="2" t="s">
         <v>5929</v>
       </c>
       <c r="F2816" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2817" spans="1:6" x14ac:dyDescent="0.2">
@@ -75390,13 +75390,13 @@
         <v>8</v>
       </c>
       <c r="D2817" s="9">
-        <v>734.13</v>
+        <v>844.25</v>
       </c>
       <c r="E2817" s="2" t="s">
         <v>5936</v>
       </c>
       <c r="F2817" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2818" spans="1:6" x14ac:dyDescent="0.2">
@@ -75410,13 +75410,13 @@
         <v>8</v>
       </c>
       <c r="D2818" s="9">
-        <v>1209.43</v>
+        <v>1390.84</v>
       </c>
       <c r="E2818" s="2" t="s">
         <v>5936</v>
       </c>
       <c r="F2818" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2819" spans="1:6" x14ac:dyDescent="0.2">
@@ -75430,13 +75430,13 @@
         <v>32</v>
       </c>
       <c r="D2819" s="9">
-        <v>1519.52</v>
+        <v>1747.45</v>
       </c>
       <c r="E2819" s="2" t="s">
         <v>5936</v>
       </c>
       <c r="F2819" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2820" spans="1:6" x14ac:dyDescent="0.2">
@@ -75450,13 +75450,13 @@
         <v>32</v>
       </c>
       <c r="D2820" s="9">
-        <v>1358.61</v>
+        <v>1562.4</v>
       </c>
       <c r="E2820" s="2" t="s">
         <v>5936</v>
       </c>
       <c r="F2820" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2821" spans="1:6" x14ac:dyDescent="0.2">
@@ -75510,13 +75510,13 @@
         <v>64</v>
       </c>
       <c r="D2823" s="9">
-        <v>839.74</v>
+        <v>965.7</v>
       </c>
       <c r="E2823" s="2" t="s">
         <v>5950</v>
       </c>
       <c r="F2823" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2824" spans="1:6" x14ac:dyDescent="0.2">
@@ -75530,13 +75530,13 @@
         <v>8</v>
       </c>
       <c r="D2824" s="9">
-        <v>770.6</v>
+        <v>886.19</v>
       </c>
       <c r="E2824" s="2" t="s">
         <v>5950</v>
       </c>
       <c r="F2824" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2825" spans="1:6" x14ac:dyDescent="0.2">
@@ -75550,13 +75550,13 @@
         <v>64</v>
       </c>
       <c r="D2825" s="9">
-        <v>838.57</v>
+        <v>964.36</v>
       </c>
       <c r="E2825" s="2" t="s">
         <v>5950</v>
       </c>
       <c r="F2825" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2826" spans="1:6" x14ac:dyDescent="0.2">
@@ -75570,13 +75570,13 @@
         <v>8</v>
       </c>
       <c r="D2826" s="9">
-        <v>1283.6099999999999</v>
+        <v>1476.15</v>
       </c>
       <c r="E2826" s="2" t="s">
         <v>5950</v>
       </c>
       <c r="F2826" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2827" spans="1:6" x14ac:dyDescent="0.2">
@@ -75590,13 +75590,13 @@
         <v>64</v>
       </c>
       <c r="D2827" s="9">
-        <v>1195.26</v>
+        <v>1374.55</v>
       </c>
       <c r="E2827" s="2" t="s">
         <v>5950</v>
       </c>
       <c r="F2827" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2828" spans="1:6" x14ac:dyDescent="0.2">
@@ -75610,13 +75610,13 @@
         <v>64</v>
       </c>
       <c r="D2828" s="9">
-        <v>905.13</v>
+        <v>1040.9000000000001</v>
       </c>
       <c r="E2828" s="2" t="s">
         <v>5950</v>
       </c>
       <c r="F2828" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2829" spans="1:6" x14ac:dyDescent="0.2">
@@ -75630,13 +75630,13 @@
         <v>64</v>
       </c>
       <c r="D2829" s="9">
-        <v>1771.04</v>
+        <v>2036.7</v>
       </c>
       <c r="E2829" s="2" t="s">
         <v>5950</v>
       </c>
       <c r="F2829" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2830" spans="1:6" x14ac:dyDescent="0.2">
@@ -75650,13 +75650,13 @@
         <v>64</v>
       </c>
       <c r="D2830" s="9">
-        <v>1966.77</v>
+        <v>2261.79</v>
       </c>
       <c r="E2830" s="2" t="s">
         <v>5950</v>
       </c>
       <c r="F2830" s="3">
-        <v>45138</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2831" spans="1:6" x14ac:dyDescent="0.2">
@@ -75830,13 +75830,13 @@
         <v>64</v>
       </c>
       <c r="D2839" s="9">
-        <v>9114.2900000000009</v>
+        <v>10481.43</v>
       </c>
       <c r="E2839" s="2" t="s">
         <v>5984</v>
       </c>
       <c r="F2839" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2840" spans="1:6" x14ac:dyDescent="0.2">
@@ -75850,13 +75850,13 @@
         <v>64</v>
       </c>
       <c r="D2840" s="9">
-        <v>9114.2900000000009</v>
+        <v>10481.43</v>
       </c>
       <c r="E2840" s="2" t="s">
         <v>5984</v>
       </c>
       <c r="F2840" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2841" spans="1:6" x14ac:dyDescent="0.2">
@@ -75870,13 +75870,13 @@
         <v>64</v>
       </c>
       <c r="D2841" s="9">
-        <v>9114.2900000000009</v>
+        <v>10481.43</v>
       </c>
       <c r="E2841" s="2" t="s">
         <v>5984</v>
       </c>
       <c r="F2841" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2842" spans="1:6" x14ac:dyDescent="0.2">
@@ -75890,13 +75890,13 @@
         <v>64</v>
       </c>
       <c r="D2842" s="9">
-        <v>9114.2900000000009</v>
+        <v>10481.43</v>
       </c>
       <c r="E2842" s="2" t="s">
         <v>5984</v>
       </c>
       <c r="F2842" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2843" spans="1:6" x14ac:dyDescent="0.2">
@@ -75928,13 +75928,13 @@
       </c>
       <c r="C2844" s="2"/>
       <c r="D2844" s="9">
-        <v>9114.2900000000009</v>
+        <v>10481.43</v>
       </c>
       <c r="E2844" s="2" t="s">
         <v>5984</v>
       </c>
       <c r="F2844" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2845" spans="1:6" x14ac:dyDescent="0.2">
@@ -75948,13 +75948,13 @@
         <v>836</v>
       </c>
       <c r="D2845" s="9">
-        <v>2559.3000000000002</v>
+        <v>2565</v>
       </c>
       <c r="E2845" s="2" t="s">
         <v>5997</v>
       </c>
       <c r="F2845" s="3">
-        <v>45141</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2846" spans="1:6" x14ac:dyDescent="0.2">
@@ -75988,13 +75988,13 @@
         <v>64</v>
       </c>
       <c r="D2847" s="9">
-        <v>2365.5</v>
+        <v>2375</v>
       </c>
       <c r="E2847" s="2" t="s">
         <v>5997</v>
       </c>
       <c r="F2847" s="3">
-        <v>45141</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2848" spans="1:6" x14ac:dyDescent="0.2">
@@ -77148,13 +77148,13 @@
         <v>64</v>
       </c>
       <c r="D2905" s="9">
-        <v>412.12</v>
+        <v>473.94</v>
       </c>
       <c r="E2905" s="2" t="s">
         <v>6129</v>
       </c>
       <c r="F2905" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2906" spans="1:6" x14ac:dyDescent="0.2">
@@ -77168,13 +77168,13 @@
         <v>64</v>
       </c>
       <c r="D2906" s="9">
-        <v>3024.72</v>
+        <v>3478.43</v>
       </c>
       <c r="E2906" s="2" t="s">
         <v>6129</v>
       </c>
       <c r="F2906" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2907" spans="1:6" x14ac:dyDescent="0.2">
@@ -77188,13 +77188,13 @@
         <v>64</v>
       </c>
       <c r="D2907" s="9">
-        <v>3256.71</v>
+        <v>3745.22</v>
       </c>
       <c r="E2907" s="2" t="s">
         <v>6129</v>
       </c>
       <c r="F2907" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2908" spans="1:6" x14ac:dyDescent="0.2">
@@ -77208,13 +77208,13 @@
         <v>64</v>
       </c>
       <c r="D2908" s="9">
-        <v>1302.42</v>
+        <v>1497.78</v>
       </c>
       <c r="E2908" s="2" t="s">
         <v>6129</v>
       </c>
       <c r="F2908" s="3">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="2909" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel-files/fg.xlsx
+++ b/excel-files/fg.xlsx
@@ -26885,13 +26885,13 @@
         <v>64</v>
       </c>
       <c r="D392" s="9">
-        <v>287.45999999999998</v>
+        <v>304.70999999999998</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>803</v>
       </c>
       <c r="F392" s="3">
-        <v>45175</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
@@ -29465,13 +29465,13 @@
         <v>927</v>
       </c>
       <c r="D521" s="9">
-        <v>149.80000000000001</v>
+        <v>179.76</v>
       </c>
       <c r="E521" s="2" t="s">
         <v>1056</v>
       </c>
       <c r="F521" s="3">
-        <v>45152</v>
+        <v>45183</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.2">
@@ -30705,13 +30705,13 @@
         <v>64</v>
       </c>
       <c r="D583" s="9">
-        <v>4424.2</v>
+        <v>4645.41</v>
       </c>
       <c r="E583" s="2" t="s">
         <v>1172</v>
       </c>
       <c r="F583" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.2">
@@ -30725,13 +30725,13 @@
         <v>64</v>
       </c>
       <c r="D584" s="9">
-        <v>5132.0600000000004</v>
+        <v>5388.67</v>
       </c>
       <c r="E584" s="2" t="s">
         <v>1172</v>
       </c>
       <c r="F584" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.2">
@@ -30745,13 +30745,13 @@
         <v>64</v>
       </c>
       <c r="D585" s="9">
-        <v>5134.32</v>
+        <v>5391.04</v>
       </c>
       <c r="E585" s="2" t="s">
         <v>1172</v>
       </c>
       <c r="F585" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.2">
@@ -30765,13 +30765,13 @@
         <v>64</v>
       </c>
       <c r="D586" s="9">
-        <v>1866.65</v>
+        <v>1959.99</v>
       </c>
       <c r="E586" s="2" t="s">
         <v>1172</v>
       </c>
       <c r="F586" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.2">
@@ -32083,13 +32083,13 @@
         <v>64</v>
       </c>
       <c r="D652" s="9">
-        <v>28519</v>
+        <v>33753.5</v>
       </c>
       <c r="E652" s="2" t="s">
         <v>1339</v>
       </c>
       <c r="F652" s="3">
-        <v>45156</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.2">
@@ -32103,13 +32103,13 @@
         <v>64</v>
       </c>
       <c r="D653" s="9">
-        <v>41587.199999999997</v>
+        <v>48735</v>
       </c>
       <c r="E653" s="2" t="s">
         <v>1339</v>
       </c>
       <c r="F653" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.2">
@@ -32123,13 +32123,13 @@
         <v>64</v>
       </c>
       <c r="D654" s="9">
-        <v>53933.4</v>
+        <v>63175</v>
       </c>
       <c r="E654" s="2" t="s">
         <v>1339</v>
       </c>
       <c r="F654" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.2">
@@ -32143,13 +32143,13 @@
         <v>64</v>
       </c>
       <c r="D655" s="9">
-        <v>4711.0600000000004</v>
+        <v>5324.75</v>
       </c>
       <c r="E655" s="2" t="s">
         <v>1339</v>
       </c>
       <c r="F655" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.2">
@@ -32163,13 +32163,13 @@
         <v>523</v>
       </c>
       <c r="D656" s="9">
-        <v>595.66</v>
+        <v>676.88</v>
       </c>
       <c r="E656" s="2" t="s">
         <v>1339</v>
       </c>
       <c r="F656" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.2">
@@ -32183,13 +32183,13 @@
         <v>64</v>
       </c>
       <c r="D657" s="9">
-        <v>1819.44</v>
+        <v>2075.75</v>
       </c>
       <c r="E657" s="2" t="s">
         <v>1339</v>
       </c>
       <c r="F657" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.2">
@@ -32203,13 +32203,13 @@
         <v>523</v>
       </c>
       <c r="D658" s="9">
-        <v>1332.1</v>
+        <v>1498.15</v>
       </c>
       <c r="E658" s="2" t="s">
         <v>1339</v>
       </c>
       <c r="F658" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.2">
@@ -32243,13 +32243,13 @@
         <v>64</v>
       </c>
       <c r="D660" s="9">
-        <v>823.08</v>
+        <v>929.58</v>
       </c>
       <c r="E660" s="2" t="s">
         <v>1339</v>
       </c>
       <c r="F660" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.2">
@@ -32263,13 +32263,13 @@
         <v>64</v>
       </c>
       <c r="D661" s="9">
-        <v>5090.1000000000004</v>
+        <v>5776</v>
       </c>
       <c r="E661" s="2" t="s">
         <v>1339</v>
       </c>
       <c r="F661" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.2">
@@ -32283,13 +32283,13 @@
         <v>64</v>
       </c>
       <c r="D662" s="9">
-        <v>3086.56</v>
+        <v>3519.75</v>
       </c>
       <c r="E662" s="2" t="s">
         <v>1339</v>
       </c>
       <c r="F662" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.2">
@@ -32303,13 +32303,13 @@
         <v>64</v>
       </c>
       <c r="D663" s="9">
-        <v>823.08</v>
+        <v>929.58</v>
       </c>
       <c r="E663" s="2" t="s">
         <v>1339</v>
       </c>
       <c r="F663" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.2">
@@ -32323,13 +32323,13 @@
         <v>64</v>
       </c>
       <c r="D664" s="9">
-        <v>7093.66</v>
+        <v>8032.25</v>
       </c>
       <c r="E664" s="2" t="s">
         <v>1339</v>
       </c>
       <c r="F664" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.2">
@@ -45301,13 +45301,13 @@
         <v>64</v>
       </c>
       <c r="D1313" s="9">
-        <v>6684.16</v>
+        <v>7619.95</v>
       </c>
       <c r="E1313" s="2" t="s">
         <v>2736</v>
       </c>
       <c r="F1313" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="1314" spans="1:6" x14ac:dyDescent="0.2">
@@ -45321,13 +45321,13 @@
         <v>64</v>
       </c>
       <c r="D1314" s="9">
-        <v>7856.5</v>
+        <v>8956.41</v>
       </c>
       <c r="E1314" s="2" t="s">
         <v>2736</v>
       </c>
       <c r="F1314" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="1315" spans="1:6" x14ac:dyDescent="0.2">
@@ -45341,13 +45341,13 @@
         <v>64</v>
       </c>
       <c r="D1315" s="9">
-        <v>3442.43</v>
+        <v>3924.37</v>
       </c>
       <c r="E1315" s="2" t="s">
         <v>2736</v>
       </c>
       <c r="F1315" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="1316" spans="1:6" x14ac:dyDescent="0.2">
@@ -45361,13 +45361,13 @@
         <v>64</v>
       </c>
       <c r="D1316" s="9">
-        <v>4730.2299999999996</v>
+        <v>5392.47</v>
       </c>
       <c r="E1316" s="2" t="s">
         <v>2736</v>
       </c>
       <c r="F1316" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="1317" spans="1:6" x14ac:dyDescent="0.2">
@@ -45381,13 +45381,13 @@
         <v>64</v>
       </c>
       <c r="D1317" s="9">
-        <v>5590.16</v>
+        <v>6372.79</v>
       </c>
       <c r="E1317" s="2" t="s">
         <v>2736</v>
       </c>
       <c r="F1317" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="1318" spans="1:6" x14ac:dyDescent="0.2">
@@ -45401,13 +45401,13 @@
         <v>64</v>
       </c>
       <c r="D1318" s="9">
-        <v>12637.49</v>
+        <v>14406.74</v>
       </c>
       <c r="E1318" s="2" t="s">
         <v>2736</v>
       </c>
       <c r="F1318" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="1319" spans="1:6" x14ac:dyDescent="0.2">
@@ -45421,13 +45421,13 @@
         <v>64</v>
       </c>
       <c r="D1319" s="9">
-        <v>13447.84</v>
+        <v>15330.54</v>
       </c>
       <c r="E1319" s="2" t="s">
         <v>2736</v>
       </c>
       <c r="F1319" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="1320" spans="1:6" x14ac:dyDescent="0.2">
@@ -45521,13 +45521,13 @@
         <v>64</v>
       </c>
       <c r="D1324" s="9">
-        <v>25647.82</v>
+        <v>29238.52</v>
       </c>
       <c r="E1324" s="2" t="s">
         <v>2759</v>
       </c>
       <c r="F1324" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="1325" spans="1:6" x14ac:dyDescent="0.2">
@@ -45541,13 +45541,13 @@
         <v>64</v>
       </c>
       <c r="D1325" s="9">
-        <v>25647.82</v>
+        <v>29238.52</v>
       </c>
       <c r="E1325" s="2" t="s">
         <v>2759</v>
       </c>
       <c r="F1325" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="1326" spans="1:6" x14ac:dyDescent="0.2">
@@ -45601,13 +45601,13 @@
         <v>64</v>
       </c>
       <c r="D1328" s="9">
-        <v>21460.6</v>
+        <v>23019.54</v>
       </c>
       <c r="E1328" s="2" t="s">
         <v>2769</v>
       </c>
       <c r="F1328" s="3">
-        <v>45173</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="1329" spans="1:6" x14ac:dyDescent="0.2">
@@ -48121,13 +48121,13 @@
         <v>32</v>
       </c>
       <c r="D1454" s="9">
-        <v>1012.88</v>
+        <v>1296.81</v>
       </c>
       <c r="E1454" s="2" t="s">
         <v>3028</v>
       </c>
       <c r="F1454" s="3">
-        <v>45152</v>
+        <v>45183</v>
       </c>
     </row>
     <row r="1455" spans="1:6" x14ac:dyDescent="0.2">
@@ -48141,13 +48141,13 @@
         <v>32</v>
       </c>
       <c r="D1455" s="9">
-        <v>1012.88</v>
+        <v>1240.8800000000001</v>
       </c>
       <c r="E1455" s="2" t="s">
         <v>3028</v>
       </c>
       <c r="F1455" s="3">
-        <v>45152</v>
+        <v>45183</v>
       </c>
     </row>
     <row r="1456" spans="1:6" x14ac:dyDescent="0.2">
@@ -48341,13 +48341,13 @@
         <v>927</v>
       </c>
       <c r="D1465" s="9">
-        <v>221.39</v>
+        <v>232.46</v>
       </c>
       <c r="E1465" s="2" t="s">
         <v>3049</v>
       </c>
       <c r="F1465" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="1466" spans="1:6" x14ac:dyDescent="0.2">
@@ -48361,13 +48361,13 @@
         <v>8</v>
       </c>
       <c r="D1466" s="9">
-        <v>241.45</v>
+        <v>253.53</v>
       </c>
       <c r="E1466" s="2" t="s">
         <v>3049</v>
       </c>
       <c r="F1466" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="1467" spans="1:6" x14ac:dyDescent="0.2">
@@ -49721,13 +49721,13 @@
         <v>64</v>
       </c>
       <c r="D1534" s="9">
-        <v>9348.23</v>
+        <v>10283.06</v>
       </c>
       <c r="E1534" s="2" t="s">
         <v>3189</v>
       </c>
       <c r="F1534" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="1535" spans="1:6" x14ac:dyDescent="0.2">
@@ -49741,13 +49741,13 @@
         <v>64</v>
       </c>
       <c r="D1535" s="9">
-        <v>11618.53</v>
+        <v>12780.39</v>
       </c>
       <c r="E1535" s="2" t="s">
         <v>3189</v>
       </c>
       <c r="F1535" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="1536" spans="1:6" x14ac:dyDescent="0.2">
@@ -49761,13 +49761,13 @@
         <v>64</v>
       </c>
       <c r="D1536" s="9">
-        <v>14690.08</v>
+        <v>16159.09</v>
       </c>
       <c r="E1536" s="2" t="s">
         <v>3189</v>
       </c>
       <c r="F1536" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="1537" spans="1:6" x14ac:dyDescent="0.2">
@@ -49781,13 +49781,13 @@
         <v>64</v>
       </c>
       <c r="D1537" s="9">
-        <v>32714.880000000001</v>
+        <v>35986.370000000003</v>
       </c>
       <c r="E1537" s="2" t="s">
         <v>3189</v>
       </c>
       <c r="F1537" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="1538" spans="1:6" x14ac:dyDescent="0.2">
@@ -49801,13 +49801,13 @@
         <v>64</v>
       </c>
       <c r="D1538" s="9">
-        <v>40863.370000000003</v>
+        <v>44949.71</v>
       </c>
       <c r="E1538" s="2" t="s">
         <v>3189</v>
       </c>
       <c r="F1538" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="1539" spans="1:6" x14ac:dyDescent="0.2">
@@ -49821,13 +49821,13 @@
         <v>64</v>
       </c>
       <c r="D1539" s="9">
-        <v>54444.160000000003</v>
+        <v>59888.58</v>
       </c>
       <c r="E1539" s="2" t="s">
         <v>3189</v>
       </c>
       <c r="F1539" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="1540" spans="1:6" x14ac:dyDescent="0.2">
@@ -53021,13 +53021,13 @@
         <v>8</v>
       </c>
       <c r="D1699" s="9">
-        <v>921.17</v>
+        <v>992.7</v>
       </c>
       <c r="E1699" s="2" t="s">
         <v>3556</v>
       </c>
       <c r="F1699" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="1700" spans="1:6" x14ac:dyDescent="0.2">
@@ -53101,13 +53101,13 @@
         <v>8</v>
       </c>
       <c r="D1703" s="9">
-        <v>1479.72</v>
+        <v>1569.84</v>
       </c>
       <c r="E1703" s="2" t="s">
         <v>3556</v>
       </c>
       <c r="F1703" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="1704" spans="1:6" x14ac:dyDescent="0.2">
@@ -57381,13 +57381,13 @@
         <v>8</v>
       </c>
       <c r="D1917" s="9">
-        <v>879.5</v>
+        <v>1002.63</v>
       </c>
       <c r="E1917" s="2" t="s">
         <v>4011</v>
       </c>
       <c r="F1917" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="1918" spans="1:6" x14ac:dyDescent="0.2">
@@ -57421,13 +57421,13 @@
         <v>8</v>
       </c>
       <c r="D1919" s="9">
-        <v>959.44</v>
+        <v>1093.77</v>
       </c>
       <c r="E1919" s="2" t="s">
         <v>4011</v>
       </c>
       <c r="F1919" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="1920" spans="1:6" x14ac:dyDescent="0.2">
@@ -59061,13 +59061,13 @@
         <v>8</v>
       </c>
       <c r="D2001" s="9">
-        <v>810.37</v>
+        <v>891.41</v>
       </c>
       <c r="E2001" s="2" t="s">
         <v>4190</v>
       </c>
       <c r="F2001" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2002" spans="1:6" x14ac:dyDescent="0.2">
@@ -59081,13 +59081,13 @@
         <v>8</v>
       </c>
       <c r="D2002" s="9">
-        <v>1001.8</v>
+        <v>1101.98</v>
       </c>
       <c r="E2002" s="2" t="s">
         <v>4190</v>
       </c>
       <c r="F2002" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2003" spans="1:6" x14ac:dyDescent="0.2">
@@ -59101,13 +59101,13 @@
         <v>836</v>
       </c>
       <c r="D2003" s="9">
-        <v>1384.33</v>
+        <v>1522.77</v>
       </c>
       <c r="E2003" s="2" t="s">
         <v>4190</v>
       </c>
       <c r="F2003" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2004" spans="1:6" x14ac:dyDescent="0.2">
@@ -59121,13 +59121,13 @@
         <v>8</v>
       </c>
       <c r="D2004" s="9">
-        <v>897.31</v>
+        <v>987.05</v>
       </c>
       <c r="E2004" s="2" t="s">
         <v>4197</v>
       </c>
       <c r="F2004" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2005" spans="1:6" x14ac:dyDescent="0.2">
@@ -59141,13 +59141,13 @@
         <v>32</v>
       </c>
       <c r="D2005" s="9">
-        <v>1172.9000000000001</v>
+        <v>1290.19</v>
       </c>
       <c r="E2005" s="2" t="s">
         <v>4197</v>
       </c>
       <c r="F2005" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2006" spans="1:6" x14ac:dyDescent="0.2">
@@ -59161,13 +59161,13 @@
         <v>8</v>
       </c>
       <c r="D2006" s="9">
-        <v>767.26</v>
+        <v>843.99</v>
       </c>
       <c r="E2006" s="2" t="s">
         <v>4202</v>
       </c>
       <c r="F2006" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2007" spans="1:6" x14ac:dyDescent="0.2">
@@ -59181,13 +59181,13 @@
         <v>8</v>
       </c>
       <c r="D2007" s="9">
-        <v>1082.6500000000001</v>
+        <v>1190.92</v>
       </c>
       <c r="E2007" s="2" t="s">
         <v>4202</v>
       </c>
       <c r="F2007" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2008" spans="1:6" x14ac:dyDescent="0.2">
@@ -59201,13 +59201,13 @@
         <v>32</v>
       </c>
       <c r="D2008" s="9">
-        <v>2140.46</v>
+        <v>2354.5100000000002</v>
       </c>
       <c r="E2008" s="2" t="s">
         <v>4202</v>
       </c>
       <c r="F2008" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2009" spans="1:6" x14ac:dyDescent="0.2">
@@ -59221,13 +59221,13 @@
         <v>32</v>
       </c>
       <c r="D2009" s="9">
-        <v>3572.02</v>
+        <v>3929.23</v>
       </c>
       <c r="E2009" s="2" t="s">
         <v>4202</v>
       </c>
       <c r="F2009" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2010" spans="1:6" x14ac:dyDescent="0.2">
@@ -59241,13 +59241,13 @@
         <v>64</v>
       </c>
       <c r="D2010" s="9">
-        <v>6792.14</v>
+        <v>7471.36</v>
       </c>
       <c r="E2010" s="2" t="s">
         <v>4202</v>
       </c>
       <c r="F2010" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2011" spans="1:6" x14ac:dyDescent="0.2">
@@ -59261,13 +59261,13 @@
         <v>8</v>
       </c>
       <c r="D2011" s="9">
-        <v>1782.01</v>
+        <v>1960.22</v>
       </c>
       <c r="E2011" s="2" t="s">
         <v>4202</v>
       </c>
       <c r="F2011" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2012" spans="1:6" x14ac:dyDescent="0.2">
@@ -59281,13 +59281,13 @@
         <v>8</v>
       </c>
       <c r="D2012" s="9">
-        <v>2939.54</v>
+        <v>3233.5</v>
       </c>
       <c r="E2012" s="2" t="s">
         <v>4202</v>
       </c>
       <c r="F2012" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2013" spans="1:6" x14ac:dyDescent="0.2">
@@ -59301,13 +59301,13 @@
         <v>8</v>
       </c>
       <c r="D2013" s="9">
-        <v>1025.45</v>
+        <v>1128</v>
       </c>
       <c r="E2013" s="2" t="s">
         <v>4217</v>
       </c>
       <c r="F2013" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2014" spans="1:6" x14ac:dyDescent="0.2">
@@ -59321,13 +59321,13 @@
         <v>8</v>
       </c>
       <c r="D2014" s="9">
-        <v>1289.08</v>
+        <v>1417.99</v>
       </c>
       <c r="E2014" s="2" t="s">
         <v>4217</v>
       </c>
       <c r="F2014" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2015" spans="1:6" x14ac:dyDescent="0.2">
@@ -59341,13 +59341,13 @@
         <v>32</v>
       </c>
       <c r="D2015" s="9">
-        <v>1945.15</v>
+        <v>2139.67</v>
       </c>
       <c r="E2015" s="2" t="s">
         <v>4217</v>
       </c>
       <c r="F2015" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2016" spans="1:6" x14ac:dyDescent="0.2">
@@ -59361,13 +59361,13 @@
         <v>64</v>
       </c>
       <c r="D2016" s="9">
-        <v>4554.7</v>
+        <v>5010.17</v>
       </c>
       <c r="E2016" s="2" t="s">
         <v>4217</v>
       </c>
       <c r="F2016" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2017" spans="1:6" x14ac:dyDescent="0.2">
@@ -59381,13 +59381,13 @@
         <v>64</v>
       </c>
       <c r="D2017" s="9">
-        <v>5788.06</v>
+        <v>6366.87</v>
       </c>
       <c r="E2017" s="2" t="s">
         <v>4217</v>
       </c>
       <c r="F2017" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2018" spans="1:6" x14ac:dyDescent="0.2">
@@ -59401,13 +59401,13 @@
         <v>64</v>
       </c>
       <c r="D2018" s="9">
-        <v>7342.14</v>
+        <v>8076.36</v>
       </c>
       <c r="E2018" s="2" t="s">
         <v>4217</v>
       </c>
       <c r="F2018" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2019" spans="1:6" x14ac:dyDescent="0.2">
@@ -59421,13 +59421,13 @@
         <v>8</v>
       </c>
       <c r="D2019" s="9">
-        <v>1668.94</v>
+        <v>1835.84</v>
       </c>
       <c r="E2019" s="2" t="s">
         <v>4230</v>
       </c>
       <c r="F2019" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2020" spans="1:6" x14ac:dyDescent="0.2">
@@ -59441,13 +59441,13 @@
         <v>32</v>
       </c>
       <c r="D2020" s="9">
-        <v>1909.49</v>
+        <v>2100.44</v>
       </c>
       <c r="E2020" s="2" t="s">
         <v>4230</v>
       </c>
       <c r="F2020" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2021" spans="1:6" x14ac:dyDescent="0.2">
@@ -59461,13 +59461,13 @@
         <v>64</v>
       </c>
       <c r="D2021" s="9">
-        <v>3610.31</v>
+        <v>3971.35</v>
       </c>
       <c r="E2021" s="2" t="s">
         <v>4230</v>
       </c>
       <c r="F2021" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2022" spans="1:6" x14ac:dyDescent="0.2">
@@ -59481,13 +59481,13 @@
         <v>64</v>
       </c>
       <c r="D2022" s="9">
-        <v>4441.3900000000003</v>
+        <v>4885.53</v>
       </c>
       <c r="E2022" s="2" t="s">
         <v>4230</v>
       </c>
       <c r="F2022" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2023" spans="1:6" x14ac:dyDescent="0.2">
@@ -59501,13 +59501,13 @@
         <v>64</v>
       </c>
       <c r="D2023" s="9">
-        <v>5527.91</v>
+        <v>6080.71</v>
       </c>
       <c r="E2023" s="2" t="s">
         <v>4230</v>
       </c>
       <c r="F2023" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2024" spans="1:6" x14ac:dyDescent="0.2">
@@ -60581,13 +60581,13 @@
         <v>8</v>
       </c>
       <c r="D2077" s="9">
-        <v>1749.42</v>
+        <v>1924.37</v>
       </c>
       <c r="E2077" s="2" t="s">
         <v>4350</v>
       </c>
       <c r="F2077" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2078" spans="1:6" x14ac:dyDescent="0.2">
@@ -60601,13 +60601,13 @@
         <v>32</v>
       </c>
       <c r="D2078" s="9">
-        <v>2164.6999999999998</v>
+        <v>2381.17</v>
       </c>
       <c r="E2078" s="2" t="s">
         <v>4350</v>
       </c>
       <c r="F2078" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2079" spans="1:6" x14ac:dyDescent="0.2">
@@ -60621,13 +60621,13 @@
         <v>64</v>
       </c>
       <c r="D2079" s="9">
-        <v>4518.79</v>
+        <v>4970.67</v>
       </c>
       <c r="E2079" s="2" t="s">
         <v>4350</v>
       </c>
       <c r="F2079" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2080" spans="1:6" x14ac:dyDescent="0.2">
@@ -60641,13 +60641,13 @@
         <v>64</v>
       </c>
       <c r="D2080" s="9">
-        <v>5005.22</v>
+        <v>5505.75</v>
       </c>
       <c r="E2080" s="2" t="s">
         <v>4350</v>
       </c>
       <c r="F2080" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2081" spans="1:6" x14ac:dyDescent="0.2">
@@ -60661,13 +60661,13 @@
         <v>64</v>
       </c>
       <c r="D2081" s="9">
-        <v>6953.45</v>
+        <v>7648.8</v>
       </c>
       <c r="E2081" s="2" t="s">
         <v>4350</v>
       </c>
       <c r="F2081" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2082" spans="1:6" x14ac:dyDescent="0.2">
@@ -62501,13 +62501,13 @@
         <v>64</v>
       </c>
       <c r="D2173" s="9">
-        <v>908.62</v>
+        <v>963.14</v>
       </c>
       <c r="E2173" s="2" t="s">
         <v>4547</v>
       </c>
       <c r="F2173" s="3">
-        <v>45175</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2174" spans="1:6" x14ac:dyDescent="0.2">
@@ -62521,13 +62521,13 @@
         <v>64</v>
       </c>
       <c r="D2174" s="9">
-        <v>908.62</v>
+        <v>963.14</v>
       </c>
       <c r="E2174" s="2" t="s">
         <v>4547</v>
       </c>
       <c r="F2174" s="3">
-        <v>45175</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2175" spans="1:6" x14ac:dyDescent="0.2">
@@ -62541,13 +62541,13 @@
         <v>64</v>
       </c>
       <c r="D2175" s="9">
-        <v>1289.1400000000001</v>
+        <v>1366.49</v>
       </c>
       <c r="E2175" s="2" t="s">
         <v>4547</v>
       </c>
       <c r="F2175" s="3">
-        <v>45175</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2176" spans="1:6" x14ac:dyDescent="0.2">
@@ -62561,13 +62561,13 @@
         <v>64</v>
       </c>
       <c r="D2176" s="9">
-        <v>1168.03</v>
+        <v>1238.1199999999999</v>
       </c>
       <c r="E2176" s="2" t="s">
         <v>4547</v>
       </c>
       <c r="F2176" s="3">
-        <v>45175</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2177" spans="1:6" x14ac:dyDescent="0.2">
@@ -62621,13 +62621,13 @@
         <v>64</v>
       </c>
       <c r="D2179" s="9">
-        <v>1909.34</v>
+        <v>2023.9</v>
       </c>
       <c r="E2179" s="2" t="s">
         <v>4547</v>
       </c>
       <c r="F2179" s="3">
-        <v>45175</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2180" spans="1:6" x14ac:dyDescent="0.2">
@@ -62641,13 +62641,13 @@
         <v>64</v>
       </c>
       <c r="D2180" s="9">
-        <v>1131.32</v>
+        <v>1199.2</v>
       </c>
       <c r="E2180" s="2" t="s">
         <v>4547</v>
       </c>
       <c r="F2180" s="3">
-        <v>45175</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2181" spans="1:6" x14ac:dyDescent="0.2">
@@ -62701,13 +62701,13 @@
         <v>2052</v>
       </c>
       <c r="D2183" s="9">
-        <v>5339.7</v>
+        <v>5606.69</v>
       </c>
       <c r="E2183" s="2" t="s">
         <v>4578</v>
       </c>
       <c r="F2183" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2184" spans="1:6" x14ac:dyDescent="0.2">
@@ -62721,13 +62721,13 @@
         <v>968</v>
       </c>
       <c r="D2184" s="9">
-        <v>234.71</v>
+        <v>246.45</v>
       </c>
       <c r="E2184" s="2" t="s">
         <v>4581</v>
       </c>
       <c r="F2184" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2185" spans="1:6" x14ac:dyDescent="0.2">
@@ -62741,13 +62741,13 @@
         <v>927</v>
       </c>
       <c r="D2185" s="9">
-        <v>559.87</v>
+        <v>587.87</v>
       </c>
       <c r="E2185" s="2" t="s">
         <v>4581</v>
       </c>
       <c r="F2185" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2186" spans="1:6" x14ac:dyDescent="0.2">
@@ -62761,13 +62761,13 @@
         <v>927</v>
       </c>
       <c r="D2186" s="9">
-        <v>469.4</v>
+        <v>492.87</v>
       </c>
       <c r="E2186" s="2" t="s">
         <v>4581</v>
       </c>
       <c r="F2186" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2187" spans="1:6" x14ac:dyDescent="0.2">
@@ -62781,13 +62781,13 @@
         <v>8</v>
       </c>
       <c r="D2187" s="9">
-        <v>455.81</v>
+        <v>478.6</v>
       </c>
       <c r="E2187" s="2" t="s">
         <v>4581</v>
       </c>
       <c r="F2187" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2188" spans="1:6" x14ac:dyDescent="0.2">
@@ -62801,13 +62801,13 @@
         <v>8</v>
       </c>
       <c r="D2188" s="9">
-        <v>911.29</v>
+        <v>956.86</v>
       </c>
       <c r="E2188" s="2" t="s">
         <v>4581</v>
       </c>
       <c r="F2188" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2189" spans="1:6" x14ac:dyDescent="0.2">
@@ -62821,13 +62821,13 @@
         <v>8</v>
       </c>
       <c r="D2189" s="9">
-        <v>911.29</v>
+        <v>956.86</v>
       </c>
       <c r="E2189" s="2" t="s">
         <v>4581</v>
       </c>
       <c r="F2189" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2190" spans="1:6" x14ac:dyDescent="0.2">
@@ -62841,13 +62841,13 @@
         <v>8</v>
       </c>
       <c r="D2190" s="9">
-        <v>455.81</v>
+        <v>478.6</v>
       </c>
       <c r="E2190" s="2" t="s">
         <v>4581</v>
       </c>
       <c r="F2190" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2191" spans="1:6" x14ac:dyDescent="0.2">
@@ -62861,13 +62861,13 @@
         <v>8</v>
       </c>
       <c r="D2191" s="9">
-        <v>911.29</v>
+        <v>956.86</v>
       </c>
       <c r="E2191" s="2" t="s">
         <v>4581</v>
       </c>
       <c r="F2191" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2192" spans="1:6" x14ac:dyDescent="0.2">
@@ -62881,13 +62881,13 @@
         <v>8</v>
       </c>
       <c r="D2192" s="9">
-        <v>911.29</v>
+        <v>956.86</v>
       </c>
       <c r="E2192" s="2" t="s">
         <v>4581</v>
       </c>
       <c r="F2192" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2193" spans="1:6" x14ac:dyDescent="0.2">
@@ -62901,13 +62901,13 @@
         <v>968</v>
       </c>
       <c r="D2193" s="9">
-        <v>234.71</v>
+        <v>246.45</v>
       </c>
       <c r="E2193" s="2" t="s">
         <v>4581</v>
       </c>
       <c r="F2193" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2194" spans="1:6" x14ac:dyDescent="0.2">
@@ -62921,13 +62921,13 @@
         <v>927</v>
       </c>
       <c r="D2194" s="9">
-        <v>469.4</v>
+        <v>492.87</v>
       </c>
       <c r="E2194" s="2" t="s">
         <v>4581</v>
       </c>
       <c r="F2194" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2195" spans="1:6" x14ac:dyDescent="0.2">
@@ -62941,13 +62941,13 @@
         <v>927</v>
       </c>
       <c r="D2195" s="9">
-        <v>430.64</v>
+        <v>452.18</v>
       </c>
       <c r="E2195" s="2" t="s">
         <v>4581</v>
       </c>
       <c r="F2195" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2196" spans="1:6" x14ac:dyDescent="0.2">
@@ -62961,13 +62961,13 @@
         <v>968</v>
       </c>
       <c r="D2196" s="9">
-        <v>284.45</v>
+        <v>305.24</v>
       </c>
       <c r="E2196" s="2" t="s">
         <v>4606</v>
       </c>
       <c r="F2196" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2197" spans="1:6" x14ac:dyDescent="0.2">
@@ -62981,13 +62981,13 @@
         <v>2119</v>
       </c>
       <c r="D2197" s="9">
-        <v>1169.1500000000001</v>
+        <v>1227.6099999999999</v>
       </c>
       <c r="E2197" s="2" t="s">
         <v>4606</v>
       </c>
       <c r="F2197" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2198" spans="1:6" x14ac:dyDescent="0.2">
@@ -63001,13 +63001,13 @@
         <v>927</v>
       </c>
       <c r="D2198" s="9">
-        <v>599.72</v>
+        <v>629.71</v>
       </c>
       <c r="E2198" s="2" t="s">
         <v>4606</v>
       </c>
       <c r="F2198" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2199" spans="1:6" x14ac:dyDescent="0.2">
@@ -63021,13 +63021,13 @@
         <v>927</v>
       </c>
       <c r="D2199" s="9">
-        <v>413.56</v>
+        <v>434.24</v>
       </c>
       <c r="E2199" s="2" t="s">
         <v>4606</v>
       </c>
       <c r="F2199" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2200" spans="1:6" x14ac:dyDescent="0.2">
@@ -63041,13 +63041,13 @@
         <v>927</v>
       </c>
       <c r="D2200" s="9">
-        <v>375.94</v>
+        <v>394.74</v>
       </c>
       <c r="E2200" s="2" t="s">
         <v>4606</v>
       </c>
       <c r="F2200" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2201" spans="1:6" x14ac:dyDescent="0.2">
@@ -63061,13 +63061,13 @@
         <v>927</v>
       </c>
       <c r="D2201" s="9">
-        <v>477.71</v>
+        <v>501.6</v>
       </c>
       <c r="E2201" s="2" t="s">
         <v>4606</v>
       </c>
       <c r="F2201" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2202" spans="1:6" x14ac:dyDescent="0.2">
@@ -63881,13 +63881,13 @@
         <v>927</v>
       </c>
       <c r="D2242" s="9">
-        <v>51.32</v>
+        <v>92.61</v>
       </c>
       <c r="E2242" s="2" t="s">
         <v>4702</v>
       </c>
       <c r="F2242" s="3">
-        <v>45152</v>
+        <v>45183</v>
       </c>
     </row>
     <row r="2243" spans="1:6" x14ac:dyDescent="0.2">
@@ -64201,13 +64201,13 @@
         <v>64</v>
       </c>
       <c r="D2258" s="9">
-        <v>1142.22</v>
+        <v>1323.01</v>
       </c>
       <c r="E2258" s="2" t="s">
         <v>4740</v>
       </c>
       <c r="F2258" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2259" spans="1:6" x14ac:dyDescent="0.2">
@@ -65901,13 +65901,13 @@
         <v>8</v>
       </c>
       <c r="D2343" s="9">
-        <v>322.55</v>
+        <v>367.71</v>
       </c>
       <c r="E2343" s="2" t="s">
         <v>4911</v>
       </c>
       <c r="F2343" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="2344" spans="1:6" x14ac:dyDescent="0.2">
@@ -65921,13 +65921,13 @@
         <v>32</v>
       </c>
       <c r="D2344" s="9">
-        <v>598.55999999999995</v>
+        <v>682.36</v>
       </c>
       <c r="E2344" s="2" t="s">
         <v>4911</v>
       </c>
       <c r="F2344" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="2345" spans="1:6" x14ac:dyDescent="0.2">
@@ -65941,13 +65941,13 @@
         <v>8</v>
       </c>
       <c r="D2345" s="9">
-        <v>919.67</v>
+        <v>948.1</v>
       </c>
       <c r="E2345" s="2" t="s">
         <v>4911</v>
       </c>
       <c r="F2345" s="3">
-        <v>45176</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2346" spans="1:6" x14ac:dyDescent="0.2">
@@ -65961,13 +65961,13 @@
         <v>64</v>
       </c>
       <c r="D2346" s="9">
-        <v>2126.2600000000002</v>
+        <v>2423.94</v>
       </c>
       <c r="E2346" s="2" t="s">
         <v>4911</v>
       </c>
       <c r="F2346" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="2347" spans="1:6" x14ac:dyDescent="0.2">
@@ -65981,13 +65981,13 @@
         <v>64</v>
       </c>
       <c r="D2347" s="9">
-        <v>1274.8599999999999</v>
+        <v>1453.34</v>
       </c>
       <c r="E2347" s="2" t="s">
         <v>4911</v>
       </c>
       <c r="F2347" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="2348" spans="1:6" x14ac:dyDescent="0.2">
@@ -66001,13 +66001,13 @@
         <v>64</v>
       </c>
       <c r="D2348" s="9">
-        <v>464.26</v>
+        <v>529.26</v>
       </c>
       <c r="E2348" s="2" t="s">
         <v>4911</v>
       </c>
       <c r="F2348" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="2349" spans="1:6" x14ac:dyDescent="0.2">
@@ -66021,13 +66021,13 @@
         <v>8</v>
       </c>
       <c r="D2349" s="9">
-        <v>178.16</v>
+        <v>203.11</v>
       </c>
       <c r="E2349" s="2" t="s">
         <v>4911</v>
       </c>
       <c r="F2349" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="2350" spans="1:6" x14ac:dyDescent="0.2">
@@ -66041,13 +66041,13 @@
         <v>8</v>
       </c>
       <c r="D2350" s="9">
-        <v>243.74</v>
+        <v>277.87</v>
       </c>
       <c r="E2350" s="2" t="s">
         <v>4911</v>
       </c>
       <c r="F2350" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="2351" spans="1:6" x14ac:dyDescent="0.2">
@@ -66061,13 +66061,13 @@
         <v>64</v>
       </c>
       <c r="D2351" s="9">
-        <v>1218.1199999999999</v>
+        <v>1388.66</v>
       </c>
       <c r="E2351" s="2" t="s">
         <v>4911</v>
       </c>
       <c r="F2351" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="2352" spans="1:6" x14ac:dyDescent="0.2">
@@ -66081,13 +66081,13 @@
         <v>64</v>
       </c>
       <c r="D2352" s="9">
-        <v>3071.62</v>
+        <v>3501.65</v>
       </c>
       <c r="E2352" s="2" t="s">
         <v>4911</v>
       </c>
       <c r="F2352" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="2353" spans="1:6" x14ac:dyDescent="0.2">
@@ -66101,13 +66101,13 @@
         <v>64</v>
       </c>
       <c r="D2353" s="9">
-        <v>3071.62</v>
+        <v>3501.65</v>
       </c>
       <c r="E2353" s="2" t="s">
         <v>4911</v>
       </c>
       <c r="F2353" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="2354" spans="1:6" x14ac:dyDescent="0.2">
@@ -67421,13 +67421,13 @@
         <v>927</v>
       </c>
       <c r="D2419" s="9">
-        <v>36.71</v>
+        <v>45.38</v>
       </c>
       <c r="E2419" s="2" t="s">
         <v>5057</v>
       </c>
       <c r="F2419" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="2420" spans="1:6" x14ac:dyDescent="0.2">
@@ -67621,13 +67621,13 @@
         <v>8</v>
       </c>
       <c r="D2429" s="9">
-        <v>101.45</v>
+        <v>107.54</v>
       </c>
       <c r="E2429" s="2" t="s">
         <v>5082</v>
       </c>
       <c r="F2429" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2430" spans="1:6" x14ac:dyDescent="0.2">
@@ -67641,13 +67641,13 @@
         <v>8</v>
       </c>
       <c r="D2430" s="9">
-        <v>101.45</v>
+        <v>107.54</v>
       </c>
       <c r="E2430" s="2" t="s">
         <v>5082</v>
       </c>
       <c r="F2430" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2431" spans="1:6" x14ac:dyDescent="0.2">
@@ -67681,13 +67681,13 @@
         <v>64</v>
       </c>
       <c r="D2432" s="9">
-        <v>247.56</v>
+        <v>259.94</v>
       </c>
       <c r="E2432" s="2" t="s">
         <v>5082</v>
       </c>
       <c r="F2432" s="3">
-        <v>45175</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2433" spans="1:6" x14ac:dyDescent="0.2">
@@ -67701,13 +67701,13 @@
         <v>64</v>
       </c>
       <c r="D2433" s="9">
-        <v>247.56</v>
+        <v>259.94</v>
       </c>
       <c r="E2433" s="2" t="s">
         <v>5082</v>
       </c>
       <c r="F2433" s="3">
-        <v>45175</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2434" spans="1:6" x14ac:dyDescent="0.2">
@@ -68401,13 +68401,13 @@
         <v>64</v>
       </c>
       <c r="D2468" s="9">
-        <v>913.9</v>
+        <v>968.74</v>
       </c>
       <c r="E2468" s="2" t="s">
         <v>5177</v>
       </c>
       <c r="F2468" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2469" spans="1:6" x14ac:dyDescent="0.2">
@@ -68421,13 +68421,13 @@
         <v>64</v>
       </c>
       <c r="D2469" s="9">
-        <v>913.9</v>
+        <v>968.74</v>
       </c>
       <c r="E2469" s="2" t="s">
         <v>5177</v>
       </c>
       <c r="F2469" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2470" spans="1:6" x14ac:dyDescent="0.2">
@@ -68441,13 +68441,13 @@
         <v>64</v>
       </c>
       <c r="D2470" s="9">
-        <v>1100.4000000000001</v>
+        <v>1166.43</v>
       </c>
       <c r="E2470" s="2" t="s">
         <v>5177</v>
       </c>
       <c r="F2470" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2471" spans="1:6" x14ac:dyDescent="0.2">
@@ -68461,13 +68461,13 @@
         <v>64</v>
       </c>
       <c r="D2471" s="9">
-        <v>913.9</v>
+        <v>968.74</v>
       </c>
       <c r="E2471" s="2" t="s">
         <v>5184</v>
       </c>
       <c r="F2471" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2472" spans="1:6" x14ac:dyDescent="0.2">
@@ -68481,13 +68481,13 @@
         <v>64</v>
       </c>
       <c r="D2472" s="9">
-        <v>913.9</v>
+        <v>996.16</v>
       </c>
       <c r="E2472" s="2" t="s">
         <v>5184</v>
       </c>
       <c r="F2472" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2473" spans="1:6" x14ac:dyDescent="0.2">
@@ -68561,13 +68561,13 @@
         <v>64</v>
       </c>
       <c r="D2476" s="9">
-        <v>1718.2</v>
+        <v>1812.82</v>
       </c>
       <c r="E2476" s="2" t="s">
         <v>5196</v>
       </c>
       <c r="F2476" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2477" spans="1:6" x14ac:dyDescent="0.2">
@@ -68661,13 +68661,13 @@
         <v>64</v>
       </c>
       <c r="D2481" s="9">
-        <v>2825.39</v>
+        <v>3107.93</v>
       </c>
       <c r="E2481" s="2" t="s">
         <v>5196</v>
       </c>
       <c r="F2481" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2482" spans="1:6" x14ac:dyDescent="0.2">
@@ -68681,13 +68681,13 @@
         <v>64</v>
       </c>
       <c r="D2482" s="9">
-        <v>2889.7</v>
+        <v>3178.67</v>
       </c>
       <c r="E2482" s="2" t="s">
         <v>5196</v>
       </c>
       <c r="F2482" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2483" spans="1:6" x14ac:dyDescent="0.2">
@@ -68701,13 +68701,13 @@
         <v>64</v>
       </c>
       <c r="D2483" s="9">
-        <v>5008.67</v>
+        <v>5509.54</v>
       </c>
       <c r="E2483" s="2" t="s">
         <v>5196</v>
       </c>
       <c r="F2483" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2484" spans="1:6" x14ac:dyDescent="0.2">
@@ -68761,13 +68761,13 @@
         <v>64</v>
       </c>
       <c r="D2486" s="9">
-        <v>2001.28</v>
+        <v>2121.36</v>
       </c>
       <c r="E2486" s="2" t="s">
         <v>5196</v>
       </c>
       <c r="F2486" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2487" spans="1:6" x14ac:dyDescent="0.2">
@@ -68781,13 +68781,13 @@
         <v>64</v>
       </c>
       <c r="D2487" s="9">
-        <v>7603.37</v>
+        <v>8059.58</v>
       </c>
       <c r="E2487" s="2" t="s">
         <v>5196</v>
       </c>
       <c r="F2487" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2488" spans="1:6" x14ac:dyDescent="0.2">
@@ -68801,13 +68801,13 @@
         <v>64</v>
       </c>
       <c r="D2488" s="9">
-        <v>919.01</v>
+        <v>974.15</v>
       </c>
       <c r="E2488" s="2" t="s">
         <v>5221</v>
       </c>
       <c r="F2488" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2489" spans="1:6" x14ac:dyDescent="0.2">
@@ -68821,13 +68821,13 @@
         <v>8</v>
       </c>
       <c r="D2489" s="9">
-        <v>446.93</v>
+        <v>649.33000000000004</v>
       </c>
       <c r="E2489" s="2" t="s">
         <v>5221</v>
       </c>
       <c r="F2489" s="3">
-        <v>45173</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2490" spans="1:6" x14ac:dyDescent="0.2">
@@ -68841,13 +68841,13 @@
         <v>8</v>
       </c>
       <c r="D2490" s="9">
-        <v>529.38</v>
+        <v>753.9</v>
       </c>
       <c r="E2490" s="2" t="s">
         <v>5221</v>
       </c>
       <c r="F2490" s="3">
-        <v>45173</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2491" spans="1:6" x14ac:dyDescent="0.2">
@@ -68881,13 +68881,13 @@
         <v>64</v>
       </c>
       <c r="D2492" s="9">
-        <v>898.43</v>
+        <v>952.34</v>
       </c>
       <c r="E2492" s="2" t="s">
         <v>5221</v>
       </c>
       <c r="F2492" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2493" spans="1:6" x14ac:dyDescent="0.2">
@@ -68901,13 +68901,13 @@
         <v>64</v>
       </c>
       <c r="D2493" s="9">
-        <v>602.4</v>
+        <v>638.54999999999995</v>
       </c>
       <c r="E2493" s="2" t="s">
         <v>5221</v>
       </c>
       <c r="F2493" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2494" spans="1:6" x14ac:dyDescent="0.2">
@@ -68921,13 +68921,13 @@
         <v>64</v>
       </c>
       <c r="D2494" s="9">
-        <v>845.51</v>
+        <v>896.24</v>
       </c>
       <c r="E2494" s="2" t="s">
         <v>5221</v>
       </c>
       <c r="F2494" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2495" spans="1:6" x14ac:dyDescent="0.2">
@@ -68941,13 +68941,13 @@
         <v>8</v>
       </c>
       <c r="D2495" s="9">
-        <v>1300.8399999999999</v>
+        <v>1378.89</v>
       </c>
       <c r="E2495" s="2" t="s">
         <v>5236</v>
       </c>
       <c r="F2495" s="3">
-        <v>45175</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2496" spans="1:6" x14ac:dyDescent="0.2">
@@ -69021,13 +69021,13 @@
         <v>8</v>
       </c>
       <c r="D2499" s="9">
-        <v>647.71</v>
+        <v>686.58</v>
       </c>
       <c r="E2499" s="2" t="s">
         <v>5236</v>
       </c>
       <c r="F2499" s="3">
-        <v>45175</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2500" spans="1:6" x14ac:dyDescent="0.2">
@@ -69041,13 +69041,13 @@
         <v>8</v>
       </c>
       <c r="D2500" s="9">
-        <v>687.39</v>
+        <v>728.64</v>
       </c>
       <c r="E2500" s="2" t="s">
         <v>5236</v>
       </c>
       <c r="F2500" s="3">
-        <v>45175</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2501" spans="1:6" x14ac:dyDescent="0.2">
@@ -69981,13 +69981,13 @@
         <v>64</v>
       </c>
       <c r="D2547" s="9">
-        <v>1601.82</v>
+        <v>1697.93</v>
       </c>
       <c r="E2547" s="2" t="s">
         <v>5329</v>
       </c>
       <c r="F2547" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2548" spans="1:6" x14ac:dyDescent="0.2">
@@ -71281,13 +71281,13 @@
         <v>64</v>
       </c>
       <c r="D2612" s="9">
-        <v>971.57</v>
+        <v>1107.5899999999999</v>
       </c>
       <c r="E2612" s="2" t="s">
         <v>5472</v>
       </c>
       <c r="F2612" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="2613" spans="1:6" x14ac:dyDescent="0.2">
@@ -71301,13 +71301,13 @@
         <v>64</v>
       </c>
       <c r="D2613" s="9">
-        <v>1119.07</v>
+        <v>1275.74</v>
       </c>
       <c r="E2613" s="2" t="s">
         <v>5472</v>
       </c>
       <c r="F2613" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="2614" spans="1:6" x14ac:dyDescent="0.2">
@@ -71321,13 +71321,13 @@
         <v>64</v>
       </c>
       <c r="D2614" s="9">
-        <v>6307.7</v>
+        <v>7190.78</v>
       </c>
       <c r="E2614" s="2" t="s">
         <v>5472</v>
       </c>
       <c r="F2614" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="2615" spans="1:6" x14ac:dyDescent="0.2">
@@ -71341,13 +71341,13 @@
         <v>64</v>
       </c>
       <c r="D2615" s="9">
-        <v>2083.6999999999998</v>
+        <v>2247.19</v>
       </c>
       <c r="E2615" s="2" t="s">
         <v>5472</v>
       </c>
       <c r="F2615" s="3">
-        <v>45162</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="2616" spans="1:6" x14ac:dyDescent="0.2">
@@ -73841,13 +73841,13 @@
         <v>974</v>
       </c>
       <c r="D2740" s="9">
-        <v>3302.83</v>
+        <v>3467.98</v>
       </c>
       <c r="E2740" s="2" t="s">
         <v>5768</v>
       </c>
       <c r="F2740" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2741" spans="1:6" x14ac:dyDescent="0.2">
@@ -73861,13 +73861,13 @@
         <v>974</v>
       </c>
       <c r="D2741" s="9">
-        <v>3595.68</v>
+        <v>3775.47</v>
       </c>
       <c r="E2741" s="2" t="s">
         <v>5768</v>
       </c>
       <c r="F2741" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2742" spans="1:6" x14ac:dyDescent="0.2">
@@ -73881,13 +73881,13 @@
         <v>974</v>
       </c>
       <c r="D2742" s="9">
-        <v>3862.51</v>
+        <v>4055.64</v>
       </c>
       <c r="E2742" s="2" t="s">
         <v>5768</v>
       </c>
       <c r="F2742" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2743" spans="1:6" x14ac:dyDescent="0.2">
@@ -73901,13 +73901,13 @@
         <v>974</v>
       </c>
       <c r="D2743" s="9">
-        <v>8688.1</v>
+        <v>9122.51</v>
       </c>
       <c r="E2743" s="2" t="s">
         <v>5768</v>
       </c>
       <c r="F2743" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2744" spans="1:6" x14ac:dyDescent="0.2">
@@ -73921,13 +73921,13 @@
         <v>974</v>
       </c>
       <c r="D2744" s="9">
-        <v>2681.32</v>
+        <v>2815.39</v>
       </c>
       <c r="E2744" s="2" t="s">
         <v>5768</v>
       </c>
       <c r="F2744" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2745" spans="1:6" x14ac:dyDescent="0.2">
@@ -73941,13 +73941,13 @@
         <v>974</v>
       </c>
       <c r="D2745" s="9">
-        <v>3501.32</v>
+        <v>3676.39</v>
       </c>
       <c r="E2745" s="2" t="s">
         <v>5768</v>
       </c>
       <c r="F2745" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2746" spans="1:6" x14ac:dyDescent="0.2">
@@ -73981,13 +73981,13 @@
         <v>968</v>
       </c>
       <c r="D2747" s="9">
-        <v>81.14</v>
+        <v>85.2</v>
       </c>
       <c r="E2747" s="2" t="s">
         <v>5768</v>
       </c>
       <c r="F2747" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2748" spans="1:6" x14ac:dyDescent="0.2">
@@ -74001,13 +74001,13 @@
         <v>974</v>
       </c>
       <c r="D2748" s="9">
-        <v>1454.29</v>
+        <v>1527.01</v>
       </c>
       <c r="E2748" s="2" t="s">
         <v>5768</v>
       </c>
       <c r="F2748" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2749" spans="1:6" x14ac:dyDescent="0.2">
@@ -74021,13 +74021,13 @@
         <v>974</v>
       </c>
       <c r="D2749" s="9">
-        <v>2064.6</v>
+        <v>2167.83</v>
       </c>
       <c r="E2749" s="2" t="s">
         <v>5768</v>
       </c>
       <c r="F2749" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2750" spans="1:6" x14ac:dyDescent="0.2">
@@ -74041,13 +74041,13 @@
         <v>974</v>
       </c>
       <c r="D2750" s="9">
-        <v>2830.99</v>
+        <v>2972.54</v>
       </c>
       <c r="E2750" s="2" t="s">
         <v>5768</v>
       </c>
       <c r="F2750" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2751" spans="1:6" x14ac:dyDescent="0.2">
@@ -74061,13 +74061,13 @@
         <v>8</v>
       </c>
       <c r="D2751" s="9">
-        <v>227.5</v>
+        <v>238.88</v>
       </c>
       <c r="E2751" s="2" t="s">
         <v>5768</v>
       </c>
       <c r="F2751" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2752" spans="1:6" x14ac:dyDescent="0.2">
@@ -74081,13 +74081,13 @@
         <v>968</v>
       </c>
       <c r="D2752" s="9">
-        <v>82.03</v>
+        <v>86.14</v>
       </c>
       <c r="E2752" s="2" t="s">
         <v>5768</v>
       </c>
       <c r="F2752" s="3">
-        <v>45152</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="2753" spans="1:6" x14ac:dyDescent="0.2">
@@ -74101,13 +74101,13 @@
         <v>8</v>
       </c>
       <c r="D2753" s="9">
-        <v>619.52</v>
+        <v>871.61</v>
       </c>
       <c r="E2753" s="2" t="s">
         <v>5795</v>
       </c>
       <c r="F2753" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="2754" spans="1:6" x14ac:dyDescent="0.2">
@@ -77379,13 +77379,13 @@
         <v>974</v>
       </c>
       <c r="D2917" s="9">
-        <v>4516.8</v>
+        <v>5063</v>
       </c>
       <c r="E2917" s="2" t="s">
         <v>6154</v>
       </c>
       <c r="F2917" s="3">
-        <v>45152</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="2918" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel-files/fg.xlsx
+++ b/excel-files/fg.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="7485" windowHeight="4140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="lista_de_precios" sheetId="1" r:id="rId1"/>
@@ -23863,13 +23863,13 @@
         <v>493</v>
       </c>
       <c r="D241" s="9">
-        <v>385.3</v>
+        <v>423.83</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F241" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
@@ -23883,13 +23883,13 @@
         <v>496</v>
       </c>
       <c r="D242" s="9">
-        <v>2318.3000000000002</v>
+        <v>2550.13</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F242" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
@@ -23903,13 +23903,13 @@
         <v>496</v>
       </c>
       <c r="D243" s="9">
-        <v>2318.3000000000002</v>
+        <v>2550.13</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F243" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
@@ -23923,13 +23923,13 @@
         <v>64</v>
       </c>
       <c r="D244" s="9">
-        <v>1219.55</v>
+        <v>1341.51</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F244" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
@@ -23943,13 +23943,13 @@
         <v>64</v>
       </c>
       <c r="D245" s="9">
-        <v>850.91</v>
+        <v>936.01</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F245" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
@@ -23963,13 +23963,13 @@
         <v>64</v>
       </c>
       <c r="D246" s="9">
-        <v>850.91</v>
+        <v>936.01</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F246" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -23983,13 +23983,13 @@
         <v>64</v>
       </c>
       <c r="D247" s="9">
-        <v>981.72</v>
+        <v>1079.9000000000001</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F247" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
@@ -24003,13 +24003,13 @@
         <v>64</v>
       </c>
       <c r="D248" s="9">
-        <v>1103.95</v>
+        <v>1214.3499999999999</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F248" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -24023,13 +24023,13 @@
         <v>64</v>
       </c>
       <c r="D249" s="9">
-        <v>358.97</v>
+        <v>394.87</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F249" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
@@ -24043,13 +24043,13 @@
         <v>64</v>
       </c>
       <c r="D250" s="9">
-        <v>4999.96</v>
+        <v>5499.96</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F250" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -24063,13 +24063,13 @@
         <v>64</v>
       </c>
       <c r="D251" s="9">
-        <v>956.69</v>
+        <v>1052.3599999999999</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F251" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -24083,13 +24083,13 @@
         <v>64</v>
       </c>
       <c r="D252" s="9">
-        <v>1202.52</v>
+        <v>1322.78</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F252" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -24103,13 +24103,13 @@
         <v>64</v>
       </c>
       <c r="D253" s="9">
-        <v>790.93</v>
+        <v>870.03</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F253" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -24123,13 +24123,13 @@
         <v>521</v>
       </c>
       <c r="D254" s="9">
-        <v>1401.97</v>
+        <v>1542.17</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F254" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
@@ -24143,13 +24143,13 @@
         <v>521</v>
       </c>
       <c r="D255" s="9">
-        <v>1608.25</v>
+        <v>1769.08</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F255" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -24163,13 +24163,13 @@
         <v>521</v>
       </c>
       <c r="D256" s="9">
-        <v>1300.22</v>
+        <v>1430.25</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F256" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -24183,13 +24183,13 @@
         <v>521</v>
       </c>
       <c r="D257" s="9">
-        <v>1517.84</v>
+        <v>1669.63</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F257" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
@@ -24203,13 +24203,13 @@
         <v>493</v>
       </c>
       <c r="D258" s="9">
-        <v>348.55</v>
+        <v>383.41</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F258" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -24223,13 +24223,13 @@
         <v>64</v>
       </c>
       <c r="D259" s="9">
-        <v>3255.69</v>
+        <v>3581.26</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F259" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
@@ -24241,13 +24241,13 @@
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="9">
-        <v>289.42</v>
+        <v>318.37</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F260" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
@@ -24261,13 +24261,13 @@
         <v>521</v>
       </c>
       <c r="D261" s="9">
-        <v>331.06</v>
+        <v>364.17</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F261" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
@@ -24281,13 +24281,13 @@
         <v>64</v>
       </c>
       <c r="D262" s="9">
-        <v>320.52999999999997</v>
+        <v>352.59</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F262" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
@@ -24301,13 +24301,13 @@
         <v>64</v>
       </c>
       <c r="D263" s="9">
-        <v>1085.71</v>
+        <v>1194.29</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F263" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
@@ -24319,13 +24319,13 @@
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="9">
-        <v>1820.12</v>
+        <v>2002.14</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F264" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
@@ -24339,13 +24339,13 @@
         <v>8</v>
       </c>
       <c r="D265" s="9">
-        <v>193.09</v>
+        <v>212.4</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F265" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
@@ -24359,13 +24359,13 @@
         <v>64</v>
       </c>
       <c r="D266" s="9">
-        <v>1363.9</v>
+        <v>1500.29</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F266" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
@@ -24379,13 +24379,13 @@
         <v>64</v>
       </c>
       <c r="D267" s="9">
-        <v>390.05</v>
+        <v>429.06</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F267" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
@@ -24399,13 +24399,13 @@
         <v>64</v>
       </c>
       <c r="D268" s="9">
-        <v>390.05</v>
+        <v>429.06</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F268" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
@@ -24419,13 +24419,13 @@
         <v>64</v>
       </c>
       <c r="D269" s="9">
-        <v>772.15</v>
+        <v>849.37</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F269" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
@@ -24439,13 +24439,13 @@
         <v>64</v>
       </c>
       <c r="D270" s="9">
-        <v>992.69</v>
+        <v>1091.96</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F270" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
@@ -24459,13 +24459,13 @@
         <v>521</v>
       </c>
       <c r="D271" s="9">
-        <v>1171.2</v>
+        <v>1288.32</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F271" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
@@ -24479,13 +24479,13 @@
         <v>521</v>
       </c>
       <c r="D272" s="9">
-        <v>1171.2</v>
+        <v>1288.32</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F272" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
@@ -24499,13 +24499,13 @@
         <v>64</v>
       </c>
       <c r="D273" s="9">
-        <v>652.05999999999995</v>
+        <v>717.27</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F273" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
@@ -24519,13 +24519,13 @@
         <v>562</v>
       </c>
       <c r="D274" s="9">
-        <v>538</v>
+        <v>591.79999999999995</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F274" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
@@ -24539,13 +24539,13 @@
         <v>64</v>
       </c>
       <c r="D275" s="9">
-        <v>779.41</v>
+        <v>857.36</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F275" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
@@ -24559,13 +24559,13 @@
         <v>8</v>
       </c>
       <c r="D276" s="9">
-        <v>199.38</v>
+        <v>219.32</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F276" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
@@ -24579,13 +24579,13 @@
         <v>8</v>
       </c>
       <c r="D277" s="9">
-        <v>243.11</v>
+        <v>267.43</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F277" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
@@ -24599,13 +24599,13 @@
         <v>8</v>
       </c>
       <c r="D278" s="9">
-        <v>255.99</v>
+        <v>281.58999999999997</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F278" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
@@ -24619,13 +24619,13 @@
         <v>64</v>
       </c>
       <c r="D279" s="9">
-        <v>457.41</v>
+        <v>503.16</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F279" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
@@ -24639,13 +24639,13 @@
         <v>64</v>
       </c>
       <c r="D280" s="9">
-        <v>601.79999999999995</v>
+        <v>661.98</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F280" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
@@ -24659,13 +24659,13 @@
         <v>64</v>
       </c>
       <c r="D281" s="9">
-        <v>802.96</v>
+        <v>883.26</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F281" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
@@ -24679,13 +24679,13 @@
         <v>64</v>
       </c>
       <c r="D282" s="9">
-        <v>753.65</v>
+        <v>829.02</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F282" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
@@ -24699,13 +24699,13 @@
         <v>64</v>
       </c>
       <c r="D283" s="9">
-        <v>950.4</v>
+        <v>1045.44</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F283" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
@@ -24719,13 +24719,13 @@
         <v>64</v>
       </c>
       <c r="D284" s="9">
-        <v>1151.22</v>
+        <v>1266.3499999999999</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F284" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
@@ -29939,13 +29939,13 @@
         <v>64</v>
       </c>
       <c r="D545" s="9">
-        <v>1551.23</v>
+        <v>1706.36</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>1104</v>
       </c>
       <c r="F545" s="3">
-        <v>45152</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.2">
@@ -30839,13 +30839,13 @@
         <v>8</v>
       </c>
       <c r="D590" s="9">
-        <v>29.24</v>
+        <v>32.17</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>1205</v>
       </c>
       <c r="F590" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.2">
@@ -30859,13 +30859,13 @@
         <v>8</v>
       </c>
       <c r="D591" s="9">
-        <v>34.729999999999997</v>
+        <v>38.21</v>
       </c>
       <c r="E591" s="2" t="s">
         <v>1205</v>
       </c>
       <c r="F591" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.2">
@@ -30879,13 +30879,13 @@
         <v>8</v>
       </c>
       <c r="D592" s="9">
-        <v>37.61</v>
+        <v>41.38</v>
       </c>
       <c r="E592" s="2" t="s">
         <v>1205</v>
       </c>
       <c r="F592" s="3">
-        <v>45167</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.2">
@@ -32437,13 +32437,13 @@
         <v>64</v>
       </c>
       <c r="D670" s="9">
-        <v>1920.7</v>
+        <v>2112.77</v>
       </c>
       <c r="E670" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="F670" s="3">
-        <v>45152</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.2">
@@ -32557,13 +32557,13 @@
         <v>834</v>
       </c>
       <c r="D676" s="9">
-        <v>1186.3800000000001</v>
+        <v>1305.02</v>
       </c>
       <c r="E676" s="2" t="s">
         <v>1380</v>
       </c>
       <c r="F676" s="3">
-        <v>45152</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.2">
@@ -32577,13 +32577,13 @@
         <v>834</v>
       </c>
       <c r="D677" s="9">
-        <v>1808.98</v>
+        <v>1989.88</v>
       </c>
       <c r="E677" s="2" t="s">
         <v>1380</v>
       </c>
       <c r="F677" s="3">
-        <v>45152</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.2">
@@ -32657,13 +32657,13 @@
         <v>834</v>
       </c>
       <c r="D681" s="9">
-        <v>1336.68</v>
+        <v>1470.35</v>
       </c>
       <c r="E681" s="2" t="s">
         <v>1380</v>
       </c>
       <c r="F681" s="3">
-        <v>45191</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.2">
@@ -34215,13 +34215,13 @@
         <v>8</v>
       </c>
       <c r="D759" s="9">
-        <v>306.48</v>
+        <v>337.13</v>
       </c>
       <c r="E759" s="2" t="s">
         <v>1566</v>
       </c>
       <c r="F759" s="3">
-        <v>45152</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.2">
@@ -42555,13 +42555,13 @@
         <v>64</v>
       </c>
       <c r="D1176" s="9">
-        <v>5163.1099999999997</v>
+        <v>5781.17</v>
       </c>
       <c r="E1176" s="2" t="s">
         <v>2436</v>
       </c>
       <c r="F1176" s="3">
-        <v>45177</v>
+        <v>45194</v>
       </c>
     </row>
     <row r="1177" spans="1:6" x14ac:dyDescent="0.2">
@@ -42835,13 +42835,13 @@
         <v>8</v>
       </c>
       <c r="D1190" s="9">
-        <v>457.81</v>
+        <v>494.44</v>
       </c>
       <c r="E1190" s="2" t="s">
         <v>2468</v>
       </c>
       <c r="F1190" s="3">
-        <v>45177</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="1191" spans="1:6" x14ac:dyDescent="0.2">
@@ -42935,13 +42935,13 @@
         <v>8</v>
       </c>
       <c r="D1195" s="9">
-        <v>457.81</v>
+        <v>494.44</v>
       </c>
       <c r="E1195" s="2" t="s">
         <v>2468</v>
       </c>
       <c r="F1195" s="3">
-        <v>45177</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="1196" spans="1:6" x14ac:dyDescent="0.2">
@@ -43075,13 +43075,13 @@
         <v>64</v>
       </c>
       <c r="D1202" s="9">
-        <v>358.18</v>
+        <v>394</v>
       </c>
       <c r="E1202" s="2" t="s">
         <v>2468</v>
       </c>
       <c r="F1202" s="3">
-        <v>45152</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="1203" spans="1:6" x14ac:dyDescent="0.2">
@@ -63475,13 +63475,13 @@
         <v>64</v>
       </c>
       <c r="D2222" s="9">
-        <v>2972.35</v>
+        <v>3269.59</v>
       </c>
       <c r="E2222" s="2" t="s">
         <v>4660</v>
       </c>
       <c r="F2222" s="3">
-        <v>45152</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="2223" spans="1:6" x14ac:dyDescent="0.2">
@@ -63495,13 +63495,13 @@
         <v>64</v>
       </c>
       <c r="D2223" s="9">
-        <v>4052.59</v>
+        <v>4457.8500000000004</v>
       </c>
       <c r="E2223" s="2" t="s">
         <v>4660</v>
       </c>
       <c r="F2223" s="3">
-        <v>45152</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="2224" spans="1:6" x14ac:dyDescent="0.2">
@@ -63515,13 +63515,13 @@
         <v>32</v>
       </c>
       <c r="D2224" s="9">
-        <v>495.4</v>
+        <v>544.94000000000005</v>
       </c>
       <c r="E2224" s="2" t="s">
         <v>4660</v>
       </c>
       <c r="F2224" s="3">
-        <v>45152</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="2225" spans="1:6" x14ac:dyDescent="0.2">
@@ -63995,13 +63995,13 @@
         <v>8</v>
       </c>
       <c r="D2248" s="9">
-        <v>495.66</v>
+        <v>545.23</v>
       </c>
       <c r="E2248" s="2" t="s">
         <v>4707</v>
       </c>
       <c r="F2248" s="3">
-        <v>45152</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="2249" spans="1:6" x14ac:dyDescent="0.2">
@@ -64195,13 +64195,13 @@
         <v>8</v>
       </c>
       <c r="D2258" s="9">
-        <v>495.66</v>
+        <v>545.23</v>
       </c>
       <c r="E2258" s="2" t="s">
         <v>4738</v>
       </c>
       <c r="F2258" s="3">
-        <v>45152</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="2259" spans="1:6" x14ac:dyDescent="0.2">
@@ -64915,13 +64915,13 @@
         <v>8</v>
       </c>
       <c r="D2294" s="9">
-        <v>165.66</v>
+        <v>126.2</v>
       </c>
       <c r="E2294" s="2" t="s">
         <v>4738</v>
       </c>
       <c r="F2294" s="3">
-        <v>45152</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="2295" spans="1:6" x14ac:dyDescent="0.2">
@@ -64935,13 +64935,13 @@
         <v>8</v>
       </c>
       <c r="D2295" s="9">
-        <v>126.2</v>
+        <v>165.66</v>
       </c>
       <c r="E2295" s="2" t="s">
         <v>4738</v>
       </c>
       <c r="F2295" s="3">
-        <v>45152</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="2296" spans="1:6" x14ac:dyDescent="0.2">
@@ -65575,13 +65575,13 @@
         <v>64</v>
       </c>
       <c r="D2327" s="9">
-        <v>1816.69</v>
+        <v>1998.36</v>
       </c>
       <c r="E2327" s="2" t="s">
         <v>4738</v>
       </c>
       <c r="F2327" s="3">
-        <v>45152</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="2328" spans="1:6" x14ac:dyDescent="0.2">
@@ -65595,13 +65595,13 @@
         <v>966</v>
       </c>
       <c r="D2328" s="9">
-        <v>110.75</v>
+        <v>121.83</v>
       </c>
       <c r="E2328" s="2" t="s">
         <v>4738</v>
       </c>
       <c r="F2328" s="3">
-        <v>45152</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="2329" spans="1:6" x14ac:dyDescent="0.2">
@@ -65835,13 +65835,13 @@
         <v>64</v>
       </c>
       <c r="D2340" s="9">
-        <v>1767.53</v>
+        <v>1944.29</v>
       </c>
       <c r="E2340" s="2" t="s">
         <v>4738</v>
       </c>
       <c r="F2340" s="3">
-        <v>45152</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="2341" spans="1:6" x14ac:dyDescent="0.2">
@@ -65855,13 +65855,13 @@
         <v>64</v>
       </c>
       <c r="D2341" s="9">
-        <v>5998.21</v>
+        <v>6598.04</v>
       </c>
       <c r="E2341" s="2" t="s">
         <v>4738</v>
       </c>
       <c r="F2341" s="3">
-        <v>45152</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="2342" spans="1:6" x14ac:dyDescent="0.2">
@@ -67055,13 +67055,13 @@
         <v>64</v>
       </c>
       <c r="D2401" s="9">
-        <v>1080.26</v>
+        <v>1188.29</v>
       </c>
       <c r="E2401" s="2" t="s">
         <v>5025</v>
       </c>
       <c r="F2401" s="3">
-        <v>45152</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="2402" spans="1:6" x14ac:dyDescent="0.2">
@@ -67075,13 +67075,13 @@
         <v>64</v>
       </c>
       <c r="D2402" s="9">
-        <v>4283.2299999999996</v>
+        <v>4711.5600000000004</v>
       </c>
       <c r="E2402" s="2" t="s">
         <v>5025</v>
       </c>
       <c r="F2402" s="3">
-        <v>45152</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="2403" spans="1:6" x14ac:dyDescent="0.2">
@@ -67135,13 +67135,13 @@
         <v>64</v>
       </c>
       <c r="D2405" s="9">
-        <v>5117.53</v>
+        <v>5629.29</v>
       </c>
       <c r="E2405" s="2" t="s">
         <v>5025</v>
       </c>
       <c r="F2405" s="3">
-        <v>45152</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="2406" spans="1:6" x14ac:dyDescent="0.2">
@@ -67195,13 +67195,13 @@
         <v>562</v>
       </c>
       <c r="D2408" s="9">
-        <v>2220.79</v>
+        <v>2442.87</v>
       </c>
       <c r="E2408" s="2" t="s">
         <v>5025</v>
       </c>
       <c r="F2408" s="3">
-        <v>45152</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="2409" spans="1:6" x14ac:dyDescent="0.2">
@@ -68275,13 +68275,13 @@
         <v>64</v>
       </c>
       <c r="D2462" s="9">
-        <v>3626.58</v>
+        <v>3916.71</v>
       </c>
       <c r="E2462" s="2" t="s">
         <v>5164</v>
       </c>
       <c r="F2462" s="3">
-        <v>45177</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="2463" spans="1:6" x14ac:dyDescent="0.2">
@@ -68295,13 +68295,13 @@
         <v>64</v>
       </c>
       <c r="D2463" s="9">
-        <v>2368.79</v>
+        <v>2558.3000000000002</v>
       </c>
       <c r="E2463" s="2" t="s">
         <v>5164</v>
       </c>
       <c r="F2463" s="3">
-        <v>45177</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="2464" spans="1:6" x14ac:dyDescent="0.2">
@@ -68315,13 +68315,13 @@
         <v>64</v>
       </c>
       <c r="D2464" s="9">
-        <v>9339.85</v>
+        <v>10087.040000000001</v>
       </c>
       <c r="E2464" s="2" t="s">
         <v>5164</v>
       </c>
       <c r="F2464" s="3">
-        <v>45177</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="2465" spans="1:6" x14ac:dyDescent="0.2">
@@ -68335,13 +68335,13 @@
         <v>64</v>
       </c>
       <c r="D2465" s="9">
-        <v>943.31</v>
+        <v>1018.78</v>
       </c>
       <c r="E2465" s="2" t="s">
         <v>5164</v>
       </c>
       <c r="F2465" s="3">
-        <v>45177</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="2466" spans="1:6" x14ac:dyDescent="0.2">
@@ -68355,13 +68355,13 @@
         <v>64</v>
       </c>
       <c r="D2466" s="9">
-        <v>415.81</v>
+        <v>449.08</v>
       </c>
       <c r="E2466" s="2" t="s">
         <v>5164</v>
       </c>
       <c r="F2466" s="3">
-        <v>45177</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="2467" spans="1:6" x14ac:dyDescent="0.2">
@@ -68795,13 +68795,13 @@
         <v>8</v>
       </c>
       <c r="D2488" s="9">
-        <v>649.33000000000004</v>
+        <v>779.2</v>
       </c>
       <c r="E2488" s="2" t="s">
         <v>5219</v>
       </c>
       <c r="F2488" s="3">
-        <v>45181</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="2489" spans="1:6" x14ac:dyDescent="0.2">
@@ -68815,13 +68815,13 @@
         <v>8</v>
       </c>
       <c r="D2489" s="9">
-        <v>753.9</v>
+        <v>904.68</v>
       </c>
       <c r="E2489" s="2" t="s">
         <v>5219</v>
       </c>
       <c r="F2489" s="3">
-        <v>45181</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="2490" spans="1:6" x14ac:dyDescent="0.2">
@@ -68935,13 +68935,13 @@
         <v>8</v>
       </c>
       <c r="D2495" s="9">
-        <v>1020.24</v>
+        <v>1224.29</v>
       </c>
       <c r="E2495" s="2" t="s">
         <v>5234</v>
       </c>
       <c r="F2495" s="3">
-        <v>45173</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="2496" spans="1:6" x14ac:dyDescent="0.2">
@@ -68955,13 +68955,13 @@
         <v>8</v>
       </c>
       <c r="D2496" s="9">
-        <v>1184.5</v>
+        <v>1421.4</v>
       </c>
       <c r="E2496" s="2" t="s">
         <v>5234</v>
       </c>
       <c r="F2496" s="3">
-        <v>45173</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="2497" spans="1:6" x14ac:dyDescent="0.2">
@@ -72375,13 +72375,13 @@
         <v>8</v>
       </c>
       <c r="D2667" s="9">
-        <v>1950.62</v>
+        <v>2145.69</v>
       </c>
       <c r="E2667" s="2" t="s">
         <v>5604</v>
       </c>
       <c r="F2667" s="3">
-        <v>45191</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="2668" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel-files/fg.xlsx
+++ b/excel-files/fg.xlsx
@@ -19627,13 +19627,13 @@
         <v>64</v>
       </c>
       <c r="D31" s="9">
-        <v>31728.38</v>
+        <v>33314.800000000003</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F31" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -19647,13 +19647,13 @@
         <v>64</v>
       </c>
       <c r="D32" s="9">
-        <v>39778.129999999997</v>
+        <v>41767.040000000001</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F32" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -19667,13 +19667,13 @@
         <v>64</v>
       </c>
       <c r="D33" s="9">
-        <v>40545</v>
+        <v>42572.25</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F33" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -19687,13 +19687,13 @@
         <v>64</v>
       </c>
       <c r="D34" s="9">
-        <v>47327.49</v>
+        <v>49693.86</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F34" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -21907,13 +21907,13 @@
         <v>64</v>
       </c>
       <c r="D145" s="9">
-        <v>2367.4299999999998</v>
+        <v>2485.8000000000002</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F145" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -22467,13 +22467,13 @@
         <v>64</v>
       </c>
       <c r="D173" s="9">
-        <v>4760.2299999999996</v>
+        <v>4998.24</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F173" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -29063,13 +29063,13 @@
         <v>925</v>
       </c>
       <c r="D503" s="9">
-        <v>88.98</v>
+        <v>92.54</v>
       </c>
       <c r="E503" s="2" t="s">
         <v>1022</v>
       </c>
       <c r="F503" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.2">
@@ -29083,13 +29083,13 @@
         <v>925</v>
       </c>
       <c r="D504" s="9">
-        <v>112.39</v>
+        <v>116.89</v>
       </c>
       <c r="E504" s="2" t="s">
         <v>1022</v>
       </c>
       <c r="F504" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.2">
@@ -29103,13 +29103,13 @@
         <v>925</v>
       </c>
       <c r="D505" s="9">
-        <v>155.09</v>
+        <v>161.29</v>
       </c>
       <c r="E505" s="2" t="s">
         <v>1022</v>
       </c>
       <c r="F505" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.2">
@@ -29123,13 +29123,13 @@
         <v>925</v>
       </c>
       <c r="D506" s="9">
-        <v>192.48</v>
+        <v>200.18</v>
       </c>
       <c r="E506" s="2" t="s">
         <v>1022</v>
       </c>
       <c r="F506" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.2">
@@ -29143,13 +29143,13 @@
         <v>925</v>
       </c>
       <c r="D507" s="9">
-        <v>240.56</v>
+        <v>250.18</v>
       </c>
       <c r="E507" s="2" t="s">
         <v>1022</v>
       </c>
       <c r="F507" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.2">
@@ -29163,13 +29163,13 @@
         <v>925</v>
       </c>
       <c r="D508" s="9">
-        <v>251.36</v>
+        <v>261.41000000000003</v>
       </c>
       <c r="E508" s="2" t="s">
         <v>1022</v>
       </c>
       <c r="F508" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.2">
@@ -29183,13 +29183,13 @@
         <v>972</v>
       </c>
       <c r="D509" s="9">
-        <v>3562.91</v>
+        <v>3705.43</v>
       </c>
       <c r="E509" s="2" t="s">
         <v>1035</v>
       </c>
       <c r="F509" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.2">
@@ -29203,13 +29203,13 @@
         <v>972</v>
       </c>
       <c r="D510" s="9">
-        <v>4740.26</v>
+        <v>4929.87</v>
       </c>
       <c r="E510" s="2" t="s">
         <v>1035</v>
       </c>
       <c r="F510" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.2">
@@ -29323,13 +29323,13 @@
         <v>972</v>
       </c>
       <c r="D516" s="9">
-        <v>2068.06</v>
+        <v>2150.7800000000002</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>1035</v>
       </c>
       <c r="F516" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.2">
@@ -29343,13 +29343,13 @@
         <v>972</v>
       </c>
       <c r="D517" s="9">
-        <v>3562.91</v>
+        <v>3705.43</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>1035</v>
       </c>
       <c r="F517" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.2">
@@ -29363,13 +29363,13 @@
         <v>8</v>
       </c>
       <c r="D518" s="9">
-        <v>437.27</v>
+        <v>454.76</v>
       </c>
       <c r="E518" s="2" t="s">
         <v>1054</v>
       </c>
       <c r="F518" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.2">
@@ -29463,13 +29463,13 @@
         <v>925</v>
       </c>
       <c r="D523" s="9">
-        <v>143.30000000000001</v>
+        <v>149.03</v>
       </c>
       <c r="E523" s="2" t="s">
         <v>1054</v>
       </c>
       <c r="F523" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.2">
@@ -29523,13 +29523,13 @@
         <v>972</v>
       </c>
       <c r="D526" s="9">
-        <v>2757.37</v>
+        <v>2867.66</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>1067</v>
       </c>
       <c r="F526" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.2">
@@ -29543,13 +29543,13 @@
         <v>972</v>
       </c>
       <c r="D527" s="9">
-        <v>1580.11</v>
+        <v>1643.31</v>
       </c>
       <c r="E527" s="2" t="s">
         <v>1067</v>
       </c>
       <c r="F527" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.2">
@@ -29563,13 +29563,13 @@
         <v>972</v>
       </c>
       <c r="D528" s="9">
-        <v>2346.9</v>
+        <v>2440.7800000000002</v>
       </c>
       <c r="E528" s="2" t="s">
         <v>1067</v>
       </c>
       <c r="F528" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.2">
@@ -29583,13 +29583,13 @@
         <v>972</v>
       </c>
       <c r="D529" s="9">
-        <v>4618.7</v>
+        <v>4803.45</v>
       </c>
       <c r="E529" s="2" t="s">
         <v>1067</v>
       </c>
       <c r="F529" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.2">
@@ -29603,13 +29603,13 @@
         <v>972</v>
       </c>
       <c r="D530" s="9">
-        <v>3173.32</v>
+        <v>3300.25</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>1067</v>
       </c>
       <c r="F530" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.2">
@@ -29663,13 +29663,13 @@
         <v>972</v>
       </c>
       <c r="D533" s="9">
-        <v>1475.54</v>
+        <v>1534.56</v>
       </c>
       <c r="E533" s="2" t="s">
         <v>1087</v>
       </c>
       <c r="F533" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.2">
@@ -29683,13 +29683,13 @@
         <v>972</v>
       </c>
       <c r="D534" s="9">
-        <v>1429.03</v>
+        <v>1486.19</v>
       </c>
       <c r="E534" s="2" t="s">
         <v>1087</v>
       </c>
       <c r="F534" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.2">
@@ -29703,13 +29703,13 @@
         <v>972</v>
       </c>
       <c r="D535" s="9">
-        <v>1541.4</v>
+        <v>1603.06</v>
       </c>
       <c r="E535" s="2" t="s">
         <v>1087</v>
       </c>
       <c r="F535" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.2">
@@ -29723,13 +29723,13 @@
         <v>972</v>
       </c>
       <c r="D536" s="9">
-        <v>2467.67</v>
+        <v>2566.38</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>1087</v>
       </c>
       <c r="F536" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.2">
@@ -29743,13 +29743,13 @@
         <v>972</v>
       </c>
       <c r="D537" s="9">
-        <v>3157.32</v>
+        <v>3283.61</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>1087</v>
       </c>
       <c r="F537" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.2">
@@ -29763,13 +29763,13 @@
         <v>972</v>
       </c>
       <c r="D538" s="9">
-        <v>3724.37</v>
+        <v>3873.34</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>1087</v>
       </c>
       <c r="F538" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.2">
@@ -29783,13 +29783,13 @@
         <v>972</v>
       </c>
       <c r="D539" s="9">
-        <v>2382.13</v>
+        <v>2477.42</v>
       </c>
       <c r="E539" s="2" t="s">
         <v>1087</v>
       </c>
       <c r="F539" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.2">
@@ -29803,13 +29803,13 @@
         <v>972</v>
       </c>
       <c r="D540" s="9">
-        <v>2976.62</v>
+        <v>3095.68</v>
       </c>
       <c r="E540" s="2" t="s">
         <v>1087</v>
       </c>
       <c r="F540" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.2">
@@ -29823,13 +29823,13 @@
         <v>8</v>
       </c>
       <c r="D541" s="9">
-        <v>821.86</v>
+        <v>854.73</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>1104</v>
       </c>
       <c r="F541" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.2">
@@ -29883,13 +29883,13 @@
         <v>8</v>
       </c>
       <c r="D544" s="9">
-        <v>1289.18</v>
+        <v>1340.75</v>
       </c>
       <c r="E544" s="2" t="s">
         <v>1104</v>
       </c>
       <c r="F544" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.2">
@@ -29923,13 +29923,13 @@
         <v>64</v>
       </c>
       <c r="D546" s="9">
-        <v>3576.47</v>
+        <v>3719.53</v>
       </c>
       <c r="E546" s="2" t="s">
         <v>1104</v>
       </c>
       <c r="F546" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.2">
@@ -29943,13 +29943,13 @@
         <v>64</v>
       </c>
       <c r="D547" s="9">
-        <v>4540.08</v>
+        <v>4721.68</v>
       </c>
       <c r="E547" s="2" t="s">
         <v>1104</v>
       </c>
       <c r="F547" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.2">
@@ -30043,13 +30043,13 @@
         <v>64</v>
       </c>
       <c r="D552" s="9">
-        <v>4207.5</v>
+        <v>4417.88</v>
       </c>
       <c r="E552" s="2" t="s">
         <v>1125</v>
       </c>
       <c r="F552" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.2">
@@ -30063,13 +30063,13 @@
         <v>64</v>
       </c>
       <c r="D553" s="9">
-        <v>5021.67</v>
+        <v>5272.75</v>
       </c>
       <c r="E553" s="2" t="s">
         <v>1125</v>
       </c>
       <c r="F553" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.2">
@@ -30183,13 +30183,13 @@
         <v>64</v>
       </c>
       <c r="D559" s="9">
-        <v>16275.38</v>
+        <v>17089.150000000001</v>
       </c>
       <c r="E559" s="2" t="s">
         <v>1125</v>
       </c>
       <c r="F559" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.2">
@@ -30283,13 +30283,13 @@
         <v>64</v>
       </c>
       <c r="D564" s="9">
-        <v>3939.75</v>
+        <v>4136.74</v>
       </c>
       <c r="E564" s="2" t="s">
         <v>1125</v>
       </c>
       <c r="F564" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.2">
@@ -30303,13 +30303,13 @@
         <v>64</v>
       </c>
       <c r="D565" s="9">
-        <v>4628.25</v>
+        <v>4859.66</v>
       </c>
       <c r="E565" s="2" t="s">
         <v>1125</v>
       </c>
       <c r="F565" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.2">
@@ -30803,13 +30803,13 @@
         <v>64</v>
       </c>
       <c r="D590" s="9">
-        <v>5833.13</v>
+        <v>6124.79</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>1205</v>
       </c>
       <c r="F590" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.2">
@@ -30823,13 +30823,13 @@
         <v>64</v>
       </c>
       <c r="D591" s="9">
-        <v>50738.63</v>
+        <v>53275.56</v>
       </c>
       <c r="E591" s="2" t="s">
         <v>1205</v>
       </c>
       <c r="F591" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.2">
@@ -30843,13 +30843,13 @@
         <v>64</v>
       </c>
       <c r="D592" s="9">
-        <v>21228.75</v>
+        <v>22290.19</v>
       </c>
       <c r="E592" s="2" t="s">
         <v>1205</v>
       </c>
       <c r="F592" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.2">
@@ -30863,13 +30863,13 @@
         <v>64</v>
       </c>
       <c r="D593" s="9">
-        <v>14076</v>
+        <v>14779.8</v>
       </c>
       <c r="E593" s="2" t="s">
         <v>1205</v>
       </c>
       <c r="F593" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.2">
@@ -30943,13 +30943,13 @@
         <v>925</v>
       </c>
       <c r="D597" s="9">
-        <v>1013.63</v>
+        <v>1064.31</v>
       </c>
       <c r="E597" s="2" t="s">
         <v>1205</v>
       </c>
       <c r="F597" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.2">
@@ -30963,13 +30963,13 @@
         <v>925</v>
       </c>
       <c r="D598" s="9">
-        <v>1109.25</v>
+        <v>1164.71</v>
       </c>
       <c r="E598" s="2" t="s">
         <v>1205</v>
       </c>
       <c r="F598" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.2">
@@ -31023,13 +31023,13 @@
         <v>925</v>
       </c>
       <c r="D601" s="9">
-        <v>726.75</v>
+        <v>763.09</v>
       </c>
       <c r="E601" s="2" t="s">
         <v>1205</v>
       </c>
       <c r="F601" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.2">
@@ -31163,13 +31163,13 @@
         <v>8</v>
       </c>
       <c r="D608" s="9">
-        <v>1051.8800000000001</v>
+        <v>1104.47</v>
       </c>
       <c r="E608" s="2" t="s">
         <v>1205</v>
       </c>
       <c r="F608" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.2">
@@ -31183,13 +31183,13 @@
         <v>8</v>
       </c>
       <c r="D609" s="9">
-        <v>1147.5</v>
+        <v>1204.8800000000001</v>
       </c>
       <c r="E609" s="2" t="s">
         <v>1205</v>
       </c>
       <c r="F609" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.2">
@@ -31223,13 +31223,13 @@
         <v>8</v>
       </c>
       <c r="D611" s="9">
-        <v>174.47</v>
+        <v>181.45</v>
       </c>
       <c r="E611" s="2" t="s">
         <v>1247</v>
       </c>
       <c r="F611" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.2">
@@ -31243,13 +31243,13 @@
         <v>8</v>
       </c>
       <c r="D612" s="9">
-        <v>772.34</v>
+        <v>803.23</v>
       </c>
       <c r="E612" s="2" t="s">
         <v>1247</v>
       </c>
       <c r="F612" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.2">
@@ -31263,13 +31263,13 @@
         <v>64</v>
       </c>
       <c r="D613" s="9">
-        <v>811.96</v>
+        <v>844.44</v>
       </c>
       <c r="E613" s="2" t="s">
         <v>1247</v>
       </c>
       <c r="F613" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.2">
@@ -32141,13 +32141,13 @@
         <v>64</v>
       </c>
       <c r="D657" s="9">
-        <v>59850</v>
+        <v>68400</v>
       </c>
       <c r="E657" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F657" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.2">
@@ -32161,13 +32161,13 @@
         <v>64</v>
       </c>
       <c r="D658" s="9">
-        <v>85500</v>
+        <v>98800</v>
       </c>
       <c r="E658" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F658" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.2">
@@ -32181,13 +32181,13 @@
         <v>64</v>
       </c>
       <c r="D659" s="9">
-        <v>110200</v>
+        <v>127300</v>
       </c>
       <c r="E659" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F659" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.2">
@@ -32201,13 +32201,13 @@
         <v>64</v>
       </c>
       <c r="D660" s="9">
-        <v>9405</v>
+        <v>10345.5</v>
       </c>
       <c r="E660" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F660" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.2">
@@ -32221,13 +32221,13 @@
         <v>521</v>
       </c>
       <c r="D661" s="9">
-        <v>1175.6400000000001</v>
+        <v>1293.2</v>
       </c>
       <c r="E661" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F661" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.2">
@@ -32241,13 +32241,13 @@
         <v>64</v>
       </c>
       <c r="D662" s="9">
-        <v>4522</v>
+        <v>4974.2</v>
       </c>
       <c r="E662" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F662" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.2">
@@ -32261,13 +32261,13 @@
         <v>521</v>
       </c>
       <c r="D663" s="9">
-        <v>2603</v>
+        <v>2863.3</v>
       </c>
       <c r="E663" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F663" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.2">
@@ -32281,13 +32281,13 @@
         <v>64</v>
       </c>
       <c r="D664" s="9">
-        <v>1542.23</v>
+        <v>2434</v>
       </c>
       <c r="E664" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F664" s="3">
-        <v>45273</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.2">
@@ -32301,13 +32301,13 @@
         <v>64</v>
       </c>
       <c r="D665" s="9">
-        <v>2280</v>
+        <v>2508</v>
       </c>
       <c r="E665" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F665" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.2">
@@ -32321,13 +32321,13 @@
         <v>64</v>
       </c>
       <c r="D666" s="9">
-        <v>9880</v>
+        <v>10868</v>
       </c>
       <c r="E666" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F666" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.2">
@@ -32341,13 +32341,13 @@
         <v>64</v>
       </c>
       <c r="D667" s="9">
-        <v>6460</v>
+        <v>7106</v>
       </c>
       <c r="E667" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F667" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.2">
@@ -32361,13 +32361,13 @@
         <v>64</v>
       </c>
       <c r="D668" s="9">
-        <v>2090</v>
+        <v>2299</v>
       </c>
       <c r="E668" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F668" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.2">
@@ -32381,13 +32381,13 @@
         <v>64</v>
       </c>
       <c r="D669" s="9">
-        <v>13870</v>
+        <v>15257</v>
       </c>
       <c r="E669" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F669" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.2">
@@ -32601,13 +32601,13 @@
         <v>834</v>
       </c>
       <c r="D680" s="9">
-        <v>2307.17</v>
+        <v>2422.5300000000002</v>
       </c>
       <c r="E680" s="2" t="s">
         <v>1379</v>
       </c>
       <c r="F680" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.2">
@@ -32641,13 +32641,13 @@
         <v>64</v>
       </c>
       <c r="D682" s="9">
-        <v>6419.61</v>
+        <v>6740.59</v>
       </c>
       <c r="E682" s="2" t="s">
         <v>1402</v>
       </c>
       <c r="F682" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.2">
@@ -32681,13 +32681,13 @@
         <v>64</v>
       </c>
       <c r="D684" s="9">
-        <v>6827.63</v>
+        <v>7169.01</v>
       </c>
       <c r="E684" s="2" t="s">
         <v>1402</v>
       </c>
       <c r="F684" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.2">
@@ -32701,13 +32701,13 @@
         <v>64</v>
       </c>
       <c r="D685" s="9">
-        <v>7363.13</v>
+        <v>7731.29</v>
       </c>
       <c r="E685" s="2" t="s">
         <v>1402</v>
       </c>
       <c r="F685" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.2">
@@ -33481,13 +33481,13 @@
         <v>8</v>
       </c>
       <c r="D724" s="9">
-        <v>1430.76</v>
+        <v>1502.3</v>
       </c>
       <c r="E724" s="2" t="s">
         <v>1487</v>
       </c>
       <c r="F724" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.2">
@@ -33501,13 +33501,13 @@
         <v>8</v>
       </c>
       <c r="D725" s="9">
-        <v>1430.76</v>
+        <v>1502.3</v>
       </c>
       <c r="E725" s="2" t="s">
         <v>1487</v>
       </c>
       <c r="F725" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.2">
@@ -33521,13 +33521,13 @@
         <v>8</v>
       </c>
       <c r="D726" s="9">
-        <v>3729.38</v>
+        <v>3915.85</v>
       </c>
       <c r="E726" s="2" t="s">
         <v>1487</v>
       </c>
       <c r="F726" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.2">
@@ -33541,13 +33541,13 @@
         <v>834</v>
       </c>
       <c r="D727" s="9">
-        <v>4666.5</v>
+        <v>4899.83</v>
       </c>
       <c r="E727" s="2" t="s">
         <v>1487</v>
       </c>
       <c r="F727" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.2">
@@ -33561,13 +33561,13 @@
         <v>8</v>
       </c>
       <c r="D728" s="9">
-        <v>3633.75</v>
+        <v>3815.44</v>
       </c>
       <c r="E728" s="2" t="s">
         <v>1487</v>
       </c>
       <c r="F728" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.2">
@@ -33581,13 +33581,13 @@
         <v>834</v>
       </c>
       <c r="D729" s="9">
-        <v>4666.5</v>
+        <v>4899.83</v>
       </c>
       <c r="E729" s="2" t="s">
         <v>1487</v>
       </c>
       <c r="F729" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.2">
@@ -33601,13 +33601,13 @@
         <v>834</v>
       </c>
       <c r="D730" s="9">
-        <v>6599.91</v>
+        <v>6929.91</v>
       </c>
       <c r="E730" s="2" t="s">
         <v>1487</v>
       </c>
       <c r="F730" s="3">
-        <v>45303</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.2">
@@ -33621,13 +33621,13 @@
         <v>834</v>
       </c>
       <c r="D731" s="9">
-        <v>6349.5</v>
+        <v>6666.98</v>
       </c>
       <c r="E731" s="2" t="s">
         <v>1487</v>
       </c>
       <c r="F731" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.2">
@@ -33641,13 +33641,13 @@
         <v>8</v>
       </c>
       <c r="D732" s="9">
-        <v>3213</v>
+        <v>3373.65</v>
       </c>
       <c r="E732" s="2" t="s">
         <v>1487</v>
       </c>
       <c r="F732" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.2">
@@ -33661,13 +33661,13 @@
         <v>64</v>
       </c>
       <c r="D733" s="9">
-        <v>5049</v>
+        <v>5301.45</v>
       </c>
       <c r="E733" s="2" t="s">
         <v>1487</v>
       </c>
       <c r="F733" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.2">
@@ -33681,13 +33681,13 @@
         <v>64</v>
       </c>
       <c r="D734" s="9">
-        <v>10193.629999999999</v>
+        <v>10703.31</v>
       </c>
       <c r="E734" s="2" t="s">
         <v>1487</v>
       </c>
       <c r="F734" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.2">
@@ -33701,13 +33701,13 @@
         <v>64</v>
       </c>
       <c r="D735" s="9">
-        <v>5412.38</v>
+        <v>5683</v>
       </c>
       <c r="E735" s="2" t="s">
         <v>1487</v>
       </c>
       <c r="F735" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.2">
@@ -33721,13 +33721,13 @@
         <v>64</v>
       </c>
       <c r="D736" s="9">
-        <v>5622.75</v>
+        <v>5903.89</v>
       </c>
       <c r="E736" s="2" t="s">
         <v>1487</v>
       </c>
       <c r="F736" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.2">
@@ -33739,13 +33739,13 @@
       </c>
       <c r="C737" s="2"/>
       <c r="D737" s="9">
-        <v>3633.75</v>
+        <v>3815.44</v>
       </c>
       <c r="E737" s="2" t="s">
         <v>1487</v>
       </c>
       <c r="F737" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.2">
@@ -33759,13 +33759,13 @@
         <v>64</v>
       </c>
       <c r="D738" s="9">
-        <v>5144.63</v>
+        <v>5401.86</v>
       </c>
       <c r="E738" s="2" t="s">
         <v>1487</v>
       </c>
       <c r="F738" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.2">
@@ -33779,13 +33779,13 @@
         <v>64</v>
       </c>
       <c r="D739" s="9">
-        <v>5680.13</v>
+        <v>5964.14</v>
       </c>
       <c r="E739" s="2" t="s">
         <v>1487</v>
       </c>
       <c r="F739" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.2">
@@ -39759,13 +39759,13 @@
         <v>8</v>
       </c>
       <c r="D1038" s="9">
-        <v>611.52</v>
+        <v>703.25</v>
       </c>
       <c r="E1038" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="F1038" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1039" spans="1:6" x14ac:dyDescent="0.2">
@@ -39779,13 +39779,13 @@
         <v>925</v>
       </c>
       <c r="D1039" s="9">
-        <v>613.13</v>
+        <v>705.1</v>
       </c>
       <c r="E1039" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="F1039" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1040" spans="1:6" x14ac:dyDescent="0.2">
@@ -39799,13 +39799,13 @@
         <v>925</v>
       </c>
       <c r="D1040" s="9">
-        <v>613.13</v>
+        <v>705.1</v>
       </c>
       <c r="E1040" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="F1040" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.2">
@@ -39819,13 +39819,13 @@
         <v>925</v>
       </c>
       <c r="D1041" s="9">
-        <v>594.82000000000005</v>
+        <v>684.04</v>
       </c>
       <c r="E1041" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="F1041" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.2">
@@ -39839,13 +39839,13 @@
         <v>925</v>
       </c>
       <c r="D1042" s="9">
-        <v>594.82000000000005</v>
+        <v>684.04</v>
       </c>
       <c r="E1042" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="F1042" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1043" spans="1:6" x14ac:dyDescent="0.2">
@@ -39859,13 +39859,13 @@
         <v>925</v>
       </c>
       <c r="D1043" s="9">
-        <v>594.82000000000005</v>
+        <v>684.04</v>
       </c>
       <c r="E1043" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="F1043" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1044" spans="1:6" x14ac:dyDescent="0.2">
@@ -39879,13 +39879,13 @@
         <v>8</v>
       </c>
       <c r="D1044" s="9">
-        <v>643.1</v>
+        <v>739.57</v>
       </c>
       <c r="E1044" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="F1044" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1045" spans="1:6" x14ac:dyDescent="0.2">
@@ -39899,13 +39899,13 @@
         <v>8</v>
       </c>
       <c r="D1045" s="9">
-        <v>643.1</v>
+        <v>739.57</v>
       </c>
       <c r="E1045" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="F1045" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1046" spans="1:6" x14ac:dyDescent="0.2">
@@ -39919,13 +39919,13 @@
         <v>8</v>
       </c>
       <c r="D1046" s="9">
-        <v>471.1</v>
+        <v>541.77</v>
       </c>
       <c r="E1046" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="F1046" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1047" spans="1:6" x14ac:dyDescent="0.2">
@@ -39939,13 +39939,13 @@
         <v>8</v>
       </c>
       <c r="D1047" s="9">
-        <v>471.1</v>
+        <v>541.77</v>
       </c>
       <c r="E1047" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="F1047" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1048" spans="1:6" x14ac:dyDescent="0.2">
@@ -39959,13 +39959,13 @@
         <v>925</v>
       </c>
       <c r="D1048" s="9">
-        <v>594.82000000000005</v>
+        <v>684.04</v>
       </c>
       <c r="E1048" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="F1048" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1049" spans="1:6" x14ac:dyDescent="0.2">
@@ -40119,13 +40119,13 @@
         <v>64</v>
       </c>
       <c r="D1056" s="9">
-        <v>13808.25</v>
+        <v>14498.66</v>
       </c>
       <c r="E1056" s="2" t="s">
         <v>2158</v>
       </c>
       <c r="F1056" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="0.2">
@@ -40179,13 +40179,13 @@
         <v>64</v>
       </c>
       <c r="D1059" s="9">
-        <v>13808.25</v>
+        <v>14498.66</v>
       </c>
       <c r="E1059" s="2" t="s">
         <v>2158</v>
       </c>
       <c r="F1059" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1060" spans="1:6" x14ac:dyDescent="0.2">
@@ -40199,13 +40199,13 @@
         <v>64</v>
       </c>
       <c r="D1060" s="9">
-        <v>13808.25</v>
+        <v>14498.66</v>
       </c>
       <c r="E1060" s="2" t="s">
         <v>2158</v>
       </c>
       <c r="F1060" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1061" spans="1:6" x14ac:dyDescent="0.2">
@@ -40239,13 +40239,13 @@
         <v>64</v>
       </c>
       <c r="D1062" s="9">
-        <v>20425.5</v>
+        <v>21446.78</v>
       </c>
       <c r="E1062" s="2" t="s">
         <v>2185</v>
       </c>
       <c r="F1062" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1063" spans="1:6" x14ac:dyDescent="0.2">
@@ -40399,13 +40399,13 @@
         <v>64</v>
       </c>
       <c r="D1070" s="9">
-        <v>12393</v>
+        <v>13012.65</v>
       </c>
       <c r="E1070" s="2" t="s">
         <v>2185</v>
       </c>
       <c r="F1070" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1071" spans="1:6" x14ac:dyDescent="0.2">
@@ -40419,13 +40419,13 @@
         <v>64</v>
       </c>
       <c r="D1071" s="9">
-        <v>12718.13</v>
+        <v>13354.04</v>
       </c>
       <c r="E1071" s="2" t="s">
         <v>2185</v>
       </c>
       <c r="F1071" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1072" spans="1:6" x14ac:dyDescent="0.2">
@@ -41119,13 +41119,13 @@
         <v>8</v>
       </c>
       <c r="D1106" s="9">
-        <v>1625.63</v>
+        <v>1706.91</v>
       </c>
       <c r="E1106" s="2" t="s">
         <v>2282</v>
       </c>
       <c r="F1106" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1107" spans="1:6" x14ac:dyDescent="0.2">
@@ -41139,13 +41139,13 @@
         <v>8</v>
       </c>
       <c r="D1107" s="9">
-        <v>1683</v>
+        <v>1767.15</v>
       </c>
       <c r="E1107" s="2" t="s">
         <v>2282</v>
       </c>
       <c r="F1107" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1108" spans="1:6" x14ac:dyDescent="0.2">
@@ -41159,13 +41159,13 @@
         <v>8</v>
       </c>
       <c r="D1108" s="9">
-        <v>2620.13</v>
+        <v>2751.14</v>
       </c>
       <c r="E1108" s="2" t="s">
         <v>2282</v>
       </c>
       <c r="F1108" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1109" spans="1:6" x14ac:dyDescent="0.2">
@@ -41179,13 +41179,13 @@
         <v>8</v>
       </c>
       <c r="D1109" s="9">
-        <v>2467.13</v>
+        <v>2590.4899999999998</v>
       </c>
       <c r="E1109" s="2" t="s">
         <v>2282</v>
       </c>
       <c r="F1109" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1110" spans="1:6" x14ac:dyDescent="0.2">
@@ -41199,13 +41199,13 @@
         <v>64</v>
       </c>
       <c r="D1110" s="9">
-        <v>126.57</v>
+        <v>132.9</v>
       </c>
       <c r="E1110" s="2" t="s">
         <v>2282</v>
       </c>
       <c r="F1110" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1111" spans="1:6" x14ac:dyDescent="0.2">
@@ -41219,13 +41219,13 @@
         <v>64</v>
       </c>
       <c r="D1111" s="9">
-        <v>126.57</v>
+        <v>132.9</v>
       </c>
       <c r="E1111" s="2" t="s">
         <v>2282</v>
       </c>
       <c r="F1111" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1112" spans="1:6" x14ac:dyDescent="0.2">
@@ -42759,13 +42759,13 @@
         <v>8</v>
       </c>
       <c r="D1188" s="9">
-        <v>988.65</v>
+        <v>1087.52</v>
       </c>
       <c r="E1188" s="2" t="s">
         <v>2463</v>
       </c>
       <c r="F1188" s="3">
-        <v>45279</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="1189" spans="1:6" x14ac:dyDescent="0.2">
@@ -42779,13 +42779,13 @@
         <v>8</v>
       </c>
       <c r="D1189" s="9">
-        <v>1004.14</v>
+        <v>1044.31</v>
       </c>
       <c r="E1189" s="2" t="s">
         <v>2463</v>
       </c>
       <c r="F1189" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1190" spans="1:6" x14ac:dyDescent="0.2">
@@ -42799,13 +42799,13 @@
         <v>8</v>
       </c>
       <c r="D1190" s="9">
-        <v>986.83</v>
+        <v>1026.3</v>
       </c>
       <c r="E1190" s="2" t="s">
         <v>2463</v>
       </c>
       <c r="F1190" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1191" spans="1:6" x14ac:dyDescent="0.2">
@@ -42819,13 +42819,13 @@
         <v>8</v>
       </c>
       <c r="D1191" s="9">
-        <v>962.95</v>
+        <v>1001.47</v>
       </c>
       <c r="E1191" s="2" t="s">
         <v>2463</v>
       </c>
       <c r="F1191" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1192" spans="1:6" x14ac:dyDescent="0.2">
@@ -42839,13 +42839,13 @@
         <v>8</v>
       </c>
       <c r="D1192" s="9">
-        <v>843.58</v>
+        <v>877.32</v>
       </c>
       <c r="E1192" s="2" t="s">
         <v>2463</v>
       </c>
       <c r="F1192" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1193" spans="1:6" x14ac:dyDescent="0.2">
@@ -42859,13 +42859,13 @@
         <v>8</v>
       </c>
       <c r="D1193" s="9">
-        <v>988.65</v>
+        <v>1087.52</v>
       </c>
       <c r="E1193" s="2" t="s">
         <v>2463</v>
       </c>
       <c r="F1193" s="3">
-        <v>45279</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="1194" spans="1:6" x14ac:dyDescent="0.2">
@@ -42879,13 +42879,13 @@
         <v>32</v>
       </c>
       <c r="D1194" s="9">
-        <v>2173.25</v>
+        <v>2260.1799999999998</v>
       </c>
       <c r="E1194" s="2" t="s">
         <v>2463</v>
       </c>
       <c r="F1194" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1195" spans="1:6" x14ac:dyDescent="0.2">
@@ -42899,13 +42899,13 @@
         <v>32</v>
       </c>
       <c r="D1195" s="9">
-        <v>2491.75</v>
+        <v>2591.42</v>
       </c>
       <c r="E1195" s="2" t="s">
         <v>2463</v>
       </c>
       <c r="F1195" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1196" spans="1:6" x14ac:dyDescent="0.2">
@@ -42939,13 +42939,13 @@
         <v>64</v>
       </c>
       <c r="D1197" s="9">
-        <v>373.41</v>
+        <v>410.75</v>
       </c>
       <c r="E1197" s="2" t="s">
         <v>2463</v>
       </c>
       <c r="F1197" s="3">
-        <v>45279</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="1198" spans="1:6" x14ac:dyDescent="0.2">
@@ -42959,13 +42959,13 @@
         <v>64</v>
       </c>
       <c r="D1198" s="9">
-        <v>1062.44</v>
+        <v>1104.94</v>
       </c>
       <c r="E1198" s="2" t="s">
         <v>2463</v>
       </c>
       <c r="F1198" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1199" spans="1:6" x14ac:dyDescent="0.2">
@@ -42979,13 +42979,13 @@
         <v>64</v>
       </c>
       <c r="D1199" s="9">
-        <v>851.5</v>
+        <v>885.56</v>
       </c>
       <c r="E1199" s="2" t="s">
         <v>2463</v>
       </c>
       <c r="F1199" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1200" spans="1:6" x14ac:dyDescent="0.2">
@@ -43019,13 +43019,13 @@
         <v>8</v>
       </c>
       <c r="D1201" s="9">
-        <v>735.1</v>
+        <v>764.5</v>
       </c>
       <c r="E1201" s="2" t="s">
         <v>2463</v>
       </c>
       <c r="F1201" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1202" spans="1:6" x14ac:dyDescent="0.2">
@@ -43039,13 +43039,13 @@
         <v>8</v>
       </c>
       <c r="D1202" s="9">
-        <v>787.88</v>
+        <v>819.4</v>
       </c>
       <c r="E1202" s="2" t="s">
         <v>2463</v>
       </c>
       <c r="F1202" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1203" spans="1:6" x14ac:dyDescent="0.2">
@@ -43059,13 +43059,13 @@
         <v>8</v>
       </c>
       <c r="D1203" s="9">
-        <v>1137.97</v>
+        <v>1183.49</v>
       </c>
       <c r="E1203" s="2" t="s">
         <v>2463</v>
       </c>
       <c r="F1203" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1204" spans="1:6" x14ac:dyDescent="0.2">
@@ -43079,13 +43079,13 @@
         <v>64</v>
       </c>
       <c r="D1204" s="9">
-        <v>3176.35</v>
+        <v>3303.4</v>
       </c>
       <c r="E1204" s="2" t="s">
         <v>2463</v>
       </c>
       <c r="F1204" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1205" spans="1:6" x14ac:dyDescent="0.2">
@@ -43259,13 +43259,13 @@
         <v>8</v>
       </c>
       <c r="D1213" s="9">
-        <v>786.18</v>
+        <v>817.63</v>
       </c>
       <c r="E1213" s="2" t="s">
         <v>2519</v>
       </c>
       <c r="F1213" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1214" spans="1:6" x14ac:dyDescent="0.2">
@@ -43279,13 +43279,13 @@
         <v>8</v>
       </c>
       <c r="D1214" s="9">
-        <v>786.18</v>
+        <v>817.63</v>
       </c>
       <c r="E1214" s="2" t="s">
         <v>2519</v>
       </c>
       <c r="F1214" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1215" spans="1:6" x14ac:dyDescent="0.2">
@@ -43299,13 +43299,13 @@
         <v>8</v>
       </c>
       <c r="D1215" s="9">
-        <v>786.18</v>
+        <v>817.63</v>
       </c>
       <c r="E1215" s="2" t="s">
         <v>2519</v>
       </c>
       <c r="F1215" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1216" spans="1:6" x14ac:dyDescent="0.2">
@@ -43319,13 +43319,13 @@
         <v>8</v>
       </c>
       <c r="D1216" s="9">
-        <v>1388.65</v>
+        <v>1444.2</v>
       </c>
       <c r="E1216" s="2" t="s">
         <v>2519</v>
       </c>
       <c r="F1216" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1217" spans="1:6" x14ac:dyDescent="0.2">
@@ -43339,13 +43339,13 @@
         <v>8</v>
       </c>
       <c r="D1217" s="9">
-        <v>2115.23</v>
+        <v>2199.84</v>
       </c>
       <c r="E1217" s="2" t="s">
         <v>2519</v>
       </c>
       <c r="F1217" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1218" spans="1:6" x14ac:dyDescent="0.2">
@@ -44439,13 +44439,13 @@
         <v>925</v>
       </c>
       <c r="D1272" s="9">
-        <v>332.9</v>
+        <v>346.22</v>
       </c>
       <c r="E1272" s="2" t="s">
         <v>2638</v>
       </c>
       <c r="F1272" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1273" spans="1:6" x14ac:dyDescent="0.2">
@@ -44459,13 +44459,13 @@
         <v>32</v>
       </c>
       <c r="D1273" s="9">
-        <v>1147.5</v>
+        <v>1204.8800000000001</v>
       </c>
       <c r="E1273" s="2" t="s">
         <v>2647</v>
       </c>
       <c r="F1273" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1274" spans="1:6" x14ac:dyDescent="0.2">
@@ -44479,13 +44479,13 @@
         <v>8</v>
       </c>
       <c r="D1274" s="9">
-        <v>306</v>
+        <v>321.3</v>
       </c>
       <c r="E1274" s="2" t="s">
         <v>2647</v>
       </c>
       <c r="F1274" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1275" spans="1:6" x14ac:dyDescent="0.2">
@@ -44499,13 +44499,13 @@
         <v>966</v>
       </c>
       <c r="D1275" s="9">
-        <v>306</v>
+        <v>321.3</v>
       </c>
       <c r="E1275" s="2" t="s">
         <v>2647</v>
       </c>
       <c r="F1275" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1276" spans="1:6" x14ac:dyDescent="0.2">
@@ -44519,13 +44519,13 @@
         <v>2439</v>
       </c>
       <c r="D1276" s="9">
-        <v>267.75</v>
+        <v>281.14</v>
       </c>
       <c r="E1276" s="2" t="s">
         <v>2647</v>
       </c>
       <c r="F1276" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1277" spans="1:6" x14ac:dyDescent="0.2">
@@ -44539,13 +44539,13 @@
         <v>925</v>
       </c>
       <c r="D1277" s="9">
-        <v>267.75</v>
+        <v>281.14</v>
       </c>
       <c r="E1277" s="2" t="s">
         <v>2647</v>
       </c>
       <c r="F1277" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1278" spans="1:6" x14ac:dyDescent="0.2">
@@ -44559,13 +44559,13 @@
         <v>2658</v>
       </c>
       <c r="D1278" s="9">
-        <v>688.5</v>
+        <v>722.93</v>
       </c>
       <c r="E1278" s="2" t="s">
         <v>2647</v>
       </c>
       <c r="F1278" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1279" spans="1:6" x14ac:dyDescent="0.2">
@@ -44579,13 +44579,13 @@
         <v>925</v>
       </c>
       <c r="D1279" s="9">
-        <v>1109.25</v>
+        <v>1164.71</v>
       </c>
       <c r="E1279" s="2" t="s">
         <v>2647</v>
       </c>
       <c r="F1279" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1280" spans="1:6" x14ac:dyDescent="0.2">
@@ -44599,13 +44599,13 @@
         <v>2439</v>
       </c>
       <c r="D1280" s="9">
-        <v>631.13</v>
+        <v>662.69</v>
       </c>
       <c r="E1280" s="2" t="s">
         <v>2647</v>
       </c>
       <c r="F1280" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1281" spans="1:6" x14ac:dyDescent="0.2">
@@ -44619,13 +44619,13 @@
         <v>925</v>
       </c>
       <c r="D1281" s="9">
-        <v>267.75</v>
+        <v>281.14</v>
       </c>
       <c r="E1281" s="2" t="s">
         <v>2647</v>
       </c>
       <c r="F1281" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1282" spans="1:6" x14ac:dyDescent="0.2">
@@ -44659,13 +44659,13 @@
         <v>8</v>
       </c>
       <c r="D1283" s="9">
-        <v>778</v>
+        <v>894.7</v>
       </c>
       <c r="E1283" s="2" t="s">
         <v>2667</v>
       </c>
       <c r="F1283" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1284" spans="1:6" x14ac:dyDescent="0.2">
@@ -47279,13 +47279,13 @@
         <v>64</v>
       </c>
       <c r="D1414" s="9">
-        <v>2792.25</v>
+        <v>2931.86</v>
       </c>
       <c r="E1414" s="2" t="s">
         <v>2943</v>
       </c>
       <c r="F1414" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1415" spans="1:6" x14ac:dyDescent="0.2">
@@ -47299,13 +47299,13 @@
         <v>64</v>
       </c>
       <c r="D1415" s="9">
-        <v>12125.25</v>
+        <v>12731.51</v>
       </c>
       <c r="E1415" s="2" t="s">
         <v>2943</v>
       </c>
       <c r="F1415" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1416" spans="1:6" x14ac:dyDescent="0.2">
@@ -47319,13 +47319,13 @@
         <v>64</v>
       </c>
       <c r="D1416" s="9">
-        <v>12125.25</v>
+        <v>12731.51</v>
       </c>
       <c r="E1416" s="2" t="s">
         <v>2943</v>
       </c>
       <c r="F1416" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1417" spans="1:6" x14ac:dyDescent="0.2">
@@ -47339,13 +47339,13 @@
         <v>64</v>
       </c>
       <c r="D1417" s="9">
-        <v>9645.91</v>
+        <v>10128.209999999999</v>
       </c>
       <c r="E1417" s="2" t="s">
         <v>2950</v>
       </c>
       <c r="F1417" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1418" spans="1:6" x14ac:dyDescent="0.2">
@@ -47379,13 +47379,13 @@
         <v>2049</v>
       </c>
       <c r="D1419" s="9">
-        <v>8395.8799999999992</v>
+        <v>8815.67</v>
       </c>
       <c r="E1419" s="2" t="s">
         <v>2950</v>
       </c>
       <c r="F1419" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1420" spans="1:6" x14ac:dyDescent="0.2">
@@ -47399,13 +47399,13 @@
         <v>64</v>
       </c>
       <c r="D1420" s="9">
-        <v>7726.5</v>
+        <v>8112.83</v>
       </c>
       <c r="E1420" s="2" t="s">
         <v>2950</v>
       </c>
       <c r="F1420" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1421" spans="1:6" x14ac:dyDescent="0.2">
@@ -47419,13 +47419,13 @@
         <v>64</v>
       </c>
       <c r="D1421" s="9">
-        <v>3098.25</v>
+        <v>3253.16</v>
       </c>
       <c r="E1421" s="2" t="s">
         <v>2950</v>
       </c>
       <c r="F1421" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1422" spans="1:6" x14ac:dyDescent="0.2">
@@ -47439,13 +47439,13 @@
         <v>925</v>
       </c>
       <c r="D1422" s="9">
-        <v>4065.18</v>
+        <v>4268.4399999999996</v>
       </c>
       <c r="E1422" s="2" t="s">
         <v>2950</v>
       </c>
       <c r="F1422" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1423" spans="1:6" x14ac:dyDescent="0.2">
@@ -47459,13 +47459,13 @@
         <v>925</v>
       </c>
       <c r="D1423" s="9">
-        <v>6942.38</v>
+        <v>7289.5</v>
       </c>
       <c r="E1423" s="2" t="s">
         <v>2950</v>
       </c>
       <c r="F1423" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1424" spans="1:6" x14ac:dyDescent="0.2">
@@ -47479,13 +47479,13 @@
         <v>8</v>
       </c>
       <c r="D1424" s="9">
-        <v>3175.91</v>
+        <v>3334.71</v>
       </c>
       <c r="E1424" s="2" t="s">
         <v>2950</v>
       </c>
       <c r="F1424" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1425" spans="1:6" x14ac:dyDescent="0.2">
@@ -47499,13 +47499,13 @@
         <v>8</v>
       </c>
       <c r="D1425" s="9">
-        <v>1262.25</v>
+        <v>1325.36</v>
       </c>
       <c r="E1425" s="2" t="s">
         <v>2950</v>
       </c>
       <c r="F1425" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1426" spans="1:6" x14ac:dyDescent="0.2">
@@ -47519,13 +47519,13 @@
         <v>8</v>
       </c>
       <c r="D1426" s="9">
-        <v>726.75</v>
+        <v>763.09</v>
       </c>
       <c r="E1426" s="2" t="s">
         <v>2950</v>
       </c>
       <c r="F1426" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1427" spans="1:6" x14ac:dyDescent="0.2">
@@ -47539,13 +47539,13 @@
         <v>8</v>
       </c>
       <c r="D1427" s="9">
-        <v>2467.13</v>
+        <v>2590.4899999999998</v>
       </c>
       <c r="E1427" s="2" t="s">
         <v>2950</v>
       </c>
       <c r="F1427" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1428" spans="1:6" x14ac:dyDescent="0.2">
@@ -47559,13 +47559,13 @@
         <v>8</v>
       </c>
       <c r="D1428" s="9">
-        <v>784.13</v>
+        <v>823.34</v>
       </c>
       <c r="E1428" s="2" t="s">
         <v>2950</v>
       </c>
       <c r="F1428" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1429" spans="1:6" x14ac:dyDescent="0.2">
@@ -47579,13 +47579,13 @@
         <v>8</v>
       </c>
       <c r="D1429" s="9">
-        <v>3155.63</v>
+        <v>3313.41</v>
       </c>
       <c r="E1429" s="2" t="s">
         <v>2950</v>
       </c>
       <c r="F1429" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1430" spans="1:6" x14ac:dyDescent="0.2">
@@ -47599,13 +47599,13 @@
         <v>8</v>
       </c>
       <c r="D1430" s="9">
-        <v>2830.5</v>
+        <v>2972.03</v>
       </c>
       <c r="E1430" s="2" t="s">
         <v>2950</v>
       </c>
       <c r="F1430" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1431" spans="1:6" x14ac:dyDescent="0.2">
@@ -48199,13 +48199,13 @@
         <v>2229</v>
       </c>
       <c r="D1460" s="9">
-        <v>329.98</v>
+        <v>379.48</v>
       </c>
       <c r="E1460" s="2" t="s">
         <v>3041</v>
       </c>
       <c r="F1460" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1461" spans="1:6" x14ac:dyDescent="0.2">
@@ -48219,13 +48219,13 @@
         <v>2261</v>
       </c>
       <c r="D1461" s="9">
-        <v>746.69</v>
+        <v>858.69</v>
       </c>
       <c r="E1461" s="2" t="s">
         <v>3041</v>
       </c>
       <c r="F1461" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1462" spans="1:6" x14ac:dyDescent="0.2">
@@ -48279,13 +48279,13 @@
         <v>925</v>
       </c>
       <c r="D1464" s="9">
-        <v>2256.75</v>
+        <v>2369.59</v>
       </c>
       <c r="E1464" s="2" t="s">
         <v>3050</v>
       </c>
       <c r="F1464" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1465" spans="1:6" x14ac:dyDescent="0.2">
@@ -48299,13 +48299,13 @@
         <v>925</v>
       </c>
       <c r="D1465" s="9">
-        <v>2467.13</v>
+        <v>2590.4899999999998</v>
       </c>
       <c r="E1465" s="2" t="s">
         <v>3050</v>
       </c>
       <c r="F1465" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1466" spans="1:6" x14ac:dyDescent="0.2">
@@ -48319,13 +48319,13 @@
         <v>925</v>
       </c>
       <c r="D1466" s="9">
-        <v>2696.63</v>
+        <v>2831.46</v>
       </c>
       <c r="E1466" s="2" t="s">
         <v>3050</v>
       </c>
       <c r="F1466" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1467" spans="1:6" x14ac:dyDescent="0.2">
@@ -48339,13 +48339,13 @@
         <v>925</v>
       </c>
       <c r="D1467" s="9">
-        <v>2926.13</v>
+        <v>3072.44</v>
       </c>
       <c r="E1467" s="2" t="s">
         <v>3050</v>
       </c>
       <c r="F1467" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1468" spans="1:6" x14ac:dyDescent="0.2">
@@ -48359,13 +48359,13 @@
         <v>925</v>
       </c>
       <c r="D1468" s="9">
-        <v>3308.63</v>
+        <v>3474.06</v>
       </c>
       <c r="E1468" s="2" t="s">
         <v>3050</v>
       </c>
       <c r="F1468" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1469" spans="1:6" x14ac:dyDescent="0.2">
@@ -48379,13 +48379,13 @@
         <v>925</v>
       </c>
       <c r="D1469" s="9">
-        <v>3710.25</v>
+        <v>3895.76</v>
       </c>
       <c r="E1469" s="2" t="s">
         <v>3050</v>
       </c>
       <c r="F1469" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1470" spans="1:6" x14ac:dyDescent="0.2">
@@ -48399,13 +48399,13 @@
         <v>925</v>
       </c>
       <c r="D1470" s="9">
-        <v>4111.88</v>
+        <v>4317.47</v>
       </c>
       <c r="E1470" s="2" t="s">
         <v>3050</v>
       </c>
       <c r="F1470" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1471" spans="1:6" x14ac:dyDescent="0.2">
@@ -48419,13 +48419,13 @@
         <v>925</v>
       </c>
       <c r="D1471" s="9">
-        <v>4854.7700000000004</v>
+        <v>5097.51</v>
       </c>
       <c r="E1471" s="2" t="s">
         <v>3050</v>
       </c>
       <c r="F1471" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1472" spans="1:6" x14ac:dyDescent="0.2">
@@ -48439,13 +48439,13 @@
         <v>8</v>
       </c>
       <c r="D1472" s="9">
-        <v>1197.6600000000001</v>
+        <v>1245.57</v>
       </c>
       <c r="E1472" s="2" t="s">
         <v>3067</v>
       </c>
       <c r="F1472" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1473" spans="1:6" x14ac:dyDescent="0.2">
@@ -48459,13 +48459,13 @@
         <v>8</v>
       </c>
       <c r="D1473" s="9">
-        <v>1384.72</v>
+        <v>1440.11</v>
       </c>
       <c r="E1473" s="2" t="s">
         <v>3067</v>
       </c>
       <c r="F1473" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1474" spans="1:6" x14ac:dyDescent="0.2">
@@ -48479,13 +48479,13 @@
         <v>8</v>
       </c>
       <c r="D1474" s="9">
-        <v>1579.68</v>
+        <v>1642.87</v>
       </c>
       <c r="E1474" s="2" t="s">
         <v>3067</v>
       </c>
       <c r="F1474" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1475" spans="1:6" x14ac:dyDescent="0.2">
@@ -48499,13 +48499,13 @@
         <v>8</v>
       </c>
       <c r="D1475" s="9">
-        <v>1786.52</v>
+        <v>1857.98</v>
       </c>
       <c r="E1475" s="2" t="s">
         <v>3067</v>
       </c>
       <c r="F1475" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1476" spans="1:6" x14ac:dyDescent="0.2">
@@ -49039,13 +49039,13 @@
         <v>8</v>
       </c>
       <c r="D1502" s="9">
-        <v>3040.88</v>
+        <v>3192.92</v>
       </c>
       <c r="E1502" s="2" t="s">
         <v>3132</v>
       </c>
       <c r="F1502" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1503" spans="1:6" x14ac:dyDescent="0.2">
@@ -49059,13 +49059,13 @@
         <v>8</v>
       </c>
       <c r="D1503" s="9">
-        <v>3423.38</v>
+        <v>3594.55</v>
       </c>
       <c r="E1503" s="2" t="s">
         <v>3132</v>
       </c>
       <c r="F1503" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1504" spans="1:6" x14ac:dyDescent="0.2">
@@ -49079,13 +49079,13 @@
         <v>8</v>
       </c>
       <c r="D1504" s="9">
-        <v>3576.38</v>
+        <v>3755.2</v>
       </c>
       <c r="E1504" s="2" t="s">
         <v>3132</v>
       </c>
       <c r="F1504" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1505" spans="1:6" x14ac:dyDescent="0.2">
@@ -49219,13 +49219,13 @@
         <v>8</v>
       </c>
       <c r="D1511" s="9">
-        <v>3765.38</v>
+        <v>3953.65</v>
       </c>
       <c r="E1511" s="2" t="s">
         <v>3152</v>
       </c>
       <c r="F1511" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1512" spans="1:6" x14ac:dyDescent="0.2">
@@ -49239,13 +49239,13 @@
         <v>8</v>
       </c>
       <c r="D1512" s="9">
-        <v>4322.25</v>
+        <v>4538.3599999999997</v>
       </c>
       <c r="E1512" s="2" t="s">
         <v>3152</v>
       </c>
       <c r="F1512" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1513" spans="1:6" x14ac:dyDescent="0.2">
@@ -49259,13 +49259,13 @@
         <v>8</v>
       </c>
       <c r="D1513" s="9">
-        <v>4437</v>
+        <v>4658.8500000000004</v>
       </c>
       <c r="E1513" s="2" t="s">
         <v>3152</v>
       </c>
       <c r="F1513" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1514" spans="1:6" x14ac:dyDescent="0.2">
@@ -49279,13 +49279,13 @@
         <v>8</v>
       </c>
       <c r="D1514" s="9">
-        <v>4551.75</v>
+        <v>4779.34</v>
       </c>
       <c r="E1514" s="2" t="s">
         <v>3152</v>
       </c>
       <c r="F1514" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1515" spans="1:6" x14ac:dyDescent="0.2">
@@ -49299,13 +49299,13 @@
         <v>8</v>
       </c>
       <c r="D1515" s="9">
-        <v>4953.38</v>
+        <v>5201.05</v>
       </c>
       <c r="E1515" s="2" t="s">
         <v>3152</v>
       </c>
       <c r="F1515" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1516" spans="1:6" x14ac:dyDescent="0.2">
@@ -49319,13 +49319,13 @@
         <v>925</v>
       </c>
       <c r="D1516" s="9">
-        <v>1912.5</v>
+        <v>2008.13</v>
       </c>
       <c r="E1516" s="2" t="s">
         <v>3163</v>
       </c>
       <c r="F1516" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1517" spans="1:6" x14ac:dyDescent="0.2">
@@ -49339,13 +49339,13 @@
         <v>925</v>
       </c>
       <c r="D1517" s="9">
-        <v>2027.25</v>
+        <v>2128.61</v>
       </c>
       <c r="E1517" s="2" t="s">
         <v>3163</v>
       </c>
       <c r="F1517" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1518" spans="1:6" x14ac:dyDescent="0.2">
@@ -49359,13 +49359,13 @@
         <v>925</v>
       </c>
       <c r="D1518" s="9">
-        <v>2084.63</v>
+        <v>2188.86</v>
       </c>
       <c r="E1518" s="2" t="s">
         <v>3163</v>
       </c>
       <c r="F1518" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1519" spans="1:6" x14ac:dyDescent="0.2">
@@ -49379,13 +49379,13 @@
         <v>925</v>
       </c>
       <c r="D1519" s="9">
-        <v>2199.38</v>
+        <v>2309.35</v>
       </c>
       <c r="E1519" s="2" t="s">
         <v>3163</v>
       </c>
       <c r="F1519" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1520" spans="1:6" x14ac:dyDescent="0.2">
@@ -49399,13 +49399,13 @@
         <v>925</v>
       </c>
       <c r="D1520" s="9">
-        <v>2256.75</v>
+        <v>2369.59</v>
       </c>
       <c r="E1520" s="2" t="s">
         <v>3163</v>
       </c>
       <c r="F1520" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1521" spans="1:6" x14ac:dyDescent="0.2">
@@ -49419,13 +49419,13 @@
         <v>925</v>
       </c>
       <c r="D1521" s="9">
-        <v>2409.75</v>
+        <v>2530.2399999999998</v>
       </c>
       <c r="E1521" s="2" t="s">
         <v>3163</v>
       </c>
       <c r="F1521" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1522" spans="1:6" x14ac:dyDescent="0.2">
@@ -49439,13 +49439,13 @@
         <v>925</v>
       </c>
       <c r="D1522" s="9">
-        <v>1730.82</v>
+        <v>1817.36</v>
       </c>
       <c r="E1522" s="2" t="s">
         <v>3176</v>
       </c>
       <c r="F1522" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1523" spans="1:6" x14ac:dyDescent="0.2">
@@ -49959,13 +49959,13 @@
         <v>972</v>
       </c>
       <c r="D1548" s="9">
-        <v>3722.4</v>
+        <v>3871.3</v>
       </c>
       <c r="E1548" s="2" t="s">
         <v>3229</v>
       </c>
       <c r="F1548" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1549" spans="1:6" x14ac:dyDescent="0.2">
@@ -51519,13 +51519,13 @@
         <v>925</v>
       </c>
       <c r="D1626" s="9">
-        <v>166.44</v>
+        <v>191.41</v>
       </c>
       <c r="E1626" s="2" t="s">
         <v>3403</v>
       </c>
       <c r="F1626" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1627" spans="1:6" x14ac:dyDescent="0.2">
@@ -51539,13 +51539,13 @@
         <v>925</v>
       </c>
       <c r="D1627" s="9">
-        <v>93.2</v>
+        <v>107.18</v>
       </c>
       <c r="E1627" s="2" t="s">
         <v>3403</v>
       </c>
       <c r="F1627" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1628" spans="1:6" x14ac:dyDescent="0.2">
@@ -51559,13 +51559,13 @@
         <v>925</v>
       </c>
       <c r="D1628" s="9">
-        <v>124.02</v>
+        <v>142.62</v>
       </c>
       <c r="E1628" s="2" t="s">
         <v>3403</v>
       </c>
       <c r="F1628" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1629" spans="1:6" x14ac:dyDescent="0.2">
@@ -51579,13 +51579,13 @@
         <v>925</v>
       </c>
       <c r="D1629" s="9">
-        <v>180.07</v>
+        <v>207.08</v>
       </c>
       <c r="E1629" s="2" t="s">
         <v>3403</v>
       </c>
       <c r="F1629" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1630" spans="1:6" x14ac:dyDescent="0.2">
@@ -51599,13 +51599,13 @@
         <v>972</v>
       </c>
       <c r="D1630" s="9">
-        <v>4892.4399999999996</v>
+        <v>5626.31</v>
       </c>
       <c r="E1630" s="2" t="s">
         <v>3412</v>
       </c>
       <c r="F1630" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1631" spans="1:6" x14ac:dyDescent="0.2">
@@ -51619,13 +51619,13 @@
         <v>972</v>
       </c>
       <c r="D1631" s="9">
-        <v>4892.4399999999996</v>
+        <v>5626.31</v>
       </c>
       <c r="E1631" s="2" t="s">
         <v>3412</v>
       </c>
       <c r="F1631" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1632" spans="1:6" x14ac:dyDescent="0.2">
@@ -51639,13 +51639,13 @@
         <v>972</v>
       </c>
       <c r="D1632" s="9">
-        <v>4892.4399999999996</v>
+        <v>5626.31</v>
       </c>
       <c r="E1632" s="2" t="s">
         <v>3412</v>
       </c>
       <c r="F1632" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1633" spans="1:6" x14ac:dyDescent="0.2">
@@ -51659,13 +51659,13 @@
         <v>972</v>
       </c>
       <c r="D1633" s="9">
-        <v>8485.49</v>
+        <v>9758.31</v>
       </c>
       <c r="E1633" s="2" t="s">
         <v>3412</v>
       </c>
       <c r="F1633" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1634" spans="1:6" x14ac:dyDescent="0.2">
@@ -51739,13 +51739,13 @@
         <v>925</v>
       </c>
       <c r="D1637" s="9">
-        <v>87.01</v>
+        <v>100.06</v>
       </c>
       <c r="E1637" s="2" t="s">
         <v>3412</v>
       </c>
       <c r="F1637" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1638" spans="1:6" x14ac:dyDescent="0.2">
@@ -51759,13 +51759,13 @@
         <v>925</v>
       </c>
       <c r="D1638" s="9">
-        <v>87.01</v>
+        <v>100.06</v>
       </c>
       <c r="E1638" s="2" t="s">
         <v>3412</v>
       </c>
       <c r="F1638" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="1639" spans="1:6" x14ac:dyDescent="0.2">
@@ -52399,13 +52399,13 @@
         <v>2442</v>
       </c>
       <c r="D1670" s="9">
-        <v>726.75</v>
+        <v>763.09</v>
       </c>
       <c r="E1670" s="2" t="s">
         <v>3495</v>
       </c>
       <c r="F1670" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1671" spans="1:6" x14ac:dyDescent="0.2">
@@ -52419,13 +52419,13 @@
         <v>2442</v>
       </c>
       <c r="D1671" s="9">
-        <v>726.75</v>
+        <v>763.09</v>
       </c>
       <c r="E1671" s="2" t="s">
         <v>3495</v>
       </c>
       <c r="F1671" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1672" spans="1:6" x14ac:dyDescent="0.2">
@@ -52619,13 +52619,13 @@
         <v>64</v>
       </c>
       <c r="D1681" s="9">
-        <v>12010.5</v>
+        <v>12611.03</v>
       </c>
       <c r="E1681" s="2" t="s">
         <v>3515</v>
       </c>
       <c r="F1681" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1682" spans="1:6" x14ac:dyDescent="0.2">
@@ -52639,13 +52639,13 @@
         <v>64</v>
       </c>
       <c r="D1682" s="9">
-        <v>8835.75</v>
+        <v>9277.5400000000009</v>
       </c>
       <c r="E1682" s="2" t="s">
         <v>3515</v>
       </c>
       <c r="F1682" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1683" spans="1:6" x14ac:dyDescent="0.2">
@@ -52659,13 +52659,13 @@
         <v>64</v>
       </c>
       <c r="D1683" s="9">
-        <v>6196.5</v>
+        <v>6506.33</v>
       </c>
       <c r="E1683" s="2" t="s">
         <v>3515</v>
       </c>
       <c r="F1683" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1684" spans="1:6" x14ac:dyDescent="0.2">
@@ -52679,13 +52679,13 @@
         <v>64</v>
       </c>
       <c r="D1684" s="9">
-        <v>12010.5</v>
+        <v>12611.03</v>
       </c>
       <c r="E1684" s="2" t="s">
         <v>3515</v>
       </c>
       <c r="F1684" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1685" spans="1:6" x14ac:dyDescent="0.2">
@@ -52699,13 +52699,13 @@
         <v>64</v>
       </c>
       <c r="D1685" s="9">
-        <v>15529.5</v>
+        <v>16305.98</v>
       </c>
       <c r="E1685" s="2" t="s">
         <v>3515</v>
       </c>
       <c r="F1685" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1686" spans="1:6" x14ac:dyDescent="0.2">
@@ -52719,13 +52719,13 @@
         <v>64</v>
       </c>
       <c r="D1686" s="9">
-        <v>11742.75</v>
+        <v>12329.89</v>
       </c>
       <c r="E1686" s="2" t="s">
         <v>3515</v>
       </c>
       <c r="F1686" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1687" spans="1:6" x14ac:dyDescent="0.2">
@@ -52739,13 +52739,13 @@
         <v>64</v>
       </c>
       <c r="D1687" s="9">
-        <v>11742.75</v>
+        <v>12329.89</v>
       </c>
       <c r="E1687" s="2" t="s">
         <v>3515</v>
       </c>
       <c r="F1687" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1688" spans="1:6" x14ac:dyDescent="0.2">
@@ -52759,13 +52759,13 @@
         <v>64</v>
       </c>
       <c r="D1688" s="9">
-        <v>15529.5</v>
+        <v>16305.98</v>
       </c>
       <c r="E1688" s="2" t="s">
         <v>3515</v>
       </c>
       <c r="F1688" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1689" spans="1:6" x14ac:dyDescent="0.2">
@@ -52779,13 +52779,13 @@
         <v>64</v>
       </c>
       <c r="D1689" s="9">
-        <v>28481.919999999998</v>
+        <v>29906.02</v>
       </c>
       <c r="E1689" s="2" t="s">
         <v>3515</v>
       </c>
       <c r="F1689" s="3">
-        <v>45342</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1690" spans="1:6" x14ac:dyDescent="0.2">
@@ -52799,13 +52799,13 @@
         <v>64</v>
       </c>
       <c r="D1690" s="9">
-        <v>18780.75</v>
+        <v>19719.79</v>
       </c>
       <c r="E1690" s="2" t="s">
         <v>3515</v>
       </c>
       <c r="F1690" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1691" spans="1:6" x14ac:dyDescent="0.2">
@@ -52819,13 +52819,13 @@
         <v>64</v>
       </c>
       <c r="D1691" s="9">
-        <v>6196.5</v>
+        <v>6506.33</v>
       </c>
       <c r="E1691" s="2" t="s">
         <v>3515</v>
       </c>
       <c r="F1691" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1692" spans="1:6" x14ac:dyDescent="0.2">
@@ -52839,13 +52839,13 @@
         <v>64</v>
       </c>
       <c r="D1692" s="9">
-        <v>8835.75</v>
+        <v>9277.5400000000009</v>
       </c>
       <c r="E1692" s="2" t="s">
         <v>3515</v>
       </c>
       <c r="F1692" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1693" spans="1:6" x14ac:dyDescent="0.2">
@@ -52859,13 +52859,13 @@
         <v>64</v>
       </c>
       <c r="D1693" s="9">
-        <v>18780.75</v>
+        <v>19719.79</v>
       </c>
       <c r="E1693" s="2" t="s">
         <v>3515</v>
       </c>
       <c r="F1693" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1694" spans="1:6" x14ac:dyDescent="0.2">
@@ -52879,13 +52879,13 @@
         <v>64</v>
       </c>
       <c r="D1694" s="9">
-        <v>28481.919999999998</v>
+        <v>29906.02</v>
       </c>
       <c r="E1694" s="2" t="s">
         <v>3515</v>
       </c>
       <c r="F1694" s="3">
-        <v>45342</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1695" spans="1:6" x14ac:dyDescent="0.2">
@@ -52899,13 +52899,13 @@
         <v>32</v>
       </c>
       <c r="D1695" s="9">
-        <v>3098.25</v>
+        <v>3253.16</v>
       </c>
       <c r="E1695" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1695" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1696" spans="1:6" x14ac:dyDescent="0.2">
@@ -52959,13 +52959,13 @@
         <v>64</v>
       </c>
       <c r="D1698" s="9">
-        <v>3251.25</v>
+        <v>3413.81</v>
       </c>
       <c r="E1698" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1698" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1699" spans="1:6" x14ac:dyDescent="0.2">
@@ -53019,13 +53019,13 @@
         <v>8</v>
       </c>
       <c r="D1701" s="9">
-        <v>4360.5</v>
+        <v>4578.53</v>
       </c>
       <c r="E1701" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1701" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1702" spans="1:6" x14ac:dyDescent="0.2">
@@ -53039,13 +53039,13 @@
         <v>8</v>
       </c>
       <c r="D1702" s="9">
-        <v>5144.63</v>
+        <v>5401.86</v>
       </c>
       <c r="E1702" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1702" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1703" spans="1:6" x14ac:dyDescent="0.2">
@@ -53059,13 +53059,13 @@
         <v>8</v>
       </c>
       <c r="D1703" s="9">
-        <v>3098.25</v>
+        <v>3253.16</v>
       </c>
       <c r="E1703" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1703" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1704" spans="1:6" x14ac:dyDescent="0.2">
@@ -53079,13 +53079,13 @@
         <v>64</v>
       </c>
       <c r="D1704" s="9">
-        <v>3002.63</v>
+        <v>3152.76</v>
       </c>
       <c r="E1704" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1704" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1705" spans="1:6" x14ac:dyDescent="0.2">
@@ -53099,13 +53099,13 @@
         <v>64</v>
       </c>
       <c r="D1705" s="9">
-        <v>5202</v>
+        <v>5462.1</v>
       </c>
       <c r="E1705" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1705" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1706" spans="1:6" x14ac:dyDescent="0.2">
@@ -53119,13 +53119,13 @@
         <v>64</v>
       </c>
       <c r="D1706" s="9">
-        <v>3366</v>
+        <v>3534.3</v>
       </c>
       <c r="E1706" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1706" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1707" spans="1:6" x14ac:dyDescent="0.2">
@@ -53139,13 +53139,13 @@
         <v>64</v>
       </c>
       <c r="D1707" s="9">
-        <v>7363.13</v>
+        <v>7731.29</v>
       </c>
       <c r="E1707" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1707" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1708" spans="1:6" x14ac:dyDescent="0.2">
@@ -53159,13 +53159,13 @@
         <v>64</v>
       </c>
       <c r="D1708" s="9">
-        <v>6885</v>
+        <v>7229.25</v>
       </c>
       <c r="E1708" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1708" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1709" spans="1:6" x14ac:dyDescent="0.2">
@@ -53179,13 +53179,13 @@
         <v>64</v>
       </c>
       <c r="D1709" s="9">
-        <v>8357.6299999999992</v>
+        <v>8775.51</v>
       </c>
       <c r="E1709" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1709" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1710" spans="1:6" x14ac:dyDescent="0.2">
@@ -53199,13 +53199,13 @@
         <v>64</v>
       </c>
       <c r="D1710" s="9">
-        <v>6885</v>
+        <v>7229.25</v>
       </c>
       <c r="E1710" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1710" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1711" spans="1:6" x14ac:dyDescent="0.2">
@@ -53219,13 +53219,13 @@
         <v>64</v>
       </c>
       <c r="D1711" s="9">
-        <v>3098.25</v>
+        <v>3253.16</v>
       </c>
       <c r="E1711" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1711" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1712" spans="1:6" x14ac:dyDescent="0.2">
@@ -53239,13 +53239,13 @@
         <v>64</v>
       </c>
       <c r="D1712" s="9">
-        <v>5144.63</v>
+        <v>5401.86</v>
       </c>
       <c r="E1712" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1712" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1713" spans="1:6" x14ac:dyDescent="0.2">
@@ -53259,13 +53259,13 @@
         <v>64</v>
       </c>
       <c r="D1713" s="9">
-        <v>4991.63</v>
+        <v>5241.21</v>
       </c>
       <c r="E1713" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1713" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1714" spans="1:6" x14ac:dyDescent="0.2">
@@ -53299,13 +53299,13 @@
         <v>64</v>
       </c>
       <c r="D1715" s="9">
-        <v>5890.5</v>
+        <v>6185.03</v>
       </c>
       <c r="E1715" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1715" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1716" spans="1:6" x14ac:dyDescent="0.2">
@@ -53319,13 +53319,13 @@
         <v>64</v>
       </c>
       <c r="D1716" s="9">
-        <v>8816.6299999999992</v>
+        <v>9257.4599999999991</v>
       </c>
       <c r="E1716" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1716" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1717" spans="1:6" x14ac:dyDescent="0.2">
@@ -53339,13 +53339,13 @@
         <v>64</v>
       </c>
       <c r="D1717" s="9">
-        <v>12182.63</v>
+        <v>12791.76</v>
       </c>
       <c r="E1717" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1717" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1718" spans="1:6" x14ac:dyDescent="0.2">
@@ -53359,13 +53359,13 @@
         <v>64</v>
       </c>
       <c r="D1718" s="9">
-        <v>3882.38</v>
+        <v>4076.5</v>
       </c>
       <c r="E1718" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1718" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1719" spans="1:6" x14ac:dyDescent="0.2">
@@ -53439,13 +53439,13 @@
         <v>64</v>
       </c>
       <c r="D1722" s="9">
-        <v>11302.88</v>
+        <v>11868.02</v>
       </c>
       <c r="E1722" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1722" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1723" spans="1:6" x14ac:dyDescent="0.2">
@@ -53479,13 +53479,13 @@
         <v>834</v>
       </c>
       <c r="D1724" s="9">
-        <v>7879.5</v>
+        <v>8273.48</v>
       </c>
       <c r="E1724" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1724" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1725" spans="1:6" x14ac:dyDescent="0.2">
@@ -53499,13 +53499,13 @@
         <v>834</v>
       </c>
       <c r="D1725" s="9">
-        <v>11650.3</v>
+        <v>12232.82</v>
       </c>
       <c r="E1725" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1725" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1726" spans="1:6" x14ac:dyDescent="0.2">
@@ -53519,13 +53519,13 @@
         <v>8</v>
       </c>
       <c r="D1726" s="9">
-        <v>5890.5</v>
+        <v>6185.03</v>
       </c>
       <c r="E1726" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1726" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1727" spans="1:6" x14ac:dyDescent="0.2">
@@ -53539,13 +53539,13 @@
         <v>834</v>
       </c>
       <c r="D1727" s="9">
-        <v>6980.63</v>
+        <v>7329.66</v>
       </c>
       <c r="E1727" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1727" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1728" spans="1:6" x14ac:dyDescent="0.2">
@@ -53559,13 +53559,13 @@
         <v>834</v>
       </c>
       <c r="D1728" s="9">
-        <v>7726.5</v>
+        <v>8112.83</v>
       </c>
       <c r="E1728" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1728" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1729" spans="1:6" x14ac:dyDescent="0.2">
@@ -53579,13 +53579,13 @@
         <v>834</v>
       </c>
       <c r="D1729" s="9">
-        <v>11028.86</v>
+        <v>11580.3</v>
       </c>
       <c r="E1729" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1729" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1730" spans="1:6" x14ac:dyDescent="0.2">
@@ -53599,13 +53599,13 @@
         <v>834</v>
       </c>
       <c r="D1730" s="9">
-        <v>11993.06</v>
+        <v>12592.71</v>
       </c>
       <c r="E1730" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1730" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1731" spans="1:6" x14ac:dyDescent="0.2">
@@ -53659,13 +53659,13 @@
         <v>64</v>
       </c>
       <c r="D1733" s="9">
-        <v>4666.5</v>
+        <v>4899.83</v>
       </c>
       <c r="E1733" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1733" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1734" spans="1:6" x14ac:dyDescent="0.2">
@@ -53679,13 +53679,13 @@
         <v>64</v>
       </c>
       <c r="D1734" s="9">
-        <v>7669.13</v>
+        <v>8052.59</v>
       </c>
       <c r="E1734" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1734" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1735" spans="1:6" x14ac:dyDescent="0.2">
@@ -53699,13 +53699,13 @@
         <v>64</v>
       </c>
       <c r="D1735" s="9">
-        <v>8931.3799999999992</v>
+        <v>9377.9500000000007</v>
       </c>
       <c r="E1735" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1735" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1736" spans="1:6" x14ac:dyDescent="0.2">
@@ -53719,13 +53719,13 @@
         <v>64</v>
       </c>
       <c r="D1736" s="9">
-        <v>7669.13</v>
+        <v>8052.59</v>
       </c>
       <c r="E1736" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1736" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1737" spans="1:6" x14ac:dyDescent="0.2">
@@ -53819,13 +53819,13 @@
         <v>64</v>
       </c>
       <c r="D1741" s="9">
-        <v>8051.63</v>
+        <v>8454.2099999999991</v>
       </c>
       <c r="E1741" s="2" t="s">
         <v>3633</v>
       </c>
       <c r="F1741" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1742" spans="1:6" x14ac:dyDescent="0.2">
@@ -53839,13 +53839,13 @@
         <v>64</v>
       </c>
       <c r="D1742" s="9">
-        <v>8051.63</v>
+        <v>8454.2099999999991</v>
       </c>
       <c r="E1742" s="2" t="s">
         <v>3633</v>
       </c>
       <c r="F1742" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1743" spans="1:6" x14ac:dyDescent="0.2">
@@ -54019,13 +54019,13 @@
         <v>8</v>
       </c>
       <c r="D1751" s="9">
-        <v>3705.58</v>
+        <v>3853.8</v>
       </c>
       <c r="E1751" s="2" t="s">
         <v>3646</v>
       </c>
       <c r="F1751" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1752" spans="1:6" x14ac:dyDescent="0.2">
@@ -54419,13 +54419,13 @@
         <v>8</v>
       </c>
       <c r="D1771" s="9">
-        <v>1805.63</v>
+        <v>1895.91</v>
       </c>
       <c r="E1771" s="2" t="s">
         <v>3708</v>
       </c>
       <c r="F1771" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1772" spans="1:6" x14ac:dyDescent="0.2">
@@ -54439,13 +54439,13 @@
         <v>834</v>
       </c>
       <c r="D1772" s="9">
-        <v>4207.5</v>
+        <v>4417.88</v>
       </c>
       <c r="E1772" s="2" t="s">
         <v>3708</v>
       </c>
       <c r="F1772" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1773" spans="1:6" x14ac:dyDescent="0.2">
@@ -56959,13 +56959,13 @@
         <v>8</v>
       </c>
       <c r="D1898" s="9">
-        <v>1586.3</v>
+        <v>1665.62</v>
       </c>
       <c r="E1898" s="2" t="s">
         <v>3968</v>
       </c>
       <c r="F1898" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1899" spans="1:6" x14ac:dyDescent="0.2">
@@ -56979,13 +56979,13 @@
         <v>8</v>
       </c>
       <c r="D1899" s="9">
-        <v>1586.3</v>
+        <v>1665.62</v>
       </c>
       <c r="E1899" s="2" t="s">
         <v>3968</v>
       </c>
       <c r="F1899" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1900" spans="1:6" x14ac:dyDescent="0.2">
@@ -57299,13 +57299,13 @@
         <v>8</v>
       </c>
       <c r="D1915" s="9">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="E1915" s="2" t="s">
         <v>4003</v>
       </c>
       <c r="F1915" s="3">
-        <v>45316</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="1916" spans="1:6" x14ac:dyDescent="0.2">
@@ -57439,13 +57439,13 @@
         <v>8</v>
       </c>
       <c r="D1922" s="9">
-        <v>1557.78</v>
+        <v>1620.09</v>
       </c>
       <c r="E1922" s="2" t="s">
         <v>4003</v>
       </c>
       <c r="F1922" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1923" spans="1:6" x14ac:dyDescent="0.2">
@@ -57579,13 +57579,13 @@
         <v>8</v>
       </c>
       <c r="D1929" s="9">
-        <v>1432.49</v>
+        <v>1489.79</v>
       </c>
       <c r="E1929" s="2" t="s">
         <v>4003</v>
       </c>
       <c r="F1929" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1930" spans="1:6" x14ac:dyDescent="0.2">
@@ -58019,13 +58019,13 @@
         <v>925</v>
       </c>
       <c r="D1951" s="9">
-        <v>400.82</v>
+        <v>416.85</v>
       </c>
       <c r="E1951" s="2" t="s">
         <v>4082</v>
       </c>
       <c r="F1951" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1952" spans="1:6" x14ac:dyDescent="0.2">
@@ -58039,13 +58039,13 @@
         <v>925</v>
       </c>
       <c r="D1952" s="9">
-        <v>563.96</v>
+        <v>586.52</v>
       </c>
       <c r="E1952" s="2" t="s">
         <v>4082</v>
       </c>
       <c r="F1952" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1953" spans="1:6" x14ac:dyDescent="0.2">
@@ -58339,13 +58339,13 @@
         <v>834</v>
       </c>
       <c r="D1967" s="9">
-        <v>5052.5600000000004</v>
+        <v>5305.19</v>
       </c>
       <c r="E1967" s="2" t="s">
         <v>4114</v>
       </c>
       <c r="F1967" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1968" spans="1:6" x14ac:dyDescent="0.2">
@@ -58379,13 +58379,13 @@
         <v>834</v>
       </c>
       <c r="D1969" s="9">
-        <v>10682.08</v>
+        <v>11216.18</v>
       </c>
       <c r="E1969" s="2" t="s">
         <v>4114</v>
       </c>
       <c r="F1969" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1970" spans="1:6" x14ac:dyDescent="0.2">
@@ -58399,13 +58399,13 @@
         <v>834</v>
       </c>
       <c r="D1970" s="9">
-        <v>5052.5600000000004</v>
+        <v>5305.19</v>
       </c>
       <c r="E1970" s="2" t="s">
         <v>4114</v>
       </c>
       <c r="F1970" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1971" spans="1:6" x14ac:dyDescent="0.2">
@@ -58419,13 +58419,13 @@
         <v>834</v>
       </c>
       <c r="D1971" s="9">
-        <v>10682.08</v>
+        <v>11216.18</v>
       </c>
       <c r="E1971" s="2" t="s">
         <v>4114</v>
       </c>
       <c r="F1971" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1972" spans="1:6" x14ac:dyDescent="0.2">
@@ -58439,13 +58439,13 @@
         <v>834</v>
       </c>
       <c r="D1972" s="9">
-        <v>6125.02</v>
+        <v>6431.27</v>
       </c>
       <c r="E1972" s="2" t="s">
         <v>4114</v>
       </c>
       <c r="F1972" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1973" spans="1:6" x14ac:dyDescent="0.2">
@@ -58459,13 +58459,13 @@
         <v>834</v>
       </c>
       <c r="D1973" s="9">
-        <v>11944.7</v>
+        <v>12541.94</v>
       </c>
       <c r="E1973" s="2" t="s">
         <v>4114</v>
       </c>
       <c r="F1973" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1974" spans="1:6" x14ac:dyDescent="0.2">
@@ -58479,13 +58479,13 @@
         <v>834</v>
       </c>
       <c r="D1974" s="9">
-        <v>11944.7</v>
+        <v>12541.94</v>
       </c>
       <c r="E1974" s="2" t="s">
         <v>4114</v>
       </c>
       <c r="F1974" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1975" spans="1:6" x14ac:dyDescent="0.2">
@@ -58499,13 +58499,13 @@
         <v>834</v>
       </c>
       <c r="D1975" s="9">
-        <v>7047.07</v>
+        <v>7399.42</v>
       </c>
       <c r="E1975" s="2" t="s">
         <v>4114</v>
       </c>
       <c r="F1975" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1976" spans="1:6" x14ac:dyDescent="0.2">
@@ -58519,13 +58519,13 @@
         <v>834</v>
       </c>
       <c r="D1976" s="9">
-        <v>6125.02</v>
+        <v>6431.27</v>
       </c>
       <c r="E1976" s="2" t="s">
         <v>4114</v>
       </c>
       <c r="F1976" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1977" spans="1:6" x14ac:dyDescent="0.2">
@@ -58639,13 +58639,13 @@
         <v>8</v>
       </c>
       <c r="D1982" s="9">
-        <v>4207.5</v>
+        <v>4417.88</v>
       </c>
       <c r="E1982" s="2" t="s">
         <v>4114</v>
       </c>
       <c r="F1982" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1983" spans="1:6" x14ac:dyDescent="0.2">
@@ -58659,13 +58659,13 @@
         <v>8</v>
       </c>
       <c r="D1983" s="9">
-        <v>4207.5</v>
+        <v>4417.88</v>
       </c>
       <c r="E1983" s="2" t="s">
         <v>4114</v>
       </c>
       <c r="F1983" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1984" spans="1:6" x14ac:dyDescent="0.2">
@@ -58679,13 +58679,13 @@
         <v>8</v>
       </c>
       <c r="D1984" s="9">
-        <v>4456.13</v>
+        <v>4678.9399999999996</v>
       </c>
       <c r="E1984" s="2" t="s">
         <v>4114</v>
       </c>
       <c r="F1984" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1985" spans="1:6" x14ac:dyDescent="0.2">
@@ -58699,13 +58699,13 @@
         <v>64</v>
       </c>
       <c r="D1985" s="9">
-        <v>7363.13</v>
+        <v>7731.29</v>
       </c>
       <c r="E1985" s="2" t="s">
         <v>4114</v>
       </c>
       <c r="F1985" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1986" spans="1:6" x14ac:dyDescent="0.2">
@@ -58719,13 +58719,13 @@
         <v>64</v>
       </c>
       <c r="D1986" s="9">
-        <v>7764.75</v>
+        <v>8152.99</v>
       </c>
       <c r="E1986" s="2" t="s">
         <v>4114</v>
       </c>
       <c r="F1986" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1987" spans="1:6" x14ac:dyDescent="0.2">
@@ -58739,13 +58739,13 @@
         <v>64</v>
       </c>
       <c r="D1987" s="9">
-        <v>9409.5</v>
+        <v>9879.98</v>
       </c>
       <c r="E1987" s="2" t="s">
         <v>4114</v>
       </c>
       <c r="F1987" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1988" spans="1:6" x14ac:dyDescent="0.2">
@@ -58839,13 +58839,13 @@
         <v>972</v>
       </c>
       <c r="D1992" s="9">
-        <v>3187.27</v>
+        <v>3314.76</v>
       </c>
       <c r="E1992" s="2" t="s">
         <v>4169</v>
       </c>
       <c r="F1992" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1993" spans="1:6" x14ac:dyDescent="0.2">
@@ -58859,13 +58859,13 @@
         <v>972</v>
       </c>
       <c r="D1993" s="9">
-        <v>2455.3200000000002</v>
+        <v>2553.5300000000002</v>
       </c>
       <c r="E1993" s="2" t="s">
         <v>4169</v>
       </c>
       <c r="F1993" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="1994" spans="1:6" x14ac:dyDescent="0.2">
@@ -61039,13 +61039,13 @@
         <v>8</v>
       </c>
       <c r="D2102" s="9">
-        <v>861.07</v>
+        <v>895.51</v>
       </c>
       <c r="E2102" s="2" t="s">
         <v>4394</v>
       </c>
       <c r="F2102" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2103" spans="1:6" x14ac:dyDescent="0.2">
@@ -63359,13 +63359,13 @@
         <v>8</v>
       </c>
       <c r="D2218" s="9">
-        <v>417.83</v>
+        <v>434.54</v>
       </c>
       <c r="E2218" s="2" t="s">
         <v>4652</v>
       </c>
       <c r="F2218" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2219" spans="1:6" x14ac:dyDescent="0.2">
@@ -63659,13 +63659,13 @@
         <v>32</v>
       </c>
       <c r="D2233" s="9">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E2233" s="2" t="s">
         <v>4685</v>
       </c>
       <c r="F2233" s="3">
-        <v>45316</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="2234" spans="1:6" x14ac:dyDescent="0.2">
@@ -63679,13 +63679,13 @@
         <v>64</v>
       </c>
       <c r="D2234" s="9">
-        <v>17550</v>
+        <v>18750</v>
       </c>
       <c r="E2234" s="2" t="s">
         <v>4685</v>
       </c>
       <c r="F2234" s="3">
-        <v>45316</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="2235" spans="1:6" x14ac:dyDescent="0.2">
@@ -63699,13 +63699,13 @@
         <v>64</v>
       </c>
       <c r="D2235" s="9">
-        <v>22500</v>
+        <v>24000</v>
       </c>
       <c r="E2235" s="2" t="s">
         <v>4685</v>
       </c>
       <c r="F2235" s="3">
-        <v>45316</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="2236" spans="1:6" x14ac:dyDescent="0.2">
@@ -63779,13 +63779,13 @@
         <v>8</v>
       </c>
       <c r="D2239" s="9">
-        <v>674.95</v>
+        <v>701.95</v>
       </c>
       <c r="E2239" s="2" t="s">
         <v>4699</v>
       </c>
       <c r="F2239" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2240" spans="1:6" x14ac:dyDescent="0.2">
@@ -63799,13 +63799,13 @@
         <v>8</v>
       </c>
       <c r="D2240" s="9">
-        <v>857.93</v>
+        <v>892.25</v>
       </c>
       <c r="E2240" s="2" t="s">
         <v>4699</v>
       </c>
       <c r="F2240" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2241" spans="1:6" x14ac:dyDescent="0.2">
@@ -63859,13 +63859,13 @@
         <v>64</v>
       </c>
       <c r="D2243" s="9">
-        <v>3453.26</v>
+        <v>3591.39</v>
       </c>
       <c r="E2243" s="2" t="s">
         <v>4699</v>
       </c>
       <c r="F2243" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2244" spans="1:6" x14ac:dyDescent="0.2">
@@ -64139,13 +64139,13 @@
         <v>8</v>
       </c>
       <c r="D2257" s="9">
-        <v>586.75</v>
+        <v>610.22</v>
       </c>
       <c r="E2257" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2257" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2258" spans="1:6" x14ac:dyDescent="0.2">
@@ -64159,13 +64159,13 @@
         <v>8</v>
       </c>
       <c r="D2258" s="9">
-        <v>674.95</v>
+        <v>701.95</v>
       </c>
       <c r="E2258" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2258" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2259" spans="1:6" x14ac:dyDescent="0.2">
@@ -64179,13 +64179,13 @@
         <v>8</v>
       </c>
       <c r="D2259" s="9">
-        <v>515.11</v>
+        <v>535.71</v>
       </c>
       <c r="E2259" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2259" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2260" spans="1:6" x14ac:dyDescent="0.2">
@@ -64239,13 +64239,13 @@
         <v>966</v>
       </c>
       <c r="D2262" s="9">
-        <v>38.47</v>
+        <v>40.01</v>
       </c>
       <c r="E2262" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2262" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2263" spans="1:6" x14ac:dyDescent="0.2">
@@ -64259,13 +64259,13 @@
         <v>925</v>
       </c>
       <c r="D2263" s="9">
-        <v>183.16</v>
+        <v>190.49</v>
       </c>
       <c r="E2263" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2263" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2264" spans="1:6" x14ac:dyDescent="0.2">
@@ -64279,13 +64279,13 @@
         <v>925</v>
       </c>
       <c r="D2264" s="9">
-        <v>275.35000000000002</v>
+        <v>286.36</v>
       </c>
       <c r="E2264" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2264" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2265" spans="1:6" x14ac:dyDescent="0.2">
@@ -64319,13 +64319,13 @@
         <v>925</v>
       </c>
       <c r="D2266" s="9">
-        <v>215.02</v>
+        <v>223.62</v>
       </c>
       <c r="E2266" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2266" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2267" spans="1:6" x14ac:dyDescent="0.2">
@@ -64379,13 +64379,13 @@
         <v>834</v>
       </c>
       <c r="D2269" s="9">
-        <v>1441.09</v>
+        <v>1498.73</v>
       </c>
       <c r="E2269" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2269" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2270" spans="1:6" x14ac:dyDescent="0.2">
@@ -64399,13 +64399,13 @@
         <v>32</v>
       </c>
       <c r="D2270" s="9">
-        <v>2285.7800000000002</v>
+        <v>2377.21</v>
       </c>
       <c r="E2270" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2270" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2271" spans="1:6" x14ac:dyDescent="0.2">
@@ -64439,13 +64439,13 @@
         <v>64</v>
       </c>
       <c r="D2272" s="9">
-        <v>4017.41</v>
+        <v>4178.1099999999997</v>
       </c>
       <c r="E2272" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2272" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2273" spans="1:6" x14ac:dyDescent="0.2">
@@ -64519,13 +64519,13 @@
         <v>972</v>
       </c>
       <c r="D2276" s="9">
-        <v>5129.05</v>
+        <v>5334.21</v>
       </c>
       <c r="E2276" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2276" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2277" spans="1:6" x14ac:dyDescent="0.2">
@@ -64539,13 +64539,13 @@
         <v>972</v>
       </c>
       <c r="D2277" s="9">
-        <v>3036.24</v>
+        <v>3157.69</v>
       </c>
       <c r="E2277" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2277" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2278" spans="1:6" x14ac:dyDescent="0.2">
@@ -64559,13 +64559,13 @@
         <v>8</v>
       </c>
       <c r="D2278" s="9">
-        <v>850.06</v>
+        <v>884.06</v>
       </c>
       <c r="E2278" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2278" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2279" spans="1:6" x14ac:dyDescent="0.2">
@@ -64579,13 +64579,13 @@
         <v>2261</v>
       </c>
       <c r="D2279" s="9">
-        <v>728.44</v>
+        <v>757.58</v>
       </c>
       <c r="E2279" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2279" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2280" spans="1:6" x14ac:dyDescent="0.2">
@@ -64599,13 +64599,13 @@
         <v>2261</v>
       </c>
       <c r="D2280" s="9">
-        <v>767.74</v>
+        <v>798.45</v>
       </c>
       <c r="E2280" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2280" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2281" spans="1:6" x14ac:dyDescent="0.2">
@@ -64659,13 +64659,13 @@
         <v>8</v>
       </c>
       <c r="D2283" s="9">
-        <v>920.48</v>
+        <v>1058.56</v>
       </c>
       <c r="E2283" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2283" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2284" spans="1:6" x14ac:dyDescent="0.2">
@@ -64679,13 +64679,13 @@
         <v>64</v>
       </c>
       <c r="D2284" s="9">
-        <v>1892.32</v>
+        <v>2263.2199999999998</v>
       </c>
       <c r="E2284" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2284" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2285" spans="1:6" x14ac:dyDescent="0.2">
@@ -64699,13 +64699,13 @@
         <v>64</v>
       </c>
       <c r="D2285" s="9">
-        <v>4165.8999999999996</v>
+        <v>4790.79</v>
       </c>
       <c r="E2285" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2285" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2286" spans="1:6" x14ac:dyDescent="0.2">
@@ -64719,13 +64719,13 @@
         <v>64</v>
       </c>
       <c r="D2286" s="9">
-        <v>2760.97</v>
+        <v>3175.12</v>
       </c>
       <c r="E2286" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2286" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2287" spans="1:6" x14ac:dyDescent="0.2">
@@ -64779,13 +64779,13 @@
         <v>8</v>
       </c>
       <c r="D2289" s="9">
-        <v>1108.4000000000001</v>
+        <v>1163.82</v>
       </c>
       <c r="E2289" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2289" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2290" spans="1:6" x14ac:dyDescent="0.2">
@@ -64799,13 +64799,13 @@
         <v>8</v>
       </c>
       <c r="D2290" s="9">
-        <v>7458.75</v>
+        <v>7831.69</v>
       </c>
       <c r="E2290" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2290" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2291" spans="1:6" x14ac:dyDescent="0.2">
@@ -64819,13 +64819,13 @@
         <v>8</v>
       </c>
       <c r="D2291" s="9">
-        <v>448.06</v>
+        <v>465.98</v>
       </c>
       <c r="E2291" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2291" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2292" spans="1:6" x14ac:dyDescent="0.2">
@@ -64959,13 +64959,13 @@
         <v>8</v>
       </c>
       <c r="D2298" s="9">
-        <v>210.94</v>
+        <v>219.38</v>
       </c>
       <c r="E2298" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2298" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2299" spans="1:6" x14ac:dyDescent="0.2">
@@ -64979,13 +64979,13 @@
         <v>8</v>
       </c>
       <c r="D2299" s="9">
-        <v>210.94</v>
+        <v>219.38</v>
       </c>
       <c r="E2299" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2299" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2300" spans="1:6" x14ac:dyDescent="0.2">
@@ -64999,13 +64999,13 @@
         <v>8</v>
       </c>
       <c r="D2300" s="9">
-        <v>388.7</v>
+        <v>404.25</v>
       </c>
       <c r="E2300" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2300" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2301" spans="1:6" x14ac:dyDescent="0.2">
@@ -65559,13 +65559,13 @@
         <v>8</v>
       </c>
       <c r="D2328" s="9">
-        <v>1683</v>
+        <v>1767.15</v>
       </c>
       <c r="E2328" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2328" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2329" spans="1:6" x14ac:dyDescent="0.2">
@@ -65599,13 +65599,13 @@
         <v>925</v>
       </c>
       <c r="D2330" s="9">
-        <v>4092.75</v>
+        <v>4297.3900000000003</v>
       </c>
       <c r="E2330" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2330" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2331" spans="1:6" x14ac:dyDescent="0.2">
@@ -65639,13 +65639,13 @@
         <v>8</v>
       </c>
       <c r="D2332" s="9">
-        <v>6349.5</v>
+        <v>6666.98</v>
       </c>
       <c r="E2332" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2332" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2333" spans="1:6" x14ac:dyDescent="0.2">
@@ -65659,13 +65659,13 @@
         <v>8</v>
       </c>
       <c r="D2333" s="9">
-        <v>6349.5</v>
+        <v>6666.98</v>
       </c>
       <c r="E2333" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2333" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2334" spans="1:6" x14ac:dyDescent="0.2">
@@ -65679,13 +65679,13 @@
         <v>8</v>
       </c>
       <c r="D2334" s="9">
-        <v>8874</v>
+        <v>9317.7000000000007</v>
       </c>
       <c r="E2334" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2334" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2335" spans="1:6" x14ac:dyDescent="0.2">
@@ -65719,13 +65719,13 @@
         <v>8</v>
       </c>
       <c r="D2336" s="9">
-        <v>8568</v>
+        <v>8996.4</v>
       </c>
       <c r="E2336" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2336" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2337" spans="1:6" x14ac:dyDescent="0.2">
@@ -65999,13 +65999,13 @@
         <v>64</v>
       </c>
       <c r="D2350" s="9">
-        <v>767.74</v>
+        <v>798.45</v>
       </c>
       <c r="E2350" s="2" t="s">
         <v>4901</v>
       </c>
       <c r="F2350" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2351" spans="1:6" x14ac:dyDescent="0.2">
@@ -66999,13 +66999,13 @@
         <v>2049</v>
       </c>
       <c r="D2400" s="9">
-        <v>5259.38</v>
+        <v>5522.35</v>
       </c>
       <c r="E2400" s="2" t="s">
         <v>5017</v>
       </c>
       <c r="F2400" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2401" spans="1:6" x14ac:dyDescent="0.2">
@@ -67019,13 +67019,13 @@
         <v>2049</v>
       </c>
       <c r="D2401" s="9">
-        <v>5259.38</v>
+        <v>5522.35</v>
       </c>
       <c r="E2401" s="2" t="s">
         <v>5017</v>
       </c>
       <c r="F2401" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2402" spans="1:6" x14ac:dyDescent="0.2">
@@ -67059,13 +67059,13 @@
         <v>32</v>
       </c>
       <c r="D2403" s="9">
-        <v>235.11</v>
+        <v>246.87</v>
       </c>
       <c r="E2403" s="2" t="s">
         <v>5017</v>
       </c>
       <c r="F2403" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2404" spans="1:6" x14ac:dyDescent="0.2">
@@ -67079,13 +67079,13 @@
         <v>834</v>
       </c>
       <c r="D2404" s="9">
-        <v>7191</v>
+        <v>7550.55</v>
       </c>
       <c r="E2404" s="2" t="s">
         <v>5017</v>
       </c>
       <c r="F2404" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2405" spans="1:6" x14ac:dyDescent="0.2">
@@ -67419,13 +67419,13 @@
         <v>925</v>
       </c>
       <c r="D2421" s="9">
-        <v>210.38</v>
+        <v>220.9</v>
       </c>
       <c r="E2421" s="2" t="s">
         <v>5070</v>
       </c>
       <c r="F2421" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2422" spans="1:6" x14ac:dyDescent="0.2">
@@ -68059,13 +68059,13 @@
         <v>64</v>
       </c>
       <c r="D2453" s="9">
-        <v>6346.09</v>
+        <v>6599.93</v>
       </c>
       <c r="E2453" s="2" t="s">
         <v>5143</v>
       </c>
       <c r="F2453" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2454" spans="1:6" x14ac:dyDescent="0.2">
@@ -68079,13 +68079,13 @@
         <v>64</v>
       </c>
       <c r="D2454" s="9">
-        <v>4141.8999999999996</v>
+        <v>4307.58</v>
       </c>
       <c r="E2454" s="2" t="s">
         <v>5143</v>
       </c>
       <c r="F2454" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2455" spans="1:6" x14ac:dyDescent="0.2">
@@ -68099,13 +68099,13 @@
         <v>64</v>
       </c>
       <c r="D2455" s="9">
-        <v>7150.26</v>
+        <v>7436.27</v>
       </c>
       <c r="E2455" s="2" t="s">
         <v>5143</v>
       </c>
       <c r="F2455" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2456" spans="1:6" x14ac:dyDescent="0.2">
@@ -68119,13 +68119,13 @@
         <v>64</v>
       </c>
       <c r="D2456" s="9">
-        <v>4547.51</v>
+        <v>4729.41</v>
       </c>
       <c r="E2456" s="2" t="s">
         <v>5143</v>
       </c>
       <c r="F2456" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2457" spans="1:6" x14ac:dyDescent="0.2">
@@ -68139,13 +68139,13 @@
         <v>64</v>
       </c>
       <c r="D2457" s="9">
-        <v>3413.87</v>
+        <v>3550.42</v>
       </c>
       <c r="E2457" s="2" t="s">
         <v>5143</v>
       </c>
       <c r="F2457" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2458" spans="1:6" x14ac:dyDescent="0.2">
@@ -68159,13 +68159,13 @@
         <v>64</v>
       </c>
       <c r="D2458" s="9">
-        <v>7831.61</v>
+        <v>8614.77</v>
       </c>
       <c r="E2458" s="2" t="s">
         <v>5154</v>
       </c>
       <c r="F2458" s="3">
-        <v>45279</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="2459" spans="1:6" x14ac:dyDescent="0.2">
@@ -68179,13 +68179,13 @@
         <v>64</v>
       </c>
       <c r="D2459" s="9">
-        <v>5115.42</v>
+        <v>5626.96</v>
       </c>
       <c r="E2459" s="2" t="s">
         <v>5154</v>
       </c>
       <c r="F2459" s="3">
-        <v>45279</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="2460" spans="1:6" x14ac:dyDescent="0.2">
@@ -68199,13 +68199,13 @@
         <v>64</v>
       </c>
       <c r="D2460" s="9">
-        <v>20169.37</v>
+        <v>22186.31</v>
       </c>
       <c r="E2460" s="2" t="s">
         <v>5154</v>
       </c>
       <c r="F2460" s="3">
-        <v>45279</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="2461" spans="1:6" x14ac:dyDescent="0.2">
@@ -68219,13 +68219,13 @@
         <v>64</v>
       </c>
       <c r="D2461" s="9">
-        <v>2037.11</v>
+        <v>2240.8200000000002</v>
       </c>
       <c r="E2461" s="2" t="s">
         <v>5154</v>
       </c>
       <c r="F2461" s="3">
-        <v>45279</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="2462" spans="1:6" x14ac:dyDescent="0.2">
@@ -68239,13 +68239,13 @@
         <v>64</v>
       </c>
       <c r="D2462" s="9">
-        <v>897.98</v>
+        <v>987.78</v>
       </c>
       <c r="E2462" s="2" t="s">
         <v>5154</v>
       </c>
       <c r="F2462" s="3">
-        <v>45279</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="2463" spans="1:6" x14ac:dyDescent="0.2">
@@ -68279,13 +68279,13 @@
         <v>64</v>
       </c>
       <c r="D2464" s="9">
-        <v>2791.42</v>
+        <v>2903.08</v>
       </c>
       <c r="E2464" s="2" t="s">
         <v>5165</v>
       </c>
       <c r="F2464" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2465" spans="1:6" x14ac:dyDescent="0.2">
@@ -68359,13 +68359,13 @@
         <v>925</v>
       </c>
       <c r="D2468" s="9">
-        <v>1048.8699999999999</v>
+        <v>1090.82</v>
       </c>
       <c r="E2468" s="2" t="s">
         <v>5177</v>
       </c>
       <c r="F2468" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2469" spans="1:6" x14ac:dyDescent="0.2">
@@ -68379,13 +68379,13 @@
         <v>925</v>
       </c>
       <c r="D2469" s="9">
-        <v>1048.8699999999999</v>
+        <v>1090.82</v>
       </c>
       <c r="E2469" s="2" t="s">
         <v>5177</v>
       </c>
       <c r="F2469" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2470" spans="1:6" x14ac:dyDescent="0.2">
@@ -68399,13 +68399,13 @@
         <v>925</v>
       </c>
       <c r="D2470" s="9">
-        <v>1048.8699999999999</v>
+        <v>1090.82</v>
       </c>
       <c r="E2470" s="2" t="s">
         <v>5177</v>
       </c>
       <c r="F2470" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2471" spans="1:6" x14ac:dyDescent="0.2">
@@ -68679,13 +68679,13 @@
         <v>8</v>
       </c>
       <c r="D2484" s="9">
-        <v>1818.37</v>
+        <v>2091.13</v>
       </c>
       <c r="E2484" s="2" t="s">
         <v>5209</v>
       </c>
       <c r="F2484" s="3">
-        <v>45273</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="2485" spans="1:6" x14ac:dyDescent="0.2">
@@ -68699,13 +68699,13 @@
         <v>8</v>
       </c>
       <c r="D2485" s="9">
-        <v>2111.1999999999998</v>
+        <v>2427.88</v>
       </c>
       <c r="E2485" s="2" t="s">
         <v>5209</v>
       </c>
       <c r="F2485" s="3">
-        <v>45273</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="2486" spans="1:6" x14ac:dyDescent="0.2">
@@ -68819,13 +68819,13 @@
         <v>8</v>
       </c>
       <c r="D2491" s="9">
-        <v>2732.83</v>
+        <v>3142.76</v>
       </c>
       <c r="E2491" s="2" t="s">
         <v>5224</v>
       </c>
       <c r="F2491" s="3">
-        <v>45273</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="2492" spans="1:6" x14ac:dyDescent="0.2">
@@ -68839,13 +68839,13 @@
         <v>8</v>
       </c>
       <c r="D2492" s="9">
-        <v>3172.8</v>
+        <v>3648.72</v>
       </c>
       <c r="E2492" s="2" t="s">
         <v>5224</v>
       </c>
       <c r="F2492" s="3">
-        <v>45273</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="2493" spans="1:6" x14ac:dyDescent="0.2">
@@ -68859,13 +68859,13 @@
         <v>32</v>
       </c>
       <c r="D2493" s="9">
-        <v>2409.75</v>
+        <v>2530.2399999999998</v>
       </c>
       <c r="E2493" s="2" t="s">
         <v>5224</v>
       </c>
       <c r="F2493" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2494" spans="1:6" x14ac:dyDescent="0.2">
@@ -68919,13 +68919,13 @@
         <v>32</v>
       </c>
       <c r="D2496" s="9">
-        <v>3882.38</v>
+        <v>4076.5</v>
       </c>
       <c r="E2496" s="2" t="s">
         <v>5224</v>
       </c>
       <c r="F2496" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2497" spans="1:6" x14ac:dyDescent="0.2">
@@ -69399,13 +69399,13 @@
         <v>64</v>
       </c>
       <c r="D2520" s="9">
-        <v>9141.75</v>
+        <v>9598.84</v>
       </c>
       <c r="E2520" s="2" t="s">
         <v>5252</v>
       </c>
       <c r="F2520" s="3">
-        <v>45302</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2521" spans="1:6" x14ac:dyDescent="0.2">
@@ -70219,13 +70219,13 @@
         <v>925</v>
       </c>
       <c r="D2561" s="9">
-        <v>157.22</v>
+        <v>163.51</v>
       </c>
       <c r="E2561" s="2" t="s">
         <v>5345</v>
       </c>
       <c r="F2561" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2562" spans="1:6" x14ac:dyDescent="0.2">
@@ -70239,13 +70239,13 @@
         <v>8</v>
       </c>
       <c r="D2562" s="9">
-        <v>517.29999999999995</v>
+        <v>537.99</v>
       </c>
       <c r="E2562" s="2" t="s">
         <v>5345</v>
       </c>
       <c r="F2562" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2563" spans="1:6" x14ac:dyDescent="0.2">
@@ -71019,13 +71019,13 @@
         <v>64</v>
       </c>
       <c r="D2601" s="9">
-        <v>26527.18</v>
+        <v>27853.54</v>
       </c>
       <c r="E2601" s="2" t="s">
         <v>5451</v>
       </c>
       <c r="F2601" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2602" spans="1:6" x14ac:dyDescent="0.2">
@@ -71099,13 +71099,13 @@
         <v>8</v>
       </c>
       <c r="D2605" s="9">
-        <v>2090.65</v>
+        <v>2174.2800000000002</v>
       </c>
       <c r="E2605" s="2" t="s">
         <v>5458</v>
       </c>
       <c r="F2605" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2606" spans="1:6" x14ac:dyDescent="0.2">
@@ -71999,13 +71999,13 @@
         <v>8</v>
       </c>
       <c r="D2650" s="9">
-        <v>463.46</v>
+        <v>486.63</v>
       </c>
       <c r="E2650" s="2" t="s">
         <v>5570</v>
       </c>
       <c r="F2650" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2651" spans="1:6" x14ac:dyDescent="0.2">
@@ -72019,13 +72019,13 @@
         <v>8</v>
       </c>
       <c r="D2651" s="9">
-        <v>385.33</v>
+        <v>404.6</v>
       </c>
       <c r="E2651" s="2" t="s">
         <v>5570</v>
       </c>
       <c r="F2651" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2652" spans="1:6" x14ac:dyDescent="0.2">
@@ -72039,13 +72039,13 @@
         <v>8</v>
       </c>
       <c r="D2652" s="9">
-        <v>385.33</v>
+        <v>404.6</v>
       </c>
       <c r="E2652" s="2" t="s">
         <v>5570</v>
       </c>
       <c r="F2652" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2653" spans="1:6" x14ac:dyDescent="0.2">
@@ -72059,13 +72059,13 @@
         <v>8</v>
       </c>
       <c r="D2653" s="9">
-        <v>613.01</v>
+        <v>643.66</v>
       </c>
       <c r="E2653" s="2" t="s">
         <v>5570</v>
       </c>
       <c r="F2653" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2654" spans="1:6" x14ac:dyDescent="0.2">
@@ -72079,13 +72079,13 @@
         <v>8</v>
       </c>
       <c r="D2654" s="9">
-        <v>683.02</v>
+        <v>717.17</v>
       </c>
       <c r="E2654" s="2" t="s">
         <v>5570</v>
       </c>
       <c r="F2654" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2655" spans="1:6" x14ac:dyDescent="0.2">
@@ -72099,13 +72099,13 @@
         <v>8</v>
       </c>
       <c r="D2655" s="9">
-        <v>980.74</v>
+        <v>1029.78</v>
       </c>
       <c r="E2655" s="2" t="s">
         <v>5570</v>
       </c>
       <c r="F2655" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2656" spans="1:6" x14ac:dyDescent="0.2">
@@ -72119,13 +72119,13 @@
         <v>8</v>
       </c>
       <c r="D2656" s="9">
-        <v>3537.75</v>
+        <v>3714.64</v>
       </c>
       <c r="E2656" s="2" t="s">
         <v>5570</v>
       </c>
       <c r="F2656" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2657" spans="1:6" x14ac:dyDescent="0.2">
@@ -72139,13 +72139,13 @@
         <v>8</v>
       </c>
       <c r="D2657" s="9">
-        <v>609.82000000000005</v>
+        <v>640.30999999999995</v>
       </c>
       <c r="E2657" s="2" t="s">
         <v>5570</v>
       </c>
       <c r="F2657" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2658" spans="1:6" x14ac:dyDescent="0.2">
@@ -72159,13 +72159,13 @@
         <v>8</v>
       </c>
       <c r="D2658" s="9">
-        <v>631.36</v>
+        <v>662.93</v>
       </c>
       <c r="E2658" s="2" t="s">
         <v>5570</v>
       </c>
       <c r="F2658" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2659" spans="1:6" x14ac:dyDescent="0.2">
@@ -72179,13 +72179,13 @@
         <v>64</v>
       </c>
       <c r="D2659" s="9">
-        <v>2543.52</v>
+        <v>2670.7</v>
       </c>
       <c r="E2659" s="2" t="s">
         <v>5589</v>
       </c>
       <c r="F2659" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2660" spans="1:6" x14ac:dyDescent="0.2">
@@ -72199,13 +72199,13 @@
         <v>8</v>
       </c>
       <c r="D2660" s="9">
-        <v>2872.2</v>
+        <v>3015.81</v>
       </c>
       <c r="E2660" s="2" t="s">
         <v>5592</v>
       </c>
       <c r="F2660" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2661" spans="1:6" x14ac:dyDescent="0.2">
@@ -72219,13 +72219,13 @@
         <v>8</v>
       </c>
       <c r="D2661" s="9">
-        <v>3222.46</v>
+        <v>3383.58</v>
       </c>
       <c r="E2661" s="2" t="s">
         <v>5592</v>
       </c>
       <c r="F2661" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2662" spans="1:6" x14ac:dyDescent="0.2">
@@ -72239,13 +72239,13 @@
         <v>8</v>
       </c>
       <c r="D2662" s="9">
-        <v>4146.79</v>
+        <v>4354.13</v>
       </c>
       <c r="E2662" s="2" t="s">
         <v>5592</v>
       </c>
       <c r="F2662" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2663" spans="1:6" x14ac:dyDescent="0.2">
@@ -72259,13 +72259,13 @@
         <v>8</v>
       </c>
       <c r="D2663" s="9">
-        <v>3958.01</v>
+        <v>4155.91</v>
       </c>
       <c r="E2663" s="2" t="s">
         <v>5592</v>
       </c>
       <c r="F2663" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2664" spans="1:6" x14ac:dyDescent="0.2">
@@ -72279,13 +72279,13 @@
         <v>8</v>
       </c>
       <c r="D2664" s="9">
-        <v>4325.84</v>
+        <v>4542.13</v>
       </c>
       <c r="E2664" s="2" t="s">
         <v>5592</v>
       </c>
       <c r="F2664" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2665" spans="1:6" x14ac:dyDescent="0.2">
@@ -72299,13 +72299,13 @@
         <v>8</v>
       </c>
       <c r="D2665" s="9">
-        <v>4693.58</v>
+        <v>4928.26</v>
       </c>
       <c r="E2665" s="2" t="s">
         <v>5592</v>
       </c>
       <c r="F2665" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2666" spans="1:6" x14ac:dyDescent="0.2">
@@ -72319,13 +72319,13 @@
         <v>8</v>
       </c>
       <c r="D2666" s="9">
-        <v>5043.8500000000004</v>
+        <v>5296.04</v>
       </c>
       <c r="E2666" s="2" t="s">
         <v>5592</v>
       </c>
       <c r="F2666" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2667" spans="1:6" x14ac:dyDescent="0.2">
@@ -72339,13 +72339,13 @@
         <v>8</v>
       </c>
       <c r="D2667" s="9">
-        <v>5411.63</v>
+        <v>5682.21</v>
       </c>
       <c r="E2667" s="2" t="s">
         <v>5592</v>
       </c>
       <c r="F2667" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2668" spans="1:6" x14ac:dyDescent="0.2">
@@ -72359,13 +72359,13 @@
         <v>8</v>
       </c>
       <c r="D2668" s="9">
-        <v>5779.42</v>
+        <v>6068.39</v>
       </c>
       <c r="E2668" s="2" t="s">
         <v>5592</v>
       </c>
       <c r="F2668" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2669" spans="1:6" x14ac:dyDescent="0.2">
@@ -72379,13 +72379,13 @@
         <v>8</v>
       </c>
       <c r="D2669" s="9">
-        <v>6147.24</v>
+        <v>6454.6</v>
       </c>
       <c r="E2669" s="2" t="s">
         <v>5592</v>
       </c>
       <c r="F2669" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2670" spans="1:6" x14ac:dyDescent="0.2">
@@ -72399,13 +72399,13 @@
         <v>8</v>
       </c>
       <c r="D2670" s="9">
-        <v>6514.98</v>
+        <v>6840.73</v>
       </c>
       <c r="E2670" s="2" t="s">
         <v>5592</v>
       </c>
       <c r="F2670" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2671" spans="1:6" x14ac:dyDescent="0.2">
@@ -72419,13 +72419,13 @@
         <v>8</v>
       </c>
       <c r="D2671" s="9">
-        <v>6865.28</v>
+        <v>7208.54</v>
       </c>
       <c r="E2671" s="2" t="s">
         <v>5592</v>
       </c>
       <c r="F2671" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2672" spans="1:6" x14ac:dyDescent="0.2">
@@ -72439,13 +72439,13 @@
         <v>8</v>
       </c>
       <c r="D2672" s="9">
-        <v>7320.6</v>
+        <v>7686.63</v>
       </c>
       <c r="E2672" s="2" t="s">
         <v>5592</v>
       </c>
       <c r="F2672" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2673" spans="1:6" x14ac:dyDescent="0.2">
@@ -72459,13 +72459,13 @@
         <v>8</v>
       </c>
       <c r="D2673" s="9">
-        <v>7758.44</v>
+        <v>8146.36</v>
       </c>
       <c r="E2673" s="2" t="s">
         <v>5592</v>
       </c>
       <c r="F2673" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2674" spans="1:6" x14ac:dyDescent="0.2">
@@ -72879,13 +72879,13 @@
         <v>8</v>
       </c>
       <c r="D2694" s="9">
-        <v>205.66</v>
+        <v>213.89</v>
       </c>
       <c r="E2694" s="2" t="s">
         <v>5664</v>
       </c>
       <c r="F2694" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2695" spans="1:6" x14ac:dyDescent="0.2">
@@ -72899,13 +72899,13 @@
         <v>8</v>
       </c>
       <c r="D2695" s="9">
-        <v>208.63</v>
+        <v>216.98</v>
       </c>
       <c r="E2695" s="2" t="s">
         <v>5664</v>
       </c>
       <c r="F2695" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2696" spans="1:6" x14ac:dyDescent="0.2">
@@ -72939,13 +72939,13 @@
         <v>8</v>
       </c>
       <c r="D2697" s="9">
-        <v>678.1</v>
+        <v>705.22</v>
       </c>
       <c r="E2697" s="2" t="s">
         <v>5664</v>
       </c>
       <c r="F2697" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2698" spans="1:6" x14ac:dyDescent="0.2">
@@ -73219,13 +73219,13 @@
         <v>925</v>
       </c>
       <c r="D2711" s="9">
-        <v>40.76</v>
+        <v>44.84</v>
       </c>
       <c r="E2711" s="2" t="s">
         <v>5682</v>
       </c>
       <c r="F2711" s="3">
-        <v>45279</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="2712" spans="1:6" x14ac:dyDescent="0.2">
@@ -73239,13 +73239,13 @@
         <v>925</v>
       </c>
       <c r="D2712" s="9">
-        <v>95.54</v>
+        <v>105.09</v>
       </c>
       <c r="E2712" s="2" t="s">
         <v>5682</v>
       </c>
       <c r="F2712" s="3">
-        <v>45279</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="2713" spans="1:6" x14ac:dyDescent="0.2">
@@ -74899,13 +74899,13 @@
         <v>2049</v>
       </c>
       <c r="D2795" s="9">
-        <v>2241.6799999999998</v>
+        <v>2353.7600000000002</v>
       </c>
       <c r="E2795" s="2" t="s">
         <v>5885</v>
       </c>
       <c r="F2795" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2796" spans="1:6" x14ac:dyDescent="0.2">
@@ -74919,13 +74919,13 @@
         <v>2049</v>
       </c>
       <c r="D2796" s="9">
-        <v>2241.6799999999998</v>
+        <v>2353.7600000000002</v>
       </c>
       <c r="E2796" s="2" t="s">
         <v>5885</v>
       </c>
       <c r="F2796" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2797" spans="1:6" x14ac:dyDescent="0.2">
@@ -74939,13 +74939,13 @@
         <v>2049</v>
       </c>
       <c r="D2797" s="9">
-        <v>2329.3200000000002</v>
+        <v>2445.79</v>
       </c>
       <c r="E2797" s="2" t="s">
         <v>5885</v>
       </c>
       <c r="F2797" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2798" spans="1:6" x14ac:dyDescent="0.2">
@@ -74959,13 +74959,13 @@
         <v>64</v>
       </c>
       <c r="D2798" s="9">
-        <v>3415.1</v>
+        <v>3585.86</v>
       </c>
       <c r="E2798" s="2" t="s">
         <v>5885</v>
       </c>
       <c r="F2798" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2799" spans="1:6" x14ac:dyDescent="0.2">
@@ -74979,13 +74979,13 @@
         <v>64</v>
       </c>
       <c r="D2799" s="9">
-        <v>4115.6400000000003</v>
+        <v>4321.42</v>
       </c>
       <c r="E2799" s="2" t="s">
         <v>5885</v>
       </c>
       <c r="F2799" s="3">
-        <v>45275</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2800" spans="1:6" x14ac:dyDescent="0.2">
@@ -77097,13 +77097,13 @@
         <v>8</v>
       </c>
       <c r="D2905" s="9">
-        <v>1684.39</v>
+        <v>1751.77</v>
       </c>
       <c r="E2905" s="2" t="s">
         <v>6121</v>
       </c>
       <c r="F2905" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2906" spans="1:6" x14ac:dyDescent="0.2">
@@ -77117,13 +77117,13 @@
         <v>8</v>
       </c>
       <c r="D2906" s="9">
-        <v>2626.25</v>
+        <v>2731.3</v>
       </c>
       <c r="E2906" s="2" t="s">
         <v>6121</v>
       </c>
       <c r="F2906" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2907" spans="1:6" x14ac:dyDescent="0.2">
@@ -77137,13 +77137,13 @@
         <v>64</v>
       </c>
       <c r="D2907" s="9">
-        <v>3418.85</v>
+        <v>3555.6</v>
       </c>
       <c r="E2907" s="2" t="s">
         <v>6121</v>
       </c>
       <c r="F2907" s="3">
-        <v>45309</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="2908" spans="1:6" x14ac:dyDescent="0.2">
@@ -77437,13 +77437,13 @@
         <v>925</v>
       </c>
       <c r="D2922" s="9">
-        <v>870.96</v>
+        <v>1001.6</v>
       </c>
       <c r="E2922" s="2" t="s">
         <v>6164</v>
       </c>
       <c r="F2922" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2923" spans="1:6" x14ac:dyDescent="0.2">
@@ -77457,13 +77457,13 @@
         <v>921</v>
       </c>
       <c r="D2923" s="9">
-        <v>411.74</v>
+        <v>473.5</v>
       </c>
       <c r="E2923" s="2" t="s">
         <v>6164</v>
       </c>
       <c r="F2923" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2924" spans="1:6" x14ac:dyDescent="0.2">
@@ -77477,13 +77477,13 @@
         <v>921</v>
       </c>
       <c r="D2924" s="9">
-        <v>445.78</v>
+        <v>512.65</v>
       </c>
       <c r="E2924" s="2" t="s">
         <v>6164</v>
       </c>
       <c r="F2924" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2925" spans="1:6" x14ac:dyDescent="0.2">
@@ -77497,13 +77497,13 @@
         <v>2261</v>
       </c>
       <c r="D2925" s="9">
-        <v>1016.96</v>
+        <v>1169.5</v>
       </c>
       <c r="E2925" s="2" t="s">
         <v>6164</v>
       </c>
       <c r="F2925" s="3">
-        <v>45324</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2926" spans="1:6" x14ac:dyDescent="0.2">
@@ -77517,13 +77517,13 @@
         <v>2261</v>
       </c>
       <c r="D2926" s="9">
-        <v>800.53</v>
+        <v>920.61</v>
       </c>
       <c r="E2926" s="2" t="s">
         <v>6164</v>
       </c>
       <c r="F2926" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2927" spans="1:6" x14ac:dyDescent="0.2">
@@ -77537,13 +77537,13 @@
         <v>921</v>
       </c>
       <c r="D2927" s="9">
-        <v>893.42</v>
+        <v>1027.43</v>
       </c>
       <c r="E2927" s="2" t="s">
         <v>6164</v>
       </c>
       <c r="F2927" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2928" spans="1:6" x14ac:dyDescent="0.2">
@@ -77557,13 +77557,13 @@
         <v>921</v>
       </c>
       <c r="D2928" s="9">
-        <v>919.7</v>
+        <v>1057.6600000000001</v>
       </c>
       <c r="E2928" s="2" t="s">
         <v>6164</v>
       </c>
       <c r="F2928" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2929" spans="1:6" x14ac:dyDescent="0.2">
@@ -77577,13 +77577,13 @@
         <v>921</v>
       </c>
       <c r="D2929" s="9">
-        <v>441.1</v>
+        <v>507.27</v>
       </c>
       <c r="E2929" s="2" t="s">
         <v>6164</v>
       </c>
       <c r="F2929" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2930" spans="1:6" x14ac:dyDescent="0.2">
@@ -77597,13 +77597,13 @@
         <v>921</v>
       </c>
       <c r="D2930" s="9">
-        <v>482.64</v>
+        <v>555.04</v>
       </c>
       <c r="E2930" s="2" t="s">
         <v>6164</v>
       </c>
       <c r="F2930" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2931" spans="1:6" x14ac:dyDescent="0.2">
@@ -77617,13 +77617,13 @@
         <v>2261</v>
       </c>
       <c r="D2931" s="9">
-        <v>957.86</v>
+        <v>1101.54</v>
       </c>
       <c r="E2931" s="2" t="s">
         <v>6164</v>
       </c>
       <c r="F2931" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2932" spans="1:6" x14ac:dyDescent="0.2">
@@ -77637,13 +77637,13 @@
         <v>925</v>
       </c>
       <c r="D2932" s="9">
-        <v>1699.22</v>
+        <v>1954.1</v>
       </c>
       <c r="E2932" s="2" t="s">
         <v>6164</v>
       </c>
       <c r="F2932" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2933" spans="1:6" x14ac:dyDescent="0.2">
@@ -77657,13 +77657,13 @@
         <v>925</v>
       </c>
       <c r="D2933" s="9">
-        <v>1707.72</v>
+        <v>1963.88</v>
       </c>
       <c r="E2933" s="2" t="s">
         <v>6164</v>
       </c>
       <c r="F2933" s="3">
-        <v>45324</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2934" spans="1:6" x14ac:dyDescent="0.2">
@@ -77677,13 +77677,13 @@
         <v>921</v>
       </c>
       <c r="D2934" s="9">
-        <v>1199.6199999999999</v>
+        <v>1379.56</v>
       </c>
       <c r="E2934" s="2" t="s">
         <v>6164</v>
       </c>
       <c r="F2934" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2935" spans="1:6" x14ac:dyDescent="0.2">
@@ -77697,13 +77697,13 @@
         <v>2261</v>
       </c>
       <c r="D2935" s="9">
-        <v>1437.16</v>
+        <v>1652.73</v>
       </c>
       <c r="E2935" s="2" t="s">
         <v>6164</v>
       </c>
       <c r="F2935" s="3">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2936" spans="1:6" x14ac:dyDescent="0.2">
@@ -77717,13 +77717,13 @@
         <v>2261</v>
       </c>
       <c r="D2936" s="9">
-        <v>738.72</v>
+        <v>849.53</v>
       </c>
       <c r="E2936" s="2" t="s">
         <v>6164</v>
       </c>
       <c r="F2936" s="3">
-        <v>45294</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2937" spans="1:6" x14ac:dyDescent="0.2">
@@ -77737,13 +77737,13 @@
         <v>921</v>
       </c>
       <c r="D2937" s="9">
-        <v>1037.8800000000001</v>
+        <v>1193.56</v>
       </c>
       <c r="E2937" s="2" t="s">
         <v>6164</v>
       </c>
       <c r="F2937" s="3">
-        <v>45294</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2938" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -77757,13 +77757,13 @@
         <v>925</v>
       </c>
       <c r="D2938" s="10">
-        <v>1448.2</v>
+        <v>1665.43</v>
       </c>
       <c r="E2938" s="4" t="s">
         <v>6164</v>
       </c>
       <c r="F2938" s="5">
-        <v>45273</v>
+        <v>45349</v>
       </c>
     </row>
   </sheetData>

--- a/excel-files/fg.xlsx
+++ b/excel-files/fg.xlsx
@@ -24703,13 +24703,13 @@
         <v>64</v>
       </c>
       <c r="D285" s="9">
-        <v>3240.86</v>
+        <v>3148.28</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F285" s="3">
-        <v>45278</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
@@ -24723,13 +24723,13 @@
         <v>64</v>
       </c>
       <c r="D286" s="9">
-        <v>2117.54</v>
+        <v>2057.04</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F286" s="3">
-        <v>45278</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
@@ -24743,13 +24743,13 @@
         <v>493</v>
       </c>
       <c r="D287" s="9">
-        <v>1028.18</v>
+        <v>998.58</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F287" s="3">
-        <v>45278</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
@@ -24763,13 +24763,13 @@
         <v>591</v>
       </c>
       <c r="D288" s="9">
-        <v>5954.2</v>
+        <v>5784.34</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F288" s="3">
-        <v>45278</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
@@ -24783,13 +24783,13 @@
         <v>64</v>
       </c>
       <c r="D289" s="9">
-        <v>2117.54</v>
+        <v>2057.04</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F289" s="3">
-        <v>45278</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
@@ -24803,13 +24803,13 @@
         <v>64</v>
       </c>
       <c r="D290" s="9">
-        <v>2336.98</v>
+        <v>2270.2600000000002</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F290" s="3">
-        <v>45278</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
@@ -24823,13 +24823,13 @@
         <v>64</v>
       </c>
       <c r="D291" s="9">
-        <v>2206.48</v>
+        <v>2143.2600000000002</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F291" s="3">
-        <v>45278</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
@@ -24843,13 +24843,13 @@
         <v>64</v>
       </c>
       <c r="D292" s="9">
-        <v>2336.98</v>
+        <v>2270.2600000000002</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F292" s="3">
-        <v>45278</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
@@ -24863,13 +24863,13 @@
         <v>64</v>
       </c>
       <c r="D293" s="9">
-        <v>12422.56</v>
+        <v>12068.56</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F293" s="3">
-        <v>45278</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
@@ -25003,13 +25003,13 @@
         <v>496</v>
       </c>
       <c r="D300" s="9">
-        <v>5500.48</v>
+        <v>5488.02</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F300" s="3">
-        <v>45278</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
@@ -25023,13 +25023,13 @@
         <v>64</v>
       </c>
       <c r="D301" s="9">
-        <v>2040</v>
+        <v>1981.78</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F301" s="3">
-        <v>45278</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
@@ -25043,13 +25043,13 @@
         <v>64</v>
       </c>
       <c r="D302" s="9">
-        <v>999.64</v>
+        <v>970.92</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F302" s="3">
-        <v>45278</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
@@ -25063,13 +25063,13 @@
         <v>64</v>
       </c>
       <c r="D303" s="9">
-        <v>2866.42</v>
+        <v>2784.54</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>490</v>
       </c>
       <c r="F303" s="3">
-        <v>45278</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
@@ -29903,13 +29903,13 @@
         <v>64</v>
       </c>
       <c r="D545" s="9">
-        <v>3232.87</v>
+        <v>3717.8</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>1104</v>
       </c>
       <c r="F545" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.2">
@@ -29963,13 +29963,13 @@
         <v>64</v>
       </c>
       <c r="D548" s="9">
-        <v>4868.1499999999996</v>
+        <v>5598.37</v>
       </c>
       <c r="E548" s="2" t="s">
         <v>1104</v>
       </c>
       <c r="F548" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.2">
@@ -29983,13 +29983,13 @@
         <v>64</v>
       </c>
       <c r="D549" s="9">
-        <v>6568.53</v>
+        <v>7553.81</v>
       </c>
       <c r="E549" s="2" t="s">
         <v>1104</v>
       </c>
       <c r="F549" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.2">
@@ -32401,13 +32401,13 @@
         <v>64</v>
       </c>
       <c r="D670" s="9">
-        <v>4350.6400000000003</v>
+        <v>5003.24</v>
       </c>
       <c r="E670" s="2" t="s">
         <v>1376</v>
       </c>
       <c r="F670" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.2">
@@ -32521,13 +32521,13 @@
         <v>834</v>
       </c>
       <c r="D676" s="9">
-        <v>2691.72</v>
+        <v>3095.48</v>
       </c>
       <c r="E676" s="2" t="s">
         <v>1379</v>
       </c>
       <c r="F676" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.2">
@@ -32541,13 +32541,13 @@
         <v>834</v>
       </c>
       <c r="D677" s="9">
-        <v>4036.49</v>
+        <v>4641.96</v>
       </c>
       <c r="E677" s="2" t="s">
         <v>1379</v>
       </c>
       <c r="F677" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.2">
@@ -32621,13 +32621,13 @@
         <v>834</v>
       </c>
       <c r="D681" s="9">
-        <v>1796.99</v>
+        <v>2066.54</v>
       </c>
       <c r="E681" s="2" t="s">
         <v>1379</v>
       </c>
       <c r="F681" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.2">
@@ -32661,13 +32661,13 @@
         <v>64</v>
       </c>
       <c r="D683" s="9">
-        <v>1685.38</v>
+        <v>2112</v>
       </c>
       <c r="E683" s="2" t="s">
         <v>1402</v>
       </c>
       <c r="F683" s="3">
-        <v>45273</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.2">
@@ -32721,13 +32721,13 @@
         <v>64</v>
       </c>
       <c r="D686" s="9">
-        <v>2528.06</v>
+        <v>3168</v>
       </c>
       <c r="E686" s="2" t="s">
         <v>1402</v>
       </c>
       <c r="F686" s="3">
-        <v>45273</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.2">
@@ -34179,13 +34179,13 @@
         <v>8</v>
       </c>
       <c r="D759" s="9">
-        <v>1462.83</v>
+        <v>1560.94</v>
       </c>
       <c r="E759" s="2" t="s">
         <v>1565</v>
       </c>
       <c r="F759" s="3">
-        <v>45302</v>
+        <v>45359</v>
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.2">
@@ -42999,13 +42999,13 @@
         <v>64</v>
       </c>
       <c r="D1200" s="9">
-        <v>746.56</v>
+        <v>858.54</v>
       </c>
       <c r="E1200" s="2" t="s">
         <v>2463</v>
       </c>
       <c r="F1200" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="1201" spans="1:6" x14ac:dyDescent="0.2">
@@ -44639,13 +44639,13 @@
         <v>64</v>
       </c>
       <c r="D1282" s="9">
-        <v>5389.58</v>
+        <v>6512</v>
       </c>
       <c r="E1282" s="2" t="s">
         <v>2667</v>
       </c>
       <c r="F1282" s="3">
-        <v>45273</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="1283" spans="1:6" x14ac:dyDescent="0.2">
@@ -45579,13 +45579,13 @@
         <v>2049</v>
       </c>
       <c r="D1329" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1329" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1329" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1330" spans="1:6" x14ac:dyDescent="0.2">
@@ -45599,13 +45599,13 @@
         <v>2049</v>
       </c>
       <c r="D1330" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1330" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1330" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1331" spans="1:6" x14ac:dyDescent="0.2">
@@ -45619,13 +45619,13 @@
         <v>2049</v>
       </c>
       <c r="D1331" s="9">
-        <v>213.44</v>
+        <v>266.8</v>
       </c>
       <c r="E1331" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1331" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1332" spans="1:6" x14ac:dyDescent="0.2">
@@ -45639,13 +45639,13 @@
         <v>2049</v>
       </c>
       <c r="D1332" s="9">
-        <v>213.44</v>
+        <v>266.8</v>
       </c>
       <c r="E1332" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1332" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1333" spans="1:6" x14ac:dyDescent="0.2">
@@ -45659,13 +45659,13 @@
         <v>925</v>
       </c>
       <c r="D1333" s="9">
-        <v>329.92</v>
+        <v>412.4</v>
       </c>
       <c r="E1333" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1333" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1334" spans="1:6" x14ac:dyDescent="0.2">
@@ -45679,13 +45679,13 @@
         <v>2049</v>
       </c>
       <c r="D1334" s="9">
-        <v>202.58</v>
+        <v>253.23</v>
       </c>
       <c r="E1334" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1334" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1335" spans="1:6" x14ac:dyDescent="0.2">
@@ -45699,13 +45699,13 @@
         <v>925</v>
       </c>
       <c r="D1335" s="9">
-        <v>280.89999999999998</v>
+        <v>351.13</v>
       </c>
       <c r="E1335" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1335" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1336" spans="1:6" x14ac:dyDescent="0.2">
@@ -45719,13 +45719,13 @@
         <v>2049</v>
       </c>
       <c r="D1336" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1336" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1336" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1337" spans="1:6" x14ac:dyDescent="0.2">
@@ -45739,13 +45739,13 @@
         <v>2049</v>
       </c>
       <c r="D1337" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1337" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1337" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1338" spans="1:6" x14ac:dyDescent="0.2">
@@ -45759,13 +45759,13 @@
         <v>925</v>
       </c>
       <c r="D1338" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1338" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1338" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1339" spans="1:6" x14ac:dyDescent="0.2">
@@ -45779,13 +45779,13 @@
         <v>2049</v>
       </c>
       <c r="D1339" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1339" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1339" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1340" spans="1:6" x14ac:dyDescent="0.2">
@@ -45799,13 +45799,13 @@
         <v>2049</v>
       </c>
       <c r="D1340" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1340" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1340" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1341" spans="1:6" x14ac:dyDescent="0.2">
@@ -45819,13 +45819,13 @@
         <v>2049</v>
       </c>
       <c r="D1341" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1341" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1341" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1342" spans="1:6" x14ac:dyDescent="0.2">
@@ -45839,13 +45839,13 @@
         <v>2049</v>
       </c>
       <c r="D1342" s="9">
-        <v>329.92</v>
+        <v>412.4</v>
       </c>
       <c r="E1342" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1342" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1343" spans="1:6" x14ac:dyDescent="0.2">
@@ -45859,13 +45859,13 @@
         <v>2049</v>
       </c>
       <c r="D1343" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1343" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1343" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1344" spans="1:6" x14ac:dyDescent="0.2">
@@ -45879,13 +45879,13 @@
         <v>2049</v>
       </c>
       <c r="D1344" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1344" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1344" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1345" spans="1:6" x14ac:dyDescent="0.2">
@@ -45899,13 +45899,13 @@
         <v>2049</v>
       </c>
       <c r="D1345" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1345" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1345" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1346" spans="1:6" x14ac:dyDescent="0.2">
@@ -45919,13 +45919,13 @@
         <v>2049</v>
       </c>
       <c r="D1346" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1346" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1346" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1347" spans="1:6" x14ac:dyDescent="0.2">
@@ -45939,13 +45939,13 @@
         <v>2049</v>
       </c>
       <c r="D1347" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1347" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1347" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1348" spans="1:6" x14ac:dyDescent="0.2">
@@ -45959,13 +45959,13 @@
         <v>2049</v>
       </c>
       <c r="D1348" s="9">
-        <v>175.28</v>
+        <v>219.1</v>
       </c>
       <c r="E1348" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1348" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1349" spans="1:6" x14ac:dyDescent="0.2">
@@ -45979,13 +45979,13 @@
         <v>2049</v>
       </c>
       <c r="D1349" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1349" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1349" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1350" spans="1:6" x14ac:dyDescent="0.2">
@@ -45999,13 +45999,13 @@
         <v>2049</v>
       </c>
       <c r="D1350" s="9">
-        <v>329.92</v>
+        <v>412.4</v>
       </c>
       <c r="E1350" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1350" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1351" spans="1:6" x14ac:dyDescent="0.2">
@@ -46019,13 +46019,13 @@
         <v>2049</v>
       </c>
       <c r="D1351" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1351" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1351" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1352" spans="1:6" x14ac:dyDescent="0.2">
@@ -46039,13 +46039,13 @@
         <v>2049</v>
       </c>
       <c r="D1352" s="9">
-        <v>1716.76</v>
+        <v>2145.9499999999998</v>
       </c>
       <c r="E1352" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1352" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1353" spans="1:6" x14ac:dyDescent="0.2">
@@ -46059,13 +46059,13 @@
         <v>2049</v>
       </c>
       <c r="D1353" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1353" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1353" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1354" spans="1:6" x14ac:dyDescent="0.2">
@@ -46079,13 +46079,13 @@
         <v>2049</v>
       </c>
       <c r="D1354" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1354" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1354" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1355" spans="1:6" x14ac:dyDescent="0.2">
@@ -46099,13 +46099,13 @@
         <v>2049</v>
       </c>
       <c r="D1355" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1355" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1355" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1356" spans="1:6" x14ac:dyDescent="0.2">
@@ -46119,13 +46119,13 @@
         <v>2049</v>
       </c>
       <c r="D1356" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1356" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1356" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1357" spans="1:6" x14ac:dyDescent="0.2">
@@ -46139,13 +46139,13 @@
         <v>2049</v>
       </c>
       <c r="D1357" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1357" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1357" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1358" spans="1:6" x14ac:dyDescent="0.2">
@@ -46159,13 +46159,13 @@
         <v>2049</v>
       </c>
       <c r="D1358" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1358" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1358" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1359" spans="1:6" x14ac:dyDescent="0.2">
@@ -46179,13 +46179,13 @@
         <v>2049</v>
       </c>
       <c r="D1359" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1359" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1359" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1360" spans="1:6" x14ac:dyDescent="0.2">
@@ -46199,13 +46199,13 @@
         <v>2049</v>
       </c>
       <c r="D1360" s="9">
-        <v>1401.58</v>
+        <v>1751.98</v>
       </c>
       <c r="E1360" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1360" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1361" spans="1:6" x14ac:dyDescent="0.2">
@@ -46219,13 +46219,13 @@
         <v>2049</v>
       </c>
       <c r="D1361" s="9">
-        <v>262.04000000000002</v>
+        <v>327.55</v>
       </c>
       <c r="E1361" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1361" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1362" spans="1:6" x14ac:dyDescent="0.2">
@@ -46239,13 +46239,13 @@
         <v>925</v>
       </c>
       <c r="D1362" s="9">
-        <v>262.04000000000002</v>
+        <v>327.55</v>
       </c>
       <c r="E1362" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1362" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1363" spans="1:6" x14ac:dyDescent="0.2">
@@ -46259,13 +46259,13 @@
         <v>2049</v>
       </c>
       <c r="D1363" s="9">
-        <v>454.62</v>
+        <v>568.28</v>
       </c>
       <c r="E1363" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1363" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1364" spans="1:6" x14ac:dyDescent="0.2">
@@ -46279,13 +46279,13 @@
         <v>2049</v>
       </c>
       <c r="D1364" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1364" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1364" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1365" spans="1:6" x14ac:dyDescent="0.2">
@@ -46299,13 +46299,13 @@
         <v>2049</v>
       </c>
       <c r="D1365" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1365" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1365" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1366" spans="1:6" x14ac:dyDescent="0.2">
@@ -46319,13 +46319,13 @@
         <v>2049</v>
       </c>
       <c r="D1366" s="9">
-        <v>454.62</v>
+        <v>568.28</v>
       </c>
       <c r="E1366" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1366" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1367" spans="1:6" x14ac:dyDescent="0.2">
@@ -46339,13 +46339,13 @@
         <v>2049</v>
       </c>
       <c r="D1367" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1367" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1367" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1368" spans="1:6" x14ac:dyDescent="0.2">
@@ -46359,13 +46359,13 @@
         <v>2049</v>
       </c>
       <c r="D1368" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1368" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1368" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1369" spans="1:6" x14ac:dyDescent="0.2">
@@ -46379,13 +46379,13 @@
         <v>925</v>
       </c>
       <c r="D1369" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1369" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1369" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1370" spans="1:6" x14ac:dyDescent="0.2">
@@ -46399,13 +46399,13 @@
         <v>925</v>
       </c>
       <c r="D1370" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1370" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1370" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1371" spans="1:6" x14ac:dyDescent="0.2">
@@ -46419,13 +46419,13 @@
         <v>925</v>
       </c>
       <c r="D1371" s="9">
-        <v>307.02999999999997</v>
+        <v>383.79</v>
       </c>
       <c r="E1371" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1371" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1372" spans="1:6" x14ac:dyDescent="0.2">
@@ -46439,13 +46439,13 @@
         <v>2049</v>
       </c>
       <c r="D1372" s="9">
-        <v>329.92</v>
+        <v>412.4</v>
       </c>
       <c r="E1372" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1372" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1373" spans="1:6" x14ac:dyDescent="0.2">
@@ -46459,13 +46459,13 @@
         <v>925</v>
       </c>
       <c r="D1373" s="9">
-        <v>192.04</v>
+        <v>240.05</v>
       </c>
       <c r="E1373" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1373" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1374" spans="1:6" x14ac:dyDescent="0.2">
@@ -46479,13 +46479,13 @@
         <v>925</v>
       </c>
       <c r="D1374" s="9">
-        <v>192.04</v>
+        <v>240.05</v>
       </c>
       <c r="E1374" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1374" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1375" spans="1:6" x14ac:dyDescent="0.2">
@@ -46499,13 +46499,13 @@
         <v>925</v>
       </c>
       <c r="D1375" s="9">
-        <v>329.92</v>
+        <v>412.4</v>
       </c>
       <c r="E1375" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1375" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1376" spans="1:6" x14ac:dyDescent="0.2">
@@ -46519,13 +46519,13 @@
         <v>925</v>
       </c>
       <c r="D1376" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1376" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1376" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1377" spans="1:6" x14ac:dyDescent="0.2">
@@ -46539,13 +46539,13 @@
         <v>925</v>
       </c>
       <c r="D1377" s="9">
-        <v>329.92</v>
+        <v>412.4</v>
       </c>
       <c r="E1377" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1377" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1378" spans="1:6" x14ac:dyDescent="0.2">
@@ -46559,13 +46559,13 @@
         <v>2049</v>
       </c>
       <c r="D1378" s="9">
-        <v>1401.58</v>
+        <v>1751.98</v>
       </c>
       <c r="E1378" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1378" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1379" spans="1:6" x14ac:dyDescent="0.2">
@@ -46579,13 +46579,13 @@
         <v>2049</v>
       </c>
       <c r="D1379" s="9">
-        <v>192.04</v>
+        <v>240.05</v>
       </c>
       <c r="E1379" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1379" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1380" spans="1:6" x14ac:dyDescent="0.2">
@@ -46599,13 +46599,13 @@
         <v>2049</v>
       </c>
       <c r="D1380" s="9">
-        <v>334.2</v>
+        <v>417.75</v>
       </c>
       <c r="E1380" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1380" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1381" spans="1:6" x14ac:dyDescent="0.2">
@@ -46619,13 +46619,13 @@
         <v>2049</v>
       </c>
       <c r="D1381" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1381" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1381" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1382" spans="1:6" x14ac:dyDescent="0.2">
@@ -46639,13 +46639,13 @@
         <v>2049</v>
       </c>
       <c r="D1382" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1382" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1382" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1383" spans="1:6" x14ac:dyDescent="0.2">
@@ -46659,13 +46659,13 @@
         <v>925</v>
       </c>
       <c r="D1383" s="9">
-        <v>303.41000000000003</v>
+        <v>379.26</v>
       </c>
       <c r="E1383" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1383" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1384" spans="1:6" x14ac:dyDescent="0.2">
@@ -46679,13 +46679,13 @@
         <v>2049</v>
       </c>
       <c r="D1384" s="9">
-        <v>192.04</v>
+        <v>240.05</v>
       </c>
       <c r="E1384" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1384" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1385" spans="1:6" x14ac:dyDescent="0.2">
@@ -46699,13 +46699,13 @@
         <v>2049</v>
       </c>
       <c r="D1385" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1385" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1385" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1386" spans="1:6" x14ac:dyDescent="0.2">
@@ -46719,13 +46719,13 @@
         <v>2049</v>
       </c>
       <c r="D1386" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1386" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1386" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1387" spans="1:6" x14ac:dyDescent="0.2">
@@ -46739,13 +46739,13 @@
         <v>2049</v>
       </c>
       <c r="D1387" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1387" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1387" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1388" spans="1:6" x14ac:dyDescent="0.2">
@@ -46759,13 +46759,13 @@
         <v>2049</v>
       </c>
       <c r="D1388" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1388" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1388" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1389" spans="1:6" x14ac:dyDescent="0.2">
@@ -46779,13 +46779,13 @@
         <v>925</v>
       </c>
       <c r="D1389" s="9">
-        <v>281.33999999999997</v>
+        <v>351.68</v>
       </c>
       <c r="E1389" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1389" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1390" spans="1:6" x14ac:dyDescent="0.2">
@@ -46799,13 +46799,13 @@
         <v>2049</v>
       </c>
       <c r="D1390" s="9">
-        <v>262.04000000000002</v>
+        <v>327.55</v>
       </c>
       <c r="E1390" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1390" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1391" spans="1:6" x14ac:dyDescent="0.2">
@@ -46819,13 +46819,13 @@
         <v>2049</v>
       </c>
       <c r="D1391" s="9">
-        <v>202.58</v>
+        <v>253.23</v>
       </c>
       <c r="E1391" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1391" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1392" spans="1:6" x14ac:dyDescent="0.2">
@@ -46839,13 +46839,13 @@
         <v>925</v>
       </c>
       <c r="D1392" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1392" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1392" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1393" spans="1:6" x14ac:dyDescent="0.2">
@@ -46859,13 +46859,13 @@
         <v>2049</v>
       </c>
       <c r="D1393" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1393" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1393" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1394" spans="1:6" x14ac:dyDescent="0.2">
@@ -46879,13 +46879,13 @@
         <v>2049</v>
       </c>
       <c r="D1394" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1394" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1394" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1395" spans="1:6" x14ac:dyDescent="0.2">
@@ -46899,13 +46899,13 @@
         <v>2049</v>
       </c>
       <c r="D1395" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1395" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1395" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1396" spans="1:6" x14ac:dyDescent="0.2">
@@ -46919,13 +46919,13 @@
         <v>2049</v>
       </c>
       <c r="D1396" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1396" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1396" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1397" spans="1:6" x14ac:dyDescent="0.2">
@@ -46939,13 +46939,13 @@
         <v>925</v>
       </c>
       <c r="D1397" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1397" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1397" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1398" spans="1:6" x14ac:dyDescent="0.2">
@@ -46959,13 +46959,13 @@
         <v>925</v>
       </c>
       <c r="D1398" s="9">
-        <v>281.33999999999997</v>
+        <v>351.68</v>
       </c>
       <c r="E1398" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1398" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1399" spans="1:6" x14ac:dyDescent="0.2">
@@ -46979,13 +46979,13 @@
         <v>2049</v>
       </c>
       <c r="D1399" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1399" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1399" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1400" spans="1:6" x14ac:dyDescent="0.2">
@@ -46999,13 +46999,13 @@
         <v>2049</v>
       </c>
       <c r="D1400" s="9">
-        <v>329.92</v>
+        <v>412.4</v>
       </c>
       <c r="E1400" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1400" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1401" spans="1:6" x14ac:dyDescent="0.2">
@@ -47019,13 +47019,13 @@
         <v>925</v>
       </c>
       <c r="D1401" s="9">
-        <v>202.4</v>
+        <v>253</v>
       </c>
       <c r="E1401" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1401" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1402" spans="1:6" x14ac:dyDescent="0.2">
@@ -47039,13 +47039,13 @@
         <v>925</v>
       </c>
       <c r="D1402" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1402" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1402" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1403" spans="1:6" x14ac:dyDescent="0.2">
@@ -47059,13 +47059,13 @@
         <v>925</v>
       </c>
       <c r="D1403" s="9">
-        <v>217.34</v>
+        <v>271.68</v>
       </c>
       <c r="E1403" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1403" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1404" spans="1:6" x14ac:dyDescent="0.2">
@@ -47099,13 +47099,13 @@
         <v>2049</v>
       </c>
       <c r="D1405" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1405" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1405" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1406" spans="1:6" x14ac:dyDescent="0.2">
@@ -47119,13 +47119,13 @@
         <v>2049</v>
       </c>
       <c r="D1406" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1406" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1406" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1407" spans="1:6" x14ac:dyDescent="0.2">
@@ -47139,13 +47139,13 @@
         <v>2049</v>
       </c>
       <c r="D1407" s="9">
-        <v>222.91</v>
+        <v>278.64</v>
       </c>
       <c r="E1407" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1407" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1408" spans="1:6" x14ac:dyDescent="0.2">
@@ -47159,13 +47159,13 @@
         <v>2049</v>
       </c>
       <c r="D1408" s="9">
-        <v>207.48</v>
+        <v>259.35000000000002</v>
       </c>
       <c r="E1408" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1408" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1409" spans="1:6" x14ac:dyDescent="0.2">
@@ -47179,13 +47179,13 @@
         <v>925</v>
       </c>
       <c r="D1409" s="9">
-        <v>238.22</v>
+        <v>297.77999999999997</v>
       </c>
       <c r="E1409" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1409" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1410" spans="1:6" x14ac:dyDescent="0.2">
@@ -47199,13 +47199,13 @@
         <v>925</v>
       </c>
       <c r="D1410" s="9">
-        <v>192.04</v>
+        <v>240.05</v>
       </c>
       <c r="E1410" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1410" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1411" spans="1:6" x14ac:dyDescent="0.2">
@@ -47219,13 +47219,13 @@
         <v>2049</v>
       </c>
       <c r="D1411" s="9">
-        <v>202.58</v>
+        <v>253.23</v>
       </c>
       <c r="E1411" s="2" t="s">
         <v>2771</v>
       </c>
       <c r="F1411" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="1412" spans="1:6" x14ac:dyDescent="0.2">
@@ -49859,13 +49859,13 @@
         <v>8</v>
       </c>
       <c r="D1543" s="9">
-        <v>877.8</v>
+        <v>1100</v>
       </c>
       <c r="E1543" s="2" t="s">
         <v>3221</v>
       </c>
       <c r="F1543" s="3">
-        <v>45273</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="1544" spans="1:6" x14ac:dyDescent="0.2">
@@ -52579,13 +52579,13 @@
         <v>32</v>
       </c>
       <c r="D1679" s="9">
-        <v>5775.24</v>
+        <v>6352.77</v>
       </c>
       <c r="E1679" s="2" t="s">
         <v>3515</v>
       </c>
       <c r="F1679" s="3">
-        <v>45273</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="1680" spans="1:6" x14ac:dyDescent="0.2">
@@ -53959,13 +53959,13 @@
         <v>64</v>
       </c>
       <c r="D1748" s="9">
-        <v>4784.5200000000004</v>
+        <v>6820</v>
       </c>
       <c r="E1748" s="2" t="s">
         <v>3646</v>
       </c>
       <c r="F1748" s="3">
-        <v>45273</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="1749" spans="1:6" x14ac:dyDescent="0.2">
@@ -59419,13 +59419,13 @@
         <v>8</v>
       </c>
       <c r="D2021" s="9">
-        <v>609.84</v>
+        <v>713.51</v>
       </c>
       <c r="E2021" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2021" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2022" spans="1:6" x14ac:dyDescent="0.2">
@@ -59439,13 +59439,13 @@
         <v>8</v>
       </c>
       <c r="D2022" s="9">
-        <v>7133.81</v>
+        <v>8346.56</v>
       </c>
       <c r="E2022" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2022" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2023" spans="1:6" x14ac:dyDescent="0.2">
@@ -59459,13 +59459,13 @@
         <v>8</v>
       </c>
       <c r="D2023" s="9">
-        <v>9007.33</v>
+        <v>10538.58</v>
       </c>
       <c r="E2023" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2023" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2024" spans="1:6" x14ac:dyDescent="0.2">
@@ -59479,13 +59479,13 @@
         <v>8</v>
       </c>
       <c r="D2024" s="9">
-        <v>5944.54</v>
+        <v>6955.11</v>
       </c>
       <c r="E2024" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2024" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2025" spans="1:6" x14ac:dyDescent="0.2">
@@ -59499,13 +59499,13 @@
         <v>834</v>
       </c>
       <c r="D2025" s="9">
-        <v>10524.49</v>
+        <v>12313.65</v>
       </c>
       <c r="E2025" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2025" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2026" spans="1:6" x14ac:dyDescent="0.2">
@@ -59519,13 +59519,13 @@
         <v>8</v>
       </c>
       <c r="D2026" s="9">
-        <v>7729.87</v>
+        <v>9043.9500000000007</v>
       </c>
       <c r="E2026" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2026" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2027" spans="1:6" x14ac:dyDescent="0.2">
@@ -59539,13 +59539,13 @@
         <v>32</v>
       </c>
       <c r="D2027" s="9">
-        <v>10864.44</v>
+        <v>12711.39</v>
       </c>
       <c r="E2027" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2027" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2028" spans="1:6" x14ac:dyDescent="0.2">
@@ -59559,13 +59559,13 @@
         <v>32</v>
       </c>
       <c r="D2028" s="9">
-        <v>10038.129999999999</v>
+        <v>11744.61</v>
       </c>
       <c r="E2028" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2028" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2029" spans="1:6" x14ac:dyDescent="0.2">
@@ -59579,13 +59579,13 @@
         <v>32</v>
       </c>
       <c r="D2029" s="9">
-        <v>14314.94</v>
+        <v>16748.48</v>
       </c>
       <c r="E2029" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2029" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2030" spans="1:6" x14ac:dyDescent="0.2">
@@ -59599,13 +59599,13 @@
         <v>2114</v>
       </c>
       <c r="D2030" s="9">
-        <v>9750.99</v>
+        <v>11408.66</v>
       </c>
       <c r="E2030" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2030" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2031" spans="1:6" x14ac:dyDescent="0.2">
@@ -59619,13 +59619,13 @@
         <v>8</v>
       </c>
       <c r="D2031" s="9">
-        <v>1778.85</v>
+        <v>2081.25</v>
       </c>
       <c r="E2031" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2031" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2032" spans="1:6" x14ac:dyDescent="0.2">
@@ -59639,13 +59639,13 @@
         <v>8</v>
       </c>
       <c r="D2032" s="9">
-        <v>1978.97</v>
+        <v>2315.39</v>
       </c>
       <c r="E2032" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2032" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2033" spans="1:6" x14ac:dyDescent="0.2">
@@ -59659,13 +59659,13 @@
         <v>8</v>
       </c>
       <c r="D2033" s="9">
-        <v>2258.21</v>
+        <v>2642.11</v>
       </c>
       <c r="E2033" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2033" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2034" spans="1:6" x14ac:dyDescent="0.2">
@@ -59679,13 +59679,13 @@
         <v>8</v>
       </c>
       <c r="D2034" s="9">
-        <v>2524.0300000000002</v>
+        <v>2953.12</v>
       </c>
       <c r="E2034" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2034" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2035" spans="1:6" x14ac:dyDescent="0.2">
@@ -59699,13 +59699,13 @@
         <v>834</v>
       </c>
       <c r="D2035" s="9">
-        <v>3802.78</v>
+        <v>4449.25</v>
       </c>
       <c r="E2035" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2035" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2036" spans="1:6" x14ac:dyDescent="0.2">
@@ -59719,13 +59719,13 @@
         <v>8</v>
       </c>
       <c r="D2036" s="9">
-        <v>4618.88</v>
+        <v>5404.09</v>
       </c>
       <c r="E2036" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2036" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2037" spans="1:6" x14ac:dyDescent="0.2">
@@ -59739,13 +59739,13 @@
         <v>8</v>
       </c>
       <c r="D2037" s="9">
-        <v>721.84</v>
+        <v>844.55</v>
       </c>
       <c r="E2037" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2037" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2038" spans="1:6" x14ac:dyDescent="0.2">
@@ -59759,13 +59759,13 @@
         <v>32</v>
       </c>
       <c r="D2038" s="9">
-        <v>7133.81</v>
+        <v>8346.56</v>
       </c>
       <c r="E2038" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2038" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2039" spans="1:6" x14ac:dyDescent="0.2">
@@ -59779,13 +59779,13 @@
         <v>32</v>
       </c>
       <c r="D2039" s="9">
-        <v>6816.76</v>
+        <v>7975.61</v>
       </c>
       <c r="E2039" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2039" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2040" spans="1:6" x14ac:dyDescent="0.2">
@@ -59799,13 +59799,13 @@
         <v>2114</v>
       </c>
       <c r="D2040" s="9">
-        <v>7729.87</v>
+        <v>9043.9500000000007</v>
       </c>
       <c r="E2040" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="F2040" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="2041" spans="1:6" x14ac:dyDescent="0.2">
@@ -63379,13 +63379,13 @@
         <v>64</v>
       </c>
       <c r="D2219" s="9">
-        <v>6199.15</v>
+        <v>7129.02</v>
       </c>
       <c r="E2219" s="2" t="s">
         <v>4652</v>
       </c>
       <c r="F2219" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="2220" spans="1:6" x14ac:dyDescent="0.2">
@@ -63399,13 +63399,13 @@
         <v>64</v>
       </c>
       <c r="D2220" s="9">
-        <v>8450.43</v>
+        <v>9717.99</v>
       </c>
       <c r="E2220" s="2" t="s">
         <v>4652</v>
       </c>
       <c r="F2220" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="2221" spans="1:6" x14ac:dyDescent="0.2">
@@ -63419,13 +63419,13 @@
         <v>32</v>
       </c>
       <c r="D2221" s="9">
-        <v>1032.3599999999999</v>
+        <v>1187.21</v>
       </c>
       <c r="E2221" s="2" t="s">
         <v>4652</v>
       </c>
       <c r="F2221" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="2222" spans="1:6" x14ac:dyDescent="0.2">
@@ -63739,13 +63739,13 @@
         <v>8</v>
       </c>
       <c r="D2237" s="9">
-        <v>959.58</v>
+        <v>1364</v>
       </c>
       <c r="E2237" s="2" t="s">
         <v>4692</v>
       </c>
       <c r="F2237" s="3">
-        <v>45273</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="2238" spans="1:6" x14ac:dyDescent="0.2">
@@ -63899,13 +63899,13 @@
         <v>8</v>
       </c>
       <c r="D2245" s="9">
-        <v>1034.0999999999999</v>
+        <v>1189.22</v>
       </c>
       <c r="E2245" s="2" t="s">
         <v>4699</v>
       </c>
       <c r="F2245" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="2246" spans="1:6" x14ac:dyDescent="0.2">
@@ -64099,13 +64099,13 @@
         <v>8</v>
       </c>
       <c r="D2255" s="9">
-        <v>1034.0999999999999</v>
+        <v>1189.22</v>
       </c>
       <c r="E2255" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2255" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="2256" spans="1:6" x14ac:dyDescent="0.2">
@@ -64619,13 +64619,13 @@
         <v>2049</v>
       </c>
       <c r="D2281" s="9">
-        <v>2944.06</v>
+        <v>897</v>
       </c>
       <c r="E2281" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2281" s="3">
-        <v>45327</v>
+        <v>45358</v>
       </c>
     </row>
     <row r="2282" spans="1:6" x14ac:dyDescent="0.2">
@@ -65479,13 +65479,13 @@
         <v>64</v>
       </c>
       <c r="D2324" s="9">
-        <v>3786.86</v>
+        <v>4354.8900000000003</v>
       </c>
       <c r="E2324" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2324" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="2325" spans="1:6" x14ac:dyDescent="0.2">
@@ -65499,13 +65499,13 @@
         <v>966</v>
       </c>
       <c r="D2325" s="9">
-        <v>200.59</v>
+        <v>230.68</v>
       </c>
       <c r="E2325" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2325" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="2326" spans="1:6" x14ac:dyDescent="0.2">
@@ -65739,13 +65739,13 @@
         <v>64</v>
       </c>
       <c r="D2337" s="9">
-        <v>3685.07</v>
+        <v>4237.83</v>
       </c>
       <c r="E2337" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2337" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="2338" spans="1:6" x14ac:dyDescent="0.2">
@@ -65759,13 +65759,13 @@
         <v>64</v>
       </c>
       <c r="D2338" s="9">
-        <v>12499.47</v>
+        <v>14374.39</v>
       </c>
       <c r="E2338" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2338" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="2339" spans="1:6" x14ac:dyDescent="0.2">
@@ -66959,13 +66959,13 @@
         <v>64</v>
       </c>
       <c r="D2398" s="9">
-        <v>2251.2800000000002</v>
+        <v>2588.9699999999998</v>
       </c>
       <c r="E2398" s="2" t="s">
         <v>5017</v>
       </c>
       <c r="F2398" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="2399" spans="1:6" x14ac:dyDescent="0.2">
@@ -66979,13 +66979,13 @@
         <v>64</v>
       </c>
       <c r="D2399" s="9">
-        <v>9147.01</v>
+        <v>10519.06</v>
       </c>
       <c r="E2399" s="2" t="s">
         <v>5017</v>
       </c>
       <c r="F2399" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="2400" spans="1:6" x14ac:dyDescent="0.2">
@@ -67039,13 +67039,13 @@
         <v>64</v>
       </c>
       <c r="D2402" s="9">
-        <v>10664.18</v>
+        <v>12263.81</v>
       </c>
       <c r="E2402" s="2" t="s">
         <v>5017</v>
       </c>
       <c r="F2402" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="2403" spans="1:6" x14ac:dyDescent="0.2">
@@ -67099,13 +67099,13 @@
         <v>562</v>
       </c>
       <c r="D2405" s="9">
-        <v>4628.62</v>
+        <v>5322.91</v>
       </c>
       <c r="E2405" s="2" t="s">
         <v>5017</v>
       </c>
       <c r="F2405" s="3">
-        <v>45323</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="2406" spans="1:6" x14ac:dyDescent="0.2">
@@ -67159,13 +67159,13 @@
         <v>8</v>
       </c>
       <c r="D2408" s="9">
-        <v>756.72</v>
+        <v>908.07</v>
       </c>
       <c r="E2408" s="2" t="s">
         <v>5038</v>
       </c>
       <c r="F2408" s="3">
-        <v>45273</v>
+        <v>45359</v>
       </c>
     </row>
     <row r="2409" spans="1:6" x14ac:dyDescent="0.2">
@@ -67959,13 +67959,13 @@
         <v>834</v>
       </c>
       <c r="D2448" s="9">
-        <v>2452.6999999999998</v>
+        <v>2697.96</v>
       </c>
       <c r="E2448" s="2" t="s">
         <v>5132</v>
       </c>
       <c r="F2448" s="3">
-        <v>45278</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="2449" spans="1:6" x14ac:dyDescent="0.2">
@@ -67979,13 +67979,13 @@
         <v>2049</v>
       </c>
       <c r="D2449" s="9">
-        <v>5387.42</v>
+        <v>5926.16</v>
       </c>
       <c r="E2449" s="2" t="s">
         <v>5132</v>
       </c>
       <c r="F2449" s="3">
-        <v>45278</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="2450" spans="1:6" x14ac:dyDescent="0.2">
@@ -67999,13 +67999,13 @@
         <v>8</v>
       </c>
       <c r="D2450" s="9">
-        <v>2452.6999999999998</v>
+        <v>2697.96</v>
       </c>
       <c r="E2450" s="2" t="s">
         <v>5132</v>
       </c>
       <c r="F2450" s="3">
-        <v>45278</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="2451" spans="1:6" x14ac:dyDescent="0.2">
@@ -72999,13 +72999,13 @@
         <v>966</v>
       </c>
       <c r="D2700" s="9">
-        <v>568.21</v>
+        <v>538</v>
       </c>
       <c r="E2700" s="2" t="s">
         <v>5677</v>
       </c>
       <c r="F2700" s="3">
-        <v>45273</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="2701" spans="1:6" x14ac:dyDescent="0.2">
@@ -73319,13 +73319,13 @@
         <v>925</v>
       </c>
       <c r="D2716" s="9">
-        <v>45.28</v>
+        <v>89.92</v>
       </c>
       <c r="E2716" s="2" t="s">
         <v>5682</v>
       </c>
       <c r="F2716" s="3">
-        <v>45273</v>
+        <v>45359</v>
       </c>
     </row>
     <row r="2717" spans="1:6" x14ac:dyDescent="0.2">
@@ -73339,13 +73339,13 @@
         <v>925</v>
       </c>
       <c r="D2717" s="9">
-        <v>50.94</v>
+        <v>129.84</v>
       </c>
       <c r="E2717" s="2" t="s">
         <v>5682</v>
       </c>
       <c r="F2717" s="3">
-        <v>45273</v>
+        <v>45359</v>
       </c>
     </row>
     <row r="2718" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel-files/fg.xlsx
+++ b/excel-files/fg.xlsx
@@ -21107,13 +21107,13 @@
         <v>64</v>
       </c>
       <c r="D105" s="9">
-        <v>5510.54</v>
+        <v>5786.07</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F105" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -21127,13 +21127,13 @@
         <v>8</v>
       </c>
       <c r="D106" s="9">
-        <v>203.46</v>
+        <v>213.63</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F106" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -21147,13 +21147,13 @@
         <v>8</v>
       </c>
       <c r="D107" s="9">
-        <v>191.14</v>
+        <v>200.7</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F107" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -21167,13 +21167,13 @@
         <v>64</v>
       </c>
       <c r="D108" s="9">
-        <v>1576.07</v>
+        <v>1654.87</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F108" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -21187,13 +21187,13 @@
         <v>64</v>
       </c>
       <c r="D109" s="9">
-        <v>2101.69</v>
+        <v>2206.77</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F109" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -21207,13 +21207,13 @@
         <v>8</v>
       </c>
       <c r="D110" s="9">
-        <v>142.13999999999999</v>
+        <v>149.25</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F110" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -21227,13 +21227,13 @@
         <v>64</v>
       </c>
       <c r="D111" s="9">
-        <v>1511.27</v>
+        <v>1586.83</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F111" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -21247,13 +21247,13 @@
         <v>8</v>
       </c>
       <c r="D112" s="9">
-        <v>231.94</v>
+        <v>243.54</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F112" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -21267,13 +21267,13 @@
         <v>8</v>
       </c>
       <c r="D113" s="9">
-        <v>167.94</v>
+        <v>176.34</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F113" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -21287,13 +21287,13 @@
         <v>64</v>
       </c>
       <c r="D114" s="9">
-        <v>1091.8699999999999</v>
+        <v>1146.46</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F114" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -21307,13 +21307,13 @@
         <v>64</v>
       </c>
       <c r="D115" s="9">
-        <v>8775.7800000000007</v>
+        <v>9214.57</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F115" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -21327,13 +21327,13 @@
         <v>64</v>
       </c>
       <c r="D116" s="9">
-        <v>45151.79</v>
+        <v>47409.38</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F116" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -21347,13 +21347,13 @@
         <v>64</v>
       </c>
       <c r="D117" s="9">
-        <v>948.36</v>
+        <v>995.78</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F117" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -21367,13 +21367,13 @@
         <v>8</v>
       </c>
       <c r="D118" s="9">
-        <v>142.13999999999999</v>
+        <v>149.25</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F118" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -21387,13 +21387,13 @@
         <v>8</v>
       </c>
       <c r="D119" s="9">
-        <v>295.88</v>
+        <v>310.67</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F119" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -21407,13 +21407,13 @@
         <v>64</v>
       </c>
       <c r="D120" s="9">
-        <v>1970.23</v>
+        <v>2068.7399999999998</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F120" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -21427,13 +21427,13 @@
         <v>64</v>
       </c>
       <c r="D121" s="9">
-        <v>2364.2199999999998</v>
+        <v>2482.4299999999998</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F121" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -21447,13 +21447,13 @@
         <v>8</v>
       </c>
       <c r="D122" s="9">
-        <v>472.78</v>
+        <v>496.42</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F122" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -21467,13 +21467,13 @@
         <v>64</v>
       </c>
       <c r="D123" s="9">
-        <v>4958.66</v>
+        <v>5206.59</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F123" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -21487,13 +21487,13 @@
         <v>64</v>
       </c>
       <c r="D124" s="9">
-        <v>5475.19</v>
+        <v>5748.95</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F124" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -21507,13 +21507,13 @@
         <v>64</v>
       </c>
       <c r="D125" s="9">
-        <v>771.31</v>
+        <v>809.88</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F125" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -21527,13 +21527,13 @@
         <v>64</v>
       </c>
       <c r="D126" s="9">
-        <v>1083.74</v>
+        <v>1137.93</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F126" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -21547,13 +21547,13 @@
         <v>64</v>
       </c>
       <c r="D127" s="9">
-        <v>4318.8599999999997</v>
+        <v>4534.8</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F127" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -21567,13 +21567,13 @@
         <v>64</v>
       </c>
       <c r="D128" s="9">
-        <v>6264.53</v>
+        <v>6577.76</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F128" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -21587,13 +21587,13 @@
         <v>64</v>
       </c>
       <c r="D129" s="9">
-        <v>10797.71</v>
+        <v>11337.6</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F129" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -21607,13 +21607,13 @@
         <v>64</v>
       </c>
       <c r="D130" s="9">
-        <v>1838.84</v>
+        <v>1930.78</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F130" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -21627,13 +21627,13 @@
         <v>64</v>
       </c>
       <c r="D131" s="9">
-        <v>6585.97</v>
+        <v>6915.27</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F131" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -21647,13 +21647,13 @@
         <v>64</v>
       </c>
       <c r="D132" s="9">
-        <v>7730.5</v>
+        <v>8117.03</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F132" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -21667,13 +21667,13 @@
         <v>64</v>
       </c>
       <c r="D133" s="9">
-        <v>10094.77</v>
+        <v>10599.51</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F133" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -21687,13 +21687,13 @@
         <v>64</v>
       </c>
       <c r="D134" s="9">
-        <v>12847.96</v>
+        <v>13490.36</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F134" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -21707,13 +21707,13 @@
         <v>64</v>
       </c>
       <c r="D135" s="9">
-        <v>15693.65</v>
+        <v>16478.330000000002</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F135" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -21727,13 +21727,13 @@
         <v>8</v>
       </c>
       <c r="D136" s="9">
-        <v>323</v>
+        <v>339.15</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F136" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -21747,13 +21747,13 @@
         <v>8</v>
       </c>
       <c r="D137" s="9">
-        <v>554.69000000000005</v>
+        <v>582.41999999999996</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F137" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -21767,13 +21767,13 @@
         <v>8</v>
       </c>
       <c r="D138" s="9">
-        <v>302.52</v>
+        <v>317.64999999999998</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F138" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -21787,13 +21787,13 @@
         <v>8</v>
       </c>
       <c r="D139" s="9">
-        <v>584.99</v>
+        <v>614.24</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F139" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -21807,13 +21807,13 @@
         <v>64</v>
       </c>
       <c r="D140" s="9">
-        <v>2233</v>
+        <v>2344.65</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F140" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -21827,13 +21827,13 @@
         <v>64</v>
       </c>
       <c r="D141" s="9">
-        <v>2142.12</v>
+        <v>2249.23</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F141" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -21847,13 +21847,13 @@
         <v>64</v>
       </c>
       <c r="D142" s="9">
-        <v>2364.2199999999998</v>
+        <v>2482.4299999999998</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F142" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -21867,13 +21867,13 @@
         <v>64</v>
       </c>
       <c r="D143" s="9">
-        <v>3677.63</v>
+        <v>3861.51</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F143" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -21887,13 +21887,13 @@
         <v>64</v>
       </c>
       <c r="D144" s="9">
-        <v>4393.8999999999996</v>
+        <v>4613.6000000000004</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F144" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -21907,13 +21907,13 @@
         <v>64</v>
       </c>
       <c r="D145" s="9">
-        <v>2485.8000000000002</v>
+        <v>2610.09</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F145" s="3">
-        <v>45352</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -21927,13 +21927,13 @@
         <v>64</v>
       </c>
       <c r="D146" s="9">
-        <v>2889.59</v>
+        <v>3034.07</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F146" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -21947,13 +21947,13 @@
         <v>64</v>
       </c>
       <c r="D147" s="9">
-        <v>4728.26</v>
+        <v>4964.67</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F147" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -21967,13 +21967,13 @@
         <v>8</v>
       </c>
       <c r="D148" s="9">
-        <v>233.05</v>
+        <v>244.7</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F148" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -21987,13 +21987,13 @@
         <v>8</v>
       </c>
       <c r="D149" s="9">
-        <v>328.13</v>
+        <v>344.54</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F149" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -22007,13 +22007,13 @@
         <v>64</v>
       </c>
       <c r="D150" s="9">
-        <v>13917.53</v>
+        <v>14613.41</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F150" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -22027,13 +22027,13 @@
         <v>64</v>
       </c>
       <c r="D151" s="9">
-        <v>1497.49</v>
+        <v>1572.36</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F151" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -22047,13 +22047,13 @@
         <v>64</v>
       </c>
       <c r="D152" s="9">
-        <v>1707.64</v>
+        <v>1793.02</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F152" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -22067,13 +22067,13 @@
         <v>64</v>
       </c>
       <c r="D153" s="9">
-        <v>2101.69</v>
+        <v>2206.77</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F153" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -22087,13 +22087,13 @@
         <v>64</v>
       </c>
       <c r="D154" s="9">
-        <v>3677.63</v>
+        <v>3861.51</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F154" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -22107,13 +22107,13 @@
         <v>8</v>
       </c>
       <c r="D155" s="9">
-        <v>346.79</v>
+        <v>364.13</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F155" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -22127,13 +22127,13 @@
         <v>8</v>
       </c>
       <c r="D156" s="9">
-        <v>346.79</v>
+        <v>364.13</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F156" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -22147,13 +22147,13 @@
         <v>8</v>
       </c>
       <c r="D157" s="9">
-        <v>197.56</v>
+        <v>207.44</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F157" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -22167,13 +22167,13 @@
         <v>8</v>
       </c>
       <c r="D158" s="9">
-        <v>222.5</v>
+        <v>233.63</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F158" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -22187,13 +22187,13 @@
         <v>64</v>
       </c>
       <c r="D159" s="9">
-        <v>1243.3</v>
+        <v>1305.47</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F159" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -22207,13 +22207,13 @@
         <v>64</v>
       </c>
       <c r="D160" s="9">
-        <v>1486.87</v>
+        <v>1561.21</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F160" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -22227,13 +22227,13 @@
         <v>64</v>
       </c>
       <c r="D161" s="9">
-        <v>10507.09</v>
+        <v>11032.44</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F161" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -22247,13 +22247,13 @@
         <v>64</v>
       </c>
       <c r="D162" s="9">
-        <v>12357.85</v>
+        <v>12975.74</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F162" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -22267,13 +22267,13 @@
         <v>64</v>
       </c>
       <c r="D163" s="9">
-        <v>84663.7</v>
+        <v>88896.89</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F163" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -22287,13 +22287,13 @@
         <v>64</v>
       </c>
       <c r="D164" s="9">
-        <v>1339.24</v>
+        <v>1406.2</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F164" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -22307,13 +22307,13 @@
         <v>64</v>
       </c>
       <c r="D165" s="9">
-        <v>2143.46</v>
+        <v>2250.63</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F165" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -22327,13 +22327,13 @@
         <v>8</v>
       </c>
       <c r="D166" s="9">
-        <v>211.94</v>
+        <v>222.54</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F166" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -22347,13 +22347,13 @@
         <v>8</v>
       </c>
       <c r="D167" s="9">
-        <v>273.06</v>
+        <v>286.70999999999998</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F167" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -22367,13 +22367,13 @@
         <v>8</v>
       </c>
       <c r="D168" s="9">
-        <v>505.4</v>
+        <v>530.66999999999996</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F168" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -22387,13 +22387,13 @@
         <v>8</v>
       </c>
       <c r="D169" s="9">
-        <v>790.13</v>
+        <v>829.64</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F169" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -22407,13 +22407,13 @@
         <v>64</v>
       </c>
       <c r="D170" s="9">
-        <v>2311.73</v>
+        <v>2427.3200000000002</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F170" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -22427,13 +22427,13 @@
         <v>64</v>
       </c>
       <c r="D171" s="9">
-        <v>3020.9</v>
+        <v>3171.95</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F171" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -22447,13 +22447,13 @@
         <v>64</v>
       </c>
       <c r="D172" s="9">
-        <v>3677.63</v>
+        <v>3861.51</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F172" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -22467,13 +22467,13 @@
         <v>64</v>
       </c>
       <c r="D173" s="9">
-        <v>4998.24</v>
+        <v>5248.15</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F173" s="3">
-        <v>45352</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -22487,13 +22487,13 @@
         <v>64</v>
       </c>
       <c r="D174" s="9">
-        <v>2888.93</v>
+        <v>3033.38</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F174" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -22507,13 +22507,13 @@
         <v>64</v>
       </c>
       <c r="D175" s="9">
-        <v>3415.01</v>
+        <v>3585.76</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F175" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -22527,13 +22527,13 @@
         <v>64</v>
       </c>
       <c r="D176" s="9">
-        <v>3677.63</v>
+        <v>3861.51</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F176" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -22547,13 +22547,13 @@
         <v>64</v>
       </c>
       <c r="D177" s="9">
-        <v>6304.34</v>
+        <v>6619.56</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F177" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -22567,13 +22567,13 @@
         <v>64</v>
       </c>
       <c r="D178" s="9">
-        <v>7755.53</v>
+        <v>8143.31</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F178" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -22587,13 +22587,13 @@
         <v>64</v>
       </c>
       <c r="D179" s="9">
-        <v>10410.35</v>
+        <v>10930.87</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F179" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -22607,13 +22607,13 @@
         <v>64</v>
       </c>
       <c r="D180" s="9">
-        <v>7908.47</v>
+        <v>8303.89</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F180" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -22627,13 +22627,13 @@
         <v>64</v>
       </c>
       <c r="D181" s="9">
-        <v>11747.08</v>
+        <v>12334.43</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F181" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -22647,13 +22647,13 @@
         <v>64</v>
       </c>
       <c r="D182" s="9">
-        <v>1701.84</v>
+        <v>1786.93</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F182" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -22667,13 +22667,13 @@
         <v>64</v>
       </c>
       <c r="D183" s="9">
-        <v>1970.23</v>
+        <v>2068.7399999999998</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F183" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -22687,13 +22687,13 @@
         <v>64</v>
       </c>
       <c r="D184" s="9">
-        <v>2364.2199999999998</v>
+        <v>2482.4299999999998</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F184" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -22707,13 +22707,13 @@
         <v>64</v>
       </c>
       <c r="D185" s="9">
-        <v>4203.0200000000004</v>
+        <v>4413.17</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F185" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -22727,13 +22727,13 @@
         <v>64</v>
       </c>
       <c r="D186" s="9">
-        <v>4728.26</v>
+        <v>4964.67</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F186" s="3">
-        <v>45273</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -41419,13 +41419,13 @@
         <v>2114</v>
       </c>
       <c r="D1121" s="9">
-        <v>3120.18</v>
+        <v>3770</v>
       </c>
       <c r="E1121" s="2" t="s">
         <v>2314</v>
       </c>
       <c r="F1121" s="3">
-        <v>45273</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.2">
@@ -43559,13 +43559,13 @@
         <v>925</v>
       </c>
       <c r="D1228" s="9">
-        <v>756.38</v>
+        <v>832</v>
       </c>
       <c r="E1228" s="2" t="s">
         <v>2551</v>
       </c>
       <c r="F1228" s="3">
-        <v>45308</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="1229" spans="1:6" x14ac:dyDescent="0.2">
@@ -43639,13 +43639,13 @@
         <v>8</v>
       </c>
       <c r="D1232" s="9">
-        <v>971.54</v>
+        <v>1068.7</v>
       </c>
       <c r="E1232" s="2" t="s">
         <v>2551</v>
       </c>
       <c r="F1232" s="3">
-        <v>45308</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="1233" spans="1:6" x14ac:dyDescent="0.2">
@@ -43659,13 +43659,13 @@
         <v>8</v>
       </c>
       <c r="D1233" s="9">
-        <v>681.78</v>
+        <v>749.96</v>
       </c>
       <c r="E1233" s="2" t="s">
         <v>2551</v>
       </c>
       <c r="F1233" s="3">
-        <v>45308</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="1234" spans="1:6" x14ac:dyDescent="0.2">
@@ -43679,13 +43679,13 @@
         <v>8</v>
       </c>
       <c r="D1234" s="9">
-        <v>681.78</v>
+        <v>749.96</v>
       </c>
       <c r="E1234" s="2" t="s">
         <v>2551</v>
       </c>
       <c r="F1234" s="3">
-        <v>45308</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="1235" spans="1:6" x14ac:dyDescent="0.2">
@@ -43719,13 +43719,13 @@
         <v>8</v>
       </c>
       <c r="D1236" s="9">
-        <v>6777.05</v>
+        <v>7115.91</v>
       </c>
       <c r="E1236" s="2" t="s">
         <v>2551</v>
       </c>
       <c r="F1236" s="3">
-        <v>45273</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="1237" spans="1:6" x14ac:dyDescent="0.2">
@@ -43739,13 +43739,13 @@
         <v>8</v>
       </c>
       <c r="D1237" s="9">
-        <v>3796.88</v>
+        <v>3986.73</v>
       </c>
       <c r="E1237" s="2" t="s">
         <v>2551</v>
       </c>
       <c r="F1237" s="3">
-        <v>45273</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="1238" spans="1:6" x14ac:dyDescent="0.2">
@@ -54219,13 +54219,13 @@
         <v>64</v>
       </c>
       <c r="D1761" s="9">
-        <v>1196.96</v>
+        <v>1316.66</v>
       </c>
       <c r="E1761" s="2" t="s">
         <v>3678</v>
       </c>
       <c r="F1761" s="3">
-        <v>45308</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="1762" spans="1:6" x14ac:dyDescent="0.2">
@@ -58799,13 +58799,13 @@
         <v>64</v>
       </c>
       <c r="D1990" s="9">
-        <v>6998.6</v>
+        <v>8398.32</v>
       </c>
       <c r="E1990" s="2" t="s">
         <v>4164</v>
       </c>
       <c r="F1990" s="3">
-        <v>45273</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="1991" spans="1:6" x14ac:dyDescent="0.2">
@@ -58819,13 +58819,13 @@
         <v>64</v>
       </c>
       <c r="D1991" s="9">
-        <v>4291.46</v>
+        <v>5149.76</v>
       </c>
       <c r="E1991" s="2" t="s">
         <v>4164</v>
       </c>
       <c r="F1991" s="3">
-        <v>45273</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="1992" spans="1:6" x14ac:dyDescent="0.2">
@@ -64599,13 +64599,13 @@
         <v>2261</v>
       </c>
       <c r="D2280" s="9">
-        <v>798.45</v>
+        <v>660</v>
       </c>
       <c r="E2280" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2280" s="3">
-        <v>45352</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="2281" spans="1:6" x14ac:dyDescent="0.2">
@@ -64619,13 +64619,13 @@
         <v>2049</v>
       </c>
       <c r="D2281" s="9">
-        <v>897</v>
+        <v>1160</v>
       </c>
       <c r="E2281" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2281" s="3">
-        <v>45358</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="2282" spans="1:6" x14ac:dyDescent="0.2">
@@ -68019,13 +68019,13 @@
         <v>64</v>
       </c>
       <c r="D2451" s="9">
-        <v>4873.28</v>
+        <v>5360.62</v>
       </c>
       <c r="E2451" s="2" t="s">
         <v>5132</v>
       </c>
       <c r="F2451" s="3">
-        <v>45308</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="2452" spans="1:6" x14ac:dyDescent="0.2">
@@ -68039,13 +68039,13 @@
         <v>64</v>
       </c>
       <c r="D2452" s="9">
-        <v>3043.06</v>
+        <v>3347.38</v>
       </c>
       <c r="E2452" s="2" t="s">
         <v>5132</v>
       </c>
       <c r="F2452" s="3">
-        <v>45308</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="2453" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel-files/fg.xlsx
+++ b/excel-files/fg.xlsx
@@ -19707,13 +19707,13 @@
         <v>64</v>
       </c>
       <c r="D35" s="9">
-        <v>35840</v>
+        <v>41200</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F35" s="3">
-        <v>45341</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -19727,13 +19727,13 @@
         <v>64</v>
       </c>
       <c r="D36" s="9">
-        <v>50400</v>
+        <v>58000</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F36" s="3">
-        <v>45341</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -19747,13 +19747,13 @@
         <v>64</v>
       </c>
       <c r="D37" s="9">
-        <v>8640</v>
+        <v>9940</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F37" s="3">
-        <v>45341</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -19767,13 +19767,13 @@
         <v>64</v>
       </c>
       <c r="D38" s="9">
-        <v>41220</v>
+        <v>47400</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F38" s="3">
-        <v>45341</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -19787,13 +19787,13 @@
         <v>64</v>
       </c>
       <c r="D39" s="9">
-        <v>57920</v>
+        <v>66600</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F39" s="3">
-        <v>45341</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -19807,13 +19807,13 @@
         <v>64</v>
       </c>
       <c r="D40" s="9">
-        <v>10420</v>
+        <v>11980</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F40" s="3">
-        <v>45341</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -19827,13 +19827,13 @@
         <v>64</v>
       </c>
       <c r="D41" s="9">
-        <v>6700</v>
+        <v>7700</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F41" s="3">
-        <v>45341</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -19847,13 +19847,13 @@
         <v>64</v>
       </c>
       <c r="D42" s="9">
-        <v>4820</v>
+        <v>5540</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F42" s="3">
-        <v>45341</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -19867,13 +19867,13 @@
         <v>64</v>
       </c>
       <c r="D43" s="9">
-        <v>6384</v>
+        <v>7340</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F43" s="3">
-        <v>45341</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -19887,13 +19887,13 @@
         <v>64</v>
       </c>
       <c r="D44" s="9">
-        <v>5412</v>
+        <v>6240</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F44" s="3">
-        <v>45341</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -26823,13 +26823,13 @@
         <v>64</v>
       </c>
       <c r="D391" s="9">
-        <v>612.42999999999995</v>
+        <v>734.92</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>801</v>
       </c>
       <c r="F391" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
@@ -31463,13 +31463,13 @@
         <v>8</v>
       </c>
       <c r="D623" s="9">
-        <v>144</v>
+        <v>158.4</v>
       </c>
       <c r="E623" s="2" t="s">
         <v>1273</v>
       </c>
       <c r="F623" s="3">
-        <v>45323</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.2">
@@ -31483,13 +31483,13 @@
         <v>8</v>
       </c>
       <c r="D624" s="9">
-        <v>171</v>
+        <v>188.1</v>
       </c>
       <c r="E624" s="2" t="s">
         <v>1273</v>
       </c>
       <c r="F624" s="3">
-        <v>45323</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.2">
@@ -31503,13 +31503,13 @@
         <v>8</v>
       </c>
       <c r="D625" s="9">
-        <v>61.08</v>
+        <v>67.19</v>
       </c>
       <c r="E625" s="2" t="s">
         <v>1273</v>
       </c>
       <c r="F625" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.2">
@@ -32141,13 +32141,13 @@
         <v>64</v>
       </c>
       <c r="D657" s="9">
-        <v>68400</v>
+        <v>75240</v>
       </c>
       <c r="E657" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F657" s="3">
-        <v>45352</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.2">
@@ -32161,13 +32161,13 @@
         <v>64</v>
       </c>
       <c r="D658" s="9">
-        <v>98800</v>
+        <v>108680</v>
       </c>
       <c r="E658" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F658" s="3">
-        <v>45352</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.2">
@@ -32181,13 +32181,13 @@
         <v>64</v>
       </c>
       <c r="D659" s="9">
-        <v>127300</v>
+        <v>140030</v>
       </c>
       <c r="E659" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F659" s="3">
-        <v>45352</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.2">
@@ -32201,13 +32201,13 @@
         <v>64</v>
       </c>
       <c r="D660" s="9">
-        <v>10345.5</v>
+        <v>11380.05</v>
       </c>
       <c r="E660" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F660" s="3">
-        <v>45352</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.2">
@@ -32221,13 +32221,13 @@
         <v>521</v>
       </c>
       <c r="D661" s="9">
-        <v>1293.2</v>
+        <v>1422.52</v>
       </c>
       <c r="E661" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F661" s="3">
-        <v>45352</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.2">
@@ -32241,13 +32241,13 @@
         <v>64</v>
       </c>
       <c r="D662" s="9">
-        <v>4974.2</v>
+        <v>5471.62</v>
       </c>
       <c r="E662" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F662" s="3">
-        <v>45352</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.2">
@@ -32261,13 +32261,13 @@
         <v>521</v>
       </c>
       <c r="D663" s="9">
-        <v>2863.3</v>
+        <v>3149.63</v>
       </c>
       <c r="E663" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F663" s="3">
-        <v>45352</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.2">
@@ -32301,13 +32301,13 @@
         <v>64</v>
       </c>
       <c r="D665" s="9">
-        <v>2508</v>
+        <v>2758.8</v>
       </c>
       <c r="E665" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F665" s="3">
-        <v>45352</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.2">
@@ -32321,13 +32321,13 @@
         <v>64</v>
       </c>
       <c r="D666" s="9">
-        <v>10868</v>
+        <v>11954.8</v>
       </c>
       <c r="E666" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F666" s="3">
-        <v>45352</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.2">
@@ -32341,13 +32341,13 @@
         <v>64</v>
       </c>
       <c r="D667" s="9">
-        <v>7106</v>
+        <v>7816.6</v>
       </c>
       <c r="E667" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F667" s="3">
-        <v>45352</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.2">
@@ -32361,13 +32361,13 @@
         <v>64</v>
       </c>
       <c r="D668" s="9">
-        <v>2299</v>
+        <v>2528.9</v>
       </c>
       <c r="E668" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F668" s="3">
-        <v>45352</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.2">
@@ -32381,13 +32381,13 @@
         <v>64</v>
       </c>
       <c r="D669" s="9">
-        <v>15257</v>
+        <v>16782.7</v>
       </c>
       <c r="E669" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="F669" s="3">
-        <v>45352</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.2">
@@ -32461,13 +32461,13 @@
         <v>32</v>
       </c>
       <c r="D673" s="9">
-        <v>859.28</v>
+        <v>945.21</v>
       </c>
       <c r="E673" s="2" t="s">
         <v>1379</v>
       </c>
       <c r="F673" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.2">
@@ -32481,13 +32481,13 @@
         <v>8</v>
       </c>
       <c r="D674" s="9">
-        <v>1385.18</v>
+        <v>1523.7</v>
       </c>
       <c r="E674" s="2" t="s">
         <v>1379</v>
       </c>
       <c r="F674" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.2">
@@ -39319,13 +39319,13 @@
         <v>8</v>
       </c>
       <c r="D1016" s="9">
-        <v>661.2</v>
+        <v>820</v>
       </c>
       <c r="E1016" s="2" t="s">
         <v>2085</v>
       </c>
       <c r="F1016" s="3">
-        <v>45273</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.2">
@@ -39339,13 +39339,13 @@
         <v>8</v>
       </c>
       <c r="D1017" s="9">
-        <v>661.2</v>
+        <v>820</v>
       </c>
       <c r="E1017" s="2" t="s">
         <v>2085</v>
       </c>
       <c r="F1017" s="3">
-        <v>45273</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.2">
@@ -39359,13 +39359,13 @@
         <v>8</v>
       </c>
       <c r="D1018" s="9">
-        <v>661.2</v>
+        <v>820</v>
       </c>
       <c r="E1018" s="2" t="s">
         <v>2085</v>
       </c>
       <c r="F1018" s="3">
-        <v>45273</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.2">
@@ -39379,13 +39379,13 @@
         <v>8</v>
       </c>
       <c r="D1019" s="9">
-        <v>661.2</v>
+        <v>820</v>
       </c>
       <c r="E1019" s="2" t="s">
         <v>2085</v>
       </c>
       <c r="F1019" s="3">
-        <v>45273</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="1020" spans="1:6" x14ac:dyDescent="0.2">
@@ -39399,13 +39399,13 @@
         <v>8</v>
       </c>
       <c r="D1020" s="9">
-        <v>661.2</v>
+        <v>820</v>
       </c>
       <c r="E1020" s="2" t="s">
         <v>2085</v>
       </c>
       <c r="F1020" s="3">
-        <v>45273</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.2">
@@ -39419,13 +39419,13 @@
         <v>8</v>
       </c>
       <c r="D1021" s="9">
-        <v>661.2</v>
+        <v>820</v>
       </c>
       <c r="E1021" s="2" t="s">
         <v>2085</v>
       </c>
       <c r="F1021" s="3">
-        <v>45273</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.2">
@@ -39439,13 +39439,13 @@
         <v>8</v>
       </c>
       <c r="D1022" s="9">
-        <v>661.2</v>
+        <v>820</v>
       </c>
       <c r="E1022" s="2" t="s">
         <v>2085</v>
       </c>
       <c r="F1022" s="3">
-        <v>45273</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="1023" spans="1:6" x14ac:dyDescent="0.2">
@@ -39459,13 +39459,13 @@
         <v>2100</v>
       </c>
       <c r="D1023" s="9">
-        <v>4902</v>
+        <v>6160</v>
       </c>
       <c r="E1023" s="2" t="s">
         <v>2085</v>
       </c>
       <c r="F1023" s="3">
-        <v>45273</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="1024" spans="1:6" x14ac:dyDescent="0.2">
@@ -39479,13 +39479,13 @@
         <v>8</v>
       </c>
       <c r="D1024" s="9">
-        <v>661.2</v>
+        <v>820</v>
       </c>
       <c r="E1024" s="2" t="s">
         <v>2085</v>
       </c>
       <c r="F1024" s="3">
-        <v>45273</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="1025" spans="1:6" x14ac:dyDescent="0.2">
@@ -39499,13 +39499,13 @@
         <v>8</v>
       </c>
       <c r="D1025" s="9">
-        <v>661.2</v>
+        <v>820</v>
       </c>
       <c r="E1025" s="2" t="s">
         <v>2085</v>
       </c>
       <c r="F1025" s="3">
-        <v>45273</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="1026" spans="1:6" x14ac:dyDescent="0.2">
@@ -44339,13 +44339,13 @@
         <v>8</v>
       </c>
       <c r="D1267" s="9">
-        <v>234.89</v>
+        <v>258.38</v>
       </c>
       <c r="E1267" s="2" t="s">
         <v>2633</v>
       </c>
       <c r="F1267" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="1268" spans="1:6" x14ac:dyDescent="0.2">
@@ -44359,13 +44359,13 @@
         <v>8</v>
       </c>
       <c r="D1268" s="9">
-        <v>234.89</v>
+        <v>258.38</v>
       </c>
       <c r="E1268" s="2" t="s">
         <v>2633</v>
       </c>
       <c r="F1268" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="1269" spans="1:6" x14ac:dyDescent="0.2">
@@ -45359,13 +45359,13 @@
         <v>64</v>
       </c>
       <c r="D1318" s="9">
-        <v>9852.08</v>
+        <v>10837.29</v>
       </c>
       <c r="E1318" s="2" t="s">
         <v>2731</v>
       </c>
       <c r="F1318" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="1319" spans="1:6" x14ac:dyDescent="0.2">
@@ -45399,13 +45399,13 @@
         <v>64</v>
       </c>
       <c r="D1320" s="9">
-        <v>18333.97</v>
+        <v>20167.37</v>
       </c>
       <c r="E1320" s="2" t="s">
         <v>2731</v>
       </c>
       <c r="F1320" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="1321" spans="1:6" x14ac:dyDescent="0.2">
@@ -53379,13 +53379,13 @@
         <v>64</v>
       </c>
       <c r="D1719" s="9">
-        <v>4566.3100000000004</v>
+        <v>6021.06</v>
       </c>
       <c r="E1719" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1719" s="3">
-        <v>45273</v>
+        <v>45372</v>
       </c>
     </row>
     <row r="1720" spans="1:6" x14ac:dyDescent="0.2">
@@ -53399,13 +53399,13 @@
         <v>64</v>
       </c>
       <c r="D1720" s="9">
-        <v>4679.95</v>
+        <v>6170.04</v>
       </c>
       <c r="E1720" s="2" t="s">
         <v>3548</v>
       </c>
       <c r="F1720" s="3">
-        <v>45273</v>
+        <v>45372</v>
       </c>
     </row>
     <row r="1721" spans="1:6" x14ac:dyDescent="0.2">
@@ -53939,13 +53939,13 @@
         <v>8</v>
       </c>
       <c r="D1747" s="9">
-        <v>758.05</v>
+        <v>831.18</v>
       </c>
       <c r="E1747" s="2" t="s">
         <v>3646</v>
       </c>
       <c r="F1747" s="3">
-        <v>45273</v>
+        <v>45372</v>
       </c>
     </row>
     <row r="1748" spans="1:6" x14ac:dyDescent="0.2">
@@ -57079,13 +57079,13 @@
         <v>32</v>
       </c>
       <c r="D1904" s="9">
-        <v>1303.74</v>
+        <v>1434.11</v>
       </c>
       <c r="E1904" s="2" t="s">
         <v>3982</v>
       </c>
       <c r="F1904" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="1905" spans="1:6" x14ac:dyDescent="0.2">
@@ -57099,13 +57099,13 @@
         <v>8</v>
       </c>
       <c r="D1905" s="9">
-        <v>1166.95</v>
+        <v>1283.6500000000001</v>
       </c>
       <c r="E1905" s="2" t="s">
         <v>3982</v>
       </c>
       <c r="F1905" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="1906" spans="1:6" x14ac:dyDescent="0.2">
@@ -57139,13 +57139,13 @@
         <v>8</v>
       </c>
       <c r="D1907" s="9">
-        <v>1256.44</v>
+        <v>1382.08</v>
       </c>
       <c r="E1907" s="2" t="s">
         <v>3982</v>
       </c>
       <c r="F1907" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="1908" spans="1:6" x14ac:dyDescent="0.2">
@@ -57159,13 +57159,13 @@
         <v>32</v>
       </c>
       <c r="D1908" s="9">
-        <v>1187.56</v>
+        <v>1306.32</v>
       </c>
       <c r="E1908" s="2" t="s">
         <v>3982</v>
       </c>
       <c r="F1908" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="1909" spans="1:6" x14ac:dyDescent="0.2">
@@ -57179,13 +57179,13 @@
         <v>32</v>
       </c>
       <c r="D1909" s="9">
-        <v>1166.95</v>
+        <v>1283.6500000000001</v>
       </c>
       <c r="E1909" s="2" t="s">
         <v>3982</v>
       </c>
       <c r="F1909" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="1910" spans="1:6" x14ac:dyDescent="0.2">
@@ -57239,13 +57239,13 @@
         <v>834</v>
       </c>
       <c r="D1912" s="9">
-        <v>5713.66</v>
+        <v>6285.03</v>
       </c>
       <c r="E1912" s="2" t="s">
         <v>3982</v>
       </c>
       <c r="F1912" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="1913" spans="1:6" x14ac:dyDescent="0.2">
@@ -57339,13 +57339,13 @@
         <v>8</v>
       </c>
       <c r="D1917" s="9">
-        <v>1291.8</v>
+        <v>1420.98</v>
       </c>
       <c r="E1917" s="2" t="s">
         <v>4003</v>
       </c>
       <c r="F1917" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="1918" spans="1:6" x14ac:dyDescent="0.2">
@@ -57359,13 +57359,13 @@
         <v>8</v>
       </c>
       <c r="D1918" s="9">
-        <v>1190.32</v>
+        <v>1309.3499999999999</v>
       </c>
       <c r="E1918" s="2" t="s">
         <v>4003</v>
       </c>
       <c r="F1918" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="1919" spans="1:6" x14ac:dyDescent="0.2">
@@ -57379,13 +57379,13 @@
         <v>32</v>
       </c>
       <c r="D1919" s="9">
-        <v>1168.55</v>
+        <v>1285.4100000000001</v>
       </c>
       <c r="E1919" s="2" t="s">
         <v>4003</v>
       </c>
       <c r="F1919" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="1920" spans="1:6" x14ac:dyDescent="0.2">
@@ -57419,13 +57419,13 @@
         <v>8</v>
       </c>
       <c r="D1921" s="9">
-        <v>1475.08</v>
+        <v>1622.59</v>
       </c>
       <c r="E1921" s="2" t="s">
         <v>4003</v>
       </c>
       <c r="F1921" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="1922" spans="1:6" x14ac:dyDescent="0.2">
@@ -57459,13 +57459,13 @@
         <v>8</v>
       </c>
       <c r="D1923" s="9">
-        <v>1190.32</v>
+        <v>1309.3499999999999</v>
       </c>
       <c r="E1923" s="2" t="s">
         <v>4003</v>
       </c>
       <c r="F1923" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="1924" spans="1:6" x14ac:dyDescent="0.2">
@@ -57479,13 +57479,13 @@
         <v>8</v>
       </c>
       <c r="D1924" s="9">
-        <v>1213.8800000000001</v>
+        <v>1335.27</v>
       </c>
       <c r="E1924" s="2" t="s">
         <v>4003</v>
       </c>
       <c r="F1924" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="1925" spans="1:6" x14ac:dyDescent="0.2">
@@ -57499,13 +57499,13 @@
         <v>32</v>
       </c>
       <c r="D1925" s="9">
-        <v>1643.52</v>
+        <v>1807.87</v>
       </c>
       <c r="E1925" s="2" t="s">
         <v>4003</v>
       </c>
       <c r="F1925" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="1926" spans="1:6" x14ac:dyDescent="0.2">
@@ -57559,13 +57559,13 @@
         <v>8</v>
       </c>
       <c r="D1928" s="9">
-        <v>1015.47</v>
+        <v>1117.02</v>
       </c>
       <c r="E1928" s="2" t="s">
         <v>4003</v>
       </c>
       <c r="F1928" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="1929" spans="1:6" x14ac:dyDescent="0.2">
@@ -58779,13 +58779,13 @@
         <v>64</v>
       </c>
       <c r="D1989" s="9">
-        <v>4355.67</v>
+        <v>4411</v>
       </c>
       <c r="E1989" s="2" t="s">
         <v>4159</v>
       </c>
       <c r="F1989" s="3">
-        <v>45275</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="1990" spans="1:6" x14ac:dyDescent="0.2">
@@ -62399,13 +62399,13 @@
         <v>64</v>
       </c>
       <c r="D2170" s="9">
-        <v>2089.4499999999998</v>
+        <v>2507.34</v>
       </c>
       <c r="E2170" s="2" t="s">
         <v>4539</v>
       </c>
       <c r="F2170" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2171" spans="1:6" x14ac:dyDescent="0.2">
@@ -62419,13 +62419,13 @@
         <v>64</v>
       </c>
       <c r="D2171" s="9">
-        <v>2089.4499999999998</v>
+        <v>2507.34</v>
       </c>
       <c r="E2171" s="2" t="s">
         <v>4539</v>
       </c>
       <c r="F2171" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2172" spans="1:6" x14ac:dyDescent="0.2">
@@ -62439,13 +62439,13 @@
         <v>64</v>
       </c>
       <c r="D2172" s="9">
-        <v>2964.46</v>
+        <v>3557.35</v>
       </c>
       <c r="E2172" s="2" t="s">
         <v>4539</v>
       </c>
       <c r="F2172" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2173" spans="1:6" x14ac:dyDescent="0.2">
@@ -62459,13 +62459,13 @@
         <v>64</v>
       </c>
       <c r="D2173" s="9">
-        <v>2686</v>
+        <v>3223.2</v>
       </c>
       <c r="E2173" s="2" t="s">
         <v>4539</v>
       </c>
       <c r="F2173" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2174" spans="1:6" x14ac:dyDescent="0.2">
@@ -62519,13 +62519,13 @@
         <v>64</v>
       </c>
       <c r="D2176" s="9">
-        <v>4390.67</v>
+        <v>5268.8</v>
       </c>
       <c r="E2176" s="2" t="s">
         <v>4539</v>
       </c>
       <c r="F2176" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2177" spans="1:6" x14ac:dyDescent="0.2">
@@ -62539,13 +62539,13 @@
         <v>64</v>
       </c>
       <c r="D2177" s="9">
-        <v>2601.5700000000002</v>
+        <v>3121.88</v>
       </c>
       <c r="E2177" s="2" t="s">
         <v>4539</v>
       </c>
       <c r="F2177" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2178" spans="1:6" x14ac:dyDescent="0.2">
@@ -62579,13 +62579,13 @@
         <v>64</v>
       </c>
       <c r="D2179" s="9">
-        <v>903.4</v>
+        <v>1084.08</v>
       </c>
       <c r="E2179" s="2" t="s">
         <v>4539</v>
       </c>
       <c r="F2179" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2180" spans="1:6" x14ac:dyDescent="0.2">
@@ -63519,13 +63519,13 @@
         <v>8</v>
       </c>
       <c r="D2226" s="9">
-        <v>441.22</v>
+        <v>485.34</v>
       </c>
       <c r="E2226" s="2" t="s">
         <v>4661</v>
       </c>
       <c r="F2226" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2227" spans="1:6" x14ac:dyDescent="0.2">
@@ -63819,13 +63819,13 @@
         <v>8</v>
       </c>
       <c r="D2241" s="9">
-        <v>157.24</v>
+        <v>172.96</v>
       </c>
       <c r="E2241" s="2" t="s">
         <v>4699</v>
       </c>
       <c r="F2241" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2242" spans="1:6" x14ac:dyDescent="0.2">
@@ -63839,13 +63839,13 @@
         <v>834</v>
       </c>
       <c r="D2242" s="9">
-        <v>1215.56</v>
+        <v>1337.12</v>
       </c>
       <c r="E2242" s="2" t="s">
         <v>4699</v>
       </c>
       <c r="F2242" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2243" spans="1:6" x14ac:dyDescent="0.2">
@@ -63879,13 +63879,13 @@
         <v>64</v>
       </c>
       <c r="D2244" s="9">
-        <v>1744.13</v>
+        <v>1918.54</v>
       </c>
       <c r="E2244" s="2" t="s">
         <v>4699</v>
       </c>
       <c r="F2244" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2245" spans="1:6" x14ac:dyDescent="0.2">
@@ -63919,13 +63919,13 @@
         <v>8</v>
       </c>
       <c r="D2246" s="9">
-        <v>1042.1400000000001</v>
+        <v>1146.3499999999999</v>
       </c>
       <c r="E2246" s="2" t="s">
         <v>4699</v>
       </c>
       <c r="F2246" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2247" spans="1:6" x14ac:dyDescent="0.2">
@@ -63939,13 +63939,13 @@
         <v>64</v>
       </c>
       <c r="D2247" s="9">
-        <v>759.61</v>
+        <v>835.57</v>
       </c>
       <c r="E2247" s="2" t="s">
         <v>4699</v>
       </c>
       <c r="F2247" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2248" spans="1:6" x14ac:dyDescent="0.2">
@@ -63959,13 +63959,13 @@
         <v>8</v>
       </c>
       <c r="D2248" s="9">
-        <v>79.91</v>
+        <v>87.9</v>
       </c>
       <c r="E2248" s="2" t="s">
         <v>4699</v>
       </c>
       <c r="F2248" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2249" spans="1:6" x14ac:dyDescent="0.2">
@@ -63979,13 +63979,13 @@
         <v>8</v>
       </c>
       <c r="D2249" s="9">
-        <v>26.06</v>
+        <v>28.67</v>
       </c>
       <c r="E2249" s="2" t="s">
         <v>4699</v>
       </c>
       <c r="F2249" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2250" spans="1:6" x14ac:dyDescent="0.2">
@@ -63999,13 +63999,13 @@
         <v>925</v>
       </c>
       <c r="D2250" s="9">
-        <v>78.2</v>
+        <v>86.02</v>
       </c>
       <c r="E2250" s="2" t="s">
         <v>4699</v>
       </c>
       <c r="F2250" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2251" spans="1:6" x14ac:dyDescent="0.2">
@@ -64019,13 +64019,13 @@
         <v>8</v>
       </c>
       <c r="D2251" s="9">
-        <v>227.72</v>
+        <v>250.49</v>
       </c>
       <c r="E2251" s="2" t="s">
         <v>4699</v>
       </c>
       <c r="F2251" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2252" spans="1:6" x14ac:dyDescent="0.2">
@@ -64039,13 +64039,13 @@
         <v>8</v>
       </c>
       <c r="D2252" s="9">
-        <v>179.48</v>
+        <v>197.43</v>
       </c>
       <c r="E2252" s="2" t="s">
         <v>4699</v>
       </c>
       <c r="F2252" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2253" spans="1:6" x14ac:dyDescent="0.2">
@@ -64199,13 +64199,13 @@
         <v>966</v>
       </c>
       <c r="D2260" s="9">
-        <v>88.11</v>
+        <v>96.92</v>
       </c>
       <c r="E2260" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2260" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2261" spans="1:6" x14ac:dyDescent="0.2">
@@ -64219,13 +64219,13 @@
         <v>966</v>
       </c>
       <c r="D2261" s="9">
-        <v>88.11</v>
+        <v>96.92</v>
       </c>
       <c r="E2261" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2261" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2262" spans="1:6" x14ac:dyDescent="0.2">
@@ -64359,13 +64359,13 @@
         <v>8</v>
       </c>
       <c r="D2268" s="9">
-        <v>65.319999999999993</v>
+        <v>71.849999999999994</v>
       </c>
       <c r="E2268" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2268" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2269" spans="1:6" x14ac:dyDescent="0.2">
@@ -64419,13 +64419,13 @@
         <v>972</v>
       </c>
       <c r="D2271" s="9">
-        <v>1153.82</v>
+        <v>1269.2</v>
       </c>
       <c r="E2271" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2271" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2272" spans="1:6" x14ac:dyDescent="0.2">
@@ -64639,13 +64639,13 @@
         <v>925</v>
       </c>
       <c r="D2282" s="9">
-        <v>53.77</v>
+        <v>59.15</v>
       </c>
       <c r="E2282" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2282" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2283" spans="1:6" x14ac:dyDescent="0.2">
@@ -64859,13 +64859,13 @@
         <v>64</v>
       </c>
       <c r="D2293" s="9">
-        <v>2716.84</v>
+        <v>2988.52</v>
       </c>
       <c r="E2293" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2293" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2294" spans="1:6" x14ac:dyDescent="0.2">
@@ -64879,13 +64879,13 @@
         <v>972</v>
       </c>
       <c r="D2294" s="9">
-        <v>1153.82</v>
+        <v>1269.2</v>
       </c>
       <c r="E2294" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2294" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2295" spans="1:6" x14ac:dyDescent="0.2">
@@ -65019,13 +65019,13 @@
         <v>925</v>
       </c>
       <c r="D2301" s="9">
-        <v>92.67</v>
+        <v>101.94</v>
       </c>
       <c r="E2301" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2301" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2302" spans="1:6" x14ac:dyDescent="0.2">
@@ -65039,13 +65039,13 @@
         <v>925</v>
       </c>
       <c r="D2302" s="9">
-        <v>92.67</v>
+        <v>101.94</v>
       </c>
       <c r="E2302" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2302" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2303" spans="1:6" x14ac:dyDescent="0.2">
@@ -65059,13 +65059,13 @@
         <v>8</v>
       </c>
       <c r="D2303" s="9">
-        <v>726.25</v>
+        <v>798.88</v>
       </c>
       <c r="E2303" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2303" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2304" spans="1:6" x14ac:dyDescent="0.2">
@@ -65079,13 +65079,13 @@
         <v>8</v>
       </c>
       <c r="D2304" s="9">
-        <v>726.25</v>
+        <v>798.88</v>
       </c>
       <c r="E2304" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2304" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2305" spans="1:6" x14ac:dyDescent="0.2">
@@ -65179,13 +65179,13 @@
         <v>8</v>
       </c>
       <c r="D2309" s="9">
-        <v>1173.76</v>
+        <v>1291.1400000000001</v>
       </c>
       <c r="E2309" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2309" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2310" spans="1:6" x14ac:dyDescent="0.2">
@@ -65199,13 +65199,13 @@
         <v>8</v>
       </c>
       <c r="D2310" s="9">
-        <v>1173.76</v>
+        <v>1291.1400000000001</v>
       </c>
       <c r="E2310" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2310" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2311" spans="1:6" x14ac:dyDescent="0.2">
@@ -65219,13 +65219,13 @@
         <v>8</v>
       </c>
       <c r="D2311" s="9">
-        <v>1173.76</v>
+        <v>1291.1400000000001</v>
       </c>
       <c r="E2311" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2311" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2312" spans="1:6" x14ac:dyDescent="0.2">
@@ -65239,13 +65239,13 @@
         <v>8</v>
       </c>
       <c r="D2312" s="9">
-        <v>1173.76</v>
+        <v>1291.1400000000001</v>
       </c>
       <c r="E2312" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2312" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2313" spans="1:6" x14ac:dyDescent="0.2">
@@ -65259,13 +65259,13 @@
         <v>8</v>
       </c>
       <c r="D2313" s="9">
-        <v>1173.76</v>
+        <v>1291.1400000000001</v>
       </c>
       <c r="E2313" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2313" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2314" spans="1:6" x14ac:dyDescent="0.2">
@@ -65279,13 +65279,13 @@
         <v>8</v>
       </c>
       <c r="D2314" s="9">
-        <v>1173.76</v>
+        <v>1291.1400000000001</v>
       </c>
       <c r="E2314" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2314" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2315" spans="1:6" x14ac:dyDescent="0.2">
@@ -65299,13 +65299,13 @@
         <v>8</v>
       </c>
       <c r="D2315" s="9">
-        <v>1173.76</v>
+        <v>1291.1400000000001</v>
       </c>
       <c r="E2315" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2315" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2316" spans="1:6" x14ac:dyDescent="0.2">
@@ -65319,13 +65319,13 @@
         <v>64</v>
       </c>
       <c r="D2316" s="9">
-        <v>3585.77</v>
+        <v>3944.35</v>
       </c>
       <c r="E2316" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2316" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2317" spans="1:6" x14ac:dyDescent="0.2">
@@ -65339,13 +65339,13 @@
         <v>64</v>
       </c>
       <c r="D2317" s="9">
-        <v>3585.77</v>
+        <v>3944.35</v>
       </c>
       <c r="E2317" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2317" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2318" spans="1:6" x14ac:dyDescent="0.2">
@@ -65359,13 +65359,13 @@
         <v>64</v>
       </c>
       <c r="D2318" s="9">
-        <v>3585.77</v>
+        <v>3944.35</v>
       </c>
       <c r="E2318" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2318" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2319" spans="1:6" x14ac:dyDescent="0.2">
@@ -65379,13 +65379,13 @@
         <v>64</v>
       </c>
       <c r="D2319" s="9">
-        <v>3585.77</v>
+        <v>3944.35</v>
       </c>
       <c r="E2319" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2319" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2320" spans="1:6" x14ac:dyDescent="0.2">
@@ -65399,13 +65399,13 @@
         <v>64</v>
       </c>
       <c r="D2320" s="9">
-        <v>3585.77</v>
+        <v>3944.35</v>
       </c>
       <c r="E2320" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2320" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2321" spans="1:6" x14ac:dyDescent="0.2">
@@ -65419,13 +65419,13 @@
         <v>64</v>
       </c>
       <c r="D2321" s="9">
-        <v>3585.77</v>
+        <v>3944.35</v>
       </c>
       <c r="E2321" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2321" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2322" spans="1:6" x14ac:dyDescent="0.2">
@@ -65439,13 +65439,13 @@
         <v>64</v>
       </c>
       <c r="D2322" s="9">
-        <v>3585.77</v>
+        <v>3944.35</v>
       </c>
       <c r="E2322" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2322" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2323" spans="1:6" x14ac:dyDescent="0.2">
@@ -65459,13 +65459,13 @@
         <v>64</v>
       </c>
       <c r="D2323" s="9">
-        <v>3585.77</v>
+        <v>3944.35</v>
       </c>
       <c r="E2323" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2323" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2324" spans="1:6" x14ac:dyDescent="0.2">
@@ -65699,13 +65699,13 @@
         <v>8</v>
       </c>
       <c r="D2335" s="9">
-        <v>1173.76</v>
+        <v>1291.1400000000001</v>
       </c>
       <c r="E2335" s="2" t="s">
         <v>4730</v>
       </c>
       <c r="F2335" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2336" spans="1:6" x14ac:dyDescent="0.2">
@@ -67439,13 +67439,13 @@
         <v>925</v>
       </c>
       <c r="D2422" s="9">
-        <v>290.74</v>
+        <v>348.89</v>
       </c>
       <c r="E2422" s="2" t="s">
         <v>5070</v>
       </c>
       <c r="F2422" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2423" spans="1:6" x14ac:dyDescent="0.2">
@@ -67459,13 +67459,13 @@
         <v>925</v>
       </c>
       <c r="D2423" s="9">
-        <v>313.61</v>
+        <v>376.33</v>
       </c>
       <c r="E2423" s="2" t="s">
         <v>5070</v>
       </c>
       <c r="F2423" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2424" spans="1:6" x14ac:dyDescent="0.2">
@@ -67539,13 +67539,13 @@
         <v>64</v>
       </c>
       <c r="D2427" s="9">
-        <v>527.48</v>
+        <v>632.98</v>
       </c>
       <c r="E2427" s="2" t="s">
         <v>5070</v>
       </c>
       <c r="F2427" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2428" spans="1:6" x14ac:dyDescent="0.2">
@@ -67559,13 +67559,13 @@
         <v>64</v>
       </c>
       <c r="D2428" s="9">
-        <v>527.48</v>
+        <v>632.98</v>
       </c>
       <c r="E2428" s="2" t="s">
         <v>5070</v>
       </c>
       <c r="F2428" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2429" spans="1:6" x14ac:dyDescent="0.2">
@@ -68259,13 +68259,13 @@
         <v>64</v>
       </c>
       <c r="D2463" s="9">
-        <v>2326.52</v>
+        <v>2791.82</v>
       </c>
       <c r="E2463" s="2" t="s">
         <v>5165</v>
       </c>
       <c r="F2463" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2464" spans="1:6" x14ac:dyDescent="0.2">
@@ -68299,13 +68299,13 @@
         <v>64</v>
       </c>
       <c r="D2465" s="9">
-        <v>2801.21</v>
+        <v>3361.45</v>
       </c>
       <c r="E2465" s="2" t="s">
         <v>5165</v>
       </c>
       <c r="F2465" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2466" spans="1:6" x14ac:dyDescent="0.2">
@@ -68319,13 +68319,13 @@
         <v>64</v>
       </c>
       <c r="D2466" s="9">
-        <v>2326.52</v>
+        <v>2791.82</v>
       </c>
       <c r="E2466" s="2" t="s">
         <v>5172</v>
       </c>
       <c r="F2466" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2467" spans="1:6" x14ac:dyDescent="0.2">
@@ -68339,13 +68339,13 @@
         <v>64</v>
       </c>
       <c r="D2467" s="9">
-        <v>2326.52</v>
+        <v>2791.82</v>
       </c>
       <c r="E2467" s="2" t="s">
         <v>5172</v>
       </c>
       <c r="F2467" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2468" spans="1:6" x14ac:dyDescent="0.2">
@@ -68419,13 +68419,13 @@
         <v>64</v>
       </c>
       <c r="D2471" s="9">
-        <v>4373.97</v>
+        <v>5248.76</v>
       </c>
       <c r="E2471" s="2" t="s">
         <v>5184</v>
       </c>
       <c r="F2471" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2472" spans="1:6" x14ac:dyDescent="0.2">
@@ -68619,13 +68619,13 @@
         <v>64</v>
       </c>
       <c r="D2481" s="9">
-        <v>5094.63</v>
+        <v>6113.56</v>
       </c>
       <c r="E2481" s="2" t="s">
         <v>5184</v>
       </c>
       <c r="F2481" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2482" spans="1:6" x14ac:dyDescent="0.2">
@@ -68639,13 +68639,13 @@
         <v>64</v>
       </c>
       <c r="D2482" s="9">
-        <v>19356.080000000002</v>
+        <v>23227.3</v>
       </c>
       <c r="E2482" s="2" t="s">
         <v>5184</v>
       </c>
       <c r="F2482" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2483" spans="1:6" x14ac:dyDescent="0.2">
@@ -68659,13 +68659,13 @@
         <v>64</v>
       </c>
       <c r="D2483" s="9">
-        <v>1985.13</v>
+        <v>2382.16</v>
       </c>
       <c r="E2483" s="2" t="s">
         <v>5209</v>
       </c>
       <c r="F2483" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2484" spans="1:6" x14ac:dyDescent="0.2">
@@ -68739,13 +68739,13 @@
         <v>64</v>
       </c>
       <c r="D2487" s="9">
-        <v>2339.38</v>
+        <v>2807.26</v>
       </c>
       <c r="E2487" s="2" t="s">
         <v>5209</v>
       </c>
       <c r="F2487" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2488" spans="1:6" x14ac:dyDescent="0.2">
@@ -68759,13 +68759,13 @@
         <v>64</v>
       </c>
       <c r="D2488" s="9">
-        <v>1533.43</v>
+        <v>1840.12</v>
       </c>
       <c r="E2488" s="2" t="s">
         <v>5209</v>
       </c>
       <c r="F2488" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2489" spans="1:6" x14ac:dyDescent="0.2">
@@ -68779,13 +68779,13 @@
         <v>64</v>
       </c>
       <c r="D2489" s="9">
-        <v>2152.37</v>
+        <v>2582.84</v>
       </c>
       <c r="E2489" s="2" t="s">
         <v>5209</v>
       </c>
       <c r="F2489" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2490" spans="1:6" x14ac:dyDescent="0.2">
@@ -68799,13 +68799,13 @@
         <v>8</v>
       </c>
       <c r="D2490" s="9">
-        <v>2771.67</v>
+        <v>3326</v>
       </c>
       <c r="E2490" s="2" t="s">
         <v>5224</v>
       </c>
       <c r="F2490" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2491" spans="1:6" x14ac:dyDescent="0.2">
@@ -68879,13 +68879,13 @@
         <v>8</v>
       </c>
       <c r="D2494" s="9">
-        <v>1380.08</v>
+        <v>1656.1</v>
       </c>
       <c r="E2494" s="2" t="s">
         <v>5224</v>
       </c>
       <c r="F2494" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2495" spans="1:6" x14ac:dyDescent="0.2">
@@ -68899,13 +68899,13 @@
         <v>8</v>
       </c>
       <c r="D2495" s="9">
-        <v>1436.01</v>
+        <v>1723.21</v>
       </c>
       <c r="E2495" s="2" t="s">
         <v>5224</v>
       </c>
       <c r="F2495" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2496" spans="1:6" x14ac:dyDescent="0.2">
@@ -69799,13 +69799,13 @@
         <v>64</v>
       </c>
       <c r="D2540" s="9">
-        <v>1853.05</v>
+        <v>2223.66</v>
       </c>
       <c r="E2540" s="2" t="s">
         <v>5317</v>
       </c>
       <c r="F2540" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2541" spans="1:6" x14ac:dyDescent="0.2">
@@ -69819,13 +69819,13 @@
         <v>64</v>
       </c>
       <c r="D2541" s="9">
-        <v>2158.52</v>
+        <v>2590.2199999999998</v>
       </c>
       <c r="E2541" s="2" t="s">
         <v>5317</v>
       </c>
       <c r="F2541" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2542" spans="1:6" x14ac:dyDescent="0.2">
@@ -69839,13 +69839,13 @@
         <v>64</v>
       </c>
       <c r="D2542" s="9">
-        <v>3288.83</v>
+        <v>3946.6</v>
       </c>
       <c r="E2542" s="2" t="s">
         <v>5317</v>
       </c>
       <c r="F2542" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2543" spans="1:6" x14ac:dyDescent="0.2">
@@ -71239,13 +71239,13 @@
         <v>8</v>
       </c>
       <c r="D2612" s="9">
-        <v>163.03</v>
+        <v>179.33</v>
       </c>
       <c r="E2612" s="2" t="s">
         <v>5479</v>
       </c>
       <c r="F2612" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2613" spans="1:6" x14ac:dyDescent="0.2">
@@ -71259,13 +71259,13 @@
         <v>8</v>
       </c>
       <c r="D2613" s="9">
-        <v>163.03</v>
+        <v>179.33</v>
       </c>
       <c r="E2613" s="2" t="s">
         <v>5479</v>
       </c>
       <c r="F2613" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2614" spans="1:6" x14ac:dyDescent="0.2">
@@ -72859,13 +72859,13 @@
         <v>8</v>
       </c>
       <c r="D2693" s="9">
-        <v>59.21</v>
+        <v>65.13</v>
       </c>
       <c r="E2693" s="2" t="s">
         <v>5664</v>
       </c>
       <c r="F2693" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2694" spans="1:6" x14ac:dyDescent="0.2">
@@ -72919,13 +72919,13 @@
         <v>8</v>
       </c>
       <c r="D2696" s="9">
-        <v>116.61</v>
+        <v>128.27000000000001</v>
       </c>
       <c r="E2696" s="2" t="s">
         <v>5664</v>
       </c>
       <c r="F2696" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2697" spans="1:6" x14ac:dyDescent="0.2">
@@ -72959,13 +72959,13 @@
         <v>64</v>
       </c>
       <c r="D2698" s="9">
-        <v>1931.34</v>
+        <v>2124.4699999999998</v>
       </c>
       <c r="E2698" s="2" t="s">
         <v>5664</v>
       </c>
       <c r="F2698" s="3">
-        <v>45313</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2699" spans="1:6" x14ac:dyDescent="0.2">
@@ -73579,13 +73579,13 @@
         <v>966</v>
       </c>
       <c r="D2729" s="9">
-        <v>392.5</v>
+        <v>471</v>
       </c>
       <c r="E2729" s="2" t="s">
         <v>5742</v>
       </c>
       <c r="F2729" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2730" spans="1:6" x14ac:dyDescent="0.2">
@@ -73619,13 +73619,13 @@
         <v>966</v>
       </c>
       <c r="D2731" s="9">
-        <v>344.54</v>
+        <v>413.45</v>
       </c>
       <c r="E2731" s="2" t="s">
         <v>5742</v>
       </c>
       <c r="F2731" s="3">
-        <v>45279</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2732" spans="1:6" x14ac:dyDescent="0.2">
@@ -74019,13 +74019,13 @@
         <v>925</v>
       </c>
       <c r="D2751" s="9">
-        <v>87</v>
+        <v>106.14</v>
       </c>
       <c r="E2751" s="2" t="s">
         <v>5788</v>
       </c>
       <c r="F2751" s="3">
-        <v>45279</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="2752" spans="1:6" x14ac:dyDescent="0.2">
@@ -74039,13 +74039,13 @@
         <v>925</v>
       </c>
       <c r="D2752" s="9">
-        <v>90.6</v>
+        <v>110.6</v>
       </c>
       <c r="E2752" s="2" t="s">
         <v>5788</v>
       </c>
       <c r="F2752" s="3">
-        <v>45279</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="2753" spans="1:6" x14ac:dyDescent="0.2">
@@ -74059,13 +74059,13 @@
         <v>925</v>
       </c>
       <c r="D2753" s="9">
-        <v>142.80000000000001</v>
+        <v>174.22</v>
       </c>
       <c r="E2753" s="2" t="s">
         <v>5788</v>
       </c>
       <c r="F2753" s="3">
-        <v>45279</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="2754" spans="1:6" x14ac:dyDescent="0.2">
@@ -74079,13 +74079,13 @@
         <v>925</v>
       </c>
       <c r="D2754" s="9">
-        <v>157.06</v>
+        <v>191.62</v>
       </c>
       <c r="E2754" s="2" t="s">
         <v>5788</v>
       </c>
       <c r="F2754" s="3">
-        <v>45279</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="2755" spans="1:6" x14ac:dyDescent="0.2">
@@ -74099,13 +74099,13 @@
         <v>925</v>
       </c>
       <c r="D2755" s="9">
-        <v>179.4</v>
+        <v>218.88</v>
       </c>
       <c r="E2755" s="2" t="s">
         <v>5788</v>
       </c>
       <c r="F2755" s="3">
-        <v>45279</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="2756" spans="1:6" x14ac:dyDescent="0.2">
@@ -74119,13 +74119,13 @@
         <v>925</v>
       </c>
       <c r="D2756" s="9">
-        <v>217.66</v>
+        <v>265.56</v>
       </c>
       <c r="E2756" s="2" t="s">
         <v>5788</v>
       </c>
       <c r="F2756" s="3">
-        <v>45279</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="2757" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel-files/fg.xlsx
+++ b/excel-files/fg.xlsx
@@ -18852,7 +18852,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -18887,7 +18887,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -27881,13 +27881,13 @@
         <v>64</v>
       </c>
       <c r="D443" s="9">
-        <v>14300.42</v>
+        <v>17965.5</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>914</v>
       </c>
       <c r="F443" s="3">
-        <v>45273</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.2">
@@ -27901,13 +27901,13 @@
         <v>64</v>
       </c>
       <c r="D444" s="9">
-        <v>17691.240000000002</v>
+        <v>21753.3</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>914</v>
       </c>
       <c r="F444" s="3">
-        <v>45273</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.2">
@@ -27921,13 +27921,13 @@
         <v>64</v>
       </c>
       <c r="D445" s="9">
-        <v>19738.82</v>
+        <v>24125.1</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>914</v>
       </c>
       <c r="F445" s="3">
-        <v>45273</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.2">
@@ -27941,13 +27941,13 @@
         <v>64</v>
       </c>
       <c r="D446" s="9">
-        <v>25422.97</v>
+        <v>30638.7</v>
       </c>
       <c r="E446" s="2" t="s">
         <v>914</v>
       </c>
       <c r="F446" s="3">
-        <v>45273</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.2">
@@ -27961,13 +27961,13 @@
         <v>64</v>
       </c>
       <c r="D447" s="9">
-        <v>27699.88</v>
+        <v>33222.9</v>
       </c>
       <c r="E447" s="2" t="s">
         <v>914</v>
       </c>
       <c r="F447" s="3">
-        <v>45273</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.2">
@@ -27981,13 +27981,13 @@
         <v>64</v>
       </c>
       <c r="D448" s="9">
-        <v>32237.39</v>
+        <v>38462.1</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>914</v>
       </c>
       <c r="F448" s="3">
-        <v>45273</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.2">
@@ -30721,13 +30721,13 @@
         <v>64</v>
       </c>
       <c r="D585" s="9">
-        <v>11343.61</v>
+        <v>11980</v>
       </c>
       <c r="E585" s="2" t="s">
         <v>1176</v>
       </c>
       <c r="F585" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.2">
@@ -30741,13 +30741,13 @@
         <v>64</v>
       </c>
       <c r="D586" s="9">
-        <v>13131.01</v>
+        <v>13860</v>
       </c>
       <c r="E586" s="2" t="s">
         <v>1176</v>
       </c>
       <c r="F586" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.2">
@@ -30761,13 +30761,13 @@
         <v>64</v>
       </c>
       <c r="D587" s="9">
-        <v>12553.15</v>
+        <v>12675.3</v>
       </c>
       <c r="E587" s="2" t="s">
         <v>1176</v>
       </c>
       <c r="F587" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.2">
@@ -30781,13 +30781,13 @@
         <v>64</v>
       </c>
       <c r="D588" s="9">
-        <v>4563.88</v>
+        <v>4720</v>
       </c>
       <c r="E588" s="2" t="s">
         <v>1176</v>
       </c>
       <c r="F588" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.2">
@@ -31461,13 +31461,13 @@
         <v>64</v>
       </c>
       <c r="D622" s="9">
-        <v>4080.6</v>
+        <v>4488.66</v>
       </c>
       <c r="E622" s="2" t="s">
         <v>1274</v>
       </c>
       <c r="F622" s="3">
-        <v>45299</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.2">
@@ -31481,13 +31481,13 @@
         <v>64</v>
       </c>
       <c r="D623" s="9">
-        <v>8117.72</v>
+        <v>8929.5</v>
       </c>
       <c r="E623" s="2" t="s">
         <v>1274</v>
       </c>
       <c r="F623" s="3">
-        <v>45299</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.2">
@@ -31861,13 +31861,13 @@
         <v>32</v>
       </c>
       <c r="D642" s="9">
-        <v>1784.6</v>
+        <v>2250</v>
       </c>
       <c r="E642" s="2" t="s">
         <v>1302</v>
       </c>
       <c r="F642" s="3">
-        <v>45273</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.2">
@@ -31901,13 +31901,13 @@
         <v>64</v>
       </c>
       <c r="D644" s="9">
-        <v>7390</v>
+        <v>8014</v>
       </c>
       <c r="E644" s="2" t="s">
         <v>1321</v>
       </c>
       <c r="F644" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.2">
@@ -31921,13 +31921,13 @@
         <v>64</v>
       </c>
       <c r="D645" s="9">
-        <v>9850</v>
+        <v>13080</v>
       </c>
       <c r="E645" s="2" t="s">
         <v>1321</v>
       </c>
       <c r="F645" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.2">
@@ -31941,13 +31941,13 @@
         <v>64</v>
       </c>
       <c r="D646" s="9">
-        <v>8370</v>
+        <v>8960</v>
       </c>
       <c r="E646" s="2" t="s">
         <v>1321</v>
       </c>
       <c r="F646" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.2">
@@ -31961,13 +31961,13 @@
         <v>64</v>
       </c>
       <c r="D647" s="9">
-        <v>9010</v>
+        <v>9760</v>
       </c>
       <c r="E647" s="2" t="s">
         <v>1321</v>
       </c>
       <c r="F647" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.2">
@@ -32021,13 +32021,13 @@
         <v>64</v>
       </c>
       <c r="D650" s="9">
-        <v>9960</v>
+        <v>10790</v>
       </c>
       <c r="E650" s="2" t="s">
         <v>1321</v>
       </c>
       <c r="F650" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.2">
@@ -32041,13 +32041,13 @@
         <v>64</v>
       </c>
       <c r="D651" s="9">
-        <v>13460</v>
+        <v>14600</v>
       </c>
       <c r="E651" s="2" t="s">
         <v>1321</v>
       </c>
       <c r="F651" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.2">
@@ -32061,13 +32061,13 @@
         <v>64</v>
       </c>
       <c r="D652" s="9">
-        <v>12680</v>
+        <v>17740</v>
       </c>
       <c r="E652" s="2" t="s">
         <v>1321</v>
       </c>
       <c r="F652" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.2">
@@ -32081,13 +32081,13 @@
         <v>64</v>
       </c>
       <c r="D653" s="9">
-        <v>13850</v>
+        <v>19770</v>
       </c>
       <c r="E653" s="2" t="s">
         <v>1321</v>
       </c>
       <c r="F653" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.2">
@@ -32101,13 +32101,13 @@
         <v>64</v>
       </c>
       <c r="D654" s="9">
-        <v>35000</v>
+        <v>36840</v>
       </c>
       <c r="E654" s="2" t="s">
         <v>1321</v>
       </c>
       <c r="F654" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.2">
@@ -32121,13 +32121,13 @@
         <v>64</v>
       </c>
       <c r="D655" s="9">
-        <v>40500</v>
+        <v>42500</v>
       </c>
       <c r="E655" s="2" t="s">
         <v>1321</v>
       </c>
       <c r="F655" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.2">
@@ -32139,13 +32139,13 @@
       </c>
       <c r="C656" s="2"/>
       <c r="D656" s="9">
-        <v>40720</v>
+        <v>42870</v>
       </c>
       <c r="E656" s="2" t="s">
         <v>1321</v>
       </c>
       <c r="F656" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.2">
@@ -32159,13 +32159,13 @@
         <v>64</v>
       </c>
       <c r="D657" s="9">
-        <v>14570</v>
+        <v>21840</v>
       </c>
       <c r="E657" s="2" t="s">
         <v>1321</v>
       </c>
       <c r="F657" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.2">
@@ -32179,13 +32179,13 @@
         <v>64</v>
       </c>
       <c r="D658" s="9">
-        <v>30360</v>
+        <v>33996</v>
       </c>
       <c r="E658" s="2" t="s">
         <v>1350</v>
       </c>
       <c r="F658" s="3">
-        <v>45342</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.2">
@@ -32199,13 +32199,13 @@
         <v>64</v>
       </c>
       <c r="D659" s="9">
-        <v>31918</v>
+        <v>35109.800000000003</v>
       </c>
       <c r="E659" s="2" t="s">
         <v>1350</v>
       </c>
       <c r="F659" s="3">
-        <v>45342</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.2">
@@ -41337,13 +41337,13 @@
         <v>978</v>
       </c>
       <c r="D1116" s="9">
-        <v>3658.87</v>
+        <v>4207.7</v>
       </c>
       <c r="E1116" s="2" t="s">
         <v>2305</v>
       </c>
       <c r="F1116" s="3">
-        <v>45327</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1117" spans="1:6" x14ac:dyDescent="0.2">
@@ -41357,13 +41357,13 @@
         <v>978</v>
       </c>
       <c r="D1117" s="9">
-        <v>3061.81</v>
+        <v>3521.08</v>
       </c>
       <c r="E1117" s="2" t="s">
         <v>2305</v>
       </c>
       <c r="F1117" s="3">
-        <v>45273</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1118" spans="1:6" x14ac:dyDescent="0.2">
@@ -41377,13 +41377,13 @@
         <v>978</v>
       </c>
       <c r="D1118" s="9">
-        <v>1848.92</v>
+        <v>2126.2600000000002</v>
       </c>
       <c r="E1118" s="2" t="s">
         <v>2305</v>
       </c>
       <c r="F1118" s="3">
-        <v>45273</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1119" spans="1:6" x14ac:dyDescent="0.2">
@@ -41397,13 +41397,13 @@
         <v>978</v>
       </c>
       <c r="D1119" s="9">
-        <v>5016.62</v>
+        <v>5769.11</v>
       </c>
       <c r="E1119" s="2" t="s">
         <v>2305</v>
       </c>
       <c r="F1119" s="3">
-        <v>45327</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1120" spans="1:6" x14ac:dyDescent="0.2">
@@ -41417,13 +41417,13 @@
         <v>978</v>
       </c>
       <c r="D1120" s="9">
-        <v>6021.98</v>
+        <v>6925.28</v>
       </c>
       <c r="E1120" s="2" t="s">
         <v>2305</v>
       </c>
       <c r="F1120" s="3">
-        <v>45327</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.2">
@@ -41437,13 +41437,13 @@
         <v>978</v>
       </c>
       <c r="D1121" s="9">
-        <v>3333.18</v>
+        <v>3833.16</v>
       </c>
       <c r="E1121" s="2" t="s">
         <v>2305</v>
       </c>
       <c r="F1121" s="3">
-        <v>45327</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.2">
@@ -41457,13 +41457,13 @@
         <v>978</v>
       </c>
       <c r="D1122" s="9">
-        <v>5118.97</v>
+        <v>5886.82</v>
       </c>
       <c r="E1122" s="2" t="s">
         <v>2305</v>
       </c>
       <c r="F1122" s="3">
-        <v>45273</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1123" spans="1:6" x14ac:dyDescent="0.2">
@@ -47557,13 +47557,13 @@
         <v>8</v>
       </c>
       <c r="D1427" s="9">
-        <v>3334.71</v>
+        <v>4834.71</v>
       </c>
       <c r="E1427" s="2" t="s">
         <v>2956</v>
       </c>
       <c r="F1427" s="3">
-        <v>45352</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="1428" spans="1:6" x14ac:dyDescent="0.2">
@@ -48337,13 +48337,13 @@
         <v>8</v>
       </c>
       <c r="D1466" s="9">
-        <v>649.39</v>
+        <v>826.94</v>
       </c>
       <c r="E1466" s="2" t="s">
         <v>3047</v>
       </c>
       <c r="F1466" s="3">
-        <v>45330</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1467" spans="1:6" x14ac:dyDescent="0.2">
@@ -50137,13 +50137,13 @@
         <v>972</v>
       </c>
       <c r="D1556" s="9">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="E1556" s="2" t="s">
         <v>3250</v>
       </c>
       <c r="F1556" s="3">
-        <v>45342</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1557" spans="1:6" x14ac:dyDescent="0.2">
@@ -50157,13 +50157,13 @@
         <v>1242</v>
       </c>
       <c r="D1557" s="9">
-        <v>436</v>
+        <v>523</v>
       </c>
       <c r="E1557" s="2" t="s">
         <v>3250</v>
       </c>
       <c r="F1557" s="3">
-        <v>45342</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1558" spans="1:6" x14ac:dyDescent="0.2">
@@ -50177,13 +50177,13 @@
         <v>972</v>
       </c>
       <c r="D1558" s="9">
-        <v>436</v>
+        <v>523</v>
       </c>
       <c r="E1558" s="2" t="s">
         <v>3250</v>
       </c>
       <c r="F1558" s="3">
-        <v>45342</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1559" spans="1:6" x14ac:dyDescent="0.2">
@@ -50197,13 +50197,13 @@
         <v>3257</v>
       </c>
       <c r="D1559" s="9">
-        <v>1507</v>
+        <v>1657.7</v>
       </c>
       <c r="E1559" s="2" t="s">
         <v>3250</v>
       </c>
       <c r="F1559" s="3">
-        <v>45342</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1560" spans="1:6" x14ac:dyDescent="0.2">
@@ -50637,13 +50637,13 @@
         <v>64</v>
       </c>
       <c r="D1581" s="9">
-        <v>5213</v>
+        <v>5960</v>
       </c>
       <c r="E1581" s="2" t="s">
         <v>3305</v>
       </c>
       <c r="F1581" s="3">
-        <v>45342</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1582" spans="1:6" x14ac:dyDescent="0.2">
@@ -51557,13 +51557,13 @@
         <v>64</v>
       </c>
       <c r="D1627" s="9">
-        <v>7844.27</v>
+        <v>9260</v>
       </c>
       <c r="E1627" s="2" t="s">
         <v>3397</v>
       </c>
       <c r="F1627" s="3">
-        <v>45273</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1628" spans="1:6" x14ac:dyDescent="0.2">
@@ -51757,13 +51757,13 @@
         <v>972</v>
       </c>
       <c r="D1637" s="9">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="E1637" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1637" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1638" spans="1:6" x14ac:dyDescent="0.2">
@@ -51777,13 +51777,13 @@
         <v>972</v>
       </c>
       <c r="D1638" s="9">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="E1638" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1638" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1639" spans="1:6" x14ac:dyDescent="0.2">
@@ -51797,13 +51797,13 @@
         <v>972</v>
       </c>
       <c r="D1639" s="9">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="E1639" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1639" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1640" spans="1:6" x14ac:dyDescent="0.2">
@@ -57077,13 +57077,13 @@
         <v>931</v>
       </c>
       <c r="D1903" s="9">
-        <v>140.82</v>
+        <v>154.9</v>
       </c>
       <c r="E1903" s="2" t="s">
         <v>3979</v>
       </c>
       <c r="F1903" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1904" spans="1:6" x14ac:dyDescent="0.2">
@@ -57097,13 +57097,13 @@
         <v>931</v>
       </c>
       <c r="D1904" s="9">
-        <v>201.1</v>
+        <v>221.21</v>
       </c>
       <c r="E1904" s="2" t="s">
         <v>3979</v>
       </c>
       <c r="F1904" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1905" spans="1:6" x14ac:dyDescent="0.2">
@@ -57117,13 +57117,13 @@
         <v>931</v>
       </c>
       <c r="D1905" s="9">
-        <v>147.34</v>
+        <v>162.07</v>
       </c>
       <c r="E1905" s="2" t="s">
         <v>3979</v>
       </c>
       <c r="F1905" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1906" spans="1:6" x14ac:dyDescent="0.2">
@@ -57137,13 +57137,13 @@
         <v>931</v>
       </c>
       <c r="D1906" s="9">
-        <v>414.3</v>
+        <v>455.73</v>
       </c>
       <c r="E1906" s="2" t="s">
         <v>3979</v>
       </c>
       <c r="F1906" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1907" spans="1:6" x14ac:dyDescent="0.2">
@@ -57677,13 +57677,13 @@
         <v>978</v>
       </c>
       <c r="D1933" s="9">
-        <v>5062.6000000000004</v>
+        <v>5568.86</v>
       </c>
       <c r="E1933" s="2" t="s">
         <v>4042</v>
       </c>
       <c r="F1933" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1934" spans="1:6" x14ac:dyDescent="0.2">
@@ -57697,13 +57697,13 @@
         <v>978</v>
       </c>
       <c r="D1934" s="9">
-        <v>2645.76</v>
+        <v>2910.34</v>
       </c>
       <c r="E1934" s="2" t="s">
         <v>4042</v>
       </c>
       <c r="F1934" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1935" spans="1:6" x14ac:dyDescent="0.2">
@@ -57717,13 +57717,13 @@
         <v>978</v>
       </c>
       <c r="D1935" s="9">
-        <v>2747.54</v>
+        <v>3022.29</v>
       </c>
       <c r="E1935" s="2" t="s">
         <v>4042</v>
       </c>
       <c r="F1935" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1936" spans="1:6" x14ac:dyDescent="0.2">
@@ -57737,13 +57737,13 @@
         <v>978</v>
       </c>
       <c r="D1936" s="9">
-        <v>2094.58</v>
+        <v>2304.04</v>
       </c>
       <c r="E1936" s="2" t="s">
         <v>4042</v>
       </c>
       <c r="F1936" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1937" spans="1:6" x14ac:dyDescent="0.2">
@@ -57757,13 +57757,13 @@
         <v>978</v>
       </c>
       <c r="D1937" s="9">
-        <v>6376.97</v>
+        <v>7014.67</v>
       </c>
       <c r="E1937" s="2" t="s">
         <v>4051</v>
       </c>
       <c r="F1937" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1938" spans="1:6" x14ac:dyDescent="0.2">
@@ -57777,13 +57777,13 @@
         <v>978</v>
       </c>
       <c r="D1938" s="9">
-        <v>6826.51</v>
+        <v>7509.16</v>
       </c>
       <c r="E1938" s="2" t="s">
         <v>4051</v>
       </c>
       <c r="F1938" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1939" spans="1:6" x14ac:dyDescent="0.2">
@@ -57797,13 +57797,13 @@
         <v>978</v>
       </c>
       <c r="D1939" s="9">
-        <v>6097.13</v>
+        <v>6706.84</v>
       </c>
       <c r="E1939" s="2" t="s">
         <v>4051</v>
       </c>
       <c r="F1939" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1940" spans="1:6" x14ac:dyDescent="0.2">
@@ -57817,13 +57817,13 @@
         <v>978</v>
       </c>
       <c r="D1940" s="9">
-        <v>4511.3900000000003</v>
+        <v>4962.53</v>
       </c>
       <c r="E1940" s="2" t="s">
         <v>4051</v>
       </c>
       <c r="F1940" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1941" spans="1:6" x14ac:dyDescent="0.2">
@@ -57837,13 +57837,13 @@
         <v>978</v>
       </c>
       <c r="D1941" s="9">
-        <v>7801.62</v>
+        <v>8581.7800000000007</v>
       </c>
       <c r="E1941" s="2" t="s">
         <v>4051</v>
       </c>
       <c r="F1941" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1942" spans="1:6" x14ac:dyDescent="0.2">
@@ -57857,13 +57857,13 @@
         <v>978</v>
       </c>
       <c r="D1942" s="9">
-        <v>18138.740000000002</v>
+        <v>19952.61</v>
       </c>
       <c r="E1942" s="2" t="s">
         <v>4051</v>
       </c>
       <c r="F1942" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1943" spans="1:6" x14ac:dyDescent="0.2">
@@ -57877,13 +57877,13 @@
         <v>978</v>
       </c>
       <c r="D1943" s="9">
-        <v>7038.48</v>
+        <v>7742.33</v>
       </c>
       <c r="E1943" s="2" t="s">
         <v>4051</v>
       </c>
       <c r="F1943" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1944" spans="1:6" x14ac:dyDescent="0.2">
@@ -57897,13 +57897,13 @@
         <v>978</v>
       </c>
       <c r="D1944" s="9">
-        <v>2467.73</v>
+        <v>2714.5</v>
       </c>
       <c r="E1944" s="2" t="s">
         <v>4066</v>
       </c>
       <c r="F1944" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1945" spans="1:6" x14ac:dyDescent="0.2">
@@ -57917,13 +57917,13 @@
         <v>978</v>
       </c>
       <c r="D1945" s="9">
-        <v>2467.73</v>
+        <v>2714.5</v>
       </c>
       <c r="E1945" s="2" t="s">
         <v>4066</v>
       </c>
       <c r="F1945" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1946" spans="1:6" x14ac:dyDescent="0.2">
@@ -57937,13 +57937,13 @@
         <v>978</v>
       </c>
       <c r="D1946" s="9">
-        <v>2467.73</v>
+        <v>2714.5</v>
       </c>
       <c r="E1946" s="2" t="s">
         <v>4066</v>
       </c>
       <c r="F1946" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1947" spans="1:6" x14ac:dyDescent="0.2">
@@ -57957,13 +57957,13 @@
         <v>978</v>
       </c>
       <c r="D1947" s="9">
-        <v>2467.73</v>
+        <v>2714.5</v>
       </c>
       <c r="E1947" s="2" t="s">
         <v>4066</v>
       </c>
       <c r="F1947" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1948" spans="1:6" x14ac:dyDescent="0.2">
@@ -57977,13 +57977,13 @@
         <v>978</v>
       </c>
       <c r="D1948" s="9">
-        <v>2467.73</v>
+        <v>2714.5</v>
       </c>
       <c r="E1948" s="2" t="s">
         <v>4066</v>
       </c>
       <c r="F1948" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1949" spans="1:6" x14ac:dyDescent="0.2">
@@ -57997,13 +57997,13 @@
         <v>978</v>
       </c>
       <c r="D1949" s="9">
-        <v>2094.58</v>
+        <v>2304.04</v>
       </c>
       <c r="E1949" s="2" t="s">
         <v>4066</v>
       </c>
       <c r="F1949" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1950" spans="1:6" x14ac:dyDescent="0.2">
@@ -58017,13 +58017,13 @@
         <v>978</v>
       </c>
       <c r="D1950" s="9">
-        <v>2094.58</v>
+        <v>2304.04</v>
       </c>
       <c r="E1950" s="2" t="s">
         <v>4066</v>
       </c>
       <c r="F1950" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1951" spans="1:6" x14ac:dyDescent="0.2">
@@ -58037,13 +58037,13 @@
         <v>978</v>
       </c>
       <c r="D1951" s="9">
-        <v>1377.86</v>
+        <v>1515.65</v>
       </c>
       <c r="E1951" s="2" t="s">
         <v>4066</v>
       </c>
       <c r="F1951" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1952" spans="1:6" x14ac:dyDescent="0.2">
@@ -58057,13 +58057,13 @@
         <v>978</v>
       </c>
       <c r="D1952" s="9">
-        <v>2128.0100000000002</v>
+        <v>2340.81</v>
       </c>
       <c r="E1952" s="2" t="s">
         <v>4066</v>
       </c>
       <c r="F1952" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1953" spans="1:6" x14ac:dyDescent="0.2">
@@ -58077,13 +58077,13 @@
         <v>978</v>
       </c>
       <c r="D1953" s="9">
-        <v>2425.3200000000002</v>
+        <v>2667.85</v>
       </c>
       <c r="E1953" s="2" t="s">
         <v>4085</v>
       </c>
       <c r="F1953" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="1954" spans="1:6" x14ac:dyDescent="0.2">
@@ -59977,13 +59977,13 @@
         <v>8</v>
       </c>
       <c r="D2048" s="9">
-        <v>864</v>
+        <v>912</v>
       </c>
       <c r="E2048" s="2" t="s">
         <v>4287</v>
       </c>
       <c r="F2048" s="3">
-        <v>45327</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="2049" spans="1:6" x14ac:dyDescent="0.2">
@@ -62057,13 +62057,13 @@
         <v>2267</v>
       </c>
       <c r="D2152" s="9">
-        <v>893</v>
+        <v>945.8</v>
       </c>
       <c r="E2152" s="2" t="s">
         <v>4510</v>
       </c>
       <c r="F2152" s="3">
-        <v>45316</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2153" spans="1:6" x14ac:dyDescent="0.2">
@@ -62077,13 +62077,13 @@
         <v>2267</v>
       </c>
       <c r="D2153" s="9">
-        <v>1032</v>
+        <v>1114</v>
       </c>
       <c r="E2153" s="2" t="s">
         <v>4510</v>
       </c>
       <c r="F2153" s="3">
-        <v>45316</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2154" spans="1:6" x14ac:dyDescent="0.2">
@@ -62097,13 +62097,13 @@
         <v>2267</v>
       </c>
       <c r="D2154" s="9">
-        <v>1289</v>
+        <v>1402.6</v>
       </c>
       <c r="E2154" s="2" t="s">
         <v>4510</v>
       </c>
       <c r="F2154" s="3">
-        <v>45316</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2155" spans="1:6" x14ac:dyDescent="0.2">
@@ -62117,13 +62117,13 @@
         <v>2267</v>
       </c>
       <c r="D2155" s="9">
-        <v>1485.2</v>
+        <v>1596.4</v>
       </c>
       <c r="E2155" s="2" t="s">
         <v>4510</v>
       </c>
       <c r="F2155" s="3">
-        <v>45316</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2156" spans="1:6" x14ac:dyDescent="0.2">
@@ -62677,13 +62677,13 @@
         <v>2055</v>
       </c>
       <c r="D2183" s="9">
-        <v>14360.83</v>
+        <v>16355.06</v>
       </c>
       <c r="E2183" s="2" t="s">
         <v>4576</v>
       </c>
       <c r="F2183" s="3">
-        <v>45330</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2184" spans="1:6" x14ac:dyDescent="0.2">
@@ -62697,13 +62697,13 @@
         <v>972</v>
       </c>
       <c r="D2184" s="9">
-        <v>631.28</v>
+        <v>786.22</v>
       </c>
       <c r="E2184" s="2" t="s">
         <v>4579</v>
       </c>
       <c r="F2184" s="3">
-        <v>45330</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2185" spans="1:6" x14ac:dyDescent="0.2">
@@ -62877,13 +62877,13 @@
         <v>972</v>
       </c>
       <c r="D2193" s="9">
-        <v>637.17999999999995</v>
+        <v>786.22</v>
       </c>
       <c r="E2193" s="2" t="s">
         <v>4579</v>
       </c>
       <c r="F2193" s="3">
-        <v>45330</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2194" spans="1:6" x14ac:dyDescent="0.2">
@@ -62897,13 +62897,13 @@
         <v>931</v>
       </c>
       <c r="D2194" s="9">
-        <v>1262.43</v>
+        <v>1398.5</v>
       </c>
       <c r="E2194" s="2" t="s">
         <v>4579</v>
       </c>
       <c r="F2194" s="3">
-        <v>45330</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2195" spans="1:6" x14ac:dyDescent="0.2">
@@ -62917,13 +62917,13 @@
         <v>931</v>
       </c>
       <c r="D2195" s="9">
-        <v>1052.9100000000001</v>
+        <v>1242.54</v>
       </c>
       <c r="E2195" s="2" t="s">
         <v>4579</v>
       </c>
       <c r="F2195" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2196" spans="1:6" x14ac:dyDescent="0.2">
@@ -62937,13 +62937,13 @@
         <v>972</v>
       </c>
       <c r="D2196" s="9">
-        <v>781.86</v>
+        <v>1001.94</v>
       </c>
       <c r="E2196" s="2" t="s">
         <v>4604</v>
       </c>
       <c r="F2196" s="3">
-        <v>45330</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2197" spans="1:6" x14ac:dyDescent="0.2">
@@ -62957,13 +62957,13 @@
         <v>2120</v>
       </c>
       <c r="D2197" s="9">
-        <v>2858.55</v>
+        <v>3032.1</v>
       </c>
       <c r="E2197" s="2" t="s">
         <v>4604</v>
       </c>
       <c r="F2197" s="3">
-        <v>45280</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2198" spans="1:6" x14ac:dyDescent="0.2">
@@ -62977,13 +62977,13 @@
         <v>931</v>
       </c>
       <c r="D2198" s="9">
-        <v>1612.94</v>
+        <v>2328.66</v>
       </c>
       <c r="E2198" s="2" t="s">
         <v>4604</v>
       </c>
       <c r="F2198" s="3">
-        <v>45330</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2199" spans="1:6" x14ac:dyDescent="0.2">
@@ -62997,13 +62997,13 @@
         <v>931</v>
       </c>
       <c r="D2199" s="9">
-        <v>1112.25</v>
+        <v>1351.1</v>
       </c>
       <c r="E2199" s="2" t="s">
         <v>4604</v>
       </c>
       <c r="F2199" s="3">
-        <v>45330</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2200" spans="1:6" x14ac:dyDescent="0.2">
@@ -63017,13 +63017,13 @@
         <v>931</v>
       </c>
       <c r="D2200" s="9">
-        <v>1011.11</v>
+        <v>1351.1</v>
       </c>
       <c r="E2200" s="2" t="s">
         <v>4604</v>
       </c>
       <c r="F2200" s="3">
-        <v>45330</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2201" spans="1:6" x14ac:dyDescent="0.2">
@@ -63037,13 +63037,13 @@
         <v>931</v>
       </c>
       <c r="D2201" s="9">
-        <v>1284.8</v>
+        <v>1670.14</v>
       </c>
       <c r="E2201" s="2" t="s">
         <v>4604</v>
       </c>
       <c r="F2201" s="3">
-        <v>45330</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2202" spans="1:6" x14ac:dyDescent="0.2">
@@ -63757,13 +63757,13 @@
         <v>64</v>
       </c>
       <c r="D2237" s="9">
-        <v>18750</v>
+        <v>20100</v>
       </c>
       <c r="E2237" s="2" t="s">
         <v>4691</v>
       </c>
       <c r="F2237" s="3">
-        <v>45351</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2238" spans="1:6" x14ac:dyDescent="0.2">
@@ -63777,13 +63777,13 @@
         <v>64</v>
       </c>
       <c r="D2238" s="9">
-        <v>24000</v>
+        <v>25500</v>
       </c>
       <c r="E2238" s="2" t="s">
         <v>4691</v>
       </c>
       <c r="F2238" s="3">
-        <v>45351</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2239" spans="1:6" x14ac:dyDescent="0.2">
@@ -75835,13 +75835,13 @@
         <v>840</v>
       </c>
       <c r="D2841" s="9">
-        <v>6740</v>
+        <v>7214</v>
       </c>
       <c r="E2841" s="2" t="s">
         <v>5986</v>
       </c>
       <c r="F2841" s="3">
-        <v>45337</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2842" spans="1:6" x14ac:dyDescent="0.2">
@@ -75875,13 +75875,13 @@
         <v>64</v>
       </c>
       <c r="D2843" s="9">
-        <v>5680</v>
+        <v>6880</v>
       </c>
       <c r="E2843" s="2" t="s">
         <v>5986</v>
       </c>
       <c r="F2843" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2844" spans="1:6" x14ac:dyDescent="0.2">
@@ -77295,13 +77295,13 @@
         <v>978</v>
       </c>
       <c r="D2914" s="9">
-        <v>8660</v>
+        <v>9514</v>
       </c>
       <c r="E2914" s="2" t="s">
         <v>6146</v>
       </c>
       <c r="F2914" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2915" spans="1:6" x14ac:dyDescent="0.2">
@@ -77315,13 +77315,13 @@
         <v>978</v>
       </c>
       <c r="D2915" s="9">
-        <v>8700</v>
+        <v>9560</v>
       </c>
       <c r="E2915" s="2" t="s">
         <v>6146</v>
       </c>
       <c r="F2915" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2916" spans="1:6" x14ac:dyDescent="0.2">
@@ -77335,13 +77335,13 @@
         <v>978</v>
       </c>
       <c r="D2916" s="9">
-        <v>9600</v>
+        <v>10550</v>
       </c>
       <c r="E2916" s="2" t="s">
         <v>6146</v>
       </c>
       <c r="F2916" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2917" spans="1:6" x14ac:dyDescent="0.2">
@@ -77355,13 +77355,13 @@
         <v>978</v>
       </c>
       <c r="D2917" s="9">
-        <v>13400</v>
+        <v>14690</v>
       </c>
       <c r="E2917" s="2" t="s">
         <v>6146</v>
       </c>
       <c r="F2917" s="3">
-        <v>45294</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="2918" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel-files/fg.xlsx
+++ b/excel-files/fg.xlsx
@@ -29096,13 +29096,13 @@
         <v>931</v>
       </c>
       <c r="D506" s="9">
-        <v>92.54</v>
+        <v>101.79</v>
       </c>
       <c r="E506" s="2" t="s">
         <v>1028</v>
       </c>
       <c r="F506" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.2">
@@ -29116,13 +29116,13 @@
         <v>931</v>
       </c>
       <c r="D507" s="9">
-        <v>116.89</v>
+        <v>128.58000000000001</v>
       </c>
       <c r="E507" s="2" t="s">
         <v>1028</v>
       </c>
       <c r="F507" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.2">
@@ -29136,13 +29136,13 @@
         <v>931</v>
       </c>
       <c r="D508" s="9">
-        <v>161.29</v>
+        <v>177.42</v>
       </c>
       <c r="E508" s="2" t="s">
         <v>1028</v>
       </c>
       <c r="F508" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.2">
@@ -29156,13 +29156,13 @@
         <v>931</v>
       </c>
       <c r="D509" s="9">
-        <v>200.18</v>
+        <v>220.2</v>
       </c>
       <c r="E509" s="2" t="s">
         <v>1028</v>
       </c>
       <c r="F509" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.2">
@@ -29176,13 +29176,13 @@
         <v>931</v>
       </c>
       <c r="D510" s="9">
-        <v>250.18</v>
+        <v>275.2</v>
       </c>
       <c r="E510" s="2" t="s">
         <v>1028</v>
       </c>
       <c r="F510" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.2">
@@ -29196,13 +29196,13 @@
         <v>931</v>
       </c>
       <c r="D511" s="9">
-        <v>261.41000000000003</v>
+        <v>287.55</v>
       </c>
       <c r="E511" s="2" t="s">
         <v>1028</v>
       </c>
       <c r="F511" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.2">
@@ -29216,13 +29216,13 @@
         <v>978</v>
       </c>
       <c r="D512" s="9">
-        <v>3705.43</v>
+        <v>4075.97</v>
       </c>
       <c r="E512" s="2" t="s">
         <v>1041</v>
       </c>
       <c r="F512" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.2">
@@ -29236,13 +29236,13 @@
         <v>978</v>
       </c>
       <c r="D513" s="9">
-        <v>4929.87</v>
+        <v>5422.86</v>
       </c>
       <c r="E513" s="2" t="s">
         <v>1041</v>
       </c>
       <c r="F513" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.2">
@@ -29356,13 +29356,13 @@
         <v>978</v>
       </c>
       <c r="D519" s="9">
-        <v>2150.7800000000002</v>
+        <v>2365.86</v>
       </c>
       <c r="E519" s="2" t="s">
         <v>1041</v>
       </c>
       <c r="F519" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.2">
@@ -29376,13 +29376,13 @@
         <v>978</v>
       </c>
       <c r="D520" s="9">
-        <v>3705.43</v>
+        <v>4075.97</v>
       </c>
       <c r="E520" s="2" t="s">
         <v>1041</v>
       </c>
       <c r="F520" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.2">
@@ -29396,13 +29396,13 @@
         <v>8</v>
       </c>
       <c r="D521" s="9">
-        <v>454.76</v>
+        <v>500.24</v>
       </c>
       <c r="E521" s="2" t="s">
         <v>1060</v>
       </c>
       <c r="F521" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.2">
@@ -29496,13 +29496,13 @@
         <v>931</v>
       </c>
       <c r="D526" s="9">
-        <v>149.03</v>
+        <v>163.93</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>1060</v>
       </c>
       <c r="F526" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.2">
@@ -29556,13 +29556,13 @@
         <v>978</v>
       </c>
       <c r="D529" s="9">
-        <v>2867.66</v>
+        <v>3154.43</v>
       </c>
       <c r="E529" s="2" t="s">
         <v>1073</v>
       </c>
       <c r="F529" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.2">
@@ -29576,13 +29576,13 @@
         <v>978</v>
       </c>
       <c r="D530" s="9">
-        <v>1643.31</v>
+        <v>1807.64</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>1073</v>
       </c>
       <c r="F530" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.2">
@@ -29596,13 +29596,13 @@
         <v>978</v>
       </c>
       <c r="D531" s="9">
-        <v>2440.7800000000002</v>
+        <v>2684.86</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>1073</v>
       </c>
       <c r="F531" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.2">
@@ -29616,13 +29616,13 @@
         <v>978</v>
       </c>
       <c r="D532" s="9">
-        <v>4803.45</v>
+        <v>5283.8</v>
       </c>
       <c r="E532" s="2" t="s">
         <v>1073</v>
       </c>
       <c r="F532" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.2">
@@ -29636,13 +29636,13 @@
         <v>978</v>
       </c>
       <c r="D533" s="9">
-        <v>3300.25</v>
+        <v>3630.28</v>
       </c>
       <c r="E533" s="2" t="s">
         <v>1073</v>
       </c>
       <c r="F533" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.2">
@@ -29696,13 +29696,13 @@
         <v>978</v>
       </c>
       <c r="D536" s="9">
-        <v>1674</v>
+        <v>1841.4</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>1093</v>
       </c>
       <c r="F536" s="3">
-        <v>45398</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.2">
@@ -29716,13 +29716,13 @@
         <v>978</v>
       </c>
       <c r="D537" s="9">
-        <v>1674</v>
+        <v>1841.4</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>1093</v>
       </c>
       <c r="F537" s="3">
-        <v>45398</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.2">
@@ -29736,13 +29736,13 @@
         <v>978</v>
       </c>
       <c r="D538" s="9">
-        <v>1603.06</v>
+        <v>1763.37</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>1093</v>
       </c>
       <c r="F538" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.2">
@@ -29756,13 +29756,13 @@
         <v>978</v>
       </c>
       <c r="D539" s="9">
-        <v>2566.38</v>
+        <v>2823.02</v>
       </c>
       <c r="E539" s="2" t="s">
         <v>1093</v>
       </c>
       <c r="F539" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.2">
@@ -29776,13 +29776,13 @@
         <v>978</v>
       </c>
       <c r="D540" s="9">
-        <v>3283.61</v>
+        <v>3611.97</v>
       </c>
       <c r="E540" s="2" t="s">
         <v>1093</v>
       </c>
       <c r="F540" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.2">
@@ -29796,13 +29796,13 @@
         <v>978</v>
       </c>
       <c r="D541" s="9">
-        <v>3873.34</v>
+        <v>4260.67</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>1093</v>
       </c>
       <c r="F541" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.2">
@@ -29816,13 +29816,13 @@
         <v>978</v>
       </c>
       <c r="D542" s="9">
-        <v>2477.42</v>
+        <v>2725.16</v>
       </c>
       <c r="E542" s="2" t="s">
         <v>1093</v>
       </c>
       <c r="F542" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.2">
@@ -29836,13 +29836,13 @@
         <v>978</v>
       </c>
       <c r="D543" s="9">
-        <v>3095.68</v>
+        <v>3405.25</v>
       </c>
       <c r="E543" s="2" t="s">
         <v>1093</v>
       </c>
       <c r="F543" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.2">
@@ -29856,13 +29856,13 @@
         <v>8</v>
       </c>
       <c r="D544" s="9">
-        <v>854.73</v>
+        <v>940.2</v>
       </c>
       <c r="E544" s="2" t="s">
         <v>1110</v>
       </c>
       <c r="F544" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.2">
@@ -29916,13 +29916,13 @@
         <v>8</v>
       </c>
       <c r="D547" s="9">
-        <v>1340.75</v>
+        <v>1474.83</v>
       </c>
       <c r="E547" s="2" t="s">
         <v>1110</v>
       </c>
       <c r="F547" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.2">
@@ -29956,13 +29956,13 @@
         <v>64</v>
       </c>
       <c r="D549" s="9">
-        <v>3719.53</v>
+        <v>4091.48</v>
       </c>
       <c r="E549" s="2" t="s">
         <v>1110</v>
       </c>
       <c r="F549" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.2">
@@ -29976,13 +29976,13 @@
         <v>64</v>
       </c>
       <c r="D550" s="9">
-        <v>4721.68</v>
+        <v>5193.8500000000004</v>
       </c>
       <c r="E550" s="2" t="s">
         <v>1110</v>
       </c>
       <c r="F550" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.2">
@@ -31236,13 +31236,13 @@
         <v>8</v>
       </c>
       <c r="D613" s="9">
-        <v>181.45</v>
+        <v>199.6</v>
       </c>
       <c r="E613" s="2" t="s">
         <v>1251</v>
       </c>
       <c r="F613" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.2">
@@ -31256,13 +31256,13 @@
         <v>8</v>
       </c>
       <c r="D614" s="9">
-        <v>803.23</v>
+        <v>883.55</v>
       </c>
       <c r="E614" s="2" t="s">
         <v>1251</v>
       </c>
       <c r="F614" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.2">
@@ -31276,13 +31276,13 @@
         <v>64</v>
       </c>
       <c r="D615" s="9">
-        <v>844.44</v>
+        <v>928.88</v>
       </c>
       <c r="E615" s="2" t="s">
         <v>1251</v>
       </c>
       <c r="F615" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.2">
@@ -42732,13 +42732,13 @@
         <v>8</v>
       </c>
       <c r="D1188" s="9">
-        <v>1044.31</v>
+        <v>1148.74</v>
       </c>
       <c r="E1188" s="2" t="s">
         <v>2461</v>
       </c>
       <c r="F1188" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1189" spans="1:6" x14ac:dyDescent="0.2">
@@ -42752,13 +42752,13 @@
         <v>8</v>
       </c>
       <c r="D1189" s="9">
-        <v>1026.3</v>
+        <v>1128.93</v>
       </c>
       <c r="E1189" s="2" t="s">
         <v>2461</v>
       </c>
       <c r="F1189" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1190" spans="1:6" x14ac:dyDescent="0.2">
@@ -42772,13 +42772,13 @@
         <v>8</v>
       </c>
       <c r="D1190" s="9">
-        <v>1001.47</v>
+        <v>1101.6199999999999</v>
       </c>
       <c r="E1190" s="2" t="s">
         <v>2461</v>
       </c>
       <c r="F1190" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1191" spans="1:6" x14ac:dyDescent="0.2">
@@ -42792,13 +42792,13 @@
         <v>8</v>
       </c>
       <c r="D1191" s="9">
-        <v>877.32</v>
+        <v>965.05</v>
       </c>
       <c r="E1191" s="2" t="s">
         <v>2461</v>
       </c>
       <c r="F1191" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1192" spans="1:6" x14ac:dyDescent="0.2">
@@ -42832,13 +42832,13 @@
         <v>32</v>
       </c>
       <c r="D1193" s="9">
-        <v>2260.1799999999998</v>
+        <v>2486.1999999999998</v>
       </c>
       <c r="E1193" s="2" t="s">
         <v>2461</v>
       </c>
       <c r="F1193" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1194" spans="1:6" x14ac:dyDescent="0.2">
@@ -42852,13 +42852,13 @@
         <v>32</v>
       </c>
       <c r="D1194" s="9">
-        <v>2591.42</v>
+        <v>2850.56</v>
       </c>
       <c r="E1194" s="2" t="s">
         <v>2461</v>
       </c>
       <c r="F1194" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1195" spans="1:6" x14ac:dyDescent="0.2">
@@ -42912,13 +42912,13 @@
         <v>64</v>
       </c>
       <c r="D1197" s="9">
-        <v>1104.94</v>
+        <v>1215.43</v>
       </c>
       <c r="E1197" s="2" t="s">
         <v>2461</v>
       </c>
       <c r="F1197" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1198" spans="1:6" x14ac:dyDescent="0.2">
@@ -42932,13 +42932,13 @@
         <v>64</v>
       </c>
       <c r="D1198" s="9">
-        <v>885.56</v>
+        <v>974.12</v>
       </c>
       <c r="E1198" s="2" t="s">
         <v>2461</v>
       </c>
       <c r="F1198" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1199" spans="1:6" x14ac:dyDescent="0.2">
@@ -42972,13 +42972,13 @@
         <v>8</v>
       </c>
       <c r="D1200" s="9">
-        <v>764.5</v>
+        <v>840.95</v>
       </c>
       <c r="E1200" s="2" t="s">
         <v>2461</v>
       </c>
       <c r="F1200" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1201" spans="1:6" x14ac:dyDescent="0.2">
@@ -42992,13 +42992,13 @@
         <v>8</v>
       </c>
       <c r="D1201" s="9">
-        <v>819.4</v>
+        <v>901.34</v>
       </c>
       <c r="E1201" s="2" t="s">
         <v>2461</v>
       </c>
       <c r="F1201" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1202" spans="1:6" x14ac:dyDescent="0.2">
@@ -43012,13 +43012,13 @@
         <v>8</v>
       </c>
       <c r="D1202" s="9">
-        <v>1183.49</v>
+        <v>1301.8399999999999</v>
       </c>
       <c r="E1202" s="2" t="s">
         <v>2461</v>
       </c>
       <c r="F1202" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1203" spans="1:6" x14ac:dyDescent="0.2">
@@ -43032,13 +43032,13 @@
         <v>64</v>
       </c>
       <c r="D1203" s="9">
-        <v>3303.4</v>
+        <v>3633.74</v>
       </c>
       <c r="E1203" s="2" t="s">
         <v>2461</v>
       </c>
       <c r="F1203" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1204" spans="1:6" x14ac:dyDescent="0.2">
@@ -43212,13 +43212,13 @@
         <v>8</v>
       </c>
       <c r="D1212" s="9">
-        <v>817.63</v>
+        <v>899.39</v>
       </c>
       <c r="E1212" s="2" t="s">
         <v>2517</v>
       </c>
       <c r="F1212" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1213" spans="1:6" x14ac:dyDescent="0.2">
@@ -43232,13 +43232,13 @@
         <v>8</v>
       </c>
       <c r="D1213" s="9">
-        <v>817.63</v>
+        <v>899.39</v>
       </c>
       <c r="E1213" s="2" t="s">
         <v>2517</v>
       </c>
       <c r="F1213" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1214" spans="1:6" x14ac:dyDescent="0.2">
@@ -43252,13 +43252,13 @@
         <v>8</v>
       </c>
       <c r="D1214" s="9">
-        <v>817.63</v>
+        <v>899.39</v>
       </c>
       <c r="E1214" s="2" t="s">
         <v>2517</v>
       </c>
       <c r="F1214" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1215" spans="1:6" x14ac:dyDescent="0.2">
@@ -43272,13 +43272,13 @@
         <v>8</v>
       </c>
       <c r="D1215" s="9">
-        <v>1444.2</v>
+        <v>1588.62</v>
       </c>
       <c r="E1215" s="2" t="s">
         <v>2517</v>
       </c>
       <c r="F1215" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1216" spans="1:6" x14ac:dyDescent="0.2">
@@ -43292,13 +43292,13 @@
         <v>8</v>
       </c>
       <c r="D1216" s="9">
-        <v>2199.84</v>
+        <v>2419.8200000000002</v>
       </c>
       <c r="E1216" s="2" t="s">
         <v>2517</v>
       </c>
       <c r="F1216" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1217" spans="1:6" x14ac:dyDescent="0.2">
@@ -44392,13 +44392,13 @@
         <v>931</v>
       </c>
       <c r="D1271" s="9">
-        <v>346.22</v>
+        <v>380.84</v>
       </c>
       <c r="E1271" s="2" t="s">
         <v>2636</v>
       </c>
       <c r="F1271" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1272" spans="1:6" x14ac:dyDescent="0.2">
@@ -48392,13 +48392,13 @@
         <v>8</v>
       </c>
       <c r="D1471" s="9">
-        <v>1245.57</v>
+        <v>1370.13</v>
       </c>
       <c r="E1471" s="2" t="s">
         <v>3065</v>
       </c>
       <c r="F1471" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1472" spans="1:6" x14ac:dyDescent="0.2">
@@ -48412,13 +48412,13 @@
         <v>8</v>
       </c>
       <c r="D1472" s="9">
-        <v>1440.11</v>
+        <v>1584.12</v>
       </c>
       <c r="E1472" s="2" t="s">
         <v>3065</v>
       </c>
       <c r="F1472" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1473" spans="1:6" x14ac:dyDescent="0.2">
@@ -48432,13 +48432,13 @@
         <v>8</v>
       </c>
       <c r="D1473" s="9">
-        <v>1642.87</v>
+        <v>1807.16</v>
       </c>
       <c r="E1473" s="2" t="s">
         <v>3065</v>
       </c>
       <c r="F1473" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1474" spans="1:6" x14ac:dyDescent="0.2">
@@ -48452,13 +48452,13 @@
         <v>8</v>
       </c>
       <c r="D1474" s="9">
-        <v>1857.98</v>
+        <v>2043.78</v>
       </c>
       <c r="E1474" s="2" t="s">
         <v>3065</v>
       </c>
       <c r="F1474" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1475" spans="1:6" x14ac:dyDescent="0.2">
@@ -49912,13 +49912,13 @@
         <v>978</v>
       </c>
       <c r="D1547" s="9">
-        <v>3871.3</v>
+        <v>4258.43</v>
       </c>
       <c r="E1547" s="2" t="s">
         <v>3227</v>
       </c>
       <c r="F1547" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1548" spans="1:6" x14ac:dyDescent="0.2">
@@ -50032,13 +50032,13 @@
         <v>1240</v>
       </c>
       <c r="D1553" s="9">
-        <v>523</v>
+        <v>479.6</v>
       </c>
       <c r="E1553" s="2" t="s">
         <v>3242</v>
       </c>
       <c r="F1553" s="3">
-        <v>45386</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="1554" spans="1:6" x14ac:dyDescent="0.2">
@@ -50052,13 +50052,13 @@
         <v>972</v>
       </c>
       <c r="D1554" s="9">
-        <v>523</v>
+        <v>479.6</v>
       </c>
       <c r="E1554" s="2" t="s">
         <v>3242</v>
       </c>
       <c r="F1554" s="3">
-        <v>45386</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="1555" spans="1:6" x14ac:dyDescent="0.2">
@@ -53952,13 +53952,13 @@
         <v>8</v>
       </c>
       <c r="D1749" s="9">
-        <v>3853.8</v>
+        <v>4239.18</v>
       </c>
       <c r="E1749" s="2" t="s">
         <v>3641</v>
       </c>
       <c r="F1749" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1750" spans="1:6" x14ac:dyDescent="0.2">
@@ -57372,13 +57372,13 @@
         <v>8</v>
       </c>
       <c r="D1920" s="9">
-        <v>1620.09</v>
+        <v>1782.1</v>
       </c>
       <c r="E1920" s="2" t="s">
         <v>3998</v>
       </c>
       <c r="F1920" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1921" spans="1:6" x14ac:dyDescent="0.2">
@@ -57512,13 +57512,13 @@
         <v>8</v>
       </c>
       <c r="D1927" s="9">
-        <v>1489.79</v>
+        <v>1638.77</v>
       </c>
       <c r="E1927" s="2" t="s">
         <v>3998</v>
       </c>
       <c r="F1927" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1928" spans="1:6" x14ac:dyDescent="0.2">
@@ -57952,13 +57952,13 @@
         <v>931</v>
       </c>
       <c r="D1949" s="9">
-        <v>416.85</v>
+        <v>458.54</v>
       </c>
       <c r="E1949" s="2" t="s">
         <v>4077</v>
       </c>
       <c r="F1949" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1950" spans="1:6" x14ac:dyDescent="0.2">
@@ -57972,13 +57972,13 @@
         <v>931</v>
       </c>
       <c r="D1950" s="9">
-        <v>586.52</v>
+        <v>645.16999999999996</v>
       </c>
       <c r="E1950" s="2" t="s">
         <v>4077</v>
       </c>
       <c r="F1950" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1951" spans="1:6" x14ac:dyDescent="0.2">
@@ -58772,13 +58772,13 @@
         <v>978</v>
       </c>
       <c r="D1990" s="9">
-        <v>3314.76</v>
+        <v>3646.24</v>
       </c>
       <c r="E1990" s="2" t="s">
         <v>4164</v>
       </c>
       <c r="F1990" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1991" spans="1:6" x14ac:dyDescent="0.2">
@@ -58792,13 +58792,13 @@
         <v>978</v>
       </c>
       <c r="D1991" s="9">
-        <v>2553.5300000000002</v>
+        <v>2808.88</v>
       </c>
       <c r="E1991" s="2" t="s">
         <v>4164</v>
       </c>
       <c r="F1991" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="1992" spans="1:6" x14ac:dyDescent="0.2">
@@ -60972,13 +60972,13 @@
         <v>8</v>
       </c>
       <c r="D2100" s="9">
-        <v>895.51</v>
+        <v>985.06</v>
       </c>
       <c r="E2100" s="2" t="s">
         <v>4389</v>
       </c>
       <c r="F2100" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2101" spans="1:6" x14ac:dyDescent="0.2">
@@ -63252,13 +63252,13 @@
         <v>8</v>
       </c>
       <c r="D2214" s="9">
-        <v>434.54</v>
+        <v>477.99</v>
       </c>
       <c r="E2214" s="2" t="s">
         <v>4643</v>
       </c>
       <c r="F2214" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2215" spans="1:6" x14ac:dyDescent="0.2">
@@ -63672,13 +63672,13 @@
         <v>8</v>
       </c>
       <c r="D2235" s="9">
-        <v>701.95</v>
+        <v>772.15</v>
       </c>
       <c r="E2235" s="2" t="s">
         <v>4690</v>
       </c>
       <c r="F2235" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2236" spans="1:6" x14ac:dyDescent="0.2">
@@ -63692,13 +63692,13 @@
         <v>8</v>
       </c>
       <c r="D2236" s="9">
-        <v>892.25</v>
+        <v>981.48</v>
       </c>
       <c r="E2236" s="2" t="s">
         <v>4690</v>
       </c>
       <c r="F2236" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2237" spans="1:6" x14ac:dyDescent="0.2">
@@ -63752,13 +63752,13 @@
         <v>64</v>
       </c>
       <c r="D2239" s="9">
-        <v>3591.39</v>
+        <v>3950.53</v>
       </c>
       <c r="E2239" s="2" t="s">
         <v>4690</v>
       </c>
       <c r="F2239" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2240" spans="1:6" x14ac:dyDescent="0.2">
@@ -64032,13 +64032,13 @@
         <v>8</v>
       </c>
       <c r="D2253" s="9">
-        <v>610.22</v>
+        <v>671.24</v>
       </c>
       <c r="E2253" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2253" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2254" spans="1:6" x14ac:dyDescent="0.2">
@@ -64052,13 +64052,13 @@
         <v>8</v>
       </c>
       <c r="D2254" s="9">
-        <v>701.95</v>
+        <v>772.15</v>
       </c>
       <c r="E2254" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2254" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2255" spans="1:6" x14ac:dyDescent="0.2">
@@ -64072,13 +64072,13 @@
         <v>8</v>
       </c>
       <c r="D2255" s="9">
-        <v>535.71</v>
+        <v>589.28</v>
       </c>
       <c r="E2255" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2255" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2256" spans="1:6" x14ac:dyDescent="0.2">
@@ -64132,13 +64132,13 @@
         <v>972</v>
       </c>
       <c r="D2258" s="9">
-        <v>40.01</v>
+        <v>44.01</v>
       </c>
       <c r="E2258" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2258" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2259" spans="1:6" x14ac:dyDescent="0.2">
@@ -64152,13 +64152,13 @@
         <v>931</v>
       </c>
       <c r="D2259" s="9">
-        <v>190.49</v>
+        <v>209.54</v>
       </c>
       <c r="E2259" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2259" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2260" spans="1:6" x14ac:dyDescent="0.2">
@@ -64172,13 +64172,13 @@
         <v>931</v>
       </c>
       <c r="D2260" s="9">
-        <v>286.36</v>
+        <v>315</v>
       </c>
       <c r="E2260" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2260" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2261" spans="1:6" x14ac:dyDescent="0.2">
@@ -64212,13 +64212,13 @@
         <v>931</v>
       </c>
       <c r="D2262" s="9">
-        <v>223.62</v>
+        <v>245.98</v>
       </c>
       <c r="E2262" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2262" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2263" spans="1:6" x14ac:dyDescent="0.2">
@@ -64272,13 +64272,13 @@
         <v>840</v>
       </c>
       <c r="D2265" s="9">
-        <v>1498.73</v>
+        <v>1648.6</v>
       </c>
       <c r="E2265" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2265" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2266" spans="1:6" x14ac:dyDescent="0.2">
@@ -64292,13 +64292,13 @@
         <v>32</v>
       </c>
       <c r="D2266" s="9">
-        <v>2377.21</v>
+        <v>2614.9299999999998</v>
       </c>
       <c r="E2266" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2266" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2267" spans="1:6" x14ac:dyDescent="0.2">
@@ -64332,13 +64332,13 @@
         <v>64</v>
       </c>
       <c r="D2268" s="9">
-        <v>4178.1099999999997</v>
+        <v>4595.92</v>
       </c>
       <c r="E2268" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2268" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2269" spans="1:6" x14ac:dyDescent="0.2">
@@ -64412,13 +64412,13 @@
         <v>978</v>
       </c>
       <c r="D2272" s="9">
-        <v>5334.21</v>
+        <v>5867.63</v>
       </c>
       <c r="E2272" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2272" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2273" spans="1:6" x14ac:dyDescent="0.2">
@@ -64432,13 +64432,13 @@
         <v>978</v>
       </c>
       <c r="D2273" s="9">
-        <v>3157.69</v>
+        <v>3473.46</v>
       </c>
       <c r="E2273" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2273" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2274" spans="1:6" x14ac:dyDescent="0.2">
@@ -64452,13 +64452,13 @@
         <v>8</v>
       </c>
       <c r="D2274" s="9">
-        <v>884.06</v>
+        <v>972.47</v>
       </c>
       <c r="E2274" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2274" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2275" spans="1:6" x14ac:dyDescent="0.2">
@@ -64472,13 +64472,13 @@
         <v>2259</v>
       </c>
       <c r="D2275" s="9">
-        <v>757.58</v>
+        <v>833.34</v>
       </c>
       <c r="E2275" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2275" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2276" spans="1:6" x14ac:dyDescent="0.2">
@@ -64492,13 +64492,13 @@
         <v>2259</v>
       </c>
       <c r="D2276" s="9">
-        <v>660</v>
+        <v>726</v>
       </c>
       <c r="E2276" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2276" s="3">
-        <v>45362</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2277" spans="1:6" x14ac:dyDescent="0.2">
@@ -64572,13 +64572,13 @@
         <v>64</v>
       </c>
       <c r="D2280" s="9">
-        <v>2263.2199999999998</v>
+        <v>2489.54</v>
       </c>
       <c r="E2280" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2280" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2281" spans="1:6" x14ac:dyDescent="0.2">
@@ -64712,13 +64712,13 @@
         <v>8</v>
       </c>
       <c r="D2287" s="9">
-        <v>465.98</v>
+        <v>512.58000000000004</v>
       </c>
       <c r="E2287" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2287" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2288" spans="1:6" x14ac:dyDescent="0.2">
@@ -64852,13 +64852,13 @@
         <v>8</v>
       </c>
       <c r="D2294" s="9">
-        <v>219.38</v>
+        <v>241.32</v>
       </c>
       <c r="E2294" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2294" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2295" spans="1:6" x14ac:dyDescent="0.2">
@@ -64872,13 +64872,13 @@
         <v>8</v>
       </c>
       <c r="D2295" s="9">
-        <v>219.38</v>
+        <v>241.32</v>
       </c>
       <c r="E2295" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2295" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2296" spans="1:6" x14ac:dyDescent="0.2">
@@ -64892,13 +64892,13 @@
         <v>8</v>
       </c>
       <c r="D2296" s="9">
-        <v>404.25</v>
+        <v>444.68</v>
       </c>
       <c r="E2296" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2296" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2297" spans="1:6" x14ac:dyDescent="0.2">
@@ -65892,13 +65892,13 @@
         <v>64</v>
       </c>
       <c r="D2346" s="9">
-        <v>798.45</v>
+        <v>878.3</v>
       </c>
       <c r="E2346" s="2" t="s">
         <v>4892</v>
       </c>
       <c r="F2346" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2347" spans="1:6" x14ac:dyDescent="0.2">
@@ -67952,13 +67952,13 @@
         <v>64</v>
       </c>
       <c r="D2449" s="9">
-        <v>6599.93</v>
+        <v>7259.92</v>
       </c>
       <c r="E2449" s="2" t="s">
         <v>5134</v>
       </c>
       <c r="F2449" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2450" spans="1:6" x14ac:dyDescent="0.2">
@@ -67972,13 +67972,13 @@
         <v>64</v>
       </c>
       <c r="D2450" s="9">
-        <v>4307.58</v>
+        <v>4738.34</v>
       </c>
       <c r="E2450" s="2" t="s">
         <v>5134</v>
       </c>
       <c r="F2450" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2451" spans="1:6" x14ac:dyDescent="0.2">
@@ -67992,13 +67992,13 @@
         <v>64</v>
       </c>
       <c r="D2451" s="9">
-        <v>7436.27</v>
+        <v>8179.9</v>
       </c>
       <c r="E2451" s="2" t="s">
         <v>5134</v>
       </c>
       <c r="F2451" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2452" spans="1:6" x14ac:dyDescent="0.2">
@@ -68012,13 +68012,13 @@
         <v>64</v>
       </c>
       <c r="D2452" s="9">
-        <v>4729.41</v>
+        <v>5202.3500000000004</v>
       </c>
       <c r="E2452" s="2" t="s">
         <v>5134</v>
       </c>
       <c r="F2452" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2453" spans="1:6" x14ac:dyDescent="0.2">
@@ -68032,13 +68032,13 @@
         <v>64</v>
       </c>
       <c r="D2453" s="9">
-        <v>3550.42</v>
+        <v>3905.46</v>
       </c>
       <c r="E2453" s="2" t="s">
         <v>5134</v>
       </c>
       <c r="F2453" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2454" spans="1:6" x14ac:dyDescent="0.2">
@@ -68172,13 +68172,13 @@
         <v>64</v>
       </c>
       <c r="D2460" s="9">
-        <v>2903.08</v>
+        <v>3193.39</v>
       </c>
       <c r="E2460" s="2" t="s">
         <v>5156</v>
       </c>
       <c r="F2460" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2461" spans="1:6" x14ac:dyDescent="0.2">
@@ -68252,13 +68252,13 @@
         <v>931</v>
       </c>
       <c r="D2464" s="9">
-        <v>1090.82</v>
+        <v>1199.9000000000001</v>
       </c>
       <c r="E2464" s="2" t="s">
         <v>5168</v>
       </c>
       <c r="F2464" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2465" spans="1:6" x14ac:dyDescent="0.2">
@@ -68272,13 +68272,13 @@
         <v>931</v>
       </c>
       <c r="D2465" s="9">
-        <v>1090.82</v>
+        <v>1199.9000000000001</v>
       </c>
       <c r="E2465" s="2" t="s">
         <v>5168</v>
       </c>
       <c r="F2465" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2466" spans="1:6" x14ac:dyDescent="0.2">
@@ -68292,13 +68292,13 @@
         <v>931</v>
       </c>
       <c r="D2466" s="9">
-        <v>1090.82</v>
+        <v>1199.9000000000001</v>
       </c>
       <c r="E2466" s="2" t="s">
         <v>5168</v>
       </c>
       <c r="F2466" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2467" spans="1:6" x14ac:dyDescent="0.2">
@@ -70112,13 +70112,13 @@
         <v>931</v>
       </c>
       <c r="D2557" s="9">
-        <v>163.51</v>
+        <v>179.86</v>
       </c>
       <c r="E2557" s="2" t="s">
         <v>5336</v>
       </c>
       <c r="F2557" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2558" spans="1:6" x14ac:dyDescent="0.2">
@@ -70132,13 +70132,13 @@
         <v>8</v>
       </c>
       <c r="D2558" s="9">
-        <v>537.99</v>
+        <v>591.79</v>
       </c>
       <c r="E2558" s="2" t="s">
         <v>5336</v>
       </c>
       <c r="F2558" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2559" spans="1:6" x14ac:dyDescent="0.2">
@@ -70992,13 +70992,13 @@
         <v>8</v>
       </c>
       <c r="D2601" s="9">
-        <v>2174.2800000000002</v>
+        <v>2391.71</v>
       </c>
       <c r="E2601" s="2" t="s">
         <v>5449</v>
       </c>
       <c r="F2601" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2602" spans="1:6" x14ac:dyDescent="0.2">
@@ -72772,13 +72772,13 @@
         <v>8</v>
       </c>
       <c r="D2690" s="9">
-        <v>213.89</v>
+        <v>235.28</v>
       </c>
       <c r="E2690" s="2" t="s">
         <v>5655</v>
       </c>
       <c r="F2690" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2691" spans="1:6" x14ac:dyDescent="0.2">
@@ -72792,13 +72792,13 @@
         <v>8</v>
       </c>
       <c r="D2691" s="9">
-        <v>216.98</v>
+        <v>238.68</v>
       </c>
       <c r="E2691" s="2" t="s">
         <v>5655</v>
       </c>
       <c r="F2691" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2692" spans="1:6" x14ac:dyDescent="0.2">
@@ -72832,13 +72832,13 @@
         <v>8</v>
       </c>
       <c r="D2693" s="9">
-        <v>705.22</v>
+        <v>775.74</v>
       </c>
       <c r="E2693" s="2" t="s">
         <v>5655</v>
       </c>
       <c r="F2693" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2694" spans="1:6" x14ac:dyDescent="0.2">
@@ -76990,13 +76990,13 @@
         <v>8</v>
       </c>
       <c r="D2901" s="9">
-        <v>1751.77</v>
+        <v>1926.95</v>
       </c>
       <c r="E2901" s="2" t="s">
         <v>6112</v>
       </c>
       <c r="F2901" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2902" spans="1:6" x14ac:dyDescent="0.2">
@@ -77010,13 +77010,13 @@
         <v>8</v>
       </c>
       <c r="D2902" s="9">
-        <v>2731.3</v>
+        <v>3004.43</v>
       </c>
       <c r="E2902" s="2" t="s">
         <v>6112</v>
       </c>
       <c r="F2902" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2903" spans="1:6" x14ac:dyDescent="0.2">
@@ -77030,13 +77030,13 @@
         <v>64</v>
       </c>
       <c r="D2903" s="9">
-        <v>3555.6</v>
+        <v>3911.16</v>
       </c>
       <c r="E2903" s="2" t="s">
         <v>6112</v>
       </c>
       <c r="F2903" s="3">
-        <v>45352</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="2904" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel-files/fg.xlsx
+++ b/excel-files/fg.xlsx
@@ -23860,13 +23860,13 @@
         <v>499</v>
       </c>
       <c r="D244" s="9">
-        <v>976.64</v>
+        <v>1074.3</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F244" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
@@ -23880,13 +23880,13 @@
         <v>502</v>
       </c>
       <c r="D245" s="9">
-        <v>5876.32</v>
+        <v>6463.95</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F245" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
@@ -23900,13 +23900,13 @@
         <v>502</v>
       </c>
       <c r="D246" s="9">
-        <v>5876.32</v>
+        <v>6463.95</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F246" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -23920,13 +23920,13 @@
         <v>64</v>
       </c>
       <c r="D247" s="9">
-        <v>3091.29</v>
+        <v>3400.42</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F247" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
@@ -23940,13 +23940,13 @@
         <v>64</v>
       </c>
       <c r="D248" s="9">
-        <v>2156.87</v>
+        <v>2372.56</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F248" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -23960,13 +23960,13 @@
         <v>64</v>
       </c>
       <c r="D249" s="9">
-        <v>2156.87</v>
+        <v>2372.56</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F249" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
@@ -23980,13 +23980,13 @@
         <v>64</v>
       </c>
       <c r="D250" s="9">
-        <v>2488.44</v>
+        <v>2737.28</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F250" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -24000,13 +24000,13 @@
         <v>64</v>
       </c>
       <c r="D251" s="9">
-        <v>2798.26</v>
+        <v>3078.09</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F251" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -24020,13 +24020,13 @@
         <v>64</v>
       </c>
       <c r="D252" s="9">
-        <v>909.91</v>
+        <v>1000.9</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F252" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -24040,13 +24040,13 @@
         <v>64</v>
       </c>
       <c r="D253" s="9">
-        <v>13043.62</v>
+        <v>14347.98</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F253" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -24060,13 +24060,13 @@
         <v>64</v>
       </c>
       <c r="D254" s="9">
-        <v>2424.9899999999998</v>
+        <v>2667.49</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F254" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
@@ -24080,13 +24080,13 @@
         <v>64</v>
       </c>
       <c r="D255" s="9">
-        <v>3048.12</v>
+        <v>3352.93</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F255" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -24100,13 +24100,13 @@
         <v>64</v>
       </c>
       <c r="D256" s="9">
-        <v>2004.83</v>
+        <v>2205.31</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F256" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -24120,13 +24120,13 @@
         <v>527</v>
       </c>
       <c r="D257" s="9">
-        <v>3553.67</v>
+        <v>3909.04</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F257" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
@@ -24140,13 +24140,13 @@
         <v>527</v>
       </c>
       <c r="D258" s="9">
-        <v>4076.54</v>
+        <v>4484.1899999999996</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F258" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -24160,13 +24160,13 @@
         <v>527</v>
       </c>
       <c r="D259" s="9">
-        <v>3295.77</v>
+        <v>3625.35</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F259" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
@@ -24180,13 +24180,13 @@
         <v>527</v>
       </c>
       <c r="D260" s="9">
-        <v>4219.22</v>
+        <v>4641.1400000000003</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F260" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
@@ -24200,13 +24200,13 @@
         <v>499</v>
       </c>
       <c r="D261" s="9">
-        <v>883.51</v>
+        <v>971.86</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F261" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
@@ -24220,13 +24220,13 @@
         <v>64</v>
       </c>
       <c r="D262" s="9">
-        <v>8252.4</v>
+        <v>9077.64</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F262" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
@@ -24238,13 +24238,13 @@
       </c>
       <c r="C263" s="2"/>
       <c r="D263" s="9">
-        <v>804.36</v>
+        <v>884.8</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F263" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
@@ -24258,13 +24258,13 @@
         <v>527</v>
       </c>
       <c r="D264" s="9">
-        <v>839.18</v>
+        <v>923.1</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F264" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
@@ -24278,13 +24278,13 @@
         <v>64</v>
       </c>
       <c r="D265" s="9">
-        <v>812.49</v>
+        <v>893.74</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F265" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
@@ -24298,13 +24298,13 @@
         <v>64</v>
       </c>
       <c r="D266" s="9">
-        <v>2752.03</v>
+        <v>3027.23</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F266" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
@@ -24316,13 +24316,13 @@
       </c>
       <c r="C267" s="2"/>
       <c r="D267" s="9">
-        <v>4613.58</v>
+        <v>5074.9399999999996</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F267" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
@@ -24336,13 +24336,13 @@
         <v>8</v>
       </c>
       <c r="D268" s="9">
-        <v>489.43</v>
+        <v>538.37</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F268" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
@@ -24356,13 +24356,13 @@
         <v>64</v>
       </c>
       <c r="D269" s="9">
-        <v>3457.15</v>
+        <v>3802.87</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F269" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
@@ -24376,13 +24376,13 @@
         <v>64</v>
       </c>
       <c r="D270" s="9">
-        <v>988.7</v>
+        <v>1087.57</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F270" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
@@ -24396,13 +24396,13 @@
         <v>64</v>
       </c>
       <c r="D271" s="9">
-        <v>988.7</v>
+        <v>1087.57</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F271" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
@@ -24416,13 +24416,13 @@
         <v>64</v>
       </c>
       <c r="D272" s="9">
-        <v>1957.23</v>
+        <v>2152.9499999999998</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F272" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
@@ -24436,13 +24436,13 @@
         <v>64</v>
       </c>
       <c r="D273" s="9">
-        <v>2516.2600000000002</v>
+        <v>2767.89</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F273" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
@@ -24456,13 +24456,13 @@
         <v>527</v>
       </c>
       <c r="D274" s="9">
-        <v>2968.71</v>
+        <v>3265.58</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F274" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
@@ -24476,13 +24476,13 @@
         <v>527</v>
       </c>
       <c r="D275" s="9">
-        <v>2968.71</v>
+        <v>3265.58</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F275" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
@@ -24496,13 +24496,13 @@
         <v>64</v>
       </c>
       <c r="D276" s="9">
-        <v>1812.52</v>
+        <v>1993.77</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F276" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
@@ -24516,13 +24516,13 @@
         <v>568</v>
       </c>
       <c r="D277" s="9">
-        <v>1363.7</v>
+        <v>1500.07</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F277" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
@@ -24536,13 +24536,13 @@
         <v>64</v>
       </c>
       <c r="D278" s="9">
-        <v>1975.64</v>
+        <v>2173.1999999999998</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F278" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
@@ -24556,13 +24556,13 @@
         <v>8</v>
       </c>
       <c r="D279" s="9">
-        <v>505.39</v>
+        <v>555.92999999999995</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F279" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
@@ -24576,13 +24576,13 @@
         <v>8</v>
       </c>
       <c r="D280" s="9">
-        <v>616.25</v>
+        <v>677.88</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F280" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
@@ -24596,13 +24596,13 @@
         <v>8</v>
       </c>
       <c r="D281" s="9">
-        <v>648.9</v>
+        <v>713.79</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F281" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
@@ -24616,13 +24616,13 @@
         <v>64</v>
       </c>
       <c r="D282" s="9">
-        <v>1159.46</v>
+        <v>1275.4100000000001</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F282" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
@@ -24636,13 +24636,13 @@
         <v>64</v>
       </c>
       <c r="D283" s="9">
-        <v>1525.43</v>
+        <v>1677.97</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F283" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
@@ -24656,13 +24656,13 @@
         <v>64</v>
       </c>
       <c r="D284" s="9">
-        <v>2035.33</v>
+        <v>2238.86</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F284" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
@@ -24676,13 +24676,13 @@
         <v>64</v>
       </c>
       <c r="D285" s="9">
-        <v>1910.32</v>
+        <v>2101.35</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F285" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
@@ -24696,13 +24696,13 @@
         <v>64</v>
       </c>
       <c r="D286" s="9">
-        <v>2409.04</v>
+        <v>2649.94</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F286" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
@@ -24716,13 +24716,13 @@
         <v>64</v>
       </c>
       <c r="D287" s="9">
-        <v>2918.1</v>
+        <v>3209.91</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>496</v>
       </c>
       <c r="F287" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
@@ -30896,13 +30896,13 @@
         <v>8</v>
       </c>
       <c r="D596" s="9">
-        <v>74.14</v>
+        <v>81.55</v>
       </c>
       <c r="E596" s="2" t="s">
         <v>1209</v>
       </c>
       <c r="F596" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.2">
@@ -30916,13 +30916,13 @@
         <v>8</v>
       </c>
       <c r="D597" s="9">
-        <v>88.06</v>
+        <v>96.87</v>
       </c>
       <c r="E597" s="2" t="s">
         <v>1209</v>
       </c>
       <c r="F597" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.2">
@@ -30936,13 +30936,13 @@
         <v>8</v>
       </c>
       <c r="D598" s="9">
-        <v>95.36</v>
+        <v>104.9</v>
       </c>
       <c r="E598" s="2" t="s">
         <v>1209</v>
       </c>
       <c r="F598" s="3">
-        <v>45331</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.2">
@@ -64652,13 +64652,13 @@
         <v>8</v>
       </c>
       <c r="D2284" s="9">
-        <v>407.3</v>
+        <v>840</v>
       </c>
       <c r="E2284" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2284" s="3">
-        <v>45273</v>
+        <v>45411</v>
       </c>
     </row>
     <row r="2285" spans="1:6" x14ac:dyDescent="0.2">
@@ -65472,13 +65472,13 @@
         <v>8</v>
       </c>
       <c r="D2325" s="9">
-        <v>1038.23</v>
+        <v>1655.4</v>
       </c>
       <c r="E2325" s="2" t="s">
         <v>4721</v>
       </c>
       <c r="F2325" s="3">
-        <v>45273</v>
+        <v>45412</v>
       </c>
     </row>
     <row r="2326" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel-files/fg.xlsx
+++ b/excel-files/fg.xlsx
@@ -18807,7 +18807,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -18842,7 +18842,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -41212,13 +41212,13 @@
         <v>978</v>
       </c>
       <c r="D1112" s="9">
-        <v>4207.7</v>
+        <v>4370</v>
       </c>
       <c r="E1112" s="2" t="s">
         <v>2297</v>
       </c>
       <c r="F1112" s="3">
-        <v>45386</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="1113" spans="1:6" x14ac:dyDescent="0.2">
@@ -41272,13 +41272,13 @@
         <v>978</v>
       </c>
       <c r="D1115" s="9">
-        <v>5769.11</v>
+        <v>7112</v>
       </c>
       <c r="E1115" s="2" t="s">
         <v>2297</v>
       </c>
       <c r="F1115" s="3">
-        <v>45386</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="1116" spans="1:6" x14ac:dyDescent="0.2">
@@ -41292,13 +41292,13 @@
         <v>978</v>
       </c>
       <c r="D1116" s="9">
-        <v>6925.28</v>
+        <v>7896</v>
       </c>
       <c r="E1116" s="2" t="s">
         <v>2297</v>
       </c>
       <c r="F1116" s="3">
-        <v>45386</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="1117" spans="1:6" x14ac:dyDescent="0.2">
@@ -60592,13 +60592,13 @@
         <v>64</v>
       </c>
       <c r="D2081" s="9">
-        <v>13803.88</v>
+        <v>14770.16</v>
       </c>
       <c r="E2081" s="2" t="s">
         <v>4358</v>
       </c>
       <c r="F2081" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2082" spans="1:6" x14ac:dyDescent="0.2">
@@ -60612,13 +60612,13 @@
         <v>64</v>
       </c>
       <c r="D2082" s="9">
-        <v>14134.14</v>
+        <v>15123.54</v>
       </c>
       <c r="E2082" s="2" t="s">
         <v>4358</v>
       </c>
       <c r="F2082" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2083" spans="1:6" x14ac:dyDescent="0.2">
@@ -60632,13 +60632,13 @@
         <v>64</v>
       </c>
       <c r="D2083" s="9">
-        <v>14313.22</v>
+        <v>15315.12</v>
       </c>
       <c r="E2083" s="2" t="s">
         <v>4358</v>
       </c>
       <c r="F2083" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2084" spans="1:6" x14ac:dyDescent="0.2">
@@ -60652,13 +60652,13 @@
         <v>64</v>
       </c>
       <c r="D2084" s="9">
-        <v>9097.1200000000008</v>
+        <v>9733.92</v>
       </c>
       <c r="E2084" s="2" t="s">
         <v>4365</v>
       </c>
       <c r="F2084" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2085" spans="1:6" x14ac:dyDescent="0.2">
@@ -60672,13 +60672,13 @@
         <v>64</v>
       </c>
       <c r="D2085" s="9">
-        <v>4403.92</v>
+        <v>4712.2</v>
       </c>
       <c r="E2085" s="2" t="s">
         <v>4365</v>
       </c>
       <c r="F2085" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2086" spans="1:6" x14ac:dyDescent="0.2">
@@ -60692,13 +60692,13 @@
         <v>64</v>
       </c>
       <c r="D2086" s="9">
-        <v>10844.88</v>
+        <v>11604.04</v>
       </c>
       <c r="E2086" s="2" t="s">
         <v>4365</v>
       </c>
       <c r="F2086" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2087" spans="1:6" x14ac:dyDescent="0.2">
@@ -60712,13 +60712,13 @@
         <v>64</v>
       </c>
       <c r="D2087" s="9">
-        <v>4830.54</v>
+        <v>5168.68</v>
       </c>
       <c r="E2087" s="2" t="s">
         <v>4365</v>
       </c>
       <c r="F2087" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2088" spans="1:6" x14ac:dyDescent="0.2">
@@ -60732,13 +60732,13 @@
         <v>64</v>
       </c>
       <c r="D2088" s="9">
-        <v>15964.62</v>
+        <v>17082.16</v>
       </c>
       <c r="E2088" s="2" t="s">
         <v>4365</v>
       </c>
       <c r="F2088" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2089" spans="1:6" x14ac:dyDescent="0.2">
@@ -60752,13 +60752,13 @@
         <v>64</v>
       </c>
       <c r="D2089" s="9">
-        <v>16900.46</v>
+        <v>18083.5</v>
       </c>
       <c r="E2089" s="2" t="s">
         <v>4365</v>
       </c>
       <c r="F2089" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2090" spans="1:6" x14ac:dyDescent="0.2">
@@ -60772,13 +60772,13 @@
         <v>64</v>
       </c>
       <c r="D2090" s="9">
-        <v>6096.82</v>
+        <v>6523.6</v>
       </c>
       <c r="E2090" s="2" t="s">
         <v>4365</v>
       </c>
       <c r="F2090" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2091" spans="1:6" x14ac:dyDescent="0.2">
@@ -60792,13 +60792,13 @@
         <v>64</v>
       </c>
       <c r="D2091" s="9">
-        <v>18772.34</v>
+        <v>20086.38</v>
       </c>
       <c r="E2091" s="2" t="s">
         <v>4365</v>
       </c>
       <c r="F2091" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2092" spans="1:6" x14ac:dyDescent="0.2">
@@ -60812,13 +60812,13 @@
         <v>64</v>
       </c>
       <c r="D2092" s="9">
-        <v>6372.16</v>
+        <v>6818.22</v>
       </c>
       <c r="E2092" s="2" t="s">
         <v>4365</v>
       </c>
       <c r="F2092" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2093" spans="1:6" x14ac:dyDescent="0.2">
@@ -60832,13 +60832,13 @@
         <v>64</v>
       </c>
       <c r="D2093" s="9">
-        <v>5670.1</v>
+        <v>6067</v>
       </c>
       <c r="E2093" s="2" t="s">
         <v>4365</v>
       </c>
       <c r="F2093" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2094" spans="1:6" x14ac:dyDescent="0.2">
@@ -69432,13 +69432,13 @@
         <v>64</v>
       </c>
       <c r="D2523" s="9">
-        <v>3937.36</v>
+        <v>4212.9799999999996</v>
       </c>
       <c r="E2523" s="2" t="s">
         <v>5293</v>
       </c>
       <c r="F2523" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2524" spans="1:6" x14ac:dyDescent="0.2">
@@ -69452,13 +69452,13 @@
         <v>64</v>
       </c>
       <c r="D2524" s="9">
-        <v>5353.32</v>
+        <v>5728.04</v>
       </c>
       <c r="E2524" s="2" t="s">
         <v>5293</v>
       </c>
       <c r="F2524" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2525" spans="1:6" x14ac:dyDescent="0.2">
@@ -69472,13 +69472,13 @@
         <v>64</v>
       </c>
       <c r="D2525" s="9">
-        <v>6993</v>
+        <v>7482.52</v>
       </c>
       <c r="E2525" s="2" t="s">
         <v>5293</v>
       </c>
       <c r="F2525" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2526" spans="1:6" x14ac:dyDescent="0.2">
@@ -69492,13 +69492,13 @@
         <v>64</v>
       </c>
       <c r="D2526" s="9">
-        <v>8147.94</v>
+        <v>8718.2999999999993</v>
       </c>
       <c r="E2526" s="2" t="s">
         <v>5293</v>
       </c>
       <c r="F2526" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2527" spans="1:6" x14ac:dyDescent="0.2">
@@ -69512,13 +69512,13 @@
         <v>64</v>
       </c>
       <c r="D2527" s="9">
-        <v>10942.72</v>
+        <v>11708.7</v>
       </c>
       <c r="E2527" s="2" t="s">
         <v>5293</v>
       </c>
       <c r="F2527" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2528" spans="1:6" x14ac:dyDescent="0.2">
@@ -69532,13 +69532,13 @@
         <v>64</v>
       </c>
       <c r="D2528" s="9">
-        <v>13973.44</v>
+        <v>14951.58</v>
       </c>
       <c r="E2528" s="2" t="s">
         <v>5293</v>
       </c>
       <c r="F2528" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2529" spans="1:6" x14ac:dyDescent="0.2">
@@ -69552,13 +69552,13 @@
         <v>64</v>
       </c>
       <c r="D2529" s="9">
-        <v>21897.84</v>
+        <v>23430.68</v>
       </c>
       <c r="E2529" s="2" t="s">
         <v>5293</v>
       </c>
       <c r="F2529" s="3">
-        <v>45295</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2530" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel-files/fg.xlsx
+++ b/excel-files/fg.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3660"/>
   </bookViews>
   <sheets>
     <sheet name="lista_de_precios" sheetId="1" r:id="rId1"/>
@@ -19006,7 +19006,7 @@
   <dimension ref="A2:F2930"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31192,13 +31192,13 @@
         <v>62</v>
       </c>
       <c r="D612" s="9">
-        <v>2627.42</v>
+        <v>3021.53</v>
       </c>
       <c r="E612" s="2" t="s">
         <v>1252</v>
       </c>
       <c r="F612" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.2">
@@ -31212,13 +31212,13 @@
         <v>62</v>
       </c>
       <c r="D613" s="9">
-        <v>3180.31</v>
+        <v>3657.36</v>
       </c>
       <c r="E613" s="2" t="s">
         <v>1252</v>
       </c>
       <c r="F613" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.2">
@@ -31232,13 +31232,13 @@
         <v>62</v>
       </c>
       <c r="D614" s="9">
-        <v>3928.62</v>
+        <v>4517.91</v>
       </c>
       <c r="E614" s="2" t="s">
         <v>1252</v>
       </c>
       <c r="F614" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.2">
@@ -31252,13 +31252,13 @@
         <v>62</v>
       </c>
       <c r="D615" s="9">
-        <v>4482.37</v>
+        <v>5154.7299999999996</v>
       </c>
       <c r="E615" s="2" t="s">
         <v>1252</v>
       </c>
       <c r="F615" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.2">
@@ -31592,13 +31592,13 @@
         <v>832</v>
       </c>
       <c r="D632" s="9">
-        <v>1310.76</v>
+        <v>1507.37</v>
       </c>
       <c r="E632" s="2" t="s">
         <v>1292</v>
       </c>
       <c r="F632" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.2">
@@ -31612,13 +31612,13 @@
         <v>832</v>
       </c>
       <c r="D633" s="9">
-        <v>4643.21</v>
+        <v>5339.69</v>
       </c>
       <c r="E633" s="2" t="s">
         <v>1292</v>
       </c>
       <c r="F633" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.2">
@@ -31632,13 +31632,13 @@
         <v>832</v>
       </c>
       <c r="D634" s="9">
-        <v>1407.32</v>
+        <v>1618.42</v>
       </c>
       <c r="E634" s="2" t="s">
         <v>1292</v>
       </c>
       <c r="F634" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.2">
@@ -31652,13 +31652,13 @@
         <v>832</v>
       </c>
       <c r="D635" s="9">
-        <v>4691.04</v>
+        <v>5394.7</v>
       </c>
       <c r="E635" s="2" t="s">
         <v>1292</v>
       </c>
       <c r="F635" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.2">
@@ -33788,13 +33788,13 @@
         <v>62</v>
       </c>
       <c r="D742" s="9">
-        <v>964.87</v>
+        <v>1109.5999999999999</v>
       </c>
       <c r="E742" s="2" t="s">
         <v>1529</v>
       </c>
       <c r="F742" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.2">
@@ -33808,13 +33808,13 @@
         <v>8</v>
       </c>
       <c r="D743" s="9">
-        <v>945.8</v>
+        <v>1087.67</v>
       </c>
       <c r="E743" s="2" t="s">
         <v>1529</v>
       </c>
       <c r="F743" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.2">
@@ -33828,13 +33828,13 @@
         <v>8</v>
       </c>
       <c r="D744" s="9">
-        <v>1038.6199999999999</v>
+        <v>1194.4100000000001</v>
       </c>
       <c r="E744" s="2" t="s">
         <v>1529</v>
       </c>
       <c r="F744" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.2">
@@ -33848,13 +33848,13 @@
         <v>62</v>
       </c>
       <c r="D745" s="9">
-        <v>795.98</v>
+        <v>915.38</v>
       </c>
       <c r="E745" s="2" t="s">
         <v>1529</v>
       </c>
       <c r="F745" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.2">
@@ -33868,13 +33868,13 @@
         <v>62</v>
       </c>
       <c r="D746" s="9">
-        <v>746.93</v>
+        <v>858.97</v>
       </c>
       <c r="E746" s="2" t="s">
         <v>1529</v>
       </c>
       <c r="F746" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.2">
@@ -33888,13 +33888,13 @@
         <v>62</v>
       </c>
       <c r="D747" s="9">
-        <v>693.36</v>
+        <v>797.36</v>
       </c>
       <c r="E747" s="2" t="s">
         <v>1529</v>
       </c>
       <c r="F747" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.2">
@@ -33908,13 +33908,13 @@
         <v>62</v>
       </c>
       <c r="D748" s="9">
-        <v>2565.17</v>
+        <v>2949.95</v>
       </c>
       <c r="E748" s="2" t="s">
         <v>1529</v>
       </c>
       <c r="F748" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.2">
@@ -33928,13 +33928,13 @@
         <v>8</v>
       </c>
       <c r="D749" s="9">
-        <v>757.09</v>
+        <v>870.65</v>
       </c>
       <c r="E749" s="2" t="s">
         <v>1529</v>
       </c>
       <c r="F749" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.2">
@@ -33948,13 +33948,13 @@
         <v>8</v>
       </c>
       <c r="D750" s="9">
-        <v>715.93</v>
+        <v>823.32</v>
       </c>
       <c r="E750" s="2" t="s">
         <v>1529</v>
       </c>
       <c r="F750" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.2">
@@ -33968,13 +33968,13 @@
         <v>8</v>
       </c>
       <c r="D751" s="9">
-        <v>519.26</v>
+        <v>597.15</v>
       </c>
       <c r="E751" s="2" t="s">
         <v>1529</v>
       </c>
       <c r="F751" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.2">
@@ -39108,13 +39108,13 @@
         <v>2041</v>
       </c>
       <c r="D1008" s="9">
-        <v>2268.1999999999998</v>
+        <v>2495.02</v>
       </c>
       <c r="E1008" s="2" t="s">
         <v>2062</v>
       </c>
       <c r="F1008" s="3">
-        <v>45427</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1009" spans="1:6" x14ac:dyDescent="0.2">
@@ -39128,13 +39128,13 @@
         <v>2041</v>
       </c>
       <c r="D1009" s="9">
-        <v>5675.53</v>
+        <v>6243.09</v>
       </c>
       <c r="E1009" s="2" t="s">
         <v>2062</v>
       </c>
       <c r="F1009" s="3">
-        <v>45427</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.2">
@@ -39148,13 +39148,13 @@
         <v>2041</v>
       </c>
       <c r="D1010" s="9">
-        <v>954.8</v>
+        <v>1050.28</v>
       </c>
       <c r="E1010" s="2" t="s">
         <v>2062</v>
       </c>
       <c r="F1010" s="3">
-        <v>45427</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.2">
@@ -39868,13 +39868,13 @@
         <v>62</v>
       </c>
       <c r="D1046" s="9">
-        <v>12526.78</v>
+        <v>14405.8</v>
       </c>
       <c r="E1046" s="2" t="s">
         <v>2150</v>
       </c>
       <c r="F1046" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1047" spans="1:6" x14ac:dyDescent="0.2">
@@ -39908,13 +39908,13 @@
         <v>62</v>
       </c>
       <c r="D1048" s="9">
-        <v>23429.24</v>
+        <v>26943.63</v>
       </c>
       <c r="E1048" s="2" t="s">
         <v>2150</v>
       </c>
       <c r="F1048" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1049" spans="1:6" x14ac:dyDescent="0.2">
@@ -39928,13 +39928,13 @@
         <v>62</v>
       </c>
       <c r="D1049" s="9">
-        <v>17696.23</v>
+        <v>20350.66</v>
       </c>
       <c r="E1049" s="2" t="s">
         <v>2150</v>
       </c>
       <c r="F1049" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1050" spans="1:6" x14ac:dyDescent="0.2">
@@ -39948,13 +39948,13 @@
         <v>62</v>
       </c>
       <c r="D1050" s="9">
-        <v>10374.56</v>
+        <v>11930.74</v>
       </c>
       <c r="E1050" s="2" t="s">
         <v>2150</v>
       </c>
       <c r="F1050" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1051" spans="1:6" x14ac:dyDescent="0.2">
@@ -39968,13 +39968,13 @@
         <v>62</v>
       </c>
       <c r="D1051" s="9">
-        <v>15165.25</v>
+        <v>17440.04</v>
       </c>
       <c r="E1051" s="2" t="s">
         <v>2150</v>
       </c>
       <c r="F1051" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1052" spans="1:6" x14ac:dyDescent="0.2">
@@ -41248,13 +41248,13 @@
         <v>2106</v>
       </c>
       <c r="D1115" s="9">
-        <v>7090.56</v>
+        <v>8154.14</v>
       </c>
       <c r="E1115" s="2" t="s">
         <v>2304</v>
       </c>
       <c r="F1115" s="3">
-        <v>45377</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1116" spans="1:6" x14ac:dyDescent="0.2">
@@ -41408,13 +41408,13 @@
         <v>62</v>
       </c>
       <c r="D1123" s="9">
-        <v>2020.08</v>
+        <v>2323.09</v>
       </c>
       <c r="E1123" s="2" t="s">
         <v>2323</v>
       </c>
       <c r="F1123" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1124" spans="1:6" x14ac:dyDescent="0.2">
@@ -41428,13 +41428,13 @@
         <v>62</v>
       </c>
       <c r="D1124" s="9">
-        <v>1998.14</v>
+        <v>2297.86</v>
       </c>
       <c r="E1124" s="2" t="s">
         <v>2323</v>
       </c>
       <c r="F1124" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1125" spans="1:6" x14ac:dyDescent="0.2">
@@ -41448,13 +41448,13 @@
         <v>62</v>
       </c>
       <c r="D1125" s="9">
-        <v>1876.8</v>
+        <v>2158.3200000000002</v>
       </c>
       <c r="E1125" s="2" t="s">
         <v>2328</v>
       </c>
       <c r="F1125" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1126" spans="1:6" x14ac:dyDescent="0.2">
@@ -41468,13 +41468,13 @@
         <v>62</v>
       </c>
       <c r="D1126" s="9">
-        <v>2194.42</v>
+        <v>2523.58</v>
       </c>
       <c r="E1126" s="2" t="s">
         <v>2328</v>
       </c>
       <c r="F1126" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1127" spans="1:6" x14ac:dyDescent="0.2">
@@ -41488,13 +41488,13 @@
         <v>62</v>
       </c>
       <c r="D1127" s="9">
-        <v>2421.06</v>
+        <v>2784.22</v>
       </c>
       <c r="E1127" s="2" t="s">
         <v>2328</v>
       </c>
       <c r="F1127" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1128" spans="1:6" x14ac:dyDescent="0.2">
@@ -41508,13 +41508,13 @@
         <v>62</v>
       </c>
       <c r="D1128" s="9">
-        <v>2421.06</v>
+        <v>2784.22</v>
       </c>
       <c r="E1128" s="2" t="s">
         <v>2328</v>
       </c>
       <c r="F1128" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1129" spans="1:6" x14ac:dyDescent="0.2">
@@ -41608,13 +41608,13 @@
         <v>62</v>
       </c>
       <c r="D1133" s="9">
-        <v>1911.17</v>
+        <v>2197.85</v>
       </c>
       <c r="E1133" s="2" t="s">
         <v>2345</v>
       </c>
       <c r="F1133" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1134" spans="1:6" x14ac:dyDescent="0.2">
@@ -41628,13 +41628,13 @@
         <v>62</v>
       </c>
       <c r="D1134" s="9">
-        <v>2562.3200000000002</v>
+        <v>2946.67</v>
       </c>
       <c r="E1134" s="2" t="s">
         <v>2345</v>
       </c>
       <c r="F1134" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1135" spans="1:6" x14ac:dyDescent="0.2">
@@ -41648,13 +41648,13 @@
         <v>62</v>
       </c>
       <c r="D1135" s="9">
-        <v>1822.87</v>
+        <v>2096.3000000000002</v>
       </c>
       <c r="E1135" s="2" t="s">
         <v>2345</v>
       </c>
       <c r="F1135" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1136" spans="1:6" x14ac:dyDescent="0.2">
@@ -41668,13 +41668,13 @@
         <v>62</v>
       </c>
       <c r="D1136" s="9">
-        <v>3420.79</v>
+        <v>3933.91</v>
       </c>
       <c r="E1136" s="2" t="s">
         <v>2345</v>
       </c>
       <c r="F1136" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1137" spans="1:6" x14ac:dyDescent="0.2">
@@ -41688,13 +41688,13 @@
         <v>62</v>
       </c>
       <c r="D1137" s="9">
-        <v>2164.6</v>
+        <v>2489.29</v>
       </c>
       <c r="E1137" s="2" t="s">
         <v>2354</v>
       </c>
       <c r="F1137" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1138" spans="1:6" x14ac:dyDescent="0.2">
@@ -41708,13 +41708,13 @@
         <v>62</v>
       </c>
       <c r="D1138" s="9">
-        <v>2273.09</v>
+        <v>2614.0500000000002</v>
       </c>
       <c r="E1138" s="2" t="s">
         <v>2354</v>
       </c>
       <c r="F1138" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1139" spans="1:6" x14ac:dyDescent="0.2">
@@ -41728,13 +41728,13 @@
         <v>62</v>
       </c>
       <c r="D1139" s="9">
-        <v>2164.6</v>
+        <v>2489.29</v>
       </c>
       <c r="E1139" s="2" t="s">
         <v>2354</v>
       </c>
       <c r="F1139" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1140" spans="1:6" x14ac:dyDescent="0.2">
@@ -41748,13 +41748,13 @@
         <v>62</v>
       </c>
       <c r="D1140" s="9">
-        <v>2066.66</v>
+        <v>2376.66</v>
       </c>
       <c r="E1140" s="2" t="s">
         <v>2354</v>
       </c>
       <c r="F1140" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1141" spans="1:6" x14ac:dyDescent="0.2">
@@ -41768,13 +41768,13 @@
         <v>62</v>
       </c>
       <c r="D1141" s="9">
-        <v>2273.09</v>
+        <v>2614.0500000000002</v>
       </c>
       <c r="E1141" s="2" t="s">
         <v>2354</v>
       </c>
       <c r="F1141" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1142" spans="1:6" x14ac:dyDescent="0.2">
@@ -41968,13 +41968,13 @@
         <v>62</v>
       </c>
       <c r="D1151" s="9">
-        <v>2101.87</v>
+        <v>2417.15</v>
       </c>
       <c r="E1151" s="2" t="s">
         <v>2384</v>
       </c>
       <c r="F1151" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1152" spans="1:6" x14ac:dyDescent="0.2">
@@ -41988,13 +41988,13 @@
         <v>62</v>
       </c>
       <c r="D1152" s="9">
-        <v>2145.16</v>
+        <v>2466.9299999999998</v>
       </c>
       <c r="E1152" s="2" t="s">
         <v>2384</v>
       </c>
       <c r="F1152" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1153" spans="1:6" x14ac:dyDescent="0.2">
@@ -42008,13 +42008,13 @@
         <v>62</v>
       </c>
       <c r="D1153" s="9">
-        <v>1927.73</v>
+        <v>2216.89</v>
       </c>
       <c r="E1153" s="2" t="s">
         <v>2384</v>
       </c>
       <c r="F1153" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1154" spans="1:6" x14ac:dyDescent="0.2">
@@ -42088,13 +42088,13 @@
         <v>62</v>
       </c>
       <c r="D1157" s="9">
-        <v>2261.36</v>
+        <v>2600.56</v>
       </c>
       <c r="E1157" s="2" t="s">
         <v>2397</v>
       </c>
       <c r="F1157" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1158" spans="1:6" x14ac:dyDescent="0.2">
@@ -42108,13 +42108,13 @@
         <v>62</v>
       </c>
       <c r="D1158" s="9">
-        <v>2336.6999999999998</v>
+        <v>2687.21</v>
       </c>
       <c r="E1158" s="2" t="s">
         <v>2397</v>
       </c>
       <c r="F1158" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1159" spans="1:6" x14ac:dyDescent="0.2">
@@ -42128,13 +42128,13 @@
         <v>62</v>
       </c>
       <c r="D1159" s="9">
-        <v>2843.42</v>
+        <v>3269.93</v>
       </c>
       <c r="E1159" s="2" t="s">
         <v>2397</v>
       </c>
       <c r="F1159" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1160" spans="1:6" x14ac:dyDescent="0.2">
@@ -42208,13 +42208,13 @@
         <v>62</v>
       </c>
       <c r="D1163" s="9">
-        <v>3428.62</v>
+        <v>3942.91</v>
       </c>
       <c r="E1163" s="2" t="s">
         <v>2397</v>
       </c>
       <c r="F1163" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1164" spans="1:6" x14ac:dyDescent="0.2">
@@ -42228,13 +42228,13 @@
         <v>62</v>
       </c>
       <c r="D1164" s="9">
-        <v>1628.29</v>
+        <v>1872.53</v>
       </c>
       <c r="E1164" s="2" t="s">
         <v>2397</v>
       </c>
       <c r="F1164" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1165" spans="1:6" x14ac:dyDescent="0.2">
@@ -42948,13 +42948,13 @@
         <v>62</v>
       </c>
       <c r="D1200" s="9">
-        <v>3059.46</v>
+        <v>3518.38</v>
       </c>
       <c r="E1200" s="2" t="s">
         <v>2490</v>
       </c>
       <c r="F1200" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1201" spans="1:6" x14ac:dyDescent="0.2">
@@ -42968,13 +42968,13 @@
         <v>62</v>
       </c>
       <c r="D1201" s="9">
-        <v>3059.46</v>
+        <v>3518.38</v>
       </c>
       <c r="E1201" s="2" t="s">
         <v>2490</v>
       </c>
       <c r="F1201" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1202" spans="1:6" x14ac:dyDescent="0.2">
@@ -42988,13 +42988,13 @@
         <v>62</v>
       </c>
       <c r="D1202" s="9">
-        <v>8205.9</v>
+        <v>9436.7900000000009</v>
       </c>
       <c r="E1202" s="2" t="s">
         <v>2495</v>
       </c>
       <c r="F1202" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1203" spans="1:6" x14ac:dyDescent="0.2">
@@ -43008,13 +43008,13 @@
         <v>62</v>
       </c>
       <c r="D1203" s="9">
-        <v>8681.5400000000009</v>
+        <v>9983.77</v>
       </c>
       <c r="E1203" s="2" t="s">
         <v>2495</v>
       </c>
       <c r="F1203" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1204" spans="1:6" x14ac:dyDescent="0.2">
@@ -43028,13 +43028,13 @@
         <v>62</v>
       </c>
       <c r="D1204" s="9">
-        <v>8681.5400000000009</v>
+        <v>9983.77</v>
       </c>
       <c r="E1204" s="2" t="s">
         <v>2495</v>
       </c>
       <c r="F1204" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1205" spans="1:6" x14ac:dyDescent="0.2">
@@ -43048,13 +43048,13 @@
         <v>62</v>
       </c>
       <c r="D1205" s="9">
-        <v>8681.5400000000009</v>
+        <v>9983.77</v>
       </c>
       <c r="E1205" s="2" t="s">
         <v>2495</v>
       </c>
       <c r="F1205" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1206" spans="1:6" x14ac:dyDescent="0.2">
@@ -43068,13 +43068,13 @@
         <v>62</v>
       </c>
       <c r="D1206" s="9">
-        <v>11602.86</v>
+        <v>13343.29</v>
       </c>
       <c r="E1206" s="2" t="s">
         <v>2495</v>
       </c>
       <c r="F1206" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1207" spans="1:6" x14ac:dyDescent="0.2">
@@ -43228,13 +43228,13 @@
         <v>62</v>
       </c>
       <c r="D1214" s="9">
-        <v>3471.04</v>
+        <v>3991.7</v>
       </c>
       <c r="E1214" s="2" t="s">
         <v>2520</v>
       </c>
       <c r="F1214" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1215" spans="1:6" x14ac:dyDescent="0.2">
@@ -43248,13 +43248,13 @@
         <v>62</v>
       </c>
       <c r="D1215" s="9">
-        <v>3528.68</v>
+        <v>4057.98</v>
       </c>
       <c r="E1215" s="2" t="s">
         <v>2520</v>
       </c>
       <c r="F1215" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1216" spans="1:6" x14ac:dyDescent="0.2">
@@ -43268,13 +43268,13 @@
         <v>62</v>
       </c>
       <c r="D1216" s="9">
-        <v>3527.81</v>
+        <v>4056.98</v>
       </c>
       <c r="E1216" s="2" t="s">
         <v>2520</v>
       </c>
       <c r="F1216" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1217" spans="1:6" x14ac:dyDescent="0.2">
@@ -43288,13 +43288,13 @@
         <v>62</v>
       </c>
       <c r="D1217" s="9">
-        <v>2326.67</v>
+        <v>2675.67</v>
       </c>
       <c r="E1217" s="2" t="s">
         <v>2520</v>
       </c>
       <c r="F1217" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1218" spans="1:6" x14ac:dyDescent="0.2">
@@ -43308,13 +43308,13 @@
         <v>62</v>
       </c>
       <c r="D1218" s="9">
-        <v>2673.2</v>
+        <v>3074.18</v>
       </c>
       <c r="E1218" s="2" t="s">
         <v>2520</v>
       </c>
       <c r="F1218" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1219" spans="1:6" x14ac:dyDescent="0.2">
@@ -43328,13 +43328,13 @@
         <v>62</v>
       </c>
       <c r="D1219" s="9">
-        <v>1924.08</v>
+        <v>2212.69</v>
       </c>
       <c r="E1219" s="2" t="s">
         <v>2520</v>
       </c>
       <c r="F1219" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1220" spans="1:6" x14ac:dyDescent="0.2">
@@ -43388,13 +43388,13 @@
         <v>62</v>
       </c>
       <c r="D1222" s="9">
-        <v>1747.03</v>
+        <v>2009.08</v>
       </c>
       <c r="E1222" s="2" t="s">
         <v>2520</v>
       </c>
       <c r="F1222" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1223" spans="1:6" x14ac:dyDescent="0.2">
@@ -43708,13 +43708,13 @@
         <v>62</v>
       </c>
       <c r="D1238" s="9">
-        <v>3607.1</v>
+        <v>4148.17</v>
       </c>
       <c r="E1238" s="2" t="s">
         <v>2573</v>
       </c>
       <c r="F1238" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1239" spans="1:6" x14ac:dyDescent="0.2">
@@ -43728,13 +43728,13 @@
         <v>62</v>
       </c>
       <c r="D1239" s="9">
-        <v>4266.76</v>
+        <v>4906.7700000000004</v>
       </c>
       <c r="E1239" s="2" t="s">
         <v>2573</v>
       </c>
       <c r="F1239" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1240" spans="1:6" x14ac:dyDescent="0.2">
@@ -43748,13 +43748,13 @@
         <v>62</v>
       </c>
       <c r="D1240" s="9">
-        <v>562.05999999999995</v>
+        <v>646.37</v>
       </c>
       <c r="E1240" s="2" t="s">
         <v>2573</v>
       </c>
       <c r="F1240" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1241" spans="1:6" x14ac:dyDescent="0.2">
@@ -43848,13 +43848,13 @@
         <v>62</v>
       </c>
       <c r="D1245" s="9">
-        <v>1445.06</v>
+        <v>1661.82</v>
       </c>
       <c r="E1245" s="2" t="s">
         <v>2573</v>
       </c>
       <c r="F1245" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1246" spans="1:6" x14ac:dyDescent="0.2">
@@ -43888,13 +43888,13 @@
         <v>62</v>
       </c>
       <c r="D1247" s="9">
-        <v>2687.63</v>
+        <v>3090.77</v>
       </c>
       <c r="E1247" s="2" t="s">
         <v>2573</v>
       </c>
       <c r="F1247" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1248" spans="1:6" x14ac:dyDescent="0.2">
@@ -43988,13 +43988,13 @@
         <v>62</v>
       </c>
       <c r="D1252" s="9">
-        <v>1276.9100000000001</v>
+        <v>1468.45</v>
       </c>
       <c r="E1252" s="2" t="s">
         <v>2573</v>
       </c>
       <c r="F1252" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1253" spans="1:6" x14ac:dyDescent="0.2">
@@ -44008,13 +44008,13 @@
         <v>62</v>
       </c>
       <c r="D1253" s="9">
-        <v>1276.9100000000001</v>
+        <v>1468.45</v>
       </c>
       <c r="E1253" s="2" t="s">
         <v>2573</v>
       </c>
       <c r="F1253" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1254" spans="1:6" x14ac:dyDescent="0.2">
@@ -44028,13 +44028,13 @@
         <v>8</v>
       </c>
       <c r="D1254" s="9">
-        <v>818.14</v>
+        <v>940.86</v>
       </c>
       <c r="E1254" s="2" t="s">
         <v>2573</v>
       </c>
       <c r="F1254" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1255" spans="1:6" x14ac:dyDescent="0.2">
@@ -44048,13 +44048,13 @@
         <v>62</v>
       </c>
       <c r="D1255" s="9">
-        <v>4874.72</v>
+        <v>5605.93</v>
       </c>
       <c r="E1255" s="2" t="s">
         <v>2573</v>
       </c>
       <c r="F1255" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1256" spans="1:6" x14ac:dyDescent="0.2">
@@ -44088,13 +44088,13 @@
         <v>62</v>
       </c>
       <c r="D1257" s="9">
-        <v>4554.8500000000004</v>
+        <v>5238.08</v>
       </c>
       <c r="E1257" s="2" t="s">
         <v>2573</v>
       </c>
       <c r="F1257" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1258" spans="1:6" x14ac:dyDescent="0.2">
@@ -44148,13 +44148,13 @@
         <v>62</v>
       </c>
       <c r="D1260" s="9">
-        <v>10237.280000000001</v>
+        <v>11772.87</v>
       </c>
       <c r="E1260" s="2" t="s">
         <v>2618</v>
       </c>
       <c r="F1260" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1261" spans="1:6" x14ac:dyDescent="0.2">
@@ -44168,13 +44168,13 @@
         <v>62</v>
       </c>
       <c r="D1261" s="9">
-        <v>5406.97</v>
+        <v>6218.02</v>
       </c>
       <c r="E1261" s="2" t="s">
         <v>2618</v>
       </c>
       <c r="F1261" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1262" spans="1:6" x14ac:dyDescent="0.2">
@@ -44548,13 +44548,13 @@
         <v>62</v>
       </c>
       <c r="D1280" s="9">
-        <v>616.72</v>
+        <v>709.23</v>
       </c>
       <c r="E1280" s="2" t="s">
         <v>2664</v>
       </c>
       <c r="F1280" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1281" spans="1:6" x14ac:dyDescent="0.2">
@@ -44568,13 +44568,13 @@
         <v>8</v>
       </c>
       <c r="D1281" s="9">
-        <v>845.23</v>
+        <v>972.01</v>
       </c>
       <c r="E1281" s="2" t="s">
         <v>2664</v>
       </c>
       <c r="F1281" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1282" spans="1:6" x14ac:dyDescent="0.2">
@@ -44588,13 +44588,13 @@
         <v>8</v>
       </c>
       <c r="D1282" s="9">
-        <v>1197.4000000000001</v>
+        <v>1377.01</v>
       </c>
       <c r="E1282" s="2" t="s">
         <v>2664</v>
       </c>
       <c r="F1282" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1283" spans="1:6" x14ac:dyDescent="0.2">
@@ -44608,13 +44608,13 @@
         <v>8</v>
       </c>
       <c r="D1283" s="9">
-        <v>1922.77</v>
+        <v>2211.19</v>
       </c>
       <c r="E1283" s="2" t="s">
         <v>2664</v>
       </c>
       <c r="F1283" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1284" spans="1:6" x14ac:dyDescent="0.2">
@@ -44728,13 +44728,13 @@
         <v>62</v>
       </c>
       <c r="D1289" s="9">
-        <v>1078.57</v>
+        <v>1240.3599999999999</v>
       </c>
       <c r="E1289" s="2" t="s">
         <v>2684</v>
       </c>
       <c r="F1289" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1290" spans="1:6" x14ac:dyDescent="0.2">
@@ -44748,13 +44748,13 @@
         <v>62</v>
       </c>
       <c r="D1290" s="9">
-        <v>1243.26</v>
+        <v>1429.75</v>
       </c>
       <c r="E1290" s="2" t="s">
         <v>2684</v>
       </c>
       <c r="F1290" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1291" spans="1:6" x14ac:dyDescent="0.2">
@@ -44768,13 +44768,13 @@
         <v>62</v>
       </c>
       <c r="D1291" s="9">
-        <v>1205.9000000000001</v>
+        <v>1386.79</v>
       </c>
       <c r="E1291" s="2" t="s">
         <v>2684</v>
       </c>
       <c r="F1291" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1292" spans="1:6" x14ac:dyDescent="0.2">
@@ -44788,13 +44788,13 @@
         <v>62</v>
       </c>
       <c r="D1292" s="9">
-        <v>1663.1</v>
+        <v>1912.57</v>
       </c>
       <c r="E1292" s="2" t="s">
         <v>2684</v>
       </c>
       <c r="F1292" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1293" spans="1:6" x14ac:dyDescent="0.2">
@@ -44808,13 +44808,13 @@
         <v>62</v>
       </c>
       <c r="D1293" s="9">
-        <v>1681.32</v>
+        <v>1933.52</v>
       </c>
       <c r="E1293" s="2" t="s">
         <v>2684</v>
       </c>
       <c r="F1293" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1294" spans="1:6" x14ac:dyDescent="0.2">
@@ -44828,13 +44828,13 @@
         <v>8</v>
       </c>
       <c r="D1294" s="9">
-        <v>1663.1</v>
+        <v>1912.57</v>
       </c>
       <c r="E1294" s="2" t="s">
         <v>2684</v>
       </c>
       <c r="F1294" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1295" spans="1:6" x14ac:dyDescent="0.2">
@@ -44848,13 +44848,13 @@
         <v>62</v>
       </c>
       <c r="D1295" s="9">
-        <v>1910.02</v>
+        <v>2196.52</v>
       </c>
       <c r="E1295" s="2" t="s">
         <v>2684</v>
       </c>
       <c r="F1295" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1296" spans="1:6" x14ac:dyDescent="0.2">
@@ -44928,13 +44928,13 @@
         <v>8</v>
       </c>
       <c r="D1299" s="9">
-        <v>1045.96</v>
+        <v>1202.8499999999999</v>
       </c>
       <c r="E1299" s="2" t="s">
         <v>2706</v>
       </c>
       <c r="F1299" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1300" spans="1:6" x14ac:dyDescent="0.2">
@@ -44948,13 +44948,13 @@
         <v>8</v>
       </c>
       <c r="D1300" s="9">
-        <v>1243.78</v>
+        <v>1430.35</v>
       </c>
       <c r="E1300" s="2" t="s">
         <v>2706</v>
       </c>
       <c r="F1300" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1301" spans="1:6" x14ac:dyDescent="0.2">
@@ -44968,13 +44968,13 @@
         <v>32</v>
       </c>
       <c r="D1301" s="9">
-        <v>1569.85</v>
+        <v>1805.33</v>
       </c>
       <c r="E1301" s="2" t="s">
         <v>2706</v>
       </c>
       <c r="F1301" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1302" spans="1:6" x14ac:dyDescent="0.2">
@@ -44988,13 +44988,13 @@
         <v>8</v>
       </c>
       <c r="D1302" s="9">
-        <v>1245.9100000000001</v>
+        <v>1432.8</v>
       </c>
       <c r="E1302" s="2" t="s">
         <v>2706</v>
       </c>
       <c r="F1302" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1303" spans="1:6" x14ac:dyDescent="0.2">
@@ -45008,13 +45008,13 @@
         <v>8</v>
       </c>
       <c r="D1303" s="9">
-        <v>1186.22</v>
+        <v>1364.15</v>
       </c>
       <c r="E1303" s="2" t="s">
         <v>2706</v>
       </c>
       <c r="F1303" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1304" spans="1:6" x14ac:dyDescent="0.2">
@@ -45028,13 +45028,13 @@
         <v>32</v>
       </c>
       <c r="D1304" s="9">
-        <v>1506.62</v>
+        <v>1732.61</v>
       </c>
       <c r="E1304" s="2" t="s">
         <v>2706</v>
       </c>
       <c r="F1304" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1305" spans="1:6" x14ac:dyDescent="0.2">
@@ -45048,13 +45048,13 @@
         <v>62</v>
       </c>
       <c r="D1305" s="9">
-        <v>3232.86</v>
+        <v>3717.79</v>
       </c>
       <c r="E1305" s="2" t="s">
         <v>2706</v>
       </c>
       <c r="F1305" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1306" spans="1:6" x14ac:dyDescent="0.2">
@@ -47088,13 +47088,13 @@
         <v>62</v>
       </c>
       <c r="D1407" s="9">
-        <v>16559.990000000002</v>
+        <v>19043.990000000002</v>
       </c>
       <c r="E1407" s="2" t="s">
         <v>2928</v>
       </c>
       <c r="F1407" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1408" spans="1:6" x14ac:dyDescent="0.2">
@@ -47108,13 +47108,13 @@
         <v>62</v>
       </c>
       <c r="D1408" s="9">
-        <v>25212.54</v>
+        <v>28994.42</v>
       </c>
       <c r="E1408" s="2" t="s">
         <v>2928</v>
       </c>
       <c r="F1408" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1409" spans="1:6" x14ac:dyDescent="0.2">
@@ -47728,13 +47728,13 @@
         <v>62</v>
       </c>
       <c r="D1439" s="9">
-        <v>1115.6500000000001</v>
+        <v>1283</v>
       </c>
       <c r="E1439" s="2" t="s">
         <v>2996</v>
       </c>
       <c r="F1439" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1440" spans="1:6" x14ac:dyDescent="0.2">
@@ -47748,13 +47748,13 @@
         <v>62</v>
       </c>
       <c r="D1440" s="9">
-        <v>1104.22</v>
+        <v>1269.8499999999999</v>
       </c>
       <c r="E1440" s="2" t="s">
         <v>2996</v>
       </c>
       <c r="F1440" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1441" spans="1:6" x14ac:dyDescent="0.2">
@@ -47768,13 +47768,13 @@
         <v>62</v>
       </c>
       <c r="D1441" s="9">
-        <v>1423.78</v>
+        <v>1637.35</v>
       </c>
       <c r="E1441" s="2" t="s">
         <v>2996</v>
       </c>
       <c r="F1441" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1442" spans="1:6" x14ac:dyDescent="0.2">
@@ -47788,13 +47788,13 @@
         <v>62</v>
       </c>
       <c r="D1442" s="9">
-        <v>2082.62</v>
+        <v>2395.0100000000002</v>
       </c>
       <c r="E1442" s="2" t="s">
         <v>2996</v>
       </c>
       <c r="F1442" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1443" spans="1:6" x14ac:dyDescent="0.2">
@@ -47808,13 +47808,13 @@
         <v>62</v>
       </c>
       <c r="D1443" s="9">
-        <v>869.68</v>
+        <v>1000.13</v>
       </c>
       <c r="E1443" s="2" t="s">
         <v>2996</v>
       </c>
       <c r="F1443" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1444" spans="1:6" x14ac:dyDescent="0.2">
@@ -47828,13 +47828,13 @@
         <v>8</v>
       </c>
       <c r="D1444" s="9">
-        <v>935.57</v>
+        <v>1075.9100000000001</v>
       </c>
       <c r="E1444" s="2" t="s">
         <v>2996</v>
       </c>
       <c r="F1444" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1445" spans="1:6" x14ac:dyDescent="0.2">
@@ -47848,13 +47848,13 @@
         <v>8</v>
       </c>
       <c r="D1445" s="9">
-        <v>1343.05</v>
+        <v>1544.51</v>
       </c>
       <c r="E1445" s="2" t="s">
         <v>2996</v>
       </c>
       <c r="F1445" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1446" spans="1:6" x14ac:dyDescent="0.2">
@@ -47868,13 +47868,13 @@
         <v>62</v>
       </c>
       <c r="D1446" s="9">
-        <v>2728.68</v>
+        <v>3137.98</v>
       </c>
       <c r="E1446" s="2" t="s">
         <v>2996</v>
       </c>
       <c r="F1446" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1447" spans="1:6" x14ac:dyDescent="0.2">
@@ -47888,13 +47888,13 @@
         <v>32</v>
       </c>
       <c r="D1447" s="9">
-        <v>2234.5100000000002</v>
+        <v>2569.69</v>
       </c>
       <c r="E1447" s="2" t="s">
         <v>3013</v>
       </c>
       <c r="F1447" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1448" spans="1:6" x14ac:dyDescent="0.2">
@@ -47908,13 +47908,13 @@
         <v>32</v>
       </c>
       <c r="D1448" s="9">
-        <v>2138.14</v>
+        <v>2458.86</v>
       </c>
       <c r="E1448" s="2" t="s">
         <v>3013</v>
       </c>
       <c r="F1448" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1449" spans="1:6" x14ac:dyDescent="0.2">
@@ -49308,13 +49308,13 @@
         <v>62</v>
       </c>
       <c r="D1518" s="9">
-        <v>4214.0200000000004</v>
+        <v>4846.12</v>
       </c>
       <c r="E1518" s="2" t="s">
         <v>3166</v>
       </c>
       <c r="F1518" s="3">
-        <v>45309</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1519" spans="1:6" x14ac:dyDescent="0.2">
@@ -50468,13 +50468,13 @@
         <v>62</v>
       </c>
       <c r="D1576" s="9">
-        <v>79949.52</v>
+        <v>91941.95</v>
       </c>
       <c r="E1576" s="2" t="s">
         <v>3297</v>
       </c>
       <c r="F1576" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1577" spans="1:6" x14ac:dyDescent="0.2">
@@ -50508,13 +50508,13 @@
         <v>62</v>
       </c>
       <c r="D1578" s="9">
-        <v>68848.27</v>
+        <v>79175.509999999995</v>
       </c>
       <c r="E1578" s="2" t="s">
         <v>3297</v>
       </c>
       <c r="F1578" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1579" spans="1:6" x14ac:dyDescent="0.2">
@@ -50528,13 +50528,13 @@
         <v>62</v>
       </c>
       <c r="D1579" s="9">
-        <v>99664.1</v>
+        <v>114613.72</v>
       </c>
       <c r="E1579" s="2" t="s">
         <v>3297</v>
       </c>
       <c r="F1579" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1580" spans="1:6" x14ac:dyDescent="0.2">
@@ -50548,13 +50548,13 @@
         <v>62</v>
       </c>
       <c r="D1580" s="9">
-        <v>80430.92</v>
+        <v>92495.56</v>
       </c>
       <c r="E1580" s="2" t="s">
         <v>3297</v>
       </c>
       <c r="F1580" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1581" spans="1:6" x14ac:dyDescent="0.2">
@@ -50568,13 +50568,13 @@
         <v>62</v>
       </c>
       <c r="D1581" s="9">
-        <v>83601.490000000005</v>
+        <v>96141.71</v>
       </c>
       <c r="E1581" s="2" t="s">
         <v>3297</v>
       </c>
       <c r="F1581" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1582" spans="1:6" x14ac:dyDescent="0.2">
@@ -50588,13 +50588,13 @@
         <v>62</v>
       </c>
       <c r="D1582" s="9">
-        <v>79913.179999999993</v>
+        <v>91900.160000000003</v>
       </c>
       <c r="E1582" s="2" t="s">
         <v>3297</v>
       </c>
       <c r="F1582" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1583" spans="1:6" x14ac:dyDescent="0.2">
@@ -50608,13 +50608,13 @@
         <v>62</v>
       </c>
       <c r="D1583" s="9">
-        <v>257417.02</v>
+        <v>296029.57</v>
       </c>
       <c r="E1583" s="2" t="s">
         <v>3297</v>
       </c>
       <c r="F1583" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1584" spans="1:6" x14ac:dyDescent="0.2">
@@ -51608,13 +51608,13 @@
         <v>8</v>
       </c>
       <c r="D1633" s="9">
-        <v>1086.04</v>
+        <v>1248.95</v>
       </c>
       <c r="E1633" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1633" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1634" spans="1:6" x14ac:dyDescent="0.2">
@@ -51628,13 +51628,13 @@
         <v>8</v>
       </c>
       <c r="D1634" s="9">
-        <v>1086.04</v>
+        <v>1248.95</v>
       </c>
       <c r="E1634" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1634" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1635" spans="1:6" x14ac:dyDescent="0.2">
@@ -51648,13 +51648,13 @@
         <v>8</v>
       </c>
       <c r="D1635" s="9">
-        <v>759.95</v>
+        <v>873.94</v>
       </c>
       <c r="E1635" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1635" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1636" spans="1:6" x14ac:dyDescent="0.2">
@@ -51668,13 +51668,13 @@
         <v>8</v>
       </c>
       <c r="D1636" s="9">
-        <v>759.95</v>
+        <v>873.94</v>
       </c>
       <c r="E1636" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1636" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1637" spans="1:6" x14ac:dyDescent="0.2">
@@ -51688,13 +51688,13 @@
         <v>8</v>
       </c>
       <c r="D1637" s="9">
-        <v>989.45</v>
+        <v>1137.8699999999999</v>
       </c>
       <c r="E1637" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1637" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1638" spans="1:6" x14ac:dyDescent="0.2">
@@ -51708,13 +51708,13 @@
         <v>8</v>
       </c>
       <c r="D1638" s="9">
-        <v>989.45</v>
+        <v>1137.8699999999999</v>
       </c>
       <c r="E1638" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1638" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1639" spans="1:6" x14ac:dyDescent="0.2">
@@ -51728,13 +51728,13 @@
         <v>8</v>
       </c>
       <c r="D1639" s="9">
-        <v>2413.5700000000002</v>
+        <v>2775.61</v>
       </c>
       <c r="E1639" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1639" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1640" spans="1:6" x14ac:dyDescent="0.2">
@@ -51748,13 +51748,13 @@
         <v>8</v>
       </c>
       <c r="D1640" s="9">
-        <v>2413.5700000000002</v>
+        <v>2775.61</v>
       </c>
       <c r="E1640" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1640" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1641" spans="1:6" x14ac:dyDescent="0.2">
@@ -51768,13 +51768,13 @@
         <v>8</v>
       </c>
       <c r="D1641" s="9">
-        <v>1103.46</v>
+        <v>1268.98</v>
       </c>
       <c r="E1641" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1641" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1642" spans="1:6" x14ac:dyDescent="0.2">
@@ -51788,13 +51788,13 @@
         <v>8</v>
       </c>
       <c r="D1642" s="9">
-        <v>1103.46</v>
+        <v>1268.98</v>
       </c>
       <c r="E1642" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1642" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1643" spans="1:6" x14ac:dyDescent="0.2">
@@ -51808,13 +51808,13 @@
         <v>8</v>
       </c>
       <c r="D1643" s="9">
-        <v>1467.85</v>
+        <v>1688.03</v>
       </c>
       <c r="E1643" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1643" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1644" spans="1:6" x14ac:dyDescent="0.2">
@@ -51828,13 +51828,13 @@
         <v>8</v>
       </c>
       <c r="D1644" s="9">
-        <v>1467.85</v>
+        <v>1688.03</v>
       </c>
       <c r="E1644" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1644" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1645" spans="1:6" x14ac:dyDescent="0.2">
@@ -51848,13 +51848,13 @@
         <v>8</v>
       </c>
       <c r="D1645" s="9">
-        <v>2529.12</v>
+        <v>2908.49</v>
       </c>
       <c r="E1645" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1645" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1646" spans="1:6" x14ac:dyDescent="0.2">
@@ -51868,13 +51868,13 @@
         <v>8</v>
       </c>
       <c r="D1646" s="9">
-        <v>2529.12</v>
+        <v>2908.49</v>
       </c>
       <c r="E1646" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1646" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1647" spans="1:6" x14ac:dyDescent="0.2">
@@ -51888,13 +51888,13 @@
         <v>8</v>
       </c>
       <c r="D1647" s="9">
-        <v>866.64</v>
+        <v>996.64</v>
       </c>
       <c r="E1647" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1647" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1648" spans="1:6" x14ac:dyDescent="0.2">
@@ -51928,13 +51928,13 @@
         <v>8</v>
       </c>
       <c r="D1649" s="9">
-        <v>714.8</v>
+        <v>822.02</v>
       </c>
       <c r="E1649" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1649" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1650" spans="1:6" x14ac:dyDescent="0.2">
@@ -51948,13 +51948,13 @@
         <v>8</v>
       </c>
       <c r="D1650" s="9">
-        <v>714.8</v>
+        <v>822.02</v>
       </c>
       <c r="E1650" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1650" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1651" spans="1:6" x14ac:dyDescent="0.2">
@@ -51968,13 +51968,13 @@
         <v>8</v>
       </c>
       <c r="D1651" s="9">
-        <v>747.78</v>
+        <v>859.95</v>
       </c>
       <c r="E1651" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1651" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1652" spans="1:6" x14ac:dyDescent="0.2">
@@ -51988,13 +51988,13 @@
         <v>8</v>
       </c>
       <c r="D1652" s="9">
-        <v>747.78</v>
+        <v>859.95</v>
       </c>
       <c r="E1652" s="2" t="s">
         <v>3418</v>
       </c>
       <c r="F1652" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1653" spans="1:6" x14ac:dyDescent="0.2">
@@ -54088,13 +54088,13 @@
         <v>62</v>
       </c>
       <c r="D1757" s="9">
-        <v>3428.24</v>
+        <v>3942.48</v>
       </c>
       <c r="E1757" s="2" t="s">
         <v>3677</v>
       </c>
       <c r="F1757" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1758" spans="1:6" x14ac:dyDescent="0.2">
@@ -54108,13 +54108,13 @@
         <v>62</v>
       </c>
       <c r="D1758" s="9">
-        <v>3451.37</v>
+        <v>3969.08</v>
       </c>
       <c r="E1758" s="2" t="s">
         <v>3677</v>
       </c>
       <c r="F1758" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1759" spans="1:6" x14ac:dyDescent="0.2">
@@ -54508,13 +54508,13 @@
         <v>62</v>
       </c>
       <c r="D1778" s="9">
-        <v>2575.62</v>
+        <v>2961.96</v>
       </c>
       <c r="E1778" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1778" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1779" spans="1:6" x14ac:dyDescent="0.2">
@@ -54528,13 +54528,13 @@
         <v>62</v>
       </c>
       <c r="D1779" s="9">
-        <v>4243.6400000000003</v>
+        <v>4880.1899999999996</v>
       </c>
       <c r="E1779" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1779" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1780" spans="1:6" x14ac:dyDescent="0.2">
@@ -54548,13 +54548,13 @@
         <v>62</v>
       </c>
       <c r="D1780" s="9">
-        <v>5297.93</v>
+        <v>6092.62</v>
       </c>
       <c r="E1780" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1780" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1781" spans="1:6" x14ac:dyDescent="0.2">
@@ -54568,13 +54568,13 @@
         <v>62</v>
       </c>
       <c r="D1781" s="9">
-        <v>6308.24</v>
+        <v>7254.48</v>
       </c>
       <c r="E1781" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1781" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1782" spans="1:6" x14ac:dyDescent="0.2">
@@ -54588,13 +54588,13 @@
         <v>62</v>
       </c>
       <c r="D1782" s="9">
-        <v>7907.28</v>
+        <v>9093.3700000000008</v>
       </c>
       <c r="E1782" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1782" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1783" spans="1:6" x14ac:dyDescent="0.2">
@@ -54608,13 +54608,13 @@
         <v>62</v>
       </c>
       <c r="D1783" s="9">
-        <v>9501.07</v>
+        <v>10926.23</v>
       </c>
       <c r="E1783" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1783" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1784" spans="1:6" x14ac:dyDescent="0.2">
@@ -54628,13 +54628,13 @@
         <v>62</v>
       </c>
       <c r="D1784" s="9">
-        <v>10481.469999999999</v>
+        <v>12053.69</v>
       </c>
       <c r="E1784" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1784" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1785" spans="1:6" x14ac:dyDescent="0.2">
@@ -54648,13 +54648,13 @@
         <v>62</v>
       </c>
       <c r="D1785" s="9">
-        <v>13186.42</v>
+        <v>15164.38</v>
       </c>
       <c r="E1785" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1785" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1786" spans="1:6" x14ac:dyDescent="0.2">
@@ -54668,13 +54668,13 @@
         <v>62</v>
       </c>
       <c r="D1786" s="9">
-        <v>15769.34</v>
+        <v>18134.740000000002</v>
       </c>
       <c r="E1786" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1786" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1787" spans="1:6" x14ac:dyDescent="0.2">
@@ -54688,13 +54688,13 @@
         <v>62</v>
       </c>
       <c r="D1787" s="9">
-        <v>3251.46</v>
+        <v>3739.18</v>
       </c>
       <c r="E1787" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1787" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1788" spans="1:6" x14ac:dyDescent="0.2">
@@ -54708,13 +54708,13 @@
         <v>62</v>
       </c>
       <c r="D1788" s="9">
-        <v>5072.18</v>
+        <v>5833.01</v>
       </c>
       <c r="E1788" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1788" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1789" spans="1:6" x14ac:dyDescent="0.2">
@@ -54728,13 +54728,13 @@
         <v>62</v>
       </c>
       <c r="D1789" s="9">
-        <v>6426.68</v>
+        <v>7390.68</v>
       </c>
       <c r="E1789" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1789" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1790" spans="1:6" x14ac:dyDescent="0.2">
@@ -54748,13 +54748,13 @@
         <v>62</v>
       </c>
       <c r="D1790" s="9">
-        <v>7650.49</v>
+        <v>8798.06</v>
       </c>
       <c r="E1790" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1790" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1791" spans="1:6" x14ac:dyDescent="0.2">
@@ -54768,13 +54768,13 @@
         <v>62</v>
       </c>
       <c r="D1791" s="9">
-        <v>9613.08</v>
+        <v>11055.04</v>
       </c>
       <c r="E1791" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1791" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1792" spans="1:6" x14ac:dyDescent="0.2">
@@ -54788,13 +54788,13 @@
         <v>62</v>
       </c>
       <c r="D1792" s="9">
-        <v>11432.57</v>
+        <v>13147.46</v>
       </c>
       <c r="E1792" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1792" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1793" spans="1:6" x14ac:dyDescent="0.2">
@@ -54808,13 +54808,13 @@
         <v>62</v>
       </c>
       <c r="D1793" s="9">
-        <v>12787.09</v>
+        <v>14705.15</v>
       </c>
       <c r="E1793" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1793" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1794" spans="1:6" x14ac:dyDescent="0.2">
@@ -54828,13 +54828,13 @@
         <v>62</v>
       </c>
       <c r="D1794" s="9">
-        <v>16010.4</v>
+        <v>18411.96</v>
       </c>
       <c r="E1794" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1794" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1795" spans="1:6" x14ac:dyDescent="0.2">
@@ -54848,13 +54848,13 @@
         <v>62</v>
       </c>
       <c r="D1795" s="9">
-        <v>19086.5</v>
+        <v>21949.48</v>
       </c>
       <c r="E1795" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1795" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1796" spans="1:6" x14ac:dyDescent="0.2">
@@ -54868,13 +54868,13 @@
         <v>62</v>
       </c>
       <c r="D1796" s="9">
-        <v>5029.9799999999996</v>
+        <v>5784.48</v>
       </c>
       <c r="E1796" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1796" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1797" spans="1:6" x14ac:dyDescent="0.2">
@@ -54888,13 +54888,13 @@
         <v>62</v>
       </c>
       <c r="D1797" s="9">
-        <v>7918.1</v>
+        <v>9105.82</v>
       </c>
       <c r="E1797" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1797" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1798" spans="1:6" x14ac:dyDescent="0.2">
@@ -54908,13 +54908,13 @@
         <v>62</v>
       </c>
       <c r="D1798" s="9">
-        <v>9954.36</v>
+        <v>11447.51</v>
       </c>
       <c r="E1798" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1798" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1799" spans="1:6" x14ac:dyDescent="0.2">
@@ -54928,13 +54928,13 @@
         <v>62</v>
       </c>
       <c r="D1799" s="9">
-        <v>11997.8</v>
+        <v>13797.47</v>
       </c>
       <c r="E1799" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1799" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1800" spans="1:6" x14ac:dyDescent="0.2">
@@ -54948,13 +54948,13 @@
         <v>62</v>
       </c>
       <c r="D1800" s="9">
-        <v>14912.68</v>
+        <v>17149.580000000002</v>
       </c>
       <c r="E1800" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1800" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1801" spans="1:6" x14ac:dyDescent="0.2">
@@ -54968,13 +54968,13 @@
         <v>62</v>
       </c>
       <c r="D1801" s="9">
-        <v>17967.11</v>
+        <v>20662.18</v>
       </c>
       <c r="E1801" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1801" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1802" spans="1:6" x14ac:dyDescent="0.2">
@@ -54988,13 +54988,13 @@
         <v>62</v>
       </c>
       <c r="D1802" s="9">
-        <v>19994.169999999998</v>
+        <v>22993.3</v>
       </c>
       <c r="E1802" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1802" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1803" spans="1:6" x14ac:dyDescent="0.2">
@@ -55008,13 +55008,13 @@
         <v>62</v>
       </c>
       <c r="D1803" s="9">
-        <v>24900.34</v>
+        <v>28635.39</v>
       </c>
       <c r="E1803" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1803" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1804" spans="1:6" x14ac:dyDescent="0.2">
@@ -55028,13 +55028,13 @@
         <v>62</v>
       </c>
       <c r="D1804" s="9">
-        <v>29903.95</v>
+        <v>34389.54</v>
       </c>
       <c r="E1804" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1804" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1805" spans="1:6" x14ac:dyDescent="0.2">
@@ -55048,13 +55048,13 @@
         <v>62</v>
       </c>
       <c r="D1805" s="9">
-        <v>7088.16</v>
+        <v>8151.38</v>
       </c>
       <c r="E1805" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1805" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1806" spans="1:6" x14ac:dyDescent="0.2">
@@ -55068,13 +55068,13 @@
         <v>62</v>
       </c>
       <c r="D1806" s="9">
-        <v>11526.97</v>
+        <v>13256.02</v>
       </c>
       <c r="E1806" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1806" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1807" spans="1:6" x14ac:dyDescent="0.2">
@@ -55088,13 +55088,13 @@
         <v>62</v>
       </c>
       <c r="D1807" s="9">
-        <v>14447.14</v>
+        <v>16614.21</v>
       </c>
       <c r="E1807" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1807" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1808" spans="1:6" x14ac:dyDescent="0.2">
@@ -55108,13 +55108,13 @@
         <v>62</v>
       </c>
       <c r="D1808" s="9">
-        <v>17274.02</v>
+        <v>19865.12</v>
       </c>
       <c r="E1808" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1808" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1809" spans="1:6" x14ac:dyDescent="0.2">
@@ -55128,13 +55128,13 @@
         <v>62</v>
       </c>
       <c r="D1809" s="9">
-        <v>21610.81</v>
+        <v>24852.43</v>
       </c>
       <c r="E1809" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1809" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1810" spans="1:6" x14ac:dyDescent="0.2">
@@ -55148,13 +55148,13 @@
         <v>62</v>
       </c>
       <c r="D1810" s="9">
-        <v>25994.51</v>
+        <v>29893.69</v>
       </c>
       <c r="E1810" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1810" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1811" spans="1:6" x14ac:dyDescent="0.2">
@@ -55168,13 +55168,13 @@
         <v>62</v>
       </c>
       <c r="D1811" s="9">
-        <v>28820.35</v>
+        <v>33143.4</v>
       </c>
       <c r="E1811" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1811" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1812" spans="1:6" x14ac:dyDescent="0.2">
@@ -55188,13 +55188,13 @@
         <v>62</v>
       </c>
       <c r="D1812" s="9">
-        <v>36035.06</v>
+        <v>41440.32</v>
       </c>
       <c r="E1812" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1812" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1813" spans="1:6" x14ac:dyDescent="0.2">
@@ -55208,13 +55208,13 @@
         <v>62</v>
       </c>
       <c r="D1813" s="9">
-        <v>43234.5</v>
+        <v>49719.68</v>
       </c>
       <c r="E1813" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1813" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1814" spans="1:6" x14ac:dyDescent="0.2">
@@ -55228,13 +55228,13 @@
         <v>62</v>
       </c>
       <c r="D1814" s="9">
-        <v>9151.01</v>
+        <v>10523.66</v>
       </c>
       <c r="E1814" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1814" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1815" spans="1:6" x14ac:dyDescent="0.2">
@@ -55248,13 +55248,13 @@
         <v>62</v>
       </c>
       <c r="D1815" s="9">
-        <v>14239.55</v>
+        <v>16375.48</v>
       </c>
       <c r="E1815" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1815" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1816" spans="1:6" x14ac:dyDescent="0.2">
@@ -55268,13 +55268,13 @@
         <v>62</v>
       </c>
       <c r="D1816" s="9">
-        <v>17745.43</v>
+        <v>20407.240000000002</v>
       </c>
       <c r="E1816" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1816" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1817" spans="1:6" x14ac:dyDescent="0.2">
@@ -55288,13 +55288,13 @@
         <v>62</v>
       </c>
       <c r="D1817" s="9">
-        <v>21228.560000000001</v>
+        <v>24412.84</v>
       </c>
       <c r="E1817" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1817" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1818" spans="1:6" x14ac:dyDescent="0.2">
@@ -55308,13 +55308,13 @@
         <v>62</v>
       </c>
       <c r="D1818" s="9">
-        <v>26534.639999999999</v>
+        <v>30514.84</v>
       </c>
       <c r="E1818" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1818" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1819" spans="1:6" x14ac:dyDescent="0.2">
@@ -55328,13 +55328,13 @@
         <v>62</v>
       </c>
       <c r="D1819" s="9">
-        <v>31834.2</v>
+        <v>36609.33</v>
       </c>
       <c r="E1819" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1819" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1820" spans="1:6" x14ac:dyDescent="0.2">
@@ -55348,13 +55348,13 @@
         <v>62</v>
       </c>
       <c r="D1820" s="9">
-        <v>35523.08</v>
+        <v>40851.54</v>
       </c>
       <c r="E1820" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1820" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1821" spans="1:6" x14ac:dyDescent="0.2">
@@ -55368,13 +55368,13 @@
         <v>62</v>
       </c>
       <c r="D1821" s="9">
-        <v>44415.44</v>
+        <v>51077.760000000002</v>
       </c>
       <c r="E1821" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1821" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1822" spans="1:6" x14ac:dyDescent="0.2">
@@ -55388,13 +55388,13 @@
         <v>62</v>
       </c>
       <c r="D1822" s="9">
-        <v>53168.24</v>
+        <v>61143.48</v>
       </c>
       <c r="E1822" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1822" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1823" spans="1:6" x14ac:dyDescent="0.2">
@@ -55408,13 +55408,13 @@
         <v>62</v>
       </c>
       <c r="D1823" s="9">
-        <v>14727.41</v>
+        <v>16936.52</v>
       </c>
       <c r="E1823" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1823" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1824" spans="1:6" x14ac:dyDescent="0.2">
@@ -55428,13 +55428,13 @@
         <v>62</v>
       </c>
       <c r="D1824" s="9">
-        <v>18809.7</v>
+        <v>21631.16</v>
       </c>
       <c r="E1824" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1824" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1825" spans="1:6" x14ac:dyDescent="0.2">
@@ -55448,13 +55448,13 @@
         <v>62</v>
       </c>
       <c r="D1825" s="9">
-        <v>23555.24</v>
+        <v>27088.53</v>
       </c>
       <c r="E1825" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1825" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1826" spans="1:6" x14ac:dyDescent="0.2">
@@ -55468,13 +55468,13 @@
         <v>62</v>
       </c>
       <c r="D1826" s="9">
-        <v>28240.34</v>
+        <v>32476.39</v>
       </c>
       <c r="E1826" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1826" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1827" spans="1:6" x14ac:dyDescent="0.2">
@@ -55488,13 +55488,13 @@
         <v>62</v>
       </c>
       <c r="D1827" s="9">
-        <v>35225.83</v>
+        <v>40509.699999999997</v>
       </c>
       <c r="E1827" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1827" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1828" spans="1:6" x14ac:dyDescent="0.2">
@@ -55508,13 +55508,13 @@
         <v>62</v>
       </c>
       <c r="D1828" s="9">
-        <v>42363.73</v>
+        <v>48718.29</v>
       </c>
       <c r="E1828" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1828" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1829" spans="1:6" x14ac:dyDescent="0.2">
@@ -55528,13 +55528,13 @@
         <v>62</v>
       </c>
       <c r="D1829" s="9">
-        <v>47050</v>
+        <v>54107.5</v>
       </c>
       <c r="E1829" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1829" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1830" spans="1:6" x14ac:dyDescent="0.2">
@@ -55548,13 +55548,13 @@
         <v>62</v>
       </c>
       <c r="D1830" s="9">
-        <v>58751.64</v>
+        <v>67564.39</v>
       </c>
       <c r="E1830" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1830" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1831" spans="1:6" x14ac:dyDescent="0.2">
@@ -55568,13 +55568,13 @@
         <v>62</v>
       </c>
       <c r="D1831" s="9">
-        <v>77603.820000000007</v>
+        <v>89244.39</v>
       </c>
       <c r="E1831" s="2" t="s">
         <v>3723</v>
       </c>
       <c r="F1831" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1832" spans="1:6" x14ac:dyDescent="0.2">
@@ -55588,13 +55588,13 @@
         <v>62</v>
       </c>
       <c r="D1832" s="9">
-        <v>5297.93</v>
+        <v>6092.62</v>
       </c>
       <c r="E1832" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1832" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1833" spans="1:6" x14ac:dyDescent="0.2">
@@ -55608,13 +55608,13 @@
         <v>62</v>
       </c>
       <c r="D1833" s="9">
-        <v>7907.28</v>
+        <v>9093.3700000000008</v>
       </c>
       <c r="E1833" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1833" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1834" spans="1:6" x14ac:dyDescent="0.2">
@@ -55628,13 +55628,13 @@
         <v>62</v>
       </c>
       <c r="D1834" s="9">
-        <v>10481.469999999999</v>
+        <v>12053.69</v>
       </c>
       <c r="E1834" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1834" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1835" spans="1:6" x14ac:dyDescent="0.2">
@@ -55648,13 +55648,13 @@
         <v>62</v>
       </c>
       <c r="D1835" s="9">
-        <v>13186.42</v>
+        <v>15164.38</v>
       </c>
       <c r="E1835" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1835" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1836" spans="1:6" x14ac:dyDescent="0.2">
@@ -55668,13 +55668,13 @@
         <v>62</v>
       </c>
       <c r="D1836" s="9">
-        <v>15769.34</v>
+        <v>18134.740000000002</v>
       </c>
       <c r="E1836" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1836" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1837" spans="1:6" x14ac:dyDescent="0.2">
@@ -55688,13 +55688,13 @@
         <v>62</v>
       </c>
       <c r="D1837" s="9">
-        <v>6426.68</v>
+        <v>7390.68</v>
       </c>
       <c r="E1837" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1837" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1838" spans="1:6" x14ac:dyDescent="0.2">
@@ -55708,13 +55708,13 @@
         <v>62</v>
       </c>
       <c r="D1838" s="9">
-        <v>9613.08</v>
+        <v>11055.04</v>
       </c>
       <c r="E1838" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1838" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1839" spans="1:6" x14ac:dyDescent="0.2">
@@ -55728,13 +55728,13 @@
         <v>62</v>
       </c>
       <c r="D1839" s="9">
-        <v>12787.09</v>
+        <v>14705.15</v>
       </c>
       <c r="E1839" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1839" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1840" spans="1:6" x14ac:dyDescent="0.2">
@@ -55748,13 +55748,13 @@
         <v>62</v>
       </c>
       <c r="D1840" s="9">
-        <v>16010.4</v>
+        <v>18411.96</v>
       </c>
       <c r="E1840" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1840" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1841" spans="1:6" x14ac:dyDescent="0.2">
@@ -55768,13 +55768,13 @@
         <v>62</v>
       </c>
       <c r="D1841" s="9">
-        <v>19086.5</v>
+        <v>21949.48</v>
       </c>
       <c r="E1841" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1841" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1842" spans="1:6" x14ac:dyDescent="0.2">
@@ -55788,13 +55788,13 @@
         <v>62</v>
       </c>
       <c r="D1842" s="9">
-        <v>9954.36</v>
+        <v>11447.51</v>
       </c>
       <c r="E1842" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1842" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1843" spans="1:6" x14ac:dyDescent="0.2">
@@ -55808,13 +55808,13 @@
         <v>62</v>
       </c>
       <c r="D1843" s="9">
-        <v>14912.68</v>
+        <v>17149.580000000002</v>
       </c>
       <c r="E1843" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1843" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1844" spans="1:6" x14ac:dyDescent="0.2">
@@ -55828,13 +55828,13 @@
         <v>62</v>
       </c>
       <c r="D1844" s="9">
-        <v>19994.169999999998</v>
+        <v>22993.3</v>
       </c>
       <c r="E1844" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1844" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1845" spans="1:6" x14ac:dyDescent="0.2">
@@ -55848,13 +55848,13 @@
         <v>62</v>
       </c>
       <c r="D1845" s="9">
-        <v>24897.47</v>
+        <v>28632.09</v>
       </c>
       <c r="E1845" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1845" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1846" spans="1:6" x14ac:dyDescent="0.2">
@@ -55868,13 +55868,13 @@
         <v>62</v>
       </c>
       <c r="D1846" s="9">
-        <v>29903.95</v>
+        <v>34389.54</v>
       </c>
       <c r="E1846" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1846" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1847" spans="1:6" x14ac:dyDescent="0.2">
@@ -55888,13 +55888,13 @@
         <v>62</v>
       </c>
       <c r="D1847" s="9">
-        <v>14447.14</v>
+        <v>16614.21</v>
       </c>
       <c r="E1847" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1847" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1848" spans="1:6" x14ac:dyDescent="0.2">
@@ -55908,13 +55908,13 @@
         <v>62</v>
       </c>
       <c r="D1848" s="9">
-        <v>21610.81</v>
+        <v>24852.43</v>
       </c>
       <c r="E1848" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1848" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1849" spans="1:6" x14ac:dyDescent="0.2">
@@ -55928,13 +55928,13 @@
         <v>62</v>
       </c>
       <c r="D1849" s="9">
-        <v>28820.35</v>
+        <v>33143.4</v>
       </c>
       <c r="E1849" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1849" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1850" spans="1:6" x14ac:dyDescent="0.2">
@@ -55948,13 +55948,13 @@
         <v>62</v>
       </c>
       <c r="D1850" s="9">
-        <v>36035.06</v>
+        <v>41440.32</v>
       </c>
       <c r="E1850" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1850" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1851" spans="1:6" x14ac:dyDescent="0.2">
@@ -55968,13 +55968,13 @@
         <v>62</v>
       </c>
       <c r="D1851" s="9">
-        <v>43234.5</v>
+        <v>49719.68</v>
       </c>
       <c r="E1851" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1851" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1852" spans="1:6" x14ac:dyDescent="0.2">
@@ -55988,13 +55988,13 @@
         <v>62</v>
       </c>
       <c r="D1852" s="9">
-        <v>17745.43</v>
+        <v>20407.240000000002</v>
       </c>
       <c r="E1852" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1852" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1853" spans="1:6" x14ac:dyDescent="0.2">
@@ -56008,13 +56008,13 @@
         <v>62</v>
       </c>
       <c r="D1853" s="9">
-        <v>26508.22</v>
+        <v>30484.45</v>
       </c>
       <c r="E1853" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1853" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1854" spans="1:6" x14ac:dyDescent="0.2">
@@ -56028,13 +56028,13 @@
         <v>62</v>
       </c>
       <c r="D1854" s="9">
-        <v>35523.08</v>
+        <v>40851.54</v>
       </c>
       <c r="E1854" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1854" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1855" spans="1:6" x14ac:dyDescent="0.2">
@@ -56048,13 +56048,13 @@
         <v>62</v>
       </c>
       <c r="D1855" s="9">
-        <v>44420.75</v>
+        <v>51083.86</v>
       </c>
       <c r="E1855" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1855" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1856" spans="1:6" x14ac:dyDescent="0.2">
@@ -56068,13 +56068,13 @@
         <v>62</v>
       </c>
       <c r="D1856" s="9">
-        <v>53150.04</v>
+        <v>61122.55</v>
       </c>
       <c r="E1856" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1856" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1857" spans="1:6" x14ac:dyDescent="0.2">
@@ -56088,13 +56088,13 @@
         <v>62</v>
       </c>
       <c r="D1857" s="9">
-        <v>23555.24</v>
+        <v>27088.53</v>
       </c>
       <c r="E1857" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1857" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1858" spans="1:6" x14ac:dyDescent="0.2">
@@ -56108,13 +56108,13 @@
         <v>62</v>
       </c>
       <c r="D1858" s="9">
-        <v>35225.83</v>
+        <v>40509.699999999997</v>
       </c>
       <c r="E1858" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1858" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1859" spans="1:6" x14ac:dyDescent="0.2">
@@ -56128,13 +56128,13 @@
         <v>62</v>
       </c>
       <c r="D1859" s="9">
-        <v>47050</v>
+        <v>54107.5</v>
       </c>
       <c r="E1859" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1859" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1860" spans="1:6" x14ac:dyDescent="0.2">
@@ -56148,13 +56148,13 @@
         <v>62</v>
       </c>
       <c r="D1860" s="9">
-        <v>58751.64</v>
+        <v>67564.39</v>
       </c>
       <c r="E1860" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1860" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1861" spans="1:6" x14ac:dyDescent="0.2">
@@ -56168,13 +56168,13 @@
         <v>62</v>
       </c>
       <c r="D1861" s="9">
-        <v>70548.899999999994</v>
+        <v>81131.240000000005</v>
       </c>
       <c r="E1861" s="2" t="s">
         <v>3832</v>
       </c>
       <c r="F1861" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1862" spans="1:6" x14ac:dyDescent="0.2">
@@ -58368,13 +58368,13 @@
         <v>62</v>
       </c>
       <c r="D1971" s="9">
-        <v>16421.18</v>
+        <v>18884.36</v>
       </c>
       <c r="E1971" s="2" t="s">
         <v>4101</v>
       </c>
       <c r="F1971" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1972" spans="1:6" x14ac:dyDescent="0.2">
@@ -58388,13 +58388,13 @@
         <v>62</v>
       </c>
       <c r="D1972" s="9">
-        <v>20941.96</v>
+        <v>24083.25</v>
       </c>
       <c r="E1972" s="2" t="s">
         <v>4101</v>
       </c>
       <c r="F1972" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1973" spans="1:6" x14ac:dyDescent="0.2">
@@ -58408,13 +58408,13 @@
         <v>62</v>
       </c>
       <c r="D1973" s="9">
-        <v>29478.54</v>
+        <v>33900.32</v>
       </c>
       <c r="E1973" s="2" t="s">
         <v>4101</v>
       </c>
       <c r="F1973" s="3">
-        <v>45295</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1974" spans="1:6" x14ac:dyDescent="0.2">
@@ -58428,13 +58428,13 @@
         <v>62</v>
       </c>
       <c r="D1974" s="9">
-        <v>5813.29</v>
+        <v>6685.28</v>
       </c>
       <c r="E1974" s="2" t="s">
         <v>4101</v>
       </c>
       <c r="F1974" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1975" spans="1:6" x14ac:dyDescent="0.2">
@@ -58448,13 +58448,13 @@
         <v>62</v>
       </c>
       <c r="D1975" s="9">
-        <v>7077.73</v>
+        <v>8139.39</v>
       </c>
       <c r="E1975" s="2" t="s">
         <v>4101</v>
       </c>
       <c r="F1975" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="1976" spans="1:6" x14ac:dyDescent="0.2">
@@ -60768,13 +60768,13 @@
         <v>8</v>
       </c>
       <c r="D2091" s="9">
-        <v>4447.96</v>
+        <v>5115.1499999999996</v>
       </c>
       <c r="E2091" s="2" t="s">
         <v>4381</v>
       </c>
       <c r="F2091" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2092" spans="1:6" x14ac:dyDescent="0.2">
@@ -60788,13 +60788,13 @@
         <v>8</v>
       </c>
       <c r="D2092" s="9">
-        <v>4587.1899999999996</v>
+        <v>5275.27</v>
       </c>
       <c r="E2092" s="2" t="s">
         <v>4381</v>
       </c>
       <c r="F2092" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2093" spans="1:6" x14ac:dyDescent="0.2">
@@ -60808,13 +60808,13 @@
         <v>62</v>
       </c>
       <c r="D2093" s="9">
-        <v>2701.58</v>
+        <v>3106.82</v>
       </c>
       <c r="E2093" s="2" t="s">
         <v>4381</v>
       </c>
       <c r="F2093" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2094" spans="1:6" x14ac:dyDescent="0.2">
@@ -60828,13 +60828,13 @@
         <v>832</v>
       </c>
       <c r="D2094" s="9">
-        <v>7052.78</v>
+        <v>8110.7</v>
       </c>
       <c r="E2094" s="2" t="s">
         <v>4381</v>
       </c>
       <c r="F2094" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2095" spans="1:6" x14ac:dyDescent="0.2">
@@ -60848,13 +60848,13 @@
         <v>832</v>
       </c>
       <c r="D2095" s="9">
-        <v>8679.31</v>
+        <v>9981.2099999999991</v>
       </c>
       <c r="E2095" s="2" t="s">
         <v>4381</v>
       </c>
       <c r="F2095" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2096" spans="1:6" x14ac:dyDescent="0.2">
@@ -60928,13 +60928,13 @@
         <v>62</v>
       </c>
       <c r="D2099" s="9">
-        <v>1663.52</v>
+        <v>1913.05</v>
       </c>
       <c r="E2099" s="2" t="s">
         <v>4399</v>
       </c>
       <c r="F2099" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2100" spans="1:6" x14ac:dyDescent="0.2">
@@ -60948,13 +60948,13 @@
         <v>62</v>
       </c>
       <c r="D2100" s="9">
-        <v>1750.56</v>
+        <v>2013.14</v>
       </c>
       <c r="E2100" s="2" t="s">
         <v>4399</v>
       </c>
       <c r="F2100" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2101" spans="1:6" x14ac:dyDescent="0.2">
@@ -60968,13 +60968,13 @@
         <v>62</v>
       </c>
       <c r="D2101" s="9">
-        <v>1877.83</v>
+        <v>2159.5</v>
       </c>
       <c r="E2101" s="2" t="s">
         <v>4399</v>
       </c>
       <c r="F2101" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2102" spans="1:6" x14ac:dyDescent="0.2">
@@ -60988,13 +60988,13 @@
         <v>62</v>
       </c>
       <c r="D2102" s="9">
-        <v>1523.93</v>
+        <v>1752.52</v>
       </c>
       <c r="E2102" s="2" t="s">
         <v>4399</v>
       </c>
       <c r="F2102" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2103" spans="1:6" x14ac:dyDescent="0.2">
@@ -61008,13 +61008,13 @@
         <v>62</v>
       </c>
       <c r="D2103" s="9">
-        <v>1516.38</v>
+        <v>1743.84</v>
       </c>
       <c r="E2103" s="2" t="s">
         <v>4399</v>
       </c>
       <c r="F2103" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2104" spans="1:6" x14ac:dyDescent="0.2">
@@ -61028,13 +61028,13 @@
         <v>62</v>
       </c>
       <c r="D2104" s="9">
-        <v>1046.96</v>
+        <v>1204</v>
       </c>
       <c r="E2104" s="2" t="s">
         <v>4399</v>
       </c>
       <c r="F2104" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2105" spans="1:6" x14ac:dyDescent="0.2">
@@ -61048,13 +61048,13 @@
         <v>62</v>
       </c>
       <c r="D2105" s="9">
-        <v>1215.28</v>
+        <v>1397.57</v>
       </c>
       <c r="E2105" s="2" t="s">
         <v>4399</v>
       </c>
       <c r="F2105" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2106" spans="1:6" x14ac:dyDescent="0.2">
@@ -61068,13 +61068,13 @@
         <v>62</v>
       </c>
       <c r="D2106" s="9">
-        <v>1417.75</v>
+        <v>1630.41</v>
       </c>
       <c r="E2106" s="2" t="s">
         <v>4399</v>
       </c>
       <c r="F2106" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2107" spans="1:6" x14ac:dyDescent="0.2">
@@ -61088,13 +61088,13 @@
         <v>8</v>
       </c>
       <c r="D2107" s="9">
-        <v>1605.32</v>
+        <v>1846.12</v>
       </c>
       <c r="E2107" s="2" t="s">
         <v>4399</v>
       </c>
       <c r="F2107" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2108" spans="1:6" x14ac:dyDescent="0.2">
@@ -61108,13 +61108,13 @@
         <v>8</v>
       </c>
       <c r="D2108" s="9">
-        <v>1518.44</v>
+        <v>1746.21</v>
       </c>
       <c r="E2108" s="2" t="s">
         <v>4399</v>
       </c>
       <c r="F2108" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2109" spans="1:6" x14ac:dyDescent="0.2">
@@ -61128,13 +61128,13 @@
         <v>8</v>
       </c>
       <c r="D2109" s="9">
-        <v>1530.14</v>
+        <v>1759.66</v>
       </c>
       <c r="E2109" s="2" t="s">
         <v>4399</v>
       </c>
       <c r="F2109" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2110" spans="1:6" x14ac:dyDescent="0.2">
@@ -61148,13 +61148,13 @@
         <v>8</v>
       </c>
       <c r="D2110" s="9">
-        <v>1244.53</v>
+        <v>1431.21</v>
       </c>
       <c r="E2110" s="2" t="s">
         <v>4399</v>
       </c>
       <c r="F2110" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2111" spans="1:6" x14ac:dyDescent="0.2">
@@ -61168,13 +61168,13 @@
         <v>8</v>
       </c>
       <c r="D2111" s="9">
-        <v>1262.78</v>
+        <v>1452.2</v>
       </c>
       <c r="E2111" s="2" t="s">
         <v>4399</v>
       </c>
       <c r="F2111" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2112" spans="1:6" x14ac:dyDescent="0.2">
@@ -61188,13 +61188,13 @@
         <v>8</v>
       </c>
       <c r="D2112" s="9">
-        <v>1436.29</v>
+        <v>1651.73</v>
       </c>
       <c r="E2112" s="2" t="s">
         <v>4399</v>
       </c>
       <c r="F2112" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2113" spans="1:6" x14ac:dyDescent="0.2">
@@ -61208,13 +61208,13 @@
         <v>8</v>
       </c>
       <c r="D2113" s="9">
-        <v>1034.4100000000001</v>
+        <v>1189.57</v>
       </c>
       <c r="E2113" s="2" t="s">
         <v>4399</v>
       </c>
       <c r="F2113" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2114" spans="1:6" x14ac:dyDescent="0.2">
@@ -61228,13 +61228,13 @@
         <v>8</v>
       </c>
       <c r="D2114" s="9">
-        <v>1093.8800000000001</v>
+        <v>1257.96</v>
       </c>
       <c r="E2114" s="2" t="s">
         <v>4399</v>
       </c>
       <c r="F2114" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2115" spans="1:6" x14ac:dyDescent="0.2">
@@ -61248,13 +61248,13 @@
         <v>62</v>
       </c>
       <c r="D2115" s="9">
-        <v>1468.18</v>
+        <v>1688.41</v>
       </c>
       <c r="E2115" s="2" t="s">
         <v>4399</v>
       </c>
       <c r="F2115" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2116" spans="1:6" x14ac:dyDescent="0.2">
@@ -61268,13 +61268,13 @@
         <v>62</v>
       </c>
       <c r="D2116" s="9">
-        <v>2963.39</v>
+        <v>3407.9</v>
       </c>
       <c r="E2116" s="2" t="s">
         <v>4434</v>
       </c>
       <c r="F2116" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2117" spans="1:6" x14ac:dyDescent="0.2">
@@ -61288,13 +61288,13 @@
         <v>62</v>
       </c>
       <c r="D2117" s="9">
-        <v>1762.2</v>
+        <v>2026.53</v>
       </c>
       <c r="E2117" s="2" t="s">
         <v>4434</v>
       </c>
       <c r="F2117" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2118" spans="1:6" x14ac:dyDescent="0.2">
@@ -61308,13 +61308,13 @@
         <v>62</v>
       </c>
       <c r="D2118" s="9">
-        <v>1765.54</v>
+        <v>2030.37</v>
       </c>
       <c r="E2118" s="2" t="s">
         <v>4434</v>
       </c>
       <c r="F2118" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2119" spans="1:6" x14ac:dyDescent="0.2">
@@ -61328,13 +61328,13 @@
         <v>62</v>
       </c>
       <c r="D2119" s="9">
-        <v>1762.2</v>
+        <v>2026.53</v>
       </c>
       <c r="E2119" s="2" t="s">
         <v>4434</v>
       </c>
       <c r="F2119" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2120" spans="1:6" x14ac:dyDescent="0.2">
@@ -61348,13 +61348,13 @@
         <v>62</v>
       </c>
       <c r="D2120" s="9">
-        <v>1321.62</v>
+        <v>1519.86</v>
       </c>
       <c r="E2120" s="2" t="s">
         <v>4434</v>
       </c>
       <c r="F2120" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2121" spans="1:6" x14ac:dyDescent="0.2">
@@ -61368,13 +61368,13 @@
         <v>62</v>
       </c>
       <c r="D2121" s="9">
-        <v>1321.62</v>
+        <v>1519.86</v>
       </c>
       <c r="E2121" s="2" t="s">
         <v>4434</v>
       </c>
       <c r="F2121" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2122" spans="1:6" x14ac:dyDescent="0.2">
@@ -61388,13 +61388,13 @@
         <v>62</v>
       </c>
       <c r="D2122" s="9">
-        <v>1237.8599999999999</v>
+        <v>1423.54</v>
       </c>
       <c r="E2122" s="2" t="s">
         <v>4434</v>
       </c>
       <c r="F2122" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2123" spans="1:6" x14ac:dyDescent="0.2">
@@ -61408,13 +61408,13 @@
         <v>8</v>
       </c>
       <c r="D2123" s="9">
-        <v>1477.94</v>
+        <v>1699.63</v>
       </c>
       <c r="E2123" s="2" t="s">
         <v>4434</v>
       </c>
       <c r="F2123" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2124" spans="1:6" x14ac:dyDescent="0.2">
@@ -61428,13 +61428,13 @@
         <v>8</v>
       </c>
       <c r="D2124" s="9">
-        <v>1288.3900000000001</v>
+        <v>1481.65</v>
       </c>
       <c r="E2124" s="2" t="s">
         <v>4434</v>
       </c>
       <c r="F2124" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2125" spans="1:6" x14ac:dyDescent="0.2">
@@ -61448,13 +61448,13 @@
         <v>8</v>
       </c>
       <c r="D2125" s="9">
-        <v>1343.05</v>
+        <v>1544.51</v>
       </c>
       <c r="E2125" s="2" t="s">
         <v>4434</v>
       </c>
       <c r="F2125" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2126" spans="1:6" x14ac:dyDescent="0.2">
@@ -61468,13 +61468,13 @@
         <v>8</v>
       </c>
       <c r="D2126" s="9">
-        <v>1202.76</v>
+        <v>1383.17</v>
       </c>
       <c r="E2126" s="2" t="s">
         <v>4434</v>
       </c>
       <c r="F2126" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2127" spans="1:6" x14ac:dyDescent="0.2">
@@ -61488,13 +61488,13 @@
         <v>8</v>
       </c>
       <c r="D2127" s="9">
-        <v>1158.72</v>
+        <v>1332.53</v>
       </c>
       <c r="E2127" s="2" t="s">
         <v>4434</v>
       </c>
       <c r="F2127" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2128" spans="1:6" x14ac:dyDescent="0.2">
@@ -61508,13 +61508,13 @@
         <v>8</v>
       </c>
       <c r="D2128" s="9">
-        <v>867.04</v>
+        <v>997.1</v>
       </c>
       <c r="E2128" s="2" t="s">
         <v>4434</v>
       </c>
       <c r="F2128" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2129" spans="1:6" x14ac:dyDescent="0.2">
@@ -67368,13 +67368,13 @@
         <v>62</v>
       </c>
       <c r="D2421" s="9">
-        <v>385.34</v>
+        <v>443.14</v>
       </c>
       <c r="E2421" s="2" t="s">
         <v>5053</v>
       </c>
       <c r="F2421" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2422" spans="1:6" x14ac:dyDescent="0.2">
@@ -67388,13 +67388,13 @@
         <v>62</v>
       </c>
       <c r="D2422" s="9">
-        <v>385.34</v>
+        <v>443.14</v>
       </c>
       <c r="E2422" s="2" t="s">
         <v>5053</v>
       </c>
       <c r="F2422" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2423" spans="1:6" x14ac:dyDescent="0.2">
@@ -69068,13 +69068,13 @@
         <v>62</v>
       </c>
       <c r="D2506" s="9">
-        <v>18943.68</v>
+        <v>21785.23</v>
       </c>
       <c r="E2506" s="2" t="s">
         <v>5235</v>
       </c>
       <c r="F2506" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2507" spans="1:6" x14ac:dyDescent="0.2">
@@ -69248,13 +69248,13 @@
         <v>62</v>
       </c>
       <c r="D2515" s="9">
-        <v>551.35</v>
+        <v>634.04999999999995</v>
       </c>
       <c r="E2515" s="2" t="s">
         <v>5276</v>
       </c>
       <c r="F2515" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2516" spans="1:6" x14ac:dyDescent="0.2">
@@ -69268,13 +69268,13 @@
         <v>8</v>
       </c>
       <c r="D2516" s="9">
-        <v>817.88</v>
+        <v>940.56</v>
       </c>
       <c r="E2516" s="2" t="s">
         <v>5276</v>
       </c>
       <c r="F2516" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2517" spans="1:6" x14ac:dyDescent="0.2">
@@ -69288,13 +69288,13 @@
         <v>8</v>
       </c>
       <c r="D2517" s="9">
-        <v>1033.31</v>
+        <v>1188.31</v>
       </c>
       <c r="E2517" s="2" t="s">
         <v>5276</v>
       </c>
       <c r="F2517" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2518" spans="1:6" x14ac:dyDescent="0.2">
@@ -69308,13 +69308,13 @@
         <v>62</v>
       </c>
       <c r="D2518" s="9">
-        <v>1311.32</v>
+        <v>1508.02</v>
       </c>
       <c r="E2518" s="2" t="s">
         <v>5276</v>
       </c>
       <c r="F2518" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2519" spans="1:6" x14ac:dyDescent="0.2">
@@ -71068,13 +71068,13 @@
         <v>62</v>
       </c>
       <c r="D2606" s="9">
-        <v>378.62</v>
+        <v>435.41</v>
       </c>
       <c r="E2606" s="2" t="s">
         <v>5467</v>
       </c>
       <c r="F2606" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2607" spans="1:6" x14ac:dyDescent="0.2">
@@ -71088,13 +71088,13 @@
         <v>8</v>
       </c>
       <c r="D2607" s="9">
-        <v>510.18</v>
+        <v>586.71</v>
       </c>
       <c r="E2607" s="2" t="s">
         <v>5467</v>
       </c>
       <c r="F2607" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2608" spans="1:6" x14ac:dyDescent="0.2">
@@ -71108,13 +71108,13 @@
         <v>8</v>
       </c>
       <c r="D2608" s="9">
-        <v>803.71</v>
+        <v>924.27</v>
       </c>
       <c r="E2608" s="2" t="s">
         <v>5467</v>
       </c>
       <c r="F2608" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2609" spans="1:6" x14ac:dyDescent="0.2">
@@ -71128,13 +71128,13 @@
         <v>62</v>
       </c>
       <c r="D2609" s="9">
-        <v>1287.71</v>
+        <v>1480.87</v>
       </c>
       <c r="E2609" s="2" t="s">
         <v>5467</v>
       </c>
       <c r="F2609" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2610" spans="1:6" x14ac:dyDescent="0.2">
@@ -71468,13 +71468,13 @@
         <v>832</v>
       </c>
       <c r="D2626" s="9">
-        <v>4951.04</v>
+        <v>5693.7</v>
       </c>
       <c r="E2626" s="2" t="s">
         <v>5516</v>
       </c>
       <c r="F2626" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2627" spans="1:6" x14ac:dyDescent="0.2">
@@ -71568,13 +71568,13 @@
         <v>62</v>
       </c>
       <c r="D2631" s="9">
-        <v>2099.1</v>
+        <v>2413.9699999999998</v>
       </c>
       <c r="E2631" s="2" t="s">
         <v>5528</v>
       </c>
       <c r="F2631" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2632" spans="1:6" x14ac:dyDescent="0.2">
@@ -71588,13 +71588,13 @@
         <v>62</v>
       </c>
       <c r="D2632" s="9">
-        <v>2275.58</v>
+        <v>2616.92</v>
       </c>
       <c r="E2632" s="2" t="s">
         <v>5528</v>
       </c>
       <c r="F2632" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2633" spans="1:6" x14ac:dyDescent="0.2">
@@ -71608,13 +71608,13 @@
         <v>62</v>
       </c>
       <c r="D2633" s="9">
-        <v>3150.32</v>
+        <v>3622.87</v>
       </c>
       <c r="E2633" s="2" t="s">
         <v>5528</v>
       </c>
       <c r="F2633" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2634" spans="1:6" x14ac:dyDescent="0.2">
@@ -71708,13 +71708,13 @@
         <v>62</v>
       </c>
       <c r="D2638" s="9">
-        <v>5345.23</v>
+        <v>6147.01</v>
       </c>
       <c r="E2638" s="2" t="s">
         <v>5544</v>
       </c>
       <c r="F2638" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2639" spans="1:6" x14ac:dyDescent="0.2">
@@ -71728,13 +71728,13 @@
         <v>62</v>
       </c>
       <c r="D2639" s="9">
-        <v>4859.3</v>
+        <v>5588.2</v>
       </c>
       <c r="E2639" s="2" t="s">
         <v>5544</v>
       </c>
       <c r="F2639" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2640" spans="1:6" x14ac:dyDescent="0.2">
@@ -71748,13 +71748,13 @@
         <v>62</v>
       </c>
       <c r="D2640" s="9">
-        <v>3971.08</v>
+        <v>4566.74</v>
       </c>
       <c r="E2640" s="2" t="s">
         <v>5544</v>
       </c>
       <c r="F2640" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2641" spans="1:6" x14ac:dyDescent="0.2">
@@ -71768,13 +71768,13 @@
         <v>62</v>
       </c>
       <c r="D2641" s="9">
-        <v>3971.08</v>
+        <v>4566.74</v>
       </c>
       <c r="E2641" s="2" t="s">
         <v>5544</v>
       </c>
       <c r="F2641" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2642" spans="1:6" x14ac:dyDescent="0.2">
@@ -72268,13 +72268,13 @@
         <v>62</v>
       </c>
       <c r="D2666" s="9">
-        <v>917.04</v>
+        <v>1054.5999999999999</v>
       </c>
       <c r="E2666" s="2" t="s">
         <v>5604</v>
       </c>
       <c r="F2666" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2667" spans="1:6" x14ac:dyDescent="0.2">
@@ -72288,13 +72288,13 @@
         <v>8</v>
       </c>
       <c r="D2667" s="9">
-        <v>1010.82</v>
+        <v>1162.44</v>
       </c>
       <c r="E2667" s="2" t="s">
         <v>5604</v>
       </c>
       <c r="F2667" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2668" spans="1:6" x14ac:dyDescent="0.2">
@@ -72308,13 +72308,13 @@
         <v>8</v>
       </c>
       <c r="D2668" s="9">
-        <v>1471.76</v>
+        <v>1692.52</v>
       </c>
       <c r="E2668" s="2" t="s">
         <v>5604</v>
       </c>
       <c r="F2668" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2669" spans="1:6" x14ac:dyDescent="0.2">
@@ -72328,13 +72328,13 @@
         <v>8</v>
       </c>
       <c r="D2669" s="9">
-        <v>2044.04</v>
+        <v>2350.65</v>
       </c>
       <c r="E2669" s="2" t="s">
         <v>5604</v>
       </c>
       <c r="F2669" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2670" spans="1:6" x14ac:dyDescent="0.2">
@@ -72368,13 +72368,13 @@
         <v>62</v>
       </c>
       <c r="D2671" s="9">
-        <v>878.52</v>
+        <v>1010.3</v>
       </c>
       <c r="E2671" s="2" t="s">
         <v>5615</v>
       </c>
       <c r="F2671" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2672" spans="1:6" x14ac:dyDescent="0.2">
@@ -72388,13 +72388,13 @@
         <v>8</v>
       </c>
       <c r="D2672" s="9">
-        <v>1092.0999999999999</v>
+        <v>1255.92</v>
       </c>
       <c r="E2672" s="2" t="s">
         <v>5615</v>
       </c>
       <c r="F2672" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2673" spans="1:6" x14ac:dyDescent="0.2">
@@ -72408,13 +72408,13 @@
         <v>8</v>
       </c>
       <c r="D2673" s="9">
-        <v>1324</v>
+        <v>1522.6</v>
       </c>
       <c r="E2673" s="2" t="s">
         <v>5615</v>
       </c>
       <c r="F2673" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2674" spans="1:6" x14ac:dyDescent="0.2">
@@ -72428,13 +72428,13 @@
         <v>8</v>
       </c>
       <c r="D2674" s="9">
-        <v>1812.29</v>
+        <v>2084.13</v>
       </c>
       <c r="E2674" s="2" t="s">
         <v>5615</v>
       </c>
       <c r="F2674" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2675" spans="1:6" x14ac:dyDescent="0.2">
@@ -72468,13 +72468,13 @@
         <v>62</v>
       </c>
       <c r="D2676" s="9">
-        <v>3884.92</v>
+        <v>4467.66</v>
       </c>
       <c r="E2676" s="2" t="s">
         <v>5626</v>
       </c>
       <c r="F2676" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2677" spans="1:6" x14ac:dyDescent="0.2">
@@ -72488,13 +72488,13 @@
         <v>62</v>
       </c>
       <c r="D2677" s="9">
-        <v>3597.17</v>
+        <v>4136.75</v>
       </c>
       <c r="E2677" s="2" t="s">
         <v>5626</v>
       </c>
       <c r="F2677" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2678" spans="1:6" x14ac:dyDescent="0.2">
@@ -72508,13 +72508,13 @@
         <v>62</v>
       </c>
       <c r="D2678" s="9">
-        <v>3597.17</v>
+        <v>4136.75</v>
       </c>
       <c r="E2678" s="2" t="s">
         <v>5626</v>
       </c>
       <c r="F2678" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2679" spans="1:6" x14ac:dyDescent="0.2">
@@ -72548,13 +72548,13 @@
         <v>62</v>
       </c>
       <c r="D2680" s="9">
-        <v>3884.92</v>
+        <v>4467.66</v>
       </c>
       <c r="E2680" s="2" t="s">
         <v>5635</v>
       </c>
       <c r="F2680" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2681" spans="1:6" x14ac:dyDescent="0.2">
@@ -72568,13 +72568,13 @@
         <v>62</v>
       </c>
       <c r="D2681" s="9">
-        <v>3597.17</v>
+        <v>4136.75</v>
       </c>
       <c r="E2681" s="2" t="s">
         <v>5635</v>
       </c>
       <c r="F2681" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2682" spans="1:6" x14ac:dyDescent="0.2">
@@ -72588,13 +72588,13 @@
         <v>62</v>
       </c>
       <c r="D2682" s="9">
-        <v>3597.17</v>
+        <v>4136.75</v>
       </c>
       <c r="E2682" s="2" t="s">
         <v>5635</v>
       </c>
       <c r="F2682" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2683" spans="1:6" x14ac:dyDescent="0.2">
@@ -72628,13 +72628,13 @@
         <v>62</v>
       </c>
       <c r="D2684" s="9">
-        <v>261.18</v>
+        <v>300.36</v>
       </c>
       <c r="E2684" s="2" t="s">
         <v>5644</v>
       </c>
       <c r="F2684" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2685" spans="1:6" x14ac:dyDescent="0.2">
@@ -73008,13 +73008,13 @@
         <v>923</v>
       </c>
       <c r="D2703" s="9">
-        <v>44.84</v>
+        <v>79.16</v>
       </c>
       <c r="E2703" s="2" t="s">
         <v>5665</v>
       </c>
       <c r="F2703" s="3">
-        <v>45348</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2704" spans="1:6" x14ac:dyDescent="0.2">
@@ -74048,13 +74048,13 @@
         <v>62</v>
       </c>
       <c r="D2755" s="9">
-        <v>656.68</v>
+        <v>755.18</v>
       </c>
       <c r="E2755" s="2" t="s">
         <v>5799</v>
       </c>
       <c r="F2755" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2756" spans="1:6" x14ac:dyDescent="0.2">
@@ -74088,13 +74088,13 @@
         <v>62</v>
       </c>
       <c r="D2757" s="9">
-        <v>659.54</v>
+        <v>758.47</v>
       </c>
       <c r="E2757" s="2" t="s">
         <v>5799</v>
       </c>
       <c r="F2757" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2758" spans="1:6" x14ac:dyDescent="0.2">
@@ -74128,13 +74128,13 @@
         <v>62</v>
       </c>
       <c r="D2759" s="9">
-        <v>917.18</v>
+        <v>1054.76</v>
       </c>
       <c r="E2759" s="2" t="s">
         <v>5799</v>
       </c>
       <c r="F2759" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2760" spans="1:6" x14ac:dyDescent="0.2">
@@ -74148,13 +74148,13 @@
         <v>8</v>
       </c>
       <c r="D2760" s="9">
-        <v>1174.6300000000001</v>
+        <v>1350.82</v>
       </c>
       <c r="E2760" s="2" t="s">
         <v>5799</v>
       </c>
       <c r="F2760" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2761" spans="1:6" x14ac:dyDescent="0.2">
@@ -74168,13 +74168,13 @@
         <v>8</v>
       </c>
       <c r="D2761" s="9">
-        <v>218.34</v>
+        <v>251.09</v>
       </c>
       <c r="E2761" s="2" t="s">
         <v>5812</v>
       </c>
       <c r="F2761" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2762" spans="1:6" x14ac:dyDescent="0.2">
@@ -74188,13 +74188,13 @@
         <v>8</v>
       </c>
       <c r="D2762" s="9">
-        <v>251.09</v>
+        <v>288.75</v>
       </c>
       <c r="E2762" s="2" t="s">
         <v>5812</v>
       </c>
       <c r="F2762" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2763" spans="1:6" x14ac:dyDescent="0.2">
@@ -74208,13 +74208,13 @@
         <v>8</v>
       </c>
       <c r="D2763" s="9">
-        <v>217.63</v>
+        <v>250.27</v>
       </c>
       <c r="E2763" s="2" t="s">
         <v>5812</v>
       </c>
       <c r="F2763" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2764" spans="1:6" x14ac:dyDescent="0.2">
@@ -74228,13 +74228,13 @@
         <v>8</v>
       </c>
       <c r="D2764" s="9">
-        <v>350.72</v>
+        <v>403.33</v>
       </c>
       <c r="E2764" s="2" t="s">
         <v>5812</v>
       </c>
       <c r="F2764" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2765" spans="1:6" x14ac:dyDescent="0.2">
@@ -74268,13 +74268,13 @@
         <v>8</v>
       </c>
       <c r="D2766" s="9">
-        <v>469.36</v>
+        <v>539.76</v>
       </c>
       <c r="E2766" s="2" t="s">
         <v>5812</v>
       </c>
       <c r="F2766" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2767" spans="1:6" x14ac:dyDescent="0.2">
@@ -74288,13 +74288,13 @@
         <v>8</v>
       </c>
       <c r="D2767" s="9">
-        <v>502.27</v>
+        <v>577.61</v>
       </c>
       <c r="E2767" s="2" t="s">
         <v>5812</v>
       </c>
       <c r="F2767" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2768" spans="1:6" x14ac:dyDescent="0.2">
@@ -74308,13 +74308,13 @@
         <v>8</v>
       </c>
       <c r="D2768" s="9">
-        <v>461.7</v>
+        <v>530.96</v>
       </c>
       <c r="E2768" s="2" t="s">
         <v>5812</v>
       </c>
       <c r="F2768" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2769" spans="1:6" x14ac:dyDescent="0.2">
@@ -74328,13 +74328,13 @@
         <v>8</v>
       </c>
       <c r="D2769" s="9">
-        <v>229.02</v>
+        <v>263.37</v>
       </c>
       <c r="E2769" s="2" t="s">
         <v>5812</v>
       </c>
       <c r="F2769" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2770" spans="1:6" x14ac:dyDescent="0.2">
@@ -74408,13 +74408,13 @@
         <v>8</v>
       </c>
       <c r="D2773" s="9">
-        <v>930.08</v>
+        <v>1069.5899999999999</v>
       </c>
       <c r="E2773" s="2" t="s">
         <v>5831</v>
       </c>
       <c r="F2773" s="3">
-        <v>45377</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2774" spans="1:6" x14ac:dyDescent="0.2">
@@ -74428,13 +74428,13 @@
         <v>8</v>
       </c>
       <c r="D2774" s="9">
-        <v>1097.82</v>
+        <v>1262.49</v>
       </c>
       <c r="E2774" s="2" t="s">
         <v>5831</v>
       </c>
       <c r="F2774" s="3">
-        <v>45377</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2775" spans="1:6" x14ac:dyDescent="0.2">
@@ -74448,13 +74448,13 @@
         <v>8</v>
       </c>
       <c r="D2775" s="9">
-        <v>747.44</v>
+        <v>859.56</v>
       </c>
       <c r="E2775" s="2" t="s">
         <v>5831</v>
       </c>
       <c r="F2775" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2776" spans="1:6" x14ac:dyDescent="0.2">
@@ -74468,13 +74468,13 @@
         <v>8</v>
       </c>
       <c r="D2776" s="9">
-        <v>555.78</v>
+        <v>639.15</v>
       </c>
       <c r="E2776" s="2" t="s">
         <v>5831</v>
       </c>
       <c r="F2776" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2777" spans="1:6" x14ac:dyDescent="0.2">
@@ -74488,13 +74488,13 @@
         <v>8</v>
       </c>
       <c r="D2777" s="9">
-        <v>770.46</v>
+        <v>886.03</v>
       </c>
       <c r="E2777" s="2" t="s">
         <v>5831</v>
       </c>
       <c r="F2777" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2778" spans="1:6" x14ac:dyDescent="0.2">
@@ -74508,13 +74508,13 @@
         <v>8</v>
       </c>
       <c r="D2778" s="9">
-        <v>413.53</v>
+        <v>475.56</v>
       </c>
       <c r="E2778" s="2" t="s">
         <v>5831</v>
       </c>
       <c r="F2778" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2779" spans="1:6" x14ac:dyDescent="0.2">
@@ -74528,13 +74528,13 @@
         <v>8</v>
       </c>
       <c r="D2779" s="9">
-        <v>586.1</v>
+        <v>674.02</v>
       </c>
       <c r="E2779" s="2" t="s">
         <v>5831</v>
       </c>
       <c r="F2779" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2780" spans="1:6" x14ac:dyDescent="0.2">
@@ -74548,13 +74548,13 @@
         <v>8</v>
       </c>
       <c r="D2780" s="9">
-        <v>1940.27</v>
+        <v>2231.31</v>
       </c>
       <c r="E2780" s="2" t="s">
         <v>5852</v>
       </c>
       <c r="F2780" s="3">
-        <v>45377</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2781" spans="1:6" x14ac:dyDescent="0.2">
@@ -74568,13 +74568,13 @@
         <v>8</v>
       </c>
       <c r="D2781" s="9">
-        <v>2038.7</v>
+        <v>2344.5100000000002</v>
       </c>
       <c r="E2781" s="2" t="s">
         <v>5852</v>
       </c>
       <c r="F2781" s="3">
-        <v>45377</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2782" spans="1:6" x14ac:dyDescent="0.2">
@@ -74588,13 +74588,13 @@
         <v>8</v>
       </c>
       <c r="D2782" s="9">
-        <v>2601.1999999999998</v>
+        <v>2991.38</v>
       </c>
       <c r="E2782" s="2" t="s">
         <v>5852</v>
       </c>
       <c r="F2782" s="3">
-        <v>45377</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2783" spans="1:6" x14ac:dyDescent="0.2">
@@ -74628,13 +74628,13 @@
         <v>62</v>
       </c>
       <c r="D2784" s="9">
-        <v>212.92</v>
+        <v>244.86</v>
       </c>
       <c r="E2784" s="2" t="s">
         <v>5861</v>
       </c>
       <c r="F2784" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2785" spans="1:6" x14ac:dyDescent="0.2">
@@ -74648,13 +74648,13 @@
         <v>8</v>
       </c>
       <c r="D2785" s="9">
-        <v>303.92</v>
+        <v>349.51</v>
       </c>
       <c r="E2785" s="2" t="s">
         <v>5861</v>
       </c>
       <c r="F2785" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2786" spans="1:6" x14ac:dyDescent="0.2">
@@ -74668,13 +74668,13 @@
         <v>8</v>
       </c>
       <c r="D2786" s="9">
-        <v>345.83</v>
+        <v>397.7</v>
       </c>
       <c r="E2786" s="2" t="s">
         <v>5861</v>
       </c>
       <c r="F2786" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2787" spans="1:6" x14ac:dyDescent="0.2">
@@ -74848,13 +74848,13 @@
         <v>62</v>
       </c>
       <c r="D2795" s="9">
-        <v>2387.04</v>
+        <v>2745.1</v>
       </c>
       <c r="E2795" s="2" t="s">
         <v>5886</v>
       </c>
       <c r="F2795" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2796" spans="1:6" x14ac:dyDescent="0.2">
@@ -74868,13 +74868,13 @@
         <v>8</v>
       </c>
       <c r="D2796" s="9">
-        <v>2273.36</v>
+        <v>2614.36</v>
       </c>
       <c r="E2796" s="2" t="s">
         <v>5886</v>
       </c>
       <c r="F2796" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2797" spans="1:6" x14ac:dyDescent="0.2">
@@ -74888,13 +74888,13 @@
         <v>8</v>
       </c>
       <c r="D2797" s="9">
-        <v>4255.26</v>
+        <v>4893.55</v>
       </c>
       <c r="E2797" s="2" t="s">
         <v>5886</v>
       </c>
       <c r="F2797" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2798" spans="1:6" x14ac:dyDescent="0.2">
@@ -74908,13 +74908,13 @@
         <v>8</v>
       </c>
       <c r="D2798" s="9">
-        <v>4255.26</v>
+        <v>4893.55</v>
       </c>
       <c r="E2798" s="2" t="s">
         <v>5886</v>
       </c>
       <c r="F2798" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2799" spans="1:6" x14ac:dyDescent="0.2">
@@ -74948,13 +74948,13 @@
         <v>8</v>
       </c>
       <c r="D2800" s="9">
-        <v>1657.09</v>
+        <v>1905.65</v>
       </c>
       <c r="E2800" s="2" t="s">
         <v>5895</v>
       </c>
       <c r="F2800" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2801" spans="1:6" x14ac:dyDescent="0.2">
@@ -74988,13 +74988,13 @@
         <v>8</v>
       </c>
       <c r="D2802" s="9">
-        <v>1920.23</v>
+        <v>2208.2600000000002</v>
       </c>
       <c r="E2802" s="2" t="s">
         <v>5902</v>
       </c>
       <c r="F2802" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2803" spans="1:6" x14ac:dyDescent="0.2">
@@ -75008,13 +75008,13 @@
         <v>8</v>
       </c>
       <c r="D2803" s="9">
-        <v>3163.42</v>
+        <v>3637.93</v>
       </c>
       <c r="E2803" s="2" t="s">
         <v>5902</v>
       </c>
       <c r="F2803" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2804" spans="1:6" x14ac:dyDescent="0.2">
@@ -75108,13 +75108,13 @@
         <v>62</v>
       </c>
       <c r="D2808" s="9">
-        <v>2196.4699999999998</v>
+        <v>2525.94</v>
       </c>
       <c r="E2808" s="2" t="s">
         <v>5916</v>
       </c>
       <c r="F2808" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2809" spans="1:6" x14ac:dyDescent="0.2">
@@ -75148,13 +75148,13 @@
         <v>62</v>
       </c>
       <c r="D2810" s="9">
-        <v>2193.42</v>
+        <v>2522.4299999999998</v>
       </c>
       <c r="E2810" s="2" t="s">
         <v>5916</v>
       </c>
       <c r="F2810" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2811" spans="1:6" x14ac:dyDescent="0.2">
@@ -75168,13 +75168,13 @@
         <v>8</v>
       </c>
       <c r="D2811" s="9">
-        <v>3357.47</v>
+        <v>3861.09</v>
       </c>
       <c r="E2811" s="2" t="s">
         <v>5916</v>
       </c>
       <c r="F2811" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2812" spans="1:6" x14ac:dyDescent="0.2">
@@ -75188,13 +75188,13 @@
         <v>62</v>
       </c>
       <c r="D2812" s="9">
-        <v>3126.37</v>
+        <v>3595.33</v>
       </c>
       <c r="E2812" s="2" t="s">
         <v>5916</v>
       </c>
       <c r="F2812" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2813" spans="1:6" x14ac:dyDescent="0.2">
@@ -75208,13 +75208,13 @@
         <v>62</v>
       </c>
       <c r="D2813" s="9">
-        <v>2367.48</v>
+        <v>2722.6</v>
       </c>
       <c r="E2813" s="2" t="s">
         <v>5916</v>
       </c>
       <c r="F2813" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2814" spans="1:6" x14ac:dyDescent="0.2">
@@ -75228,13 +75228,13 @@
         <v>62</v>
       </c>
       <c r="D2814" s="9">
-        <v>4632.41</v>
+        <v>5327.27</v>
       </c>
       <c r="E2814" s="2" t="s">
         <v>5916</v>
       </c>
       <c r="F2814" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2815" spans="1:6" x14ac:dyDescent="0.2">
@@ -75248,13 +75248,13 @@
         <v>62</v>
       </c>
       <c r="D2815" s="9">
-        <v>5144.3500000000004</v>
+        <v>5916</v>
       </c>
       <c r="E2815" s="2" t="s">
         <v>5916</v>
       </c>
       <c r="F2815" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2816" spans="1:6" x14ac:dyDescent="0.2">
@@ -75428,13 +75428,13 @@
         <v>62</v>
       </c>
       <c r="D2824" s="9">
-        <v>23839.62</v>
+        <v>27415.56</v>
       </c>
       <c r="E2824" s="2" t="s">
         <v>5950</v>
       </c>
       <c r="F2824" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2825" spans="1:6" x14ac:dyDescent="0.2">
@@ -75448,13 +75448,13 @@
         <v>62</v>
       </c>
       <c r="D2825" s="9">
-        <v>23839.62</v>
+        <v>27415.56</v>
       </c>
       <c r="E2825" s="2" t="s">
         <v>5950</v>
       </c>
       <c r="F2825" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2826" spans="1:6" x14ac:dyDescent="0.2">
@@ -75468,13 +75468,13 @@
         <v>62</v>
       </c>
       <c r="D2826" s="9">
-        <v>23839.62</v>
+        <v>27415.56</v>
       </c>
       <c r="E2826" s="2" t="s">
         <v>5950</v>
       </c>
       <c r="F2826" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2827" spans="1:6" x14ac:dyDescent="0.2">
@@ -75488,13 +75488,13 @@
         <v>62</v>
       </c>
       <c r="D2827" s="9">
-        <v>23839.62</v>
+        <v>27415.56</v>
       </c>
       <c r="E2827" s="2" t="s">
         <v>5950</v>
       </c>
       <c r="F2827" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2828" spans="1:6" x14ac:dyDescent="0.2">
@@ -75526,13 +75526,13 @@
       </c>
       <c r="C2829" s="2"/>
       <c r="D2829" s="9">
-        <v>23839.62</v>
+        <v>27415.56</v>
       </c>
       <c r="E2829" s="2" t="s">
         <v>5950</v>
       </c>
       <c r="F2829" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2830" spans="1:6" x14ac:dyDescent="0.2">
@@ -75546,13 +75546,13 @@
         <v>832</v>
       </c>
       <c r="D2830" s="9">
-        <v>7214</v>
+        <v>7920</v>
       </c>
       <c r="E2830" s="2" t="s">
         <v>5963</v>
       </c>
       <c r="F2830" s="3">
-        <v>45386</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2831" spans="1:6" x14ac:dyDescent="0.2">
@@ -76766,13 +76766,13 @@
         <v>62</v>
       </c>
       <c r="D2891" s="9">
-        <v>7911.59</v>
+        <v>9098.33</v>
       </c>
       <c r="E2891" s="2" t="s">
         <v>6095</v>
       </c>
       <c r="F2891" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2892" spans="1:6" x14ac:dyDescent="0.2">
@@ -76786,13 +76786,13 @@
         <v>62</v>
       </c>
       <c r="D2892" s="9">
-        <v>8518.3700000000008</v>
+        <v>9796.1299999999992</v>
       </c>
       <c r="E2892" s="2" t="s">
         <v>6095</v>
       </c>
       <c r="F2892" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2893" spans="1:6" x14ac:dyDescent="0.2">
@@ -76806,13 +76806,13 @@
         <v>62</v>
       </c>
       <c r="D2893" s="9">
-        <v>3406.67</v>
+        <v>3917.67</v>
       </c>
       <c r="E2893" s="2" t="s">
         <v>6095</v>
       </c>
       <c r="F2893" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2894" spans="1:6" x14ac:dyDescent="0.2">
@@ -77086,13 +77086,13 @@
         <v>8</v>
       </c>
       <c r="D2907" s="9">
-        <v>7476.13</v>
+        <v>8597.5499999999993</v>
       </c>
       <c r="E2907" s="2" t="s">
         <v>6132</v>
       </c>
       <c r="F2907" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2908" spans="1:6" x14ac:dyDescent="0.2">
@@ -77106,13 +77106,13 @@
         <v>8</v>
       </c>
       <c r="D2908" s="9">
-        <v>4104.3</v>
+        <v>4719.95</v>
       </c>
       <c r="E2908" s="2" t="s">
         <v>6132</v>
       </c>
       <c r="F2908" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2909" spans="1:6" x14ac:dyDescent="0.2">
@@ -77126,13 +77126,13 @@
         <v>8</v>
       </c>
       <c r="D2909" s="9">
-        <v>4761.1899999999996</v>
+        <v>5475.37</v>
       </c>
       <c r="E2909" s="2" t="s">
         <v>6132</v>
       </c>
       <c r="F2909" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2910" spans="1:6" x14ac:dyDescent="0.2">
@@ -77146,13 +77146,13 @@
         <v>8</v>
       </c>
       <c r="D2910" s="9">
-        <v>4761.1899999999996</v>
+        <v>5475.37</v>
       </c>
       <c r="E2910" s="2" t="s">
         <v>6132</v>
       </c>
       <c r="F2910" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2911" spans="1:6" x14ac:dyDescent="0.2">
@@ -77166,13 +77166,13 @@
         <v>8</v>
       </c>
       <c r="D2911" s="9">
-        <v>4761.1899999999996</v>
+        <v>5475.37</v>
       </c>
       <c r="E2911" s="2" t="s">
         <v>6132</v>
       </c>
       <c r="F2911" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2912" spans="1:6" x14ac:dyDescent="0.2">
@@ -77186,13 +77186,13 @@
         <v>2285</v>
       </c>
       <c r="D2912" s="9">
-        <v>7850.89</v>
+        <v>9028.52</v>
       </c>
       <c r="E2912" s="2" t="s">
         <v>6132</v>
       </c>
       <c r="F2912" s="3">
-        <v>45273</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2913" spans="1:6" x14ac:dyDescent="0.2">
@@ -77206,13 +77206,13 @@
         <v>8</v>
       </c>
       <c r="D2913" s="9">
-        <v>6052.68</v>
+        <v>6960.58</v>
       </c>
       <c r="E2913" s="2" t="s">
         <v>6132</v>
       </c>
       <c r="F2913" s="3">
-        <v>45309</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="2914" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel-files/fg.xlsx
+++ b/excel-files/fg.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="lista_de_precios" sheetId="1" r:id="rId1"/>
@@ -19006,7 +19006,7 @@
   <dimension ref="A2:F2930"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32370,13 +32370,13 @@
         <v>8</v>
       </c>
       <c r="D671" s="9">
-        <v>2583.04</v>
+        <v>2718.98</v>
       </c>
       <c r="E671" s="2" t="s">
         <v>1371</v>
       </c>
       <c r="F671" s="3">
-        <v>45436</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.2">
@@ -53868,13 +53868,13 @@
         <v>923</v>
       </c>
       <c r="D1746" s="9">
-        <v>2376</v>
+        <v>2114</v>
       </c>
       <c r="E1746" s="2" t="s">
         <v>3652</v>
       </c>
       <c r="F1746" s="3">
-        <v>45278</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="1747" spans="1:6" x14ac:dyDescent="0.2">
@@ -53888,13 +53888,13 @@
         <v>923</v>
       </c>
       <c r="D1747" s="9">
-        <v>2592</v>
+        <v>2316</v>
       </c>
       <c r="E1747" s="2" t="s">
         <v>3652</v>
       </c>
       <c r="F1747" s="3">
-        <v>45278</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="1748" spans="1:6" x14ac:dyDescent="0.2">
@@ -53908,13 +53908,13 @@
         <v>923</v>
       </c>
       <c r="D1748" s="9">
-        <v>2837.44</v>
+        <v>2464</v>
       </c>
       <c r="E1748" s="2" t="s">
         <v>3652</v>
       </c>
       <c r="F1748" s="3">
-        <v>45273</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="1749" spans="1:6" x14ac:dyDescent="0.2">
@@ -53928,13 +53928,13 @@
         <v>923</v>
       </c>
       <c r="D1749" s="9">
-        <v>3177.94</v>
+        <v>2540</v>
       </c>
       <c r="E1749" s="2" t="s">
         <v>3652</v>
       </c>
       <c r="F1749" s="3">
-        <v>45273</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="1750" spans="1:6" x14ac:dyDescent="0.2">
@@ -53948,13 +53948,13 @@
         <v>923</v>
       </c>
       <c r="D1750" s="9">
-        <v>3561.82</v>
+        <v>3052</v>
       </c>
       <c r="E1750" s="2" t="s">
         <v>3652</v>
       </c>
       <c r="F1750" s="3">
-        <v>45273</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="1751" spans="1:6" x14ac:dyDescent="0.2">
@@ -53968,13 +53968,13 @@
         <v>923</v>
       </c>
       <c r="D1751" s="9">
-        <v>3989.11</v>
+        <v>3484</v>
       </c>
       <c r="E1751" s="2" t="s">
         <v>3652</v>
       </c>
       <c r="F1751" s="3">
-        <v>45273</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="1752" spans="1:6" x14ac:dyDescent="0.2">
@@ -53988,13 +53988,13 @@
         <v>2221</v>
       </c>
       <c r="D1752" s="9">
-        <v>1472</v>
+        <v>1386</v>
       </c>
       <c r="E1752" s="2" t="s">
         <v>3665</v>
       </c>
       <c r="F1752" s="3">
-        <v>45390</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="1753" spans="1:6" x14ac:dyDescent="0.2">
@@ -54008,13 +54008,13 @@
         <v>2221</v>
       </c>
       <c r="D1753" s="9">
-        <v>1870</v>
+        <v>1666</v>
       </c>
       <c r="E1753" s="2" t="s">
         <v>3665</v>
       </c>
       <c r="F1753" s="3">
-        <v>45390</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="1754" spans="1:6" x14ac:dyDescent="0.2">
@@ -54028,13 +54028,13 @@
         <v>2221</v>
       </c>
       <c r="D1754" s="9">
-        <v>2346</v>
+        <v>2060</v>
       </c>
       <c r="E1754" s="2" t="s">
         <v>3665</v>
       </c>
       <c r="F1754" s="3">
-        <v>45390</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="1755" spans="1:6" x14ac:dyDescent="0.2">
@@ -63848,13 +63848,13 @@
         <v>62</v>
       </c>
       <c r="D2245" s="9">
-        <v>1372.18</v>
+        <v>1646.62</v>
       </c>
       <c r="E2245" s="2" t="s">
         <v>4682</v>
       </c>
       <c r="F2245" s="3">
-        <v>45436</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="2246" spans="1:6" x14ac:dyDescent="0.2">
@@ -77486,13 +77486,13 @@
         <v>2251</v>
       </c>
       <c r="D2927" s="9">
-        <v>1652.73</v>
+        <v>1951.76</v>
       </c>
       <c r="E2927" s="2" t="s">
         <v>6147</v>
       </c>
       <c r="F2927" s="3">
-        <v>45349</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="2928" spans="1:6" x14ac:dyDescent="0.2">
@@ -77546,13 +77546,13 @@
         <v>923</v>
       </c>
       <c r="D2930" s="10">
-        <v>1665.43</v>
+        <v>1952.74</v>
       </c>
       <c r="E2930" s="4" t="s">
         <v>6147</v>
       </c>
       <c r="F2930" s="5">
-        <v>45349</v>
+        <v>45461</v>
       </c>
     </row>
   </sheetData>

--- a/excel-files/fg.xlsx
+++ b/excel-files/fg.xlsx
@@ -28906,13 +28906,13 @@
         <v>921</v>
       </c>
       <c r="D501" s="9">
-        <v>101.79</v>
+        <v>139.12</v>
       </c>
       <c r="E501" s="2" t="s">
         <v>1018</v>
       </c>
       <c r="F501" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.2">
@@ -28926,13 +28926,13 @@
         <v>921</v>
       </c>
       <c r="D502" s="9">
-        <v>128.58000000000001</v>
+        <v>139.12</v>
       </c>
       <c r="E502" s="2" t="s">
         <v>1018</v>
       </c>
       <c r="F502" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.2">
@@ -28946,13 +28946,13 @@
         <v>921</v>
       </c>
       <c r="D503" s="9">
-        <v>177.42</v>
+        <v>150.12</v>
       </c>
       <c r="E503" s="2" t="s">
         <v>1018</v>
       </c>
       <c r="F503" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.2">
@@ -28966,13 +28966,13 @@
         <v>921</v>
       </c>
       <c r="D504" s="9">
-        <v>220.2</v>
+        <v>172.08</v>
       </c>
       <c r="E504" s="2" t="s">
         <v>1018</v>
       </c>
       <c r="F504" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.2">
@@ -28986,13 +28986,13 @@
         <v>921</v>
       </c>
       <c r="D505" s="9">
-        <v>275.2</v>
+        <v>228.2</v>
       </c>
       <c r="E505" s="2" t="s">
         <v>1018</v>
       </c>
       <c r="F505" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.2">
@@ -29006,13 +29006,13 @@
         <v>921</v>
       </c>
       <c r="D506" s="9">
-        <v>287.55</v>
+        <v>250.16</v>
       </c>
       <c r="E506" s="2" t="s">
         <v>1018</v>
       </c>
       <c r="F506" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.2">
@@ -29026,13 +29026,13 @@
         <v>968</v>
       </c>
       <c r="D507" s="9">
-        <v>4075.97</v>
+        <v>3784</v>
       </c>
       <c r="E507" s="2" t="s">
         <v>1031</v>
       </c>
       <c r="F507" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.2">
@@ -29046,13 +29046,13 @@
         <v>968</v>
       </c>
       <c r="D508" s="9">
-        <v>5422.86</v>
+        <v>4150</v>
       </c>
       <c r="E508" s="2" t="s">
         <v>1031</v>
       </c>
       <c r="F508" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.2">
@@ -29166,13 +29166,13 @@
         <v>968</v>
       </c>
       <c r="D514" s="9">
-        <v>2365.86</v>
+        <v>1954</v>
       </c>
       <c r="E514" s="2" t="s">
         <v>1031</v>
       </c>
       <c r="F514" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.2">
@@ -29186,13 +29186,13 @@
         <v>968</v>
       </c>
       <c r="D515" s="9">
-        <v>4075.97</v>
+        <v>3784</v>
       </c>
       <c r="E515" s="2" t="s">
         <v>1031</v>
       </c>
       <c r="F515" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.2">
@@ -29206,13 +29206,13 @@
         <v>8</v>
       </c>
       <c r="D516" s="9">
-        <v>500.24</v>
+        <v>414.9</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>1050</v>
       </c>
       <c r="F516" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.2">
@@ -29306,13 +29306,13 @@
         <v>921</v>
       </c>
       <c r="D521" s="9">
-        <v>163.93</v>
+        <v>119.6</v>
       </c>
       <c r="E521" s="2" t="s">
         <v>1050</v>
       </c>
       <c r="F521" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.2">
@@ -29366,13 +29366,13 @@
         <v>968</v>
       </c>
       <c r="D524" s="9">
-        <v>3154.43</v>
+        <v>2442</v>
       </c>
       <c r="E524" s="2" t="s">
         <v>1063</v>
       </c>
       <c r="F524" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.2">
@@ -29386,13 +29386,13 @@
         <v>968</v>
       </c>
       <c r="D525" s="9">
-        <v>1807.64</v>
+        <v>1832</v>
       </c>
       <c r="E525" s="2" t="s">
         <v>1063</v>
       </c>
       <c r="F525" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.2">
@@ -29406,13 +29406,13 @@
         <v>968</v>
       </c>
       <c r="D526" s="9">
-        <v>2684.86</v>
+        <v>2198</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>1063</v>
       </c>
       <c r="F526" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.2">
@@ -29506,13 +29506,13 @@
         <v>968</v>
       </c>
       <c r="D531" s="9">
-        <v>1841.4</v>
+        <v>1344</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>1083</v>
       </c>
       <c r="F531" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.2">
@@ -29526,13 +29526,13 @@
         <v>968</v>
       </c>
       <c r="D532" s="9">
-        <v>1841.4</v>
+        <v>1466</v>
       </c>
       <c r="E532" s="2" t="s">
         <v>1083</v>
       </c>
       <c r="F532" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.2">
@@ -29546,13 +29546,13 @@
         <v>968</v>
       </c>
       <c r="D533" s="9">
-        <v>1763.37</v>
+        <v>1832</v>
       </c>
       <c r="E533" s="2" t="s">
         <v>1083</v>
       </c>
       <c r="F533" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.2">
@@ -29566,13 +29566,13 @@
         <v>968</v>
       </c>
       <c r="D534" s="9">
-        <v>2823.02</v>
+        <v>2808</v>
       </c>
       <c r="E534" s="2" t="s">
         <v>1083</v>
       </c>
       <c r="F534" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.2">
@@ -29586,13 +29586,13 @@
         <v>968</v>
       </c>
       <c r="D535" s="9">
-        <v>3611.97</v>
+        <v>3070.18</v>
       </c>
       <c r="E535" s="2" t="s">
         <v>1083</v>
       </c>
       <c r="F535" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.2">
@@ -29606,13 +29606,13 @@
         <v>968</v>
       </c>
       <c r="D536" s="9">
-        <v>4260.67</v>
+        <v>3621.57</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>1083</v>
       </c>
       <c r="F536" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.2">
@@ -29646,13 +29646,13 @@
         <v>968</v>
       </c>
       <c r="D538" s="9">
-        <v>3405.25</v>
+        <v>2076</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>1083</v>
       </c>
       <c r="F538" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.2">
@@ -29666,13 +29666,13 @@
         <v>8</v>
       </c>
       <c r="D539" s="9">
-        <v>940.2</v>
+        <v>841.98</v>
       </c>
       <c r="E539" s="2" t="s">
         <v>1100</v>
       </c>
       <c r="F539" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.2">
@@ -29726,13 +29726,13 @@
         <v>8</v>
       </c>
       <c r="D542" s="9">
-        <v>1474.83</v>
+        <v>1189.74</v>
       </c>
       <c r="E542" s="2" t="s">
         <v>1100</v>
       </c>
       <c r="F542" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.2">
@@ -29766,13 +29766,13 @@
         <v>62</v>
       </c>
       <c r="D544" s="9">
-        <v>4091.48</v>
+        <v>2684.5</v>
       </c>
       <c r="E544" s="2" t="s">
         <v>1100</v>
       </c>
       <c r="F544" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.2">
@@ -29786,13 +29786,13 @@
         <v>62</v>
       </c>
       <c r="D545" s="9">
-        <v>5193.8500000000004</v>
+        <v>3416.62</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>1100</v>
       </c>
       <c r="F545" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.2">
@@ -31006,13 +31006,13 @@
         <v>8</v>
       </c>
       <c r="D606" s="9">
-        <v>883.55</v>
+        <v>722.18</v>
       </c>
       <c r="E606" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F606" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.2">
@@ -31026,13 +31026,13 @@
         <v>62</v>
       </c>
       <c r="D607" s="9">
-        <v>928.88</v>
+        <v>765.52</v>
       </c>
       <c r="E607" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="F607" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.2">
@@ -31406,13 +31406,13 @@
         <v>8</v>
       </c>
       <c r="D626" s="9">
-        <v>2132.2600000000002</v>
+        <v>2288</v>
       </c>
       <c r="E626" s="2" t="s">
         <v>1284</v>
       </c>
       <c r="F626" s="3">
-        <v>45273</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.2">
@@ -31426,13 +31426,13 @@
         <v>32</v>
       </c>
       <c r="D627" s="9">
-        <v>2665.33</v>
+        <v>2860</v>
       </c>
       <c r="E627" s="2" t="s">
         <v>1284</v>
       </c>
       <c r="F627" s="3">
-        <v>45273</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.2">
@@ -32364,13 +32364,13 @@
         <v>62</v>
       </c>
       <c r="D674" s="9">
-        <v>2304</v>
+        <v>2496</v>
       </c>
       <c r="E674" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F674" s="3">
-        <v>45432</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.2">
@@ -32424,13 +32424,13 @@
         <v>62</v>
       </c>
       <c r="D677" s="9">
-        <v>3456</v>
+        <v>3744</v>
       </c>
       <c r="E677" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F677" s="3">
-        <v>45432</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.2">
@@ -32904,13 +32904,13 @@
         <v>921</v>
       </c>
       <c r="D701" s="9">
-        <v>1063.81</v>
+        <v>1170.19</v>
       </c>
       <c r="E701" s="2" t="s">
         <v>1444</v>
       </c>
       <c r="F701" s="3">
-        <v>45471</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.2">
@@ -32924,13 +32924,13 @@
         <v>8</v>
       </c>
       <c r="D702" s="9">
-        <v>1365.43</v>
+        <v>1501.97</v>
       </c>
       <c r="E702" s="2" t="s">
         <v>1444</v>
       </c>
       <c r="F702" s="3">
-        <v>45471</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.2">
@@ -32944,13 +32944,13 @@
         <v>8</v>
       </c>
       <c r="D703" s="9">
-        <v>1127.06</v>
+        <v>1239.77</v>
       </c>
       <c r="E703" s="2" t="s">
         <v>1444</v>
       </c>
       <c r="F703" s="3">
-        <v>45471</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.2">
@@ -32964,13 +32964,13 @@
         <v>8</v>
       </c>
       <c r="D704" s="9">
-        <v>1103.52</v>
+        <v>1213.8699999999999</v>
       </c>
       <c r="E704" s="2" t="s">
         <v>1444</v>
       </c>
       <c r="F704" s="3">
-        <v>45471</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.2">
@@ -32984,13 +32984,13 @@
         <v>8</v>
       </c>
       <c r="D705" s="9">
-        <v>1181.51</v>
+        <v>1299.6600000000001</v>
       </c>
       <c r="E705" s="2" t="s">
         <v>1444</v>
       </c>
       <c r="F705" s="3">
-        <v>45471</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.2">
@@ -33004,13 +33004,13 @@
         <v>8</v>
       </c>
       <c r="D706" s="9">
-        <v>1447.82</v>
+        <v>1592.6</v>
       </c>
       <c r="E706" s="2" t="s">
         <v>1444</v>
       </c>
       <c r="F706" s="3">
-        <v>45471</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.2">
@@ -33024,13 +33024,13 @@
         <v>830</v>
       </c>
       <c r="D707" s="9">
-        <v>2983.93</v>
+        <v>3282.32</v>
       </c>
       <c r="E707" s="2" t="s">
         <v>1444</v>
       </c>
       <c r="F707" s="3">
-        <v>45471</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.2">
@@ -33044,13 +33044,13 @@
         <v>830</v>
       </c>
       <c r="D708" s="9">
-        <v>3540.11</v>
+        <v>3894.12</v>
       </c>
       <c r="E708" s="2" t="s">
         <v>1444</v>
       </c>
       <c r="F708" s="3">
-        <v>45471</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.2">
@@ -33064,13 +33064,13 @@
         <v>830</v>
       </c>
       <c r="D709" s="9">
-        <v>3735.8</v>
+        <v>4109.38</v>
       </c>
       <c r="E709" s="2" t="s">
         <v>1444</v>
       </c>
       <c r="F709" s="3">
-        <v>45471</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.2">
@@ -33084,13 +33084,13 @@
         <v>62</v>
       </c>
       <c r="D710" s="9">
-        <v>13618.92</v>
+        <v>14980.81</v>
       </c>
       <c r="E710" s="2" t="s">
         <v>1444</v>
       </c>
       <c r="F710" s="3">
-        <v>45471</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.2">
@@ -33104,13 +33104,13 @@
         <v>62</v>
       </c>
       <c r="D711" s="9">
-        <v>20257.689999999999</v>
+        <v>22283.46</v>
       </c>
       <c r="E711" s="2" t="s">
         <v>1444</v>
       </c>
       <c r="F711" s="3">
-        <v>45471</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.2">
@@ -33124,13 +33124,13 @@
         <v>62</v>
       </c>
       <c r="D712" s="9">
-        <v>22836.99</v>
+        <v>25120.69</v>
       </c>
       <c r="E712" s="2" t="s">
         <v>1444</v>
       </c>
       <c r="F712" s="3">
-        <v>45471</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.2">
@@ -39362,13 +39362,13 @@
         <v>8</v>
       </c>
       <c r="D1024" s="9">
-        <v>6160</v>
+        <v>9020</v>
       </c>
       <c r="E1024" s="2" t="s">
         <v>2101</v>
       </c>
       <c r="F1024" s="3">
-        <v>45279</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1025" spans="1:6" x14ac:dyDescent="0.2">
@@ -42482,13 +42482,13 @@
         <v>8</v>
       </c>
       <c r="D1180" s="9">
-        <v>1148.74</v>
+        <v>909.08</v>
       </c>
       <c r="E1180" s="2" t="s">
         <v>2445</v>
       </c>
       <c r="F1180" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1181" spans="1:6" x14ac:dyDescent="0.2">
@@ -42502,13 +42502,13 @@
         <v>8</v>
       </c>
       <c r="D1181" s="9">
-        <v>1128.93</v>
+        <v>915.18</v>
       </c>
       <c r="E1181" s="2" t="s">
         <v>2445</v>
       </c>
       <c r="F1181" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1182" spans="1:6" x14ac:dyDescent="0.2">
@@ -42522,13 +42522,13 @@
         <v>8</v>
       </c>
       <c r="D1182" s="9">
-        <v>1101.6199999999999</v>
+        <v>957.9</v>
       </c>
       <c r="E1182" s="2" t="s">
         <v>2445</v>
       </c>
       <c r="F1182" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1183" spans="1:6" x14ac:dyDescent="0.2">
@@ -42542,13 +42542,13 @@
         <v>8</v>
       </c>
       <c r="D1183" s="9">
-        <v>965.05</v>
+        <v>804.14</v>
       </c>
       <c r="E1183" s="2" t="s">
         <v>2445</v>
       </c>
       <c r="F1183" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1184" spans="1:6" x14ac:dyDescent="0.2">
@@ -42602,13 +42602,13 @@
         <v>32</v>
       </c>
       <c r="D1186" s="9">
-        <v>2850.56</v>
+        <v>1830.34</v>
       </c>
       <c r="E1186" s="2" t="s">
         <v>2445</v>
       </c>
       <c r="F1186" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1187" spans="1:6" x14ac:dyDescent="0.2">
@@ -42662,13 +42662,13 @@
         <v>62</v>
       </c>
       <c r="D1189" s="9">
-        <v>1215.43</v>
+        <v>964</v>
       </c>
       <c r="E1189" s="2" t="s">
         <v>2445</v>
       </c>
       <c r="F1189" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1190" spans="1:6" x14ac:dyDescent="0.2">
@@ -42682,13 +42682,13 @@
         <v>62</v>
       </c>
       <c r="D1190" s="9">
-        <v>974.12</v>
+        <v>841.98</v>
       </c>
       <c r="E1190" s="2" t="s">
         <v>2445</v>
       </c>
       <c r="F1190" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1191" spans="1:6" x14ac:dyDescent="0.2">
@@ -42722,13 +42722,13 @@
         <v>8</v>
       </c>
       <c r="D1192" s="9">
-        <v>840.95</v>
+        <v>719.96</v>
       </c>
       <c r="E1192" s="2" t="s">
         <v>2445</v>
       </c>
       <c r="F1192" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1193" spans="1:6" x14ac:dyDescent="0.2">
@@ -42742,13 +42742,13 @@
         <v>8</v>
       </c>
       <c r="D1193" s="9">
-        <v>901.34</v>
+        <v>732.14</v>
       </c>
       <c r="E1193" s="2" t="s">
         <v>2445</v>
       </c>
       <c r="F1193" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1194" spans="1:6" x14ac:dyDescent="0.2">
@@ -42762,13 +42762,13 @@
         <v>8</v>
       </c>
       <c r="D1194" s="9">
-        <v>1301.8399999999999</v>
+        <v>1006.7</v>
       </c>
       <c r="E1194" s="2" t="s">
         <v>2445</v>
       </c>
       <c r="F1194" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1195" spans="1:6" x14ac:dyDescent="0.2">
@@ -42782,13 +42782,13 @@
         <v>62</v>
       </c>
       <c r="D1195" s="9">
-        <v>3633.74</v>
+        <v>2684.5</v>
       </c>
       <c r="E1195" s="2" t="s">
         <v>2445</v>
       </c>
       <c r="F1195" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1196" spans="1:6" x14ac:dyDescent="0.2">
@@ -42962,13 +42962,13 @@
         <v>8</v>
       </c>
       <c r="D1204" s="9">
-        <v>899.39</v>
+        <v>846.86</v>
       </c>
       <c r="E1204" s="2" t="s">
         <v>2501</v>
       </c>
       <c r="F1204" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1205" spans="1:6" x14ac:dyDescent="0.2">
@@ -42982,13 +42982,13 @@
         <v>8</v>
       </c>
       <c r="D1205" s="9">
-        <v>899.39</v>
+        <v>846.86</v>
       </c>
       <c r="E1205" s="2" t="s">
         <v>2501</v>
       </c>
       <c r="F1205" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1206" spans="1:6" x14ac:dyDescent="0.2">
@@ -43002,13 +43002,13 @@
         <v>8</v>
       </c>
       <c r="D1206" s="9">
-        <v>899.39</v>
+        <v>846.86</v>
       </c>
       <c r="E1206" s="2" t="s">
         <v>2501</v>
       </c>
       <c r="F1206" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1207" spans="1:6" x14ac:dyDescent="0.2">
@@ -43022,13 +43022,13 @@
         <v>8</v>
       </c>
       <c r="D1207" s="9">
-        <v>1588.62</v>
+        <v>954.22</v>
       </c>
       <c r="E1207" s="2" t="s">
         <v>2501</v>
       </c>
       <c r="F1207" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1208" spans="1:6" x14ac:dyDescent="0.2">
@@ -43042,13 +43042,13 @@
         <v>8</v>
       </c>
       <c r="D1208" s="9">
-        <v>2419.8200000000002</v>
+        <v>1891.36</v>
       </c>
       <c r="E1208" s="2" t="s">
         <v>2501</v>
       </c>
       <c r="F1208" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1209" spans="1:6" x14ac:dyDescent="0.2">
@@ -44142,13 +44142,13 @@
         <v>921</v>
       </c>
       <c r="D1263" s="9">
-        <v>380.84</v>
+        <v>307.5</v>
       </c>
       <c r="E1263" s="2" t="s">
         <v>2620</v>
       </c>
       <c r="F1263" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1264" spans="1:6" x14ac:dyDescent="0.2">
@@ -44342,13 +44342,13 @@
         <v>62</v>
       </c>
       <c r="D1273" s="9">
-        <v>7104</v>
+        <v>7696</v>
       </c>
       <c r="E1273" s="2" t="s">
         <v>2649</v>
       </c>
       <c r="F1273" s="3">
-        <v>45432</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="1274" spans="1:6" x14ac:dyDescent="0.2">
@@ -48142,13 +48142,13 @@
         <v>8</v>
       </c>
       <c r="D1463" s="9">
-        <v>1370.13</v>
+        <v>1098.2</v>
       </c>
       <c r="E1463" s="2" t="s">
         <v>3049</v>
       </c>
       <c r="F1463" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1464" spans="1:6" x14ac:dyDescent="0.2">
@@ -48162,13 +48162,13 @@
         <v>8</v>
       </c>
       <c r="D1464" s="9">
-        <v>1584.12</v>
+        <v>1281.24</v>
       </c>
       <c r="E1464" s="2" t="s">
         <v>3049</v>
       </c>
       <c r="F1464" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1465" spans="1:6" x14ac:dyDescent="0.2">
@@ -48182,13 +48182,13 @@
         <v>8</v>
       </c>
       <c r="D1465" s="9">
-        <v>1807.16</v>
+        <v>1464.28</v>
       </c>
       <c r="E1465" s="2" t="s">
         <v>3049</v>
       </c>
       <c r="F1465" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1466" spans="1:6" x14ac:dyDescent="0.2">
@@ -48202,13 +48202,13 @@
         <v>8</v>
       </c>
       <c r="D1466" s="9">
-        <v>2043.78</v>
+        <v>1647.32</v>
       </c>
       <c r="E1466" s="2" t="s">
         <v>3049</v>
       </c>
       <c r="F1466" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1467" spans="1:6" x14ac:dyDescent="0.2">
@@ -49242,13 +49242,13 @@
         <v>62</v>
       </c>
       <c r="D1518" s="9">
-        <v>17479.77</v>
+        <v>19227.75</v>
       </c>
       <c r="E1518" s="2" t="s">
         <v>3163</v>
       </c>
       <c r="F1518" s="3">
-        <v>45471</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="1519" spans="1:6" x14ac:dyDescent="0.2">
@@ -49262,13 +49262,13 @@
         <v>62</v>
       </c>
       <c r="D1519" s="9">
-        <v>21403.89</v>
+        <v>23544.28</v>
       </c>
       <c r="E1519" s="2" t="s">
         <v>3163</v>
       </c>
       <c r="F1519" s="3">
-        <v>45471</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="1520" spans="1:6" x14ac:dyDescent="0.2">
@@ -49282,13 +49282,13 @@
         <v>62</v>
       </c>
       <c r="D1520" s="9">
-        <v>29599.35</v>
+        <v>32559.29</v>
       </c>
       <c r="E1520" s="2" t="s">
         <v>3163</v>
       </c>
       <c r="F1520" s="3">
-        <v>45471</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="1521" spans="1:6" x14ac:dyDescent="0.2">
@@ -49302,13 +49302,13 @@
         <v>62</v>
       </c>
       <c r="D1521" s="9">
-        <v>8642.7900000000009</v>
+        <v>9507.07</v>
       </c>
       <c r="E1521" s="2" t="s">
         <v>3163</v>
       </c>
       <c r="F1521" s="3">
-        <v>45471</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="1522" spans="1:6" x14ac:dyDescent="0.2">
@@ -49442,13 +49442,13 @@
         <v>62</v>
       </c>
       <c r="D1528" s="9">
-        <v>3815.24</v>
+        <v>4196.76</v>
       </c>
       <c r="E1528" s="2" t="s">
         <v>3163</v>
       </c>
       <c r="F1528" s="3">
-        <v>45471</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="1529" spans="1:6" x14ac:dyDescent="0.2">
@@ -49662,13 +49662,13 @@
         <v>968</v>
       </c>
       <c r="D1539" s="9">
-        <v>4258.43</v>
+        <v>2320</v>
       </c>
       <c r="E1539" s="2" t="s">
         <v>3211</v>
       </c>
       <c r="F1539" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1540" spans="1:6" x14ac:dyDescent="0.2">
@@ -52602,13 +52602,13 @@
         <v>8</v>
       </c>
       <c r="D1686" s="9">
-        <v>2206.96</v>
+        <v>2515.38</v>
       </c>
       <c r="E1686" s="2" t="s">
         <v>3527</v>
       </c>
       <c r="F1686" s="3">
-        <v>45436</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="1687" spans="1:6" x14ac:dyDescent="0.2">
@@ -52682,13 +52682,13 @@
         <v>8</v>
       </c>
       <c r="D1690" s="9">
-        <v>3145.46</v>
+        <v>4110.3999999999996</v>
       </c>
       <c r="E1690" s="2" t="s">
         <v>3527</v>
       </c>
       <c r="F1690" s="3">
-        <v>45324</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="1691" spans="1:6" x14ac:dyDescent="0.2">
@@ -53642,13 +53642,13 @@
         <v>62</v>
       </c>
       <c r="D1738" s="9">
-        <v>7440</v>
+        <v>8060</v>
       </c>
       <c r="E1738" s="2" t="s">
         <v>3625</v>
       </c>
       <c r="F1738" s="3">
-        <v>45432</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="1739" spans="1:6" x14ac:dyDescent="0.2">
@@ -54102,13 +54102,13 @@
         <v>8</v>
       </c>
       <c r="D1761" s="9">
-        <v>1767</v>
+        <v>1418</v>
       </c>
       <c r="E1761" s="2" t="s">
         <v>3687</v>
       </c>
       <c r="F1761" s="3">
-        <v>45471</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="1762" spans="1:6" x14ac:dyDescent="0.2">
@@ -57122,13 +57122,13 @@
         <v>8</v>
       </c>
       <c r="D1912" s="9">
-        <v>1782.1</v>
+        <v>1336.14</v>
       </c>
       <c r="E1912" s="2" t="s">
         <v>3982</v>
       </c>
       <c r="F1912" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1913" spans="1:6" x14ac:dyDescent="0.2">
@@ -57262,13 +57262,13 @@
         <v>8</v>
       </c>
       <c r="D1919" s="9">
-        <v>1638.77</v>
+        <v>1445.98</v>
       </c>
       <c r="E1919" s="2" t="s">
         <v>3982</v>
       </c>
       <c r="F1919" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1920" spans="1:6" x14ac:dyDescent="0.2">
@@ -57722,13 +57722,13 @@
         <v>921</v>
       </c>
       <c r="D1942" s="9">
-        <v>645.16999999999996</v>
+        <v>1106.2</v>
       </c>
       <c r="E1942" s="2" t="s">
         <v>4061</v>
       </c>
       <c r="F1942" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1943" spans="1:6" x14ac:dyDescent="0.2">
@@ -58522,13 +58522,13 @@
         <v>968</v>
       </c>
       <c r="D1982" s="9">
-        <v>3646.24</v>
+        <v>3052</v>
       </c>
       <c r="E1982" s="2" t="s">
         <v>4148</v>
       </c>
       <c r="F1982" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1983" spans="1:6" x14ac:dyDescent="0.2">
@@ -58542,13 +58542,13 @@
         <v>968</v>
       </c>
       <c r="D1983" s="9">
-        <v>2808.88</v>
+        <v>2320</v>
       </c>
       <c r="E1983" s="2" t="s">
         <v>4148</v>
       </c>
       <c r="F1983" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1984" spans="1:6" x14ac:dyDescent="0.2">
@@ -58562,13 +58562,13 @@
         <v>968</v>
       </c>
       <c r="D1984" s="9">
-        <v>1870.02</v>
+        <v>2564</v>
       </c>
       <c r="E1984" s="2" t="s">
         <v>4148</v>
       </c>
       <c r="F1984" s="3">
-        <v>45278</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1985" spans="1:6" x14ac:dyDescent="0.2">
@@ -58602,13 +58602,13 @@
         <v>968</v>
       </c>
       <c r="D1986" s="9">
-        <v>2431.56</v>
+        <v>2564</v>
       </c>
       <c r="E1986" s="2" t="s">
         <v>4148</v>
       </c>
       <c r="F1986" s="3">
-        <v>45278</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="1987" spans="1:6" x14ac:dyDescent="0.2">
@@ -60342,13 +60342,13 @@
         <v>62</v>
       </c>
       <c r="D2073" s="9">
-        <v>14770.16</v>
+        <v>17384.46</v>
       </c>
       <c r="E2073" s="2" t="s">
         <v>4342</v>
       </c>
       <c r="F2073" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2074" spans="1:6" x14ac:dyDescent="0.2">
@@ -60362,13 +60362,13 @@
         <v>62</v>
       </c>
       <c r="D2074" s="9">
-        <v>15123.54</v>
+        <v>17800.400000000001</v>
       </c>
       <c r="E2074" s="2" t="s">
         <v>4342</v>
       </c>
       <c r="F2074" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2075" spans="1:6" x14ac:dyDescent="0.2">
@@ -60382,13 +60382,13 @@
         <v>62</v>
       </c>
       <c r="D2075" s="9">
-        <v>15315.12</v>
+        <v>18025.919999999998</v>
       </c>
       <c r="E2075" s="2" t="s">
         <v>4342</v>
       </c>
       <c r="F2075" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2076" spans="1:6" x14ac:dyDescent="0.2">
@@ -60402,13 +60402,13 @@
         <v>62</v>
       </c>
       <c r="D2076" s="9">
-        <v>9733.92</v>
+        <v>11456.82</v>
       </c>
       <c r="E2076" s="2" t="s">
         <v>4349</v>
       </c>
       <c r="F2076" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2077" spans="1:6" x14ac:dyDescent="0.2">
@@ -60422,13 +60422,13 @@
         <v>62</v>
       </c>
       <c r="D2077" s="9">
-        <v>4712.2</v>
+        <v>5546.26</v>
       </c>
       <c r="E2077" s="2" t="s">
         <v>4349</v>
       </c>
       <c r="F2077" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2078" spans="1:6" x14ac:dyDescent="0.2">
@@ -60442,13 +60442,13 @@
         <v>62</v>
       </c>
       <c r="D2078" s="9">
-        <v>11604.04</v>
+        <v>13657.94</v>
       </c>
       <c r="E2078" s="2" t="s">
         <v>4349</v>
       </c>
       <c r="F2078" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2079" spans="1:6" x14ac:dyDescent="0.2">
@@ -60462,13 +60462,13 @@
         <v>62</v>
       </c>
       <c r="D2079" s="9">
-        <v>5168.68</v>
+        <v>6083.52</v>
       </c>
       <c r="E2079" s="2" t="s">
         <v>4349</v>
       </c>
       <c r="F2079" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2080" spans="1:6" x14ac:dyDescent="0.2">
@@ -60482,13 +60482,13 @@
         <v>62</v>
       </c>
       <c r="D2080" s="9">
-        <v>17082.16</v>
+        <v>20105.7</v>
       </c>
       <c r="E2080" s="2" t="s">
         <v>4349</v>
       </c>
       <c r="F2080" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2081" spans="1:6" x14ac:dyDescent="0.2">
@@ -60502,13 +60502,13 @@
         <v>62</v>
       </c>
       <c r="D2081" s="9">
-        <v>18083.5</v>
+        <v>21284.28</v>
       </c>
       <c r="E2081" s="2" t="s">
         <v>4349</v>
       </c>
       <c r="F2081" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2082" spans="1:6" x14ac:dyDescent="0.2">
@@ -60522,13 +60522,13 @@
         <v>62</v>
       </c>
       <c r="D2082" s="9">
-        <v>6523.6</v>
+        <v>7678.26</v>
       </c>
       <c r="E2082" s="2" t="s">
         <v>4349</v>
       </c>
       <c r="F2082" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2083" spans="1:6" x14ac:dyDescent="0.2">
@@ -60542,13 +60542,13 @@
         <v>62</v>
       </c>
       <c r="D2083" s="9">
-        <v>20086.38</v>
+        <v>23641.68</v>
       </c>
       <c r="E2083" s="2" t="s">
         <v>4349</v>
       </c>
       <c r="F2083" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2084" spans="1:6" x14ac:dyDescent="0.2">
@@ -60562,13 +60562,13 @@
         <v>62</v>
       </c>
       <c r="D2084" s="9">
-        <v>6818.22</v>
+        <v>8025.04</v>
       </c>
       <c r="E2084" s="2" t="s">
         <v>4349</v>
       </c>
       <c r="F2084" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2085" spans="1:6" x14ac:dyDescent="0.2">
@@ -60582,13 +60582,13 @@
         <v>62</v>
       </c>
       <c r="D2085" s="9">
-        <v>6067</v>
+        <v>7140.86</v>
       </c>
       <c r="E2085" s="2" t="s">
         <v>4349</v>
       </c>
       <c r="F2085" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2086" spans="1:6" x14ac:dyDescent="0.2">
@@ -60722,13 +60722,13 @@
         <v>8</v>
       </c>
       <c r="D2092" s="9">
-        <v>985.06</v>
+        <v>713.86</v>
       </c>
       <c r="E2092" s="2" t="s">
         <v>4373</v>
       </c>
       <c r="F2092" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2093" spans="1:6" x14ac:dyDescent="0.2">
@@ -63002,13 +63002,13 @@
         <v>8</v>
       </c>
       <c r="D2206" s="9">
-        <v>477.99</v>
+        <v>317.27999999999997</v>
       </c>
       <c r="E2206" s="2" t="s">
         <v>4627</v>
       </c>
       <c r="F2206" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2207" spans="1:6" x14ac:dyDescent="0.2">
@@ -63382,13 +63382,13 @@
         <v>8</v>
       </c>
       <c r="D2225" s="9">
-        <v>1488</v>
+        <v>1612</v>
       </c>
       <c r="E2225" s="2" t="s">
         <v>4667</v>
       </c>
       <c r="F2225" s="3">
-        <v>45432</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2226" spans="1:6" x14ac:dyDescent="0.2">
@@ -63502,13 +63502,13 @@
         <v>62</v>
       </c>
       <c r="D2231" s="9">
-        <v>3950.53</v>
+        <v>2788.22</v>
       </c>
       <c r="E2231" s="2" t="s">
         <v>4674</v>
       </c>
       <c r="F2231" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2232" spans="1:6" x14ac:dyDescent="0.2">
@@ -63782,13 +63782,13 @@
         <v>8</v>
       </c>
       <c r="D2245" s="9">
-        <v>671.24</v>
+        <v>292.86</v>
       </c>
       <c r="E2245" s="2" t="s">
         <v>4705</v>
       </c>
       <c r="F2245" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2246" spans="1:6" x14ac:dyDescent="0.2">
@@ -63802,13 +63802,13 @@
         <v>8</v>
       </c>
       <c r="D2246" s="9">
-        <v>772.15</v>
+        <v>427.1</v>
       </c>
       <c r="E2246" s="2" t="s">
         <v>4705</v>
       </c>
       <c r="F2246" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2247" spans="1:6" x14ac:dyDescent="0.2">
@@ -63882,13 +63882,13 @@
         <v>962</v>
       </c>
       <c r="D2250" s="9">
-        <v>44.01</v>
+        <v>35.4</v>
       </c>
       <c r="E2250" s="2" t="s">
         <v>4705</v>
       </c>
       <c r="F2250" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2251" spans="1:6" x14ac:dyDescent="0.2">
@@ -63902,13 +63902,13 @@
         <v>921</v>
       </c>
       <c r="D2251" s="9">
-        <v>209.54</v>
+        <v>213.56</v>
       </c>
       <c r="E2251" s="2" t="s">
         <v>4705</v>
       </c>
       <c r="F2251" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2252" spans="1:6" x14ac:dyDescent="0.2">
@@ -63922,13 +63922,13 @@
         <v>921</v>
       </c>
       <c r="D2252" s="9">
-        <v>315</v>
+        <v>292.86</v>
       </c>
       <c r="E2252" s="2" t="s">
         <v>4705</v>
       </c>
       <c r="F2252" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2253" spans="1:6" x14ac:dyDescent="0.2">
@@ -63962,13 +63962,13 @@
         <v>921</v>
       </c>
       <c r="D2254" s="9">
-        <v>245.98</v>
+        <v>119.6</v>
       </c>
       <c r="E2254" s="2" t="s">
         <v>4705</v>
       </c>
       <c r="F2254" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2255" spans="1:6" x14ac:dyDescent="0.2">
@@ -64022,13 +64022,13 @@
         <v>830</v>
       </c>
       <c r="D2257" s="9">
-        <v>1648.6</v>
+        <v>1342.26</v>
       </c>
       <c r="E2257" s="2" t="s">
         <v>4705</v>
       </c>
       <c r="F2257" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2258" spans="1:6" x14ac:dyDescent="0.2">
@@ -64042,13 +64042,13 @@
         <v>32</v>
       </c>
       <c r="D2258" s="9">
-        <v>2614.9299999999998</v>
+        <v>2318.42</v>
       </c>
       <c r="E2258" s="2" t="s">
         <v>4705</v>
       </c>
       <c r="F2258" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2259" spans="1:6" x14ac:dyDescent="0.2">
@@ -64082,13 +64082,13 @@
         <v>62</v>
       </c>
       <c r="D2260" s="9">
-        <v>4595.92</v>
+        <v>2407.7399999999998</v>
       </c>
       <c r="E2260" s="2" t="s">
         <v>4705</v>
       </c>
       <c r="F2260" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2261" spans="1:6" x14ac:dyDescent="0.2">
@@ -64162,13 +64162,13 @@
         <v>968</v>
       </c>
       <c r="D2264" s="9">
-        <v>5867.63</v>
+        <v>6714</v>
       </c>
       <c r="E2264" s="2" t="s">
         <v>4705</v>
       </c>
       <c r="F2264" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2265" spans="1:6" x14ac:dyDescent="0.2">
@@ -64182,13 +64182,13 @@
         <v>968</v>
       </c>
       <c r="D2265" s="9">
-        <v>3473.46</v>
+        <v>4760</v>
       </c>
       <c r="E2265" s="2" t="s">
         <v>4705</v>
       </c>
       <c r="F2265" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2266" spans="1:6" x14ac:dyDescent="0.2">
@@ -64202,13 +64202,13 @@
         <v>8</v>
       </c>
       <c r="D2266" s="9">
-        <v>972.47</v>
+        <v>671.14</v>
       </c>
       <c r="E2266" s="2" t="s">
         <v>4705</v>
       </c>
       <c r="F2266" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2267" spans="1:6" x14ac:dyDescent="0.2">
@@ -64222,13 +64222,13 @@
         <v>2241</v>
       </c>
       <c r="D2267" s="9">
-        <v>833.34</v>
+        <v>658.94</v>
       </c>
       <c r="E2267" s="2" t="s">
         <v>4705</v>
       </c>
       <c r="F2267" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2268" spans="1:6" x14ac:dyDescent="0.2">
@@ -64422,13 +64422,13 @@
         <v>8</v>
       </c>
       <c r="D2277" s="9">
-        <v>1163.82</v>
+        <v>970.08</v>
       </c>
       <c r="E2277" s="2" t="s">
         <v>4705</v>
       </c>
       <c r="F2277" s="3">
-        <v>45352</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2278" spans="1:6" x14ac:dyDescent="0.2">
@@ -64462,13 +64462,13 @@
         <v>8</v>
       </c>
       <c r="D2279" s="9">
-        <v>512.58000000000004</v>
+        <v>427.1</v>
       </c>
       <c r="E2279" s="2" t="s">
         <v>4705</v>
       </c>
       <c r="F2279" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2280" spans="1:6" x14ac:dyDescent="0.2">
@@ -64602,13 +64602,13 @@
         <v>8</v>
       </c>
       <c r="D2286" s="9">
-        <v>241.32</v>
+        <v>305.08</v>
       </c>
       <c r="E2286" s="2" t="s">
         <v>4705</v>
       </c>
       <c r="F2286" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2287" spans="1:6" x14ac:dyDescent="0.2">
@@ -64622,13 +64622,13 @@
         <v>8</v>
       </c>
       <c r="D2287" s="9">
-        <v>241.32</v>
+        <v>305.08</v>
       </c>
       <c r="E2287" s="2" t="s">
         <v>4705</v>
       </c>
       <c r="F2287" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2288" spans="1:6" x14ac:dyDescent="0.2">
@@ -64642,13 +64642,13 @@
         <v>8</v>
       </c>
       <c r="D2288" s="9">
-        <v>444.68</v>
+        <v>457.6</v>
       </c>
       <c r="E2288" s="2" t="s">
         <v>4705</v>
       </c>
       <c r="F2288" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2289" spans="1:6" x14ac:dyDescent="0.2">
@@ -65642,13 +65642,13 @@
         <v>62</v>
       </c>
       <c r="D2338" s="9">
-        <v>878.3</v>
+        <v>512.5</v>
       </c>
       <c r="E2338" s="2" t="s">
         <v>4876</v>
       </c>
       <c r="F2338" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2339" spans="1:6" x14ac:dyDescent="0.2">
@@ -67702,13 +67702,13 @@
         <v>62</v>
       </c>
       <c r="D2441" s="9">
-        <v>7259.92</v>
+        <v>6363.46</v>
       </c>
       <c r="E2441" s="2" t="s">
         <v>5118</v>
       </c>
       <c r="F2441" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2442" spans="1:6" x14ac:dyDescent="0.2">
@@ -67722,13 +67722,13 @@
         <v>62</v>
       </c>
       <c r="D2442" s="9">
-        <v>4738.34</v>
+        <v>3996.24</v>
       </c>
       <c r="E2442" s="2" t="s">
         <v>5118</v>
       </c>
       <c r="F2442" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2443" spans="1:6" x14ac:dyDescent="0.2">
@@ -67742,13 +67742,13 @@
         <v>62</v>
       </c>
       <c r="D2443" s="9">
-        <v>8179.9</v>
+        <v>6930.88</v>
       </c>
       <c r="E2443" s="2" t="s">
         <v>5118</v>
       </c>
       <c r="F2443" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2444" spans="1:6" x14ac:dyDescent="0.2">
@@ -67762,13 +67762,13 @@
         <v>62</v>
       </c>
       <c r="D2444" s="9">
-        <v>5202.3500000000004</v>
+        <v>4380.62</v>
       </c>
       <c r="E2444" s="2" t="s">
         <v>5118</v>
       </c>
       <c r="F2444" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2445" spans="1:6" x14ac:dyDescent="0.2">
@@ -67782,13 +67782,13 @@
         <v>62</v>
       </c>
       <c r="D2445" s="9">
-        <v>3905.46</v>
+        <v>3343.42</v>
       </c>
       <c r="E2445" s="2" t="s">
         <v>5118</v>
       </c>
       <c r="F2445" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2446" spans="1:6" x14ac:dyDescent="0.2">
@@ -68002,13 +68002,13 @@
         <v>921</v>
       </c>
       <c r="D2456" s="9">
-        <v>1199.9000000000001</v>
+        <v>1193.4000000000001</v>
       </c>
       <c r="E2456" s="2" t="s">
         <v>5152</v>
       </c>
       <c r="F2456" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2457" spans="1:6" x14ac:dyDescent="0.2">
@@ -68022,13 +68022,13 @@
         <v>921</v>
       </c>
       <c r="D2457" s="9">
-        <v>1199.9000000000001</v>
+        <v>1193.4000000000001</v>
       </c>
       <c r="E2457" s="2" t="s">
         <v>5152</v>
       </c>
       <c r="F2457" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2458" spans="1:6" x14ac:dyDescent="0.2">
@@ -68042,13 +68042,13 @@
         <v>921</v>
       </c>
       <c r="D2458" s="9">
-        <v>1199.9000000000001</v>
+        <v>1193.4000000000001</v>
       </c>
       <c r="E2458" s="2" t="s">
         <v>5152</v>
       </c>
       <c r="F2458" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2459" spans="1:6" x14ac:dyDescent="0.2">
@@ -69182,13 +69182,13 @@
         <v>62</v>
       </c>
       <c r="D2515" s="9">
-        <v>4212.9799999999996</v>
+        <v>4958.6400000000003</v>
       </c>
       <c r="E2515" s="2" t="s">
         <v>5277</v>
       </c>
       <c r="F2515" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2516" spans="1:6" x14ac:dyDescent="0.2">
@@ -69202,13 +69202,13 @@
         <v>62</v>
       </c>
       <c r="D2516" s="9">
-        <v>5728.04</v>
+        <v>6741.9</v>
       </c>
       <c r="E2516" s="2" t="s">
         <v>5277</v>
       </c>
       <c r="F2516" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2517" spans="1:6" x14ac:dyDescent="0.2">
@@ -69222,13 +69222,13 @@
         <v>62</v>
       </c>
       <c r="D2517" s="9">
-        <v>7482.52</v>
+        <v>8806.9</v>
       </c>
       <c r="E2517" s="2" t="s">
         <v>5277</v>
       </c>
       <c r="F2517" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2518" spans="1:6" x14ac:dyDescent="0.2">
@@ -69242,13 +69242,13 @@
         <v>62</v>
       </c>
       <c r="D2518" s="9">
-        <v>8718.2999999999993</v>
+        <v>10261.44</v>
       </c>
       <c r="E2518" s="2" t="s">
         <v>5277</v>
       </c>
       <c r="F2518" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2519" spans="1:6" x14ac:dyDescent="0.2">
@@ -69262,13 +69262,13 @@
         <v>62</v>
       </c>
       <c r="D2519" s="9">
-        <v>11708.7</v>
+        <v>13781.16</v>
       </c>
       <c r="E2519" s="2" t="s">
         <v>5277</v>
       </c>
       <c r="F2519" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2520" spans="1:6" x14ac:dyDescent="0.2">
@@ -69282,13 +69282,13 @@
         <v>62</v>
       </c>
       <c r="D2520" s="9">
-        <v>14951.58</v>
+        <v>17598.02</v>
       </c>
       <c r="E2520" s="2" t="s">
         <v>5277</v>
       </c>
       <c r="F2520" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2521" spans="1:6" x14ac:dyDescent="0.2">
@@ -69302,13 +69302,13 @@
         <v>62</v>
       </c>
       <c r="D2521" s="9">
-        <v>23430.68</v>
+        <v>27577.88</v>
       </c>
       <c r="E2521" s="2" t="s">
         <v>5277</v>
       </c>
       <c r="F2521" s="3">
-        <v>45419</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2522" spans="1:6" x14ac:dyDescent="0.2">
@@ -69862,13 +69862,13 @@
         <v>921</v>
       </c>
       <c r="D2549" s="9">
-        <v>179.86</v>
+        <v>237.96</v>
       </c>
       <c r="E2549" s="2" t="s">
         <v>5320</v>
       </c>
       <c r="F2549" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2550" spans="1:6" x14ac:dyDescent="0.2">
@@ -69882,13 +69882,13 @@
         <v>8</v>
       </c>
       <c r="D2550" s="9">
-        <v>591.79</v>
+        <v>475.92</v>
       </c>
       <c r="E2550" s="2" t="s">
         <v>5320</v>
       </c>
       <c r="F2550" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2551" spans="1:6" x14ac:dyDescent="0.2">
@@ -70602,13 +70602,13 @@
         <v>8</v>
       </c>
       <c r="D2586" s="9">
-        <v>2391.71</v>
+        <v>1899.9</v>
       </c>
       <c r="E2586" s="2" t="s">
         <v>5419</v>
       </c>
       <c r="F2586" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2587" spans="1:6" x14ac:dyDescent="0.2">
@@ -72382,13 +72382,13 @@
         <v>8</v>
       </c>
       <c r="D2675" s="9">
-        <v>235.28</v>
+        <v>156.22</v>
       </c>
       <c r="E2675" s="2" t="s">
         <v>5625</v>
       </c>
       <c r="F2675" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2676" spans="1:6" x14ac:dyDescent="0.2">
@@ -72402,13 +72402,13 @@
         <v>8</v>
       </c>
       <c r="D2676" s="9">
-        <v>238.68</v>
+        <v>156.22</v>
       </c>
       <c r="E2676" s="2" t="s">
         <v>5625</v>
       </c>
       <c r="F2676" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2677" spans="1:6" x14ac:dyDescent="0.2">
@@ -72442,13 +72442,13 @@
         <v>8</v>
       </c>
       <c r="D2678" s="9">
-        <v>775.74</v>
+        <v>353.88</v>
       </c>
       <c r="E2678" s="2" t="s">
         <v>5625</v>
       </c>
       <c r="F2678" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2679" spans="1:6" x14ac:dyDescent="0.2">
@@ -75260,13 +75260,13 @@
         <v>830</v>
       </c>
       <c r="D2819" s="9">
-        <v>8340</v>
+        <v>8720</v>
       </c>
       <c r="E2819" s="2" t="s">
         <v>5941</v>
       </c>
       <c r="F2819" s="3">
-        <v>45484</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2820" spans="1:6" x14ac:dyDescent="0.2">
@@ -76600,13 +76600,13 @@
         <v>8</v>
       </c>
       <c r="D2886" s="9">
-        <v>1926.95</v>
+        <v>1570.74</v>
       </c>
       <c r="E2886" s="2" t="s">
         <v>6082</v>
       </c>
       <c r="F2886" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2887" spans="1:6" x14ac:dyDescent="0.2">
@@ -76640,13 +76640,13 @@
         <v>62</v>
       </c>
       <c r="D2888" s="9">
-        <v>3911.16</v>
+        <v>3050.56</v>
       </c>
       <c r="E2888" s="2" t="s">
         <v>6082</v>
       </c>
       <c r="F2888" s="3">
-        <v>45408</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="2889" spans="1:6" x14ac:dyDescent="0.2">
@@ -77000,13 +77000,13 @@
         <v>2241</v>
       </c>
       <c r="D2906" s="9">
-        <v>1213.94</v>
+        <v>1365.84</v>
       </c>
       <c r="E2906" s="2" t="s">
         <v>6125</v>
       </c>
       <c r="F2906" s="3">
-        <v>45436</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2907" spans="1:6" x14ac:dyDescent="0.2">
@@ -77160,13 +77160,13 @@
         <v>921</v>
       </c>
       <c r="D2914" s="9">
-        <v>1963.88</v>
+        <v>2164.2800000000002</v>
       </c>
       <c r="E2914" s="2" t="s">
         <v>6125</v>
       </c>
       <c r="F2914" s="3">
-        <v>45349</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2915" spans="1:6" x14ac:dyDescent="0.2">
